--- a/cea/databases/SG/components/CONVERSION.xlsx
+++ b/cea/databases/SG/components/CONVERSION.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathiasniffeler/Documents/GitHub/CityEnergyAnalyst/cea/databases/SG/components/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF9DEBF-81E4-C747-8B6E-55CC1CFBE67E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F25FAA66-6915-6840-A1BC-3467CF0334EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="500" windowWidth="25600" windowHeight="15500" firstSheet="7" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" firstSheet="7" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PV" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,6 @@
     <sheet name="HP" sheetId="13" r:id="rId14"/>
     <sheet name="Pump" sheetId="14" r:id="rId15"/>
     <sheet name="TES" sheetId="15" r:id="rId16"/>
-    <sheet name="CTES" sheetId="20" r:id="rId17"/>
   </sheets>
   <definedNames>
     <definedName name="__xlfn_AGGREGATE">#N/A</definedName>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="166">
   <si>
     <t>Description</t>
   </si>
@@ -3450,8 +3449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:Z10"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4842,1410 +4841,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E382EC6-5C7D-684F-B235-12A184097464}">
-  <dimension ref="A1:Z10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="40.33203125" customWidth="1"/>
-    <col min="2" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5" customWidth="1"/>
-    <col min="7" max="7" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5" customWidth="1"/>
-    <col min="14" max="14" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.6640625" customWidth="1"/>
-    <col min="20" max="20" width="10.33203125" customWidth="1"/>
-    <col min="21" max="21" width="9.33203125" customWidth="1"/>
-    <col min="22" max="22" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="10.33203125" customWidth="1"/>
-    <col min="26" max="26" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="257" max="257" width="40.33203125" customWidth="1"/>
-    <col min="258" max="259" width="12.5" customWidth="1"/>
-    <col min="260" max="261" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="262" max="262" width="8.5" customWidth="1"/>
-    <col min="263" max="263" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="264" max="264" width="8.5" customWidth="1"/>
-    <col min="270" max="270" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="274" max="274" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="275" max="275" width="10.6640625" customWidth="1"/>
-    <col min="276" max="276" width="10.33203125" customWidth="1"/>
-    <col min="277" max="277" width="9.33203125" customWidth="1"/>
-    <col min="278" max="278" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="279" max="281" width="10.33203125" customWidth="1"/>
-    <col min="282" max="282" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="513" max="513" width="40.33203125" customWidth="1"/>
-    <col min="514" max="515" width="12.5" customWidth="1"/>
-    <col min="516" max="517" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="518" max="518" width="8.5" customWidth="1"/>
-    <col min="519" max="519" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="520" max="520" width="8.5" customWidth="1"/>
-    <col min="526" max="526" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="530" max="530" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="531" max="531" width="10.6640625" customWidth="1"/>
-    <col min="532" max="532" width="10.33203125" customWidth="1"/>
-    <col min="533" max="533" width="9.33203125" customWidth="1"/>
-    <col min="534" max="534" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="535" max="537" width="10.33203125" customWidth="1"/>
-    <col min="538" max="538" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="769" max="769" width="40.33203125" customWidth="1"/>
-    <col min="770" max="771" width="12.5" customWidth="1"/>
-    <col min="772" max="773" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="774" max="774" width="8.5" customWidth="1"/>
-    <col min="775" max="775" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="776" max="776" width="8.5" customWidth="1"/>
-    <col min="782" max="782" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="786" max="786" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="787" max="787" width="10.6640625" customWidth="1"/>
-    <col min="788" max="788" width="10.33203125" customWidth="1"/>
-    <col min="789" max="789" width="9.33203125" customWidth="1"/>
-    <col min="790" max="790" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="791" max="793" width="10.33203125" customWidth="1"/>
-    <col min="794" max="794" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="1025" max="1025" width="40.33203125" customWidth="1"/>
-    <col min="1026" max="1027" width="12.5" customWidth="1"/>
-    <col min="1028" max="1029" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="1030" max="1030" width="8.5" customWidth="1"/>
-    <col min="1031" max="1031" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="1032" max="1032" width="8.5" customWidth="1"/>
-    <col min="1038" max="1038" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="1042" max="1042" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="1043" max="1043" width="10.6640625" customWidth="1"/>
-    <col min="1044" max="1044" width="10.33203125" customWidth="1"/>
-    <col min="1045" max="1045" width="9.33203125" customWidth="1"/>
-    <col min="1046" max="1046" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="1047" max="1049" width="10.33203125" customWidth="1"/>
-    <col min="1050" max="1050" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="1281" max="1281" width="40.33203125" customWidth="1"/>
-    <col min="1282" max="1283" width="12.5" customWidth="1"/>
-    <col min="1284" max="1285" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="1286" max="1286" width="8.5" customWidth="1"/>
-    <col min="1287" max="1287" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="1288" max="1288" width="8.5" customWidth="1"/>
-    <col min="1294" max="1294" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="1298" max="1298" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="1299" max="1299" width="10.6640625" customWidth="1"/>
-    <col min="1300" max="1300" width="10.33203125" customWidth="1"/>
-    <col min="1301" max="1301" width="9.33203125" customWidth="1"/>
-    <col min="1302" max="1302" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="1303" max="1305" width="10.33203125" customWidth="1"/>
-    <col min="1306" max="1306" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="1537" max="1537" width="40.33203125" customWidth="1"/>
-    <col min="1538" max="1539" width="12.5" customWidth="1"/>
-    <col min="1540" max="1541" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="1542" max="1542" width="8.5" customWidth="1"/>
-    <col min="1543" max="1543" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="1544" max="1544" width="8.5" customWidth="1"/>
-    <col min="1550" max="1550" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="1554" max="1554" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="1555" max="1555" width="10.6640625" customWidth="1"/>
-    <col min="1556" max="1556" width="10.33203125" customWidth="1"/>
-    <col min="1557" max="1557" width="9.33203125" customWidth="1"/>
-    <col min="1558" max="1558" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="1559" max="1561" width="10.33203125" customWidth="1"/>
-    <col min="1562" max="1562" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="1793" max="1793" width="40.33203125" customWidth="1"/>
-    <col min="1794" max="1795" width="12.5" customWidth="1"/>
-    <col min="1796" max="1797" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="1798" max="1798" width="8.5" customWidth="1"/>
-    <col min="1799" max="1799" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="1800" max="1800" width="8.5" customWidth="1"/>
-    <col min="1806" max="1806" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="1810" max="1810" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="1811" max="1811" width="10.6640625" customWidth="1"/>
-    <col min="1812" max="1812" width="10.33203125" customWidth="1"/>
-    <col min="1813" max="1813" width="9.33203125" customWidth="1"/>
-    <col min="1814" max="1814" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="1815" max="1817" width="10.33203125" customWidth="1"/>
-    <col min="1818" max="1818" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="2049" max="2049" width="40.33203125" customWidth="1"/>
-    <col min="2050" max="2051" width="12.5" customWidth="1"/>
-    <col min="2052" max="2053" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2054" max="2054" width="8.5" customWidth="1"/>
-    <col min="2055" max="2055" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="2056" max="2056" width="8.5" customWidth="1"/>
-    <col min="2062" max="2062" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="2066" max="2066" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="2067" max="2067" width="10.6640625" customWidth="1"/>
-    <col min="2068" max="2068" width="10.33203125" customWidth="1"/>
-    <col min="2069" max="2069" width="9.33203125" customWidth="1"/>
-    <col min="2070" max="2070" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="2071" max="2073" width="10.33203125" customWidth="1"/>
-    <col min="2074" max="2074" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="2305" max="2305" width="40.33203125" customWidth="1"/>
-    <col min="2306" max="2307" width="12.5" customWidth="1"/>
-    <col min="2308" max="2309" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2310" max="2310" width="8.5" customWidth="1"/>
-    <col min="2311" max="2311" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="2312" max="2312" width="8.5" customWidth="1"/>
-    <col min="2318" max="2318" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="2322" max="2322" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="2323" max="2323" width="10.6640625" customWidth="1"/>
-    <col min="2324" max="2324" width="10.33203125" customWidth="1"/>
-    <col min="2325" max="2325" width="9.33203125" customWidth="1"/>
-    <col min="2326" max="2326" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="2327" max="2329" width="10.33203125" customWidth="1"/>
-    <col min="2330" max="2330" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="2561" max="2561" width="40.33203125" customWidth="1"/>
-    <col min="2562" max="2563" width="12.5" customWidth="1"/>
-    <col min="2564" max="2565" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2566" max="2566" width="8.5" customWidth="1"/>
-    <col min="2567" max="2567" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="2568" max="2568" width="8.5" customWidth="1"/>
-    <col min="2574" max="2574" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="2578" max="2578" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="2579" max="2579" width="10.6640625" customWidth="1"/>
-    <col min="2580" max="2580" width="10.33203125" customWidth="1"/>
-    <col min="2581" max="2581" width="9.33203125" customWidth="1"/>
-    <col min="2582" max="2582" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="2583" max="2585" width="10.33203125" customWidth="1"/>
-    <col min="2586" max="2586" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="2817" max="2817" width="40.33203125" customWidth="1"/>
-    <col min="2818" max="2819" width="12.5" customWidth="1"/>
-    <col min="2820" max="2821" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2822" max="2822" width="8.5" customWidth="1"/>
-    <col min="2823" max="2823" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="2824" max="2824" width="8.5" customWidth="1"/>
-    <col min="2830" max="2830" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="2834" max="2834" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="2835" max="2835" width="10.6640625" customWidth="1"/>
-    <col min="2836" max="2836" width="10.33203125" customWidth="1"/>
-    <col min="2837" max="2837" width="9.33203125" customWidth="1"/>
-    <col min="2838" max="2838" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="2839" max="2841" width="10.33203125" customWidth="1"/>
-    <col min="2842" max="2842" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="3073" max="3073" width="40.33203125" customWidth="1"/>
-    <col min="3074" max="3075" width="12.5" customWidth="1"/>
-    <col min="3076" max="3077" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="3078" max="3078" width="8.5" customWidth="1"/>
-    <col min="3079" max="3079" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="3080" max="3080" width="8.5" customWidth="1"/>
-    <col min="3086" max="3086" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="3090" max="3090" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="3091" max="3091" width="10.6640625" customWidth="1"/>
-    <col min="3092" max="3092" width="10.33203125" customWidth="1"/>
-    <col min="3093" max="3093" width="9.33203125" customWidth="1"/>
-    <col min="3094" max="3094" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="3095" max="3097" width="10.33203125" customWidth="1"/>
-    <col min="3098" max="3098" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="3329" max="3329" width="40.33203125" customWidth="1"/>
-    <col min="3330" max="3331" width="12.5" customWidth="1"/>
-    <col min="3332" max="3333" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="3334" max="3334" width="8.5" customWidth="1"/>
-    <col min="3335" max="3335" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="3336" max="3336" width="8.5" customWidth="1"/>
-    <col min="3342" max="3342" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="3346" max="3346" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="3347" max="3347" width="10.6640625" customWidth="1"/>
-    <col min="3348" max="3348" width="10.33203125" customWidth="1"/>
-    <col min="3349" max="3349" width="9.33203125" customWidth="1"/>
-    <col min="3350" max="3350" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="3351" max="3353" width="10.33203125" customWidth="1"/>
-    <col min="3354" max="3354" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="3585" max="3585" width="40.33203125" customWidth="1"/>
-    <col min="3586" max="3587" width="12.5" customWidth="1"/>
-    <col min="3588" max="3589" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="3590" max="3590" width="8.5" customWidth="1"/>
-    <col min="3591" max="3591" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="3592" max="3592" width="8.5" customWidth="1"/>
-    <col min="3598" max="3598" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="3602" max="3602" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="3603" max="3603" width="10.6640625" customWidth="1"/>
-    <col min="3604" max="3604" width="10.33203125" customWidth="1"/>
-    <col min="3605" max="3605" width="9.33203125" customWidth="1"/>
-    <col min="3606" max="3606" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="3607" max="3609" width="10.33203125" customWidth="1"/>
-    <col min="3610" max="3610" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="3841" max="3841" width="40.33203125" customWidth="1"/>
-    <col min="3842" max="3843" width="12.5" customWidth="1"/>
-    <col min="3844" max="3845" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="3846" max="3846" width="8.5" customWidth="1"/>
-    <col min="3847" max="3847" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="3848" max="3848" width="8.5" customWidth="1"/>
-    <col min="3854" max="3854" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="3858" max="3858" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="3859" max="3859" width="10.6640625" customWidth="1"/>
-    <col min="3860" max="3860" width="10.33203125" customWidth="1"/>
-    <col min="3861" max="3861" width="9.33203125" customWidth="1"/>
-    <col min="3862" max="3862" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="3863" max="3865" width="10.33203125" customWidth="1"/>
-    <col min="3866" max="3866" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="4097" max="4097" width="40.33203125" customWidth="1"/>
-    <col min="4098" max="4099" width="12.5" customWidth="1"/>
-    <col min="4100" max="4101" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="4102" max="4102" width="8.5" customWidth="1"/>
-    <col min="4103" max="4103" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="4104" max="4104" width="8.5" customWidth="1"/>
-    <col min="4110" max="4110" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="4114" max="4114" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="4115" max="4115" width="10.6640625" customWidth="1"/>
-    <col min="4116" max="4116" width="10.33203125" customWidth="1"/>
-    <col min="4117" max="4117" width="9.33203125" customWidth="1"/>
-    <col min="4118" max="4118" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="4119" max="4121" width="10.33203125" customWidth="1"/>
-    <col min="4122" max="4122" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="4353" max="4353" width="40.33203125" customWidth="1"/>
-    <col min="4354" max="4355" width="12.5" customWidth="1"/>
-    <col min="4356" max="4357" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="4358" max="4358" width="8.5" customWidth="1"/>
-    <col min="4359" max="4359" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="4360" max="4360" width="8.5" customWidth="1"/>
-    <col min="4366" max="4366" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="4370" max="4370" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="4371" max="4371" width="10.6640625" customWidth="1"/>
-    <col min="4372" max="4372" width="10.33203125" customWidth="1"/>
-    <col min="4373" max="4373" width="9.33203125" customWidth="1"/>
-    <col min="4374" max="4374" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="4375" max="4377" width="10.33203125" customWidth="1"/>
-    <col min="4378" max="4378" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="4609" max="4609" width="40.33203125" customWidth="1"/>
-    <col min="4610" max="4611" width="12.5" customWidth="1"/>
-    <col min="4612" max="4613" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="4614" max="4614" width="8.5" customWidth="1"/>
-    <col min="4615" max="4615" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="4616" max="4616" width="8.5" customWidth="1"/>
-    <col min="4622" max="4622" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="4626" max="4626" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="4627" max="4627" width="10.6640625" customWidth="1"/>
-    <col min="4628" max="4628" width="10.33203125" customWidth="1"/>
-    <col min="4629" max="4629" width="9.33203125" customWidth="1"/>
-    <col min="4630" max="4630" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="4631" max="4633" width="10.33203125" customWidth="1"/>
-    <col min="4634" max="4634" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="4865" max="4865" width="40.33203125" customWidth="1"/>
-    <col min="4866" max="4867" width="12.5" customWidth="1"/>
-    <col min="4868" max="4869" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="4870" max="4870" width="8.5" customWidth="1"/>
-    <col min="4871" max="4871" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="4872" max="4872" width="8.5" customWidth="1"/>
-    <col min="4878" max="4878" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="4882" max="4882" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="4883" max="4883" width="10.6640625" customWidth="1"/>
-    <col min="4884" max="4884" width="10.33203125" customWidth="1"/>
-    <col min="4885" max="4885" width="9.33203125" customWidth="1"/>
-    <col min="4886" max="4886" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="4887" max="4889" width="10.33203125" customWidth="1"/>
-    <col min="4890" max="4890" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="5121" max="5121" width="40.33203125" customWidth="1"/>
-    <col min="5122" max="5123" width="12.5" customWidth="1"/>
-    <col min="5124" max="5125" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5126" max="5126" width="8.5" customWidth="1"/>
-    <col min="5127" max="5127" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="5128" max="5128" width="8.5" customWidth="1"/>
-    <col min="5134" max="5134" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="5138" max="5138" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="5139" max="5139" width="10.6640625" customWidth="1"/>
-    <col min="5140" max="5140" width="10.33203125" customWidth="1"/>
-    <col min="5141" max="5141" width="9.33203125" customWidth="1"/>
-    <col min="5142" max="5142" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="5143" max="5145" width="10.33203125" customWidth="1"/>
-    <col min="5146" max="5146" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="5377" max="5377" width="40.33203125" customWidth="1"/>
-    <col min="5378" max="5379" width="12.5" customWidth="1"/>
-    <col min="5380" max="5381" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5382" max="5382" width="8.5" customWidth="1"/>
-    <col min="5383" max="5383" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="5384" max="5384" width="8.5" customWidth="1"/>
-    <col min="5390" max="5390" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="5394" max="5394" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="5395" max="5395" width="10.6640625" customWidth="1"/>
-    <col min="5396" max="5396" width="10.33203125" customWidth="1"/>
-    <col min="5397" max="5397" width="9.33203125" customWidth="1"/>
-    <col min="5398" max="5398" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="5399" max="5401" width="10.33203125" customWidth="1"/>
-    <col min="5402" max="5402" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="5633" max="5633" width="40.33203125" customWidth="1"/>
-    <col min="5634" max="5635" width="12.5" customWidth="1"/>
-    <col min="5636" max="5637" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5638" max="5638" width="8.5" customWidth="1"/>
-    <col min="5639" max="5639" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="5640" max="5640" width="8.5" customWidth="1"/>
-    <col min="5646" max="5646" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="5650" max="5650" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="5651" max="5651" width="10.6640625" customWidth="1"/>
-    <col min="5652" max="5652" width="10.33203125" customWidth="1"/>
-    <col min="5653" max="5653" width="9.33203125" customWidth="1"/>
-    <col min="5654" max="5654" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="5655" max="5657" width="10.33203125" customWidth="1"/>
-    <col min="5658" max="5658" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="5889" max="5889" width="40.33203125" customWidth="1"/>
-    <col min="5890" max="5891" width="12.5" customWidth="1"/>
-    <col min="5892" max="5893" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5894" max="5894" width="8.5" customWidth="1"/>
-    <col min="5895" max="5895" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="5896" max="5896" width="8.5" customWidth="1"/>
-    <col min="5902" max="5902" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="5906" max="5906" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="5907" max="5907" width="10.6640625" customWidth="1"/>
-    <col min="5908" max="5908" width="10.33203125" customWidth="1"/>
-    <col min="5909" max="5909" width="9.33203125" customWidth="1"/>
-    <col min="5910" max="5910" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="5911" max="5913" width="10.33203125" customWidth="1"/>
-    <col min="5914" max="5914" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="6145" max="6145" width="40.33203125" customWidth="1"/>
-    <col min="6146" max="6147" width="12.5" customWidth="1"/>
-    <col min="6148" max="6149" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6150" max="6150" width="8.5" customWidth="1"/>
-    <col min="6151" max="6151" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="6152" max="6152" width="8.5" customWidth="1"/>
-    <col min="6158" max="6158" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="6162" max="6162" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="6163" max="6163" width="10.6640625" customWidth="1"/>
-    <col min="6164" max="6164" width="10.33203125" customWidth="1"/>
-    <col min="6165" max="6165" width="9.33203125" customWidth="1"/>
-    <col min="6166" max="6166" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="6167" max="6169" width="10.33203125" customWidth="1"/>
-    <col min="6170" max="6170" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="6401" max="6401" width="40.33203125" customWidth="1"/>
-    <col min="6402" max="6403" width="12.5" customWidth="1"/>
-    <col min="6404" max="6405" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6406" max="6406" width="8.5" customWidth="1"/>
-    <col min="6407" max="6407" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="6408" max="6408" width="8.5" customWidth="1"/>
-    <col min="6414" max="6414" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="6418" max="6418" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="6419" max="6419" width="10.6640625" customWidth="1"/>
-    <col min="6420" max="6420" width="10.33203125" customWidth="1"/>
-    <col min="6421" max="6421" width="9.33203125" customWidth="1"/>
-    <col min="6422" max="6422" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="6423" max="6425" width="10.33203125" customWidth="1"/>
-    <col min="6426" max="6426" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="6657" max="6657" width="40.33203125" customWidth="1"/>
-    <col min="6658" max="6659" width="12.5" customWidth="1"/>
-    <col min="6660" max="6661" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6662" max="6662" width="8.5" customWidth="1"/>
-    <col min="6663" max="6663" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="6664" max="6664" width="8.5" customWidth="1"/>
-    <col min="6670" max="6670" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="6674" max="6674" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="6675" max="6675" width="10.6640625" customWidth="1"/>
-    <col min="6676" max="6676" width="10.33203125" customWidth="1"/>
-    <col min="6677" max="6677" width="9.33203125" customWidth="1"/>
-    <col min="6678" max="6678" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="6679" max="6681" width="10.33203125" customWidth="1"/>
-    <col min="6682" max="6682" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="6913" max="6913" width="40.33203125" customWidth="1"/>
-    <col min="6914" max="6915" width="12.5" customWidth="1"/>
-    <col min="6916" max="6917" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6918" max="6918" width="8.5" customWidth="1"/>
-    <col min="6919" max="6919" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="6920" max="6920" width="8.5" customWidth="1"/>
-    <col min="6926" max="6926" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="6930" max="6930" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="6931" max="6931" width="10.6640625" customWidth="1"/>
-    <col min="6932" max="6932" width="10.33203125" customWidth="1"/>
-    <col min="6933" max="6933" width="9.33203125" customWidth="1"/>
-    <col min="6934" max="6934" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="6935" max="6937" width="10.33203125" customWidth="1"/>
-    <col min="6938" max="6938" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="7169" max="7169" width="40.33203125" customWidth="1"/>
-    <col min="7170" max="7171" width="12.5" customWidth="1"/>
-    <col min="7172" max="7173" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="7174" max="7174" width="8.5" customWidth="1"/>
-    <col min="7175" max="7175" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="7176" max="7176" width="8.5" customWidth="1"/>
-    <col min="7182" max="7182" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="7186" max="7186" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="7187" max="7187" width="10.6640625" customWidth="1"/>
-    <col min="7188" max="7188" width="10.33203125" customWidth="1"/>
-    <col min="7189" max="7189" width="9.33203125" customWidth="1"/>
-    <col min="7190" max="7190" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="7191" max="7193" width="10.33203125" customWidth="1"/>
-    <col min="7194" max="7194" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="7425" max="7425" width="40.33203125" customWidth="1"/>
-    <col min="7426" max="7427" width="12.5" customWidth="1"/>
-    <col min="7428" max="7429" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="7430" max="7430" width="8.5" customWidth="1"/>
-    <col min="7431" max="7431" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="7432" max="7432" width="8.5" customWidth="1"/>
-    <col min="7438" max="7438" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="7442" max="7442" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="7443" max="7443" width="10.6640625" customWidth="1"/>
-    <col min="7444" max="7444" width="10.33203125" customWidth="1"/>
-    <col min="7445" max="7445" width="9.33203125" customWidth="1"/>
-    <col min="7446" max="7446" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="7447" max="7449" width="10.33203125" customWidth="1"/>
-    <col min="7450" max="7450" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="7681" max="7681" width="40.33203125" customWidth="1"/>
-    <col min="7682" max="7683" width="12.5" customWidth="1"/>
-    <col min="7684" max="7685" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="7686" max="7686" width="8.5" customWidth="1"/>
-    <col min="7687" max="7687" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="7688" max="7688" width="8.5" customWidth="1"/>
-    <col min="7694" max="7694" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="7698" max="7698" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="7699" max="7699" width="10.6640625" customWidth="1"/>
-    <col min="7700" max="7700" width="10.33203125" customWidth="1"/>
-    <col min="7701" max="7701" width="9.33203125" customWidth="1"/>
-    <col min="7702" max="7702" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="7703" max="7705" width="10.33203125" customWidth="1"/>
-    <col min="7706" max="7706" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="7937" max="7937" width="40.33203125" customWidth="1"/>
-    <col min="7938" max="7939" width="12.5" customWidth="1"/>
-    <col min="7940" max="7941" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="7942" max="7942" width="8.5" customWidth="1"/>
-    <col min="7943" max="7943" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="7944" max="7944" width="8.5" customWidth="1"/>
-    <col min="7950" max="7950" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="7954" max="7954" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="7955" max="7955" width="10.6640625" customWidth="1"/>
-    <col min="7956" max="7956" width="10.33203125" customWidth="1"/>
-    <col min="7957" max="7957" width="9.33203125" customWidth="1"/>
-    <col min="7958" max="7958" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="7959" max="7961" width="10.33203125" customWidth="1"/>
-    <col min="7962" max="7962" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="8193" max="8193" width="40.33203125" customWidth="1"/>
-    <col min="8194" max="8195" width="12.5" customWidth="1"/>
-    <col min="8196" max="8197" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="8198" max="8198" width="8.5" customWidth="1"/>
-    <col min="8199" max="8199" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="8200" max="8200" width="8.5" customWidth="1"/>
-    <col min="8206" max="8206" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="8210" max="8210" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="8211" max="8211" width="10.6640625" customWidth="1"/>
-    <col min="8212" max="8212" width="10.33203125" customWidth="1"/>
-    <col min="8213" max="8213" width="9.33203125" customWidth="1"/>
-    <col min="8214" max="8214" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="8215" max="8217" width="10.33203125" customWidth="1"/>
-    <col min="8218" max="8218" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="8449" max="8449" width="40.33203125" customWidth="1"/>
-    <col min="8450" max="8451" width="12.5" customWidth="1"/>
-    <col min="8452" max="8453" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="8454" max="8454" width="8.5" customWidth="1"/>
-    <col min="8455" max="8455" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="8456" max="8456" width="8.5" customWidth="1"/>
-    <col min="8462" max="8462" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="8466" max="8466" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="8467" max="8467" width="10.6640625" customWidth="1"/>
-    <col min="8468" max="8468" width="10.33203125" customWidth="1"/>
-    <col min="8469" max="8469" width="9.33203125" customWidth="1"/>
-    <col min="8470" max="8470" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="8471" max="8473" width="10.33203125" customWidth="1"/>
-    <col min="8474" max="8474" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="8705" max="8705" width="40.33203125" customWidth="1"/>
-    <col min="8706" max="8707" width="12.5" customWidth="1"/>
-    <col min="8708" max="8709" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="8710" max="8710" width="8.5" customWidth="1"/>
-    <col min="8711" max="8711" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="8712" max="8712" width="8.5" customWidth="1"/>
-    <col min="8718" max="8718" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="8722" max="8722" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="8723" max="8723" width="10.6640625" customWidth="1"/>
-    <col min="8724" max="8724" width="10.33203125" customWidth="1"/>
-    <col min="8725" max="8725" width="9.33203125" customWidth="1"/>
-    <col min="8726" max="8726" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="8727" max="8729" width="10.33203125" customWidth="1"/>
-    <col min="8730" max="8730" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="8961" max="8961" width="40.33203125" customWidth="1"/>
-    <col min="8962" max="8963" width="12.5" customWidth="1"/>
-    <col min="8964" max="8965" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="8966" max="8966" width="8.5" customWidth="1"/>
-    <col min="8967" max="8967" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="8968" max="8968" width="8.5" customWidth="1"/>
-    <col min="8974" max="8974" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="8978" max="8978" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="8979" max="8979" width="10.6640625" customWidth="1"/>
-    <col min="8980" max="8980" width="10.33203125" customWidth="1"/>
-    <col min="8981" max="8981" width="9.33203125" customWidth="1"/>
-    <col min="8982" max="8982" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="8983" max="8985" width="10.33203125" customWidth="1"/>
-    <col min="8986" max="8986" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="9217" max="9217" width="40.33203125" customWidth="1"/>
-    <col min="9218" max="9219" width="12.5" customWidth="1"/>
-    <col min="9220" max="9221" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="9222" max="9222" width="8.5" customWidth="1"/>
-    <col min="9223" max="9223" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="9224" max="9224" width="8.5" customWidth="1"/>
-    <col min="9230" max="9230" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="9234" max="9234" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="9235" max="9235" width="10.6640625" customWidth="1"/>
-    <col min="9236" max="9236" width="10.33203125" customWidth="1"/>
-    <col min="9237" max="9237" width="9.33203125" customWidth="1"/>
-    <col min="9238" max="9238" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="9239" max="9241" width="10.33203125" customWidth="1"/>
-    <col min="9242" max="9242" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="9473" max="9473" width="40.33203125" customWidth="1"/>
-    <col min="9474" max="9475" width="12.5" customWidth="1"/>
-    <col min="9476" max="9477" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="9478" max="9478" width="8.5" customWidth="1"/>
-    <col min="9479" max="9479" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="9480" max="9480" width="8.5" customWidth="1"/>
-    <col min="9486" max="9486" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="9490" max="9490" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="9491" max="9491" width="10.6640625" customWidth="1"/>
-    <col min="9492" max="9492" width="10.33203125" customWidth="1"/>
-    <col min="9493" max="9493" width="9.33203125" customWidth="1"/>
-    <col min="9494" max="9494" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="9495" max="9497" width="10.33203125" customWidth="1"/>
-    <col min="9498" max="9498" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="9729" max="9729" width="40.33203125" customWidth="1"/>
-    <col min="9730" max="9731" width="12.5" customWidth="1"/>
-    <col min="9732" max="9733" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="9734" max="9734" width="8.5" customWidth="1"/>
-    <col min="9735" max="9735" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="9736" max="9736" width="8.5" customWidth="1"/>
-    <col min="9742" max="9742" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="9746" max="9746" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="9747" max="9747" width="10.6640625" customWidth="1"/>
-    <col min="9748" max="9748" width="10.33203125" customWidth="1"/>
-    <col min="9749" max="9749" width="9.33203125" customWidth="1"/>
-    <col min="9750" max="9750" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="9751" max="9753" width="10.33203125" customWidth="1"/>
-    <col min="9754" max="9754" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="9985" max="9985" width="40.33203125" customWidth="1"/>
-    <col min="9986" max="9987" width="12.5" customWidth="1"/>
-    <col min="9988" max="9989" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="9990" max="9990" width="8.5" customWidth="1"/>
-    <col min="9991" max="9991" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="9992" max="9992" width="8.5" customWidth="1"/>
-    <col min="9998" max="9998" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="10002" max="10002" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="10003" max="10003" width="10.6640625" customWidth="1"/>
-    <col min="10004" max="10004" width="10.33203125" customWidth="1"/>
-    <col min="10005" max="10005" width="9.33203125" customWidth="1"/>
-    <col min="10006" max="10006" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="10007" max="10009" width="10.33203125" customWidth="1"/>
-    <col min="10010" max="10010" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="10241" max="10241" width="40.33203125" customWidth="1"/>
-    <col min="10242" max="10243" width="12.5" customWidth="1"/>
-    <col min="10244" max="10245" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="10246" max="10246" width="8.5" customWidth="1"/>
-    <col min="10247" max="10247" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="10248" max="10248" width="8.5" customWidth="1"/>
-    <col min="10254" max="10254" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="10258" max="10258" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="10259" max="10259" width="10.6640625" customWidth="1"/>
-    <col min="10260" max="10260" width="10.33203125" customWidth="1"/>
-    <col min="10261" max="10261" width="9.33203125" customWidth="1"/>
-    <col min="10262" max="10262" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="10263" max="10265" width="10.33203125" customWidth="1"/>
-    <col min="10266" max="10266" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="10497" max="10497" width="40.33203125" customWidth="1"/>
-    <col min="10498" max="10499" width="12.5" customWidth="1"/>
-    <col min="10500" max="10501" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="10502" max="10502" width="8.5" customWidth="1"/>
-    <col min="10503" max="10503" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="10504" max="10504" width="8.5" customWidth="1"/>
-    <col min="10510" max="10510" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="10514" max="10514" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="10515" max="10515" width="10.6640625" customWidth="1"/>
-    <col min="10516" max="10516" width="10.33203125" customWidth="1"/>
-    <col min="10517" max="10517" width="9.33203125" customWidth="1"/>
-    <col min="10518" max="10518" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="10519" max="10521" width="10.33203125" customWidth="1"/>
-    <col min="10522" max="10522" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="10753" max="10753" width="40.33203125" customWidth="1"/>
-    <col min="10754" max="10755" width="12.5" customWidth="1"/>
-    <col min="10756" max="10757" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="10758" max="10758" width="8.5" customWidth="1"/>
-    <col min="10759" max="10759" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="10760" max="10760" width="8.5" customWidth="1"/>
-    <col min="10766" max="10766" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="10770" max="10770" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="10771" max="10771" width="10.6640625" customWidth="1"/>
-    <col min="10772" max="10772" width="10.33203125" customWidth="1"/>
-    <col min="10773" max="10773" width="9.33203125" customWidth="1"/>
-    <col min="10774" max="10774" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="10775" max="10777" width="10.33203125" customWidth="1"/>
-    <col min="10778" max="10778" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="11009" max="11009" width="40.33203125" customWidth="1"/>
-    <col min="11010" max="11011" width="12.5" customWidth="1"/>
-    <col min="11012" max="11013" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="11014" max="11014" width="8.5" customWidth="1"/>
-    <col min="11015" max="11015" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="11016" max="11016" width="8.5" customWidth="1"/>
-    <col min="11022" max="11022" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="11026" max="11026" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="11027" max="11027" width="10.6640625" customWidth="1"/>
-    <col min="11028" max="11028" width="10.33203125" customWidth="1"/>
-    <col min="11029" max="11029" width="9.33203125" customWidth="1"/>
-    <col min="11030" max="11030" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="11031" max="11033" width="10.33203125" customWidth="1"/>
-    <col min="11034" max="11034" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="11265" max="11265" width="40.33203125" customWidth="1"/>
-    <col min="11266" max="11267" width="12.5" customWidth="1"/>
-    <col min="11268" max="11269" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="11270" max="11270" width="8.5" customWidth="1"/>
-    <col min="11271" max="11271" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="11272" max="11272" width="8.5" customWidth="1"/>
-    <col min="11278" max="11278" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="11282" max="11282" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="11283" max="11283" width="10.6640625" customWidth="1"/>
-    <col min="11284" max="11284" width="10.33203125" customWidth="1"/>
-    <col min="11285" max="11285" width="9.33203125" customWidth="1"/>
-    <col min="11286" max="11286" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="11287" max="11289" width="10.33203125" customWidth="1"/>
-    <col min="11290" max="11290" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="11521" max="11521" width="40.33203125" customWidth="1"/>
-    <col min="11522" max="11523" width="12.5" customWidth="1"/>
-    <col min="11524" max="11525" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="11526" max="11526" width="8.5" customWidth="1"/>
-    <col min="11527" max="11527" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="11528" max="11528" width="8.5" customWidth="1"/>
-    <col min="11534" max="11534" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="11538" max="11538" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="11539" max="11539" width="10.6640625" customWidth="1"/>
-    <col min="11540" max="11540" width="10.33203125" customWidth="1"/>
-    <col min="11541" max="11541" width="9.33203125" customWidth="1"/>
-    <col min="11542" max="11542" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="11543" max="11545" width="10.33203125" customWidth="1"/>
-    <col min="11546" max="11546" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="11777" max="11777" width="40.33203125" customWidth="1"/>
-    <col min="11778" max="11779" width="12.5" customWidth="1"/>
-    <col min="11780" max="11781" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="11782" max="11782" width="8.5" customWidth="1"/>
-    <col min="11783" max="11783" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="11784" max="11784" width="8.5" customWidth="1"/>
-    <col min="11790" max="11790" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="11794" max="11794" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="11795" max="11795" width="10.6640625" customWidth="1"/>
-    <col min="11796" max="11796" width="10.33203125" customWidth="1"/>
-    <col min="11797" max="11797" width="9.33203125" customWidth="1"/>
-    <col min="11798" max="11798" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="11799" max="11801" width="10.33203125" customWidth="1"/>
-    <col min="11802" max="11802" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="12033" max="12033" width="40.33203125" customWidth="1"/>
-    <col min="12034" max="12035" width="12.5" customWidth="1"/>
-    <col min="12036" max="12037" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="12038" max="12038" width="8.5" customWidth="1"/>
-    <col min="12039" max="12039" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="12040" max="12040" width="8.5" customWidth="1"/>
-    <col min="12046" max="12046" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="12050" max="12050" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="12051" max="12051" width="10.6640625" customWidth="1"/>
-    <col min="12052" max="12052" width="10.33203125" customWidth="1"/>
-    <col min="12053" max="12053" width="9.33203125" customWidth="1"/>
-    <col min="12054" max="12054" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="12055" max="12057" width="10.33203125" customWidth="1"/>
-    <col min="12058" max="12058" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="12289" max="12289" width="40.33203125" customWidth="1"/>
-    <col min="12290" max="12291" width="12.5" customWidth="1"/>
-    <col min="12292" max="12293" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="12294" max="12294" width="8.5" customWidth="1"/>
-    <col min="12295" max="12295" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="12296" max="12296" width="8.5" customWidth="1"/>
-    <col min="12302" max="12302" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="12306" max="12306" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="12307" max="12307" width="10.6640625" customWidth="1"/>
-    <col min="12308" max="12308" width="10.33203125" customWidth="1"/>
-    <col min="12309" max="12309" width="9.33203125" customWidth="1"/>
-    <col min="12310" max="12310" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="12311" max="12313" width="10.33203125" customWidth="1"/>
-    <col min="12314" max="12314" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="12545" max="12545" width="40.33203125" customWidth="1"/>
-    <col min="12546" max="12547" width="12.5" customWidth="1"/>
-    <col min="12548" max="12549" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="12550" max="12550" width="8.5" customWidth="1"/>
-    <col min="12551" max="12551" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="12552" max="12552" width="8.5" customWidth="1"/>
-    <col min="12558" max="12558" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="12562" max="12562" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="12563" max="12563" width="10.6640625" customWidth="1"/>
-    <col min="12564" max="12564" width="10.33203125" customWidth="1"/>
-    <col min="12565" max="12565" width="9.33203125" customWidth="1"/>
-    <col min="12566" max="12566" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="12567" max="12569" width="10.33203125" customWidth="1"/>
-    <col min="12570" max="12570" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="12801" max="12801" width="40.33203125" customWidth="1"/>
-    <col min="12802" max="12803" width="12.5" customWidth="1"/>
-    <col min="12804" max="12805" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="12806" max="12806" width="8.5" customWidth="1"/>
-    <col min="12807" max="12807" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="12808" max="12808" width="8.5" customWidth="1"/>
-    <col min="12814" max="12814" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="12818" max="12818" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="12819" max="12819" width="10.6640625" customWidth="1"/>
-    <col min="12820" max="12820" width="10.33203125" customWidth="1"/>
-    <col min="12821" max="12821" width="9.33203125" customWidth="1"/>
-    <col min="12822" max="12822" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="12823" max="12825" width="10.33203125" customWidth="1"/>
-    <col min="12826" max="12826" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="13057" max="13057" width="40.33203125" customWidth="1"/>
-    <col min="13058" max="13059" width="12.5" customWidth="1"/>
-    <col min="13060" max="13061" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="13062" max="13062" width="8.5" customWidth="1"/>
-    <col min="13063" max="13063" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="13064" max="13064" width="8.5" customWidth="1"/>
-    <col min="13070" max="13070" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="13074" max="13074" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="13075" max="13075" width="10.6640625" customWidth="1"/>
-    <col min="13076" max="13076" width="10.33203125" customWidth="1"/>
-    <col min="13077" max="13077" width="9.33203125" customWidth="1"/>
-    <col min="13078" max="13078" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="13079" max="13081" width="10.33203125" customWidth="1"/>
-    <col min="13082" max="13082" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="13313" max="13313" width="40.33203125" customWidth="1"/>
-    <col min="13314" max="13315" width="12.5" customWidth="1"/>
-    <col min="13316" max="13317" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="13318" max="13318" width="8.5" customWidth="1"/>
-    <col min="13319" max="13319" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="13320" max="13320" width="8.5" customWidth="1"/>
-    <col min="13326" max="13326" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="13330" max="13330" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="13331" max="13331" width="10.6640625" customWidth="1"/>
-    <col min="13332" max="13332" width="10.33203125" customWidth="1"/>
-    <col min="13333" max="13333" width="9.33203125" customWidth="1"/>
-    <col min="13334" max="13334" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="13335" max="13337" width="10.33203125" customWidth="1"/>
-    <col min="13338" max="13338" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="13569" max="13569" width="40.33203125" customWidth="1"/>
-    <col min="13570" max="13571" width="12.5" customWidth="1"/>
-    <col min="13572" max="13573" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="13574" max="13574" width="8.5" customWidth="1"/>
-    <col min="13575" max="13575" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="13576" max="13576" width="8.5" customWidth="1"/>
-    <col min="13582" max="13582" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="13586" max="13586" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="13587" max="13587" width="10.6640625" customWidth="1"/>
-    <col min="13588" max="13588" width="10.33203125" customWidth="1"/>
-    <col min="13589" max="13589" width="9.33203125" customWidth="1"/>
-    <col min="13590" max="13590" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="13591" max="13593" width="10.33203125" customWidth="1"/>
-    <col min="13594" max="13594" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="13825" max="13825" width="40.33203125" customWidth="1"/>
-    <col min="13826" max="13827" width="12.5" customWidth="1"/>
-    <col min="13828" max="13829" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="13830" max="13830" width="8.5" customWidth="1"/>
-    <col min="13831" max="13831" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="13832" max="13832" width="8.5" customWidth="1"/>
-    <col min="13838" max="13838" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="13842" max="13842" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="13843" max="13843" width="10.6640625" customWidth="1"/>
-    <col min="13844" max="13844" width="10.33203125" customWidth="1"/>
-    <col min="13845" max="13845" width="9.33203125" customWidth="1"/>
-    <col min="13846" max="13846" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="13847" max="13849" width="10.33203125" customWidth="1"/>
-    <col min="13850" max="13850" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="14081" max="14081" width="40.33203125" customWidth="1"/>
-    <col min="14082" max="14083" width="12.5" customWidth="1"/>
-    <col min="14084" max="14085" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="14086" max="14086" width="8.5" customWidth="1"/>
-    <col min="14087" max="14087" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="14088" max="14088" width="8.5" customWidth="1"/>
-    <col min="14094" max="14094" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="14098" max="14098" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="14099" max="14099" width="10.6640625" customWidth="1"/>
-    <col min="14100" max="14100" width="10.33203125" customWidth="1"/>
-    <col min="14101" max="14101" width="9.33203125" customWidth="1"/>
-    <col min="14102" max="14102" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="14103" max="14105" width="10.33203125" customWidth="1"/>
-    <col min="14106" max="14106" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="14337" max="14337" width="40.33203125" customWidth="1"/>
-    <col min="14338" max="14339" width="12.5" customWidth="1"/>
-    <col min="14340" max="14341" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="14342" max="14342" width="8.5" customWidth="1"/>
-    <col min="14343" max="14343" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="14344" max="14344" width="8.5" customWidth="1"/>
-    <col min="14350" max="14350" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="14354" max="14354" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="14355" max="14355" width="10.6640625" customWidth="1"/>
-    <col min="14356" max="14356" width="10.33203125" customWidth="1"/>
-    <col min="14357" max="14357" width="9.33203125" customWidth="1"/>
-    <col min="14358" max="14358" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="14359" max="14361" width="10.33203125" customWidth="1"/>
-    <col min="14362" max="14362" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="14593" max="14593" width="40.33203125" customWidth="1"/>
-    <col min="14594" max="14595" width="12.5" customWidth="1"/>
-    <col min="14596" max="14597" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="14598" max="14598" width="8.5" customWidth="1"/>
-    <col min="14599" max="14599" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="14600" max="14600" width="8.5" customWidth="1"/>
-    <col min="14606" max="14606" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="14610" max="14610" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="14611" max="14611" width="10.6640625" customWidth="1"/>
-    <col min="14612" max="14612" width="10.33203125" customWidth="1"/>
-    <col min="14613" max="14613" width="9.33203125" customWidth="1"/>
-    <col min="14614" max="14614" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="14615" max="14617" width="10.33203125" customWidth="1"/>
-    <col min="14618" max="14618" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="14849" max="14849" width="40.33203125" customWidth="1"/>
-    <col min="14850" max="14851" width="12.5" customWidth="1"/>
-    <col min="14852" max="14853" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="14854" max="14854" width="8.5" customWidth="1"/>
-    <col min="14855" max="14855" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="14856" max="14856" width="8.5" customWidth="1"/>
-    <col min="14862" max="14862" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="14866" max="14866" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="14867" max="14867" width="10.6640625" customWidth="1"/>
-    <col min="14868" max="14868" width="10.33203125" customWidth="1"/>
-    <col min="14869" max="14869" width="9.33203125" customWidth="1"/>
-    <col min="14870" max="14870" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="14871" max="14873" width="10.33203125" customWidth="1"/>
-    <col min="14874" max="14874" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="15105" max="15105" width="40.33203125" customWidth="1"/>
-    <col min="15106" max="15107" width="12.5" customWidth="1"/>
-    <col min="15108" max="15109" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="15110" max="15110" width="8.5" customWidth="1"/>
-    <col min="15111" max="15111" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="15112" max="15112" width="8.5" customWidth="1"/>
-    <col min="15118" max="15118" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="15122" max="15122" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="15123" max="15123" width="10.6640625" customWidth="1"/>
-    <col min="15124" max="15124" width="10.33203125" customWidth="1"/>
-    <col min="15125" max="15125" width="9.33203125" customWidth="1"/>
-    <col min="15126" max="15126" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="15127" max="15129" width="10.33203125" customWidth="1"/>
-    <col min="15130" max="15130" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="15361" max="15361" width="40.33203125" customWidth="1"/>
-    <col min="15362" max="15363" width="12.5" customWidth="1"/>
-    <col min="15364" max="15365" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="15366" max="15366" width="8.5" customWidth="1"/>
-    <col min="15367" max="15367" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="15368" max="15368" width="8.5" customWidth="1"/>
-    <col min="15374" max="15374" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="15378" max="15378" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="15379" max="15379" width="10.6640625" customWidth="1"/>
-    <col min="15380" max="15380" width="10.33203125" customWidth="1"/>
-    <col min="15381" max="15381" width="9.33203125" customWidth="1"/>
-    <col min="15382" max="15382" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="15383" max="15385" width="10.33203125" customWidth="1"/>
-    <col min="15386" max="15386" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="15617" max="15617" width="40.33203125" customWidth="1"/>
-    <col min="15618" max="15619" width="12.5" customWidth="1"/>
-    <col min="15620" max="15621" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="15622" max="15622" width="8.5" customWidth="1"/>
-    <col min="15623" max="15623" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="15624" max="15624" width="8.5" customWidth="1"/>
-    <col min="15630" max="15630" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="15634" max="15634" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="15635" max="15635" width="10.6640625" customWidth="1"/>
-    <col min="15636" max="15636" width="10.33203125" customWidth="1"/>
-    <col min="15637" max="15637" width="9.33203125" customWidth="1"/>
-    <col min="15638" max="15638" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="15639" max="15641" width="10.33203125" customWidth="1"/>
-    <col min="15642" max="15642" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="15873" max="15873" width="40.33203125" customWidth="1"/>
-    <col min="15874" max="15875" width="12.5" customWidth="1"/>
-    <col min="15876" max="15877" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="15878" max="15878" width="8.5" customWidth="1"/>
-    <col min="15879" max="15879" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="15880" max="15880" width="8.5" customWidth="1"/>
-    <col min="15886" max="15886" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="15890" max="15890" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="15891" max="15891" width="10.6640625" customWidth="1"/>
-    <col min="15892" max="15892" width="10.33203125" customWidth="1"/>
-    <col min="15893" max="15893" width="9.33203125" customWidth="1"/>
-    <col min="15894" max="15894" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="15895" max="15897" width="10.33203125" customWidth="1"/>
-    <col min="15898" max="15898" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="16129" max="16129" width="40.33203125" customWidth="1"/>
-    <col min="16130" max="16131" width="12.5" customWidth="1"/>
-    <col min="16132" max="16133" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="16134" max="16134" width="8.5" customWidth="1"/>
-    <col min="16135" max="16135" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="16136" max="16136" width="8.5" customWidth="1"/>
-    <col min="16142" max="16142" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="16146" max="16146" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="16147" max="16147" width="10.6640625" customWidth="1"/>
-    <col min="16148" max="16148" width="10.33203125" customWidth="1"/>
-    <col min="16149" max="16149" width="9.33203125" customWidth="1"/>
-    <col min="16150" max="16150" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="16151" max="16153" width="10.33203125" customWidth="1"/>
-    <col min="16154" max="16154" width="19.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4">
-        <v>10000000000</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2">
-        <v>108</v>
-      </c>
-      <c r="J2" s="2">
-        <v>1</v>
-      </c>
-      <c r="K2" s="2">
-        <v>0</v>
-      </c>
-      <c r="L2" s="2">
-        <v>0</v>
-      </c>
-      <c r="M2" s="2">
-        <v>25</v>
-      </c>
-      <c r="N2" s="2">
-        <v>25</v>
-      </c>
-      <c r="O2" s="2">
-        <v>2</v>
-      </c>
-      <c r="P2" s="2">
-        <v>6</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>0</v>
-      </c>
-      <c r="R2" s="2">
-        <v>0</v>
-      </c>
-      <c r="S2" s="2">
-        <v>4</v>
-      </c>
-      <c r="T2" s="2">
-        <v>13</v>
-      </c>
-      <c r="U2" s="2">
-        <v>0</v>
-      </c>
-      <c r="V2" s="2">
-        <v>997</v>
-      </c>
-      <c r="W2" s="2">
-        <v>4.1900000000000004</v>
-      </c>
-      <c r="X2" s="2">
-        <v>0.98</v>
-      </c>
-      <c r="Y2" s="2">
-        <v>0.96</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4">
-        <v>10000000000</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2">
-        <v>117.9</v>
-      </c>
-      <c r="J3" s="2">
-        <v>1</v>
-      </c>
-      <c r="K3" s="2">
-        <v>0</v>
-      </c>
-      <c r="L3" s="2">
-        <v>0</v>
-      </c>
-      <c r="M3" s="2">
-        <v>25</v>
-      </c>
-      <c r="N3" s="2">
-        <v>25</v>
-      </c>
-      <c r="O3" s="2">
-        <v>2</v>
-      </c>
-      <c r="P3" s="2">
-        <v>6</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>4.8</v>
-      </c>
-      <c r="R3" s="2">
-        <v>0</v>
-      </c>
-      <c r="S3" s="2">
-        <f>+R3-0.5</f>
-        <v>-0.5</v>
-      </c>
-      <c r="T3" s="2">
-        <f>+R3+0.5</f>
-        <v>0.5</v>
-      </c>
-      <c r="U3" s="2">
-        <v>334</v>
-      </c>
-      <c r="V3" s="2">
-        <v>917</v>
-      </c>
-      <c r="W3" s="2">
-        <v>2.11</v>
-      </c>
-      <c r="X3" s="2">
-        <v>0.98</v>
-      </c>
-      <c r="Y3" s="2">
-        <v>0.96</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4">
-        <v>10000000000</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2">
-        <v>117.9</v>
-      </c>
-      <c r="J4" s="2">
-        <v>1</v>
-      </c>
-      <c r="K4" s="2">
-        <v>0</v>
-      </c>
-      <c r="L4" s="2">
-        <v>0</v>
-      </c>
-      <c r="M4" s="2">
-        <v>25</v>
-      </c>
-      <c r="N4" s="2">
-        <v>7</v>
-      </c>
-      <c r="O4" s="2">
-        <v>2</v>
-      </c>
-      <c r="P4" s="2">
-        <v>6</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>4.8</v>
-      </c>
-      <c r="R4" s="2">
-        <v>4</v>
-      </c>
-      <c r="S4" s="2">
-        <f>+R4-0.5</f>
-        <v>3.5</v>
-      </c>
-      <c r="T4" s="2">
-        <f>+R4+0.5</f>
-        <v>4.5</v>
-      </c>
-      <c r="U4" s="2">
-        <v>234</v>
-      </c>
-      <c r="V4" s="2">
-        <v>1600</v>
-      </c>
-      <c r="W4" s="2">
-        <v>2</v>
-      </c>
-      <c r="X4" s="2">
-        <v>0.98</v>
-      </c>
-      <c r="Y4" s="2">
-        <v>0.96</v>
-      </c>
-      <c r="Z4" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4">
-        <v>10000000000</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2">
-        <v>156.30000000000001</v>
-      </c>
-      <c r="J5" s="2">
-        <v>1</v>
-      </c>
-      <c r="K5" s="2">
-        <v>0</v>
-      </c>
-      <c r="L5" s="2">
-        <v>0</v>
-      </c>
-      <c r="M5" s="2">
-        <v>25</v>
-      </c>
-      <c r="N5" s="2">
-        <v>7</v>
-      </c>
-      <c r="O5" s="2">
-        <v>2</v>
-      </c>
-      <c r="P5" s="2">
-        <v>6</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>27.3</v>
-      </c>
-      <c r="R5" s="2">
-        <v>5.4</v>
-      </c>
-      <c r="S5" s="2">
-        <f>+R5-0.5</f>
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="T5" s="2">
-        <f>+R5+0.5</f>
-        <v>5.9</v>
-      </c>
-      <c r="U5" s="2">
-        <v>105</v>
-      </c>
-      <c r="V5" s="2">
-        <v>1125</v>
-      </c>
-      <c r="W5" s="2">
-        <v>2.09</v>
-      </c>
-      <c r="X5" s="2">
-        <v>0.98</v>
-      </c>
-      <c r="Y5" s="2">
-        <v>0.96</v>
-      </c>
-      <c r="Z5" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4">
-        <v>10000000000</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2">
-        <v>141.5</v>
-      </c>
-      <c r="J6" s="2">
-        <v>1</v>
-      </c>
-      <c r="K6" s="2">
-        <v>0</v>
-      </c>
-      <c r="L6" s="2">
-        <v>0</v>
-      </c>
-      <c r="M6" s="2">
-        <v>25</v>
-      </c>
-      <c r="N6" s="2">
-        <v>7</v>
-      </c>
-      <c r="O6" s="2">
-        <v>2</v>
-      </c>
-      <c r="P6" s="2">
-        <v>6</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>19.7</v>
-      </c>
-      <c r="R6" s="2">
-        <v>5</v>
-      </c>
-      <c r="S6" s="2">
-        <f>+R6-0.5</f>
-        <v>4.5</v>
-      </c>
-      <c r="T6" s="2">
-        <f>+R6+0.5</f>
-        <v>5.5</v>
-      </c>
-      <c r="U6" s="2">
-        <v>230</v>
-      </c>
-      <c r="V6" s="2">
-        <v>760</v>
-      </c>
-      <c r="W6" s="2">
-        <v>2.14</v>
-      </c>
-      <c r="X6" s="2">
-        <v>0.98</v>
-      </c>
-      <c r="Y6" s="2">
-        <v>0.96</v>
-      </c>
-      <c r="Z6" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="G10" s="22"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AG3"/>

--- a/cea/databases/SG/components/CONVERSION.xlsx
+++ b/cea/databases/SG/components/CONVERSION.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathiasniffeler/Documents/GitHub/CityEnergyAnalyst/cea/databases/SG/components/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F25FAA66-6915-6840-A1BC-3467CF0334EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{594F4091-E3BA-CE4D-B635-A0B08074F2D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" firstSheet="7" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19640" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PV" sheetId="3" r:id="rId1"/>
@@ -20,15 +20,14 @@
     <sheet name="Furnace" sheetId="9" r:id="rId5"/>
     <sheet name="FC" sheetId="8" r:id="rId6"/>
     <sheet name="CCGT" sheetId="7" r:id="rId7"/>
-    <sheet name="Chiller_configuration" sheetId="19" r:id="rId8"/>
-    <sheet name="Chiller" sheetId="10" r:id="rId9"/>
-    <sheet name="Absorption_chiller" sheetId="18" r:id="rId10"/>
-    <sheet name="CT" sheetId="11" r:id="rId11"/>
-    <sheet name="HEX" sheetId="12" r:id="rId12"/>
-    <sheet name="BH" sheetId="16" r:id="rId13"/>
-    <sheet name="HP" sheetId="13" r:id="rId14"/>
-    <sheet name="Pump" sheetId="14" r:id="rId15"/>
-    <sheet name="TES" sheetId="15" r:id="rId16"/>
+    <sheet name="Chiller" sheetId="10" r:id="rId8"/>
+    <sheet name="Absorption_chiller" sheetId="18" r:id="rId9"/>
+    <sheet name="CT" sheetId="11" r:id="rId10"/>
+    <sheet name="HEX" sheetId="12" r:id="rId11"/>
+    <sheet name="BH" sheetId="16" r:id="rId12"/>
+    <sheet name="HP" sheetId="13" r:id="rId13"/>
+    <sheet name="Pump" sheetId="14" r:id="rId14"/>
+    <sheet name="TES" sheetId="15" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName name="__xlfn_AGGREGATE">#N/A</definedName>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="147">
   <si>
     <t>Description</t>
   </si>
@@ -420,63 +419,6 @@
   </si>
   <si>
     <t>G_VALUE</t>
-  </si>
-  <si>
-    <t>SOURCE</t>
-  </si>
-  <si>
-    <t>SCREW</t>
-  </si>
-  <si>
-    <t>CENTRIFUGAL</t>
-  </si>
-  <si>
-    <t>https://comnet.org/index.php/382-chillers</t>
-  </si>
-  <si>
-    <t>CODE</t>
-  </si>
-  <si>
-    <t>CH_T0</t>
-  </si>
-  <si>
-    <t>plf_a</t>
-  </si>
-  <si>
-    <t>plf_b</t>
-  </si>
-  <si>
-    <t>plf_c</t>
-  </si>
-  <si>
-    <t>CH_T1</t>
-  </si>
-  <si>
-    <t>q_a</t>
-  </si>
-  <si>
-    <t>q_b</t>
-  </si>
-  <si>
-    <t>q_c</t>
-  </si>
-  <si>
-    <t>q_d</t>
-  </si>
-  <si>
-    <t>q_e</t>
-  </si>
-  <si>
-    <t>q_f</t>
-  </si>
-  <si>
-    <t>REFERENCE</t>
-  </si>
-  <si>
-    <t>WATER</t>
-  </si>
-  <si>
-    <t>COMPRESSOR</t>
   </si>
   <si>
     <t>LT_mat_yr</t>
@@ -551,7 +493,7 @@
     <numFmt numFmtId="168" formatCode="0_ ;\-0\ "/>
     <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -586,27 +528,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -695,15 +616,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -749,20 +669,14 @@
     <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Normal 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Percent" xfId="5" builtinId="5"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Percent" xfId="4" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1041,7 +955,7 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="38.6640625" customWidth="1"/>
     <col min="4" max="4" width="15.6640625" customWidth="1"/>
@@ -1066,7 +980,7 @@
     <col min="27" max="27" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1149,7 +1063,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1233,7 +1147,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1317,7 +1231,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1401,7 +1315,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1485,7 +1399,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1569,7 +1483,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1653,7 +1567,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27">
       <c r="A8" s="1" t="s">
         <v>50</v>
       </c>
@@ -1737,7 +1651,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27">
       <c r="A9" s="1" t="s">
         <v>50</v>
       </c>
@@ -1821,7 +1735,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27">
       <c r="A10" s="1" t="s">
         <v>50</v>
       </c>
@@ -1912,505 +1826,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:Z6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="27.6640625" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2">
-        <v>51150</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0.4395</v>
-      </c>
-      <c r="J2" s="2">
-        <v>1</v>
-      </c>
-      <c r="K2" s="2">
-        <v>0</v>
-      </c>
-      <c r="L2" s="2">
-        <v>0</v>
-      </c>
-      <c r="M2" s="2">
-        <v>25</v>
-      </c>
-      <c r="N2" s="2">
-        <v>5</v>
-      </c>
-      <c r="O2" s="2">
-        <v>5</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>0.42</v>
-      </c>
-      <c r="R2" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="S2" s="2">
-        <v>0.53</v>
-      </c>
-      <c r="T2" s="2">
-        <v>-2.5</v>
-      </c>
-      <c r="U2" s="2">
-        <v>-2.5</v>
-      </c>
-      <c r="V2" s="2">
-        <v>1.8</v>
-      </c>
-      <c r="W2" s="2">
-        <v>-2.1</v>
-      </c>
-      <c r="X2" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="Y2" s="2">
-        <v>0.72199999999999998</v>
-      </c>
-      <c r="Z2" s="2">
-        <v>0.33300000000000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D3" s="2">
-        <v>51150</v>
-      </c>
-      <c r="E3" s="4">
-        <v>1176000</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0.4395</v>
-      </c>
-      <c r="J3" s="2">
-        <v>1</v>
-      </c>
-      <c r="K3" s="2">
-        <v>0</v>
-      </c>
-      <c r="L3" s="2">
-        <v>0</v>
-      </c>
-      <c r="M3" s="2">
-        <v>25</v>
-      </c>
-      <c r="N3" s="2">
-        <v>5</v>
-      </c>
-      <c r="O3" s="2">
-        <v>5</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>68.12</v>
-      </c>
-      <c r="R3" s="2">
-        <v>-3281.1</v>
-      </c>
-      <c r="S3" s="2">
-        <v>88.05</v>
-      </c>
-      <c r="T3" s="2">
-        <v>-4216.1000000000004</v>
-      </c>
-      <c r="U3" s="2">
-        <v>-1.45</v>
-      </c>
-      <c r="V3" s="2">
-        <v>1.75</v>
-      </c>
-      <c r="W3" s="2">
-        <v>-1.45</v>
-      </c>
-      <c r="X3" s="2">
-        <v>1.75</v>
-      </c>
-      <c r="Y3" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z3" s="2">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>58150</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0.52969999999999995</v>
-      </c>
-      <c r="J4" s="2">
-        <v>1</v>
-      </c>
-      <c r="K4" s="2">
-        <v>0</v>
-      </c>
-      <c r="L4" s="2">
-        <v>0</v>
-      </c>
-      <c r="M4" s="2">
-        <v>25</v>
-      </c>
-      <c r="N4" s="2">
-        <v>5</v>
-      </c>
-      <c r="O4" s="2">
-        <v>5</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>0.42</v>
-      </c>
-      <c r="R4" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="S4" s="2">
-        <v>0.53</v>
-      </c>
-      <c r="T4" s="2">
-        <v>-2.5</v>
-      </c>
-      <c r="U4" s="2">
-        <v>-2.5</v>
-      </c>
-      <c r="V4" s="2">
-        <v>1.8</v>
-      </c>
-      <c r="W4" s="2">
-        <v>-2.1</v>
-      </c>
-      <c r="X4" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="Y4" s="2">
-        <v>0.72199999999999998</v>
-      </c>
-      <c r="Z4" s="2">
-        <v>0.33300000000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D5" s="2">
-        <v>58150</v>
-      </c>
-      <c r="E5" s="4">
-        <v>1337450</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0.52969999999999995</v>
-      </c>
-      <c r="J5" s="2">
-        <v>1</v>
-      </c>
-      <c r="K5" s="2">
-        <v>0</v>
-      </c>
-      <c r="L5" s="2">
-        <v>0</v>
-      </c>
-      <c r="M5" s="2">
-        <v>25</v>
-      </c>
-      <c r="N5" s="2">
-        <v>5</v>
-      </c>
-      <c r="O5" s="2">
-        <v>5</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="R5" s="2">
-        <v>-1350.5</v>
-      </c>
-      <c r="S5" s="2">
-        <v>12.54</v>
-      </c>
-      <c r="T5" s="2">
-        <v>-917.3</v>
-      </c>
-      <c r="U5" s="2">
-        <v>-2.46</v>
-      </c>
-      <c r="V5" s="2">
-        <v>4.38</v>
-      </c>
-      <c r="W5" s="2">
-        <v>-2.46</v>
-      </c>
-      <c r="X5" s="2">
-        <v>4.38</v>
-      </c>
-      <c r="Y5" s="2">
-        <v>68</v>
-      </c>
-      <c r="Z5" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D6" s="2">
-        <v>116300</v>
-      </c>
-      <c r="E6" s="4">
-        <v>1628200</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0.64239999999999997</v>
-      </c>
-      <c r="J6" s="2">
-        <v>1</v>
-      </c>
-      <c r="K6" s="2">
-        <v>0</v>
-      </c>
-      <c r="L6" s="2">
-        <v>0</v>
-      </c>
-      <c r="M6" s="2">
-        <v>25</v>
-      </c>
-      <c r="N6" s="2">
-        <v>5</v>
-      </c>
-      <c r="O6" s="2">
-        <v>5</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>14.6</v>
-      </c>
-      <c r="R6" s="2">
-        <v>-1171.7</v>
-      </c>
-      <c r="S6" s="2">
-        <v>7.05</v>
-      </c>
-      <c r="T6" s="2">
-        <v>-504.2</v>
-      </c>
-      <c r="U6" s="2">
-        <v>-2.14</v>
-      </c>
-      <c r="V6" s="2">
-        <v>3.29</v>
-      </c>
-      <c r="W6" s="2">
-        <v>-2.14</v>
-      </c>
-      <c r="X6" s="2">
-        <v>3.29</v>
-      </c>
-      <c r="Y6" s="2">
-        <v>62</v>
-      </c>
-      <c r="Z6" s="2">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:O2"/>
   <sheetViews>
@@ -2418,7 +1833,7 @@
       <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="26.5" customWidth="1"/>
     <col min="3" max="3" width="18.5" customWidth="1"/>
@@ -2427,7 +1842,7 @@
     <col min="15" max="15" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2474,7 +1889,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>55</v>
       </c>
@@ -2526,7 +1941,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:T5"/>
   <sheetViews>
@@ -2534,7 +1949,7 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="28.6640625" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
@@ -2543,7 +1958,7 @@
     <col min="12" max="12" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -2605,7 +2020,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20">
       <c r="A2" s="11" t="s">
         <v>60</v>
       </c>
@@ -2667,7 +2082,7 @@
       </c>
       <c r="T2" s="12"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20">
       <c r="A3" s="11" t="s">
         <v>60</v>
       </c>
@@ -2728,7 +2143,7 @@
       </c>
       <c r="T3" s="12"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20">
       <c r="A4" s="11" t="s">
         <v>60</v>
       </c>
@@ -2790,7 +2205,7 @@
       </c>
       <c r="T4" s="12"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20">
       <c r="A5" s="11" t="s">
         <v>116</v>
       </c>
@@ -2857,7 +2272,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:O2"/>
   <sheetViews>
@@ -2865,7 +2280,7 @@
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" customWidth="1"/>
@@ -2874,7 +2289,7 @@
     <col min="15" max="15" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2921,7 +2336,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>62</v>
       </c>
@@ -2972,7 +2387,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:O4"/>
   <sheetViews>
@@ -2980,7 +2395,7 @@
       <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
     <col min="3" max="3" width="17.5" customWidth="1"/>
@@ -2990,7 +2405,7 @@
     <col min="10" max="10" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3037,7 +2452,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>38</v>
       </c>
@@ -3083,7 +2498,7 @@
       </c>
       <c r="O2" s="2"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
         <v>40</v>
       </c>
@@ -3130,7 +2545,7 @@
       </c>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
         <v>40</v>
       </c>
@@ -3184,7 +2599,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:O5"/>
   <sheetViews>
@@ -3192,7 +2607,7 @@
       <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.5" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
@@ -3201,7 +2616,7 @@
     <col min="10" max="10" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3248,7 +2663,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
@@ -3296,7 +2711,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
@@ -3344,7 +2759,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
@@ -3392,7 +2807,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -3445,15 +2860,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:Z10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="40.33203125" customWidth="1"/>
     <col min="2" max="3" width="12.5" customWidth="1"/>
@@ -4353,7 +3768,7 @@
     <col min="16154" max="16154" width="19.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4394,7 +3809,7 @@
         <v>22</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>20</v>
@@ -4403,45 +3818,45 @@
         <v>21</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26">
       <c r="A2" s="1" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="D2" s="2">
         <v>0</v>
@@ -4450,7 +3865,7 @@
         <v>10000000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>67</v>
@@ -4513,15 +3928,15 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26">
       <c r="A3" s="1" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>113</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
@@ -4530,7 +3945,7 @@
         <v>10000000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>67</v>
@@ -4593,15 +4008,15 @@
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26">
       <c r="A4" s="1" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
@@ -4610,7 +4025,7 @@
         <v>10000000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>67</v>
@@ -4673,15 +4088,15 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26">
       <c r="A5" s="1" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
@@ -4690,7 +4105,7 @@
         <v>10000000000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>67</v>
@@ -4753,15 +4168,15 @@
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26">
       <c r="A6" s="1" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
@@ -4770,7 +4185,7 @@
         <v>10000000000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>67</v>
@@ -4833,8 +4248,8 @@
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="G10" s="22"/>
+    <row r="10" spans="1:26">
+      <c r="G10" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4849,7 +4264,7 @@
       <selection activeCell="W3" sqref="W3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.6640625" customWidth="1"/>
     <col min="4" max="4" width="42" customWidth="1"/>
@@ -4858,7 +4273,7 @@
     <col min="23" max="23" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4959,7 +4374,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33">
       <c r="A2" s="1" t="s">
         <v>51</v>
       </c>
@@ -5064,7 +4479,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33">
       <c r="A3" s="1" t="s">
         <v>30</v>
       </c>
@@ -5182,7 +4597,7 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.5" customWidth="1"/>
     <col min="3" max="3" width="9.5" customWidth="1"/>
@@ -5190,7 +4605,7 @@
     <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5237,7 +4652,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>33</v>
       </c>
@@ -5298,7 +4713,7 @@
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.6640625" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" customWidth="1"/>
@@ -5308,7 +4723,7 @@
     <col min="12" max="12" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5355,7 +4770,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>57</v>
       </c>
@@ -5402,7 +4817,7 @@
       </c>
       <c r="O2" s="2"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
         <v>57</v>
       </c>
@@ -5462,7 +4877,7 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="29.33203125" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
@@ -5470,7 +4885,7 @@
     <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5517,7 +4932,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15">
       <c r="A2" s="14" t="s">
         <v>44</v>
       </c>
@@ -5562,7 +4977,7 @@
       </c>
       <c r="O2" s="15"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15">
       <c r="A3" s="17" t="s">
         <v>44</v>
       </c>
@@ -5620,7 +5035,7 @@
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="34.5" customWidth="1"/>
     <col min="3" max="3" width="16.5" customWidth="1"/>
@@ -5629,7 +5044,7 @@
     <col min="12" max="12" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5676,7 +5091,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
@@ -5722,7 +5137,7 @@
       </c>
       <c r="O2" s="2"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
         <v>37</v>
       </c>
@@ -5783,7 +5198,7 @@
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
     <col min="3" max="5" width="9.33203125" customWidth="1"/>
@@ -5791,7 +5206,7 @@
     <col min="15" max="15" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5838,7 +5253,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>59</v>
       </c>
@@ -5891,162 +5306,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:M3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="9.1640625" style="19"/>
-    <col min="3" max="3" width="21.6640625" style="19" customWidth="1"/>
-    <col min="4" max="16384" width="9.1640625" style="19"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="J1" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="K1" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="L1" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="M1" s="19" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="D2" s="21">
-        <v>0.33018832999999997</v>
-      </c>
-      <c r="E2" s="21">
-        <v>0.23554290999999999</v>
-      </c>
-      <c r="F2" s="21">
-        <v>0.46070828000000003</v>
-      </c>
-      <c r="G2" s="21">
-        <v>0.33269598</v>
-      </c>
-      <c r="H2" s="21">
-        <v>7.2911599999999997E-3</v>
-      </c>
-      <c r="I2" s="21">
-        <v>-4.9938000000000001E-4</v>
-      </c>
-      <c r="J2" s="21">
-        <v>1.598983E-2</v>
-      </c>
-      <c r="K2" s="21">
-        <v>-2.8254000000000002E-4</v>
-      </c>
-      <c r="L2" s="21">
-        <v>5.2346000000000001E-4</v>
-      </c>
-      <c r="M2" s="20" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="D3" s="21">
-        <v>0.17149273000000001</v>
-      </c>
-      <c r="E3" s="21">
-        <v>0.58820207999999996</v>
-      </c>
-      <c r="F3" s="21">
-        <v>0.23737257</v>
-      </c>
-      <c r="G3" s="21">
-        <v>-0.29861976000000001</v>
-      </c>
-      <c r="H3" s="21">
-        <v>2.9960759999999999E-2</v>
-      </c>
-      <c r="I3" s="21">
-        <v>-8.0124999999999999E-4</v>
-      </c>
-      <c r="J3" s="21">
-        <v>1.7362679999999998E-2</v>
-      </c>
-      <c r="K3" s="21">
-        <v>-3.2605999999999998E-4</v>
-      </c>
-      <c r="L3" s="21">
-        <v>6.3139000000000001E-4</v>
-      </c>
-      <c r="M3" s="20" t="s">
-        <v>130</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="M2" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
-    <hyperlink ref="M3" r:id="rId2" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="29.6640625" customWidth="1"/>
     <col min="3" max="3" width="21.5" customWidth="1"/>
@@ -6055,7 +5322,7 @@
     <col min="16" max="16" width="41.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6105,7 +5372,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
         <v>43</v>
       </c>
@@ -6155,7 +5422,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
         <v>35</v>
       </c>
@@ -6207,7 +5474,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
         <v>35</v>
       </c>
@@ -6262,4 +5529,503 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:Z6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="27.6640625" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
+      <c r="A2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>51150</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0.4395</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2">
+        <v>25</v>
+      </c>
+      <c r="N2" s="2">
+        <v>5</v>
+      </c>
+      <c r="O2" s="2">
+        <v>5</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0.42</v>
+      </c>
+      <c r="R2" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="S2" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="T2" s="2">
+        <v>-2.5</v>
+      </c>
+      <c r="U2" s="2">
+        <v>-2.5</v>
+      </c>
+      <c r="V2" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="W2" s="2">
+        <v>-2.1</v>
+      </c>
+      <c r="X2" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>0.33300000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
+      <c r="A3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="2">
+        <v>51150</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1176000</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.4395</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2">
+        <v>25</v>
+      </c>
+      <c r="N3" s="2">
+        <v>5</v>
+      </c>
+      <c r="O3" s="2">
+        <v>5</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>68.12</v>
+      </c>
+      <c r="R3" s="2">
+        <v>-3281.1</v>
+      </c>
+      <c r="S3" s="2">
+        <v>88.05</v>
+      </c>
+      <c r="T3" s="2">
+        <v>-4216.1000000000004</v>
+      </c>
+      <c r="U3" s="2">
+        <v>-1.45</v>
+      </c>
+      <c r="V3" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="W3" s="2">
+        <v>-1.45</v>
+      </c>
+      <c r="X3" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
+      <c r="A4" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>58150</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.52969999999999995</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
+        <v>25</v>
+      </c>
+      <c r="N4" s="2">
+        <v>5</v>
+      </c>
+      <c r="O4" s="2">
+        <v>5</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0.42</v>
+      </c>
+      <c r="R4" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="S4" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="T4" s="2">
+        <v>-2.5</v>
+      </c>
+      <c r="U4" s="2">
+        <v>-2.5</v>
+      </c>
+      <c r="V4" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="W4" s="2">
+        <v>-2.1</v>
+      </c>
+      <c r="X4" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>0.33300000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
+      <c r="A5" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="2">
+        <v>58150</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1337450</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.52969999999999995</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
+        <v>25</v>
+      </c>
+      <c r="N5" s="2">
+        <v>5</v>
+      </c>
+      <c r="O5" s="2">
+        <v>5</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="R5" s="2">
+        <v>-1350.5</v>
+      </c>
+      <c r="S5" s="2">
+        <v>12.54</v>
+      </c>
+      <c r="T5" s="2">
+        <v>-917.3</v>
+      </c>
+      <c r="U5" s="2">
+        <v>-2.46</v>
+      </c>
+      <c r="V5" s="2">
+        <v>4.38</v>
+      </c>
+      <c r="W5" s="2">
+        <v>-2.46</v>
+      </c>
+      <c r="X5" s="2">
+        <v>4.38</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>68</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
+      <c r="A6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="2">
+        <v>116300</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1628200</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.64239999999999997</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>25</v>
+      </c>
+      <c r="N6" s="2">
+        <v>5</v>
+      </c>
+      <c r="O6" s="2">
+        <v>5</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>14.6</v>
+      </c>
+      <c r="R6" s="2">
+        <v>-1171.7</v>
+      </c>
+      <c r="S6" s="2">
+        <v>7.05</v>
+      </c>
+      <c r="T6" s="2">
+        <v>-504.2</v>
+      </c>
+      <c r="U6" s="2">
+        <v>-2.14</v>
+      </c>
+      <c r="V6" s="2">
+        <v>3.29</v>
+      </c>
+      <c r="W6" s="2">
+        <v>-2.14</v>
+      </c>
+      <c r="X6" s="2">
+        <v>3.29</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>62</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/cea/databases/SG/components/CONVERSION.xlsx
+++ b/cea/databases/SG/components/CONVERSION.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathiasniffeler/Documents/GitHub/CityEnergyAnalyst/cea/databases/SG/components/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fonseca/Documents/GitHub/CityEnergyAnalyst/cea/databases/SG/components/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F25FAA66-6915-6840-A1BC-3467CF0334EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0BF0716-B353-0E45-A65D-D38A833EFFBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" firstSheet="7" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35540" yWindow="-5020" windowWidth="38400" windowHeight="17400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PV" sheetId="3" r:id="rId1"/>
@@ -34,12 +34,25 @@
     <definedName name="__xlfn_AGGREGATE">#N/A</definedName>
     <definedName name="__xlfn_STDEV_S">#N/A</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="169">
   <si>
     <t>Description</t>
   </si>
@@ -537,6 +550,15 @@
   </si>
   <si>
     <t>TES5</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>NONE</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -551,7 +573,7 @@
     <numFmt numFmtId="168" formatCode="0_ ;\-0\ "/>
     <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -610,6 +632,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -703,7 +731,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -729,23 +757,18 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -755,14 +778,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Komma" xfId="1" builtinId="3"/>
+    <cellStyle name="Link" xfId="2" builtinId="8"/>
     <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Normal 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Percent" xfId="5" builtinId="5"/>
+    <cellStyle name="Prozent" xfId="5" builtinId="5"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1035,10 +1062,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA10"/>
+  <dimension ref="A1:AA11"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1149,88 +1176,87 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" s="21" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2">
-        <v>10000</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="D2" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="F2" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="2">
-        <v>1</v>
-      </c>
-      <c r="H2" s="2">
-        <v>2E-3</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0.16</v>
-      </c>
-      <c r="J2" s="2">
-        <v>43.5</v>
-      </c>
-      <c r="K2" s="2">
-        <v>3.5000000000000001E-3</v>
-      </c>
-      <c r="L2" s="3">
-        <v>0.93582299999999996</v>
-      </c>
-      <c r="M2" s="3">
-        <v>5.4288999999999997E-2</v>
-      </c>
-      <c r="N2" s="3">
-        <v>8.6770000000000007E-3</v>
-      </c>
-      <c r="O2" s="3">
-        <v>5.2700000000000002E-4</v>
-      </c>
-      <c r="P2" s="3">
-        <v>-1.1E-5</v>
-      </c>
-      <c r="Q2" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="S2" s="2">
-        <v>0</v>
-      </c>
-      <c r="T2" s="5">
-        <f>3.5/0.962</f>
-        <v>3.6382536382536386</v>
-      </c>
-      <c r="U2" s="2">
-        <v>1</v>
-      </c>
-      <c r="V2" s="2">
-        <v>0</v>
-      </c>
-      <c r="W2" s="2">
-        <v>0</v>
-      </c>
-      <c r="X2" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y2" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z2" s="2">
-        <v>5</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>21</v>
+      <c r="G2" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="M2" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="N2" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="O2" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="P2" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q2" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="R2" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="S2" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="T2" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="U2" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="V2" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="W2" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="X2" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y2" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z2" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="AA2" s="20" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
@@ -1244,10 +1270,10 @@
         <v>69</v>
       </c>
       <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
         <v>10000</v>
-      </c>
-      <c r="E3" s="2">
-        <v>200000</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>49</v>
@@ -1292,8 +1318,8 @@
         <v>0</v>
       </c>
       <c r="T3" s="5">
-        <f>2.5/0.962</f>
-        <v>2.5987525987525988</v>
+        <f>3.5/0.962</f>
+        <v>3.6382536382536386</v>
       </c>
       <c r="U3" s="2">
         <v>1</v>
@@ -1328,10 +1354,10 @@
         <v>69</v>
       </c>
       <c r="D4" s="2">
+        <v>10000</v>
+      </c>
+      <c r="E4" s="2">
         <v>200000</v>
-      </c>
-      <c r="E4" s="4">
-        <v>10000000000</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>49</v>
@@ -1398,24 +1424,24 @@
         <v>5</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>69</v>
       </c>
       <c r="D5" s="2">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2">
-        <v>10000</v>
+        <v>200000</v>
+      </c>
+      <c r="E5" s="4">
+        <v>10000000000</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>49</v>
@@ -1427,28 +1453,28 @@
         <v>2E-3</v>
       </c>
       <c r="I5" s="2">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="J5" s="2">
-        <v>43.9</v>
+        <v>43.5</v>
       </c>
       <c r="K5" s="2">
-        <v>4.4000000000000003E-3</v>
+        <v>3.5000000000000001E-3</v>
       </c>
       <c r="L5" s="3">
-        <v>0.91809300000000005</v>
+        <v>0.93582299999999996</v>
       </c>
       <c r="M5" s="3">
-        <v>8.6257E-2</v>
+        <v>5.4288999999999997E-2</v>
       </c>
       <c r="N5" s="3">
-        <v>-2.4459000000000002E-2</v>
+        <v>8.6770000000000007E-3</v>
       </c>
       <c r="O5" s="3">
-        <v>2.8159999999999999E-3</v>
+        <v>5.2700000000000002E-4</v>
       </c>
       <c r="P5" s="3">
-        <v>-1.26E-4</v>
+        <v>-1.1E-5</v>
       </c>
       <c r="Q5" s="5">
         <v>0.1</v>
@@ -1460,8 +1486,8 @@
         <v>0</v>
       </c>
       <c r="T5" s="5">
-        <f>3.5/0.962</f>
-        <v>3.6382536382536386</v>
+        <f>2.5/0.962</f>
+        <v>2.5987525987525988</v>
       </c>
       <c r="U5" s="2">
         <v>1</v>
@@ -1482,7 +1508,7 @@
         <v>5</v>
       </c>
       <c r="AA5" s="2" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
@@ -1496,10 +1522,10 @@
         <v>69</v>
       </c>
       <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
         <v>10000</v>
-      </c>
-      <c r="E6" s="2">
-        <v>200000</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>49</v>
@@ -1544,8 +1570,8 @@
         <v>0</v>
       </c>
       <c r="T6" s="5">
-        <f>2.5/0.962</f>
-        <v>2.5987525987525988</v>
+        <f>3.5/0.962</f>
+        <v>3.6382536382536386</v>
       </c>
       <c r="U6" s="2">
         <v>1</v>
@@ -1580,10 +1606,10 @@
         <v>69</v>
       </c>
       <c r="D7" s="2">
+        <v>10000</v>
+      </c>
+      <c r="E7" s="2">
         <v>200000</v>
-      </c>
-      <c r="E7" s="4">
-        <v>10000000000</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>49</v>
@@ -1650,24 +1676,24 @@
         <v>5</v>
       </c>
       <c r="AA7" s="2" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>69</v>
       </c>
       <c r="D8" s="2">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2">
-        <v>10000</v>
+        <v>200000</v>
+      </c>
+      <c r="E8" s="4">
+        <v>10000000000</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>49</v>
@@ -1679,28 +1705,28 @@
         <v>2E-3</v>
       </c>
       <c r="I8" s="2">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="J8" s="2">
-        <v>38.1</v>
+        <v>43.9</v>
       </c>
       <c r="K8" s="2">
-        <v>2.5999999999999999E-3</v>
+        <v>4.4000000000000003E-3</v>
       </c>
       <c r="L8" s="3">
-        <v>1.10044085</v>
+        <v>0.91809300000000005</v>
       </c>
       <c r="M8" s="3">
-        <v>-6.1423230000000002E-2</v>
+        <v>8.6257E-2</v>
       </c>
       <c r="N8" s="3">
-        <v>-4.4273200000000002E-3</v>
+        <v>-2.4459000000000002E-2</v>
       </c>
       <c r="O8" s="3">
-        <v>6.3150399999999996E-4</v>
+        <v>2.8159999999999999E-3</v>
       </c>
       <c r="P8" s="3">
-        <v>-1.9184000000000001E-5</v>
+        <v>-1.26E-4</v>
       </c>
       <c r="Q8" s="5">
         <v>0.1</v>
@@ -1712,8 +1738,8 @@
         <v>0</v>
       </c>
       <c r="T8" s="5">
-        <f>3.5/0.962</f>
-        <v>3.6382536382536386</v>
+        <f>2.5/0.962</f>
+        <v>2.5987525987525988</v>
       </c>
       <c r="U8" s="2">
         <v>1</v>
@@ -1734,7 +1760,7 @@
         <v>5</v>
       </c>
       <c r="AA8" s="2" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
@@ -1748,10 +1774,10 @@
         <v>69</v>
       </c>
       <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
         <v>10000</v>
-      </c>
-      <c r="E9" s="2">
-        <v>200000</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>49</v>
@@ -1796,8 +1822,8 @@
         <v>0</v>
       </c>
       <c r="T9" s="5">
-        <f>2.5/0.962</f>
-        <v>2.5987525987525988</v>
+        <f>3.5/0.962</f>
+        <v>3.6382536382536386</v>
       </c>
       <c r="U9" s="2">
         <v>1</v>
@@ -1832,10 +1858,10 @@
         <v>69</v>
       </c>
       <c r="D10" s="2">
+        <v>10000</v>
+      </c>
+      <c r="E10" s="2">
         <v>200000</v>
-      </c>
-      <c r="E10" s="4">
-        <v>10000000000</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>49</v>
@@ -1902,6 +1928,90 @@
         <v>5</v>
       </c>
       <c r="AA10" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="2">
+        <v>200000</v>
+      </c>
+      <c r="E11" s="4">
+        <v>10000000000</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="J11" s="2">
+        <v>38.1</v>
+      </c>
+      <c r="K11" s="2">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="L11" s="3">
+        <v>1.10044085</v>
+      </c>
+      <c r="M11" s="3">
+        <v>-6.1423230000000002E-2</v>
+      </c>
+      <c r="N11" s="3">
+        <v>-4.4273200000000002E-3</v>
+      </c>
+      <c r="O11" s="3">
+        <v>6.3150399999999996E-4</v>
+      </c>
+      <c r="P11" s="3">
+        <v>-1.9184000000000001E-5</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="S11" s="2">
+        <v>0</v>
+      </c>
+      <c r="T11" s="5">
+        <f>2.5/0.962</f>
+        <v>2.5987525987525988</v>
+      </c>
+      <c r="U11" s="2">
+        <v>1</v>
+      </c>
+      <c r="V11" s="2">
+        <v>0</v>
+      </c>
+      <c r="W11" s="2">
+        <v>0</v>
+      </c>
+      <c r="X11" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y11" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="2">
+        <v>5</v>
+      </c>
+      <c r="AA11" s="2" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2544,311 +2654,311 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="11" t="s">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="P1" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="Q1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="R1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="S1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="T1" s="11" t="s">
+      <c r="T1" s="10" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="11">
         <v>50000</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="11">
         <v>80000</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="11">
         <f>-333/0.962</f>
         <v>-346.15384615384619</v>
       </c>
-      <c r="H2" s="12">
+      <c r="H2" s="11">
         <f>0.067/0.962</f>
         <v>6.964656964656965E-2</v>
       </c>
-      <c r="I2" s="12">
-        <v>1</v>
-      </c>
-      <c r="J2" s="12">
-        <v>0</v>
-      </c>
-      <c r="K2" s="12">
-        <v>0</v>
-      </c>
-      <c r="L2" s="12">
-        <v>0</v>
-      </c>
-      <c r="M2" s="12">
-        <v>0</v>
-      </c>
-      <c r="N2" s="12">
-        <v>0</v>
-      </c>
-      <c r="O2" s="12">
-        <v>0</v>
-      </c>
-      <c r="P2" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="12">
+      <c r="I2" s="11">
+        <v>1</v>
+      </c>
+      <c r="J2" s="11">
+        <v>0</v>
+      </c>
+      <c r="K2" s="11">
+        <v>0</v>
+      </c>
+      <c r="L2" s="11">
+        <v>0</v>
+      </c>
+      <c r="M2" s="11">
+        <v>0</v>
+      </c>
+      <c r="N2" s="11">
+        <v>0</v>
+      </c>
+      <c r="O2" s="11">
+        <v>0</v>
+      </c>
+      <c r="P2" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="11">
         <v>20</v>
       </c>
-      <c r="R2" s="12">
+      <c r="R2" s="11">
         <v>5</v>
       </c>
-      <c r="S2" s="12">
+      <c r="S2" s="11">
         <v>5</v>
       </c>
-      <c r="T2" s="12"/>
+      <c r="T2" s="11"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="11">
         <v>80000</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="11">
         <v>100000</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="11">
         <f>5000/0.962</f>
         <v>5197.5051975051974</v>
       </c>
-      <c r="H3" s="12">
-        <v>0</v>
-      </c>
-      <c r="I3" s="12">
-        <v>0</v>
-      </c>
-      <c r="J3" s="12">
-        <v>0</v>
-      </c>
-      <c r="K3" s="12">
-        <v>0</v>
-      </c>
-      <c r="L3" s="12">
-        <v>0</v>
-      </c>
-      <c r="M3" s="12">
-        <v>0</v>
-      </c>
-      <c r="N3" s="12">
-        <v>0</v>
-      </c>
-      <c r="O3" s="12">
-        <v>0</v>
-      </c>
-      <c r="P3" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="12">
+      <c r="H3" s="11">
+        <v>0</v>
+      </c>
+      <c r="I3" s="11">
+        <v>0</v>
+      </c>
+      <c r="J3" s="11">
+        <v>0</v>
+      </c>
+      <c r="K3" s="11">
+        <v>0</v>
+      </c>
+      <c r="L3" s="11">
+        <v>0</v>
+      </c>
+      <c r="M3" s="11">
+        <v>0</v>
+      </c>
+      <c r="N3" s="11">
+        <v>0</v>
+      </c>
+      <c r="O3" s="11">
+        <v>0</v>
+      </c>
+      <c r="P3" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="11">
         <v>20</v>
       </c>
-      <c r="R3" s="12">
+      <c r="R3" s="11">
         <v>5</v>
       </c>
-      <c r="S3" s="12">
+      <c r="S3" s="11">
         <v>5</v>
       </c>
-      <c r="T3" s="12"/>
+      <c r="T3" s="11"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="11">
         <v>100000</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="12">
         <v>10000000000</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="11">
         <f>-3000/0.962</f>
         <v>-3118.5031185031185</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="11">
         <f>0.08/0.962</f>
         <v>8.3160083160083165E-2</v>
       </c>
-      <c r="I4" s="12">
-        <v>1</v>
-      </c>
-      <c r="J4" s="12">
-        <v>0</v>
-      </c>
-      <c r="K4" s="12">
-        <v>0</v>
-      </c>
-      <c r="L4" s="12">
-        <v>0</v>
-      </c>
-      <c r="M4" s="12">
-        <v>0</v>
-      </c>
-      <c r="N4" s="12">
-        <v>0</v>
-      </c>
-      <c r="O4" s="12">
-        <v>0</v>
-      </c>
-      <c r="P4" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="12">
+      <c r="I4" s="11">
+        <v>1</v>
+      </c>
+      <c r="J4" s="11">
+        <v>0</v>
+      </c>
+      <c r="K4" s="11">
+        <v>0</v>
+      </c>
+      <c r="L4" s="11">
+        <v>0</v>
+      </c>
+      <c r="M4" s="11">
+        <v>0</v>
+      </c>
+      <c r="N4" s="11">
+        <v>0</v>
+      </c>
+      <c r="O4" s="11">
+        <v>0</v>
+      </c>
+      <c r="P4" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="11">
         <v>20</v>
       </c>
-      <c r="R4" s="12">
+      <c r="R4" s="11">
         <v>5</v>
       </c>
-      <c r="S4" s="12">
+      <c r="S4" s="11">
         <v>5</v>
       </c>
-      <c r="T4" s="12"/>
+      <c r="T4" s="11"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="C5" s="12">
-        <v>0</v>
-      </c>
-      <c r="D5" s="13">
+      <c r="C5" s="11">
+        <v>0</v>
+      </c>
+      <c r="D5" s="12">
         <v>500</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="11">
         <v>3381</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="11">
         <v>229.8</v>
       </c>
-      <c r="I5" s="12">
-        <v>0</v>
-      </c>
-      <c r="J5" s="12">
-        <v>0</v>
-      </c>
-      <c r="K5" s="12">
-        <v>0</v>
-      </c>
-      <c r="L5" s="12">
+      <c r="I5" s="11">
+        <v>0</v>
+      </c>
+      <c r="J5" s="11">
+        <v>0</v>
+      </c>
+      <c r="K5" s="11">
+        <v>0</v>
+      </c>
+      <c r="L5" s="11">
         <v>5056</v>
       </c>
-      <c r="M5" s="12">
+      <c r="M5" s="11">
         <v>319.89999999999998</v>
       </c>
-      <c r="N5" s="12">
+      <c r="N5" s="11">
         <v>0.4153</v>
       </c>
-      <c r="O5" s="12">
+      <c r="O5" s="11">
         <v>-1271</v>
       </c>
-      <c r="P5" s="12">
+      <c r="P5" s="11">
         <v>6.8329999999999997E-3</v>
       </c>
-      <c r="Q5" s="12">
+      <c r="Q5" s="11">
         <v>20</v>
       </c>
-      <c r="R5" s="12">
+      <c r="R5" s="11">
         <v>5</v>
       </c>
-      <c r="S5" s="12">
+      <c r="S5" s="11">
         <v>5</v>
       </c>
-      <c r="T5" s="12" t="s">
+      <c r="T5" s="11" t="s">
         <v>119</v>
       </c>
     </row>
@@ -3449,7 +3559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:Z10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -4834,7 +4944,7 @@
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="G10" s="22"/>
+      <c r="G10" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4999,28 +5109,28 @@
       <c r="M2" s="8">
         <v>8000</v>
       </c>
-      <c r="N2" s="9">
+      <c r="N2" s="8">
         <v>192</v>
       </c>
-      <c r="O2" s="9">
+      <c r="O2" s="8">
         <v>0.87</v>
       </c>
-      <c r="P2" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="10">
+      <c r="P2" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="9">
         <f>170/($E2*$F2)</f>
         <v>94.632447573624034</v>
       </c>
-      <c r="R2" s="10">
+      <c r="R2" s="9">
         <f>270/($E2*$F2)</f>
         <v>150.29859320516758</v>
       </c>
-      <c r="S2" s="10">
+      <c r="S2" s="9">
         <f>80/($E2*$F2)</f>
         <v>44.532916505234837</v>
       </c>
-      <c r="T2" s="10">
+      <c r="T2" s="9">
         <v>3680</v>
       </c>
       <c r="U2" s="2">
@@ -5104,28 +5214,28 @@
       <c r="M3" s="8">
         <v>39000</v>
       </c>
-      <c r="N3" s="9">
+      <c r="N3" s="8">
         <v>196</v>
       </c>
-      <c r="O3" s="9">
+      <c r="O3" s="8">
         <v>0.91</v>
       </c>
-      <c r="P3" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="10">
+      <c r="P3" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="9">
         <f>8000/($E3*$F3)</f>
         <v>2825.9464271206075</v>
       </c>
-      <c r="R3" s="10">
+      <c r="R3" s="9">
         <f>22000/($E3*$F3)</f>
         <v>7771.3526745816707</v>
       </c>
-      <c r="S3" s="10">
+      <c r="S3" s="9">
         <f>2000/($E3*$F3)</f>
         <v>706.48660678015187</v>
       </c>
-      <c r="T3" s="10">
+      <c r="T3" s="9">
         <v>3680</v>
       </c>
       <c r="U3" s="2">
@@ -5518,94 +5628,93 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="9">
         <v>1000000</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="9">
         <v>5000000</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G2" s="15">
-        <v>0</v>
-      </c>
-      <c r="H2" s="16">
+      <c r="G2" s="9">
+        <v>0</v>
+      </c>
+      <c r="H2" s="14">
         <v>0.74299999999999999</v>
       </c>
-      <c r="I2" s="15">
-        <v>1</v>
-      </c>
-      <c r="J2" s="15">
-        <v>0</v>
-      </c>
-      <c r="K2" s="15">
-        <v>0</v>
-      </c>
-      <c r="L2" s="15">
+      <c r="I2" s="9">
+        <v>1</v>
+      </c>
+      <c r="J2" s="9">
+        <v>0</v>
+      </c>
+      <c r="K2" s="9">
+        <v>0</v>
+      </c>
+      <c r="L2" s="9">
         <v>20</v>
       </c>
-      <c r="M2" s="15">
+      <c r="M2" s="9">
         <v>5</v>
       </c>
-      <c r="N2" s="15">
+      <c r="N2" s="9">
         <v>5</v>
       </c>
-      <c r="O2" s="15"/>
+      <c r="O2" s="9"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
+      <c r="A3" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3">
         <v>5000000</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3">
         <v>50000000</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" t="s">
         <v>67</v>
       </c>
-      <c r="G3" s="17">
-        <v>0</v>
-      </c>
-      <c r="H3" s="17">
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>0.74299999999999999</v>
       </c>
-      <c r="I3" s="17">
-        <v>1</v>
-      </c>
-      <c r="J3" s="17">
-        <v>0</v>
-      </c>
-      <c r="K3" s="17">
-        <v>0</v>
-      </c>
-      <c r="L3" s="17">
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
         <v>20</v>
       </c>
-      <c r="M3" s="17">
+      <c r="M3">
         <v>5</v>
       </c>
-      <c r="N3" s="17">
+      <c r="N3">
         <v>5</v>
       </c>
-      <c r="O3" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5900,131 +6009,131 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9.1640625" style="19"/>
-    <col min="3" max="3" width="21.6640625" style="19" customWidth="1"/>
-    <col min="4" max="16384" width="9.1640625" style="19"/>
+    <col min="1" max="2" width="9.1640625" style="16"/>
+    <col min="3" max="3" width="21.6640625" style="16" customWidth="1"/>
+    <col min="4" max="16384" width="9.1640625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="M1" s="16" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="D2" s="21">
+      <c r="D2" s="18">
         <v>0.33018832999999997</v>
       </c>
-      <c r="E2" s="21">
+      <c r="E2" s="18">
         <v>0.23554290999999999</v>
       </c>
-      <c r="F2" s="21">
+      <c r="F2" s="18">
         <v>0.46070828000000003</v>
       </c>
-      <c r="G2" s="21">
+      <c r="G2" s="18">
         <v>0.33269598</v>
       </c>
-      <c r="H2" s="21">
+      <c r="H2" s="18">
         <v>7.2911599999999997E-3</v>
       </c>
-      <c r="I2" s="21">
+      <c r="I2" s="18">
         <v>-4.9938000000000001E-4</v>
       </c>
-      <c r="J2" s="21">
+      <c r="J2" s="18">
         <v>1.598983E-2</v>
       </c>
-      <c r="K2" s="21">
+      <c r="K2" s="18">
         <v>-2.8254000000000002E-4</v>
       </c>
-      <c r="L2" s="21">
+      <c r="L2" s="18">
         <v>5.2346000000000001E-4</v>
       </c>
-      <c r="M2" s="20" t="s">
+      <c r="M2" s="17" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="18">
         <v>0.17149273000000001</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="18">
         <v>0.58820207999999996</v>
       </c>
-      <c r="F3" s="21">
+      <c r="F3" s="18">
         <v>0.23737257</v>
       </c>
-      <c r="G3" s="21">
+      <c r="G3" s="18">
         <v>-0.29861976000000001</v>
       </c>
-      <c r="H3" s="21">
+      <c r="H3" s="18">
         <v>2.9960759999999999E-2</v>
       </c>
-      <c r="I3" s="21">
+      <c r="I3" s="18">
         <v>-8.0124999999999999E-4</v>
       </c>
-      <c r="J3" s="21">
+      <c r="J3" s="18">
         <v>1.7362679999999998E-2</v>
       </c>
-      <c r="K3" s="21">
+      <c r="K3" s="18">
         <v>-3.2605999999999998E-4</v>
       </c>
-      <c r="L3" s="21">
+      <c r="L3" s="18">
         <v>6.3139000000000001E-4</v>
       </c>
-      <c r="M3" s="20" t="s">
+      <c r="M3" s="17" t="s">
         <v>130</v>
       </c>
     </row>
@@ -6217,10 +6326,10 @@
       <c r="C4" s="2">
         <v>0.4</v>
       </c>
-      <c r="D4" s="18">
-        <v>1</v>
-      </c>
-      <c r="E4" s="18">
+      <c r="D4" s="15">
+        <v>1</v>
+      </c>
+      <c r="E4" s="15">
         <v>3500000</v>
       </c>
       <c r="F4" s="2" t="s">

--- a/cea/databases/SG/components/CONVERSION.xlsx
+++ b/cea/databases/SG/components/CONVERSION.xlsx
@@ -5,30 +5,30 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathiasniffeler/Documents/GitHub/CityEnergyAnalyst/cea/databases/SG/components/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathiasniffeler/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F25FAA66-6915-6840-A1BC-3467CF0334EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{328E75CE-5E35-F34B-8CD4-F5CE4381CBA1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" firstSheet="7" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="9300" windowWidth="38400" windowHeight="10740" tabRatio="993" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="PV" sheetId="3" r:id="rId1"/>
-    <sheet name="SC" sheetId="5" r:id="rId2"/>
-    <sheet name="PVT" sheetId="4" r:id="rId3"/>
-    <sheet name="Boiler" sheetId="6" r:id="rId4"/>
-    <sheet name="Furnace" sheetId="9" r:id="rId5"/>
-    <sheet name="FC" sheetId="8" r:id="rId6"/>
+    <sheet name="PV" sheetId="1" r:id="rId1"/>
+    <sheet name="SC" sheetId="2" r:id="rId2"/>
+    <sheet name="PVT" sheetId="3" r:id="rId3"/>
+    <sheet name="Boiler" sheetId="4" r:id="rId4"/>
+    <sheet name="Furnace" sheetId="5" r:id="rId5"/>
+    <sheet name="FC" sheetId="6" r:id="rId6"/>
     <sheet name="CCGT" sheetId="7" r:id="rId7"/>
-    <sheet name="Chiller_configuration" sheetId="19" r:id="rId8"/>
-    <sheet name="Chiller" sheetId="10" r:id="rId9"/>
-    <sheet name="Absorption_chiller" sheetId="18" r:id="rId10"/>
-    <sheet name="CT" sheetId="11" r:id="rId11"/>
-    <sheet name="HEX" sheetId="12" r:id="rId12"/>
-    <sheet name="BH" sheetId="16" r:id="rId13"/>
+    <sheet name="Chiller_configuration" sheetId="16" r:id="rId8"/>
+    <sheet name="Chiller" sheetId="8" r:id="rId9"/>
+    <sheet name="Absorption_chiller" sheetId="9" r:id="rId10"/>
+    <sheet name="CT" sheetId="10" r:id="rId11"/>
+    <sheet name="HEX" sheetId="11" r:id="rId12"/>
+    <sheet name="BH" sheetId="12" r:id="rId13"/>
     <sheet name="HP" sheetId="13" r:id="rId14"/>
-    <sheet name="Pump" sheetId="14" r:id="rId15"/>
-    <sheet name="TES" sheetId="15" r:id="rId16"/>
+    <sheet name="Pump" sheetId="15" r:id="rId15"/>
+    <sheet name="TES" sheetId="14" r:id="rId16"/>
   </sheets>
   <definedNames>
     <definedName name="__xlfn_AGGREGATE">#N/A</definedName>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="171">
   <si>
     <t>Description</t>
   </si>
@@ -47,348 +47,357 @@
     <t>code</t>
   </si>
   <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>cap_min</t>
+  </si>
+  <si>
+    <t>cap_max</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>module_length_m</t>
+  </si>
+  <si>
+    <t>PV_th</t>
+  </si>
+  <si>
+    <t>PV_n</t>
+  </si>
+  <si>
+    <t>PV_noct</t>
+  </si>
+  <si>
+    <t>PV_Bref</t>
+  </si>
+  <si>
+    <t>PV_a0</t>
+  </si>
+  <si>
+    <t>PV_a1</t>
+  </si>
+  <si>
+    <t>PV_a2</t>
+  </si>
+  <si>
+    <t>PV_a3</t>
+  </si>
+  <si>
+    <t>PV_a4</t>
+  </si>
+  <si>
+    <t>misc_losses</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>LT_yr</t>
+  </si>
+  <si>
+    <t>O&amp;M_%</t>
+  </si>
+  <si>
+    <t>IR_%</t>
+  </si>
+  <si>
+    <t>assumption</t>
+  </si>
+  <si>
+    <t>generic monocrystalline panel</t>
+  </si>
+  <si>
     <t>PV1</t>
   </si>
   <si>
+    <t>PV</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>USD-2015</t>
+  </si>
+  <si>
+    <t>IR_%, capacity</t>
+  </si>
+  <si>
+    <t>generic polycrystalline panel</t>
+  </si>
+  <si>
     <t>PV2</t>
   </si>
   <si>
+    <t>generic amorphous silicon panel</t>
+  </si>
+  <si>
     <t>PV3</t>
   </si>
   <si>
-    <t>generic polycrystalline panel</t>
-  </si>
-  <si>
-    <t>generic monocrystalline panel</t>
-  </si>
-  <si>
-    <t>PV_n</t>
-  </si>
-  <si>
-    <t>PV_Bref</t>
-  </si>
-  <si>
-    <t>PV_a0</t>
-  </si>
-  <si>
-    <t>PV_a1</t>
-  </si>
-  <si>
-    <t>PV_a2</t>
-  </si>
-  <si>
-    <t>PV_a3</t>
-  </si>
-  <si>
-    <t>PV_a4</t>
-  </si>
-  <si>
-    <t>PV_th</t>
-  </si>
-  <si>
-    <t>PV_noct</t>
+    <t>module_area_m2</t>
+  </si>
+  <si>
+    <t>aperture_area_ratio</t>
+  </si>
+  <si>
+    <t>n0</t>
+  </si>
+  <si>
+    <t>c1</t>
+  </si>
+  <si>
+    <t>c2</t>
+  </si>
+  <si>
+    <t>mB0_r</t>
+  </si>
+  <si>
+    <t>mB_max_r</t>
+  </si>
+  <si>
+    <t>mB_min_r</t>
+  </si>
+  <si>
+    <t>C_eff</t>
+  </si>
+  <si>
+    <t>t_max</t>
+  </si>
+  <si>
+    <t>IAM_d</t>
+  </si>
+  <si>
+    <t>dP1</t>
+  </si>
+  <si>
+    <t>dP2</t>
+  </si>
+  <si>
+    <t>dP3</t>
+  </si>
+  <si>
+    <t>dP4</t>
+  </si>
+  <si>
+    <t>Cp_fluid</t>
+  </si>
+  <si>
+    <t>flat plate</t>
+  </si>
+  <si>
+    <t>SC1</t>
+  </si>
+  <si>
+    <t>FP</t>
+  </si>
+  <si>
+    <t>m2</t>
+  </si>
+  <si>
+    <t>evacuated tube</t>
+  </si>
+  <si>
+    <t>SC2</t>
+  </si>
+  <si>
+    <t>ET</t>
+  </si>
+  <si>
+    <t>generic PVT</t>
+  </si>
+  <si>
+    <t>PVT1</t>
+  </si>
+  <si>
+    <t>condensing boiler</t>
+  </si>
+  <si>
+    <t>BO1</t>
+  </si>
+  <si>
+    <t>furnace combined with ORC</t>
+  </si>
+  <si>
+    <t>FU1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Assumptions</t>
+  </si>
+  <si>
+    <t>solid oxide fuel cell</t>
+  </si>
+  <si>
+    <t>FC1</t>
+  </si>
+  <si>
+    <t>everything</t>
+  </si>
+  <si>
+    <t>combined cycle gas turbine</t>
+  </si>
+  <si>
+    <t>CCGT1</t>
+  </si>
+  <si>
+    <t>centralized chiller</t>
+  </si>
+  <si>
+    <t>CH1</t>
+  </si>
+  <si>
+    <t>vapor compression chiller</t>
+  </si>
+  <si>
+    <t>CH2</t>
+  </si>
+  <si>
+    <t>CH3</t>
+  </si>
+  <si>
+    <t>s_e</t>
+  </si>
+  <si>
+    <t>r_e</t>
+  </si>
+  <si>
+    <t>s_g</t>
+  </si>
+  <si>
+    <t>r_g</t>
+  </si>
+  <si>
+    <t>a_e</t>
+  </si>
+  <si>
+    <t>e_e</t>
+  </si>
+  <si>
+    <t>a_g</t>
+  </si>
+  <si>
+    <t>e_g</t>
+  </si>
+  <si>
+    <t>m_cw</t>
+  </si>
+  <si>
+    <t>m_hw</t>
+  </si>
+  <si>
+    <t>LiBr single effect</t>
+  </si>
+  <si>
+    <t>ACH1</t>
+  </si>
+  <si>
+    <t>single</t>
+  </si>
+  <si>
+    <t>ACH2</t>
+  </si>
+  <si>
+    <t>LiBr double effect (dummy)</t>
+  </si>
+  <si>
+    <t>ACH3</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>LiBr double effect</t>
+  </si>
+  <si>
+    <t>ACH4</t>
+  </si>
+  <si>
+    <t>LiBr triple effect</t>
+  </si>
+  <si>
+    <t>ACH5</t>
+  </si>
+  <si>
+    <t>triple</t>
+  </si>
+  <si>
+    <t>centralized cooling tower</t>
+  </si>
+  <si>
+    <t>CT1</t>
+  </si>
+  <si>
+    <t>all</t>
   </si>
   <si>
     <t>Currency</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>O&amp;M_%</t>
-  </si>
-  <si>
-    <t>IR_%</t>
-  </si>
-  <si>
-    <t>LT_yr</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>CCGT1</t>
-  </si>
-  <si>
-    <t>FC1</t>
-  </si>
-  <si>
-    <t>CT1</t>
+    <t>substation heat exchanger</t>
   </si>
   <si>
     <t>HEX1</t>
   </si>
   <si>
+    <t>borehole</t>
+  </si>
+  <si>
+    <t>BH1</t>
+  </si>
+  <si>
+    <t>geothermal heat pump</t>
+  </si>
+  <si>
+    <t>HP1</t>
+  </si>
+  <si>
+    <t>water-water heat pump</t>
+  </si>
+  <si>
+    <t>HP2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit </t>
+  </si>
+  <si>
+    <t>long-term storage tank</t>
+  </si>
+  <si>
+    <t>TES1</t>
+  </si>
+  <si>
+    <t>m3</t>
+  </si>
+  <si>
+    <t>cap_min, cap_max</t>
+  </si>
+  <si>
+    <t>TES2</t>
+  </si>
+  <si>
     <t>generic pump</t>
   </si>
   <si>
-    <t>TES1</t>
-  </si>
-  <si>
-    <t>evacuated tube</t>
-  </si>
-  <si>
-    <t>SC1</t>
-  </si>
-  <si>
-    <t>SC2</t>
-  </si>
-  <si>
-    <t>generic PVT</t>
-  </si>
-  <si>
-    <t>PVT1</t>
-  </si>
-  <si>
-    <t>vapor compression chiller</t>
-  </si>
-  <si>
-    <t>CH1</t>
-  </si>
-  <si>
-    <t>solid oxide fuel cell</t>
-  </si>
-  <si>
-    <t>geothermal heat pump</t>
-  </si>
-  <si>
-    <t>HP1</t>
-  </si>
-  <si>
-    <t>water-water heat pump</t>
-  </si>
-  <si>
-    <t>HP2</t>
-  </si>
-  <si>
-    <t>CH2</t>
-  </si>
-  <si>
-    <t>centralized chiller</t>
-  </si>
-  <si>
-    <t>furnace combined with ORC</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Assumptions</t>
-  </si>
-  <si>
-    <t>cap_min</t>
-  </si>
-  <si>
-    <t>cap_max</t>
-  </si>
-  <si>
-    <t>unit</t>
-  </si>
-  <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t>generic amorphous silicon panel</t>
-  </si>
-  <si>
-    <t>flat plate</t>
-  </si>
-  <si>
-    <t>m2</t>
-  </si>
-  <si>
-    <t>currency</t>
-  </si>
-  <si>
-    <t>assumption</t>
-  </si>
-  <si>
-    <t>centralized cooling tower</t>
-  </si>
-  <si>
-    <t>BO1</t>
-  </si>
-  <si>
-    <t>condensing boiler</t>
-  </si>
-  <si>
-    <t>FU1</t>
-  </si>
-  <si>
-    <t>combined cycle gas turbine</t>
-  </si>
-  <si>
-    <t>substation heat exchanger</t>
-  </si>
-  <si>
-    <t>BH1</t>
-  </si>
-  <si>
-    <t>borehole</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
     <t>PU1</t>
   </si>
   <si>
-    <t xml:space="preserve">unit </t>
-  </si>
-  <si>
-    <t>IR_%, capacity</t>
-  </si>
-  <si>
-    <t>USD-2015</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>PV</t>
-  </si>
-  <si>
-    <t>FP</t>
-  </si>
-  <si>
-    <t>ET</t>
-  </si>
-  <si>
-    <t>aperture_area_ratio</t>
-  </si>
-  <si>
-    <t>n0</t>
-  </si>
-  <si>
-    <t>c1</t>
-  </si>
-  <si>
-    <t>c2</t>
-  </si>
-  <si>
-    <t>mB0_r</t>
-  </si>
-  <si>
-    <t>mB_max_r</t>
-  </si>
-  <si>
-    <t>mB_min_r</t>
-  </si>
-  <si>
-    <t>C_eff</t>
-  </si>
-  <si>
-    <t>t_max</t>
-  </si>
-  <si>
-    <t>IAM_d</t>
-  </si>
-  <si>
-    <t>dP1</t>
-  </si>
-  <si>
-    <t>dP2</t>
-  </si>
-  <si>
-    <t>dP3</t>
-  </si>
-  <si>
-    <t>dP4</t>
-  </si>
-  <si>
-    <t>Cp_fluid</t>
-  </si>
-  <si>
-    <t>misc_losses</t>
-  </si>
-  <si>
-    <t>module_length_m</t>
-  </si>
-  <si>
-    <t>module_area_m2</t>
-  </si>
-  <si>
-    <t>ACH1</t>
-  </si>
-  <si>
-    <t>s_e</t>
-  </si>
-  <si>
-    <t>r_e</t>
-  </si>
-  <si>
-    <t>a_e</t>
-  </si>
-  <si>
-    <t>e_e</t>
-  </si>
-  <si>
-    <t>s_g</t>
-  </si>
-  <si>
-    <t>r_g</t>
-  </si>
-  <si>
-    <t>a_g</t>
-  </si>
-  <si>
-    <t>e_g</t>
-  </si>
-  <si>
-    <t>m_cw</t>
-  </si>
-  <si>
-    <t>m_hw</t>
-  </si>
-  <si>
-    <t>LiBr single effect</t>
-  </si>
-  <si>
-    <t>ACH2</t>
-  </si>
-  <si>
-    <t>LiBr double effect</t>
-  </si>
-  <si>
-    <t>ACH3</t>
-  </si>
-  <si>
-    <t>LiBr triple effect</t>
-  </si>
-  <si>
-    <t>ACH4</t>
-  </si>
-  <si>
-    <t>all</t>
-  </si>
-  <si>
-    <t>single</t>
-  </si>
-  <si>
-    <t>double</t>
-  </si>
-  <si>
-    <t>triple</t>
-  </si>
-  <si>
-    <t>LiBr double effect (dummy)</t>
-  </si>
-  <si>
-    <t>ACH5</t>
-  </si>
-  <si>
-    <t>TES2</t>
-  </si>
-  <si>
-    <t>cap_min, cap_max</t>
-  </si>
-  <si>
-    <t>CH3</t>
-  </si>
-  <si>
     <t>District substation heat exchanger</t>
   </si>
   <si>
@@ -416,69 +425,69 @@
     <t>e_p</t>
   </si>
   <si>
-    <t>Fit based on RESCUE WP 2.4. Figure 18, 'cap_min': SSR530,  'cap_max':  based on reported largest chiller: Haier Magnetic Bearing Centrifugal Chiller</t>
+    <t xml:space="preserve">Fit based on RESCUE WP 2.4. Figure 18 </t>
+  </si>
+  <si>
+    <t>CODE</t>
+  </si>
+  <si>
+    <t>SOURCE</t>
+  </si>
+  <si>
+    <t>COMPRESSOR</t>
+  </si>
+  <si>
+    <t>plf_a</t>
+  </si>
+  <si>
+    <t>plf_b</t>
+  </si>
+  <si>
+    <t>plf_c</t>
+  </si>
+  <si>
+    <t>q_a</t>
+  </si>
+  <si>
+    <t>q_b</t>
+  </si>
+  <si>
+    <t>q_c</t>
+  </si>
+  <si>
+    <t>q_d</t>
+  </si>
+  <si>
+    <t>q_e</t>
+  </si>
+  <si>
+    <t>q_f</t>
+  </si>
+  <si>
+    <t>REFERENCE</t>
+  </si>
+  <si>
+    <t>CH_T0</t>
+  </si>
+  <si>
+    <t>WATER</t>
+  </si>
+  <si>
+    <t>SCREW</t>
+  </si>
+  <si>
+    <t>https://comnet.org/index.php/382-chillers</t>
+  </si>
+  <si>
+    <t>CH_T1</t>
+  </si>
+  <si>
+    <t>CENTRIFUGAL</t>
   </si>
   <si>
     <t>G_VALUE</t>
   </si>
   <si>
-    <t>SOURCE</t>
-  </si>
-  <si>
-    <t>SCREW</t>
-  </si>
-  <si>
-    <t>CENTRIFUGAL</t>
-  </si>
-  <si>
-    <t>https://comnet.org/index.php/382-chillers</t>
-  </si>
-  <si>
-    <t>CODE</t>
-  </si>
-  <si>
-    <t>CH_T0</t>
-  </si>
-  <si>
-    <t>plf_a</t>
-  </si>
-  <si>
-    <t>plf_b</t>
-  </si>
-  <si>
-    <t>plf_c</t>
-  </si>
-  <si>
-    <t>CH_T1</t>
-  </si>
-  <si>
-    <t>q_a</t>
-  </si>
-  <si>
-    <t>q_b</t>
-  </si>
-  <si>
-    <t>q_c</t>
-  </si>
-  <si>
-    <t>q_d</t>
-  </si>
-  <si>
-    <t>q_e</t>
-  </si>
-  <si>
-    <t>q_f</t>
-  </si>
-  <si>
-    <t>REFERENCE</t>
-  </si>
-  <si>
-    <t>WATER</t>
-  </si>
-  <si>
-    <t>COMPRESSOR</t>
-  </si>
-  <si>
     <t>LT_mat_yr</t>
   </si>
   <si>
@@ -509,6 +518,9 @@
     <t>n_disch</t>
   </si>
   <si>
+    <t>HEATING</t>
+  </si>
+  <si>
     <t>short-term storage tank - water</t>
   </si>
   <si>
@@ -521,44 +533,37 @@
     <t>short-term storage tank- ice</t>
   </si>
   <si>
+    <t>TES3</t>
+  </si>
+  <si>
     <t>short-term storage tank - eutectic salt</t>
   </si>
   <si>
-    <t>TES3</t>
+    <t>TES4</t>
   </si>
   <si>
     <t>short-term storage tank - PEG400</t>
   </si>
   <si>
-    <t>TES4</t>
+    <t>TES5</t>
   </si>
   <si>
     <t>short-term storage tank - Paraffin C14</t>
   </si>
   <si>
-    <t>TES5</t>
+    <t>TES6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
-    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="0.0000000"/>
-    <numFmt numFmtId="168" formatCode="0_ ;\-0\ "/>
-    <numFmt numFmtId="169" formatCode="0.0%"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0.0000000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -578,41 +583,19 @@
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -621,13 +604,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor indexed="49"/>
         <bgColor indexed="40"/>
       </patternFill>
     </fill>
@@ -636,6 +613,45 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="59"/>
+      </left>
+      <right style="thin">
+        <color indexed="59"/>
+      </right>
+      <top style="thin">
+        <color indexed="59"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="59"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="59"/>
+      </left>
+      <right style="thin">
+        <color indexed="59"/>
+      </right>
+      <top style="thin">
+        <color indexed="59"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="59"/>
+      </left>
+      <right style="thin">
+        <color indexed="59"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -655,75 +671,34 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="59"/>
-      </left>
-      <right style="thin">
-        <color indexed="59"/>
-      </right>
-      <top style="thin">
-        <color indexed="59"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="59"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -733,39 +708,96 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+  <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Normal 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Percent" xfId="5" builtinId="5"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="003C3C3C"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -823,9 +855,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -858,9 +890,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1028,8 +1060,98 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1" cy="1"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="090000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="400000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </a:spPr>
+      <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" upright="1"/>
+      <a:lstStyle/>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1" cy="1"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="090000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="400000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </a:spPr>
+      <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" upright="1"/>
+      <a:lstStyle/>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
@@ -1038,15 +1160,14 @@
   <dimension ref="A1:AA10"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="N1" sqref="N1:Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="38.6640625" customWidth="1"/>
     <col min="4" max="4" width="15.6640625" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="5" max="6" width="12" customWidth="1"/>
     <col min="7" max="7" width="14.5" customWidth="1"/>
     <col min="8" max="8" width="9.33203125" customWidth="1"/>
     <col min="9" max="9" width="8.5" customWidth="1"/>
@@ -1055,12 +1176,10 @@
     <col min="13" max="13" width="18.5" customWidth="1"/>
     <col min="14" max="14" width="16.33203125" customWidth="1"/>
     <col min="15" max="15" width="14.6640625" customWidth="1"/>
-    <col min="16" max="16" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.5" customWidth="1"/>
-    <col min="19" max="19" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="10.5" customWidth="1"/>
+    <col min="16" max="17" width="12.5" customWidth="1"/>
+    <col min="19" max="19" width="10.5" customWidth="1"/>
+    <col min="20" max="20" width="13.6640625" customWidth="1"/>
+    <col min="21" max="23" width="10.5" customWidth="1"/>
     <col min="24" max="24" width="14.6640625" customWidth="1"/>
     <col min="25" max="25" width="12.6640625" customWidth="1"/>
     <col min="27" max="27" width="13.33203125" customWidth="1"/>
@@ -1074,90 +1193,90 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>88</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="Q1" s="1" t="s">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="Y1" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -1166,7 +1285,7 @@
         <v>10000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="G2" s="2">
         <v>1</v>
@@ -1198,16 +1317,16 @@
       <c r="P2" s="3">
         <v>-1.1E-5</v>
       </c>
-      <c r="Q2" s="5">
+      <c r="Q2" s="4">
         <v>0.1</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="S2" s="2">
         <v>0</v>
       </c>
-      <c r="T2" s="5">
+      <c r="T2" s="4">
         <f>3.5/0.962</f>
         <v>3.6382536382536386</v>
       </c>
@@ -1230,18 +1349,18 @@
         <v>5</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2">
         <v>10000</v>
@@ -1250,7 +1369,7 @@
         <v>200000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="G3" s="2">
         <v>1</v>
@@ -1282,16 +1401,16 @@
       <c r="P3" s="3">
         <v>-1.1E-5</v>
       </c>
-      <c r="Q3" s="5">
+      <c r="Q3" s="4">
         <v>0.1</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="S3" s="2">
         <v>0</v>
       </c>
-      <c r="T3" s="5">
+      <c r="T3" s="4">
         <f>2.5/0.962</f>
         <v>2.5987525987525988</v>
       </c>
@@ -1314,27 +1433,27 @@
         <v>5</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="D4" s="2">
         <v>200000</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="5">
         <v>10000000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="G4" s="2">
         <v>1</v>
@@ -1366,16 +1485,16 @@
       <c r="P4" s="3">
         <v>-1.1E-5</v>
       </c>
-      <c r="Q4" s="5">
+      <c r="Q4" s="4">
         <v>0.1</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="S4" s="2">
         <v>0</v>
       </c>
-      <c r="T4" s="5">
+      <c r="T4" s="4">
         <f>2.5/0.962</f>
         <v>2.5987525987525988</v>
       </c>
@@ -1398,18 +1517,18 @@
         <v>5</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
@@ -1418,7 +1537,7 @@
         <v>10000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="G5" s="2">
         <v>1</v>
@@ -1450,16 +1569,16 @@
       <c r="P5" s="3">
         <v>-1.26E-4</v>
       </c>
-      <c r="Q5" s="5">
+      <c r="Q5" s="4">
         <v>0.1</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="S5" s="2">
         <v>0</v>
       </c>
-      <c r="T5" s="5">
+      <c r="T5" s="4">
         <f>3.5/0.962</f>
         <v>3.6382536382536386</v>
       </c>
@@ -1482,18 +1601,18 @@
         <v>5</v>
       </c>
       <c r="AA5" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="D6" s="2">
         <v>10000</v>
@@ -1502,7 +1621,7 @@
         <v>200000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
@@ -1534,16 +1653,16 @@
       <c r="P6" s="3">
         <v>-1.26E-4</v>
       </c>
-      <c r="Q6" s="5">
+      <c r="Q6" s="4">
         <v>0.1</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="S6" s="2">
         <v>0</v>
       </c>
-      <c r="T6" s="5">
+      <c r="T6" s="4">
         <f>2.5/0.962</f>
         <v>2.5987525987525988</v>
       </c>
@@ -1566,27 +1685,27 @@
         <v>5</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="D7" s="2">
         <v>200000</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="5">
         <v>10000000000</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
@@ -1618,16 +1737,16 @@
       <c r="P7" s="3">
         <v>-1.26E-4</v>
       </c>
-      <c r="Q7" s="5">
+      <c r="Q7" s="4">
         <v>0.1</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="S7" s="2">
         <v>0</v>
       </c>
-      <c r="T7" s="5">
+      <c r="T7" s="4">
         <f>2.5/0.962</f>
         <v>2.5987525987525988</v>
       </c>
@@ -1650,18 +1769,18 @@
         <v>5</v>
       </c>
       <c r="AA7" s="2" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
@@ -1670,7 +1789,7 @@
         <v>10000</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
@@ -1702,16 +1821,16 @@
       <c r="P8" s="3">
         <v>-1.9184000000000001E-5</v>
       </c>
-      <c r="Q8" s="5">
+      <c r="Q8" s="4">
         <v>0.1</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="S8" s="2">
         <v>0</v>
       </c>
-      <c r="T8" s="5">
+      <c r="T8" s="4">
         <f>3.5/0.962</f>
         <v>3.6382536382536386</v>
       </c>
@@ -1734,18 +1853,18 @@
         <v>5</v>
       </c>
       <c r="AA8" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="D9" s="2">
         <v>10000</v>
@@ -1754,7 +1873,7 @@
         <v>200000</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
@@ -1786,16 +1905,16 @@
       <c r="P9" s="3">
         <v>-1.9184000000000001E-5</v>
       </c>
-      <c r="Q9" s="5">
+      <c r="Q9" s="4">
         <v>0.1</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="S9" s="2">
         <v>0</v>
       </c>
-      <c r="T9" s="5">
+      <c r="T9" s="4">
         <f>2.5/0.962</f>
         <v>2.5987525987525988</v>
       </c>
@@ -1818,27 +1937,27 @@
         <v>5</v>
       </c>
       <c r="AA9" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="D10" s="2">
         <v>200000</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="5">
         <v>10000000000</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
@@ -1870,16 +1989,16 @@
       <c r="P10" s="3">
         <v>-1.9184000000000001E-5</v>
       </c>
-      <c r="Q10" s="5">
+      <c r="Q10" s="4">
         <v>0.1</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="S10" s="2">
         <v>0</v>
       </c>
-      <c r="T10" s="5">
+      <c r="T10" s="4">
         <f>2.5/0.962</f>
         <v>2.5987525987525988</v>
       </c>
@@ -1902,21 +2021,23 @@
         <v>5</v>
       </c>
       <c r="AA10" s="2" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:Z6"/>
+  <dimension ref="A1:Z7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1933,87 +2054,87 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="N1" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="D2" s="2">
         <v>0</v>
@@ -2022,10 +2143,10 @@
         <v>51150</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="H2" s="2">
         <v>0</v>
@@ -2052,7 +2173,7 @@
         <v>5</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="Q2" s="2">
         <v>0.42</v>
@@ -2087,25 +2208,25 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="D3" s="2">
         <v>51150</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="5">
         <v>1176000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="H3" s="2">
         <v>0</v>
@@ -2132,7 +2253,7 @@
         <v>5</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="Q3" s="2">
         <v>68.12</v>
@@ -2167,13 +2288,13 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
@@ -2182,10 +2303,10 @@
         <v>58150</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="H4" s="2">
         <v>0</v>
@@ -2212,7 +2333,7 @@
         <v>5</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="Q4" s="2">
         <v>0.42</v>
@@ -2247,25 +2368,25 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="D5" s="2">
         <v>58150</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="5">
         <v>1337450</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="H5" s="2">
         <v>0</v>
@@ -2292,7 +2413,7 @@
         <v>5</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="Q5" s="2">
         <v>18.100000000000001</v>
@@ -2327,31 +2448,31 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D6" s="2">
-        <v>116300</v>
-      </c>
-      <c r="E6" s="4">
-        <v>1628200</v>
+        <v>93</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1337450</v>
+      </c>
+      <c r="E6" s="5">
+        <v>10000000000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="H6" s="2">
         <v>0</v>
       </c>
       <c r="I6" s="2">
-        <v>0.64239999999999997</v>
+        <v>0.52969999999999995</v>
       </c>
       <c r="J6" s="2">
         <v>1</v>
@@ -2372,50 +2493,133 @@
         <v>5</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="Q6" s="2">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="R6" s="2">
+        <v>-1350.5</v>
+      </c>
+      <c r="S6" s="2">
+        <v>12.54</v>
+      </c>
+      <c r="T6" s="2">
+        <v>-917.3</v>
+      </c>
+      <c r="U6" s="2">
+        <v>-2.46</v>
+      </c>
+      <c r="V6" s="2">
+        <v>4.38</v>
+      </c>
+      <c r="W6" s="2">
+        <v>-2.46</v>
+      </c>
+      <c r="X6" s="2">
+        <v>4.38</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>68</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="2">
+        <v>116300</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1628200</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.64239999999999997</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <v>25</v>
+      </c>
+      <c r="N7" s="2">
+        <v>5</v>
+      </c>
+      <c r="O7" s="2">
+        <v>5</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q7" s="2">
         <v>14.6</v>
       </c>
-      <c r="R6" s="2">
+      <c r="R7" s="2">
         <v>-1171.7</v>
       </c>
-      <c r="S6" s="2">
+      <c r="S7" s="2">
         <v>7.05</v>
       </c>
-      <c r="T6" s="2">
+      <c r="T7" s="2">
         <v>-504.2</v>
       </c>
-      <c r="U6" s="2">
+      <c r="U7" s="2">
         <v>-2.14</v>
       </c>
-      <c r="V6" s="2">
+      <c r="V7" s="2">
         <v>3.29</v>
       </c>
-      <c r="W6" s="2">
+      <c r="W7" s="2">
         <v>-2.14</v>
       </c>
-      <c r="X6" s="2">
+      <c r="X7" s="2">
         <v>3.29</v>
       </c>
-      <c r="Y6" s="2">
+      <c r="Y7" s="2">
         <v>62</v>
       </c>
-      <c r="Z6" s="2">
+      <c r="Z7" s="2">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2423,7 +2627,6 @@
     <col min="1" max="1" width="26.5" customWidth="1"/>
     <col min="3" max="3" width="18.5" customWidth="1"/>
     <col min="4" max="5" width="15.33203125" customWidth="1"/>
-    <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="29" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2435,51 +2638,51 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -2488,10 +2691,10 @@
         <v>10000000</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="G2" s="2">
         <v>1457.3</v>
@@ -2515,14 +2718,64 @@
         <v>5</v>
       </c>
       <c r="N2" s="2">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="O2" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1E+16</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1457.3</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1.61E-2</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
         <v>20</v>
       </c>
+      <c r="M3" s="2">
+        <v>5</v>
+      </c>
+      <c r="N3" s="2">
+        <v>15</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>101</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
@@ -2531,7 +2784,7 @@
   <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2544,316 +2797,319 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="11" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="H1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="I1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="M1" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="N1" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="O1" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="P1" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q1" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="R1" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="S1" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="T1" s="11" t="s">
-        <v>54</v>
+      <c r="R1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="12">
+      <c r="A2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="2">
         <v>50000</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="2">
         <v>80000</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="G2" s="12">
+      <c r="E2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="2">
         <f>-333/0.962</f>
         <v>-346.15384615384619</v>
       </c>
-      <c r="H2" s="12">
+      <c r="H2" s="2">
         <f>0.067/0.962</f>
         <v>6.964656964656965E-2</v>
       </c>
-      <c r="I2" s="12">
-        <v>1</v>
-      </c>
-      <c r="J2" s="12">
-        <v>0</v>
-      </c>
-      <c r="K2" s="12">
-        <v>0</v>
-      </c>
-      <c r="L2" s="12">
-        <v>0</v>
-      </c>
-      <c r="M2" s="12">
-        <v>0</v>
-      </c>
-      <c r="N2" s="12">
-        <v>0</v>
-      </c>
-      <c r="O2" s="12">
-        <v>0</v>
-      </c>
-      <c r="P2" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="12">
+      <c r="I2" s="2">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="2">
         <v>20</v>
       </c>
-      <c r="R2" s="12">
-        <v>5</v>
-      </c>
-      <c r="S2" s="12">
-        <v>5</v>
-      </c>
-      <c r="T2" s="12"/>
+      <c r="R2" s="2">
+        <v>5</v>
+      </c>
+      <c r="S2" s="2">
+        <v>5</v>
+      </c>
+      <c r="T2" s="2"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="12">
+      <c r="A3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="2">
         <v>80000</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="2">
         <v>100000</v>
       </c>
-      <c r="E3" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="G3" s="12">
+      <c r="E3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="2">
         <f>5000/0.962</f>
         <v>5197.5051975051974</v>
       </c>
-      <c r="H3" s="12">
-        <v>0</v>
-      </c>
-      <c r="I3" s="12">
-        <v>0</v>
-      </c>
-      <c r="J3" s="12">
-        <v>0</v>
-      </c>
-      <c r="K3" s="12">
-        <v>0</v>
-      </c>
-      <c r="L3" s="12">
-        <v>0</v>
-      </c>
-      <c r="M3" s="12">
-        <v>0</v>
-      </c>
-      <c r="N3" s="12">
-        <v>0</v>
-      </c>
-      <c r="O3" s="12">
-        <v>0</v>
-      </c>
-      <c r="P3" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="12">
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="2">
         <v>20</v>
       </c>
-      <c r="R3" s="12">
-        <v>5</v>
-      </c>
-      <c r="S3" s="12">
-        <v>5</v>
-      </c>
-      <c r="T3" s="12"/>
+      <c r="R3" s="2">
+        <v>5</v>
+      </c>
+      <c r="S3" s="2">
+        <v>5</v>
+      </c>
+      <c r="T3" s="2"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="12">
+      <c r="A4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="2">
         <v>100000</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="5">
         <v>10000000000</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="G4" s="12">
+      <c r="E4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="2">
         <f>-3000/0.962</f>
         <v>-3118.5031185031185</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="2">
         <f>0.08/0.962</f>
         <v>8.3160083160083165E-2</v>
       </c>
-      <c r="I4" s="12">
-        <v>1</v>
-      </c>
-      <c r="J4" s="12">
-        <v>0</v>
-      </c>
-      <c r="K4" s="12">
-        <v>0</v>
-      </c>
-      <c r="L4" s="12">
-        <v>0</v>
-      </c>
-      <c r="M4" s="12">
-        <v>0</v>
-      </c>
-      <c r="N4" s="12">
-        <v>0</v>
-      </c>
-      <c r="O4" s="12">
-        <v>0</v>
-      </c>
-      <c r="P4" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="12">
+      <c r="I4" s="2">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="2">
         <v>20</v>
       </c>
-      <c r="R4" s="12">
-        <v>5</v>
-      </c>
-      <c r="S4" s="12">
-        <v>5</v>
-      </c>
-      <c r="T4" s="12"/>
+      <c r="R4" s="2">
+        <v>5</v>
+      </c>
+      <c r="S4" s="2">
+        <v>5</v>
+      </c>
+      <c r="T4" s="2"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="C5" s="12">
-        <v>0</v>
-      </c>
-      <c r="D5" s="13">
+      <c r="A5" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5">
         <v>500</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="G5" s="12">
+      <c r="E5" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="2">
         <v>3381</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="2">
         <v>229.8</v>
       </c>
-      <c r="I5" s="12">
-        <v>0</v>
-      </c>
-      <c r="J5" s="12">
-        <v>0</v>
-      </c>
-      <c r="K5" s="12">
-        <v>0</v>
-      </c>
-      <c r="L5" s="12">
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
         <v>5056</v>
       </c>
-      <c r="M5" s="12">
+      <c r="M5" s="2">
         <v>319.89999999999998</v>
       </c>
-      <c r="N5" s="12">
+      <c r="N5" s="2">
         <v>0.4153</v>
       </c>
-      <c r="O5" s="12">
+      <c r="O5" s="2">
         <v>-1271</v>
       </c>
-      <c r="P5" s="12">
+      <c r="P5" s="2">
         <v>6.8329999999999997E-3</v>
       </c>
-      <c r="Q5" s="12">
+      <c r="Q5" s="2">
         <v>20</v>
       </c>
-      <c r="R5" s="12">
-        <v>5</v>
-      </c>
-      <c r="S5" s="12">
-        <v>5</v>
-      </c>
-      <c r="T5" s="12" t="s">
-        <v>119</v>
+      <c r="R5" s="2">
+        <v>5</v>
+      </c>
+      <c r="S5" s="2">
+        <v>5</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
@@ -2882,63 +3138,63 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="5">
         <v>10000000000</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="G2" s="2">
         <v>0</v>
@@ -2968,16 +3224,19 @@
       <c r="O2" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2998,63 +3257,63 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>107</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="5">
         <v>10000000000</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="G2" s="2">
         <v>0</v>
@@ -3085,10 +3344,10 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="C3" s="2">
         <v>1000000</v>
@@ -3097,10 +3356,10 @@
         <v>20000000</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="G3" s="2">
         <v>0</v>
@@ -3130,66 +3389,20 @@
       </c>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="2">
-        <v>20000000</v>
-      </c>
-      <c r="D4" s="2">
-        <v>2E+16</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2">
-        <f>8893/0.902/1000</f>
-        <v>9.8592017738359186</v>
-      </c>
-      <c r="I4" s="2">
-        <v>1</v>
-      </c>
-      <c r="J4" s="2">
-        <v>0</v>
-      </c>
-      <c r="K4" s="2">
-        <f>-493.53/0.902/1000</f>
-        <v>-0.54715077605321505</v>
-      </c>
-      <c r="L4" s="2">
-        <v>25</v>
-      </c>
-      <c r="M4" s="2">
-        <v>5</v>
-      </c>
-      <c r="N4" s="2">
-        <v>6</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3209,51 +3422,51 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>117</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="C2" s="2">
         <v>500</v>
@@ -3262,10 +3475,10 @@
         <v>4000</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="G2" s="2">
         <v>0</v>
@@ -3293,15 +3506,15 @@
         <v>6</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>117</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="C3" s="2">
         <v>4000</v>
@@ -3310,10 +3523,10 @@
         <v>37000</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="G3" s="2">
         <v>0</v>
@@ -3341,15 +3554,15 @@
         <v>6</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>117</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="C4" s="2">
         <v>37000</v>
@@ -3358,10 +3571,10 @@
         <v>375000</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="G4" s="2">
         <v>0</v>
@@ -3389,27 +3602,27 @@
         <v>6</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>28</v>
+        <v>117</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="C5" s="2">
-        <v>375000</v>
-      </c>
-      <c r="D5" s="4">
+        <v>37000</v>
+      </c>
+      <c r="D5" s="5">
         <v>10000000000</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="G5" s="2">
         <v>0</v>
@@ -3437,920 +3650,667 @@
         <v>6</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:Z10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <dimension ref="A1:Z8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="40.33203125" customWidth="1"/>
-    <col min="2" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5" customWidth="1"/>
-    <col min="7" max="7" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5" customWidth="1"/>
-    <col min="14" max="14" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.6640625" customWidth="1"/>
-    <col min="20" max="20" width="10.33203125" customWidth="1"/>
-    <col min="21" max="21" width="9.33203125" customWidth="1"/>
-    <col min="22" max="22" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="10.33203125" customWidth="1"/>
-    <col min="26" max="26" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="257" max="257" width="40.33203125" customWidth="1"/>
-    <col min="258" max="259" width="12.5" customWidth="1"/>
-    <col min="260" max="261" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="262" max="262" width="8.5" customWidth="1"/>
-    <col min="263" max="263" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="264" max="264" width="8.5" customWidth="1"/>
-    <col min="270" max="270" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="274" max="274" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="275" max="275" width="10.6640625" customWidth="1"/>
-    <col min="276" max="276" width="10.33203125" customWidth="1"/>
-    <col min="277" max="277" width="9.33203125" customWidth="1"/>
-    <col min="278" max="278" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="279" max="281" width="10.33203125" customWidth="1"/>
-    <col min="282" max="282" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="513" max="513" width="40.33203125" customWidth="1"/>
-    <col min="514" max="515" width="12.5" customWidth="1"/>
-    <col min="516" max="517" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="518" max="518" width="8.5" customWidth="1"/>
-    <col min="519" max="519" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="520" max="520" width="8.5" customWidth="1"/>
-    <col min="526" max="526" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="530" max="530" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="531" max="531" width="10.6640625" customWidth="1"/>
-    <col min="532" max="532" width="10.33203125" customWidth="1"/>
-    <col min="533" max="533" width="9.33203125" customWidth="1"/>
-    <col min="534" max="534" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="535" max="537" width="10.33203125" customWidth="1"/>
-    <col min="538" max="538" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="769" max="769" width="40.33203125" customWidth="1"/>
-    <col min="770" max="771" width="12.5" customWidth="1"/>
-    <col min="772" max="773" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="774" max="774" width="8.5" customWidth="1"/>
-    <col min="775" max="775" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="776" max="776" width="8.5" customWidth="1"/>
-    <col min="782" max="782" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="786" max="786" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="787" max="787" width="10.6640625" customWidth="1"/>
-    <col min="788" max="788" width="10.33203125" customWidth="1"/>
-    <col min="789" max="789" width="9.33203125" customWidth="1"/>
-    <col min="790" max="790" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="791" max="793" width="10.33203125" customWidth="1"/>
-    <col min="794" max="794" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="1025" max="1025" width="40.33203125" customWidth="1"/>
-    <col min="1026" max="1027" width="12.5" customWidth="1"/>
-    <col min="1028" max="1029" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="1030" max="1030" width="8.5" customWidth="1"/>
-    <col min="1031" max="1031" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="1032" max="1032" width="8.5" customWidth="1"/>
-    <col min="1038" max="1038" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="1042" max="1042" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="1043" max="1043" width="10.6640625" customWidth="1"/>
-    <col min="1044" max="1044" width="10.33203125" customWidth="1"/>
-    <col min="1045" max="1045" width="9.33203125" customWidth="1"/>
-    <col min="1046" max="1046" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="1047" max="1049" width="10.33203125" customWidth="1"/>
-    <col min="1050" max="1050" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="1281" max="1281" width="40.33203125" customWidth="1"/>
-    <col min="1282" max="1283" width="12.5" customWidth="1"/>
-    <col min="1284" max="1285" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="1286" max="1286" width="8.5" customWidth="1"/>
-    <col min="1287" max="1287" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="1288" max="1288" width="8.5" customWidth="1"/>
-    <col min="1294" max="1294" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="1298" max="1298" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="1299" max="1299" width="10.6640625" customWidth="1"/>
-    <col min="1300" max="1300" width="10.33203125" customWidth="1"/>
-    <col min="1301" max="1301" width="9.33203125" customWidth="1"/>
-    <col min="1302" max="1302" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="1303" max="1305" width="10.33203125" customWidth="1"/>
-    <col min="1306" max="1306" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="1537" max="1537" width="40.33203125" customWidth="1"/>
-    <col min="1538" max="1539" width="12.5" customWidth="1"/>
-    <col min="1540" max="1541" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="1542" max="1542" width="8.5" customWidth="1"/>
-    <col min="1543" max="1543" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="1544" max="1544" width="8.5" customWidth="1"/>
-    <col min="1550" max="1550" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="1554" max="1554" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="1555" max="1555" width="10.6640625" customWidth="1"/>
-    <col min="1556" max="1556" width="10.33203125" customWidth="1"/>
-    <col min="1557" max="1557" width="9.33203125" customWidth="1"/>
-    <col min="1558" max="1558" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="1559" max="1561" width="10.33203125" customWidth="1"/>
-    <col min="1562" max="1562" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="1793" max="1793" width="40.33203125" customWidth="1"/>
-    <col min="1794" max="1795" width="12.5" customWidth="1"/>
-    <col min="1796" max="1797" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="1798" max="1798" width="8.5" customWidth="1"/>
-    <col min="1799" max="1799" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="1800" max="1800" width="8.5" customWidth="1"/>
-    <col min="1806" max="1806" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="1810" max="1810" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="1811" max="1811" width="10.6640625" customWidth="1"/>
-    <col min="1812" max="1812" width="10.33203125" customWidth="1"/>
-    <col min="1813" max="1813" width="9.33203125" customWidth="1"/>
-    <col min="1814" max="1814" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="1815" max="1817" width="10.33203125" customWidth="1"/>
-    <col min="1818" max="1818" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="2049" max="2049" width="40.33203125" customWidth="1"/>
-    <col min="2050" max="2051" width="12.5" customWidth="1"/>
-    <col min="2052" max="2053" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2054" max="2054" width="8.5" customWidth="1"/>
-    <col min="2055" max="2055" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="2056" max="2056" width="8.5" customWidth="1"/>
-    <col min="2062" max="2062" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="2066" max="2066" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="2067" max="2067" width="10.6640625" customWidth="1"/>
-    <col min="2068" max="2068" width="10.33203125" customWidth="1"/>
-    <col min="2069" max="2069" width="9.33203125" customWidth="1"/>
-    <col min="2070" max="2070" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="2071" max="2073" width="10.33203125" customWidth="1"/>
-    <col min="2074" max="2074" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="2305" max="2305" width="40.33203125" customWidth="1"/>
-    <col min="2306" max="2307" width="12.5" customWidth="1"/>
-    <col min="2308" max="2309" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2310" max="2310" width="8.5" customWidth="1"/>
-    <col min="2311" max="2311" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="2312" max="2312" width="8.5" customWidth="1"/>
-    <col min="2318" max="2318" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="2322" max="2322" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="2323" max="2323" width="10.6640625" customWidth="1"/>
-    <col min="2324" max="2324" width="10.33203125" customWidth="1"/>
-    <col min="2325" max="2325" width="9.33203125" customWidth="1"/>
-    <col min="2326" max="2326" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="2327" max="2329" width="10.33203125" customWidth="1"/>
-    <col min="2330" max="2330" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="2561" max="2561" width="40.33203125" customWidth="1"/>
-    <col min="2562" max="2563" width="12.5" customWidth="1"/>
-    <col min="2564" max="2565" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2566" max="2566" width="8.5" customWidth="1"/>
-    <col min="2567" max="2567" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="2568" max="2568" width="8.5" customWidth="1"/>
-    <col min="2574" max="2574" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="2578" max="2578" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="2579" max="2579" width="10.6640625" customWidth="1"/>
-    <col min="2580" max="2580" width="10.33203125" customWidth="1"/>
-    <col min="2581" max="2581" width="9.33203125" customWidth="1"/>
-    <col min="2582" max="2582" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="2583" max="2585" width="10.33203125" customWidth="1"/>
-    <col min="2586" max="2586" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="2817" max="2817" width="40.33203125" customWidth="1"/>
-    <col min="2818" max="2819" width="12.5" customWidth="1"/>
-    <col min="2820" max="2821" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2822" max="2822" width="8.5" customWidth="1"/>
-    <col min="2823" max="2823" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="2824" max="2824" width="8.5" customWidth="1"/>
-    <col min="2830" max="2830" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="2834" max="2834" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="2835" max="2835" width="10.6640625" customWidth="1"/>
-    <col min="2836" max="2836" width="10.33203125" customWidth="1"/>
-    <col min="2837" max="2837" width="9.33203125" customWidth="1"/>
-    <col min="2838" max="2838" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="2839" max="2841" width="10.33203125" customWidth="1"/>
-    <col min="2842" max="2842" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="3073" max="3073" width="40.33203125" customWidth="1"/>
-    <col min="3074" max="3075" width="12.5" customWidth="1"/>
-    <col min="3076" max="3077" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="3078" max="3078" width="8.5" customWidth="1"/>
-    <col min="3079" max="3079" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="3080" max="3080" width="8.5" customWidth="1"/>
-    <col min="3086" max="3086" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="3090" max="3090" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="3091" max="3091" width="10.6640625" customWidth="1"/>
-    <col min="3092" max="3092" width="10.33203125" customWidth="1"/>
-    <col min="3093" max="3093" width="9.33203125" customWidth="1"/>
-    <col min="3094" max="3094" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="3095" max="3097" width="10.33203125" customWidth="1"/>
-    <col min="3098" max="3098" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="3329" max="3329" width="40.33203125" customWidth="1"/>
-    <col min="3330" max="3331" width="12.5" customWidth="1"/>
-    <col min="3332" max="3333" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="3334" max="3334" width="8.5" customWidth="1"/>
-    <col min="3335" max="3335" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="3336" max="3336" width="8.5" customWidth="1"/>
-    <col min="3342" max="3342" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="3346" max="3346" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="3347" max="3347" width="10.6640625" customWidth="1"/>
-    <col min="3348" max="3348" width="10.33203125" customWidth="1"/>
-    <col min="3349" max="3349" width="9.33203125" customWidth="1"/>
-    <col min="3350" max="3350" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="3351" max="3353" width="10.33203125" customWidth="1"/>
-    <col min="3354" max="3354" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="3585" max="3585" width="40.33203125" customWidth="1"/>
-    <col min="3586" max="3587" width="12.5" customWidth="1"/>
-    <col min="3588" max="3589" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="3590" max="3590" width="8.5" customWidth="1"/>
-    <col min="3591" max="3591" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="3592" max="3592" width="8.5" customWidth="1"/>
-    <col min="3598" max="3598" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="3602" max="3602" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="3603" max="3603" width="10.6640625" customWidth="1"/>
-    <col min="3604" max="3604" width="10.33203125" customWidth="1"/>
-    <col min="3605" max="3605" width="9.33203125" customWidth="1"/>
-    <col min="3606" max="3606" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="3607" max="3609" width="10.33203125" customWidth="1"/>
-    <col min="3610" max="3610" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="3841" max="3841" width="40.33203125" customWidth="1"/>
-    <col min="3842" max="3843" width="12.5" customWidth="1"/>
-    <col min="3844" max="3845" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="3846" max="3846" width="8.5" customWidth="1"/>
-    <col min="3847" max="3847" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="3848" max="3848" width="8.5" customWidth="1"/>
-    <col min="3854" max="3854" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="3858" max="3858" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="3859" max="3859" width="10.6640625" customWidth="1"/>
-    <col min="3860" max="3860" width="10.33203125" customWidth="1"/>
-    <col min="3861" max="3861" width="9.33203125" customWidth="1"/>
-    <col min="3862" max="3862" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="3863" max="3865" width="10.33203125" customWidth="1"/>
-    <col min="3866" max="3866" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="4097" max="4097" width="40.33203125" customWidth="1"/>
-    <col min="4098" max="4099" width="12.5" customWidth="1"/>
-    <col min="4100" max="4101" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="4102" max="4102" width="8.5" customWidth="1"/>
-    <col min="4103" max="4103" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="4104" max="4104" width="8.5" customWidth="1"/>
-    <col min="4110" max="4110" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="4114" max="4114" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="4115" max="4115" width="10.6640625" customWidth="1"/>
-    <col min="4116" max="4116" width="10.33203125" customWidth="1"/>
-    <col min="4117" max="4117" width="9.33203125" customWidth="1"/>
-    <col min="4118" max="4118" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="4119" max="4121" width="10.33203125" customWidth="1"/>
-    <col min="4122" max="4122" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="4353" max="4353" width="40.33203125" customWidth="1"/>
-    <col min="4354" max="4355" width="12.5" customWidth="1"/>
-    <col min="4356" max="4357" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="4358" max="4358" width="8.5" customWidth="1"/>
-    <col min="4359" max="4359" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="4360" max="4360" width="8.5" customWidth="1"/>
-    <col min="4366" max="4366" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="4370" max="4370" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="4371" max="4371" width="10.6640625" customWidth="1"/>
-    <col min="4372" max="4372" width="10.33203125" customWidth="1"/>
-    <col min="4373" max="4373" width="9.33203125" customWidth="1"/>
-    <col min="4374" max="4374" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="4375" max="4377" width="10.33203125" customWidth="1"/>
-    <col min="4378" max="4378" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="4609" max="4609" width="40.33203125" customWidth="1"/>
-    <col min="4610" max="4611" width="12.5" customWidth="1"/>
-    <col min="4612" max="4613" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="4614" max="4614" width="8.5" customWidth="1"/>
-    <col min="4615" max="4615" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="4616" max="4616" width="8.5" customWidth="1"/>
-    <col min="4622" max="4622" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="4626" max="4626" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="4627" max="4627" width="10.6640625" customWidth="1"/>
-    <col min="4628" max="4628" width="10.33203125" customWidth="1"/>
-    <col min="4629" max="4629" width="9.33203125" customWidth="1"/>
-    <col min="4630" max="4630" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="4631" max="4633" width="10.33203125" customWidth="1"/>
-    <col min="4634" max="4634" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="4865" max="4865" width="40.33203125" customWidth="1"/>
-    <col min="4866" max="4867" width="12.5" customWidth="1"/>
-    <col min="4868" max="4869" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="4870" max="4870" width="8.5" customWidth="1"/>
-    <col min="4871" max="4871" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="4872" max="4872" width="8.5" customWidth="1"/>
-    <col min="4878" max="4878" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="4882" max="4882" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="4883" max="4883" width="10.6640625" customWidth="1"/>
-    <col min="4884" max="4884" width="10.33203125" customWidth="1"/>
-    <col min="4885" max="4885" width="9.33203125" customWidth="1"/>
-    <col min="4886" max="4886" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="4887" max="4889" width="10.33203125" customWidth="1"/>
-    <col min="4890" max="4890" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="5121" max="5121" width="40.33203125" customWidth="1"/>
-    <col min="5122" max="5123" width="12.5" customWidth="1"/>
-    <col min="5124" max="5125" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5126" max="5126" width="8.5" customWidth="1"/>
-    <col min="5127" max="5127" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="5128" max="5128" width="8.5" customWidth="1"/>
-    <col min="5134" max="5134" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="5138" max="5138" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="5139" max="5139" width="10.6640625" customWidth="1"/>
-    <col min="5140" max="5140" width="10.33203125" customWidth="1"/>
-    <col min="5141" max="5141" width="9.33203125" customWidth="1"/>
-    <col min="5142" max="5142" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="5143" max="5145" width="10.33203125" customWidth="1"/>
-    <col min="5146" max="5146" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="5377" max="5377" width="40.33203125" customWidth="1"/>
-    <col min="5378" max="5379" width="12.5" customWidth="1"/>
-    <col min="5380" max="5381" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5382" max="5382" width="8.5" customWidth="1"/>
-    <col min="5383" max="5383" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="5384" max="5384" width="8.5" customWidth="1"/>
-    <col min="5390" max="5390" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="5394" max="5394" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="5395" max="5395" width="10.6640625" customWidth="1"/>
-    <col min="5396" max="5396" width="10.33203125" customWidth="1"/>
-    <col min="5397" max="5397" width="9.33203125" customWidth="1"/>
-    <col min="5398" max="5398" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="5399" max="5401" width="10.33203125" customWidth="1"/>
-    <col min="5402" max="5402" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="5633" max="5633" width="40.33203125" customWidth="1"/>
-    <col min="5634" max="5635" width="12.5" customWidth="1"/>
-    <col min="5636" max="5637" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5638" max="5638" width="8.5" customWidth="1"/>
-    <col min="5639" max="5639" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="5640" max="5640" width="8.5" customWidth="1"/>
-    <col min="5646" max="5646" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="5650" max="5650" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="5651" max="5651" width="10.6640625" customWidth="1"/>
-    <col min="5652" max="5652" width="10.33203125" customWidth="1"/>
-    <col min="5653" max="5653" width="9.33203125" customWidth="1"/>
-    <col min="5654" max="5654" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="5655" max="5657" width="10.33203125" customWidth="1"/>
-    <col min="5658" max="5658" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="5889" max="5889" width="40.33203125" customWidth="1"/>
-    <col min="5890" max="5891" width="12.5" customWidth="1"/>
-    <col min="5892" max="5893" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5894" max="5894" width="8.5" customWidth="1"/>
-    <col min="5895" max="5895" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="5896" max="5896" width="8.5" customWidth="1"/>
-    <col min="5902" max="5902" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="5906" max="5906" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="5907" max="5907" width="10.6640625" customWidth="1"/>
-    <col min="5908" max="5908" width="10.33203125" customWidth="1"/>
-    <col min="5909" max="5909" width="9.33203125" customWidth="1"/>
-    <col min="5910" max="5910" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="5911" max="5913" width="10.33203125" customWidth="1"/>
-    <col min="5914" max="5914" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="6145" max="6145" width="40.33203125" customWidth="1"/>
-    <col min="6146" max="6147" width="12.5" customWidth="1"/>
-    <col min="6148" max="6149" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6150" max="6150" width="8.5" customWidth="1"/>
-    <col min="6151" max="6151" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="6152" max="6152" width="8.5" customWidth="1"/>
-    <col min="6158" max="6158" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="6162" max="6162" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="6163" max="6163" width="10.6640625" customWidth="1"/>
-    <col min="6164" max="6164" width="10.33203125" customWidth="1"/>
-    <col min="6165" max="6165" width="9.33203125" customWidth="1"/>
-    <col min="6166" max="6166" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="6167" max="6169" width="10.33203125" customWidth="1"/>
-    <col min="6170" max="6170" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="6401" max="6401" width="40.33203125" customWidth="1"/>
-    <col min="6402" max="6403" width="12.5" customWidth="1"/>
-    <col min="6404" max="6405" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6406" max="6406" width="8.5" customWidth="1"/>
-    <col min="6407" max="6407" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="6408" max="6408" width="8.5" customWidth="1"/>
-    <col min="6414" max="6414" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="6418" max="6418" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="6419" max="6419" width="10.6640625" customWidth="1"/>
-    <col min="6420" max="6420" width="10.33203125" customWidth="1"/>
-    <col min="6421" max="6421" width="9.33203125" customWidth="1"/>
-    <col min="6422" max="6422" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="6423" max="6425" width="10.33203125" customWidth="1"/>
-    <col min="6426" max="6426" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="6657" max="6657" width="40.33203125" customWidth="1"/>
-    <col min="6658" max="6659" width="12.5" customWidth="1"/>
-    <col min="6660" max="6661" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6662" max="6662" width="8.5" customWidth="1"/>
-    <col min="6663" max="6663" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="6664" max="6664" width="8.5" customWidth="1"/>
-    <col min="6670" max="6670" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="6674" max="6674" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="6675" max="6675" width="10.6640625" customWidth="1"/>
-    <col min="6676" max="6676" width="10.33203125" customWidth="1"/>
-    <col min="6677" max="6677" width="9.33203125" customWidth="1"/>
-    <col min="6678" max="6678" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="6679" max="6681" width="10.33203125" customWidth="1"/>
-    <col min="6682" max="6682" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="6913" max="6913" width="40.33203125" customWidth="1"/>
-    <col min="6914" max="6915" width="12.5" customWidth="1"/>
-    <col min="6916" max="6917" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6918" max="6918" width="8.5" customWidth="1"/>
-    <col min="6919" max="6919" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="6920" max="6920" width="8.5" customWidth="1"/>
-    <col min="6926" max="6926" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="6930" max="6930" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="6931" max="6931" width="10.6640625" customWidth="1"/>
-    <col min="6932" max="6932" width="10.33203125" customWidth="1"/>
-    <col min="6933" max="6933" width="9.33203125" customWidth="1"/>
-    <col min="6934" max="6934" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="6935" max="6937" width="10.33203125" customWidth="1"/>
-    <col min="6938" max="6938" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="7169" max="7169" width="40.33203125" customWidth="1"/>
-    <col min="7170" max="7171" width="12.5" customWidth="1"/>
-    <col min="7172" max="7173" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="7174" max="7174" width="8.5" customWidth="1"/>
-    <col min="7175" max="7175" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="7176" max="7176" width="8.5" customWidth="1"/>
-    <col min="7182" max="7182" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="7186" max="7186" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="7187" max="7187" width="10.6640625" customWidth="1"/>
-    <col min="7188" max="7188" width="10.33203125" customWidth="1"/>
-    <col min="7189" max="7189" width="9.33203125" customWidth="1"/>
-    <col min="7190" max="7190" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="7191" max="7193" width="10.33203125" customWidth="1"/>
-    <col min="7194" max="7194" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="7425" max="7425" width="40.33203125" customWidth="1"/>
-    <col min="7426" max="7427" width="12.5" customWidth="1"/>
-    <col min="7428" max="7429" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="7430" max="7430" width="8.5" customWidth="1"/>
-    <col min="7431" max="7431" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="7432" max="7432" width="8.5" customWidth="1"/>
-    <col min="7438" max="7438" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="7442" max="7442" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="7443" max="7443" width="10.6640625" customWidth="1"/>
-    <col min="7444" max="7444" width="10.33203125" customWidth="1"/>
-    <col min="7445" max="7445" width="9.33203125" customWidth="1"/>
-    <col min="7446" max="7446" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="7447" max="7449" width="10.33203125" customWidth="1"/>
-    <col min="7450" max="7450" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="7681" max="7681" width="40.33203125" customWidth="1"/>
-    <col min="7682" max="7683" width="12.5" customWidth="1"/>
-    <col min="7684" max="7685" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="7686" max="7686" width="8.5" customWidth="1"/>
-    <col min="7687" max="7687" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="7688" max="7688" width="8.5" customWidth="1"/>
-    <col min="7694" max="7694" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="7698" max="7698" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="7699" max="7699" width="10.6640625" customWidth="1"/>
-    <col min="7700" max="7700" width="10.33203125" customWidth="1"/>
-    <col min="7701" max="7701" width="9.33203125" customWidth="1"/>
-    <col min="7702" max="7702" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="7703" max="7705" width="10.33203125" customWidth="1"/>
-    <col min="7706" max="7706" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="7937" max="7937" width="40.33203125" customWidth="1"/>
-    <col min="7938" max="7939" width="12.5" customWidth="1"/>
-    <col min="7940" max="7941" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="7942" max="7942" width="8.5" customWidth="1"/>
-    <col min="7943" max="7943" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="7944" max="7944" width="8.5" customWidth="1"/>
-    <col min="7950" max="7950" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="7954" max="7954" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="7955" max="7955" width="10.6640625" customWidth="1"/>
-    <col min="7956" max="7956" width="10.33203125" customWidth="1"/>
-    <col min="7957" max="7957" width="9.33203125" customWidth="1"/>
-    <col min="7958" max="7958" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="7959" max="7961" width="10.33203125" customWidth="1"/>
-    <col min="7962" max="7962" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="8193" max="8193" width="40.33203125" customWidth="1"/>
-    <col min="8194" max="8195" width="12.5" customWidth="1"/>
-    <col min="8196" max="8197" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="8198" max="8198" width="8.5" customWidth="1"/>
-    <col min="8199" max="8199" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="8200" max="8200" width="8.5" customWidth="1"/>
-    <col min="8206" max="8206" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="8210" max="8210" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="8211" max="8211" width="10.6640625" customWidth="1"/>
-    <col min="8212" max="8212" width="10.33203125" customWidth="1"/>
-    <col min="8213" max="8213" width="9.33203125" customWidth="1"/>
-    <col min="8214" max="8214" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="8215" max="8217" width="10.33203125" customWidth="1"/>
-    <col min="8218" max="8218" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="8449" max="8449" width="40.33203125" customWidth="1"/>
-    <col min="8450" max="8451" width="12.5" customWidth="1"/>
-    <col min="8452" max="8453" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="8454" max="8454" width="8.5" customWidth="1"/>
-    <col min="8455" max="8455" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="8456" max="8456" width="8.5" customWidth="1"/>
-    <col min="8462" max="8462" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="8466" max="8466" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="8467" max="8467" width="10.6640625" customWidth="1"/>
-    <col min="8468" max="8468" width="10.33203125" customWidth="1"/>
-    <col min="8469" max="8469" width="9.33203125" customWidth="1"/>
-    <col min="8470" max="8470" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="8471" max="8473" width="10.33203125" customWidth="1"/>
-    <col min="8474" max="8474" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="8705" max="8705" width="40.33203125" customWidth="1"/>
-    <col min="8706" max="8707" width="12.5" customWidth="1"/>
-    <col min="8708" max="8709" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="8710" max="8710" width="8.5" customWidth="1"/>
-    <col min="8711" max="8711" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="8712" max="8712" width="8.5" customWidth="1"/>
-    <col min="8718" max="8718" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="8722" max="8722" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="8723" max="8723" width="10.6640625" customWidth="1"/>
-    <col min="8724" max="8724" width="10.33203125" customWidth="1"/>
-    <col min="8725" max="8725" width="9.33203125" customWidth="1"/>
-    <col min="8726" max="8726" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="8727" max="8729" width="10.33203125" customWidth="1"/>
-    <col min="8730" max="8730" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="8961" max="8961" width="40.33203125" customWidth="1"/>
-    <col min="8962" max="8963" width="12.5" customWidth="1"/>
-    <col min="8964" max="8965" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="8966" max="8966" width="8.5" customWidth="1"/>
-    <col min="8967" max="8967" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="8968" max="8968" width="8.5" customWidth="1"/>
-    <col min="8974" max="8974" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="8978" max="8978" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="8979" max="8979" width="10.6640625" customWidth="1"/>
-    <col min="8980" max="8980" width="10.33203125" customWidth="1"/>
-    <col min="8981" max="8981" width="9.33203125" customWidth="1"/>
-    <col min="8982" max="8982" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="8983" max="8985" width="10.33203125" customWidth="1"/>
-    <col min="8986" max="8986" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="9217" max="9217" width="40.33203125" customWidth="1"/>
-    <col min="9218" max="9219" width="12.5" customWidth="1"/>
-    <col min="9220" max="9221" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="9222" max="9222" width="8.5" customWidth="1"/>
-    <col min="9223" max="9223" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="9224" max="9224" width="8.5" customWidth="1"/>
-    <col min="9230" max="9230" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="9234" max="9234" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="9235" max="9235" width="10.6640625" customWidth="1"/>
-    <col min="9236" max="9236" width="10.33203125" customWidth="1"/>
-    <col min="9237" max="9237" width="9.33203125" customWidth="1"/>
-    <col min="9238" max="9238" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="9239" max="9241" width="10.33203125" customWidth="1"/>
-    <col min="9242" max="9242" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="9473" max="9473" width="40.33203125" customWidth="1"/>
-    <col min="9474" max="9475" width="12.5" customWidth="1"/>
-    <col min="9476" max="9477" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="9478" max="9478" width="8.5" customWidth="1"/>
-    <col min="9479" max="9479" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="9480" max="9480" width="8.5" customWidth="1"/>
-    <col min="9486" max="9486" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="9490" max="9490" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="9491" max="9491" width="10.6640625" customWidth="1"/>
-    <col min="9492" max="9492" width="10.33203125" customWidth="1"/>
-    <col min="9493" max="9493" width="9.33203125" customWidth="1"/>
-    <col min="9494" max="9494" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="9495" max="9497" width="10.33203125" customWidth="1"/>
-    <col min="9498" max="9498" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="9729" max="9729" width="40.33203125" customWidth="1"/>
-    <col min="9730" max="9731" width="12.5" customWidth="1"/>
-    <col min="9732" max="9733" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="9734" max="9734" width="8.5" customWidth="1"/>
-    <col min="9735" max="9735" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="9736" max="9736" width="8.5" customWidth="1"/>
-    <col min="9742" max="9742" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="9746" max="9746" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="9747" max="9747" width="10.6640625" customWidth="1"/>
-    <col min="9748" max="9748" width="10.33203125" customWidth="1"/>
-    <col min="9749" max="9749" width="9.33203125" customWidth="1"/>
-    <col min="9750" max="9750" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="9751" max="9753" width="10.33203125" customWidth="1"/>
-    <col min="9754" max="9754" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="9985" max="9985" width="40.33203125" customWidth="1"/>
-    <col min="9986" max="9987" width="12.5" customWidth="1"/>
-    <col min="9988" max="9989" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="9990" max="9990" width="8.5" customWidth="1"/>
-    <col min="9991" max="9991" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="9992" max="9992" width="8.5" customWidth="1"/>
-    <col min="9998" max="9998" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="10002" max="10002" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="10003" max="10003" width="10.6640625" customWidth="1"/>
-    <col min="10004" max="10004" width="10.33203125" customWidth="1"/>
-    <col min="10005" max="10005" width="9.33203125" customWidth="1"/>
-    <col min="10006" max="10006" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="10007" max="10009" width="10.33203125" customWidth="1"/>
-    <col min="10010" max="10010" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="10241" max="10241" width="40.33203125" customWidth="1"/>
-    <col min="10242" max="10243" width="12.5" customWidth="1"/>
-    <col min="10244" max="10245" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="10246" max="10246" width="8.5" customWidth="1"/>
-    <col min="10247" max="10247" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="10248" max="10248" width="8.5" customWidth="1"/>
-    <col min="10254" max="10254" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="10258" max="10258" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="10259" max="10259" width="10.6640625" customWidth="1"/>
-    <col min="10260" max="10260" width="10.33203125" customWidth="1"/>
-    <col min="10261" max="10261" width="9.33203125" customWidth="1"/>
-    <col min="10262" max="10262" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="10263" max="10265" width="10.33203125" customWidth="1"/>
-    <col min="10266" max="10266" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="10497" max="10497" width="40.33203125" customWidth="1"/>
-    <col min="10498" max="10499" width="12.5" customWidth="1"/>
-    <col min="10500" max="10501" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="10502" max="10502" width="8.5" customWidth="1"/>
-    <col min="10503" max="10503" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="10504" max="10504" width="8.5" customWidth="1"/>
-    <col min="10510" max="10510" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="10514" max="10514" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="10515" max="10515" width="10.6640625" customWidth="1"/>
-    <col min="10516" max="10516" width="10.33203125" customWidth="1"/>
-    <col min="10517" max="10517" width="9.33203125" customWidth="1"/>
-    <col min="10518" max="10518" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="10519" max="10521" width="10.33203125" customWidth="1"/>
-    <col min="10522" max="10522" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="10753" max="10753" width="40.33203125" customWidth="1"/>
-    <col min="10754" max="10755" width="12.5" customWidth="1"/>
-    <col min="10756" max="10757" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="10758" max="10758" width="8.5" customWidth="1"/>
-    <col min="10759" max="10759" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="10760" max="10760" width="8.5" customWidth="1"/>
-    <col min="10766" max="10766" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="10770" max="10770" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="10771" max="10771" width="10.6640625" customWidth="1"/>
-    <col min="10772" max="10772" width="10.33203125" customWidth="1"/>
-    <col min="10773" max="10773" width="9.33203125" customWidth="1"/>
-    <col min="10774" max="10774" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="10775" max="10777" width="10.33203125" customWidth="1"/>
-    <col min="10778" max="10778" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="11009" max="11009" width="40.33203125" customWidth="1"/>
-    <col min="11010" max="11011" width="12.5" customWidth="1"/>
-    <col min="11012" max="11013" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="11014" max="11014" width="8.5" customWidth="1"/>
-    <col min="11015" max="11015" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="11016" max="11016" width="8.5" customWidth="1"/>
-    <col min="11022" max="11022" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="11026" max="11026" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="11027" max="11027" width="10.6640625" customWidth="1"/>
-    <col min="11028" max="11028" width="10.33203125" customWidth="1"/>
-    <col min="11029" max="11029" width="9.33203125" customWidth="1"/>
-    <col min="11030" max="11030" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="11031" max="11033" width="10.33203125" customWidth="1"/>
-    <col min="11034" max="11034" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="11265" max="11265" width="40.33203125" customWidth="1"/>
-    <col min="11266" max="11267" width="12.5" customWidth="1"/>
-    <col min="11268" max="11269" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="11270" max="11270" width="8.5" customWidth="1"/>
-    <col min="11271" max="11271" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="11272" max="11272" width="8.5" customWidth="1"/>
-    <col min="11278" max="11278" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="11282" max="11282" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="11283" max="11283" width="10.6640625" customWidth="1"/>
-    <col min="11284" max="11284" width="10.33203125" customWidth="1"/>
-    <col min="11285" max="11285" width="9.33203125" customWidth="1"/>
-    <col min="11286" max="11286" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="11287" max="11289" width="10.33203125" customWidth="1"/>
-    <col min="11290" max="11290" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="11521" max="11521" width="40.33203125" customWidth="1"/>
-    <col min="11522" max="11523" width="12.5" customWidth="1"/>
-    <col min="11524" max="11525" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="11526" max="11526" width="8.5" customWidth="1"/>
-    <col min="11527" max="11527" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="11528" max="11528" width="8.5" customWidth="1"/>
-    <col min="11534" max="11534" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="11538" max="11538" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="11539" max="11539" width="10.6640625" customWidth="1"/>
-    <col min="11540" max="11540" width="10.33203125" customWidth="1"/>
-    <col min="11541" max="11541" width="9.33203125" customWidth="1"/>
-    <col min="11542" max="11542" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="11543" max="11545" width="10.33203125" customWidth="1"/>
-    <col min="11546" max="11546" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="11777" max="11777" width="40.33203125" customWidth="1"/>
-    <col min="11778" max="11779" width="12.5" customWidth="1"/>
-    <col min="11780" max="11781" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="11782" max="11782" width="8.5" customWidth="1"/>
-    <col min="11783" max="11783" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="11784" max="11784" width="8.5" customWidth="1"/>
-    <col min="11790" max="11790" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="11794" max="11794" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="11795" max="11795" width="10.6640625" customWidth="1"/>
-    <col min="11796" max="11796" width="10.33203125" customWidth="1"/>
-    <col min="11797" max="11797" width="9.33203125" customWidth="1"/>
-    <col min="11798" max="11798" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="11799" max="11801" width="10.33203125" customWidth="1"/>
-    <col min="11802" max="11802" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="12033" max="12033" width="40.33203125" customWidth="1"/>
-    <col min="12034" max="12035" width="12.5" customWidth="1"/>
-    <col min="12036" max="12037" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="12038" max="12038" width="8.5" customWidth="1"/>
-    <col min="12039" max="12039" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="12040" max="12040" width="8.5" customWidth="1"/>
-    <col min="12046" max="12046" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="12050" max="12050" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="12051" max="12051" width="10.6640625" customWidth="1"/>
-    <col min="12052" max="12052" width="10.33203125" customWidth="1"/>
-    <col min="12053" max="12053" width="9.33203125" customWidth="1"/>
-    <col min="12054" max="12054" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="12055" max="12057" width="10.33203125" customWidth="1"/>
-    <col min="12058" max="12058" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="12289" max="12289" width="40.33203125" customWidth="1"/>
-    <col min="12290" max="12291" width="12.5" customWidth="1"/>
-    <col min="12292" max="12293" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="12294" max="12294" width="8.5" customWidth="1"/>
-    <col min="12295" max="12295" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="12296" max="12296" width="8.5" customWidth="1"/>
-    <col min="12302" max="12302" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="12306" max="12306" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="12307" max="12307" width="10.6640625" customWidth="1"/>
-    <col min="12308" max="12308" width="10.33203125" customWidth="1"/>
-    <col min="12309" max="12309" width="9.33203125" customWidth="1"/>
-    <col min="12310" max="12310" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="12311" max="12313" width="10.33203125" customWidth="1"/>
-    <col min="12314" max="12314" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="12545" max="12545" width="40.33203125" customWidth="1"/>
-    <col min="12546" max="12547" width="12.5" customWidth="1"/>
-    <col min="12548" max="12549" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="12550" max="12550" width="8.5" customWidth="1"/>
-    <col min="12551" max="12551" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="12552" max="12552" width="8.5" customWidth="1"/>
-    <col min="12558" max="12558" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="12562" max="12562" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="12563" max="12563" width="10.6640625" customWidth="1"/>
-    <col min="12564" max="12564" width="10.33203125" customWidth="1"/>
-    <col min="12565" max="12565" width="9.33203125" customWidth="1"/>
-    <col min="12566" max="12566" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="12567" max="12569" width="10.33203125" customWidth="1"/>
-    <col min="12570" max="12570" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="12801" max="12801" width="40.33203125" customWidth="1"/>
-    <col min="12802" max="12803" width="12.5" customWidth="1"/>
-    <col min="12804" max="12805" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="12806" max="12806" width="8.5" customWidth="1"/>
-    <col min="12807" max="12807" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="12808" max="12808" width="8.5" customWidth="1"/>
-    <col min="12814" max="12814" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="12818" max="12818" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="12819" max="12819" width="10.6640625" customWidth="1"/>
-    <col min="12820" max="12820" width="10.33203125" customWidth="1"/>
-    <col min="12821" max="12821" width="9.33203125" customWidth="1"/>
-    <col min="12822" max="12822" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="12823" max="12825" width="10.33203125" customWidth="1"/>
-    <col min="12826" max="12826" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="13057" max="13057" width="40.33203125" customWidth="1"/>
-    <col min="13058" max="13059" width="12.5" customWidth="1"/>
-    <col min="13060" max="13061" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="13062" max="13062" width="8.5" customWidth="1"/>
-    <col min="13063" max="13063" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="13064" max="13064" width="8.5" customWidth="1"/>
-    <col min="13070" max="13070" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="13074" max="13074" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="13075" max="13075" width="10.6640625" customWidth="1"/>
-    <col min="13076" max="13076" width="10.33203125" customWidth="1"/>
-    <col min="13077" max="13077" width="9.33203125" customWidth="1"/>
-    <col min="13078" max="13078" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="13079" max="13081" width="10.33203125" customWidth="1"/>
-    <col min="13082" max="13082" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="13313" max="13313" width="40.33203125" customWidth="1"/>
-    <col min="13314" max="13315" width="12.5" customWidth="1"/>
-    <col min="13316" max="13317" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="13318" max="13318" width="8.5" customWidth="1"/>
-    <col min="13319" max="13319" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="13320" max="13320" width="8.5" customWidth="1"/>
-    <col min="13326" max="13326" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="13330" max="13330" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="13331" max="13331" width="10.6640625" customWidth="1"/>
-    <col min="13332" max="13332" width="10.33203125" customWidth="1"/>
-    <col min="13333" max="13333" width="9.33203125" customWidth="1"/>
-    <col min="13334" max="13334" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="13335" max="13337" width="10.33203125" customWidth="1"/>
-    <col min="13338" max="13338" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="13569" max="13569" width="40.33203125" customWidth="1"/>
-    <col min="13570" max="13571" width="12.5" customWidth="1"/>
-    <col min="13572" max="13573" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="13574" max="13574" width="8.5" customWidth="1"/>
-    <col min="13575" max="13575" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="13576" max="13576" width="8.5" customWidth="1"/>
-    <col min="13582" max="13582" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="13586" max="13586" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="13587" max="13587" width="10.6640625" customWidth="1"/>
-    <col min="13588" max="13588" width="10.33203125" customWidth="1"/>
-    <col min="13589" max="13589" width="9.33203125" customWidth="1"/>
-    <col min="13590" max="13590" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="13591" max="13593" width="10.33203125" customWidth="1"/>
-    <col min="13594" max="13594" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="13825" max="13825" width="40.33203125" customWidth="1"/>
-    <col min="13826" max="13827" width="12.5" customWidth="1"/>
-    <col min="13828" max="13829" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="13830" max="13830" width="8.5" customWidth="1"/>
-    <col min="13831" max="13831" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="13832" max="13832" width="8.5" customWidth="1"/>
-    <col min="13838" max="13838" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="13842" max="13842" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="13843" max="13843" width="10.6640625" customWidth="1"/>
-    <col min="13844" max="13844" width="10.33203125" customWidth="1"/>
-    <col min="13845" max="13845" width="9.33203125" customWidth="1"/>
-    <col min="13846" max="13846" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="13847" max="13849" width="10.33203125" customWidth="1"/>
-    <col min="13850" max="13850" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="14081" max="14081" width="40.33203125" customWidth="1"/>
-    <col min="14082" max="14083" width="12.5" customWidth="1"/>
-    <col min="14084" max="14085" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="14086" max="14086" width="8.5" customWidth="1"/>
-    <col min="14087" max="14087" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="14088" max="14088" width="8.5" customWidth="1"/>
-    <col min="14094" max="14094" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="14098" max="14098" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="14099" max="14099" width="10.6640625" customWidth="1"/>
-    <col min="14100" max="14100" width="10.33203125" customWidth="1"/>
-    <col min="14101" max="14101" width="9.33203125" customWidth="1"/>
-    <col min="14102" max="14102" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="14103" max="14105" width="10.33203125" customWidth="1"/>
-    <col min="14106" max="14106" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="14337" max="14337" width="40.33203125" customWidth="1"/>
-    <col min="14338" max="14339" width="12.5" customWidth="1"/>
-    <col min="14340" max="14341" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="14342" max="14342" width="8.5" customWidth="1"/>
-    <col min="14343" max="14343" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="14344" max="14344" width="8.5" customWidth="1"/>
-    <col min="14350" max="14350" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="14354" max="14354" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="14355" max="14355" width="10.6640625" customWidth="1"/>
-    <col min="14356" max="14356" width="10.33203125" customWidth="1"/>
-    <col min="14357" max="14357" width="9.33203125" customWidth="1"/>
-    <col min="14358" max="14358" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="14359" max="14361" width="10.33203125" customWidth="1"/>
-    <col min="14362" max="14362" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="14593" max="14593" width="40.33203125" customWidth="1"/>
-    <col min="14594" max="14595" width="12.5" customWidth="1"/>
-    <col min="14596" max="14597" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="14598" max="14598" width="8.5" customWidth="1"/>
-    <col min="14599" max="14599" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="14600" max="14600" width="8.5" customWidth="1"/>
-    <col min="14606" max="14606" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="14610" max="14610" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="14611" max="14611" width="10.6640625" customWidth="1"/>
-    <col min="14612" max="14612" width="10.33203125" customWidth="1"/>
-    <col min="14613" max="14613" width="9.33203125" customWidth="1"/>
-    <col min="14614" max="14614" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="14615" max="14617" width="10.33203125" customWidth="1"/>
-    <col min="14618" max="14618" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="14849" max="14849" width="40.33203125" customWidth="1"/>
-    <col min="14850" max="14851" width="12.5" customWidth="1"/>
-    <col min="14852" max="14853" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="14854" max="14854" width="8.5" customWidth="1"/>
-    <col min="14855" max="14855" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="14856" max="14856" width="8.5" customWidth="1"/>
-    <col min="14862" max="14862" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="14866" max="14866" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="14867" max="14867" width="10.6640625" customWidth="1"/>
-    <col min="14868" max="14868" width="10.33203125" customWidth="1"/>
-    <col min="14869" max="14869" width="9.33203125" customWidth="1"/>
-    <col min="14870" max="14870" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="14871" max="14873" width="10.33203125" customWidth="1"/>
-    <col min="14874" max="14874" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="15105" max="15105" width="40.33203125" customWidth="1"/>
-    <col min="15106" max="15107" width="12.5" customWidth="1"/>
-    <col min="15108" max="15109" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="15110" max="15110" width="8.5" customWidth="1"/>
-    <col min="15111" max="15111" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="15112" max="15112" width="8.5" customWidth="1"/>
-    <col min="15118" max="15118" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="15122" max="15122" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="15123" max="15123" width="10.6640625" customWidth="1"/>
-    <col min="15124" max="15124" width="10.33203125" customWidth="1"/>
-    <col min="15125" max="15125" width="9.33203125" customWidth="1"/>
-    <col min="15126" max="15126" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="15127" max="15129" width="10.33203125" customWidth="1"/>
-    <col min="15130" max="15130" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="15361" max="15361" width="40.33203125" customWidth="1"/>
-    <col min="15362" max="15363" width="12.5" customWidth="1"/>
-    <col min="15364" max="15365" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="15366" max="15366" width="8.5" customWidth="1"/>
-    <col min="15367" max="15367" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="15368" max="15368" width="8.5" customWidth="1"/>
-    <col min="15374" max="15374" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="15378" max="15378" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="15379" max="15379" width="10.6640625" customWidth="1"/>
-    <col min="15380" max="15380" width="10.33203125" customWidth="1"/>
-    <col min="15381" max="15381" width="9.33203125" customWidth="1"/>
-    <col min="15382" max="15382" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="15383" max="15385" width="10.33203125" customWidth="1"/>
-    <col min="15386" max="15386" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="15617" max="15617" width="40.33203125" customWidth="1"/>
-    <col min="15618" max="15619" width="12.5" customWidth="1"/>
-    <col min="15620" max="15621" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="15622" max="15622" width="8.5" customWidth="1"/>
-    <col min="15623" max="15623" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="15624" max="15624" width="8.5" customWidth="1"/>
-    <col min="15630" max="15630" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="15634" max="15634" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="15635" max="15635" width="10.6640625" customWidth="1"/>
-    <col min="15636" max="15636" width="10.33203125" customWidth="1"/>
-    <col min="15637" max="15637" width="9.33203125" customWidth="1"/>
-    <col min="15638" max="15638" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="15639" max="15641" width="10.33203125" customWidth="1"/>
-    <col min="15642" max="15642" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="15873" max="15873" width="40.33203125" customWidth="1"/>
-    <col min="15874" max="15875" width="12.5" customWidth="1"/>
-    <col min="15876" max="15877" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="15878" max="15878" width="8.5" customWidth="1"/>
-    <col min="15879" max="15879" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="15880" max="15880" width="8.5" customWidth="1"/>
-    <col min="15886" max="15886" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="15890" max="15890" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="15891" max="15891" width="10.6640625" customWidth="1"/>
-    <col min="15892" max="15892" width="10.33203125" customWidth="1"/>
-    <col min="15893" max="15893" width="9.33203125" customWidth="1"/>
-    <col min="15894" max="15894" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="15895" max="15897" width="10.33203125" customWidth="1"/>
-    <col min="15898" max="15898" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="16129" max="16129" width="40.33203125" customWidth="1"/>
-    <col min="16130" max="16131" width="12.5" customWidth="1"/>
-    <col min="16132" max="16133" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="16134" max="16134" width="8.5" customWidth="1"/>
-    <col min="16135" max="16135" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="16136" max="16136" width="8.5" customWidth="1"/>
-    <col min="16142" max="16142" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="16146" max="16146" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="16147" max="16147" width="10.6640625" customWidth="1"/>
-    <col min="16148" max="16148" width="10.33203125" customWidth="1"/>
-    <col min="16149" max="16149" width="9.33203125" customWidth="1"/>
-    <col min="16150" max="16150" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="16151" max="16153" width="10.33203125" customWidth="1"/>
-    <col min="16154" max="16154" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" customWidth="1"/>
+    <col min="4" max="5" width="19.33203125" customWidth="1"/>
+    <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7" customWidth="1"/>
+    <col min="26" max="26" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="257" max="257" width="43.33203125" customWidth="1"/>
+    <col min="258" max="258" width="12.6640625" customWidth="1"/>
+    <col min="259" max="259" width="19.6640625" customWidth="1"/>
+    <col min="260" max="261" width="19.33203125" customWidth="1"/>
+    <col min="270" max="270" width="10" bestFit="1" customWidth="1"/>
+    <col min="271" max="271" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="274" max="274" width="10" bestFit="1" customWidth="1"/>
+    <col min="278" max="278" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="280" max="280" width="7" customWidth="1"/>
+    <col min="282" max="282" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="513" max="513" width="43.33203125" customWidth="1"/>
+    <col min="514" max="514" width="12.6640625" customWidth="1"/>
+    <col min="515" max="515" width="19.6640625" customWidth="1"/>
+    <col min="516" max="517" width="19.33203125" customWidth="1"/>
+    <col min="526" max="526" width="10" bestFit="1" customWidth="1"/>
+    <col min="527" max="527" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="530" max="530" width="10" bestFit="1" customWidth="1"/>
+    <col min="534" max="534" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="536" max="536" width="7" customWidth="1"/>
+    <col min="538" max="538" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="769" max="769" width="43.33203125" customWidth="1"/>
+    <col min="770" max="770" width="12.6640625" customWidth="1"/>
+    <col min="771" max="771" width="19.6640625" customWidth="1"/>
+    <col min="772" max="773" width="19.33203125" customWidth="1"/>
+    <col min="782" max="782" width="10" bestFit="1" customWidth="1"/>
+    <col min="783" max="783" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="786" max="786" width="10" bestFit="1" customWidth="1"/>
+    <col min="790" max="790" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="792" max="792" width="7" customWidth="1"/>
+    <col min="794" max="794" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="1025" max="1025" width="43.33203125" customWidth="1"/>
+    <col min="1026" max="1026" width="12.6640625" customWidth="1"/>
+    <col min="1027" max="1027" width="19.6640625" customWidth="1"/>
+    <col min="1028" max="1029" width="19.33203125" customWidth="1"/>
+    <col min="1038" max="1038" width="10" bestFit="1" customWidth="1"/>
+    <col min="1039" max="1039" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="1042" max="1042" width="10" bestFit="1" customWidth="1"/>
+    <col min="1046" max="1046" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="1048" max="1048" width="7" customWidth="1"/>
+    <col min="1050" max="1050" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="1281" max="1281" width="43.33203125" customWidth="1"/>
+    <col min="1282" max="1282" width="12.6640625" customWidth="1"/>
+    <col min="1283" max="1283" width="19.6640625" customWidth="1"/>
+    <col min="1284" max="1285" width="19.33203125" customWidth="1"/>
+    <col min="1294" max="1294" width="10" bestFit="1" customWidth="1"/>
+    <col min="1295" max="1295" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="1298" max="1298" width="10" bestFit="1" customWidth="1"/>
+    <col min="1302" max="1302" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="1304" max="1304" width="7" customWidth="1"/>
+    <col min="1306" max="1306" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="1537" max="1537" width="43.33203125" customWidth="1"/>
+    <col min="1538" max="1538" width="12.6640625" customWidth="1"/>
+    <col min="1539" max="1539" width="19.6640625" customWidth="1"/>
+    <col min="1540" max="1541" width="19.33203125" customWidth="1"/>
+    <col min="1550" max="1550" width="10" bestFit="1" customWidth="1"/>
+    <col min="1551" max="1551" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="1554" max="1554" width="10" bestFit="1" customWidth="1"/>
+    <col min="1558" max="1558" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="1560" max="1560" width="7" customWidth="1"/>
+    <col min="1562" max="1562" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="1793" max="1793" width="43.33203125" customWidth="1"/>
+    <col min="1794" max="1794" width="12.6640625" customWidth="1"/>
+    <col min="1795" max="1795" width="19.6640625" customWidth="1"/>
+    <col min="1796" max="1797" width="19.33203125" customWidth="1"/>
+    <col min="1806" max="1806" width="10" bestFit="1" customWidth="1"/>
+    <col min="1807" max="1807" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="1810" max="1810" width="10" bestFit="1" customWidth="1"/>
+    <col min="1814" max="1814" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="1816" max="1816" width="7" customWidth="1"/>
+    <col min="1818" max="1818" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2049" max="2049" width="43.33203125" customWidth="1"/>
+    <col min="2050" max="2050" width="12.6640625" customWidth="1"/>
+    <col min="2051" max="2051" width="19.6640625" customWidth="1"/>
+    <col min="2052" max="2053" width="19.33203125" customWidth="1"/>
+    <col min="2062" max="2062" width="10" bestFit="1" customWidth="1"/>
+    <col min="2063" max="2063" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2066" max="2066" width="10" bestFit="1" customWidth="1"/>
+    <col min="2070" max="2070" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="2072" max="2072" width="7" customWidth="1"/>
+    <col min="2074" max="2074" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2305" max="2305" width="43.33203125" customWidth="1"/>
+    <col min="2306" max="2306" width="12.6640625" customWidth="1"/>
+    <col min="2307" max="2307" width="19.6640625" customWidth="1"/>
+    <col min="2308" max="2309" width="19.33203125" customWidth="1"/>
+    <col min="2318" max="2318" width="10" bestFit="1" customWidth="1"/>
+    <col min="2319" max="2319" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2322" max="2322" width="10" bestFit="1" customWidth="1"/>
+    <col min="2326" max="2326" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="2328" max="2328" width="7" customWidth="1"/>
+    <col min="2330" max="2330" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2561" max="2561" width="43.33203125" customWidth="1"/>
+    <col min="2562" max="2562" width="12.6640625" customWidth="1"/>
+    <col min="2563" max="2563" width="19.6640625" customWidth="1"/>
+    <col min="2564" max="2565" width="19.33203125" customWidth="1"/>
+    <col min="2574" max="2574" width="10" bestFit="1" customWidth="1"/>
+    <col min="2575" max="2575" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2578" max="2578" width="10" bestFit="1" customWidth="1"/>
+    <col min="2582" max="2582" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="2584" max="2584" width="7" customWidth="1"/>
+    <col min="2586" max="2586" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2817" max="2817" width="43.33203125" customWidth="1"/>
+    <col min="2818" max="2818" width="12.6640625" customWidth="1"/>
+    <col min="2819" max="2819" width="19.6640625" customWidth="1"/>
+    <col min="2820" max="2821" width="19.33203125" customWidth="1"/>
+    <col min="2830" max="2830" width="10" bestFit="1" customWidth="1"/>
+    <col min="2831" max="2831" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2834" max="2834" width="10" bestFit="1" customWidth="1"/>
+    <col min="2838" max="2838" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="2840" max="2840" width="7" customWidth="1"/>
+    <col min="2842" max="2842" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3073" max="3073" width="43.33203125" customWidth="1"/>
+    <col min="3074" max="3074" width="12.6640625" customWidth="1"/>
+    <col min="3075" max="3075" width="19.6640625" customWidth="1"/>
+    <col min="3076" max="3077" width="19.33203125" customWidth="1"/>
+    <col min="3086" max="3086" width="10" bestFit="1" customWidth="1"/>
+    <col min="3087" max="3087" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3090" max="3090" width="10" bestFit="1" customWidth="1"/>
+    <col min="3094" max="3094" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="3096" max="3096" width="7" customWidth="1"/>
+    <col min="3098" max="3098" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3329" max="3329" width="43.33203125" customWidth="1"/>
+    <col min="3330" max="3330" width="12.6640625" customWidth="1"/>
+    <col min="3331" max="3331" width="19.6640625" customWidth="1"/>
+    <col min="3332" max="3333" width="19.33203125" customWidth="1"/>
+    <col min="3342" max="3342" width="10" bestFit="1" customWidth="1"/>
+    <col min="3343" max="3343" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3346" max="3346" width="10" bestFit="1" customWidth="1"/>
+    <col min="3350" max="3350" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="3352" max="3352" width="7" customWidth="1"/>
+    <col min="3354" max="3354" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3585" max="3585" width="43.33203125" customWidth="1"/>
+    <col min="3586" max="3586" width="12.6640625" customWidth="1"/>
+    <col min="3587" max="3587" width="19.6640625" customWidth="1"/>
+    <col min="3588" max="3589" width="19.33203125" customWidth="1"/>
+    <col min="3598" max="3598" width="10" bestFit="1" customWidth="1"/>
+    <col min="3599" max="3599" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3602" max="3602" width="10" bestFit="1" customWidth="1"/>
+    <col min="3606" max="3606" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="3608" max="3608" width="7" customWidth="1"/>
+    <col min="3610" max="3610" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3841" max="3841" width="43.33203125" customWidth="1"/>
+    <col min="3842" max="3842" width="12.6640625" customWidth="1"/>
+    <col min="3843" max="3843" width="19.6640625" customWidth="1"/>
+    <col min="3844" max="3845" width="19.33203125" customWidth="1"/>
+    <col min="3854" max="3854" width="10" bestFit="1" customWidth="1"/>
+    <col min="3855" max="3855" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3858" max="3858" width="10" bestFit="1" customWidth="1"/>
+    <col min="3862" max="3862" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="3864" max="3864" width="7" customWidth="1"/>
+    <col min="3866" max="3866" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="4097" max="4097" width="43.33203125" customWidth="1"/>
+    <col min="4098" max="4098" width="12.6640625" customWidth="1"/>
+    <col min="4099" max="4099" width="19.6640625" customWidth="1"/>
+    <col min="4100" max="4101" width="19.33203125" customWidth="1"/>
+    <col min="4110" max="4110" width="10" bestFit="1" customWidth="1"/>
+    <col min="4111" max="4111" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="4114" max="4114" width="10" bestFit="1" customWidth="1"/>
+    <col min="4118" max="4118" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="4120" max="4120" width="7" customWidth="1"/>
+    <col min="4122" max="4122" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="4353" max="4353" width="43.33203125" customWidth="1"/>
+    <col min="4354" max="4354" width="12.6640625" customWidth="1"/>
+    <col min="4355" max="4355" width="19.6640625" customWidth="1"/>
+    <col min="4356" max="4357" width="19.33203125" customWidth="1"/>
+    <col min="4366" max="4366" width="10" bestFit="1" customWidth="1"/>
+    <col min="4367" max="4367" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="4370" max="4370" width="10" bestFit="1" customWidth="1"/>
+    <col min="4374" max="4374" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="4376" max="4376" width="7" customWidth="1"/>
+    <col min="4378" max="4378" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="4609" max="4609" width="43.33203125" customWidth="1"/>
+    <col min="4610" max="4610" width="12.6640625" customWidth="1"/>
+    <col min="4611" max="4611" width="19.6640625" customWidth="1"/>
+    <col min="4612" max="4613" width="19.33203125" customWidth="1"/>
+    <col min="4622" max="4622" width="10" bestFit="1" customWidth="1"/>
+    <col min="4623" max="4623" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="4626" max="4626" width="10" bestFit="1" customWidth="1"/>
+    <col min="4630" max="4630" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="4632" max="4632" width="7" customWidth="1"/>
+    <col min="4634" max="4634" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="4865" max="4865" width="43.33203125" customWidth="1"/>
+    <col min="4866" max="4866" width="12.6640625" customWidth="1"/>
+    <col min="4867" max="4867" width="19.6640625" customWidth="1"/>
+    <col min="4868" max="4869" width="19.33203125" customWidth="1"/>
+    <col min="4878" max="4878" width="10" bestFit="1" customWidth="1"/>
+    <col min="4879" max="4879" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="4882" max="4882" width="10" bestFit="1" customWidth="1"/>
+    <col min="4886" max="4886" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="4888" max="4888" width="7" customWidth="1"/>
+    <col min="4890" max="4890" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="5121" max="5121" width="43.33203125" customWidth="1"/>
+    <col min="5122" max="5122" width="12.6640625" customWidth="1"/>
+    <col min="5123" max="5123" width="19.6640625" customWidth="1"/>
+    <col min="5124" max="5125" width="19.33203125" customWidth="1"/>
+    <col min="5134" max="5134" width="10" bestFit="1" customWidth="1"/>
+    <col min="5135" max="5135" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="5138" max="5138" width="10" bestFit="1" customWidth="1"/>
+    <col min="5142" max="5142" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="5144" max="5144" width="7" customWidth="1"/>
+    <col min="5146" max="5146" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="5377" max="5377" width="43.33203125" customWidth="1"/>
+    <col min="5378" max="5378" width="12.6640625" customWidth="1"/>
+    <col min="5379" max="5379" width="19.6640625" customWidth="1"/>
+    <col min="5380" max="5381" width="19.33203125" customWidth="1"/>
+    <col min="5390" max="5390" width="10" bestFit="1" customWidth="1"/>
+    <col min="5391" max="5391" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="5394" max="5394" width="10" bestFit="1" customWidth="1"/>
+    <col min="5398" max="5398" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="5400" max="5400" width="7" customWidth="1"/>
+    <col min="5402" max="5402" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="5633" max="5633" width="43.33203125" customWidth="1"/>
+    <col min="5634" max="5634" width="12.6640625" customWidth="1"/>
+    <col min="5635" max="5635" width="19.6640625" customWidth="1"/>
+    <col min="5636" max="5637" width="19.33203125" customWidth="1"/>
+    <col min="5646" max="5646" width="10" bestFit="1" customWidth="1"/>
+    <col min="5647" max="5647" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="5650" max="5650" width="10" bestFit="1" customWidth="1"/>
+    <col min="5654" max="5654" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="5656" max="5656" width="7" customWidth="1"/>
+    <col min="5658" max="5658" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="5889" max="5889" width="43.33203125" customWidth="1"/>
+    <col min="5890" max="5890" width="12.6640625" customWidth="1"/>
+    <col min="5891" max="5891" width="19.6640625" customWidth="1"/>
+    <col min="5892" max="5893" width="19.33203125" customWidth="1"/>
+    <col min="5902" max="5902" width="10" bestFit="1" customWidth="1"/>
+    <col min="5903" max="5903" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="5906" max="5906" width="10" bestFit="1" customWidth="1"/>
+    <col min="5910" max="5910" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="5912" max="5912" width="7" customWidth="1"/>
+    <col min="5914" max="5914" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="6145" max="6145" width="43.33203125" customWidth="1"/>
+    <col min="6146" max="6146" width="12.6640625" customWidth="1"/>
+    <col min="6147" max="6147" width="19.6640625" customWidth="1"/>
+    <col min="6148" max="6149" width="19.33203125" customWidth="1"/>
+    <col min="6158" max="6158" width="10" bestFit="1" customWidth="1"/>
+    <col min="6159" max="6159" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="6162" max="6162" width="10" bestFit="1" customWidth="1"/>
+    <col min="6166" max="6166" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="6168" max="6168" width="7" customWidth="1"/>
+    <col min="6170" max="6170" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="6401" max="6401" width="43.33203125" customWidth="1"/>
+    <col min="6402" max="6402" width="12.6640625" customWidth="1"/>
+    <col min="6403" max="6403" width="19.6640625" customWidth="1"/>
+    <col min="6404" max="6405" width="19.33203125" customWidth="1"/>
+    <col min="6414" max="6414" width="10" bestFit="1" customWidth="1"/>
+    <col min="6415" max="6415" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="6418" max="6418" width="10" bestFit="1" customWidth="1"/>
+    <col min="6422" max="6422" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="6424" max="6424" width="7" customWidth="1"/>
+    <col min="6426" max="6426" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="6657" max="6657" width="43.33203125" customWidth="1"/>
+    <col min="6658" max="6658" width="12.6640625" customWidth="1"/>
+    <col min="6659" max="6659" width="19.6640625" customWidth="1"/>
+    <col min="6660" max="6661" width="19.33203125" customWidth="1"/>
+    <col min="6670" max="6670" width="10" bestFit="1" customWidth="1"/>
+    <col min="6671" max="6671" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="6674" max="6674" width="10" bestFit="1" customWidth="1"/>
+    <col min="6678" max="6678" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="6680" max="6680" width="7" customWidth="1"/>
+    <col min="6682" max="6682" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="6913" max="6913" width="43.33203125" customWidth="1"/>
+    <col min="6914" max="6914" width="12.6640625" customWidth="1"/>
+    <col min="6915" max="6915" width="19.6640625" customWidth="1"/>
+    <col min="6916" max="6917" width="19.33203125" customWidth="1"/>
+    <col min="6926" max="6926" width="10" bestFit="1" customWidth="1"/>
+    <col min="6927" max="6927" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="6930" max="6930" width="10" bestFit="1" customWidth="1"/>
+    <col min="6934" max="6934" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="6936" max="6936" width="7" customWidth="1"/>
+    <col min="6938" max="6938" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="7169" max="7169" width="43.33203125" customWidth="1"/>
+    <col min="7170" max="7170" width="12.6640625" customWidth="1"/>
+    <col min="7171" max="7171" width="19.6640625" customWidth="1"/>
+    <col min="7172" max="7173" width="19.33203125" customWidth="1"/>
+    <col min="7182" max="7182" width="10" bestFit="1" customWidth="1"/>
+    <col min="7183" max="7183" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="7186" max="7186" width="10" bestFit="1" customWidth="1"/>
+    <col min="7190" max="7190" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="7192" max="7192" width="7" customWidth="1"/>
+    <col min="7194" max="7194" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="7425" max="7425" width="43.33203125" customWidth="1"/>
+    <col min="7426" max="7426" width="12.6640625" customWidth="1"/>
+    <col min="7427" max="7427" width="19.6640625" customWidth="1"/>
+    <col min="7428" max="7429" width="19.33203125" customWidth="1"/>
+    <col min="7438" max="7438" width="10" bestFit="1" customWidth="1"/>
+    <col min="7439" max="7439" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="7442" max="7442" width="10" bestFit="1" customWidth="1"/>
+    <col min="7446" max="7446" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="7448" max="7448" width="7" customWidth="1"/>
+    <col min="7450" max="7450" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="7681" max="7681" width="43.33203125" customWidth="1"/>
+    <col min="7682" max="7682" width="12.6640625" customWidth="1"/>
+    <col min="7683" max="7683" width="19.6640625" customWidth="1"/>
+    <col min="7684" max="7685" width="19.33203125" customWidth="1"/>
+    <col min="7694" max="7694" width="10" bestFit="1" customWidth="1"/>
+    <col min="7695" max="7695" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="7698" max="7698" width="10" bestFit="1" customWidth="1"/>
+    <col min="7702" max="7702" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="7704" max="7704" width="7" customWidth="1"/>
+    <col min="7706" max="7706" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="7937" max="7937" width="43.33203125" customWidth="1"/>
+    <col min="7938" max="7938" width="12.6640625" customWidth="1"/>
+    <col min="7939" max="7939" width="19.6640625" customWidth="1"/>
+    <col min="7940" max="7941" width="19.33203125" customWidth="1"/>
+    <col min="7950" max="7950" width="10" bestFit="1" customWidth="1"/>
+    <col min="7951" max="7951" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="7954" max="7954" width="10" bestFit="1" customWidth="1"/>
+    <col min="7958" max="7958" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="7960" max="7960" width="7" customWidth="1"/>
+    <col min="7962" max="7962" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="8193" max="8193" width="43.33203125" customWidth="1"/>
+    <col min="8194" max="8194" width="12.6640625" customWidth="1"/>
+    <col min="8195" max="8195" width="19.6640625" customWidth="1"/>
+    <col min="8196" max="8197" width="19.33203125" customWidth="1"/>
+    <col min="8206" max="8206" width="10" bestFit="1" customWidth="1"/>
+    <col min="8207" max="8207" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="8210" max="8210" width="10" bestFit="1" customWidth="1"/>
+    <col min="8214" max="8214" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="8216" max="8216" width="7" customWidth="1"/>
+    <col min="8218" max="8218" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="8449" max="8449" width="43.33203125" customWidth="1"/>
+    <col min="8450" max="8450" width="12.6640625" customWidth="1"/>
+    <col min="8451" max="8451" width="19.6640625" customWidth="1"/>
+    <col min="8452" max="8453" width="19.33203125" customWidth="1"/>
+    <col min="8462" max="8462" width="10" bestFit="1" customWidth="1"/>
+    <col min="8463" max="8463" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="8466" max="8466" width="10" bestFit="1" customWidth="1"/>
+    <col min="8470" max="8470" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="8472" max="8472" width="7" customWidth="1"/>
+    <col min="8474" max="8474" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="8705" max="8705" width="43.33203125" customWidth="1"/>
+    <col min="8706" max="8706" width="12.6640625" customWidth="1"/>
+    <col min="8707" max="8707" width="19.6640625" customWidth="1"/>
+    <col min="8708" max="8709" width="19.33203125" customWidth="1"/>
+    <col min="8718" max="8718" width="10" bestFit="1" customWidth="1"/>
+    <col min="8719" max="8719" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="8722" max="8722" width="10" bestFit="1" customWidth="1"/>
+    <col min="8726" max="8726" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="8728" max="8728" width="7" customWidth="1"/>
+    <col min="8730" max="8730" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="8961" max="8961" width="43.33203125" customWidth="1"/>
+    <col min="8962" max="8962" width="12.6640625" customWidth="1"/>
+    <col min="8963" max="8963" width="19.6640625" customWidth="1"/>
+    <col min="8964" max="8965" width="19.33203125" customWidth="1"/>
+    <col min="8974" max="8974" width="10" bestFit="1" customWidth="1"/>
+    <col min="8975" max="8975" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="8978" max="8978" width="10" bestFit="1" customWidth="1"/>
+    <col min="8982" max="8982" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="8984" max="8984" width="7" customWidth="1"/>
+    <col min="8986" max="8986" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="9217" max="9217" width="43.33203125" customWidth="1"/>
+    <col min="9218" max="9218" width="12.6640625" customWidth="1"/>
+    <col min="9219" max="9219" width="19.6640625" customWidth="1"/>
+    <col min="9220" max="9221" width="19.33203125" customWidth="1"/>
+    <col min="9230" max="9230" width="10" bestFit="1" customWidth="1"/>
+    <col min="9231" max="9231" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="9234" max="9234" width="10" bestFit="1" customWidth="1"/>
+    <col min="9238" max="9238" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="9240" max="9240" width="7" customWidth="1"/>
+    <col min="9242" max="9242" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="9473" max="9473" width="43.33203125" customWidth="1"/>
+    <col min="9474" max="9474" width="12.6640625" customWidth="1"/>
+    <col min="9475" max="9475" width="19.6640625" customWidth="1"/>
+    <col min="9476" max="9477" width="19.33203125" customWidth="1"/>
+    <col min="9486" max="9486" width="10" bestFit="1" customWidth="1"/>
+    <col min="9487" max="9487" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="9490" max="9490" width="10" bestFit="1" customWidth="1"/>
+    <col min="9494" max="9494" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="9496" max="9496" width="7" customWidth="1"/>
+    <col min="9498" max="9498" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="9729" max="9729" width="43.33203125" customWidth="1"/>
+    <col min="9730" max="9730" width="12.6640625" customWidth="1"/>
+    <col min="9731" max="9731" width="19.6640625" customWidth="1"/>
+    <col min="9732" max="9733" width="19.33203125" customWidth="1"/>
+    <col min="9742" max="9742" width="10" bestFit="1" customWidth="1"/>
+    <col min="9743" max="9743" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="9746" max="9746" width="10" bestFit="1" customWidth="1"/>
+    <col min="9750" max="9750" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="9752" max="9752" width="7" customWidth="1"/>
+    <col min="9754" max="9754" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="9985" max="9985" width="43.33203125" customWidth="1"/>
+    <col min="9986" max="9986" width="12.6640625" customWidth="1"/>
+    <col min="9987" max="9987" width="19.6640625" customWidth="1"/>
+    <col min="9988" max="9989" width="19.33203125" customWidth="1"/>
+    <col min="9998" max="9998" width="10" bestFit="1" customWidth="1"/>
+    <col min="9999" max="9999" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="10002" max="10002" width="10" bestFit="1" customWidth="1"/>
+    <col min="10006" max="10006" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="10008" max="10008" width="7" customWidth="1"/>
+    <col min="10010" max="10010" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="10241" max="10241" width="43.33203125" customWidth="1"/>
+    <col min="10242" max="10242" width="12.6640625" customWidth="1"/>
+    <col min="10243" max="10243" width="19.6640625" customWidth="1"/>
+    <col min="10244" max="10245" width="19.33203125" customWidth="1"/>
+    <col min="10254" max="10254" width="10" bestFit="1" customWidth="1"/>
+    <col min="10255" max="10255" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="10258" max="10258" width="10" bestFit="1" customWidth="1"/>
+    <col min="10262" max="10262" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="10264" max="10264" width="7" customWidth="1"/>
+    <col min="10266" max="10266" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="10497" max="10497" width="43.33203125" customWidth="1"/>
+    <col min="10498" max="10498" width="12.6640625" customWidth="1"/>
+    <col min="10499" max="10499" width="19.6640625" customWidth="1"/>
+    <col min="10500" max="10501" width="19.33203125" customWidth="1"/>
+    <col min="10510" max="10510" width="10" bestFit="1" customWidth="1"/>
+    <col min="10511" max="10511" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="10514" max="10514" width="10" bestFit="1" customWidth="1"/>
+    <col min="10518" max="10518" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="10520" max="10520" width="7" customWidth="1"/>
+    <col min="10522" max="10522" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="10753" max="10753" width="43.33203125" customWidth="1"/>
+    <col min="10754" max="10754" width="12.6640625" customWidth="1"/>
+    <col min="10755" max="10755" width="19.6640625" customWidth="1"/>
+    <col min="10756" max="10757" width="19.33203125" customWidth="1"/>
+    <col min="10766" max="10766" width="10" bestFit="1" customWidth="1"/>
+    <col min="10767" max="10767" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="10770" max="10770" width="10" bestFit="1" customWidth="1"/>
+    <col min="10774" max="10774" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="10776" max="10776" width="7" customWidth="1"/>
+    <col min="10778" max="10778" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="11009" max="11009" width="43.33203125" customWidth="1"/>
+    <col min="11010" max="11010" width="12.6640625" customWidth="1"/>
+    <col min="11011" max="11011" width="19.6640625" customWidth="1"/>
+    <col min="11012" max="11013" width="19.33203125" customWidth="1"/>
+    <col min="11022" max="11022" width="10" bestFit="1" customWidth="1"/>
+    <col min="11023" max="11023" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="11026" max="11026" width="10" bestFit="1" customWidth="1"/>
+    <col min="11030" max="11030" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="11032" max="11032" width="7" customWidth="1"/>
+    <col min="11034" max="11034" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="11265" max="11265" width="43.33203125" customWidth="1"/>
+    <col min="11266" max="11266" width="12.6640625" customWidth="1"/>
+    <col min="11267" max="11267" width="19.6640625" customWidth="1"/>
+    <col min="11268" max="11269" width="19.33203125" customWidth="1"/>
+    <col min="11278" max="11278" width="10" bestFit="1" customWidth="1"/>
+    <col min="11279" max="11279" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="11282" max="11282" width="10" bestFit="1" customWidth="1"/>
+    <col min="11286" max="11286" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="11288" max="11288" width="7" customWidth="1"/>
+    <col min="11290" max="11290" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="11521" max="11521" width="43.33203125" customWidth="1"/>
+    <col min="11522" max="11522" width="12.6640625" customWidth="1"/>
+    <col min="11523" max="11523" width="19.6640625" customWidth="1"/>
+    <col min="11524" max="11525" width="19.33203125" customWidth="1"/>
+    <col min="11534" max="11534" width="10" bestFit="1" customWidth="1"/>
+    <col min="11535" max="11535" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="11538" max="11538" width="10" bestFit="1" customWidth="1"/>
+    <col min="11542" max="11542" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="11544" max="11544" width="7" customWidth="1"/>
+    <col min="11546" max="11546" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="11777" max="11777" width="43.33203125" customWidth="1"/>
+    <col min="11778" max="11778" width="12.6640625" customWidth="1"/>
+    <col min="11779" max="11779" width="19.6640625" customWidth="1"/>
+    <col min="11780" max="11781" width="19.33203125" customWidth="1"/>
+    <col min="11790" max="11790" width="10" bestFit="1" customWidth="1"/>
+    <col min="11791" max="11791" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="11794" max="11794" width="10" bestFit="1" customWidth="1"/>
+    <col min="11798" max="11798" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="11800" max="11800" width="7" customWidth="1"/>
+    <col min="11802" max="11802" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="12033" max="12033" width="43.33203125" customWidth="1"/>
+    <col min="12034" max="12034" width="12.6640625" customWidth="1"/>
+    <col min="12035" max="12035" width="19.6640625" customWidth="1"/>
+    <col min="12036" max="12037" width="19.33203125" customWidth="1"/>
+    <col min="12046" max="12046" width="10" bestFit="1" customWidth="1"/>
+    <col min="12047" max="12047" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="12050" max="12050" width="10" bestFit="1" customWidth="1"/>
+    <col min="12054" max="12054" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="12056" max="12056" width="7" customWidth="1"/>
+    <col min="12058" max="12058" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="12289" max="12289" width="43.33203125" customWidth="1"/>
+    <col min="12290" max="12290" width="12.6640625" customWidth="1"/>
+    <col min="12291" max="12291" width="19.6640625" customWidth="1"/>
+    <col min="12292" max="12293" width="19.33203125" customWidth="1"/>
+    <col min="12302" max="12302" width="10" bestFit="1" customWidth="1"/>
+    <col min="12303" max="12303" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="12306" max="12306" width="10" bestFit="1" customWidth="1"/>
+    <col min="12310" max="12310" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="12312" max="12312" width="7" customWidth="1"/>
+    <col min="12314" max="12314" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="12545" max="12545" width="43.33203125" customWidth="1"/>
+    <col min="12546" max="12546" width="12.6640625" customWidth="1"/>
+    <col min="12547" max="12547" width="19.6640625" customWidth="1"/>
+    <col min="12548" max="12549" width="19.33203125" customWidth="1"/>
+    <col min="12558" max="12558" width="10" bestFit="1" customWidth="1"/>
+    <col min="12559" max="12559" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="12562" max="12562" width="10" bestFit="1" customWidth="1"/>
+    <col min="12566" max="12566" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="12568" max="12568" width="7" customWidth="1"/>
+    <col min="12570" max="12570" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="12801" max="12801" width="43.33203125" customWidth="1"/>
+    <col min="12802" max="12802" width="12.6640625" customWidth="1"/>
+    <col min="12803" max="12803" width="19.6640625" customWidth="1"/>
+    <col min="12804" max="12805" width="19.33203125" customWidth="1"/>
+    <col min="12814" max="12814" width="10" bestFit="1" customWidth="1"/>
+    <col min="12815" max="12815" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="12818" max="12818" width="10" bestFit="1" customWidth="1"/>
+    <col min="12822" max="12822" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="12824" max="12824" width="7" customWidth="1"/>
+    <col min="12826" max="12826" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="13057" max="13057" width="43.33203125" customWidth="1"/>
+    <col min="13058" max="13058" width="12.6640625" customWidth="1"/>
+    <col min="13059" max="13059" width="19.6640625" customWidth="1"/>
+    <col min="13060" max="13061" width="19.33203125" customWidth="1"/>
+    <col min="13070" max="13070" width="10" bestFit="1" customWidth="1"/>
+    <col min="13071" max="13071" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="13074" max="13074" width="10" bestFit="1" customWidth="1"/>
+    <col min="13078" max="13078" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="13080" max="13080" width="7" customWidth="1"/>
+    <col min="13082" max="13082" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="13313" max="13313" width="43.33203125" customWidth="1"/>
+    <col min="13314" max="13314" width="12.6640625" customWidth="1"/>
+    <col min="13315" max="13315" width="19.6640625" customWidth="1"/>
+    <col min="13316" max="13317" width="19.33203125" customWidth="1"/>
+    <col min="13326" max="13326" width="10" bestFit="1" customWidth="1"/>
+    <col min="13327" max="13327" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="13330" max="13330" width="10" bestFit="1" customWidth="1"/>
+    <col min="13334" max="13334" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="13336" max="13336" width="7" customWidth="1"/>
+    <col min="13338" max="13338" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="13569" max="13569" width="43.33203125" customWidth="1"/>
+    <col min="13570" max="13570" width="12.6640625" customWidth="1"/>
+    <col min="13571" max="13571" width="19.6640625" customWidth="1"/>
+    <col min="13572" max="13573" width="19.33203125" customWidth="1"/>
+    <col min="13582" max="13582" width="10" bestFit="1" customWidth="1"/>
+    <col min="13583" max="13583" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="13586" max="13586" width="10" bestFit="1" customWidth="1"/>
+    <col min="13590" max="13590" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="13592" max="13592" width="7" customWidth="1"/>
+    <col min="13594" max="13594" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="13825" max="13825" width="43.33203125" customWidth="1"/>
+    <col min="13826" max="13826" width="12.6640625" customWidth="1"/>
+    <col min="13827" max="13827" width="19.6640625" customWidth="1"/>
+    <col min="13828" max="13829" width="19.33203125" customWidth="1"/>
+    <col min="13838" max="13838" width="10" bestFit="1" customWidth="1"/>
+    <col min="13839" max="13839" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="13842" max="13842" width="10" bestFit="1" customWidth="1"/>
+    <col min="13846" max="13846" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="13848" max="13848" width="7" customWidth="1"/>
+    <col min="13850" max="13850" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="14081" max="14081" width="43.33203125" customWidth="1"/>
+    <col min="14082" max="14082" width="12.6640625" customWidth="1"/>
+    <col min="14083" max="14083" width="19.6640625" customWidth="1"/>
+    <col min="14084" max="14085" width="19.33203125" customWidth="1"/>
+    <col min="14094" max="14094" width="10" bestFit="1" customWidth="1"/>
+    <col min="14095" max="14095" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="14098" max="14098" width="10" bestFit="1" customWidth="1"/>
+    <col min="14102" max="14102" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="14104" max="14104" width="7" customWidth="1"/>
+    <col min="14106" max="14106" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="14337" max="14337" width="43.33203125" customWidth="1"/>
+    <col min="14338" max="14338" width="12.6640625" customWidth="1"/>
+    <col min="14339" max="14339" width="19.6640625" customWidth="1"/>
+    <col min="14340" max="14341" width="19.33203125" customWidth="1"/>
+    <col min="14350" max="14350" width="10" bestFit="1" customWidth="1"/>
+    <col min="14351" max="14351" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="14354" max="14354" width="10" bestFit="1" customWidth="1"/>
+    <col min="14358" max="14358" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="14360" max="14360" width="7" customWidth="1"/>
+    <col min="14362" max="14362" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="14593" max="14593" width="43.33203125" customWidth="1"/>
+    <col min="14594" max="14594" width="12.6640625" customWidth="1"/>
+    <col min="14595" max="14595" width="19.6640625" customWidth="1"/>
+    <col min="14596" max="14597" width="19.33203125" customWidth="1"/>
+    <col min="14606" max="14606" width="10" bestFit="1" customWidth="1"/>
+    <col min="14607" max="14607" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="14610" max="14610" width="10" bestFit="1" customWidth="1"/>
+    <col min="14614" max="14614" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="14616" max="14616" width="7" customWidth="1"/>
+    <col min="14618" max="14618" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="14849" max="14849" width="43.33203125" customWidth="1"/>
+    <col min="14850" max="14850" width="12.6640625" customWidth="1"/>
+    <col min="14851" max="14851" width="19.6640625" customWidth="1"/>
+    <col min="14852" max="14853" width="19.33203125" customWidth="1"/>
+    <col min="14862" max="14862" width="10" bestFit="1" customWidth="1"/>
+    <col min="14863" max="14863" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="14866" max="14866" width="10" bestFit="1" customWidth="1"/>
+    <col min="14870" max="14870" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="14872" max="14872" width="7" customWidth="1"/>
+    <col min="14874" max="14874" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="15105" max="15105" width="43.33203125" customWidth="1"/>
+    <col min="15106" max="15106" width="12.6640625" customWidth="1"/>
+    <col min="15107" max="15107" width="19.6640625" customWidth="1"/>
+    <col min="15108" max="15109" width="19.33203125" customWidth="1"/>
+    <col min="15118" max="15118" width="10" bestFit="1" customWidth="1"/>
+    <col min="15119" max="15119" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="15122" max="15122" width="10" bestFit="1" customWidth="1"/>
+    <col min="15126" max="15126" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="15128" max="15128" width="7" customWidth="1"/>
+    <col min="15130" max="15130" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="15361" max="15361" width="43.33203125" customWidth="1"/>
+    <col min="15362" max="15362" width="12.6640625" customWidth="1"/>
+    <col min="15363" max="15363" width="19.6640625" customWidth="1"/>
+    <col min="15364" max="15365" width="19.33203125" customWidth="1"/>
+    <col min="15374" max="15374" width="10" bestFit="1" customWidth="1"/>
+    <col min="15375" max="15375" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="15378" max="15378" width="10" bestFit="1" customWidth="1"/>
+    <col min="15382" max="15382" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="15384" max="15384" width="7" customWidth="1"/>
+    <col min="15386" max="15386" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="15617" max="15617" width="43.33203125" customWidth="1"/>
+    <col min="15618" max="15618" width="12.6640625" customWidth="1"/>
+    <col min="15619" max="15619" width="19.6640625" customWidth="1"/>
+    <col min="15620" max="15621" width="19.33203125" customWidth="1"/>
+    <col min="15630" max="15630" width="10" bestFit="1" customWidth="1"/>
+    <col min="15631" max="15631" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="15634" max="15634" width="10" bestFit="1" customWidth="1"/>
+    <col min="15638" max="15638" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="15640" max="15640" width="7" customWidth="1"/>
+    <col min="15642" max="15642" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="15873" max="15873" width="43.33203125" customWidth="1"/>
+    <col min="15874" max="15874" width="12.6640625" customWidth="1"/>
+    <col min="15875" max="15875" width="19.6640625" customWidth="1"/>
+    <col min="15876" max="15877" width="19.33203125" customWidth="1"/>
+    <col min="15886" max="15886" width="10" bestFit="1" customWidth="1"/>
+    <col min="15887" max="15887" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="15890" max="15890" width="10" bestFit="1" customWidth="1"/>
+    <col min="15894" max="15894" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="15896" max="15896" width="7" customWidth="1"/>
+    <col min="15898" max="15898" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="16129" max="16129" width="43.33203125" customWidth="1"/>
+    <col min="16130" max="16130" width="12.6640625" customWidth="1"/>
+    <col min="16131" max="16131" width="19.6640625" customWidth="1"/>
+    <col min="16132" max="16133" width="19.33203125" customWidth="1"/>
+    <col min="16142" max="16142" width="10" bestFit="1" customWidth="1"/>
+    <col min="16143" max="16143" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="16146" max="16146" width="10" bestFit="1" customWidth="1"/>
+    <col min="16150" max="16150" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="16152" max="16152" width="7" customWidth="1"/>
+    <col min="16154" max="16154" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
@@ -4361,105 +4321,106 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="N1" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>156</v>
+        <v>112</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>157</v>
+        <v>113</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>159</v>
       </c>
       <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4">
-        <v>10000000000</v>
+        <v>100</v>
+      </c>
+      <c r="E2" s="2">
+        <v>12000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>158</v>
+        <v>114</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="H2" s="2">
         <v>0</v>
       </c>
       <c r="I2" s="2">
-        <v>108</v>
+        <f>2771.2/0.962</f>
+        <v>2880.6652806652805</v>
       </c>
       <c r="J2" s="2">
         <v>1</v>
@@ -4468,78 +4429,80 @@
         <v>0</v>
       </c>
       <c r="L2" s="2">
-        <v>0</v>
+        <f>-284.2/0.962</f>
+        <v>-295.42619542619542</v>
       </c>
       <c r="M2" s="2">
         <v>25</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="14">
         <v>25</v>
       </c>
       <c r="O2" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P2" s="2">
         <v>6</v>
       </c>
-      <c r="Q2" s="2">
-        <v>0</v>
-      </c>
-      <c r="R2" s="2">
-        <v>0</v>
-      </c>
-      <c r="S2" s="2">
-        <v>4</v>
-      </c>
-      <c r="T2" s="2">
-        <v>13</v>
-      </c>
-      <c r="U2" s="2">
-        <v>0</v>
-      </c>
-      <c r="V2" s="2">
+      <c r="Q2" s="14">
+        <v>0</v>
+      </c>
+      <c r="R2" s="14">
+        <v>0</v>
+      </c>
+      <c r="S2" s="14">
+        <v>70</v>
+      </c>
+      <c r="T2" s="14">
+        <v>90</v>
+      </c>
+      <c r="U2" s="14">
+        <v>0</v>
+      </c>
+      <c r="V2" s="14">
         <v>997</v>
       </c>
-      <c r="W2" s="2">
+      <c r="W2" s="14">
         <v>4.1900000000000004</v>
       </c>
-      <c r="X2" s="2">
+      <c r="X2" s="14">
         <v>0.98</v>
       </c>
-      <c r="Y2" s="2">
+      <c r="Y2" s="14">
         <v>0.96</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>159</v>
+        <v>112</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>157</v>
+      <c r="C3" s="14" t="s">
+        <v>159</v>
       </c>
       <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4">
+        <v>12000</v>
+      </c>
+      <c r="E3" s="5">
         <v>10000000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>158</v>
+        <v>114</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="H3" s="2">
         <v>0</v>
       </c>
       <c r="I3" s="2">
-        <v>117.9</v>
+        <f>2771.2/0.962</f>
+        <v>2880.6652806652805</v>
       </c>
       <c r="J3" s="2">
         <v>1</v>
@@ -4548,49 +4511,50 @@
         <v>0</v>
       </c>
       <c r="L3" s="2">
-        <v>0</v>
+        <f>-284.2/0.962</f>
+        <v>-295.42619542619542</v>
       </c>
       <c r="M3" s="2">
         <v>25</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="14">
         <v>25</v>
       </c>
       <c r="O3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P3" s="2">
         <v>6</v>
       </c>
-      <c r="Q3" s="2">
-        <v>4.8</v>
-      </c>
-      <c r="R3" s="2">
-        <v>0</v>
-      </c>
-      <c r="S3" s="2">
-        <v>-6</v>
-      </c>
-      <c r="T3" s="2">
-        <v>7</v>
-      </c>
-      <c r="U3" s="2">
-        <v>334</v>
-      </c>
-      <c r="V3" s="2">
-        <v>917</v>
-      </c>
-      <c r="W3" s="2">
-        <v>2.11</v>
-      </c>
-      <c r="X3" s="2">
+      <c r="Q3" s="14">
+        <v>0</v>
+      </c>
+      <c r="R3" s="14">
+        <v>0</v>
+      </c>
+      <c r="S3" s="14">
+        <v>70</v>
+      </c>
+      <c r="T3" s="14">
+        <v>90</v>
+      </c>
+      <c r="U3" s="14">
+        <v>0</v>
+      </c>
+      <c r="V3" s="14">
+        <v>997</v>
+      </c>
+      <c r="W3" s="14">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="X3" s="14">
         <v>0.98</v>
       </c>
-      <c r="Y3" s="2">
+      <c r="Y3" s="14">
         <v>0.96</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>114</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
@@ -4598,246 +4562,406 @@
         <v>160</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4">
+      <c r="D4" s="14">
+        <v>0</v>
+      </c>
+      <c r="E4" s="15">
         <v>10000000000</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2">
-        <v>117.9</v>
-      </c>
-      <c r="J4" s="2">
-        <v>1</v>
-      </c>
-      <c r="K4" s="2">
-        <v>0</v>
-      </c>
-      <c r="L4" s="2">
-        <v>0</v>
-      </c>
-      <c r="M4" s="2">
+      <c r="F4" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="14">
+        <v>0</v>
+      </c>
+      <c r="I4" s="14">
+        <v>108</v>
+      </c>
+      <c r="J4" s="14">
+        <v>1</v>
+      </c>
+      <c r="K4" s="14">
+        <v>0</v>
+      </c>
+      <c r="L4" s="14">
+        <v>0</v>
+      </c>
+      <c r="M4" s="14">
         <v>25</v>
       </c>
-      <c r="N4" s="2">
-        <v>7</v>
-      </c>
-      <c r="O4" s="2">
+      <c r="N4" s="14">
+        <v>25</v>
+      </c>
+      <c r="O4" s="14">
         <v>2</v>
       </c>
-      <c r="P4" s="2">
+      <c r="P4" s="14">
         <v>6</v>
       </c>
-      <c r="Q4" s="2">
-        <v>4.8</v>
-      </c>
-      <c r="R4" s="2">
+      <c r="Q4" s="14">
+        <v>0</v>
+      </c>
+      <c r="R4" s="14">
+        <v>0</v>
+      </c>
+      <c r="S4" s="14">
         <v>4</v>
       </c>
-      <c r="S4" s="2">
-        <v>0</v>
-      </c>
-      <c r="T4" s="2">
-        <v>10</v>
-      </c>
-      <c r="U4" s="2">
-        <v>234</v>
-      </c>
-      <c r="V4" s="2">
-        <v>1600</v>
-      </c>
-      <c r="W4" s="2">
-        <v>2</v>
-      </c>
-      <c r="X4" s="2">
+      <c r="T4" s="14">
+        <v>13</v>
+      </c>
+      <c r="U4" s="14">
+        <v>0</v>
+      </c>
+      <c r="V4" s="14">
+        <v>997</v>
+      </c>
+      <c r="W4" s="14">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="X4" s="14">
         <v>0.98</v>
       </c>
-      <c r="Y4" s="2">
+      <c r="Y4" s="14">
         <v>0.96</v>
       </c>
-      <c r="Z4" s="2" t="s">
-        <v>114</v>
+      <c r="Z4" s="14" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="D5" s="14">
+        <v>0</v>
+      </c>
+      <c r="E5" s="15">
+        <v>10000000000</v>
+      </c>
+      <c r="F5" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4">
-        <v>10000000000</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2">
-        <v>156.30000000000001</v>
-      </c>
-      <c r="J5" s="2">
-        <v>1</v>
-      </c>
-      <c r="K5" s="2">
-        <v>0</v>
-      </c>
-      <c r="L5" s="2">
-        <v>0</v>
-      </c>
-      <c r="M5" s="2">
+      <c r="G5" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="14">
+        <v>0</v>
+      </c>
+      <c r="I5" s="14">
+        <v>117.9</v>
+      </c>
+      <c r="J5" s="14">
+        <v>1</v>
+      </c>
+      <c r="K5" s="14">
+        <v>0</v>
+      </c>
+      <c r="L5" s="14">
+        <v>0</v>
+      </c>
+      <c r="M5" s="14">
         <v>25</v>
       </c>
-      <c r="N5" s="2">
-        <v>7</v>
-      </c>
-      <c r="O5" s="2">
+      <c r="N5" s="14">
+        <v>25</v>
+      </c>
+      <c r="O5" s="14">
         <v>2</v>
       </c>
-      <c r="P5" s="2">
+      <c r="P5" s="14">
         <v>6</v>
       </c>
-      <c r="Q5" s="2">
-        <v>27.3</v>
-      </c>
-      <c r="R5" s="2">
-        <v>5.4</v>
-      </c>
-      <c r="S5" s="2">
-        <v>-1.5</v>
-      </c>
-      <c r="T5" s="2">
-        <v>10</v>
-      </c>
-      <c r="U5" s="2">
-        <v>105</v>
-      </c>
-      <c r="V5" s="2">
-        <v>1125</v>
-      </c>
-      <c r="W5" s="2">
-        <v>2.09</v>
-      </c>
-      <c r="X5" s="2">
+      <c r="Q5" s="14">
+        <v>4.8</v>
+      </c>
+      <c r="R5" s="14">
+        <v>0</v>
+      </c>
+      <c r="S5" s="14">
+        <v>-0.5</v>
+      </c>
+      <c r="T5" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="U5" s="14">
+        <v>334</v>
+      </c>
+      <c r="V5" s="14">
+        <v>917</v>
+      </c>
+      <c r="W5" s="14">
+        <v>2.11</v>
+      </c>
+      <c r="X5" s="14">
         <v>0.98</v>
       </c>
-      <c r="Y5" s="2">
+      <c r="Y5" s="14">
         <v>0.96</v>
       </c>
-      <c r="Z5" s="2" t="s">
-        <v>114</v>
+      <c r="Z5" s="14" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4">
+        <v>166</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="D6" s="14">
+        <v>0</v>
+      </c>
+      <c r="E6" s="15">
         <v>10000000000</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2">
+      <c r="F6" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="14">
+        <v>0</v>
+      </c>
+      <c r="I6" s="14">
+        <v>117.9</v>
+      </c>
+      <c r="J6" s="14">
+        <v>1</v>
+      </c>
+      <c r="K6" s="14">
+        <v>0</v>
+      </c>
+      <c r="L6" s="14">
+        <v>0</v>
+      </c>
+      <c r="M6" s="14">
+        <v>25</v>
+      </c>
+      <c r="N6" s="14">
+        <v>7</v>
+      </c>
+      <c r="O6" s="14">
+        <v>2</v>
+      </c>
+      <c r="P6" s="14">
+        <v>6</v>
+      </c>
+      <c r="Q6" s="14">
+        <v>4.8</v>
+      </c>
+      <c r="R6" s="14">
+        <v>4</v>
+      </c>
+      <c r="S6" s="14">
+        <v>3.5</v>
+      </c>
+      <c r="T6" s="14">
+        <v>4.5</v>
+      </c>
+      <c r="U6" s="14">
+        <v>234</v>
+      </c>
+      <c r="V6" s="14">
+        <v>1600</v>
+      </c>
+      <c r="W6" s="14">
+        <v>2</v>
+      </c>
+      <c r="X6" s="14">
+        <v>0.98</v>
+      </c>
+      <c r="Y6" s="14">
+        <v>0.96</v>
+      </c>
+      <c r="Z6" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="D7" s="14">
+        <v>0</v>
+      </c>
+      <c r="E7" s="15">
+        <v>10000000000</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="14">
+        <v>0</v>
+      </c>
+      <c r="I7" s="14">
+        <v>156.30000000000001</v>
+      </c>
+      <c r="J7" s="14">
+        <v>1</v>
+      </c>
+      <c r="K7" s="14">
+        <v>0</v>
+      </c>
+      <c r="L7" s="14">
+        <v>0</v>
+      </c>
+      <c r="M7" s="14">
+        <v>25</v>
+      </c>
+      <c r="N7" s="14">
+        <v>7</v>
+      </c>
+      <c r="O7" s="14">
+        <v>2</v>
+      </c>
+      <c r="P7" s="14">
+        <v>6</v>
+      </c>
+      <c r="Q7" s="14">
+        <v>27.3</v>
+      </c>
+      <c r="R7" s="14">
+        <v>5.4</v>
+      </c>
+      <c r="S7" s="14">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="T7" s="14">
+        <v>5.9</v>
+      </c>
+      <c r="U7" s="14">
+        <v>105</v>
+      </c>
+      <c r="V7" s="14">
+        <v>1125</v>
+      </c>
+      <c r="W7" s="14">
+        <v>2.09</v>
+      </c>
+      <c r="X7" s="14">
+        <v>0.98</v>
+      </c>
+      <c r="Y7" s="14">
+        <v>0.96</v>
+      </c>
+      <c r="Z7" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="D8" s="14">
+        <v>0</v>
+      </c>
+      <c r="E8" s="15">
+        <v>10000000000</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="14">
+        <v>0</v>
+      </c>
+      <c r="I8" s="14">
         <v>141.5</v>
       </c>
-      <c r="J6" s="2">
-        <v>1</v>
-      </c>
-      <c r="K6" s="2">
-        <v>0</v>
-      </c>
-      <c r="L6" s="2">
-        <v>0</v>
-      </c>
-      <c r="M6" s="2">
+      <c r="J8" s="14">
+        <v>1</v>
+      </c>
+      <c r="K8" s="14">
+        <v>0</v>
+      </c>
+      <c r="L8" s="14">
+        <v>0</v>
+      </c>
+      <c r="M8" s="14">
         <v>25</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N8" s="14">
         <v>7</v>
       </c>
-      <c r="O6" s="2">
+      <c r="O8" s="14">
         <v>2</v>
       </c>
-      <c r="P6" s="2">
+      <c r="P8" s="14">
         <v>6</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="Q8" s="14">
         <v>19.7</v>
       </c>
-      <c r="R6" s="2">
-        <v>5</v>
-      </c>
-      <c r="S6" s="2">
-        <v>2</v>
-      </c>
-      <c r="T6" s="2">
-        <v>10</v>
-      </c>
-      <c r="U6" s="2">
+      <c r="R8" s="14">
+        <v>5</v>
+      </c>
+      <c r="S8" s="14">
+        <v>4.5</v>
+      </c>
+      <c r="T8" s="14">
+        <v>5.5</v>
+      </c>
+      <c r="U8" s="14">
         <v>230</v>
       </c>
-      <c r="V6" s="2">
+      <c r="V8" s="14">
         <v>760</v>
       </c>
-      <c r="W6" s="2">
+      <c r="W8" s="14">
         <v>2.14</v>
       </c>
-      <c r="X6" s="2">
+      <c r="X8" s="14">
         <v>0.98</v>
       </c>
-      <c r="Y6" s="2">
+      <c r="Y8" s="14">
         <v>0.96</v>
       </c>
-      <c r="Z6" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="G10" s="22"/>
+      <c r="Z8" s="14" t="s">
+        <v>115</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
@@ -4845,8 +4969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AG3"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W3" sqref="W3"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4866,108 +4990,108 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>88</v>
+        <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="Q1" s="7" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="R1" s="7" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="S1" s="7" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="T1" s="7" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AB1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AC1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="AE1" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="D2" s="2">
         <v>2</v>
@@ -5026,14 +5150,14 @@
       <c r="U2" s="2">
         <v>1</v>
       </c>
-      <c r="V2" s="4">
+      <c r="V2" s="5">
         <v>10000000000</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="Y2" s="2">
         <v>0</v>
@@ -5061,18 +5185,18 @@
         <v>5</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="D3" s="2">
         <v>2</v>
@@ -5131,14 +5255,14 @@
       <c r="U3" s="2">
         <v>1</v>
       </c>
-      <c r="V3" s="4">
+      <c r="V3" s="5">
         <v>10000000000</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="Y3" s="2">
         <v>0</v>
@@ -5166,11 +5290,14 @@
         <v>5</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
@@ -5187,7 +5314,7 @@
     <col min="1" max="1" width="18.5" customWidth="1"/>
     <col min="3" max="3" width="9.5" customWidth="1"/>
     <col min="4" max="5" width="10.5" customWidth="1"/>
-    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
@@ -5198,68 +5325,68 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="5">
         <v>10000000000</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="G2" s="2">
         <v>0</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="4">
         <f>5/0.962</f>
         <v>5.1975051975051976</v>
       </c>
@@ -5282,20 +5409,23 @@
         <v>5</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5304,7 +5434,6 @@
     <col min="2" max="2" width="13.33203125" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" customWidth="1"/>
     <col min="4" max="5" width="16.5" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" customWidth="1"/>
     <col min="12" max="12" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5316,51 +5445,51 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2">
         <v>28000</v>
@@ -5369,10 +5498,10 @@
         <v>90000</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="G2" s="2">
         <f>20300/0.902</f>
@@ -5404,10 +5533,10 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C3" s="2">
         <v>90000</v>
@@ -5416,10 +5545,10 @@
         <v>320000</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="G3" s="2">
         <f>35100/0.902</f>
@@ -5449,8 +5578,58 @@
       </c>
       <c r="O3" s="2"/>
     </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="2">
+        <v>320000</v>
+      </c>
+      <c r="D4" s="5">
+        <v>10000000000</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="2">
+        <f>84000/0.902</f>
+        <v>93126.385809312633</v>
+      </c>
+      <c r="H4" s="2">
+        <f>0.014/0.902</f>
+        <v>1.5521064301552106E-2</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <v>20</v>
+      </c>
+      <c r="M4" s="2">
+        <v>5</v>
+      </c>
+      <c r="N4" s="2">
+        <v>5</v>
+      </c>
+      <c r="O4" s="2"/>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
@@ -5459,7 +5638,7 @@
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A2" sqref="A2:O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5467,7 +5646,7 @@
     <col min="1" max="1" width="29.33203125" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="5" width="17.6640625" customWidth="1"/>
-    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
@@ -5478,137 +5657,140 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="M1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="D2" s="2">
+        <v>5000000</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="11">
+        <v>0.74299999999999999</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2">
         <v>20</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="15">
-        <v>1000000</v>
-      </c>
-      <c r="D2" s="15">
+      <c r="M2" s="2">
+        <v>5</v>
+      </c>
+      <c r="N2" s="2">
+        <v>5</v>
+      </c>
+      <c r="O2" s="2"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="12">
         <v>5000000</v>
       </c>
-      <c r="E2" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="G2" s="15">
-        <v>0</v>
-      </c>
-      <c r="H2" s="16">
+      <c r="D3" s="12">
+        <v>50000000</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="12">
+        <v>0</v>
+      </c>
+      <c r="H3" s="12">
         <v>0.74299999999999999</v>
       </c>
-      <c r="I2" s="15">
-        <v>1</v>
-      </c>
-      <c r="J2" s="15">
-        <v>0</v>
-      </c>
-      <c r="K2" s="15">
-        <v>0</v>
-      </c>
-      <c r="L2" s="15">
+      <c r="I3" s="12">
+        <v>1</v>
+      </c>
+      <c r="J3" s="12">
+        <v>0</v>
+      </c>
+      <c r="K3" s="12">
+        <v>0</v>
+      </c>
+      <c r="L3" s="12">
         <v>20</v>
       </c>
-      <c r="M2" s="15">
-        <v>5</v>
-      </c>
-      <c r="N2" s="15">
-        <v>5</v>
-      </c>
-      <c r="O2" s="15"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="17">
-        <v>5000000</v>
-      </c>
-      <c r="D3" s="17">
-        <v>50000000</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="G3" s="17">
-        <v>0</v>
-      </c>
-      <c r="H3" s="17">
-        <v>0.74299999999999999</v>
-      </c>
-      <c r="I3" s="17">
-        <v>1</v>
-      </c>
-      <c r="J3" s="17">
-        <v>0</v>
-      </c>
-      <c r="K3" s="17">
-        <v>0</v>
-      </c>
-      <c r="L3" s="17">
-        <v>20</v>
-      </c>
-      <c r="M3" s="17">
-        <v>5</v>
-      </c>
-      <c r="N3" s="17">
-        <v>5</v>
-      </c>
-      <c r="O3" s="17"/>
+      <c r="M3" s="12">
+        <v>5</v>
+      </c>
+      <c r="N3" s="12">
+        <v>5</v>
+      </c>
+      <c r="O3" s="12"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
@@ -5616,8 +5798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5637,51 +5819,51 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="C2" s="2">
         <v>1000</v>
@@ -5690,10 +5872,10 @@
         <v>10000</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="G2" s="2">
         <v>0</v>
@@ -5724,22 +5906,22 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="C3" s="2">
-        <v>10000</v>
-      </c>
-      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5">
         <v>10000000000</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="G3" s="2">
         <v>0</v>
@@ -5767,11 +5949,14 @@
         <v>5</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>107</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
@@ -5780,14 +5965,13 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
     <col min="3" max="5" width="9.33203125" customWidth="1"/>
-    <col min="13" max="13" width="8.5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5799,63 +5983,63 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="5">
         <v>10000000000</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="G2" s="2">
         <v>0</v>
@@ -5885,8 +6069,10 @@
       <c r="O2" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
@@ -5895,164 +6081,153 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="9.1640625" style="19"/>
-    <col min="3" max="3" width="21.6640625" style="19" customWidth="1"/>
-    <col min="4" max="16384" width="9.1640625" style="19"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="C1" s="19" t="s">
+      <c r="D1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I1" t="s">
+        <v>137</v>
+      </c>
+      <c r="J1" t="s">
+        <v>138</v>
+      </c>
+      <c r="K1" t="s">
+        <v>139</v>
+      </c>
+      <c r="L1" t="s">
+        <v>140</v>
+      </c>
+      <c r="M1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2">
+        <v>0.33018832999999997</v>
+      </c>
+      <c r="E2">
+        <v>0.23554290999999999</v>
+      </c>
+      <c r="F2">
+        <v>0.46070828000000003</v>
+      </c>
+      <c r="G2">
+        <v>0.33269598</v>
+      </c>
+      <c r="H2">
+        <v>7.2911599999999997E-3</v>
+      </c>
+      <c r="I2">
+        <v>-4.9938000000000001E-4</v>
+      </c>
+      <c r="J2">
+        <v>1.598983E-2</v>
+      </c>
+      <c r="K2">
+        <v>-2.8254000000000002E-4</v>
+      </c>
+      <c r="L2">
+        <v>5.2346000000000001E-4</v>
+      </c>
+      <c r="M2" t="s">
         <v>145</v>
       </c>
-      <c r="D1" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="J1" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="K1" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="L1" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="M1" s="19" t="s">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B3" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="D2" s="21">
-        <v>0.33018832999999997</v>
-      </c>
-      <c r="E2" s="21">
-        <v>0.23554290999999999</v>
-      </c>
-      <c r="F2" s="21">
-        <v>0.46070828000000003</v>
-      </c>
-      <c r="G2" s="21">
-        <v>0.33269598</v>
-      </c>
-      <c r="H2" s="21">
-        <v>7.2911599999999997E-3</v>
-      </c>
-      <c r="I2" s="21">
-        <v>-4.9938000000000001E-4</v>
-      </c>
-      <c r="J2" s="21">
-        <v>1.598983E-2</v>
-      </c>
-      <c r="K2" s="21">
-        <v>-2.8254000000000002E-4</v>
-      </c>
-      <c r="L2" s="21">
-        <v>5.2346000000000001E-4</v>
-      </c>
-      <c r="M2" s="20" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="D3" s="21">
+      <c r="C3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3">
         <v>0.17149273000000001</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3">
         <v>0.58820207999999996</v>
       </c>
-      <c r="F3" s="21">
+      <c r="F3">
         <v>0.23737257</v>
       </c>
-      <c r="G3" s="21">
+      <c r="G3">
         <v>-0.29861976000000001</v>
       </c>
-      <c r="H3" s="21">
+      <c r="H3">
         <v>2.9960759999999999E-2</v>
       </c>
-      <c r="I3" s="21">
+      <c r="I3">
         <v>-8.0124999999999999E-4</v>
       </c>
-      <c r="J3" s="21">
+      <c r="J3">
         <v>1.7362679999999998E-2</v>
       </c>
-      <c r="K3" s="21">
+      <c r="K3">
         <v>-3.2605999999999998E-4</v>
       </c>
-      <c r="L3" s="21">
+      <c r="L3">
         <v>6.3139000000000001E-4</v>
       </c>
-      <c r="M3" s="20" t="s">
-        <v>130</v>
+      <c r="M3" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="M2" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
-    <hyperlink ref="M3" r:id="rId2" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.6640625" customWidth="1"/>
-    <col min="3" max="3" width="21.5" customWidth="1"/>
     <col min="4" max="4" width="17.33203125" customWidth="1"/>
     <col min="5" max="6" width="24" customWidth="1"/>
-    <col min="16" max="16" width="41.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="33.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
@@ -6063,69 +6238,69 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="N1" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="C2" s="2">
         <v>0.47</v>
       </c>
       <c r="D2" s="2">
-        <v>1055000</v>
+        <v>1000000</v>
       </c>
       <c r="E2" s="2">
-        <v>14000000</v>
+        <v>70000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="H2" s="2">
         <v>1568000</v>
@@ -6149,18 +6324,18 @@
         <v>5</v>
       </c>
       <c r="O2" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="C3" s="2">
         <v>0.4</v>
@@ -6168,14 +6343,14 @@
       <c r="D3" s="2">
         <v>1</v>
       </c>
-      <c r="E3" s="2">
-        <v>3500000</v>
+      <c r="E3" s="5">
+        <v>10000000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="H3" s="2">
         <f>11357/0.902</f>
@@ -6201,40 +6376,39 @@
         <v>5</v>
       </c>
       <c r="O3" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="C4" s="2">
         <v>0.4</v>
       </c>
-      <c r="D4" s="18">
-        <v>1</v>
-      </c>
-      <c r="E4" s="18">
-        <v>3500000</v>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5">
+        <v>10000000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="H4" s="2">
         <v>0</v>
       </c>
       <c r="I4" s="2">
-        <f>0.48/1.331</f>
-        <v>0.36063110443275731</v>
+        <v>0.36063110399999998</v>
       </c>
       <c r="J4" s="2">
         <v>1</v>
@@ -6252,14 +6426,22 @@
         <v>5</v>
       </c>
       <c r="O4" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>21</v>
-      </c>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K23" s="13"/>
+    </row>
+    <row r="25" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="13"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/cea/databases/SG/components/CONVERSION.xlsx
+++ b/cea/databases/SG/components/CONVERSION.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zshi/Documents/GitHub/CityEnergyAnalyst/cea/databases/SG/components/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zshi/Dropbox/CEA2/batch/Austrasse_01/inputs/technology/components/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04789F35-1650-3C4F-A8BF-496B093935CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A38D561-1924-E24F-B531-F3A7D3C77CF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="500" windowWidth="50260" windowHeight="14060" tabRatio="993" firstSheet="3" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5900" yWindow="-29500" windowWidth="39640" windowHeight="25020" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PHOTOVOLTAIC_PANELS" sheetId="1" r:id="rId1"/>
@@ -237,7 +237,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="259">
   <si>
     <t>Description</t>
   </si>
@@ -935,9 +935,6 @@
     <t>FU1</t>
   </si>
   <si>
-    <t>Check comments</t>
-  </si>
-  <si>
     <t>HEX2</t>
   </si>
   <si>
@@ -950,9 +947,6 @@
     <t>district substation heat exchanger</t>
   </si>
   <si>
-    <t>to be filled</t>
-  </si>
-  <si>
     <t>https://comnet.org/index.php/382-chillers</t>
   </si>
   <si>
@@ -971,9 +965,6 @@
     <t>CH_T0</t>
   </si>
   <si>
-    <t>REFERENCE</t>
-  </si>
-  <si>
     <t>q_f</t>
   </si>
   <si>
@@ -1001,21 +992,9 @@
     <t>plf_a</t>
   </si>
   <si>
-    <t>COMPRESSOR</t>
-  </si>
-  <si>
-    <t>SOURCE</t>
-  </si>
-  <si>
-    <t>CODE</t>
-  </si>
-  <si>
     <t>G_VALUE</t>
   </si>
   <si>
-    <t>Maybe the entire column is not necessary</t>
-  </si>
-  <si>
     <t>everything</t>
   </si>
   <si>
@@ -1026,6 +1005,15 @@
   </si>
   <si>
     <t xml:space="preserve"> Assumptions</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>compressor</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -1388,10 +1376,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1400,6 +1384,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1844,8 +1832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3166,15 +3154,15 @@
         <v>25</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="C2" s="2">
         <v>1000</v>
@@ -3217,10 +3205,10 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
@@ -3260,7 +3248,7 @@
         <v>5</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -4321,7 +4309,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:Z8"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="L1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="AB23" sqref="AB23"/>
     </sheetView>
   </sheetViews>
@@ -6212,7 +6200,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AH22" sqref="AH22"/>
     </sheetView>
   </sheetViews>
@@ -6671,7 +6659,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7496,7 +7484,7 @@
   <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8295,9 +8283,7 @@
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B13" s="44" t="s">
-        <v>232</v>
-      </c>
+      <c r="B13" s="49"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -8313,7 +8299,7 @@
   <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8595,25 +8581,27 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B5" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="C5" s="44" t="s">
+        <v>258</v>
+      </c>
+      <c r="D5" s="11">
+        <v>0</v>
+      </c>
+      <c r="E5" s="45">
+        <v>500</v>
+      </c>
+      <c r="F5" s="43" t="s">
         <v>233</v>
       </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="11">
-        <v>0</v>
-      </c>
-      <c r="E5" s="47">
-        <v>500</v>
-      </c>
-      <c r="F5" s="43" t="s">
-        <v>234</v>
-      </c>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
       <c r="K5" s="19" t="s">
         <v>31</v>
       </c>
@@ -8642,13 +8630,11 @@
         <v>5</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C6" s="44" t="s">
-        <v>237</v>
-      </c>
+      <c r="C6" s="49"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -8663,61 +8649,61 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>256</v>
       </c>
-      <c r="B1" t="s">
-        <v>255</v>
-      </c>
       <c r="C1" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="I1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="J1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="K1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="L1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="M1" t="s">
-        <v>244</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C2" t="s">
         <v>240</v>
-      </c>
-      <c r="C2" t="s">
-        <v>242</v>
       </c>
       <c r="D2">
         <v>0.33018832999999997</v>
@@ -8747,18 +8733,18 @@
         <v>5.2346000000000001E-4</v>
       </c>
       <c r="M2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D3">
         <v>0.17149273000000001</v>
@@ -8788,7 +8774,7 @@
         <v>6.3139000000000001E-4</v>
       </c>
       <c r="M3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -8801,7 +8787,7 @@
   <dimension ref="A1:V15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8826,7 +8812,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="D1" s="36" t="s">
         <v>2</v>
@@ -8893,7 +8879,7 @@
       <c r="B2" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="48">
+      <c r="C2" s="46">
         <v>0.47</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -9238,7 +9224,7 @@
       <c r="A7" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="47" t="s">
         <v>65</v>
       </c>
       <c r="C7" s="11">
@@ -9303,14 +9289,7 @@
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C8" s="45" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C9" t="s">
-        <v>258</v>
-      </c>
+      <c r="C8" s="48"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="P13" s="10"/>

--- a/cea/databases/SG/components/CONVERSION.xlsx
+++ b/cea/databases/SG/components/CONVERSION.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fonseca/Documents/GitHub/CityEnergyAnalyst/cea/databases/SG/components/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jimeno/Documents/GitHub/CityEnergyAnalyst/cea/databases/SG/components/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0BF0716-B353-0E45-A65D-D38A833EFFBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D772EF-BFF8-0349-AAD7-E3C33F441214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35540" yWindow="-5020" windowWidth="38400" windowHeight="17400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16680" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PV" sheetId="3" r:id="rId1"/>
@@ -20,15 +20,14 @@
     <sheet name="Furnace" sheetId="9" r:id="rId5"/>
     <sheet name="FC" sheetId="8" r:id="rId6"/>
     <sheet name="CCGT" sheetId="7" r:id="rId7"/>
-    <sheet name="Chiller_configuration" sheetId="19" r:id="rId8"/>
-    <sheet name="Chiller" sheetId="10" r:id="rId9"/>
-    <sheet name="Absorption_chiller" sheetId="18" r:id="rId10"/>
-    <sheet name="CT" sheetId="11" r:id="rId11"/>
-    <sheet name="HEX" sheetId="12" r:id="rId12"/>
-    <sheet name="BH" sheetId="16" r:id="rId13"/>
-    <sheet name="HP" sheetId="13" r:id="rId14"/>
-    <sheet name="Pump" sheetId="14" r:id="rId15"/>
-    <sheet name="TES" sheetId="15" r:id="rId16"/>
+    <sheet name="Chiller" sheetId="10" r:id="rId8"/>
+    <sheet name="Absorption_chiller" sheetId="18" r:id="rId9"/>
+    <sheet name="CT" sheetId="11" r:id="rId10"/>
+    <sheet name="HEX" sheetId="12" r:id="rId11"/>
+    <sheet name="BH" sheetId="16" r:id="rId12"/>
+    <sheet name="HP" sheetId="13" r:id="rId13"/>
+    <sheet name="Pump" sheetId="14" r:id="rId14"/>
+    <sheet name="TES" sheetId="15" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName name="__xlfn_AGGREGATE">#N/A</definedName>
@@ -52,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="150">
   <si>
     <t>Description</t>
   </si>
@@ -433,63 +432,6 @@
   </si>
   <si>
     <t>G_VALUE</t>
-  </si>
-  <si>
-    <t>SOURCE</t>
-  </si>
-  <si>
-    <t>SCREW</t>
-  </si>
-  <si>
-    <t>CENTRIFUGAL</t>
-  </si>
-  <si>
-    <t>https://comnet.org/index.php/382-chillers</t>
-  </si>
-  <si>
-    <t>CODE</t>
-  </si>
-  <si>
-    <t>CH_T0</t>
-  </si>
-  <si>
-    <t>plf_a</t>
-  </si>
-  <si>
-    <t>plf_b</t>
-  </si>
-  <si>
-    <t>plf_c</t>
-  </si>
-  <si>
-    <t>CH_T1</t>
-  </si>
-  <si>
-    <t>q_a</t>
-  </si>
-  <si>
-    <t>q_b</t>
-  </si>
-  <si>
-    <t>q_c</t>
-  </si>
-  <si>
-    <t>q_d</t>
-  </si>
-  <si>
-    <t>q_e</t>
-  </si>
-  <si>
-    <t>q_f</t>
-  </si>
-  <si>
-    <t>REFERENCE</t>
-  </si>
-  <si>
-    <t>WATER</t>
-  </si>
-  <si>
-    <t>COMPRESSOR</t>
   </si>
   <si>
     <t>LT_mat_yr</t>
@@ -573,7 +515,7 @@
     <numFmt numFmtId="168" formatCode="0_ ;\-0\ "/>
     <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -608,27 +550,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -723,15 +644,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -772,24 +692,18 @@
     <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Komma" xfId="1" builtinId="3"/>
-    <cellStyle name="Link" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Normal 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Prozent" xfId="5" builtinId="5"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+  <cellStyles count="5">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Percent" xfId="4" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1064,7 +978,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -1176,87 +1090,87 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="21" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" s="18" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="C2" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="F2" s="20" t="s">
+      <c r="D2" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="F2" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="I2" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="J2" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="K2" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="L2" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="M2" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="N2" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="O2" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="P2" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q2" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="R2" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="S2" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="T2" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="U2" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="V2" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="W2" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="X2" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="Y2" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="Z2" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="AA2" s="20" t="s">
-        <v>168</v>
+      <c r="G2" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="N2" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="P2" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q2" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="R2" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="S2" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="T2" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="U2" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="V2" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="W2" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="X2" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y2" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z2" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="AA2" s="17" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
@@ -2022,505 +1936,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:Z6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="27.6640625" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2">
-        <v>51150</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0.4395</v>
-      </c>
-      <c r="J2" s="2">
-        <v>1</v>
-      </c>
-      <c r="K2" s="2">
-        <v>0</v>
-      </c>
-      <c r="L2" s="2">
-        <v>0</v>
-      </c>
-      <c r="M2" s="2">
-        <v>25</v>
-      </c>
-      <c r="N2" s="2">
-        <v>5</v>
-      </c>
-      <c r="O2" s="2">
-        <v>5</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>0.42</v>
-      </c>
-      <c r="R2" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="S2" s="2">
-        <v>0.53</v>
-      </c>
-      <c r="T2" s="2">
-        <v>-2.5</v>
-      </c>
-      <c r="U2" s="2">
-        <v>-2.5</v>
-      </c>
-      <c r="V2" s="2">
-        <v>1.8</v>
-      </c>
-      <c r="W2" s="2">
-        <v>-2.1</v>
-      </c>
-      <c r="X2" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="Y2" s="2">
-        <v>0.72199999999999998</v>
-      </c>
-      <c r="Z2" s="2">
-        <v>0.33300000000000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D3" s="2">
-        <v>51150</v>
-      </c>
-      <c r="E3" s="4">
-        <v>1176000</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0.4395</v>
-      </c>
-      <c r="J3" s="2">
-        <v>1</v>
-      </c>
-      <c r="K3" s="2">
-        <v>0</v>
-      </c>
-      <c r="L3" s="2">
-        <v>0</v>
-      </c>
-      <c r="M3" s="2">
-        <v>25</v>
-      </c>
-      <c r="N3" s="2">
-        <v>5</v>
-      </c>
-      <c r="O3" s="2">
-        <v>5</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>68.12</v>
-      </c>
-      <c r="R3" s="2">
-        <v>-3281.1</v>
-      </c>
-      <c r="S3" s="2">
-        <v>88.05</v>
-      </c>
-      <c r="T3" s="2">
-        <v>-4216.1000000000004</v>
-      </c>
-      <c r="U3" s="2">
-        <v>-1.45</v>
-      </c>
-      <c r="V3" s="2">
-        <v>1.75</v>
-      </c>
-      <c r="W3" s="2">
-        <v>-1.45</v>
-      </c>
-      <c r="X3" s="2">
-        <v>1.75</v>
-      </c>
-      <c r="Y3" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z3" s="2">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>58150</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0.52969999999999995</v>
-      </c>
-      <c r="J4" s="2">
-        <v>1</v>
-      </c>
-      <c r="K4" s="2">
-        <v>0</v>
-      </c>
-      <c r="L4" s="2">
-        <v>0</v>
-      </c>
-      <c r="M4" s="2">
-        <v>25</v>
-      </c>
-      <c r="N4" s="2">
-        <v>5</v>
-      </c>
-      <c r="O4" s="2">
-        <v>5</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>0.42</v>
-      </c>
-      <c r="R4" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="S4" s="2">
-        <v>0.53</v>
-      </c>
-      <c r="T4" s="2">
-        <v>-2.5</v>
-      </c>
-      <c r="U4" s="2">
-        <v>-2.5</v>
-      </c>
-      <c r="V4" s="2">
-        <v>1.8</v>
-      </c>
-      <c r="W4" s="2">
-        <v>-2.1</v>
-      </c>
-      <c r="X4" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="Y4" s="2">
-        <v>0.72199999999999998</v>
-      </c>
-      <c r="Z4" s="2">
-        <v>0.33300000000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D5" s="2">
-        <v>58150</v>
-      </c>
-      <c r="E5" s="4">
-        <v>1337450</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0.52969999999999995</v>
-      </c>
-      <c r="J5" s="2">
-        <v>1</v>
-      </c>
-      <c r="K5" s="2">
-        <v>0</v>
-      </c>
-      <c r="L5" s="2">
-        <v>0</v>
-      </c>
-      <c r="M5" s="2">
-        <v>25</v>
-      </c>
-      <c r="N5" s="2">
-        <v>5</v>
-      </c>
-      <c r="O5" s="2">
-        <v>5</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="R5" s="2">
-        <v>-1350.5</v>
-      </c>
-      <c r="S5" s="2">
-        <v>12.54</v>
-      </c>
-      <c r="T5" s="2">
-        <v>-917.3</v>
-      </c>
-      <c r="U5" s="2">
-        <v>-2.46</v>
-      </c>
-      <c r="V5" s="2">
-        <v>4.38</v>
-      </c>
-      <c r="W5" s="2">
-        <v>-2.46</v>
-      </c>
-      <c r="X5" s="2">
-        <v>4.38</v>
-      </c>
-      <c r="Y5" s="2">
-        <v>68</v>
-      </c>
-      <c r="Z5" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D6" s="2">
-        <v>116300</v>
-      </c>
-      <c r="E6" s="4">
-        <v>1628200</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0.64239999999999997</v>
-      </c>
-      <c r="J6" s="2">
-        <v>1</v>
-      </c>
-      <c r="K6" s="2">
-        <v>0</v>
-      </c>
-      <c r="L6" s="2">
-        <v>0</v>
-      </c>
-      <c r="M6" s="2">
-        <v>25</v>
-      </c>
-      <c r="N6" s="2">
-        <v>5</v>
-      </c>
-      <c r="O6" s="2">
-        <v>5</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>14.6</v>
-      </c>
-      <c r="R6" s="2">
-        <v>-1171.7</v>
-      </c>
-      <c r="S6" s="2">
-        <v>7.05</v>
-      </c>
-      <c r="T6" s="2">
-        <v>-504.2</v>
-      </c>
-      <c r="U6" s="2">
-        <v>-2.14</v>
-      </c>
-      <c r="V6" s="2">
-        <v>3.29</v>
-      </c>
-      <c r="W6" s="2">
-        <v>-2.14</v>
-      </c>
-      <c r="X6" s="2">
-        <v>3.29</v>
-      </c>
-      <c r="Y6" s="2">
-        <v>62</v>
-      </c>
-      <c r="Z6" s="2">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:O2"/>
   <sheetViews>
@@ -2636,7 +2051,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:T5"/>
   <sheetViews>
@@ -2967,7 +2382,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:O2"/>
   <sheetViews>
@@ -3082,7 +2497,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:O4"/>
   <sheetViews>
@@ -3294,7 +2709,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:O5"/>
   <sheetViews>
@@ -3555,7 +2970,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:Z10"/>
   <sheetViews>
@@ -4504,7 +3919,7 @@
         <v>22</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>20</v>
@@ -4513,31 +3928,31 @@
         <v>21</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>54</v>
@@ -4545,13 +3960,13 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="D2" s="2">
         <v>0</v>
@@ -4560,7 +3975,7 @@
         <v>10000000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>67</v>
@@ -4625,13 +4040,13 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>113</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
@@ -4640,7 +4055,7 @@
         <v>10000000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>67</v>
@@ -4705,13 +4120,13 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
@@ -4720,7 +4135,7 @@
         <v>10000000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>67</v>
@@ -4785,13 +4200,13 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
@@ -4800,7 +4215,7 @@
         <v>10000000000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>67</v>
@@ -4865,13 +4280,13 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
@@ -4880,7 +4295,7 @@
         <v>10000000000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>67</v>
@@ -4944,7 +4359,7 @@
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="G10" s="19"/>
+      <c r="G10" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6000,158 +5415,10 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:M3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="9.1640625" style="16"/>
-    <col min="3" max="3" width="21.6640625" style="16" customWidth="1"/>
-    <col min="4" max="16384" width="9.1640625" style="16"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="K1" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="L1" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="M1" s="16" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="D2" s="18">
-        <v>0.33018832999999997</v>
-      </c>
-      <c r="E2" s="18">
-        <v>0.23554290999999999</v>
-      </c>
-      <c r="F2" s="18">
-        <v>0.46070828000000003</v>
-      </c>
-      <c r="G2" s="18">
-        <v>0.33269598</v>
-      </c>
-      <c r="H2" s="18">
-        <v>7.2911599999999997E-3</v>
-      </c>
-      <c r="I2" s="18">
-        <v>-4.9938000000000001E-4</v>
-      </c>
-      <c r="J2" s="18">
-        <v>1.598983E-2</v>
-      </c>
-      <c r="K2" s="18">
-        <v>-2.8254000000000002E-4</v>
-      </c>
-      <c r="L2" s="18">
-        <v>5.2346000000000001E-4</v>
-      </c>
-      <c r="M2" s="17" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="D3" s="18">
-        <v>0.17149273000000001</v>
-      </c>
-      <c r="E3" s="18">
-        <v>0.58820207999999996</v>
-      </c>
-      <c r="F3" s="18">
-        <v>0.23737257</v>
-      </c>
-      <c r="G3" s="18">
-        <v>-0.29861976000000001</v>
-      </c>
-      <c r="H3" s="18">
-        <v>2.9960759999999999E-2</v>
-      </c>
-      <c r="I3" s="18">
-        <v>-8.0124999999999999E-4</v>
-      </c>
-      <c r="J3" s="18">
-        <v>1.7362679999999998E-2</v>
-      </c>
-      <c r="K3" s="18">
-        <v>-3.2605999999999998E-4</v>
-      </c>
-      <c r="L3" s="18">
-        <v>6.3139000000000001E-4</v>
-      </c>
-      <c r="M3" s="17" t="s">
-        <v>130</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="M2" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
-    <hyperlink ref="M3" r:id="rId2" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -6371,4 +5638,503 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:Z6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.6640625" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>51150</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0.4395</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2">
+        <v>25</v>
+      </c>
+      <c r="N2" s="2">
+        <v>5</v>
+      </c>
+      <c r="O2" s="2">
+        <v>5</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0.42</v>
+      </c>
+      <c r="R2" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="S2" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="T2" s="2">
+        <v>-2.5</v>
+      </c>
+      <c r="U2" s="2">
+        <v>-2.5</v>
+      </c>
+      <c r="V2" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="W2" s="2">
+        <v>-2.1</v>
+      </c>
+      <c r="X2" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>0.33300000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="2">
+        <v>51150</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1176000</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.4395</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2">
+        <v>25</v>
+      </c>
+      <c r="N3" s="2">
+        <v>5</v>
+      </c>
+      <c r="O3" s="2">
+        <v>5</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>68.12</v>
+      </c>
+      <c r="R3" s="2">
+        <v>-3281.1</v>
+      </c>
+      <c r="S3" s="2">
+        <v>88.05</v>
+      </c>
+      <c r="T3" s="2">
+        <v>-4216.1000000000004</v>
+      </c>
+      <c r="U3" s="2">
+        <v>-1.45</v>
+      </c>
+      <c r="V3" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="W3" s="2">
+        <v>-1.45</v>
+      </c>
+      <c r="X3" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>58150</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.52969999999999995</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
+        <v>25</v>
+      </c>
+      <c r="N4" s="2">
+        <v>5</v>
+      </c>
+      <c r="O4" s="2">
+        <v>5</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0.42</v>
+      </c>
+      <c r="R4" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="S4" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="T4" s="2">
+        <v>-2.5</v>
+      </c>
+      <c r="U4" s="2">
+        <v>-2.5</v>
+      </c>
+      <c r="V4" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="W4" s="2">
+        <v>-2.1</v>
+      </c>
+      <c r="X4" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>0.33300000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="2">
+        <v>58150</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1337450</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.52969999999999995</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
+        <v>25</v>
+      </c>
+      <c r="N5" s="2">
+        <v>5</v>
+      </c>
+      <c r="O5" s="2">
+        <v>5</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="R5" s="2">
+        <v>-1350.5</v>
+      </c>
+      <c r="S5" s="2">
+        <v>12.54</v>
+      </c>
+      <c r="T5" s="2">
+        <v>-917.3</v>
+      </c>
+      <c r="U5" s="2">
+        <v>-2.46</v>
+      </c>
+      <c r="V5" s="2">
+        <v>4.38</v>
+      </c>
+      <c r="W5" s="2">
+        <v>-2.46</v>
+      </c>
+      <c r="X5" s="2">
+        <v>4.38</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>68</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="2">
+        <v>116300</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1628200</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.64239999999999997</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>25</v>
+      </c>
+      <c r="N6" s="2">
+        <v>5</v>
+      </c>
+      <c r="O6" s="2">
+        <v>5</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>14.6</v>
+      </c>
+      <c r="R6" s="2">
+        <v>-1171.7</v>
+      </c>
+      <c r="S6" s="2">
+        <v>7.05</v>
+      </c>
+      <c r="T6" s="2">
+        <v>-504.2</v>
+      </c>
+      <c r="U6" s="2">
+        <v>-2.14</v>
+      </c>
+      <c r="V6" s="2">
+        <v>3.29</v>
+      </c>
+      <c r="W6" s="2">
+        <v>-2.14</v>
+      </c>
+      <c r="X6" s="2">
+        <v>3.29</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>62</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/cea/databases/SG/components/CONVERSION.xlsx
+++ b/cea/databases/SG/components/CONVERSION.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zshi/Dropbox/CEA2/batch/Austrasse_01/inputs/technology/components/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zshi/Dropbox/CEA2/batch/sg_test/inputs/technology/components/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A38D561-1924-E24F-B531-F3A7D3C77CF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB605B09-8411-EA49-93D5-D6B83410A153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5900" yWindow="-29500" windowWidth="39640" windowHeight="25020" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7920" yWindow="6880" windowWidth="29460" windowHeight="18880" tabRatio="993" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PHOTOVOLTAIC_PANELS" sheetId="1" r:id="rId1"/>
@@ -19,17 +19,16 @@
     <sheet name="BOILERS" sheetId="4" r:id="rId4"/>
     <sheet name="COGENERATION_PLANTS" sheetId="5" r:id="rId5"/>
     <sheet name="HEAT_EXCHANGERS" sheetId="11" r:id="rId6"/>
-    <sheet name="CHILLER_CONFIGURATION" sheetId="18" r:id="rId7"/>
-    <sheet name="VAPOR_COMPRESSION_CHILLERS" sheetId="8" r:id="rId8"/>
-    <sheet name="ABSORPTION_CHILLERS" sheetId="9" r:id="rId9"/>
-    <sheet name="COOLING_TOWERS" sheetId="10" r:id="rId10"/>
-    <sheet name="FUEL_CELLS" sheetId="20" r:id="rId11"/>
-    <sheet name="UNITARY_AIR_CONDITIONERS" sheetId="16" r:id="rId12"/>
-    <sheet name="HEAT_PUMPS" sheetId="13" r:id="rId13"/>
-    <sheet name="THERMAL_ENERGY_STORAGES" sheetId="14" r:id="rId14"/>
-    <sheet name="POWER_TRANSFORMERS" sheetId="17" r:id="rId15"/>
-    <sheet name="HYDRAULIC_PUMPS" sheetId="15" r:id="rId16"/>
-    <sheet name="BORE_HOLES" sheetId="12" r:id="rId17"/>
+    <sheet name="VAPOR_COMPRESSION_CHILLERS" sheetId="8" r:id="rId7"/>
+    <sheet name="ABSORPTION_CHILLERS" sheetId="9" r:id="rId8"/>
+    <sheet name="COOLING_TOWERS" sheetId="10" r:id="rId9"/>
+    <sheet name="FUEL_CELLS" sheetId="20" r:id="rId10"/>
+    <sheet name="UNITARY_AIR_CONDITIONERS" sheetId="16" r:id="rId11"/>
+    <sheet name="HEAT_PUMPS" sheetId="13" r:id="rId12"/>
+    <sheet name="THERMAL_ENERGY_STORAGES" sheetId="14" r:id="rId13"/>
+    <sheet name="POWER_TRANSFORMERS" sheetId="17" r:id="rId14"/>
+    <sheet name="HYDRAULIC_PUMPS" sheetId="15" r:id="rId15"/>
+    <sheet name="BORE_HOLES" sheetId="12" r:id="rId16"/>
   </sheets>
   <definedNames>
     <definedName name="__xlfn_AGGREGATE">#N/A</definedName>
@@ -51,193 +50,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Zhongming Shi</author>
-  </authors>
-  <commentList>
-    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{29EEEDE7-8CC9-204F-8C9F-D3D3C040B91A}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Zhongming Shi:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>It  was "FORC1"</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{79D0EC61-3AD8-4A4A-883C-56F030FA03D7}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Zhongming Shi:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>It was "FORC1"</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{3D8DBFF5-E1F7-304E-A8CA-5A2713BB74AA}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Zhongming Shi:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>It was "FORC1"</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Zhongming Shi</author>
-  </authors>
-  <commentList>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{9637B006-92E5-1148-9037-4C0037E4484D}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Zhongming Shi:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>is this a typo?</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{14D00030-251E-CE42-A720-8BBC222AB861}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Zhongming Shi:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>the old database, here is CH3</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="237">
   <si>
     <t>Description</t>
   </si>
@@ -935,63 +749,6 @@
     <t>FU1</t>
   </si>
   <si>
-    <t>HEX2</t>
-  </si>
-  <si>
-    <t>m^2</t>
-  </si>
-  <si>
-    <t>Values under 1 and above 50 are assumptions, as no datasheet values are available in this area. a_p to e_p denote the pressure drop in Pa</t>
-  </si>
-  <si>
-    <t>district substation heat exchanger</t>
-  </si>
-  <si>
-    <t>https://comnet.org/index.php/382-chillers</t>
-  </si>
-  <si>
-    <t>CENTRIFUGAL</t>
-  </si>
-  <si>
-    <t>WATER</t>
-  </si>
-  <si>
-    <t>CH_T1</t>
-  </si>
-  <si>
-    <t>SCREW</t>
-  </si>
-  <si>
-    <t>CH_T0</t>
-  </si>
-  <si>
-    <t>q_f</t>
-  </si>
-  <si>
-    <t>q_e</t>
-  </si>
-  <si>
-    <t>q_d</t>
-  </si>
-  <si>
-    <t>q_c</t>
-  </si>
-  <si>
-    <t>q_b</t>
-  </si>
-  <si>
-    <t>q_a</t>
-  </si>
-  <si>
-    <t>plf_c</t>
-  </si>
-  <si>
-    <t>plf_b</t>
-  </si>
-  <si>
-    <t>plf_a</t>
-  </si>
-  <si>
     <t>G_VALUE</t>
   </si>
   <si>
@@ -1005,15 +762,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Assumptions</t>
-  </si>
-  <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t>compressor</t>
-  </si>
-  <si>
-    <t>?</t>
   </si>
 </sst>
 </file>
@@ -1025,7 +773,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1069,21 +817,8 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1100,12 +835,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF33CCCC"/>
         <bgColor indexed="40"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1253,7 +982,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1373,21 +1102,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1832,7 +1556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
@@ -2706,394 +2430,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:V7"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V23" sqref="V23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="26.5" customWidth="1"/>
-    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5" customWidth="1"/>
-    <col min="5" max="5" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.1640625" customWidth="1"/>
-    <col min="7" max="7" width="12.1640625" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="29" customWidth="1"/>
-    <col min="22" max="22" width="69" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="H1" s="36" t="s">
-        <v>131</v>
-      </c>
-      <c r="I1" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="J1" s="36" t="s">
-        <v>140</v>
-      </c>
-      <c r="K1" s="36" t="s">
-        <v>139</v>
-      </c>
-      <c r="L1" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="N1" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="O1" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="P1" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q1" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="R1" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="S1" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="T1" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="U1" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="V1" s="40" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D2" s="17">
-        <v>1</v>
-      </c>
-      <c r="E2" s="17">
-        <v>10000000</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="20">
-        <v>1.26E-2</v>
-      </c>
-      <c r="H2" s="2">
-        <v>460</v>
-      </c>
-      <c r="I2" s="2">
-        <v>35</v>
-      </c>
-      <c r="J2" s="2">
-        <v>29.5</v>
-      </c>
-      <c r="K2" s="2">
-        <v>24</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M2" s="2">
-        <v>1457.3</v>
-      </c>
-      <c r="N2" s="2">
-        <v>1.61E-2</v>
-      </c>
-      <c r="O2" s="2">
-        <v>1</v>
-      </c>
-      <c r="P2" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>0</v>
-      </c>
-      <c r="R2" s="2">
-        <v>20</v>
-      </c>
-      <c r="S2" s="2">
-        <v>10</v>
-      </c>
-      <c r="T2" s="2">
-        <v>15</v>
-      </c>
-      <c r="U2" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="V2" s="11" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D3" s="17">
-        <v>10000000</v>
-      </c>
-      <c r="E3" s="17">
-        <v>1E+16</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="20">
-        <v>1.26E-2</v>
-      </c>
-      <c r="H3" s="12">
-        <v>460</v>
-      </c>
-      <c r="I3" s="12">
-        <v>35</v>
-      </c>
-      <c r="J3" s="12">
-        <v>29.5</v>
-      </c>
-      <c r="K3" s="12">
-        <v>24</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M3" s="2">
-        <v>1457.3</v>
-      </c>
-      <c r="N3" s="2">
-        <v>1.61E-2</v>
-      </c>
-      <c r="O3" s="2">
-        <v>1</v>
-      </c>
-      <c r="P3" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>0</v>
-      </c>
-      <c r="R3" s="2">
-        <v>20</v>
-      </c>
-      <c r="S3" s="2">
-        <v>10</v>
-      </c>
-      <c r="T3" s="2">
-        <v>15</v>
-      </c>
-      <c r="U3" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="V3" s="11" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D4" s="17">
-        <v>1</v>
-      </c>
-      <c r="E4" s="17">
-        <v>10000000</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="20">
-        <v>3.15E-2</v>
-      </c>
-      <c r="H4" s="12">
-        <v>460</v>
-      </c>
-      <c r="I4" s="12">
-        <v>39</v>
-      </c>
-      <c r="J4" s="12">
-        <v>32</v>
-      </c>
-      <c r="K4" s="12">
-        <v>24</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M4" s="2">
-        <v>1457.3</v>
-      </c>
-      <c r="N4" s="2">
-        <v>1.61E-2</v>
-      </c>
-      <c r="O4" s="2">
-        <v>1</v>
-      </c>
-      <c r="P4" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>0</v>
-      </c>
-      <c r="R4" s="2">
-        <v>20</v>
-      </c>
-      <c r="S4" s="2">
-        <v>5</v>
-      </c>
-      <c r="T4" s="2">
-        <v>15</v>
-      </c>
-      <c r="U4" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="V4" s="11" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D5" s="17">
-        <v>10000000</v>
-      </c>
-      <c r="E5" s="17">
-        <v>1E+16</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="20">
-        <v>3.15E-2</v>
-      </c>
-      <c r="H5" s="11">
-        <v>460</v>
-      </c>
-      <c r="I5" s="11">
-        <v>39</v>
-      </c>
-      <c r="J5" s="11">
-        <v>32</v>
-      </c>
-      <c r="K5" s="11">
-        <v>24</v>
-      </c>
-      <c r="L5" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="M5" s="19">
-        <v>1457.3</v>
-      </c>
-      <c r="N5" s="2">
-        <v>1.61E-2</v>
-      </c>
-      <c r="O5" s="2">
-        <v>1</v>
-      </c>
-      <c r="P5" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>0</v>
-      </c>
-      <c r="R5" s="2">
-        <v>20</v>
-      </c>
-      <c r="S5" s="2">
-        <v>5</v>
-      </c>
-      <c r="T5" s="2">
-        <v>15</v>
-      </c>
-      <c r="U5" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="V5" s="11" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="V6" s="9"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="V7" s="21"/>
-    </row>
-  </sheetData>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AFF6F14-A874-CB45-A2C1-8C31AFCB2875}">
   <dimension ref="A1:O3"/>
   <sheetViews>
@@ -3154,15 +2490,15 @@
         <v>25</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="C2" s="2">
         <v>1000</v>
@@ -3205,10 +2541,10 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
@@ -3248,7 +2584,7 @@
         <v>5</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -3259,12 +2595,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70485D6F-84D6-CE40-9068-BC69269F5FF1}">
   <dimension ref="A1:U11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U25" sqref="U25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3487,7 +2823,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:W11"/>
   <sheetViews>
@@ -4305,7 +3641,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:Z8"/>
   <sheetViews>
@@ -5609,7 +4945,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E588DD75-4ED6-A447-B30A-4A128452EE65}">
   <dimension ref="A1:W7"/>
   <sheetViews>
@@ -5932,7 +5268,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:O5"/>
   <sheetViews>
@@ -6196,7 +5532,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:O2"/>
   <sheetViews>
@@ -7480,11 +6816,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B8" sqref="B8:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8283,23 +7619,22 @@
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B13" s="49"/>
+      <c r="B13" s="9"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:U6"/>
+  <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8580,61 +7915,7 @@
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>232</v>
-      </c>
-      <c r="C5" s="44" t="s">
-        <v>258</v>
-      </c>
-      <c r="D5" s="11">
-        <v>0</v>
-      </c>
-      <c r="E5" s="45">
-        <v>500</v>
-      </c>
-      <c r="F5" s="43" t="s">
-        <v>233</v>
-      </c>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="L5" s="2">
-        <v>3381</v>
-      </c>
-      <c r="M5" s="2">
-        <v>229.8</v>
-      </c>
-      <c r="N5" s="2">
-        <v>0</v>
-      </c>
-      <c r="O5" s="2">
-        <v>0</v>
-      </c>
-      <c r="P5" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>20</v>
-      </c>
-      <c r="R5" s="2">
-        <v>5</v>
-      </c>
-      <c r="S5" s="2">
-        <v>5</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C6" s="49"/>
+      <c r="C5" s="9"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -8645,149 +7926,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF8932CD-0E30-FE4E-8ABE-9DAAEE4FAE1D}">
-  <dimension ref="A1:M3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S23" sqref="S23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C1" t="s">
-        <v>257</v>
-      </c>
-      <c r="D1" t="s">
-        <v>250</v>
-      </c>
-      <c r="E1" t="s">
-        <v>249</v>
-      </c>
-      <c r="F1" t="s">
-        <v>248</v>
-      </c>
-      <c r="G1" t="s">
-        <v>247</v>
-      </c>
-      <c r="H1" t="s">
-        <v>246</v>
-      </c>
-      <c r="I1" t="s">
-        <v>245</v>
-      </c>
-      <c r="J1" t="s">
-        <v>244</v>
-      </c>
-      <c r="K1" t="s">
-        <v>243</v>
-      </c>
-      <c r="L1" t="s">
-        <v>242</v>
-      </c>
-      <c r="M1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B2" t="s">
-        <v>238</v>
-      </c>
-      <c r="C2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D2">
-        <v>0.33018832999999997</v>
-      </c>
-      <c r="E2">
-        <v>0.23554290999999999</v>
-      </c>
-      <c r="F2">
-        <v>0.46070828000000003</v>
-      </c>
-      <c r="G2">
-        <v>0.33269598</v>
-      </c>
-      <c r="H2">
-        <v>7.2911599999999997E-3</v>
-      </c>
-      <c r="I2">
-        <v>-4.9938000000000001E-4</v>
-      </c>
-      <c r="J2">
-        <v>1.598983E-2</v>
-      </c>
-      <c r="K2">
-        <v>-2.8254000000000002E-4</v>
-      </c>
-      <c r="L2">
-        <v>5.2346000000000001E-4</v>
-      </c>
-      <c r="M2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>239</v>
-      </c>
-      <c r="B3" t="s">
-        <v>238</v>
-      </c>
-      <c r="C3" t="s">
-        <v>237</v>
-      </c>
-      <c r="D3">
-        <v>0.17149273000000001</v>
-      </c>
-      <c r="E3">
-        <v>0.58820207999999996</v>
-      </c>
-      <c r="F3">
-        <v>0.23737257</v>
-      </c>
-      <c r="G3">
-        <v>-0.29861976000000001</v>
-      </c>
-      <c r="H3">
-        <v>2.9960759999999999E-2</v>
-      </c>
-      <c r="I3">
-        <v>-8.0124999999999999E-4</v>
-      </c>
-      <c r="J3">
-        <v>1.7362679999999998E-2</v>
-      </c>
-      <c r="K3">
-        <v>-3.2605999999999998E-4</v>
-      </c>
-      <c r="L3">
-        <v>6.3139000000000001E-4</v>
-      </c>
-      <c r="M3" t="s">
-        <v>236</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:V15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B2" sqref="B2:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8812,7 +7955,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="D1" s="36" t="s">
         <v>2</v>
@@ -8876,10 +8019,10 @@
       <c r="A2" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="46">
+      <c r="C2" s="45">
         <v>0.47</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -8944,10 +8087,10 @@
       <c r="A3" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="43">
         <v>0.4</v>
       </c>
       <c r="D3" s="19" t="s">
@@ -9014,10 +8157,10 @@
       <c r="A4" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="43">
         <v>0.4</v>
       </c>
       <c r="D4" s="19" t="s">
@@ -9084,10 +8227,10 @@
       <c r="A5" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="43">
         <v>0.4</v>
       </c>
       <c r="D5" s="19" t="s">
@@ -9154,10 +8297,10 @@
       <c r="A6" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="43">
         <v>0.4</v>
       </c>
       <c r="D6" s="19" t="s">
@@ -9224,10 +8367,10 @@
       <c r="A7" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="43">
         <v>0.4</v>
       </c>
       <c r="D7" s="19" t="s">
@@ -9287,9 +8430,6 @@
       <c r="V7" s="2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C8" s="48"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="P13" s="10"/>
@@ -9302,11 +8442,10 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:AG7"/>
   <sheetViews>
@@ -10038,4 +9177,392 @@
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:V7"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V23" sqref="V23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26.5" customWidth="1"/>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5" customWidth="1"/>
+    <col min="5" max="5" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.1640625" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="29" customWidth="1"/>
+    <col min="22" max="22" width="69" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="J1" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="K1" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="L1" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="U1" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="V1" s="40" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D2" s="17">
+        <v>1</v>
+      </c>
+      <c r="E2" s="17">
+        <v>10000000</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="20">
+        <v>1.26E-2</v>
+      </c>
+      <c r="H2" s="2">
+        <v>460</v>
+      </c>
+      <c r="I2" s="2">
+        <v>35</v>
+      </c>
+      <c r="J2" s="2">
+        <v>29.5</v>
+      </c>
+      <c r="K2" s="2">
+        <v>24</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1457.3</v>
+      </c>
+      <c r="N2" s="2">
+        <v>1.61E-2</v>
+      </c>
+      <c r="O2" s="2">
+        <v>1</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0</v>
+      </c>
+      <c r="R2" s="2">
+        <v>20</v>
+      </c>
+      <c r="S2" s="2">
+        <v>10</v>
+      </c>
+      <c r="T2" s="2">
+        <v>15</v>
+      </c>
+      <c r="U2" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="V2" s="11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" s="17">
+        <v>10000000</v>
+      </c>
+      <c r="E3" s="17">
+        <v>1E+16</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="20">
+        <v>1.26E-2</v>
+      </c>
+      <c r="H3" s="12">
+        <v>460</v>
+      </c>
+      <c r="I3" s="12">
+        <v>35</v>
+      </c>
+      <c r="J3" s="12">
+        <v>29.5</v>
+      </c>
+      <c r="K3" s="12">
+        <v>24</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1457.3</v>
+      </c>
+      <c r="N3" s="2">
+        <v>1.61E-2</v>
+      </c>
+      <c r="O3" s="2">
+        <v>1</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0</v>
+      </c>
+      <c r="R3" s="2">
+        <v>20</v>
+      </c>
+      <c r="S3" s="2">
+        <v>10</v>
+      </c>
+      <c r="T3" s="2">
+        <v>15</v>
+      </c>
+      <c r="U3" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="V3" s="11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D4" s="17">
+        <v>1</v>
+      </c>
+      <c r="E4" s="17">
+        <v>10000000</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="20">
+        <v>3.15E-2</v>
+      </c>
+      <c r="H4" s="12">
+        <v>460</v>
+      </c>
+      <c r="I4" s="12">
+        <v>39</v>
+      </c>
+      <c r="J4" s="12">
+        <v>32</v>
+      </c>
+      <c r="K4" s="12">
+        <v>24</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1457.3</v>
+      </c>
+      <c r="N4" s="2">
+        <v>1.61E-2</v>
+      </c>
+      <c r="O4" s="2">
+        <v>1</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0</v>
+      </c>
+      <c r="R4" s="2">
+        <v>20</v>
+      </c>
+      <c r="S4" s="2">
+        <v>5</v>
+      </c>
+      <c r="T4" s="2">
+        <v>15</v>
+      </c>
+      <c r="U4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="V4" s="11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D5" s="17">
+        <v>10000000</v>
+      </c>
+      <c r="E5" s="17">
+        <v>1E+16</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="20">
+        <v>3.15E-2</v>
+      </c>
+      <c r="H5" s="11">
+        <v>460</v>
+      </c>
+      <c r="I5" s="11">
+        <v>39</v>
+      </c>
+      <c r="J5" s="11">
+        <v>32</v>
+      </c>
+      <c r="K5" s="11">
+        <v>24</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" s="19">
+        <v>1457.3</v>
+      </c>
+      <c r="N5" s="2">
+        <v>1.61E-2</v>
+      </c>
+      <c r="O5" s="2">
+        <v>1</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0</v>
+      </c>
+      <c r="R5" s="2">
+        <v>20</v>
+      </c>
+      <c r="S5" s="2">
+        <v>5</v>
+      </c>
+      <c r="T5" s="2">
+        <v>15</v>
+      </c>
+      <c r="U5" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="V5" s="11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="V6" s="9"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="V7" s="21"/>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
 </file>
--- a/cea/databases/SG/components/CONVERSION.xlsx
+++ b/cea/databases/SG/components/CONVERSION.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zshi/Dropbox/CEA2/batch/sg_test/inputs/technology/components/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zshi/Documents/GitHub/CityEnergyAnalyst/cea/databases/SG/components/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB605B09-8411-EA49-93D5-D6B83410A153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A8C8E44-C290-2948-BBC6-84DE5B5B63E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7920" yWindow="6880" windowWidth="29460" windowHeight="18880" tabRatio="993" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7920" yWindow="6880" windowWidth="29460" windowHeight="18880" tabRatio="993" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PHOTOVOLTAIC_PANELS" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="242">
   <si>
     <t>Description</t>
   </si>
@@ -762,6 +762,21 @@
   </si>
   <si>
     <t xml:space="preserve"> Assumptions</t>
+  </si>
+  <si>
+    <t>District substation heat exchanger</t>
+  </si>
+  <si>
+    <t>HEX2</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>m^2</t>
+  </si>
+  <si>
+    <t>Values under 1 and above 50 are assumptions, as no datasheet values are available in this area. a_p to e_p denote the pressure drop in Pa</t>
   </si>
 </sst>
 </file>
@@ -982,7 +997,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1102,18 +1117,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2599,7 +2602,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70485D6F-84D6-CE40-9068-BC69269F5FF1}">
   <dimension ref="A1:U11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -7337,7 +7340,7 @@
       <c r="A8" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="11" t="s">
         <v>231</v>
       </c>
       <c r="C8" s="11" t="s">
@@ -7408,7 +7411,7 @@
       <c r="A9" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="11" t="s">
         <v>231</v>
       </c>
       <c r="C9" s="11" t="s">
@@ -7479,7 +7482,7 @@
       <c r="A10" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="11" t="s">
         <v>230</v>
       </c>
       <c r="C10" s="11" t="s">
@@ -7633,7 +7636,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
@@ -7915,7 +7918,58 @@
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C5" s="9"/>
+      <c r="A5" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>500</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="2">
+        <v>3381</v>
+      </c>
+      <c r="M5" s="2">
+        <v>229.8</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>20</v>
+      </c>
+      <c r="R5" s="2">
+        <v>5</v>
+      </c>
+      <c r="S5" s="2">
+        <v>5</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>241</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -8019,10 +8073,10 @@
       <c r="A2" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="45">
+      <c r="C2" s="12">
         <v>0.47</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -8087,10 +8141,10 @@
       <c r="A3" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="43">
+      <c r="C3" s="11">
         <v>0.4</v>
       </c>
       <c r="D3" s="19" t="s">
@@ -8157,10 +8211,10 @@
       <c r="A4" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="43">
+      <c r="C4" s="11">
         <v>0.4</v>
       </c>
       <c r="D4" s="19" t="s">
@@ -8227,10 +8281,10 @@
       <c r="A5" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="43">
+      <c r="C5" s="11">
         <v>0.4</v>
       </c>
       <c r="D5" s="19" t="s">
@@ -8297,10 +8351,10 @@
       <c r="A6" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="43">
+      <c r="C6" s="11">
         <v>0.4</v>
       </c>
       <c r="D6" s="19" t="s">
@@ -8367,10 +8421,10 @@
       <c r="A7" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="43">
+      <c r="C7" s="11">
         <v>0.4</v>
       </c>
       <c r="D7" s="19" t="s">

--- a/cea/databases/SG/components/CONVERSION.xlsx
+++ b/cea/databases/SG/components/CONVERSION.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zshi/Documents/GitHub/CityEnergyAnalyst/cea/databases/SG/components/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nimathia\Documents\GitHub\CityEnergyAnalyst\CityEnergyAnalyst\cea\databases\SG\components\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A8C8E44-C290-2948-BBC6-84DE5B5B63E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{571D4598-416B-4A3A-9A34-92B17E6D52F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7920" yWindow="6880" windowWidth="29460" windowHeight="18880" tabRatio="993" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" tabRatio="993" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PHOTOVOLTAIC_PANELS" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="243">
   <si>
     <t>Description</t>
   </si>
@@ -777,6 +777,9 @@
   </si>
   <si>
     <t>Values under 1 and above 50 are assumptions, as no datasheet values are available in this area. a_p to e_p denote the pressure drop in Pa</t>
+  </si>
+  <si>
+    <t>ASHRAE 90.1/2019 - minimum efficiency rating at full load; https://www.esmagazine.com/articles/82307-basics-for-absorption-chillers - capacity-specific mass flow rates</t>
   </si>
 </sst>
 </file>
@@ -1123,7 +1126,7 @@
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Per cent" xfId="4" builtinId="5"/>
+    <cellStyle name="Percent" xfId="4" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1563,29 +1566,29 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="38.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="38.6328125" customWidth="1"/>
+    <col min="4" max="4" width="15.6328125" customWidth="1"/>
     <col min="5" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="14.5" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" customWidth="1"/>
-    <col min="9" max="9" width="8.5" customWidth="1"/>
-    <col min="10" max="10" width="8.6640625" customWidth="1"/>
-    <col min="12" max="12" width="16.5" customWidth="1"/>
-    <col min="13" max="13" width="18.5" customWidth="1"/>
-    <col min="14" max="14" width="16.33203125" customWidth="1"/>
-    <col min="15" max="15" width="14.6640625" customWidth="1"/>
-    <col min="16" max="17" width="12.5" customWidth="1"/>
-    <col min="19" max="19" width="10.5" customWidth="1"/>
-    <col min="20" max="20" width="13.6640625" customWidth="1"/>
-    <col min="21" max="23" width="10.5" customWidth="1"/>
-    <col min="24" max="24" width="14.6640625" customWidth="1"/>
-    <col min="25" max="25" width="12.6640625" customWidth="1"/>
-    <col min="27" max="27" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="14.453125" customWidth="1"/>
+    <col min="8" max="8" width="9.36328125" customWidth="1"/>
+    <col min="9" max="9" width="8.453125" customWidth="1"/>
+    <col min="10" max="10" width="8.6328125" customWidth="1"/>
+    <col min="12" max="12" width="16.453125" customWidth="1"/>
+    <col min="13" max="13" width="18.453125" customWidth="1"/>
+    <col min="14" max="14" width="16.36328125" customWidth="1"/>
+    <col min="15" max="15" width="14.6328125" customWidth="1"/>
+    <col min="16" max="17" width="12.453125" customWidth="1"/>
+    <col min="19" max="19" width="10.453125" customWidth="1"/>
+    <col min="20" max="20" width="13.6328125" customWidth="1"/>
+    <col min="21" max="23" width="10.453125" customWidth="1"/>
+    <col min="24" max="24" width="14.6328125" customWidth="1"/>
+    <col min="25" max="25" width="12.6328125" customWidth="1"/>
+    <col min="27" max="27" width="13.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -1668,7 +1671,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
@@ -1752,7 +1755,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -1836,7 +1839,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -1920,7 +1923,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>33</v>
       </c>
@@ -2004,7 +2007,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>33</v>
       </c>
@@ -2088,7 +2091,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>33</v>
       </c>
@@ -2172,7 +2175,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>35</v>
       </c>
@@ -2256,7 +2259,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>35</v>
       </c>
@@ -2340,7 +2343,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>35</v>
       </c>
@@ -2440,16 +2443,16 @@
       <selection activeCell="Y22" sqref="Y22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="34.5" customWidth="1"/>
-    <col min="3" max="3" width="16.5" customWidth="1"/>
-    <col min="4" max="5" width="15.5" customWidth="1"/>
+    <col min="1" max="1" width="34.453125" customWidth="1"/>
+    <col min="3" max="3" width="16.453125" customWidth="1"/>
+    <col min="4" max="5" width="15.453125" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="12" max="12" width="17.6640625" customWidth="1"/>
+    <col min="12" max="12" width="17.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2496,7 +2499,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>235</v>
       </c>
@@ -2542,7 +2545,7 @@
       </c>
       <c r="O2" s="2"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>235</v>
       </c>
@@ -2606,21 +2609,21 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="45.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5" customWidth="1"/>
-    <col min="4" max="5" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="11.1640625" customWidth="1"/>
-    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="93.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" customWidth="1"/>
+    <col min="4" max="5" width="15.6328125" customWidth="1"/>
+    <col min="6" max="6" width="11.1796875" customWidth="1"/>
+    <col min="7" max="7" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="33.36328125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="93.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -2685,7 +2688,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>147</v>
       </c>
@@ -2750,7 +2753,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>150</v>
       </c>
@@ -2815,10 +2818,10 @@
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="O9" s="10"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="O11" s="10"/>
     </row>
   </sheetData>
@@ -2834,26 +2837,26 @@
       <selection activeCell="AB25" sqref="AB25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15.1640625" customWidth="1"/>
-    <col min="6" max="6" width="6.83203125" customWidth="1"/>
-    <col min="7" max="7" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.83203125" customWidth="1"/>
+    <col min="4" max="5" width="15.1796875" customWidth="1"/>
+    <col min="6" max="6" width="6.81640625" customWidth="1"/>
+    <col min="7" max="7" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.81640625" customWidth="1"/>
     <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.33203125" customWidth="1"/>
-    <col min="16" max="16" width="12.5" customWidth="1"/>
+    <col min="14" max="14" width="11.36328125" customWidth="1"/>
+    <col min="16" max="16" width="12.453125" customWidth="1"/>
     <col min="17" max="17" width="12" customWidth="1"/>
     <col min="22" max="22" width="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="32.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -2924,7 +2927,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>200</v>
       </c>
@@ -2994,7 +2997,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>200</v>
       </c>
@@ -3064,7 +3067,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>199</v>
       </c>
@@ -3135,7 +3138,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>199</v>
       </c>
@@ -3206,7 +3209,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>199</v>
       </c>
@@ -3277,7 +3280,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>199</v>
       </c>
@@ -3348,7 +3351,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>197</v>
       </c>
@@ -3420,7 +3423,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>197</v>
       </c>
@@ -3492,7 +3495,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>197</v>
       </c>
@@ -3564,7 +3567,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>197</v>
       </c>
@@ -3652,651 +3655,651 @@
       <selection activeCell="AB23" sqref="AB23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="43.33203125" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" customWidth="1"/>
-    <col min="4" max="5" width="19.33203125" customWidth="1"/>
+    <col min="1" max="1" width="43.36328125" customWidth="1"/>
+    <col min="2" max="2" width="12.6328125" customWidth="1"/>
+    <col min="3" max="3" width="19.6328125" customWidth="1"/>
+    <col min="4" max="5" width="19.36328125" customWidth="1"/>
     <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="7" customWidth="1"/>
-    <col min="26" max="26" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="257" max="257" width="43.33203125" customWidth="1"/>
-    <col min="258" max="258" width="12.6640625" customWidth="1"/>
-    <col min="259" max="259" width="19.6640625" customWidth="1"/>
-    <col min="260" max="261" width="19.33203125" customWidth="1"/>
+    <col min="26" max="26" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="257" max="257" width="43.36328125" customWidth="1"/>
+    <col min="258" max="258" width="12.6328125" customWidth="1"/>
+    <col min="259" max="259" width="19.6328125" customWidth="1"/>
+    <col min="260" max="261" width="19.36328125" customWidth="1"/>
     <col min="270" max="270" width="10" bestFit="1" customWidth="1"/>
-    <col min="271" max="271" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="271" max="271" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="274" max="274" width="10" bestFit="1" customWidth="1"/>
-    <col min="278" max="278" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="278" max="278" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="280" max="280" width="7" customWidth="1"/>
-    <col min="282" max="282" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="513" max="513" width="43.33203125" customWidth="1"/>
-    <col min="514" max="514" width="12.6640625" customWidth="1"/>
-    <col min="515" max="515" width="19.6640625" customWidth="1"/>
-    <col min="516" max="517" width="19.33203125" customWidth="1"/>
+    <col min="282" max="282" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="513" max="513" width="43.36328125" customWidth="1"/>
+    <col min="514" max="514" width="12.6328125" customWidth="1"/>
+    <col min="515" max="515" width="19.6328125" customWidth="1"/>
+    <col min="516" max="517" width="19.36328125" customWidth="1"/>
     <col min="526" max="526" width="10" bestFit="1" customWidth="1"/>
-    <col min="527" max="527" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="527" max="527" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="530" max="530" width="10" bestFit="1" customWidth="1"/>
-    <col min="534" max="534" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="534" max="534" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="536" max="536" width="7" customWidth="1"/>
-    <col min="538" max="538" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="769" max="769" width="43.33203125" customWidth="1"/>
-    <col min="770" max="770" width="12.6640625" customWidth="1"/>
-    <col min="771" max="771" width="19.6640625" customWidth="1"/>
-    <col min="772" max="773" width="19.33203125" customWidth="1"/>
+    <col min="538" max="538" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="769" max="769" width="43.36328125" customWidth="1"/>
+    <col min="770" max="770" width="12.6328125" customWidth="1"/>
+    <col min="771" max="771" width="19.6328125" customWidth="1"/>
+    <col min="772" max="773" width="19.36328125" customWidth="1"/>
     <col min="782" max="782" width="10" bestFit="1" customWidth="1"/>
-    <col min="783" max="783" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="783" max="783" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="786" max="786" width="10" bestFit="1" customWidth="1"/>
-    <col min="790" max="790" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="790" max="790" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="792" max="792" width="7" customWidth="1"/>
-    <col min="794" max="794" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="1025" max="1025" width="43.33203125" customWidth="1"/>
-    <col min="1026" max="1026" width="12.6640625" customWidth="1"/>
-    <col min="1027" max="1027" width="19.6640625" customWidth="1"/>
-    <col min="1028" max="1029" width="19.33203125" customWidth="1"/>
+    <col min="794" max="794" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="1025" max="1025" width="43.36328125" customWidth="1"/>
+    <col min="1026" max="1026" width="12.6328125" customWidth="1"/>
+    <col min="1027" max="1027" width="19.6328125" customWidth="1"/>
+    <col min="1028" max="1029" width="19.36328125" customWidth="1"/>
     <col min="1038" max="1038" width="10" bestFit="1" customWidth="1"/>
-    <col min="1039" max="1039" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="1039" max="1039" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="1042" max="1042" width="10" bestFit="1" customWidth="1"/>
-    <col min="1046" max="1046" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="1046" max="1046" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="1048" max="1048" width="7" customWidth="1"/>
-    <col min="1050" max="1050" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="1281" max="1281" width="43.33203125" customWidth="1"/>
-    <col min="1282" max="1282" width="12.6640625" customWidth="1"/>
-    <col min="1283" max="1283" width="19.6640625" customWidth="1"/>
-    <col min="1284" max="1285" width="19.33203125" customWidth="1"/>
+    <col min="1050" max="1050" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="1281" max="1281" width="43.36328125" customWidth="1"/>
+    <col min="1282" max="1282" width="12.6328125" customWidth="1"/>
+    <col min="1283" max="1283" width="19.6328125" customWidth="1"/>
+    <col min="1284" max="1285" width="19.36328125" customWidth="1"/>
     <col min="1294" max="1294" width="10" bestFit="1" customWidth="1"/>
-    <col min="1295" max="1295" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="1295" max="1295" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="1298" max="1298" width="10" bestFit="1" customWidth="1"/>
-    <col min="1302" max="1302" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="1302" max="1302" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="1304" max="1304" width="7" customWidth="1"/>
-    <col min="1306" max="1306" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="1537" max="1537" width="43.33203125" customWidth="1"/>
-    <col min="1538" max="1538" width="12.6640625" customWidth="1"/>
-    <col min="1539" max="1539" width="19.6640625" customWidth="1"/>
-    <col min="1540" max="1541" width="19.33203125" customWidth="1"/>
+    <col min="1306" max="1306" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="1537" max="1537" width="43.36328125" customWidth="1"/>
+    <col min="1538" max="1538" width="12.6328125" customWidth="1"/>
+    <col min="1539" max="1539" width="19.6328125" customWidth="1"/>
+    <col min="1540" max="1541" width="19.36328125" customWidth="1"/>
     <col min="1550" max="1550" width="10" bestFit="1" customWidth="1"/>
-    <col min="1551" max="1551" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="1551" max="1551" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="1554" max="1554" width="10" bestFit="1" customWidth="1"/>
-    <col min="1558" max="1558" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="1558" max="1558" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="1560" max="1560" width="7" customWidth="1"/>
-    <col min="1562" max="1562" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="1793" max="1793" width="43.33203125" customWidth="1"/>
-    <col min="1794" max="1794" width="12.6640625" customWidth="1"/>
-    <col min="1795" max="1795" width="19.6640625" customWidth="1"/>
-    <col min="1796" max="1797" width="19.33203125" customWidth="1"/>
+    <col min="1562" max="1562" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="1793" max="1793" width="43.36328125" customWidth="1"/>
+    <col min="1794" max="1794" width="12.6328125" customWidth="1"/>
+    <col min="1795" max="1795" width="19.6328125" customWidth="1"/>
+    <col min="1796" max="1797" width="19.36328125" customWidth="1"/>
     <col min="1806" max="1806" width="10" bestFit="1" customWidth="1"/>
-    <col min="1807" max="1807" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="1807" max="1807" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="1810" max="1810" width="10" bestFit="1" customWidth="1"/>
-    <col min="1814" max="1814" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="1814" max="1814" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="1816" max="1816" width="7" customWidth="1"/>
-    <col min="1818" max="1818" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="2049" max="2049" width="43.33203125" customWidth="1"/>
-    <col min="2050" max="2050" width="12.6640625" customWidth="1"/>
-    <col min="2051" max="2051" width="19.6640625" customWidth="1"/>
-    <col min="2052" max="2053" width="19.33203125" customWidth="1"/>
+    <col min="1818" max="1818" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="2049" max="2049" width="43.36328125" customWidth="1"/>
+    <col min="2050" max="2050" width="12.6328125" customWidth="1"/>
+    <col min="2051" max="2051" width="19.6328125" customWidth="1"/>
+    <col min="2052" max="2053" width="19.36328125" customWidth="1"/>
     <col min="2062" max="2062" width="10" bestFit="1" customWidth="1"/>
-    <col min="2063" max="2063" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2063" max="2063" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="2066" max="2066" width="10" bestFit="1" customWidth="1"/>
-    <col min="2070" max="2070" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="2070" max="2070" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="2072" max="2072" width="7" customWidth="1"/>
-    <col min="2074" max="2074" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="2305" max="2305" width="43.33203125" customWidth="1"/>
-    <col min="2306" max="2306" width="12.6640625" customWidth="1"/>
-    <col min="2307" max="2307" width="19.6640625" customWidth="1"/>
-    <col min="2308" max="2309" width="19.33203125" customWidth="1"/>
+    <col min="2074" max="2074" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="2305" max="2305" width="43.36328125" customWidth="1"/>
+    <col min="2306" max="2306" width="12.6328125" customWidth="1"/>
+    <col min="2307" max="2307" width="19.6328125" customWidth="1"/>
+    <col min="2308" max="2309" width="19.36328125" customWidth="1"/>
     <col min="2318" max="2318" width="10" bestFit="1" customWidth="1"/>
-    <col min="2319" max="2319" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2319" max="2319" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="2322" max="2322" width="10" bestFit="1" customWidth="1"/>
-    <col min="2326" max="2326" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="2326" max="2326" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="2328" max="2328" width="7" customWidth="1"/>
-    <col min="2330" max="2330" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="2561" max="2561" width="43.33203125" customWidth="1"/>
-    <col min="2562" max="2562" width="12.6640625" customWidth="1"/>
-    <col min="2563" max="2563" width="19.6640625" customWidth="1"/>
-    <col min="2564" max="2565" width="19.33203125" customWidth="1"/>
+    <col min="2330" max="2330" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="2561" max="2561" width="43.36328125" customWidth="1"/>
+    <col min="2562" max="2562" width="12.6328125" customWidth="1"/>
+    <col min="2563" max="2563" width="19.6328125" customWidth="1"/>
+    <col min="2564" max="2565" width="19.36328125" customWidth="1"/>
     <col min="2574" max="2574" width="10" bestFit="1" customWidth="1"/>
-    <col min="2575" max="2575" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2575" max="2575" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="2578" max="2578" width="10" bestFit="1" customWidth="1"/>
-    <col min="2582" max="2582" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="2582" max="2582" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="2584" max="2584" width="7" customWidth="1"/>
-    <col min="2586" max="2586" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="2817" max="2817" width="43.33203125" customWidth="1"/>
-    <col min="2818" max="2818" width="12.6640625" customWidth="1"/>
-    <col min="2819" max="2819" width="19.6640625" customWidth="1"/>
-    <col min="2820" max="2821" width="19.33203125" customWidth="1"/>
+    <col min="2586" max="2586" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="2817" max="2817" width="43.36328125" customWidth="1"/>
+    <col min="2818" max="2818" width="12.6328125" customWidth="1"/>
+    <col min="2819" max="2819" width="19.6328125" customWidth="1"/>
+    <col min="2820" max="2821" width="19.36328125" customWidth="1"/>
     <col min="2830" max="2830" width="10" bestFit="1" customWidth="1"/>
-    <col min="2831" max="2831" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2831" max="2831" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="2834" max="2834" width="10" bestFit="1" customWidth="1"/>
-    <col min="2838" max="2838" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="2838" max="2838" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="2840" max="2840" width="7" customWidth="1"/>
-    <col min="2842" max="2842" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="3073" max="3073" width="43.33203125" customWidth="1"/>
-    <col min="3074" max="3074" width="12.6640625" customWidth="1"/>
-    <col min="3075" max="3075" width="19.6640625" customWidth="1"/>
-    <col min="3076" max="3077" width="19.33203125" customWidth="1"/>
+    <col min="2842" max="2842" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="3073" max="3073" width="43.36328125" customWidth="1"/>
+    <col min="3074" max="3074" width="12.6328125" customWidth="1"/>
+    <col min="3075" max="3075" width="19.6328125" customWidth="1"/>
+    <col min="3076" max="3077" width="19.36328125" customWidth="1"/>
     <col min="3086" max="3086" width="10" bestFit="1" customWidth="1"/>
-    <col min="3087" max="3087" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3087" max="3087" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="3090" max="3090" width="10" bestFit="1" customWidth="1"/>
-    <col min="3094" max="3094" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="3094" max="3094" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="3096" max="3096" width="7" customWidth="1"/>
-    <col min="3098" max="3098" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="3329" max="3329" width="43.33203125" customWidth="1"/>
-    <col min="3330" max="3330" width="12.6640625" customWidth="1"/>
-    <col min="3331" max="3331" width="19.6640625" customWidth="1"/>
-    <col min="3332" max="3333" width="19.33203125" customWidth="1"/>
+    <col min="3098" max="3098" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="3329" max="3329" width="43.36328125" customWidth="1"/>
+    <col min="3330" max="3330" width="12.6328125" customWidth="1"/>
+    <col min="3331" max="3331" width="19.6328125" customWidth="1"/>
+    <col min="3332" max="3333" width="19.36328125" customWidth="1"/>
     <col min="3342" max="3342" width="10" bestFit="1" customWidth="1"/>
-    <col min="3343" max="3343" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3343" max="3343" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="3346" max="3346" width="10" bestFit="1" customWidth="1"/>
-    <col min="3350" max="3350" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="3350" max="3350" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="3352" max="3352" width="7" customWidth="1"/>
-    <col min="3354" max="3354" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="3585" max="3585" width="43.33203125" customWidth="1"/>
-    <col min="3586" max="3586" width="12.6640625" customWidth="1"/>
-    <col min="3587" max="3587" width="19.6640625" customWidth="1"/>
-    <col min="3588" max="3589" width="19.33203125" customWidth="1"/>
+    <col min="3354" max="3354" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="3585" max="3585" width="43.36328125" customWidth="1"/>
+    <col min="3586" max="3586" width="12.6328125" customWidth="1"/>
+    <col min="3587" max="3587" width="19.6328125" customWidth="1"/>
+    <col min="3588" max="3589" width="19.36328125" customWidth="1"/>
     <col min="3598" max="3598" width="10" bestFit="1" customWidth="1"/>
-    <col min="3599" max="3599" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3599" max="3599" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="3602" max="3602" width="10" bestFit="1" customWidth="1"/>
-    <col min="3606" max="3606" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="3606" max="3606" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="3608" max="3608" width="7" customWidth="1"/>
-    <col min="3610" max="3610" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="3841" max="3841" width="43.33203125" customWidth="1"/>
-    <col min="3842" max="3842" width="12.6640625" customWidth="1"/>
-    <col min="3843" max="3843" width="19.6640625" customWidth="1"/>
-    <col min="3844" max="3845" width="19.33203125" customWidth="1"/>
+    <col min="3610" max="3610" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="3841" max="3841" width="43.36328125" customWidth="1"/>
+    <col min="3842" max="3842" width="12.6328125" customWidth="1"/>
+    <col min="3843" max="3843" width="19.6328125" customWidth="1"/>
+    <col min="3844" max="3845" width="19.36328125" customWidth="1"/>
     <col min="3854" max="3854" width="10" bestFit="1" customWidth="1"/>
-    <col min="3855" max="3855" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3855" max="3855" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="3858" max="3858" width="10" bestFit="1" customWidth="1"/>
-    <col min="3862" max="3862" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="3862" max="3862" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="3864" max="3864" width="7" customWidth="1"/>
-    <col min="3866" max="3866" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="4097" max="4097" width="43.33203125" customWidth="1"/>
-    <col min="4098" max="4098" width="12.6640625" customWidth="1"/>
-    <col min="4099" max="4099" width="19.6640625" customWidth="1"/>
-    <col min="4100" max="4101" width="19.33203125" customWidth="1"/>
+    <col min="3866" max="3866" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="4097" max="4097" width="43.36328125" customWidth="1"/>
+    <col min="4098" max="4098" width="12.6328125" customWidth="1"/>
+    <col min="4099" max="4099" width="19.6328125" customWidth="1"/>
+    <col min="4100" max="4101" width="19.36328125" customWidth="1"/>
     <col min="4110" max="4110" width="10" bestFit="1" customWidth="1"/>
-    <col min="4111" max="4111" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="4111" max="4111" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="4114" max="4114" width="10" bestFit="1" customWidth="1"/>
-    <col min="4118" max="4118" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="4118" max="4118" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="4120" max="4120" width="7" customWidth="1"/>
-    <col min="4122" max="4122" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="4353" max="4353" width="43.33203125" customWidth="1"/>
-    <col min="4354" max="4354" width="12.6640625" customWidth="1"/>
-    <col min="4355" max="4355" width="19.6640625" customWidth="1"/>
-    <col min="4356" max="4357" width="19.33203125" customWidth="1"/>
+    <col min="4122" max="4122" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="4353" max="4353" width="43.36328125" customWidth="1"/>
+    <col min="4354" max="4354" width="12.6328125" customWidth="1"/>
+    <col min="4355" max="4355" width="19.6328125" customWidth="1"/>
+    <col min="4356" max="4357" width="19.36328125" customWidth="1"/>
     <col min="4366" max="4366" width="10" bestFit="1" customWidth="1"/>
-    <col min="4367" max="4367" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="4367" max="4367" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="4370" max="4370" width="10" bestFit="1" customWidth="1"/>
-    <col min="4374" max="4374" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="4374" max="4374" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="4376" max="4376" width="7" customWidth="1"/>
-    <col min="4378" max="4378" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="4609" max="4609" width="43.33203125" customWidth="1"/>
-    <col min="4610" max="4610" width="12.6640625" customWidth="1"/>
-    <col min="4611" max="4611" width="19.6640625" customWidth="1"/>
-    <col min="4612" max="4613" width="19.33203125" customWidth="1"/>
+    <col min="4378" max="4378" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="4609" max="4609" width="43.36328125" customWidth="1"/>
+    <col min="4610" max="4610" width="12.6328125" customWidth="1"/>
+    <col min="4611" max="4611" width="19.6328125" customWidth="1"/>
+    <col min="4612" max="4613" width="19.36328125" customWidth="1"/>
     <col min="4622" max="4622" width="10" bestFit="1" customWidth="1"/>
-    <col min="4623" max="4623" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="4623" max="4623" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="4626" max="4626" width="10" bestFit="1" customWidth="1"/>
-    <col min="4630" max="4630" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="4630" max="4630" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="4632" max="4632" width="7" customWidth="1"/>
-    <col min="4634" max="4634" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="4865" max="4865" width="43.33203125" customWidth="1"/>
-    <col min="4866" max="4866" width="12.6640625" customWidth="1"/>
-    <col min="4867" max="4867" width="19.6640625" customWidth="1"/>
-    <col min="4868" max="4869" width="19.33203125" customWidth="1"/>
+    <col min="4634" max="4634" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="4865" max="4865" width="43.36328125" customWidth="1"/>
+    <col min="4866" max="4866" width="12.6328125" customWidth="1"/>
+    <col min="4867" max="4867" width="19.6328125" customWidth="1"/>
+    <col min="4868" max="4869" width="19.36328125" customWidth="1"/>
     <col min="4878" max="4878" width="10" bestFit="1" customWidth="1"/>
-    <col min="4879" max="4879" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="4879" max="4879" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="4882" max="4882" width="10" bestFit="1" customWidth="1"/>
-    <col min="4886" max="4886" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="4886" max="4886" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="4888" max="4888" width="7" customWidth="1"/>
-    <col min="4890" max="4890" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="5121" max="5121" width="43.33203125" customWidth="1"/>
-    <col min="5122" max="5122" width="12.6640625" customWidth="1"/>
-    <col min="5123" max="5123" width="19.6640625" customWidth="1"/>
-    <col min="5124" max="5125" width="19.33203125" customWidth="1"/>
+    <col min="4890" max="4890" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="5121" max="5121" width="43.36328125" customWidth="1"/>
+    <col min="5122" max="5122" width="12.6328125" customWidth="1"/>
+    <col min="5123" max="5123" width="19.6328125" customWidth="1"/>
+    <col min="5124" max="5125" width="19.36328125" customWidth="1"/>
     <col min="5134" max="5134" width="10" bestFit="1" customWidth="1"/>
-    <col min="5135" max="5135" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="5135" max="5135" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="5138" max="5138" width="10" bestFit="1" customWidth="1"/>
-    <col min="5142" max="5142" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="5142" max="5142" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="5144" max="5144" width="7" customWidth="1"/>
-    <col min="5146" max="5146" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="5377" max="5377" width="43.33203125" customWidth="1"/>
-    <col min="5378" max="5378" width="12.6640625" customWidth="1"/>
-    <col min="5379" max="5379" width="19.6640625" customWidth="1"/>
-    <col min="5380" max="5381" width="19.33203125" customWidth="1"/>
+    <col min="5146" max="5146" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="5377" max="5377" width="43.36328125" customWidth="1"/>
+    <col min="5378" max="5378" width="12.6328125" customWidth="1"/>
+    <col min="5379" max="5379" width="19.6328125" customWidth="1"/>
+    <col min="5380" max="5381" width="19.36328125" customWidth="1"/>
     <col min="5390" max="5390" width="10" bestFit="1" customWidth="1"/>
-    <col min="5391" max="5391" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="5391" max="5391" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="5394" max="5394" width="10" bestFit="1" customWidth="1"/>
-    <col min="5398" max="5398" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="5398" max="5398" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="5400" max="5400" width="7" customWidth="1"/>
-    <col min="5402" max="5402" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="5633" max="5633" width="43.33203125" customWidth="1"/>
-    <col min="5634" max="5634" width="12.6640625" customWidth="1"/>
-    <col min="5635" max="5635" width="19.6640625" customWidth="1"/>
-    <col min="5636" max="5637" width="19.33203125" customWidth="1"/>
+    <col min="5402" max="5402" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="5633" max="5633" width="43.36328125" customWidth="1"/>
+    <col min="5634" max="5634" width="12.6328125" customWidth="1"/>
+    <col min="5635" max="5635" width="19.6328125" customWidth="1"/>
+    <col min="5636" max="5637" width="19.36328125" customWidth="1"/>
     <col min="5646" max="5646" width="10" bestFit="1" customWidth="1"/>
-    <col min="5647" max="5647" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="5647" max="5647" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="5650" max="5650" width="10" bestFit="1" customWidth="1"/>
-    <col min="5654" max="5654" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="5654" max="5654" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="5656" max="5656" width="7" customWidth="1"/>
-    <col min="5658" max="5658" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="5889" max="5889" width="43.33203125" customWidth="1"/>
-    <col min="5890" max="5890" width="12.6640625" customWidth="1"/>
-    <col min="5891" max="5891" width="19.6640625" customWidth="1"/>
-    <col min="5892" max="5893" width="19.33203125" customWidth="1"/>
+    <col min="5658" max="5658" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="5889" max="5889" width="43.36328125" customWidth="1"/>
+    <col min="5890" max="5890" width="12.6328125" customWidth="1"/>
+    <col min="5891" max="5891" width="19.6328125" customWidth="1"/>
+    <col min="5892" max="5893" width="19.36328125" customWidth="1"/>
     <col min="5902" max="5902" width="10" bestFit="1" customWidth="1"/>
-    <col min="5903" max="5903" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="5903" max="5903" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="5906" max="5906" width="10" bestFit="1" customWidth="1"/>
-    <col min="5910" max="5910" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="5910" max="5910" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="5912" max="5912" width="7" customWidth="1"/>
-    <col min="5914" max="5914" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="6145" max="6145" width="43.33203125" customWidth="1"/>
-    <col min="6146" max="6146" width="12.6640625" customWidth="1"/>
-    <col min="6147" max="6147" width="19.6640625" customWidth="1"/>
-    <col min="6148" max="6149" width="19.33203125" customWidth="1"/>
+    <col min="5914" max="5914" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="6145" max="6145" width="43.36328125" customWidth="1"/>
+    <col min="6146" max="6146" width="12.6328125" customWidth="1"/>
+    <col min="6147" max="6147" width="19.6328125" customWidth="1"/>
+    <col min="6148" max="6149" width="19.36328125" customWidth="1"/>
     <col min="6158" max="6158" width="10" bestFit="1" customWidth="1"/>
-    <col min="6159" max="6159" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="6159" max="6159" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="6162" max="6162" width="10" bestFit="1" customWidth="1"/>
-    <col min="6166" max="6166" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="6166" max="6166" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="6168" max="6168" width="7" customWidth="1"/>
-    <col min="6170" max="6170" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="6401" max="6401" width="43.33203125" customWidth="1"/>
-    <col min="6402" max="6402" width="12.6640625" customWidth="1"/>
-    <col min="6403" max="6403" width="19.6640625" customWidth="1"/>
-    <col min="6404" max="6405" width="19.33203125" customWidth="1"/>
+    <col min="6170" max="6170" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="6401" max="6401" width="43.36328125" customWidth="1"/>
+    <col min="6402" max="6402" width="12.6328125" customWidth="1"/>
+    <col min="6403" max="6403" width="19.6328125" customWidth="1"/>
+    <col min="6404" max="6405" width="19.36328125" customWidth="1"/>
     <col min="6414" max="6414" width="10" bestFit="1" customWidth="1"/>
-    <col min="6415" max="6415" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="6415" max="6415" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="6418" max="6418" width="10" bestFit="1" customWidth="1"/>
-    <col min="6422" max="6422" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="6422" max="6422" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="6424" max="6424" width="7" customWidth="1"/>
-    <col min="6426" max="6426" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="6657" max="6657" width="43.33203125" customWidth="1"/>
-    <col min="6658" max="6658" width="12.6640625" customWidth="1"/>
-    <col min="6659" max="6659" width="19.6640625" customWidth="1"/>
-    <col min="6660" max="6661" width="19.33203125" customWidth="1"/>
+    <col min="6426" max="6426" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="6657" max="6657" width="43.36328125" customWidth="1"/>
+    <col min="6658" max="6658" width="12.6328125" customWidth="1"/>
+    <col min="6659" max="6659" width="19.6328125" customWidth="1"/>
+    <col min="6660" max="6661" width="19.36328125" customWidth="1"/>
     <col min="6670" max="6670" width="10" bestFit="1" customWidth="1"/>
-    <col min="6671" max="6671" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="6671" max="6671" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="6674" max="6674" width="10" bestFit="1" customWidth="1"/>
-    <col min="6678" max="6678" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="6678" max="6678" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="6680" max="6680" width="7" customWidth="1"/>
-    <col min="6682" max="6682" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="6913" max="6913" width="43.33203125" customWidth="1"/>
-    <col min="6914" max="6914" width="12.6640625" customWidth="1"/>
-    <col min="6915" max="6915" width="19.6640625" customWidth="1"/>
-    <col min="6916" max="6917" width="19.33203125" customWidth="1"/>
+    <col min="6682" max="6682" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="6913" max="6913" width="43.36328125" customWidth="1"/>
+    <col min="6914" max="6914" width="12.6328125" customWidth="1"/>
+    <col min="6915" max="6915" width="19.6328125" customWidth="1"/>
+    <col min="6916" max="6917" width="19.36328125" customWidth="1"/>
     <col min="6926" max="6926" width="10" bestFit="1" customWidth="1"/>
-    <col min="6927" max="6927" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="6927" max="6927" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="6930" max="6930" width="10" bestFit="1" customWidth="1"/>
-    <col min="6934" max="6934" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="6934" max="6934" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="6936" max="6936" width="7" customWidth="1"/>
-    <col min="6938" max="6938" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="7169" max="7169" width="43.33203125" customWidth="1"/>
-    <col min="7170" max="7170" width="12.6640625" customWidth="1"/>
-    <col min="7171" max="7171" width="19.6640625" customWidth="1"/>
-    <col min="7172" max="7173" width="19.33203125" customWidth="1"/>
+    <col min="6938" max="6938" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="7169" max="7169" width="43.36328125" customWidth="1"/>
+    <col min="7170" max="7170" width="12.6328125" customWidth="1"/>
+    <col min="7171" max="7171" width="19.6328125" customWidth="1"/>
+    <col min="7172" max="7173" width="19.36328125" customWidth="1"/>
     <col min="7182" max="7182" width="10" bestFit="1" customWidth="1"/>
-    <col min="7183" max="7183" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="7183" max="7183" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="7186" max="7186" width="10" bestFit="1" customWidth="1"/>
-    <col min="7190" max="7190" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="7190" max="7190" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="7192" max="7192" width="7" customWidth="1"/>
-    <col min="7194" max="7194" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="7425" max="7425" width="43.33203125" customWidth="1"/>
-    <col min="7426" max="7426" width="12.6640625" customWidth="1"/>
-    <col min="7427" max="7427" width="19.6640625" customWidth="1"/>
-    <col min="7428" max="7429" width="19.33203125" customWidth="1"/>
+    <col min="7194" max="7194" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="7425" max="7425" width="43.36328125" customWidth="1"/>
+    <col min="7426" max="7426" width="12.6328125" customWidth="1"/>
+    <col min="7427" max="7427" width="19.6328125" customWidth="1"/>
+    <col min="7428" max="7429" width="19.36328125" customWidth="1"/>
     <col min="7438" max="7438" width="10" bestFit="1" customWidth="1"/>
-    <col min="7439" max="7439" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="7439" max="7439" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="7442" max="7442" width="10" bestFit="1" customWidth="1"/>
-    <col min="7446" max="7446" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="7446" max="7446" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="7448" max="7448" width="7" customWidth="1"/>
-    <col min="7450" max="7450" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="7681" max="7681" width="43.33203125" customWidth="1"/>
-    <col min="7682" max="7682" width="12.6640625" customWidth="1"/>
-    <col min="7683" max="7683" width="19.6640625" customWidth="1"/>
-    <col min="7684" max="7685" width="19.33203125" customWidth="1"/>
+    <col min="7450" max="7450" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="7681" max="7681" width="43.36328125" customWidth="1"/>
+    <col min="7682" max="7682" width="12.6328125" customWidth="1"/>
+    <col min="7683" max="7683" width="19.6328125" customWidth="1"/>
+    <col min="7684" max="7685" width="19.36328125" customWidth="1"/>
     <col min="7694" max="7694" width="10" bestFit="1" customWidth="1"/>
-    <col min="7695" max="7695" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="7695" max="7695" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="7698" max="7698" width="10" bestFit="1" customWidth="1"/>
-    <col min="7702" max="7702" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="7702" max="7702" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="7704" max="7704" width="7" customWidth="1"/>
-    <col min="7706" max="7706" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="7937" max="7937" width="43.33203125" customWidth="1"/>
-    <col min="7938" max="7938" width="12.6640625" customWidth="1"/>
-    <col min="7939" max="7939" width="19.6640625" customWidth="1"/>
-    <col min="7940" max="7941" width="19.33203125" customWidth="1"/>
+    <col min="7706" max="7706" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="7937" max="7937" width="43.36328125" customWidth="1"/>
+    <col min="7938" max="7938" width="12.6328125" customWidth="1"/>
+    <col min="7939" max="7939" width="19.6328125" customWidth="1"/>
+    <col min="7940" max="7941" width="19.36328125" customWidth="1"/>
     <col min="7950" max="7950" width="10" bestFit="1" customWidth="1"/>
-    <col min="7951" max="7951" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="7951" max="7951" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="7954" max="7954" width="10" bestFit="1" customWidth="1"/>
-    <col min="7958" max="7958" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="7958" max="7958" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="7960" max="7960" width="7" customWidth="1"/>
-    <col min="7962" max="7962" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="8193" max="8193" width="43.33203125" customWidth="1"/>
-    <col min="8194" max="8194" width="12.6640625" customWidth="1"/>
-    <col min="8195" max="8195" width="19.6640625" customWidth="1"/>
-    <col min="8196" max="8197" width="19.33203125" customWidth="1"/>
+    <col min="7962" max="7962" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="8193" max="8193" width="43.36328125" customWidth="1"/>
+    <col min="8194" max="8194" width="12.6328125" customWidth="1"/>
+    <col min="8195" max="8195" width="19.6328125" customWidth="1"/>
+    <col min="8196" max="8197" width="19.36328125" customWidth="1"/>
     <col min="8206" max="8206" width="10" bestFit="1" customWidth="1"/>
-    <col min="8207" max="8207" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="8207" max="8207" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="8210" max="8210" width="10" bestFit="1" customWidth="1"/>
-    <col min="8214" max="8214" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="8214" max="8214" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="8216" max="8216" width="7" customWidth="1"/>
-    <col min="8218" max="8218" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="8449" max="8449" width="43.33203125" customWidth="1"/>
-    <col min="8450" max="8450" width="12.6640625" customWidth="1"/>
-    <col min="8451" max="8451" width="19.6640625" customWidth="1"/>
-    <col min="8452" max="8453" width="19.33203125" customWidth="1"/>
+    <col min="8218" max="8218" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="8449" max="8449" width="43.36328125" customWidth="1"/>
+    <col min="8450" max="8450" width="12.6328125" customWidth="1"/>
+    <col min="8451" max="8451" width="19.6328125" customWidth="1"/>
+    <col min="8452" max="8453" width="19.36328125" customWidth="1"/>
     <col min="8462" max="8462" width="10" bestFit="1" customWidth="1"/>
-    <col min="8463" max="8463" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="8463" max="8463" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="8466" max="8466" width="10" bestFit="1" customWidth="1"/>
-    <col min="8470" max="8470" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="8470" max="8470" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="8472" max="8472" width="7" customWidth="1"/>
-    <col min="8474" max="8474" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="8705" max="8705" width="43.33203125" customWidth="1"/>
-    <col min="8706" max="8706" width="12.6640625" customWidth="1"/>
-    <col min="8707" max="8707" width="19.6640625" customWidth="1"/>
-    <col min="8708" max="8709" width="19.33203125" customWidth="1"/>
+    <col min="8474" max="8474" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="8705" max="8705" width="43.36328125" customWidth="1"/>
+    <col min="8706" max="8706" width="12.6328125" customWidth="1"/>
+    <col min="8707" max="8707" width="19.6328125" customWidth="1"/>
+    <col min="8708" max="8709" width="19.36328125" customWidth="1"/>
     <col min="8718" max="8718" width="10" bestFit="1" customWidth="1"/>
-    <col min="8719" max="8719" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="8719" max="8719" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="8722" max="8722" width="10" bestFit="1" customWidth="1"/>
-    <col min="8726" max="8726" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="8726" max="8726" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="8728" max="8728" width="7" customWidth="1"/>
-    <col min="8730" max="8730" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="8961" max="8961" width="43.33203125" customWidth="1"/>
-    <col min="8962" max="8962" width="12.6640625" customWidth="1"/>
-    <col min="8963" max="8963" width="19.6640625" customWidth="1"/>
-    <col min="8964" max="8965" width="19.33203125" customWidth="1"/>
+    <col min="8730" max="8730" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="8961" max="8961" width="43.36328125" customWidth="1"/>
+    <col min="8962" max="8962" width="12.6328125" customWidth="1"/>
+    <col min="8963" max="8963" width="19.6328125" customWidth="1"/>
+    <col min="8964" max="8965" width="19.36328125" customWidth="1"/>
     <col min="8974" max="8974" width="10" bestFit="1" customWidth="1"/>
-    <col min="8975" max="8975" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="8975" max="8975" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="8978" max="8978" width="10" bestFit="1" customWidth="1"/>
-    <col min="8982" max="8982" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="8982" max="8982" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="8984" max="8984" width="7" customWidth="1"/>
-    <col min="8986" max="8986" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="9217" max="9217" width="43.33203125" customWidth="1"/>
-    <col min="9218" max="9218" width="12.6640625" customWidth="1"/>
-    <col min="9219" max="9219" width="19.6640625" customWidth="1"/>
-    <col min="9220" max="9221" width="19.33203125" customWidth="1"/>
+    <col min="8986" max="8986" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="9217" max="9217" width="43.36328125" customWidth="1"/>
+    <col min="9218" max="9218" width="12.6328125" customWidth="1"/>
+    <col min="9219" max="9219" width="19.6328125" customWidth="1"/>
+    <col min="9220" max="9221" width="19.36328125" customWidth="1"/>
     <col min="9230" max="9230" width="10" bestFit="1" customWidth="1"/>
-    <col min="9231" max="9231" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="9231" max="9231" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="9234" max="9234" width="10" bestFit="1" customWidth="1"/>
-    <col min="9238" max="9238" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="9238" max="9238" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="9240" max="9240" width="7" customWidth="1"/>
-    <col min="9242" max="9242" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="9473" max="9473" width="43.33203125" customWidth="1"/>
-    <col min="9474" max="9474" width="12.6640625" customWidth="1"/>
-    <col min="9475" max="9475" width="19.6640625" customWidth="1"/>
-    <col min="9476" max="9477" width="19.33203125" customWidth="1"/>
+    <col min="9242" max="9242" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="9473" max="9473" width="43.36328125" customWidth="1"/>
+    <col min="9474" max="9474" width="12.6328125" customWidth="1"/>
+    <col min="9475" max="9475" width="19.6328125" customWidth="1"/>
+    <col min="9476" max="9477" width="19.36328125" customWidth="1"/>
     <col min="9486" max="9486" width="10" bestFit="1" customWidth="1"/>
-    <col min="9487" max="9487" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="9487" max="9487" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="9490" max="9490" width="10" bestFit="1" customWidth="1"/>
-    <col min="9494" max="9494" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="9494" max="9494" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="9496" max="9496" width="7" customWidth="1"/>
-    <col min="9498" max="9498" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="9729" max="9729" width="43.33203125" customWidth="1"/>
-    <col min="9730" max="9730" width="12.6640625" customWidth="1"/>
-    <col min="9731" max="9731" width="19.6640625" customWidth="1"/>
-    <col min="9732" max="9733" width="19.33203125" customWidth="1"/>
+    <col min="9498" max="9498" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="9729" max="9729" width="43.36328125" customWidth="1"/>
+    <col min="9730" max="9730" width="12.6328125" customWidth="1"/>
+    <col min="9731" max="9731" width="19.6328125" customWidth="1"/>
+    <col min="9732" max="9733" width="19.36328125" customWidth="1"/>
     <col min="9742" max="9742" width="10" bestFit="1" customWidth="1"/>
-    <col min="9743" max="9743" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="9743" max="9743" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="9746" max="9746" width="10" bestFit="1" customWidth="1"/>
-    <col min="9750" max="9750" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="9750" max="9750" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="9752" max="9752" width="7" customWidth="1"/>
-    <col min="9754" max="9754" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="9985" max="9985" width="43.33203125" customWidth="1"/>
-    <col min="9986" max="9986" width="12.6640625" customWidth="1"/>
-    <col min="9987" max="9987" width="19.6640625" customWidth="1"/>
-    <col min="9988" max="9989" width="19.33203125" customWidth="1"/>
+    <col min="9754" max="9754" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="9985" max="9985" width="43.36328125" customWidth="1"/>
+    <col min="9986" max="9986" width="12.6328125" customWidth="1"/>
+    <col min="9987" max="9987" width="19.6328125" customWidth="1"/>
+    <col min="9988" max="9989" width="19.36328125" customWidth="1"/>
     <col min="9998" max="9998" width="10" bestFit="1" customWidth="1"/>
-    <col min="9999" max="9999" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="9999" max="9999" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="10002" max="10002" width="10" bestFit="1" customWidth="1"/>
-    <col min="10006" max="10006" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="10006" max="10006" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="10008" max="10008" width="7" customWidth="1"/>
-    <col min="10010" max="10010" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="10241" max="10241" width="43.33203125" customWidth="1"/>
-    <col min="10242" max="10242" width="12.6640625" customWidth="1"/>
-    <col min="10243" max="10243" width="19.6640625" customWidth="1"/>
-    <col min="10244" max="10245" width="19.33203125" customWidth="1"/>
+    <col min="10010" max="10010" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="10241" max="10241" width="43.36328125" customWidth="1"/>
+    <col min="10242" max="10242" width="12.6328125" customWidth="1"/>
+    <col min="10243" max="10243" width="19.6328125" customWidth="1"/>
+    <col min="10244" max="10245" width="19.36328125" customWidth="1"/>
     <col min="10254" max="10254" width="10" bestFit="1" customWidth="1"/>
-    <col min="10255" max="10255" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="10255" max="10255" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="10258" max="10258" width="10" bestFit="1" customWidth="1"/>
-    <col min="10262" max="10262" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="10262" max="10262" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="10264" max="10264" width="7" customWidth="1"/>
-    <col min="10266" max="10266" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="10497" max="10497" width="43.33203125" customWidth="1"/>
-    <col min="10498" max="10498" width="12.6640625" customWidth="1"/>
-    <col min="10499" max="10499" width="19.6640625" customWidth="1"/>
-    <col min="10500" max="10501" width="19.33203125" customWidth="1"/>
+    <col min="10266" max="10266" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="10497" max="10497" width="43.36328125" customWidth="1"/>
+    <col min="10498" max="10498" width="12.6328125" customWidth="1"/>
+    <col min="10499" max="10499" width="19.6328125" customWidth="1"/>
+    <col min="10500" max="10501" width="19.36328125" customWidth="1"/>
     <col min="10510" max="10510" width="10" bestFit="1" customWidth="1"/>
-    <col min="10511" max="10511" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="10511" max="10511" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="10514" max="10514" width="10" bestFit="1" customWidth="1"/>
-    <col min="10518" max="10518" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="10518" max="10518" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="10520" max="10520" width="7" customWidth="1"/>
-    <col min="10522" max="10522" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="10753" max="10753" width="43.33203125" customWidth="1"/>
-    <col min="10754" max="10754" width="12.6640625" customWidth="1"/>
-    <col min="10755" max="10755" width="19.6640625" customWidth="1"/>
-    <col min="10756" max="10757" width="19.33203125" customWidth="1"/>
+    <col min="10522" max="10522" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="10753" max="10753" width="43.36328125" customWidth="1"/>
+    <col min="10754" max="10754" width="12.6328125" customWidth="1"/>
+    <col min="10755" max="10755" width="19.6328125" customWidth="1"/>
+    <col min="10756" max="10757" width="19.36328125" customWidth="1"/>
     <col min="10766" max="10766" width="10" bestFit="1" customWidth="1"/>
-    <col min="10767" max="10767" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="10767" max="10767" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="10770" max="10770" width="10" bestFit="1" customWidth="1"/>
-    <col min="10774" max="10774" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="10774" max="10774" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="10776" max="10776" width="7" customWidth="1"/>
-    <col min="10778" max="10778" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="11009" max="11009" width="43.33203125" customWidth="1"/>
-    <col min="11010" max="11010" width="12.6640625" customWidth="1"/>
-    <col min="11011" max="11011" width="19.6640625" customWidth="1"/>
-    <col min="11012" max="11013" width="19.33203125" customWidth="1"/>
+    <col min="10778" max="10778" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="11009" max="11009" width="43.36328125" customWidth="1"/>
+    <col min="11010" max="11010" width="12.6328125" customWidth="1"/>
+    <col min="11011" max="11011" width="19.6328125" customWidth="1"/>
+    <col min="11012" max="11013" width="19.36328125" customWidth="1"/>
     <col min="11022" max="11022" width="10" bestFit="1" customWidth="1"/>
-    <col min="11023" max="11023" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="11023" max="11023" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="11026" max="11026" width="10" bestFit="1" customWidth="1"/>
-    <col min="11030" max="11030" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="11030" max="11030" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="11032" max="11032" width="7" customWidth="1"/>
-    <col min="11034" max="11034" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="11265" max="11265" width="43.33203125" customWidth="1"/>
-    <col min="11266" max="11266" width="12.6640625" customWidth="1"/>
-    <col min="11267" max="11267" width="19.6640625" customWidth="1"/>
-    <col min="11268" max="11269" width="19.33203125" customWidth="1"/>
+    <col min="11034" max="11034" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="11265" max="11265" width="43.36328125" customWidth="1"/>
+    <col min="11266" max="11266" width="12.6328125" customWidth="1"/>
+    <col min="11267" max="11267" width="19.6328125" customWidth="1"/>
+    <col min="11268" max="11269" width="19.36328125" customWidth="1"/>
     <col min="11278" max="11278" width="10" bestFit="1" customWidth="1"/>
-    <col min="11279" max="11279" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="11279" max="11279" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="11282" max="11282" width="10" bestFit="1" customWidth="1"/>
-    <col min="11286" max="11286" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="11286" max="11286" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="11288" max="11288" width="7" customWidth="1"/>
-    <col min="11290" max="11290" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="11521" max="11521" width="43.33203125" customWidth="1"/>
-    <col min="11522" max="11522" width="12.6640625" customWidth="1"/>
-    <col min="11523" max="11523" width="19.6640625" customWidth="1"/>
-    <col min="11524" max="11525" width="19.33203125" customWidth="1"/>
+    <col min="11290" max="11290" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="11521" max="11521" width="43.36328125" customWidth="1"/>
+    <col min="11522" max="11522" width="12.6328125" customWidth="1"/>
+    <col min="11523" max="11523" width="19.6328125" customWidth="1"/>
+    <col min="11524" max="11525" width="19.36328125" customWidth="1"/>
     <col min="11534" max="11534" width="10" bestFit="1" customWidth="1"/>
-    <col min="11535" max="11535" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="11535" max="11535" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="11538" max="11538" width="10" bestFit="1" customWidth="1"/>
-    <col min="11542" max="11542" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="11542" max="11542" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="11544" max="11544" width="7" customWidth="1"/>
-    <col min="11546" max="11546" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="11777" max="11777" width="43.33203125" customWidth="1"/>
-    <col min="11778" max="11778" width="12.6640625" customWidth="1"/>
-    <col min="11779" max="11779" width="19.6640625" customWidth="1"/>
-    <col min="11780" max="11781" width="19.33203125" customWidth="1"/>
+    <col min="11546" max="11546" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="11777" max="11777" width="43.36328125" customWidth="1"/>
+    <col min="11778" max="11778" width="12.6328125" customWidth="1"/>
+    <col min="11779" max="11779" width="19.6328125" customWidth="1"/>
+    <col min="11780" max="11781" width="19.36328125" customWidth="1"/>
     <col min="11790" max="11790" width="10" bestFit="1" customWidth="1"/>
-    <col min="11791" max="11791" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="11791" max="11791" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="11794" max="11794" width="10" bestFit="1" customWidth="1"/>
-    <col min="11798" max="11798" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="11798" max="11798" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="11800" max="11800" width="7" customWidth="1"/>
-    <col min="11802" max="11802" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="12033" max="12033" width="43.33203125" customWidth="1"/>
-    <col min="12034" max="12034" width="12.6640625" customWidth="1"/>
-    <col min="12035" max="12035" width="19.6640625" customWidth="1"/>
-    <col min="12036" max="12037" width="19.33203125" customWidth="1"/>
+    <col min="11802" max="11802" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="12033" max="12033" width="43.36328125" customWidth="1"/>
+    <col min="12034" max="12034" width="12.6328125" customWidth="1"/>
+    <col min="12035" max="12035" width="19.6328125" customWidth="1"/>
+    <col min="12036" max="12037" width="19.36328125" customWidth="1"/>
     <col min="12046" max="12046" width="10" bestFit="1" customWidth="1"/>
-    <col min="12047" max="12047" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="12047" max="12047" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="12050" max="12050" width="10" bestFit="1" customWidth="1"/>
-    <col min="12054" max="12054" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="12054" max="12054" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="12056" max="12056" width="7" customWidth="1"/>
-    <col min="12058" max="12058" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="12289" max="12289" width="43.33203125" customWidth="1"/>
-    <col min="12290" max="12290" width="12.6640625" customWidth="1"/>
-    <col min="12291" max="12291" width="19.6640625" customWidth="1"/>
-    <col min="12292" max="12293" width="19.33203125" customWidth="1"/>
+    <col min="12058" max="12058" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="12289" max="12289" width="43.36328125" customWidth="1"/>
+    <col min="12290" max="12290" width="12.6328125" customWidth="1"/>
+    <col min="12291" max="12291" width="19.6328125" customWidth="1"/>
+    <col min="12292" max="12293" width="19.36328125" customWidth="1"/>
     <col min="12302" max="12302" width="10" bestFit="1" customWidth="1"/>
-    <col min="12303" max="12303" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="12303" max="12303" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="12306" max="12306" width="10" bestFit="1" customWidth="1"/>
-    <col min="12310" max="12310" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="12310" max="12310" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="12312" max="12312" width="7" customWidth="1"/>
-    <col min="12314" max="12314" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="12545" max="12545" width="43.33203125" customWidth="1"/>
-    <col min="12546" max="12546" width="12.6640625" customWidth="1"/>
-    <col min="12547" max="12547" width="19.6640625" customWidth="1"/>
-    <col min="12548" max="12549" width="19.33203125" customWidth="1"/>
+    <col min="12314" max="12314" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="12545" max="12545" width="43.36328125" customWidth="1"/>
+    <col min="12546" max="12546" width="12.6328125" customWidth="1"/>
+    <col min="12547" max="12547" width="19.6328125" customWidth="1"/>
+    <col min="12548" max="12549" width="19.36328125" customWidth="1"/>
     <col min="12558" max="12558" width="10" bestFit="1" customWidth="1"/>
-    <col min="12559" max="12559" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="12559" max="12559" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="12562" max="12562" width="10" bestFit="1" customWidth="1"/>
-    <col min="12566" max="12566" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="12566" max="12566" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="12568" max="12568" width="7" customWidth="1"/>
-    <col min="12570" max="12570" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="12801" max="12801" width="43.33203125" customWidth="1"/>
-    <col min="12802" max="12802" width="12.6640625" customWidth="1"/>
-    <col min="12803" max="12803" width="19.6640625" customWidth="1"/>
-    <col min="12804" max="12805" width="19.33203125" customWidth="1"/>
+    <col min="12570" max="12570" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="12801" max="12801" width="43.36328125" customWidth="1"/>
+    <col min="12802" max="12802" width="12.6328125" customWidth="1"/>
+    <col min="12803" max="12803" width="19.6328125" customWidth="1"/>
+    <col min="12804" max="12805" width="19.36328125" customWidth="1"/>
     <col min="12814" max="12814" width="10" bestFit="1" customWidth="1"/>
-    <col min="12815" max="12815" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="12815" max="12815" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="12818" max="12818" width="10" bestFit="1" customWidth="1"/>
-    <col min="12822" max="12822" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="12822" max="12822" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="12824" max="12824" width="7" customWidth="1"/>
-    <col min="12826" max="12826" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="13057" max="13057" width="43.33203125" customWidth="1"/>
-    <col min="13058" max="13058" width="12.6640625" customWidth="1"/>
-    <col min="13059" max="13059" width="19.6640625" customWidth="1"/>
-    <col min="13060" max="13061" width="19.33203125" customWidth="1"/>
+    <col min="12826" max="12826" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="13057" max="13057" width="43.36328125" customWidth="1"/>
+    <col min="13058" max="13058" width="12.6328125" customWidth="1"/>
+    <col min="13059" max="13059" width="19.6328125" customWidth="1"/>
+    <col min="13060" max="13061" width="19.36328125" customWidth="1"/>
     <col min="13070" max="13070" width="10" bestFit="1" customWidth="1"/>
-    <col min="13071" max="13071" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="13071" max="13071" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="13074" max="13074" width="10" bestFit="1" customWidth="1"/>
-    <col min="13078" max="13078" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="13078" max="13078" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="13080" max="13080" width="7" customWidth="1"/>
-    <col min="13082" max="13082" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="13313" max="13313" width="43.33203125" customWidth="1"/>
-    <col min="13314" max="13314" width="12.6640625" customWidth="1"/>
-    <col min="13315" max="13315" width="19.6640625" customWidth="1"/>
-    <col min="13316" max="13317" width="19.33203125" customWidth="1"/>
+    <col min="13082" max="13082" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="13313" max="13313" width="43.36328125" customWidth="1"/>
+    <col min="13314" max="13314" width="12.6328125" customWidth="1"/>
+    <col min="13315" max="13315" width="19.6328125" customWidth="1"/>
+    <col min="13316" max="13317" width="19.36328125" customWidth="1"/>
     <col min="13326" max="13326" width="10" bestFit="1" customWidth="1"/>
-    <col min="13327" max="13327" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="13327" max="13327" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="13330" max="13330" width="10" bestFit="1" customWidth="1"/>
-    <col min="13334" max="13334" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="13334" max="13334" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="13336" max="13336" width="7" customWidth="1"/>
-    <col min="13338" max="13338" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="13569" max="13569" width="43.33203125" customWidth="1"/>
-    <col min="13570" max="13570" width="12.6640625" customWidth="1"/>
-    <col min="13571" max="13571" width="19.6640625" customWidth="1"/>
-    <col min="13572" max="13573" width="19.33203125" customWidth="1"/>
+    <col min="13338" max="13338" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="13569" max="13569" width="43.36328125" customWidth="1"/>
+    <col min="13570" max="13570" width="12.6328125" customWidth="1"/>
+    <col min="13571" max="13571" width="19.6328125" customWidth="1"/>
+    <col min="13572" max="13573" width="19.36328125" customWidth="1"/>
     <col min="13582" max="13582" width="10" bestFit="1" customWidth="1"/>
-    <col min="13583" max="13583" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="13583" max="13583" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="13586" max="13586" width="10" bestFit="1" customWidth="1"/>
-    <col min="13590" max="13590" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="13590" max="13590" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="13592" max="13592" width="7" customWidth="1"/>
-    <col min="13594" max="13594" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="13825" max="13825" width="43.33203125" customWidth="1"/>
-    <col min="13826" max="13826" width="12.6640625" customWidth="1"/>
-    <col min="13827" max="13827" width="19.6640625" customWidth="1"/>
-    <col min="13828" max="13829" width="19.33203125" customWidth="1"/>
+    <col min="13594" max="13594" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="13825" max="13825" width="43.36328125" customWidth="1"/>
+    <col min="13826" max="13826" width="12.6328125" customWidth="1"/>
+    <col min="13827" max="13827" width="19.6328125" customWidth="1"/>
+    <col min="13828" max="13829" width="19.36328125" customWidth="1"/>
     <col min="13838" max="13838" width="10" bestFit="1" customWidth="1"/>
-    <col min="13839" max="13839" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="13839" max="13839" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="13842" max="13842" width="10" bestFit="1" customWidth="1"/>
-    <col min="13846" max="13846" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="13846" max="13846" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="13848" max="13848" width="7" customWidth="1"/>
-    <col min="13850" max="13850" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="14081" max="14081" width="43.33203125" customWidth="1"/>
-    <col min="14082" max="14082" width="12.6640625" customWidth="1"/>
-    <col min="14083" max="14083" width="19.6640625" customWidth="1"/>
-    <col min="14084" max="14085" width="19.33203125" customWidth="1"/>
+    <col min="13850" max="13850" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="14081" max="14081" width="43.36328125" customWidth="1"/>
+    <col min="14082" max="14082" width="12.6328125" customWidth="1"/>
+    <col min="14083" max="14083" width="19.6328125" customWidth="1"/>
+    <col min="14084" max="14085" width="19.36328125" customWidth="1"/>
     <col min="14094" max="14094" width="10" bestFit="1" customWidth="1"/>
-    <col min="14095" max="14095" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="14095" max="14095" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="14098" max="14098" width="10" bestFit="1" customWidth="1"/>
-    <col min="14102" max="14102" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="14102" max="14102" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="14104" max="14104" width="7" customWidth="1"/>
-    <col min="14106" max="14106" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="14337" max="14337" width="43.33203125" customWidth="1"/>
-    <col min="14338" max="14338" width="12.6640625" customWidth="1"/>
-    <col min="14339" max="14339" width="19.6640625" customWidth="1"/>
-    <col min="14340" max="14341" width="19.33203125" customWidth="1"/>
+    <col min="14106" max="14106" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="14337" max="14337" width="43.36328125" customWidth="1"/>
+    <col min="14338" max="14338" width="12.6328125" customWidth="1"/>
+    <col min="14339" max="14339" width="19.6328125" customWidth="1"/>
+    <col min="14340" max="14341" width="19.36328125" customWidth="1"/>
     <col min="14350" max="14350" width="10" bestFit="1" customWidth="1"/>
-    <col min="14351" max="14351" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="14351" max="14351" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="14354" max="14354" width="10" bestFit="1" customWidth="1"/>
-    <col min="14358" max="14358" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="14358" max="14358" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="14360" max="14360" width="7" customWidth="1"/>
-    <col min="14362" max="14362" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="14593" max="14593" width="43.33203125" customWidth="1"/>
-    <col min="14594" max="14594" width="12.6640625" customWidth="1"/>
-    <col min="14595" max="14595" width="19.6640625" customWidth="1"/>
-    <col min="14596" max="14597" width="19.33203125" customWidth="1"/>
+    <col min="14362" max="14362" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="14593" max="14593" width="43.36328125" customWidth="1"/>
+    <col min="14594" max="14594" width="12.6328125" customWidth="1"/>
+    <col min="14595" max="14595" width="19.6328125" customWidth="1"/>
+    <col min="14596" max="14597" width="19.36328125" customWidth="1"/>
     <col min="14606" max="14606" width="10" bestFit="1" customWidth="1"/>
-    <col min="14607" max="14607" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="14607" max="14607" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="14610" max="14610" width="10" bestFit="1" customWidth="1"/>
-    <col min="14614" max="14614" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="14614" max="14614" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="14616" max="14616" width="7" customWidth="1"/>
-    <col min="14618" max="14618" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="14849" max="14849" width="43.33203125" customWidth="1"/>
-    <col min="14850" max="14850" width="12.6640625" customWidth="1"/>
-    <col min="14851" max="14851" width="19.6640625" customWidth="1"/>
-    <col min="14852" max="14853" width="19.33203125" customWidth="1"/>
+    <col min="14618" max="14618" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="14849" max="14849" width="43.36328125" customWidth="1"/>
+    <col min="14850" max="14850" width="12.6328125" customWidth="1"/>
+    <col min="14851" max="14851" width="19.6328125" customWidth="1"/>
+    <col min="14852" max="14853" width="19.36328125" customWidth="1"/>
     <col min="14862" max="14862" width="10" bestFit="1" customWidth="1"/>
-    <col min="14863" max="14863" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="14863" max="14863" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="14866" max="14866" width="10" bestFit="1" customWidth="1"/>
-    <col min="14870" max="14870" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="14870" max="14870" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="14872" max="14872" width="7" customWidth="1"/>
-    <col min="14874" max="14874" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="15105" max="15105" width="43.33203125" customWidth="1"/>
-    <col min="15106" max="15106" width="12.6640625" customWidth="1"/>
-    <col min="15107" max="15107" width="19.6640625" customWidth="1"/>
-    <col min="15108" max="15109" width="19.33203125" customWidth="1"/>
+    <col min="14874" max="14874" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="15105" max="15105" width="43.36328125" customWidth="1"/>
+    <col min="15106" max="15106" width="12.6328125" customWidth="1"/>
+    <col min="15107" max="15107" width="19.6328125" customWidth="1"/>
+    <col min="15108" max="15109" width="19.36328125" customWidth="1"/>
     <col min="15118" max="15118" width="10" bestFit="1" customWidth="1"/>
-    <col min="15119" max="15119" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="15119" max="15119" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="15122" max="15122" width="10" bestFit="1" customWidth="1"/>
-    <col min="15126" max="15126" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="15126" max="15126" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="15128" max="15128" width="7" customWidth="1"/>
-    <col min="15130" max="15130" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="15361" max="15361" width="43.33203125" customWidth="1"/>
-    <col min="15362" max="15362" width="12.6640625" customWidth="1"/>
-    <col min="15363" max="15363" width="19.6640625" customWidth="1"/>
-    <col min="15364" max="15365" width="19.33203125" customWidth="1"/>
+    <col min="15130" max="15130" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="15361" max="15361" width="43.36328125" customWidth="1"/>
+    <col min="15362" max="15362" width="12.6328125" customWidth="1"/>
+    <col min="15363" max="15363" width="19.6328125" customWidth="1"/>
+    <col min="15364" max="15365" width="19.36328125" customWidth="1"/>
     <col min="15374" max="15374" width="10" bestFit="1" customWidth="1"/>
-    <col min="15375" max="15375" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="15375" max="15375" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="15378" max="15378" width="10" bestFit="1" customWidth="1"/>
-    <col min="15382" max="15382" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="15382" max="15382" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="15384" max="15384" width="7" customWidth="1"/>
-    <col min="15386" max="15386" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="15617" max="15617" width="43.33203125" customWidth="1"/>
-    <col min="15618" max="15618" width="12.6640625" customWidth="1"/>
-    <col min="15619" max="15619" width="19.6640625" customWidth="1"/>
-    <col min="15620" max="15621" width="19.33203125" customWidth="1"/>
+    <col min="15386" max="15386" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="15617" max="15617" width="43.36328125" customWidth="1"/>
+    <col min="15618" max="15618" width="12.6328125" customWidth="1"/>
+    <col min="15619" max="15619" width="19.6328125" customWidth="1"/>
+    <col min="15620" max="15621" width="19.36328125" customWidth="1"/>
     <col min="15630" max="15630" width="10" bestFit="1" customWidth="1"/>
-    <col min="15631" max="15631" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="15631" max="15631" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="15634" max="15634" width="10" bestFit="1" customWidth="1"/>
-    <col min="15638" max="15638" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="15638" max="15638" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="15640" max="15640" width="7" customWidth="1"/>
-    <col min="15642" max="15642" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="15873" max="15873" width="43.33203125" customWidth="1"/>
-    <col min="15874" max="15874" width="12.6640625" customWidth="1"/>
-    <col min="15875" max="15875" width="19.6640625" customWidth="1"/>
-    <col min="15876" max="15877" width="19.33203125" customWidth="1"/>
+    <col min="15642" max="15642" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="15873" max="15873" width="43.36328125" customWidth="1"/>
+    <col min="15874" max="15874" width="12.6328125" customWidth="1"/>
+    <col min="15875" max="15875" width="19.6328125" customWidth="1"/>
+    <col min="15876" max="15877" width="19.36328125" customWidth="1"/>
     <col min="15886" max="15886" width="10" bestFit="1" customWidth="1"/>
-    <col min="15887" max="15887" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="15887" max="15887" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="15890" max="15890" width="10" bestFit="1" customWidth="1"/>
-    <col min="15894" max="15894" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="15894" max="15894" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="15896" max="15896" width="7" customWidth="1"/>
-    <col min="15898" max="15898" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="16129" max="16129" width="43.33203125" customWidth="1"/>
-    <col min="16130" max="16130" width="12.6640625" customWidth="1"/>
-    <col min="16131" max="16131" width="19.6640625" customWidth="1"/>
-    <col min="16132" max="16133" width="19.33203125" customWidth="1"/>
+    <col min="15898" max="15898" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="16129" max="16129" width="43.36328125" customWidth="1"/>
+    <col min="16130" max="16130" width="12.6328125" customWidth="1"/>
+    <col min="16131" max="16131" width="19.6328125" customWidth="1"/>
+    <col min="16132" max="16133" width="19.36328125" customWidth="1"/>
     <col min="16142" max="16142" width="10" bestFit="1" customWidth="1"/>
-    <col min="16143" max="16143" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="16143" max="16143" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="16146" max="16146" width="10" bestFit="1" customWidth="1"/>
-    <col min="16150" max="16150" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="16150" max="16150" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="16152" max="16152" width="7" customWidth="1"/>
-    <col min="16154" max="16154" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="16154" max="16154" width="17.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -4376,7 +4379,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>92</v>
       </c>
@@ -4458,7 +4461,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>92</v>
       </c>
@@ -4540,7 +4543,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>111</v>
       </c>
@@ -4620,7 +4623,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>114</v>
       </c>
@@ -4700,7 +4703,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>116</v>
       </c>
@@ -4780,7 +4783,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>118</v>
       </c>
@@ -4860,7 +4863,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>120</v>
       </c>
@@ -4956,23 +4959,23 @@
       <selection activeCell="U27" sqref="U27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.6640625" customWidth="1"/>
-    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="1" max="1" width="28.6328125" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.6328125" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
     <col min="7" max="10" width="17" customWidth="1"/>
-    <col min="11" max="11" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.36328125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
-    <col min="13" max="21" width="8.83203125"/>
+    <col min="13" max="21" width="8.81640625"/>
     <col min="22" max="22" width="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.33203125" customWidth="1"/>
+    <col min="23" max="23" width="16.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -5043,7 +5046,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>217</v>
       </c>
@@ -5116,7 +5119,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>218</v>
       </c>
@@ -5188,7 +5191,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>219</v>
       </c>
@@ -5261,7 +5264,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7" s="42"/>
       <c r="U7" s="42"/>
     </row>
@@ -5279,16 +5282,16 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="1" max="1" width="17.453125" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="5" width="21.6640625" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" customWidth="1"/>
+    <col min="4" max="5" width="21.6328125" customWidth="1"/>
+    <col min="8" max="8" width="11.6328125" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -5335,7 +5338,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="36" t="s">
         <v>97</v>
       </c>
@@ -5383,7 +5386,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>97</v>
       </c>
@@ -5431,7 +5434,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>97</v>
       </c>
@@ -5479,7 +5482,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>97</v>
       </c>
@@ -5543,16 +5546,16 @@
       <selection activeCell="AH22" sqref="AH22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.36328125" customWidth="1"/>
+    <col min="3" max="3" width="16.6328125" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="15" max="15" width="29.6640625" customWidth="1"/>
+    <col min="15" max="15" width="29.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5599,7 +5602,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>87</v>
       </c>
@@ -5661,20 +5664,20 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="16.6328125" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.1796875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.33203125" customWidth="1"/>
-    <col min="22" max="22" width="12.6640625" customWidth="1"/>
-    <col min="23" max="23" width="10.5" customWidth="1"/>
+    <col min="21" max="21" width="14.36328125" customWidth="1"/>
+    <col min="22" max="22" width="12.6328125" customWidth="1"/>
+    <col min="23" max="23" width="10.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -5775,7 +5778,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>53</v>
       </c>
@@ -5880,7 +5883,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>57</v>
       </c>
@@ -6001,15 +6004,15 @@
       <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.5" customWidth="1"/>
-    <col min="3" max="3" width="9.5" customWidth="1"/>
-    <col min="4" max="5" width="10.5" customWidth="1"/>
-    <col min="8" max="8" width="10.5" customWidth="1"/>
+    <col min="1" max="1" width="18.453125" customWidth="1"/>
+    <col min="3" max="3" width="9.453125" customWidth="1"/>
+    <col min="4" max="5" width="10.453125" customWidth="1"/>
+    <col min="8" max="8" width="10.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -6056,7 +6059,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>60</v>
       </c>
@@ -6120,17 +6123,17 @@
       <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="13.33203125" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" customWidth="1"/>
-    <col min="6" max="11" width="16.5" customWidth="1"/>
-    <col min="18" max="18" width="22.6640625" customWidth="1"/>
+    <col min="1" max="1" width="24.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="13.36328125" customWidth="1"/>
+    <col min="5" max="5" width="17.6328125" customWidth="1"/>
+    <col min="6" max="11" width="16.453125" customWidth="1"/>
+    <col min="18" max="18" width="22.6328125" customWidth="1"/>
     <col min="22" max="22" width="75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6198,7 +6201,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>166</v>
       </c>
@@ -6266,7 +6269,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>166</v>
       </c>
@@ -6334,7 +6337,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>166</v>
       </c>
@@ -6402,7 +6405,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>168</v>
       </c>
@@ -6470,7 +6473,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>168</v>
       </c>
@@ -6538,7 +6541,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>168</v>
       </c>
@@ -6606,7 +6609,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>167</v>
       </c>
@@ -6674,7 +6677,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>167</v>
       </c>
@@ -6742,7 +6745,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>167</v>
       </c>
@@ -6826,20 +6829,20 @@
       <selection activeCell="B8" sqref="B8:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.6328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="7" width="17.6640625" customWidth="1"/>
-    <col min="8" max="9" width="15.5" customWidth="1"/>
-    <col min="10" max="10" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="17.6640625" customWidth="1"/>
-    <col min="15" max="15" width="10.5" customWidth="1"/>
-    <col min="22" max="22" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="72.5" customWidth="1"/>
+    <col min="6" max="7" width="17.6328125" customWidth="1"/>
+    <col min="8" max="9" width="15.453125" customWidth="1"/>
+    <col min="10" max="10" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="17.6328125" customWidth="1"/>
+    <col min="15" max="15" width="10.453125" customWidth="1"/>
+    <col min="22" max="22" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="72.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -6910,7 +6913,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>179</v>
       </c>
@@ -6981,7 +6984,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>179</v>
       </c>
@@ -7052,7 +7055,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="16" t="s">
         <v>179</v>
       </c>
@@ -7123,7 +7126,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="16" t="s">
         <v>178</v>
       </c>
@@ -7194,7 +7197,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="16" t="s">
         <v>178</v>
       </c>
@@ -7265,7 +7268,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="16" t="s">
         <v>178</v>
       </c>
@@ -7336,7 +7339,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8" s="16" t="s">
         <v>183</v>
       </c>
@@ -7407,7 +7410,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A9" s="16" t="s">
         <v>183</v>
       </c>
@@ -7478,7 +7481,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A10" s="16" t="s">
         <v>184</v>
       </c>
@@ -7549,7 +7552,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A11" s="16" t="s">
         <v>186</v>
       </c>
@@ -7621,7 +7624,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B13" s="9"/>
     </row>
   </sheetData>
@@ -7636,23 +7639,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.6640625" customWidth="1"/>
-    <col min="2" max="2" width="16.5" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="28.6328125" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6328125" customWidth="1"/>
     <col min="5" max="6" width="23" customWidth="1"/>
-    <col min="7" max="10" width="15.83203125" customWidth="1"/>
+    <col min="7" max="10" width="15.81640625" customWidth="1"/>
     <col min="20" max="20" width="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="111.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="111.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -7717,7 +7720,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>85</v>
       </c>
@@ -7784,7 +7787,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>85</v>
       </c>
@@ -7850,7 +7853,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>85</v>
       </c>
@@ -7917,7 +7920,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>237</v>
       </c>
@@ -7987,21 +7990,21 @@
       <selection activeCell="B2" sqref="B2:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="45.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5" customWidth="1"/>
-    <col min="5" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="7" width="11.1640625" customWidth="1"/>
-    <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="45.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.453125" customWidth="1"/>
+    <col min="5" max="6" width="15.6328125" customWidth="1"/>
+    <col min="7" max="7" width="11.1796875" customWidth="1"/>
+    <col min="8" max="8" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="33.36328125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="45.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -8069,7 +8072,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>126</v>
       </c>
@@ -8137,7 +8140,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>125</v>
       </c>
@@ -8207,7 +8210,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>125</v>
       </c>
@@ -8277,7 +8280,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>125</v>
       </c>
@@ -8347,7 +8350,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>125</v>
       </c>
@@ -8417,7 +8420,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>125</v>
       </c>
@@ -8485,10 +8488,10 @@
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="P13" s="10"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="P15" s="10"/>
     </row>
   </sheetData>
@@ -8503,24 +8506,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:AG7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Y25" sqref="Y25"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AE1" sqref="AE1:AG7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.1640625" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" customWidth="1"/>
-    <col min="11" max="12" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="45.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.1796875" customWidth="1"/>
+    <col min="9" max="9" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6328125" customWidth="1"/>
+    <col min="11" max="12" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="45.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8621,7 +8624,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>133</v>
       </c>
@@ -8713,16 +8716,16 @@
         <v>1.5</v>
       </c>
       <c r="AE2" s="2">
-        <v>0.72199999999999998</v>
+        <v>3.23</v>
       </c>
       <c r="AF2" s="2">
-        <v>0.33300000000000002</v>
+        <v>2.14</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>133</v>
       </c>
@@ -8823,7 +8826,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>134</v>
       </c>
@@ -8915,16 +8918,16 @@
         <v>1.5</v>
       </c>
       <c r="AE4" s="2">
-        <v>0.72199999999999998</v>
+        <v>3.75</v>
       </c>
       <c r="AF4" s="2">
-        <v>0.33300000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="AG4" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>135</v>
       </c>
@@ -9025,7 +9028,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>135</v>
       </c>
@@ -9117,16 +9120,16 @@
         <v>4.38</v>
       </c>
       <c r="AE6" s="2">
-        <v>68</v>
+        <v>646</v>
       </c>
       <c r="AF6" s="2">
-        <v>14</v>
+        <v>431</v>
       </c>
       <c r="AG6" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>136</v>
       </c>
@@ -9241,23 +9244,23 @@
       <selection activeCell="V23" sqref="V23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.5" customWidth="1"/>
-    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5" customWidth="1"/>
-    <col min="5" max="5" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.1640625" customWidth="1"/>
-    <col min="7" max="7" width="12.1640625" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.453125" customWidth="1"/>
+    <col min="3" max="3" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.453125" customWidth="1"/>
+    <col min="5" max="5" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.1796875" customWidth="1"/>
+    <col min="7" max="7" width="12.1796875" customWidth="1"/>
+    <col min="8" max="8" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.81640625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="29" customWidth="1"/>
     <col min="22" max="22" width="69" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -9325,7 +9328,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>82</v>
       </c>
@@ -9393,7 +9396,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>82</v>
       </c>
@@ -9461,7 +9464,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>82</v>
       </c>
@@ -9529,7 +9532,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>82</v>
       </c>
@@ -9597,7 +9600,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
@@ -9605,7 +9608,7 @@
       <c r="K6" s="9"/>
       <c r="V6" s="9"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>

--- a/cea/databases/SG/components/CONVERSION.xlsx
+++ b/cea/databases/SG/components/CONVERSION.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nimathia\Documents\GitHub\CityEnergyAnalyst\CityEnergyAnalyst\cea\databases\SG\components\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\CityEnergyAnalyst\CityEnergyAnalyst\CityEnergyAnalyst\cea\databases\SG\components\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{571D4598-416B-4A3A-9A34-92B17E6D52F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F99BE7B-6800-4E29-88D9-2DA7C6D5FEA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" tabRatio="993" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PHOTOVOLTAIC_PANELS" sheetId="1" r:id="rId1"/>
@@ -22,13 +22,15 @@
     <sheet name="VAPOR_COMPRESSION_CHILLERS" sheetId="8" r:id="rId7"/>
     <sheet name="ABSORPTION_CHILLERS" sheetId="9" r:id="rId8"/>
     <sheet name="COOLING_TOWERS" sheetId="10" r:id="rId9"/>
-    <sheet name="FUEL_CELLS" sheetId="20" r:id="rId10"/>
-    <sheet name="UNITARY_AIR_CONDITIONERS" sheetId="16" r:id="rId11"/>
-    <sheet name="HEAT_PUMPS" sheetId="13" r:id="rId12"/>
-    <sheet name="THERMAL_ENERGY_STORAGES" sheetId="14" r:id="rId13"/>
-    <sheet name="POWER_TRANSFORMERS" sheetId="17" r:id="rId14"/>
-    <sheet name="HYDRAULIC_PUMPS" sheetId="15" r:id="rId15"/>
-    <sheet name="BORE_HOLES" sheetId="12" r:id="rId16"/>
+    <sheet name="HEAT_SINK" sheetId="21" r:id="rId10"/>
+    <sheet name="INVERTERS" sheetId="22" r:id="rId11"/>
+    <sheet name="FUEL_CELLS" sheetId="20" r:id="rId12"/>
+    <sheet name="UNITARY_AIR_CONDITIONERS" sheetId="16" r:id="rId13"/>
+    <sheet name="HEAT_PUMPS" sheetId="13" r:id="rId14"/>
+    <sheet name="THERMAL_ENERGY_STORAGES" sheetId="14" r:id="rId15"/>
+    <sheet name="POWER_TRANSFORMERS" sheetId="17" r:id="rId16"/>
+    <sheet name="HYDRAULIC_PUMPS" sheetId="15" r:id="rId17"/>
+    <sheet name="BORE_HOLES" sheetId="12" r:id="rId18"/>
   </sheets>
   <definedNames>
     <definedName name="__xlfn_AGGREGATE">#N/A</definedName>
@@ -51,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="258">
   <si>
     <t>Description</t>
   </si>
@@ -780,6 +782,51 @@
   </si>
   <si>
     <t>ASHRAE 90.1/2019 - minimum efficiency rating at full load; https://www.esmagazine.com/articles/82307-basics-for-absorption-chillers - capacity-specific mass flow rates</t>
+  </si>
+  <si>
+    <t>Water_source_code</t>
+  </si>
+  <si>
+    <t>Lake-water HEX</t>
+  </si>
+  <si>
+    <t>HEXLW</t>
+  </si>
+  <si>
+    <t>LW</t>
+  </si>
+  <si>
+    <t>Sewage-water HEX</t>
+  </si>
+  <si>
+    <t>HEXSW</t>
+  </si>
+  <si>
+    <t>SW</t>
+  </si>
+  <si>
+    <t>Groundwater-water HEX</t>
+  </si>
+  <si>
+    <t>HEXGW</t>
+  </si>
+  <si>
+    <t>GW</t>
+  </si>
+  <si>
+    <t>solar inverter</t>
+  </si>
+  <si>
+    <t>IN1</t>
+  </si>
+  <si>
+    <t>grid-tied, sigle phase, transformerless inverter</t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>T_supply_sup</t>
   </si>
 </sst>
 </file>
@@ -856,7 +903,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -992,6 +1039,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="59"/>
+      </left>
+      <right style="thin">
+        <color indexed="59"/>
+      </right>
+      <top style="thin">
+        <color indexed="59"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1000,7 +1062,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1120,6 +1182,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1560,35 +1625,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA10"/>
+  <dimension ref="A1:AB10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.6328125" customWidth="1"/>
-    <col min="4" max="4" width="15.6328125" customWidth="1"/>
+    <col min="1" max="1" width="38.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
     <col min="5" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="14.453125" customWidth="1"/>
-    <col min="8" max="8" width="9.36328125" customWidth="1"/>
-    <col min="9" max="9" width="8.453125" customWidth="1"/>
-    <col min="10" max="10" width="8.6328125" customWidth="1"/>
-    <col min="12" max="12" width="16.453125" customWidth="1"/>
-    <col min="13" max="13" width="18.453125" customWidth="1"/>
-    <col min="14" max="14" width="16.36328125" customWidth="1"/>
-    <col min="15" max="15" width="14.6328125" customWidth="1"/>
-    <col min="16" max="17" width="12.453125" customWidth="1"/>
-    <col min="19" max="19" width="10.453125" customWidth="1"/>
-    <col min="20" max="20" width="13.6328125" customWidth="1"/>
-    <col min="21" max="23" width="10.453125" customWidth="1"/>
-    <col min="24" max="24" width="14.6328125" customWidth="1"/>
-    <col min="25" max="25" width="12.6328125" customWidth="1"/>
-    <col min="27" max="27" width="13.36328125" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" customWidth="1"/>
+    <col min="12" max="12" width="16.42578125" customWidth="1"/>
+    <col min="13" max="13" width="18.42578125" customWidth="1"/>
+    <col min="14" max="14" width="16.28515625" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" customWidth="1"/>
+    <col min="16" max="17" width="12.42578125" customWidth="1"/>
+    <col min="19" max="19" width="10.42578125" customWidth="1"/>
+    <col min="20" max="20" width="13.7109375" customWidth="1"/>
+    <col min="21" max="23" width="10.42578125" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" customWidth="1"/>
+    <col min="25" max="25" width="12.7109375" customWidth="1"/>
+    <col min="27" max="27" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -1620,58 +1685,61 @@
         <v>9</v>
       </c>
       <c r="K1" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="L1" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="36" t="s">
+      <c r="M1" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="36" t="s">
+      <c r="N1" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="36" t="s">
+      <c r="O1" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="36" t="s">
+      <c r="P1" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="36" t="s">
+      <c r="Q1" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="36" t="s">
+      <c r="R1" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="36" t="s">
+      <c r="S1" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="36" t="s">
+      <c r="T1" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="36" t="s">
+      <c r="U1" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="36" t="s">
+      <c r="V1" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="36" t="s">
+      <c r="W1" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="36" t="s">
+      <c r="X1" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="36" t="s">
+      <c r="Y1" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="36" t="s">
+      <c r="Z1" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="36" t="s">
+      <c r="AA1" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="36" t="s">
+      <c r="AB1" s="36" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
@@ -1703,59 +1771,62 @@
         <v>43.5</v>
       </c>
       <c r="K2" s="2">
+        <v>30</v>
+      </c>
+      <c r="L2" s="2">
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="L2" s="3">
+      <c r="M2" s="3">
         <v>0.93582299999999996</v>
       </c>
-      <c r="M2" s="3">
+      <c r="N2" s="3">
         <v>5.4288999999999997E-2</v>
       </c>
-      <c r="N2" s="3">
+      <c r="O2" s="3">
         <v>8.6770000000000007E-3</v>
       </c>
-      <c r="O2" s="3">
+      <c r="P2" s="3">
         <v>5.2700000000000002E-4</v>
       </c>
-      <c r="P2" s="3">
+      <c r="Q2" s="3">
         <v>-1.1E-5</v>
       </c>
-      <c r="Q2" s="4">
+      <c r="R2" s="4">
         <v>0.1</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="S2" s="2">
-        <v>0</v>
-      </c>
-      <c r="T2" s="4">
+      <c r="T2" s="2">
+        <v>0</v>
+      </c>
+      <c r="U2" s="4">
         <f>3.5/0.962</f>
         <v>3.6382536382536386</v>
       </c>
-      <c r="U2" s="2">
-        <v>1</v>
-      </c>
       <c r="V2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W2" s="2">
         <v>0</v>
       </c>
       <c r="X2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="2">
         <v>20</v>
       </c>
-      <c r="Y2" s="2">
-        <v>1</v>
-      </c>
       <c r="Z2" s="2">
-        <v>5</v>
-      </c>
-      <c r="AA2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>5</v>
+      </c>
+      <c r="AB2" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -1787,59 +1858,62 @@
         <v>43.5</v>
       </c>
       <c r="K3" s="2">
+        <v>30</v>
+      </c>
+      <c r="L3" s="2">
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="L3" s="3">
+      <c r="M3" s="3">
         <v>0.93582299999999996</v>
       </c>
-      <c r="M3" s="3">
+      <c r="N3" s="3">
         <v>5.4288999999999997E-2</v>
       </c>
-      <c r="N3" s="3">
+      <c r="O3" s="3">
         <v>8.6770000000000007E-3</v>
       </c>
-      <c r="O3" s="3">
+      <c r="P3" s="3">
         <v>5.2700000000000002E-4</v>
       </c>
-      <c r="P3" s="3">
+      <c r="Q3" s="3">
         <v>-1.1E-5</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="R3" s="4">
         <v>0.1</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="S3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="S3" s="2">
-        <v>0</v>
-      </c>
-      <c r="T3" s="4">
+      <c r="T3" s="2">
+        <v>0</v>
+      </c>
+      <c r="U3" s="4">
         <f>2.5/0.962</f>
         <v>2.5987525987525988</v>
       </c>
-      <c r="U3" s="2">
-        <v>1</v>
-      </c>
       <c r="V3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W3" s="2">
         <v>0</v>
       </c>
       <c r="X3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="2">
         <v>20</v>
       </c>
-      <c r="Y3" s="2">
-        <v>1</v>
-      </c>
       <c r="Z3" s="2">
-        <v>5</v>
-      </c>
-      <c r="AA3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>5</v>
+      </c>
+      <c r="AB3" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -1871,59 +1945,62 @@
         <v>43.5</v>
       </c>
       <c r="K4" s="2">
+        <v>30</v>
+      </c>
+      <c r="L4" s="2">
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="L4" s="3">
+      <c r="M4" s="3">
         <v>0.93582299999999996</v>
       </c>
-      <c r="M4" s="3">
+      <c r="N4" s="3">
         <v>5.4288999999999997E-2</v>
       </c>
-      <c r="N4" s="3">
+      <c r="O4" s="3">
         <v>8.6770000000000007E-3</v>
       </c>
-      <c r="O4" s="3">
+      <c r="P4" s="3">
         <v>5.2700000000000002E-4</v>
       </c>
-      <c r="P4" s="3">
+      <c r="Q4" s="3">
         <v>-1.1E-5</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="R4" s="4">
         <v>0.1</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="S4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="S4" s="2">
-        <v>0</v>
-      </c>
-      <c r="T4" s="4">
+      <c r="T4" s="2">
+        <v>0</v>
+      </c>
+      <c r="U4" s="4">
         <f>2.5/0.962</f>
         <v>2.5987525987525988</v>
       </c>
-      <c r="U4" s="2">
-        <v>1</v>
-      </c>
       <c r="V4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W4" s="2">
         <v>0</v>
       </c>
       <c r="X4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="2">
         <v>20</v>
       </c>
-      <c r="Y4" s="2">
-        <v>1</v>
-      </c>
       <c r="Z4" s="2">
-        <v>5</v>
-      </c>
-      <c r="AA4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>5</v>
+      </c>
+      <c r="AB4" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>33</v>
       </c>
@@ -1955,59 +2032,62 @@
         <v>43.9</v>
       </c>
       <c r="K5" s="2">
+        <v>30</v>
+      </c>
+      <c r="L5" s="2">
         <v>4.4000000000000003E-3</v>
       </c>
-      <c r="L5" s="3">
+      <c r="M5" s="3">
         <v>0.91809300000000005</v>
       </c>
-      <c r="M5" s="3">
+      <c r="N5" s="3">
         <v>8.6257E-2</v>
       </c>
-      <c r="N5" s="3">
+      <c r="O5" s="3">
         <v>-2.4459000000000002E-2</v>
       </c>
-      <c r="O5" s="3">
+      <c r="P5" s="3">
         <v>2.8159999999999999E-3</v>
       </c>
-      <c r="P5" s="3">
+      <c r="Q5" s="3">
         <v>-1.26E-4</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="R5" s="4">
         <v>0.1</v>
       </c>
-      <c r="R5" s="3" t="s">
+      <c r="S5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="S5" s="2">
-        <v>0</v>
-      </c>
-      <c r="T5" s="4">
+      <c r="T5" s="2">
+        <v>0</v>
+      </c>
+      <c r="U5" s="4">
         <f>3.5/0.962</f>
         <v>3.6382536382536386</v>
       </c>
-      <c r="U5" s="2">
-        <v>1</v>
-      </c>
       <c r="V5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W5" s="2">
         <v>0</v>
       </c>
       <c r="X5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="2">
         <v>20</v>
       </c>
-      <c r="Y5" s="2">
-        <v>1</v>
-      </c>
       <c r="Z5" s="2">
-        <v>5</v>
-      </c>
-      <c r="AA5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>5</v>
+      </c>
+      <c r="AB5" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>33</v>
       </c>
@@ -2039,59 +2119,62 @@
         <v>43.9</v>
       </c>
       <c r="K6" s="2">
+        <v>30</v>
+      </c>
+      <c r="L6" s="2">
         <v>4.4000000000000003E-3</v>
       </c>
-      <c r="L6" s="3">
+      <c r="M6" s="3">
         <v>0.91809300000000005</v>
       </c>
-      <c r="M6" s="3">
+      <c r="N6" s="3">
         <v>8.6257E-2</v>
       </c>
-      <c r="N6" s="3">
+      <c r="O6" s="3">
         <v>-2.4459000000000002E-2</v>
       </c>
-      <c r="O6" s="3">
+      <c r="P6" s="3">
         <v>2.8159999999999999E-3</v>
       </c>
-      <c r="P6" s="3">
+      <c r="Q6" s="3">
         <v>-1.26E-4</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="R6" s="4">
         <v>0.1</v>
       </c>
-      <c r="R6" s="3" t="s">
+      <c r="S6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="S6" s="2">
-        <v>0</v>
-      </c>
-      <c r="T6" s="4">
+      <c r="T6" s="2">
+        <v>0</v>
+      </c>
+      <c r="U6" s="4">
         <f>2.5/0.962</f>
         <v>2.5987525987525988</v>
       </c>
-      <c r="U6" s="2">
-        <v>1</v>
-      </c>
       <c r="V6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W6" s="2">
         <v>0</v>
       </c>
       <c r="X6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="2">
         <v>20</v>
       </c>
-      <c r="Y6" s="2">
-        <v>1</v>
-      </c>
       <c r="Z6" s="2">
-        <v>5</v>
-      </c>
-      <c r="AA6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>5</v>
+      </c>
+      <c r="AB6" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>33</v>
       </c>
@@ -2123,59 +2206,62 @@
         <v>43.9</v>
       </c>
       <c r="K7" s="2">
+        <v>30</v>
+      </c>
+      <c r="L7" s="2">
         <v>4.4000000000000003E-3</v>
       </c>
-      <c r="L7" s="3">
+      <c r="M7" s="3">
         <v>0.91809300000000005</v>
       </c>
-      <c r="M7" s="3">
+      <c r="N7" s="3">
         <v>8.6257E-2</v>
       </c>
-      <c r="N7" s="3">
+      <c r="O7" s="3">
         <v>-2.4459000000000002E-2</v>
       </c>
-      <c r="O7" s="3">
+      <c r="P7" s="3">
         <v>2.8159999999999999E-3</v>
       </c>
-      <c r="P7" s="3">
+      <c r="Q7" s="3">
         <v>-1.26E-4</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="R7" s="4">
         <v>0.1</v>
       </c>
-      <c r="R7" s="3" t="s">
+      <c r="S7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="S7" s="2">
-        <v>0</v>
-      </c>
-      <c r="T7" s="4">
+      <c r="T7" s="2">
+        <v>0</v>
+      </c>
+      <c r="U7" s="4">
         <f>2.5/0.962</f>
         <v>2.5987525987525988</v>
       </c>
-      <c r="U7" s="2">
-        <v>1</v>
-      </c>
       <c r="V7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7" s="2">
         <v>0</v>
       </c>
       <c r="X7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="2">
         <v>20</v>
       </c>
-      <c r="Y7" s="2">
-        <v>1</v>
-      </c>
       <c r="Z7" s="2">
-        <v>5</v>
-      </c>
-      <c r="AA7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>5</v>
+      </c>
+      <c r="AB7" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>35</v>
       </c>
@@ -2207,59 +2293,62 @@
         <v>38.1</v>
       </c>
       <c r="K8" s="2">
+        <v>30</v>
+      </c>
+      <c r="L8" s="2">
         <v>2.5999999999999999E-3</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1.10044085</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>-6.1423230000000002E-2</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>-4.4273200000000002E-3</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6.3150399999999996E-4</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>-1.9184000000000001E-5</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="R8" s="4">
         <v>0.1</v>
       </c>
-      <c r="R8" s="3" t="s">
+      <c r="S8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="S8" s="2">
-        <v>0</v>
-      </c>
-      <c r="T8" s="4">
+      <c r="T8" s="2">
+        <v>0</v>
+      </c>
+      <c r="U8" s="4">
         <f>3.5/0.962</f>
         <v>3.6382536382536386</v>
       </c>
-      <c r="U8" s="2">
-        <v>1</v>
-      </c>
       <c r="V8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W8" s="2">
         <v>0</v>
       </c>
       <c r="X8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="2">
         <v>20</v>
       </c>
-      <c r="Y8" s="2">
-        <v>1</v>
-      </c>
       <c r="Z8" s="2">
-        <v>5</v>
-      </c>
-      <c r="AA8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>5</v>
+      </c>
+      <c r="AB8" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>35</v>
       </c>
@@ -2291,59 +2380,62 @@
         <v>38.1</v>
       </c>
       <c r="K9" s="2">
+        <v>30</v>
+      </c>
+      <c r="L9" s="2">
         <v>2.5999999999999999E-3</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1.10044085</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>-6.1423230000000002E-2</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>-4.4273200000000002E-3</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>6.3150399999999996E-4</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>-1.9184000000000001E-5</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="R9" s="4">
         <v>0.1</v>
       </c>
-      <c r="R9" s="3" t="s">
+      <c r="S9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="S9" s="2">
-        <v>0</v>
-      </c>
-      <c r="T9" s="4">
+      <c r="T9" s="2">
+        <v>0</v>
+      </c>
+      <c r="U9" s="4">
         <f>2.5/0.962</f>
         <v>2.5987525987525988</v>
       </c>
-      <c r="U9" s="2">
-        <v>1</v>
-      </c>
       <c r="V9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W9" s="2">
         <v>0</v>
       </c>
       <c r="X9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="2">
         <v>20</v>
       </c>
-      <c r="Y9" s="2">
-        <v>1</v>
-      </c>
       <c r="Z9" s="2">
-        <v>5</v>
-      </c>
-      <c r="AA9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="2">
+        <v>5</v>
+      </c>
+      <c r="AB9" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>35</v>
       </c>
@@ -2375,55 +2467,58 @@
         <v>38.1</v>
       </c>
       <c r="K10" s="2">
+        <v>30</v>
+      </c>
+      <c r="L10" s="2">
         <v>2.5999999999999999E-3</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1.10044085</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-6.1423230000000002E-2</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-4.4273200000000002E-3</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>6.3150399999999996E-4</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>-1.9184000000000001E-5</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="R10" s="4">
         <v>0.1</v>
       </c>
-      <c r="R10" s="3" t="s">
+      <c r="S10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="S10" s="2">
-        <v>0</v>
-      </c>
-      <c r="T10" s="4">
+      <c r="T10" s="2">
+        <v>0</v>
+      </c>
+      <c r="U10" s="4">
         <f>2.5/0.962</f>
         <v>2.5987525987525988</v>
       </c>
-      <c r="U10" s="2">
-        <v>1</v>
-      </c>
       <c r="V10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W10" s="2">
         <v>0</v>
       </c>
       <c r="X10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="2">
         <v>20</v>
       </c>
-      <c r="Y10" s="2">
-        <v>1</v>
-      </c>
       <c r="Z10" s="2">
-        <v>5</v>
-      </c>
-      <c r="AA10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>5</v>
+      </c>
+      <c r="AB10" s="2" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2436,6 +2531,483 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2A51D13-2130-8B4B-94F3-BBFC676E62A8}">
+  <dimension ref="A1:X4"/>
+  <sheetViews>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="J1" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="K1" s="36" t="s">
+        <v>243</v>
+      </c>
+      <c r="L1" s="36" t="s">
+        <v>191</v>
+      </c>
+      <c r="M1" s="36" t="s">
+        <v>192</v>
+      </c>
+      <c r="N1" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="S1" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="T1" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="U1" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="V1" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="W1" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="X1" s="40" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D2" s="17">
+        <v>1</v>
+      </c>
+      <c r="E2" s="17">
+        <v>10000000000</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="20">
+        <v>0.03</v>
+      </c>
+      <c r="H2" s="2">
+        <v>460</v>
+      </c>
+      <c r="I2" s="2">
+        <v>35</v>
+      </c>
+      <c r="J2" s="2">
+        <v>27</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="2">
+        <v>2300</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>1</v>
+      </c>
+      <c r="R2" s="2">
+        <v>0</v>
+      </c>
+      <c r="S2" s="2">
+        <v>0</v>
+      </c>
+      <c r="T2" s="2">
+        <v>20</v>
+      </c>
+      <c r="U2" s="2">
+        <v>5</v>
+      </c>
+      <c r="V2" s="2">
+        <v>1</v>
+      </c>
+      <c r="W2" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="X2" s="27" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D3" s="17">
+        <v>1</v>
+      </c>
+      <c r="E3" s="17">
+        <v>10000000000</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="20">
+        <v>0.03</v>
+      </c>
+      <c r="H3" s="12">
+        <v>460</v>
+      </c>
+      <c r="I3" s="12">
+        <v>35</v>
+      </c>
+      <c r="J3" s="12">
+        <v>28</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" s="2">
+        <v>2000</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1.4E-2</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>1</v>
+      </c>
+      <c r="R3" s="2">
+        <v>0</v>
+      </c>
+      <c r="S3" s="2">
+        <v>0</v>
+      </c>
+      <c r="T3" s="2">
+        <v>20</v>
+      </c>
+      <c r="U3" s="2">
+        <v>5</v>
+      </c>
+      <c r="V3" s="2">
+        <v>1</v>
+      </c>
+      <c r="W3" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="X3" s="27" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D4" s="17">
+        <v>1</v>
+      </c>
+      <c r="E4" s="17">
+        <v>10000000000</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="20">
+        <v>0.05</v>
+      </c>
+      <c r="H4" s="43">
+        <v>460</v>
+      </c>
+      <c r="I4" s="43">
+        <v>35</v>
+      </c>
+      <c r="J4" s="43">
+        <v>27</v>
+      </c>
+      <c r="K4" s="43" t="s">
+        <v>252</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" s="2">
+        <v>2000</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1.4E-2</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>1</v>
+      </c>
+      <c r="R4" s="2">
+        <v>0</v>
+      </c>
+      <c r="S4" s="2">
+        <v>0</v>
+      </c>
+      <c r="T4" s="2">
+        <v>20</v>
+      </c>
+      <c r="U4" s="2">
+        <v>5</v>
+      </c>
+      <c r="V4" s="2">
+        <v>1</v>
+      </c>
+      <c r="W4" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="X4" s="27" t="s">
+        <v>228</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE769AEC-4BA2-E142-B9E9-DE79EEBE4ACB}">
+  <dimension ref="A1:W2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>224</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="J1" s="36" t="s">
+        <v>222</v>
+      </c>
+      <c r="K1" s="36" t="s">
+        <v>225</v>
+      </c>
+      <c r="L1" s="36" t="s">
+        <v>226</v>
+      </c>
+      <c r="M1" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="U1" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="V1" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="W1" s="40" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D2" s="17">
+        <v>0</v>
+      </c>
+      <c r="E2" s="17">
+        <v>100000000</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="17">
+        <v>1500</v>
+      </c>
+      <c r="I2" s="17">
+        <v>1</v>
+      </c>
+      <c r="J2" s="17">
+        <v>1500</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0</v>
+      </c>
+      <c r="O2" s="2">
+        <v>2.87E-2</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0</v>
+      </c>
+      <c r="R2" s="2">
+        <v>0</v>
+      </c>
+      <c r="S2" s="2">
+        <v>20</v>
+      </c>
+      <c r="T2" s="2">
+        <v>5</v>
+      </c>
+      <c r="U2" s="2">
+        <v>5</v>
+      </c>
+      <c r="V2" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="W2" s="27" t="s">
+        <v>227</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AFF6F14-A874-CB45-A2C1-8C31AFCB2875}">
   <dimension ref="A1:O3"/>
   <sheetViews>
@@ -2443,16 +3015,16 @@
       <selection activeCell="Y22" sqref="Y22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.453125" customWidth="1"/>
-    <col min="3" max="3" width="16.453125" customWidth="1"/>
-    <col min="4" max="5" width="15.453125" customWidth="1"/>
+    <col min="1" max="1" width="34.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="5" width="15.42578125" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="12" max="12" width="17.6328125" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2499,7 +3071,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>235</v>
       </c>
@@ -2545,7 +3117,7 @@
       </c>
       <c r="O2" s="2"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>235</v>
       </c>
@@ -2591,1052 +3163,6 @@
       </c>
       <c r="O3" s="2" t="s">
         <v>233</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70485D6F-84D6-CE40-9068-BC69269F5FF1}">
-  <dimension ref="A1:U11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="45.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" customWidth="1"/>
-    <col min="4" max="5" width="15.6328125" customWidth="1"/>
-    <col min="6" max="6" width="11.1796875" customWidth="1"/>
-    <col min="7" max="7" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="33.36328125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="93.81640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="36" t="s">
-        <v>153</v>
-      </c>
-      <c r="H1" s="36" t="s">
-        <v>131</v>
-      </c>
-      <c r="I1" s="36" t="s">
-        <v>144</v>
-      </c>
-      <c r="J1" s="36" t="s">
-        <v>145</v>
-      </c>
-      <c r="K1" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="M1" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="N1" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="O1" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q1" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="R1" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="S1" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="T1" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="U1" s="36" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D2" s="17">
-        <v>0</v>
-      </c>
-      <c r="E2" s="17">
-        <v>19000</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="2">
-        <v>3.7</v>
-      </c>
-      <c r="H2" s="2">
-        <v>230</v>
-      </c>
-      <c r="I2" s="2">
-        <v>27</v>
-      </c>
-      <c r="J2" s="2">
-        <v>35</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" s="2">
-        <v>0</v>
-      </c>
-      <c r="M2" s="2">
-        <v>1.6</v>
-      </c>
-      <c r="N2" s="2">
-        <v>1</v>
-      </c>
-      <c r="O2" s="2">
-        <v>0</v>
-      </c>
-      <c r="P2" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>25</v>
-      </c>
-      <c r="R2" s="2">
-        <v>5</v>
-      </c>
-      <c r="S2" s="2">
-        <v>5</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D3" s="17">
-        <v>0</v>
-      </c>
-      <c r="E3" s="17">
-        <v>19000</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="2">
-        <v>3.5</v>
-      </c>
-      <c r="H3" s="2">
-        <v>230</v>
-      </c>
-      <c r="I3" s="2">
-        <v>27</v>
-      </c>
-      <c r="J3" s="2">
-        <v>35</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" s="2">
-        <v>0</v>
-      </c>
-      <c r="M3" s="2">
-        <v>1.6</v>
-      </c>
-      <c r="N3" s="2">
-        <v>1</v>
-      </c>
-      <c r="O3" s="2">
-        <v>0</v>
-      </c>
-      <c r="P3" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>25</v>
-      </c>
-      <c r="R3" s="2">
-        <v>5</v>
-      </c>
-      <c r="S3" s="2">
-        <v>5</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="O9" s="10"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="O11" s="10"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:W11"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB25" sqref="AB25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15.1796875" customWidth="1"/>
-    <col min="6" max="6" width="6.81640625" customWidth="1"/>
-    <col min="7" max="7" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.81640625" customWidth="1"/>
-    <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.36328125" customWidth="1"/>
-    <col min="16" max="16" width="12.453125" customWidth="1"/>
-    <col min="17" max="17" width="12" customWidth="1"/>
-    <col min="22" max="22" width="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="32.453125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="40" t="s">
-        <v>207</v>
-      </c>
-      <c r="H1" s="40" t="s">
-        <v>131</v>
-      </c>
-      <c r="I1" s="40" t="s">
-        <v>129</v>
-      </c>
-      <c r="J1" s="40" t="s">
-        <v>130</v>
-      </c>
-      <c r="K1" s="40" t="s">
-        <v>203</v>
-      </c>
-      <c r="L1" s="40" t="s">
-        <v>204</v>
-      </c>
-      <c r="M1" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="N1" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="O1" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="P1" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q1" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="R1" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="S1" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="T1" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="U1" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="V1" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="W1" s="40" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="D2" s="17">
-        <v>0</v>
-      </c>
-      <c r="E2" s="17">
-        <v>40000</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="11">
-        <v>3.1</v>
-      </c>
-      <c r="H2" s="11">
-        <v>380</v>
-      </c>
-      <c r="I2" s="11">
-        <v>0</v>
-      </c>
-      <c r="J2" s="11">
-        <v>27</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="M2" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="N2" s="2">
-        <v>0</v>
-      </c>
-      <c r="O2" s="2">
-        <f>177.8/0.902</f>
-        <v>197.11751662971176</v>
-      </c>
-      <c r="P2" s="2">
-        <v>0.49</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>0</v>
-      </c>
-      <c r="R2" s="2">
-        <v>0</v>
-      </c>
-      <c r="S2" s="2">
-        <v>20</v>
-      </c>
-      <c r="T2" s="2">
-        <v>1</v>
-      </c>
-      <c r="U2" s="2">
-        <v>5</v>
-      </c>
-      <c r="V2" s="14"/>
-      <c r="W2" s="27" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="D3" s="17">
-        <v>40000</v>
-      </c>
-      <c r="E3" s="17">
-        <v>100000000</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="11">
-        <v>2.8</v>
-      </c>
-      <c r="H3" s="11">
-        <v>380</v>
-      </c>
-      <c r="I3" s="11">
-        <v>0</v>
-      </c>
-      <c r="J3" s="11">
-        <v>27</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="M3" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="N3" s="2">
-        <v>0</v>
-      </c>
-      <c r="O3" s="2">
-        <f>177.8/0.902</f>
-        <v>197.11751662971176</v>
-      </c>
-      <c r="P3" s="2">
-        <v>0.49</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>0</v>
-      </c>
-      <c r="R3" s="2">
-        <v>0</v>
-      </c>
-      <c r="S3" s="2">
-        <v>20</v>
-      </c>
-      <c r="T3" s="2">
-        <v>1</v>
-      </c>
-      <c r="U3" s="2">
-        <v>5</v>
-      </c>
-      <c r="V3" s="14"/>
-      <c r="W3" s="27" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="D4" s="17">
-        <v>0</v>
-      </c>
-      <c r="E4" s="17">
-        <v>21000</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="11">
-        <v>4.3</v>
-      </c>
-      <c r="H4" s="11">
-        <v>380</v>
-      </c>
-      <c r="I4" s="11">
-        <v>20</v>
-      </c>
-      <c r="J4" s="11">
-        <v>27</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="L4" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="M4" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="N4" s="2">
-        <v>0</v>
-      </c>
-      <c r="O4" s="2">
-        <f>8893/0.902/1000</f>
-        <v>9.8592017738359186</v>
-      </c>
-      <c r="P4" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>0</v>
-      </c>
-      <c r="R4" s="2">
-        <f>-493.53/0.902/1000</f>
-        <v>-0.54715077605321505</v>
-      </c>
-      <c r="S4" s="2">
-        <v>25</v>
-      </c>
-      <c r="T4" s="2">
-        <v>5</v>
-      </c>
-      <c r="U4" s="2">
-        <v>6</v>
-      </c>
-      <c r="V4" s="14"/>
-      <c r="W4" s="27" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="D5" s="17">
-        <v>21000</v>
-      </c>
-      <c r="E5" s="17">
-        <v>40000</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="11">
-        <v>4.3</v>
-      </c>
-      <c r="H5" s="11">
-        <v>380</v>
-      </c>
-      <c r="I5" s="11">
-        <v>20</v>
-      </c>
-      <c r="J5" s="11">
-        <v>27</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="L5" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="M5" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="N5" s="2">
-        <v>0</v>
-      </c>
-      <c r="O5" s="2">
-        <f>8893/0.902/1000</f>
-        <v>9.8592017738359186</v>
-      </c>
-      <c r="P5" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>0</v>
-      </c>
-      <c r="R5" s="2">
-        <f>-493.53/0.902/1000</f>
-        <v>-0.54715077605321505</v>
-      </c>
-      <c r="S5" s="2">
-        <v>25</v>
-      </c>
-      <c r="T5" s="2">
-        <v>5</v>
-      </c>
-      <c r="U5" s="2">
-        <v>6</v>
-      </c>
-      <c r="V5" s="14"/>
-      <c r="W5" s="27" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="D6" s="17">
-        <v>40000</v>
-      </c>
-      <c r="E6" s="17">
-        <v>75000</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="11">
-        <v>4</v>
-      </c>
-      <c r="H6" s="11">
-        <v>380</v>
-      </c>
-      <c r="I6" s="11">
-        <v>20</v>
-      </c>
-      <c r="J6" s="11">
-        <v>27</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="L6" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="M6" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="N6" s="2">
-        <v>0</v>
-      </c>
-      <c r="O6" s="2">
-        <f>8893/0.902/1000</f>
-        <v>9.8592017738359186</v>
-      </c>
-      <c r="P6" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>0</v>
-      </c>
-      <c r="R6" s="2">
-        <f>-493.53/0.902/1000</f>
-        <v>-0.54715077605321505</v>
-      </c>
-      <c r="S6" s="2">
-        <v>25</v>
-      </c>
-      <c r="T6" s="2">
-        <v>5</v>
-      </c>
-      <c r="U6" s="2">
-        <v>6</v>
-      </c>
-      <c r="V6" s="14"/>
-      <c r="W6" s="27" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="D7" s="17">
-        <v>75000</v>
-      </c>
-      <c r="E7" s="17">
-        <v>20000000</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="11">
-        <v>3.9</v>
-      </c>
-      <c r="H7" s="11">
-        <v>380</v>
-      </c>
-      <c r="I7" s="11">
-        <v>20</v>
-      </c>
-      <c r="J7" s="11">
-        <v>27</v>
-      </c>
-      <c r="K7" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="L7" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="M7" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="N7" s="2">
-        <v>0</v>
-      </c>
-      <c r="O7" s="2">
-        <f>8893/0.902/1000</f>
-        <v>9.8592017738359186</v>
-      </c>
-      <c r="P7" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>0</v>
-      </c>
-      <c r="R7" s="2">
-        <f>-493.53/0.902/1000</f>
-        <v>-0.54715077605321505</v>
-      </c>
-      <c r="S7" s="2">
-        <v>25</v>
-      </c>
-      <c r="T7" s="2">
-        <v>5</v>
-      </c>
-      <c r="U7" s="2">
-        <v>6</v>
-      </c>
-      <c r="V7" s="14"/>
-      <c r="W7" s="27" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="D8" s="17">
-        <v>0</v>
-      </c>
-      <c r="E8" s="17">
-        <v>21000</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="11">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="H8" s="11">
-        <v>230</v>
-      </c>
-      <c r="I8" s="11">
-        <v>7</v>
-      </c>
-      <c r="J8" s="11">
-        <v>35</v>
-      </c>
-      <c r="K8" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="L8" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="M8" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="N8" s="2">
-        <v>0</v>
-      </c>
-      <c r="O8" s="2">
-        <f>7.7</f>
-        <v>7.7</v>
-      </c>
-      <c r="P8" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>0</v>
-      </c>
-      <c r="R8" s="2">
-        <v>0</v>
-      </c>
-      <c r="S8" s="2">
-        <v>25</v>
-      </c>
-      <c r="T8" s="2">
-        <v>5</v>
-      </c>
-      <c r="U8" s="2">
-        <v>6</v>
-      </c>
-      <c r="V8" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="W8" s="27" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="D9" s="17">
-        <v>21000</v>
-      </c>
-      <c r="E9" s="17">
-        <v>40000</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="11">
-        <v>3.3</v>
-      </c>
-      <c r="H9" s="11">
-        <v>230</v>
-      </c>
-      <c r="I9" s="11">
-        <v>7</v>
-      </c>
-      <c r="J9" s="11">
-        <v>35</v>
-      </c>
-      <c r="K9" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="L9" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="M9" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="N9" s="2">
-        <v>0</v>
-      </c>
-      <c r="O9" s="2">
-        <f>7.7</f>
-        <v>7.7</v>
-      </c>
-      <c r="P9" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="2">
-        <v>0</v>
-      </c>
-      <c r="R9" s="2">
-        <v>0</v>
-      </c>
-      <c r="S9" s="2">
-        <v>25</v>
-      </c>
-      <c r="T9" s="2">
-        <v>5</v>
-      </c>
-      <c r="U9" s="2">
-        <v>6</v>
-      </c>
-      <c r="V9" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="W9" s="27" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="D10" s="17">
-        <v>40000</v>
-      </c>
-      <c r="E10" s="17">
-        <v>75000</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="11">
-        <v>3.3</v>
-      </c>
-      <c r="H10" s="11">
-        <v>230</v>
-      </c>
-      <c r="I10" s="11">
-        <v>7</v>
-      </c>
-      <c r="J10" s="11">
-        <v>35</v>
-      </c>
-      <c r="K10" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="L10" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="M10" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="N10" s="2">
-        <v>0</v>
-      </c>
-      <c r="O10" s="2">
-        <f>7.7</f>
-        <v>7.7</v>
-      </c>
-      <c r="P10" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="2">
-        <v>0</v>
-      </c>
-      <c r="R10" s="2">
-        <v>0</v>
-      </c>
-      <c r="S10" s="2">
-        <v>25</v>
-      </c>
-      <c r="T10" s="2">
-        <v>5</v>
-      </c>
-      <c r="U10" s="2">
-        <v>6</v>
-      </c>
-      <c r="V10" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="W10" s="27" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="D11" s="17">
-        <v>75000</v>
-      </c>
-      <c r="E11" s="17">
-        <v>10000000</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" s="11">
-        <v>3.2</v>
-      </c>
-      <c r="H11" s="11">
-        <v>230</v>
-      </c>
-      <c r="I11" s="11">
-        <v>7</v>
-      </c>
-      <c r="J11" s="11">
-        <v>35</v>
-      </c>
-      <c r="K11" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="L11" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="M11" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="N11" s="2">
-        <v>0</v>
-      </c>
-      <c r="O11" s="2">
-        <f>7.7</f>
-        <v>7.7</v>
-      </c>
-      <c r="P11" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="2">
-        <v>0</v>
-      </c>
-      <c r="R11" s="2">
-        <v>0</v>
-      </c>
-      <c r="S11" s="2">
-        <v>25</v>
-      </c>
-      <c r="T11" s="2">
-        <v>5</v>
-      </c>
-      <c r="U11" s="2">
-        <v>6</v>
-      </c>
-      <c r="V11" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="W11" s="27" t="s">
-        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -3648,665 +3174,35 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:Z8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70485D6F-84D6-CE40-9068-BC69269F5FF1}">
+  <dimension ref="A1:U11"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="AB23" sqref="AB23"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.36328125" customWidth="1"/>
-    <col min="2" max="2" width="12.6328125" customWidth="1"/>
-    <col min="3" max="3" width="19.6328125" customWidth="1"/>
-    <col min="4" max="5" width="19.36328125" customWidth="1"/>
-    <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7" customWidth="1"/>
-    <col min="26" max="26" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="257" max="257" width="43.36328125" customWidth="1"/>
-    <col min="258" max="258" width="12.6328125" customWidth="1"/>
-    <col min="259" max="259" width="19.6328125" customWidth="1"/>
-    <col min="260" max="261" width="19.36328125" customWidth="1"/>
-    <col min="270" max="270" width="10" bestFit="1" customWidth="1"/>
-    <col min="271" max="271" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="274" max="274" width="10" bestFit="1" customWidth="1"/>
-    <col min="278" max="278" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="280" max="280" width="7" customWidth="1"/>
-    <col min="282" max="282" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="513" max="513" width="43.36328125" customWidth="1"/>
-    <col min="514" max="514" width="12.6328125" customWidth="1"/>
-    <col min="515" max="515" width="19.6328125" customWidth="1"/>
-    <col min="516" max="517" width="19.36328125" customWidth="1"/>
-    <col min="526" max="526" width="10" bestFit="1" customWidth="1"/>
-    <col min="527" max="527" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="530" max="530" width="10" bestFit="1" customWidth="1"/>
-    <col min="534" max="534" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="536" max="536" width="7" customWidth="1"/>
-    <col min="538" max="538" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="769" max="769" width="43.36328125" customWidth="1"/>
-    <col min="770" max="770" width="12.6328125" customWidth="1"/>
-    <col min="771" max="771" width="19.6328125" customWidth="1"/>
-    <col min="772" max="773" width="19.36328125" customWidth="1"/>
-    <col min="782" max="782" width="10" bestFit="1" customWidth="1"/>
-    <col min="783" max="783" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="786" max="786" width="10" bestFit="1" customWidth="1"/>
-    <col min="790" max="790" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="792" max="792" width="7" customWidth="1"/>
-    <col min="794" max="794" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="1025" max="1025" width="43.36328125" customWidth="1"/>
-    <col min="1026" max="1026" width="12.6328125" customWidth="1"/>
-    <col min="1027" max="1027" width="19.6328125" customWidth="1"/>
-    <col min="1028" max="1029" width="19.36328125" customWidth="1"/>
-    <col min="1038" max="1038" width="10" bestFit="1" customWidth="1"/>
-    <col min="1039" max="1039" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="1042" max="1042" width="10" bestFit="1" customWidth="1"/>
-    <col min="1046" max="1046" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="1048" max="1048" width="7" customWidth="1"/>
-    <col min="1050" max="1050" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="1281" max="1281" width="43.36328125" customWidth="1"/>
-    <col min="1282" max="1282" width="12.6328125" customWidth="1"/>
-    <col min="1283" max="1283" width="19.6328125" customWidth="1"/>
-    <col min="1284" max="1285" width="19.36328125" customWidth="1"/>
-    <col min="1294" max="1294" width="10" bestFit="1" customWidth="1"/>
-    <col min="1295" max="1295" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="1298" max="1298" width="10" bestFit="1" customWidth="1"/>
-    <col min="1302" max="1302" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="1304" max="1304" width="7" customWidth="1"/>
-    <col min="1306" max="1306" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="1537" max="1537" width="43.36328125" customWidth="1"/>
-    <col min="1538" max="1538" width="12.6328125" customWidth="1"/>
-    <col min="1539" max="1539" width="19.6328125" customWidth="1"/>
-    <col min="1540" max="1541" width="19.36328125" customWidth="1"/>
-    <col min="1550" max="1550" width="10" bestFit="1" customWidth="1"/>
-    <col min="1551" max="1551" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="1554" max="1554" width="10" bestFit="1" customWidth="1"/>
-    <col min="1558" max="1558" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="1560" max="1560" width="7" customWidth="1"/>
-    <col min="1562" max="1562" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="1793" max="1793" width="43.36328125" customWidth="1"/>
-    <col min="1794" max="1794" width="12.6328125" customWidth="1"/>
-    <col min="1795" max="1795" width="19.6328125" customWidth="1"/>
-    <col min="1796" max="1797" width="19.36328125" customWidth="1"/>
-    <col min="1806" max="1806" width="10" bestFit="1" customWidth="1"/>
-    <col min="1807" max="1807" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="1810" max="1810" width="10" bestFit="1" customWidth="1"/>
-    <col min="1814" max="1814" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="1816" max="1816" width="7" customWidth="1"/>
-    <col min="1818" max="1818" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="2049" max="2049" width="43.36328125" customWidth="1"/>
-    <col min="2050" max="2050" width="12.6328125" customWidth="1"/>
-    <col min="2051" max="2051" width="19.6328125" customWidth="1"/>
-    <col min="2052" max="2053" width="19.36328125" customWidth="1"/>
-    <col min="2062" max="2062" width="10" bestFit="1" customWidth="1"/>
-    <col min="2063" max="2063" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="2066" max="2066" width="10" bestFit="1" customWidth="1"/>
-    <col min="2070" max="2070" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="2072" max="2072" width="7" customWidth="1"/>
-    <col min="2074" max="2074" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="2305" max="2305" width="43.36328125" customWidth="1"/>
-    <col min="2306" max="2306" width="12.6328125" customWidth="1"/>
-    <col min="2307" max="2307" width="19.6328125" customWidth="1"/>
-    <col min="2308" max="2309" width="19.36328125" customWidth="1"/>
-    <col min="2318" max="2318" width="10" bestFit="1" customWidth="1"/>
-    <col min="2319" max="2319" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="2322" max="2322" width="10" bestFit="1" customWidth="1"/>
-    <col min="2326" max="2326" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="2328" max="2328" width="7" customWidth="1"/>
-    <col min="2330" max="2330" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="2561" max="2561" width="43.36328125" customWidth="1"/>
-    <col min="2562" max="2562" width="12.6328125" customWidth="1"/>
-    <col min="2563" max="2563" width="19.6328125" customWidth="1"/>
-    <col min="2564" max="2565" width="19.36328125" customWidth="1"/>
-    <col min="2574" max="2574" width="10" bestFit="1" customWidth="1"/>
-    <col min="2575" max="2575" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="2578" max="2578" width="10" bestFit="1" customWidth="1"/>
-    <col min="2582" max="2582" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="2584" max="2584" width="7" customWidth="1"/>
-    <col min="2586" max="2586" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="2817" max="2817" width="43.36328125" customWidth="1"/>
-    <col min="2818" max="2818" width="12.6328125" customWidth="1"/>
-    <col min="2819" max="2819" width="19.6328125" customWidth="1"/>
-    <col min="2820" max="2821" width="19.36328125" customWidth="1"/>
-    <col min="2830" max="2830" width="10" bestFit="1" customWidth="1"/>
-    <col min="2831" max="2831" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="2834" max="2834" width="10" bestFit="1" customWidth="1"/>
-    <col min="2838" max="2838" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="2840" max="2840" width="7" customWidth="1"/>
-    <col min="2842" max="2842" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="3073" max="3073" width="43.36328125" customWidth="1"/>
-    <col min="3074" max="3074" width="12.6328125" customWidth="1"/>
-    <col min="3075" max="3075" width="19.6328125" customWidth="1"/>
-    <col min="3076" max="3077" width="19.36328125" customWidth="1"/>
-    <col min="3086" max="3086" width="10" bestFit="1" customWidth="1"/>
-    <col min="3087" max="3087" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="3090" max="3090" width="10" bestFit="1" customWidth="1"/>
-    <col min="3094" max="3094" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="3096" max="3096" width="7" customWidth="1"/>
-    <col min="3098" max="3098" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="3329" max="3329" width="43.36328125" customWidth="1"/>
-    <col min="3330" max="3330" width="12.6328125" customWidth="1"/>
-    <col min="3331" max="3331" width="19.6328125" customWidth="1"/>
-    <col min="3332" max="3333" width="19.36328125" customWidth="1"/>
-    <col min="3342" max="3342" width="10" bestFit="1" customWidth="1"/>
-    <col min="3343" max="3343" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="3346" max="3346" width="10" bestFit="1" customWidth="1"/>
-    <col min="3350" max="3350" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="3352" max="3352" width="7" customWidth="1"/>
-    <col min="3354" max="3354" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="3585" max="3585" width="43.36328125" customWidth="1"/>
-    <col min="3586" max="3586" width="12.6328125" customWidth="1"/>
-    <col min="3587" max="3587" width="19.6328125" customWidth="1"/>
-    <col min="3588" max="3589" width="19.36328125" customWidth="1"/>
-    <col min="3598" max="3598" width="10" bestFit="1" customWidth="1"/>
-    <col min="3599" max="3599" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="3602" max="3602" width="10" bestFit="1" customWidth="1"/>
-    <col min="3606" max="3606" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="3608" max="3608" width="7" customWidth="1"/>
-    <col min="3610" max="3610" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="3841" max="3841" width="43.36328125" customWidth="1"/>
-    <col min="3842" max="3842" width="12.6328125" customWidth="1"/>
-    <col min="3843" max="3843" width="19.6328125" customWidth="1"/>
-    <col min="3844" max="3845" width="19.36328125" customWidth="1"/>
-    <col min="3854" max="3854" width="10" bestFit="1" customWidth="1"/>
-    <col min="3855" max="3855" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="3858" max="3858" width="10" bestFit="1" customWidth="1"/>
-    <col min="3862" max="3862" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="3864" max="3864" width="7" customWidth="1"/>
-    <col min="3866" max="3866" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="4097" max="4097" width="43.36328125" customWidth="1"/>
-    <col min="4098" max="4098" width="12.6328125" customWidth="1"/>
-    <col min="4099" max="4099" width="19.6328125" customWidth="1"/>
-    <col min="4100" max="4101" width="19.36328125" customWidth="1"/>
-    <col min="4110" max="4110" width="10" bestFit="1" customWidth="1"/>
-    <col min="4111" max="4111" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="4114" max="4114" width="10" bestFit="1" customWidth="1"/>
-    <col min="4118" max="4118" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="4120" max="4120" width="7" customWidth="1"/>
-    <col min="4122" max="4122" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="4353" max="4353" width="43.36328125" customWidth="1"/>
-    <col min="4354" max="4354" width="12.6328125" customWidth="1"/>
-    <col min="4355" max="4355" width="19.6328125" customWidth="1"/>
-    <col min="4356" max="4357" width="19.36328125" customWidth="1"/>
-    <col min="4366" max="4366" width="10" bestFit="1" customWidth="1"/>
-    <col min="4367" max="4367" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="4370" max="4370" width="10" bestFit="1" customWidth="1"/>
-    <col min="4374" max="4374" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="4376" max="4376" width="7" customWidth="1"/>
-    <col min="4378" max="4378" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="4609" max="4609" width="43.36328125" customWidth="1"/>
-    <col min="4610" max="4610" width="12.6328125" customWidth="1"/>
-    <col min="4611" max="4611" width="19.6328125" customWidth="1"/>
-    <col min="4612" max="4613" width="19.36328125" customWidth="1"/>
-    <col min="4622" max="4622" width="10" bestFit="1" customWidth="1"/>
-    <col min="4623" max="4623" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="4626" max="4626" width="10" bestFit="1" customWidth="1"/>
-    <col min="4630" max="4630" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="4632" max="4632" width="7" customWidth="1"/>
-    <col min="4634" max="4634" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="4865" max="4865" width="43.36328125" customWidth="1"/>
-    <col min="4866" max="4866" width="12.6328125" customWidth="1"/>
-    <col min="4867" max="4867" width="19.6328125" customWidth="1"/>
-    <col min="4868" max="4869" width="19.36328125" customWidth="1"/>
-    <col min="4878" max="4878" width="10" bestFit="1" customWidth="1"/>
-    <col min="4879" max="4879" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="4882" max="4882" width="10" bestFit="1" customWidth="1"/>
-    <col min="4886" max="4886" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="4888" max="4888" width="7" customWidth="1"/>
-    <col min="4890" max="4890" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="5121" max="5121" width="43.36328125" customWidth="1"/>
-    <col min="5122" max="5122" width="12.6328125" customWidth="1"/>
-    <col min="5123" max="5123" width="19.6328125" customWidth="1"/>
-    <col min="5124" max="5125" width="19.36328125" customWidth="1"/>
-    <col min="5134" max="5134" width="10" bestFit="1" customWidth="1"/>
-    <col min="5135" max="5135" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="5138" max="5138" width="10" bestFit="1" customWidth="1"/>
-    <col min="5142" max="5142" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="5144" max="5144" width="7" customWidth="1"/>
-    <col min="5146" max="5146" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="5377" max="5377" width="43.36328125" customWidth="1"/>
-    <col min="5378" max="5378" width="12.6328125" customWidth="1"/>
-    <col min="5379" max="5379" width="19.6328125" customWidth="1"/>
-    <col min="5380" max="5381" width="19.36328125" customWidth="1"/>
-    <col min="5390" max="5390" width="10" bestFit="1" customWidth="1"/>
-    <col min="5391" max="5391" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="5394" max="5394" width="10" bestFit="1" customWidth="1"/>
-    <col min="5398" max="5398" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="5400" max="5400" width="7" customWidth="1"/>
-    <col min="5402" max="5402" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="5633" max="5633" width="43.36328125" customWidth="1"/>
-    <col min="5634" max="5634" width="12.6328125" customWidth="1"/>
-    <col min="5635" max="5635" width="19.6328125" customWidth="1"/>
-    <col min="5636" max="5637" width="19.36328125" customWidth="1"/>
-    <col min="5646" max="5646" width="10" bestFit="1" customWidth="1"/>
-    <col min="5647" max="5647" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="5650" max="5650" width="10" bestFit="1" customWidth="1"/>
-    <col min="5654" max="5654" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="5656" max="5656" width="7" customWidth="1"/>
-    <col min="5658" max="5658" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="5889" max="5889" width="43.36328125" customWidth="1"/>
-    <col min="5890" max="5890" width="12.6328125" customWidth="1"/>
-    <col min="5891" max="5891" width="19.6328125" customWidth="1"/>
-    <col min="5892" max="5893" width="19.36328125" customWidth="1"/>
-    <col min="5902" max="5902" width="10" bestFit="1" customWidth="1"/>
-    <col min="5903" max="5903" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="5906" max="5906" width="10" bestFit="1" customWidth="1"/>
-    <col min="5910" max="5910" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="5912" max="5912" width="7" customWidth="1"/>
-    <col min="5914" max="5914" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="6145" max="6145" width="43.36328125" customWidth="1"/>
-    <col min="6146" max="6146" width="12.6328125" customWidth="1"/>
-    <col min="6147" max="6147" width="19.6328125" customWidth="1"/>
-    <col min="6148" max="6149" width="19.36328125" customWidth="1"/>
-    <col min="6158" max="6158" width="10" bestFit="1" customWidth="1"/>
-    <col min="6159" max="6159" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="6162" max="6162" width="10" bestFit="1" customWidth="1"/>
-    <col min="6166" max="6166" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="6168" max="6168" width="7" customWidth="1"/>
-    <col min="6170" max="6170" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="6401" max="6401" width="43.36328125" customWidth="1"/>
-    <col min="6402" max="6402" width="12.6328125" customWidth="1"/>
-    <col min="6403" max="6403" width="19.6328125" customWidth="1"/>
-    <col min="6404" max="6405" width="19.36328125" customWidth="1"/>
-    <col min="6414" max="6414" width="10" bestFit="1" customWidth="1"/>
-    <col min="6415" max="6415" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="6418" max="6418" width="10" bestFit="1" customWidth="1"/>
-    <col min="6422" max="6422" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="6424" max="6424" width="7" customWidth="1"/>
-    <col min="6426" max="6426" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="6657" max="6657" width="43.36328125" customWidth="1"/>
-    <col min="6658" max="6658" width="12.6328125" customWidth="1"/>
-    <col min="6659" max="6659" width="19.6328125" customWidth="1"/>
-    <col min="6660" max="6661" width="19.36328125" customWidth="1"/>
-    <col min="6670" max="6670" width="10" bestFit="1" customWidth="1"/>
-    <col min="6671" max="6671" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="6674" max="6674" width="10" bestFit="1" customWidth="1"/>
-    <col min="6678" max="6678" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="6680" max="6680" width="7" customWidth="1"/>
-    <col min="6682" max="6682" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="6913" max="6913" width="43.36328125" customWidth="1"/>
-    <col min="6914" max="6914" width="12.6328125" customWidth="1"/>
-    <col min="6915" max="6915" width="19.6328125" customWidth="1"/>
-    <col min="6916" max="6917" width="19.36328125" customWidth="1"/>
-    <col min="6926" max="6926" width="10" bestFit="1" customWidth="1"/>
-    <col min="6927" max="6927" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="6930" max="6930" width="10" bestFit="1" customWidth="1"/>
-    <col min="6934" max="6934" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="6936" max="6936" width="7" customWidth="1"/>
-    <col min="6938" max="6938" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="7169" max="7169" width="43.36328125" customWidth="1"/>
-    <col min="7170" max="7170" width="12.6328125" customWidth="1"/>
-    <col min="7171" max="7171" width="19.6328125" customWidth="1"/>
-    <col min="7172" max="7173" width="19.36328125" customWidth="1"/>
-    <col min="7182" max="7182" width="10" bestFit="1" customWidth="1"/>
-    <col min="7183" max="7183" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="7186" max="7186" width="10" bestFit="1" customWidth="1"/>
-    <col min="7190" max="7190" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="7192" max="7192" width="7" customWidth="1"/>
-    <col min="7194" max="7194" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="7425" max="7425" width="43.36328125" customWidth="1"/>
-    <col min="7426" max="7426" width="12.6328125" customWidth="1"/>
-    <col min="7427" max="7427" width="19.6328125" customWidth="1"/>
-    <col min="7428" max="7429" width="19.36328125" customWidth="1"/>
-    <col min="7438" max="7438" width="10" bestFit="1" customWidth="1"/>
-    <col min="7439" max="7439" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="7442" max="7442" width="10" bestFit="1" customWidth="1"/>
-    <col min="7446" max="7446" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="7448" max="7448" width="7" customWidth="1"/>
-    <col min="7450" max="7450" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="7681" max="7681" width="43.36328125" customWidth="1"/>
-    <col min="7682" max="7682" width="12.6328125" customWidth="1"/>
-    <col min="7683" max="7683" width="19.6328125" customWidth="1"/>
-    <col min="7684" max="7685" width="19.36328125" customWidth="1"/>
-    <col min="7694" max="7694" width="10" bestFit="1" customWidth="1"/>
-    <col min="7695" max="7695" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="7698" max="7698" width="10" bestFit="1" customWidth="1"/>
-    <col min="7702" max="7702" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="7704" max="7704" width="7" customWidth="1"/>
-    <col min="7706" max="7706" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="7937" max="7937" width="43.36328125" customWidth="1"/>
-    <col min="7938" max="7938" width="12.6328125" customWidth="1"/>
-    <col min="7939" max="7939" width="19.6328125" customWidth="1"/>
-    <col min="7940" max="7941" width="19.36328125" customWidth="1"/>
-    <col min="7950" max="7950" width="10" bestFit="1" customWidth="1"/>
-    <col min="7951" max="7951" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="7954" max="7954" width="10" bestFit="1" customWidth="1"/>
-    <col min="7958" max="7958" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="7960" max="7960" width="7" customWidth="1"/>
-    <col min="7962" max="7962" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="8193" max="8193" width="43.36328125" customWidth="1"/>
-    <col min="8194" max="8194" width="12.6328125" customWidth="1"/>
-    <col min="8195" max="8195" width="19.6328125" customWidth="1"/>
-    <col min="8196" max="8197" width="19.36328125" customWidth="1"/>
-    <col min="8206" max="8206" width="10" bestFit="1" customWidth="1"/>
-    <col min="8207" max="8207" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="8210" max="8210" width="10" bestFit="1" customWidth="1"/>
-    <col min="8214" max="8214" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="8216" max="8216" width="7" customWidth="1"/>
-    <col min="8218" max="8218" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="8449" max="8449" width="43.36328125" customWidth="1"/>
-    <col min="8450" max="8450" width="12.6328125" customWidth="1"/>
-    <col min="8451" max="8451" width="19.6328125" customWidth="1"/>
-    <col min="8452" max="8453" width="19.36328125" customWidth="1"/>
-    <col min="8462" max="8462" width="10" bestFit="1" customWidth="1"/>
-    <col min="8463" max="8463" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="8466" max="8466" width="10" bestFit="1" customWidth="1"/>
-    <col min="8470" max="8470" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="8472" max="8472" width="7" customWidth="1"/>
-    <col min="8474" max="8474" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="8705" max="8705" width="43.36328125" customWidth="1"/>
-    <col min="8706" max="8706" width="12.6328125" customWidth="1"/>
-    <col min="8707" max="8707" width="19.6328125" customWidth="1"/>
-    <col min="8708" max="8709" width="19.36328125" customWidth="1"/>
-    <col min="8718" max="8718" width="10" bestFit="1" customWidth="1"/>
-    <col min="8719" max="8719" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="8722" max="8722" width="10" bestFit="1" customWidth="1"/>
-    <col min="8726" max="8726" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="8728" max="8728" width="7" customWidth="1"/>
-    <col min="8730" max="8730" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="8961" max="8961" width="43.36328125" customWidth="1"/>
-    <col min="8962" max="8962" width="12.6328125" customWidth="1"/>
-    <col min="8963" max="8963" width="19.6328125" customWidth="1"/>
-    <col min="8964" max="8965" width="19.36328125" customWidth="1"/>
-    <col min="8974" max="8974" width="10" bestFit="1" customWidth="1"/>
-    <col min="8975" max="8975" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="8978" max="8978" width="10" bestFit="1" customWidth="1"/>
-    <col min="8982" max="8982" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="8984" max="8984" width="7" customWidth="1"/>
-    <col min="8986" max="8986" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="9217" max="9217" width="43.36328125" customWidth="1"/>
-    <col min="9218" max="9218" width="12.6328125" customWidth="1"/>
-    <col min="9219" max="9219" width="19.6328125" customWidth="1"/>
-    <col min="9220" max="9221" width="19.36328125" customWidth="1"/>
-    <col min="9230" max="9230" width="10" bestFit="1" customWidth="1"/>
-    <col min="9231" max="9231" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="9234" max="9234" width="10" bestFit="1" customWidth="1"/>
-    <col min="9238" max="9238" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="9240" max="9240" width="7" customWidth="1"/>
-    <col min="9242" max="9242" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="9473" max="9473" width="43.36328125" customWidth="1"/>
-    <col min="9474" max="9474" width="12.6328125" customWidth="1"/>
-    <col min="9475" max="9475" width="19.6328125" customWidth="1"/>
-    <col min="9476" max="9477" width="19.36328125" customWidth="1"/>
-    <col min="9486" max="9486" width="10" bestFit="1" customWidth="1"/>
-    <col min="9487" max="9487" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="9490" max="9490" width="10" bestFit="1" customWidth="1"/>
-    <col min="9494" max="9494" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="9496" max="9496" width="7" customWidth="1"/>
-    <col min="9498" max="9498" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="9729" max="9729" width="43.36328125" customWidth="1"/>
-    <col min="9730" max="9730" width="12.6328125" customWidth="1"/>
-    <col min="9731" max="9731" width="19.6328125" customWidth="1"/>
-    <col min="9732" max="9733" width="19.36328125" customWidth="1"/>
-    <col min="9742" max="9742" width="10" bestFit="1" customWidth="1"/>
-    <col min="9743" max="9743" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="9746" max="9746" width="10" bestFit="1" customWidth="1"/>
-    <col min="9750" max="9750" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="9752" max="9752" width="7" customWidth="1"/>
-    <col min="9754" max="9754" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="9985" max="9985" width="43.36328125" customWidth="1"/>
-    <col min="9986" max="9986" width="12.6328125" customWidth="1"/>
-    <col min="9987" max="9987" width="19.6328125" customWidth="1"/>
-    <col min="9988" max="9989" width="19.36328125" customWidth="1"/>
-    <col min="9998" max="9998" width="10" bestFit="1" customWidth="1"/>
-    <col min="9999" max="9999" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="10002" max="10002" width="10" bestFit="1" customWidth="1"/>
-    <col min="10006" max="10006" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="10008" max="10008" width="7" customWidth="1"/>
-    <col min="10010" max="10010" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="10241" max="10241" width="43.36328125" customWidth="1"/>
-    <col min="10242" max="10242" width="12.6328125" customWidth="1"/>
-    <col min="10243" max="10243" width="19.6328125" customWidth="1"/>
-    <col min="10244" max="10245" width="19.36328125" customWidth="1"/>
-    <col min="10254" max="10254" width="10" bestFit="1" customWidth="1"/>
-    <col min="10255" max="10255" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="10258" max="10258" width="10" bestFit="1" customWidth="1"/>
-    <col min="10262" max="10262" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="10264" max="10264" width="7" customWidth="1"/>
-    <col min="10266" max="10266" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="10497" max="10497" width="43.36328125" customWidth="1"/>
-    <col min="10498" max="10498" width="12.6328125" customWidth="1"/>
-    <col min="10499" max="10499" width="19.6328125" customWidth="1"/>
-    <col min="10500" max="10501" width="19.36328125" customWidth="1"/>
-    <col min="10510" max="10510" width="10" bestFit="1" customWidth="1"/>
-    <col min="10511" max="10511" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="10514" max="10514" width="10" bestFit="1" customWidth="1"/>
-    <col min="10518" max="10518" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="10520" max="10520" width="7" customWidth="1"/>
-    <col min="10522" max="10522" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="10753" max="10753" width="43.36328125" customWidth="1"/>
-    <col min="10754" max="10754" width="12.6328125" customWidth="1"/>
-    <col min="10755" max="10755" width="19.6328125" customWidth="1"/>
-    <col min="10756" max="10757" width="19.36328125" customWidth="1"/>
-    <col min="10766" max="10766" width="10" bestFit="1" customWidth="1"/>
-    <col min="10767" max="10767" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="10770" max="10770" width="10" bestFit="1" customWidth="1"/>
-    <col min="10774" max="10774" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="10776" max="10776" width="7" customWidth="1"/>
-    <col min="10778" max="10778" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="11009" max="11009" width="43.36328125" customWidth="1"/>
-    <col min="11010" max="11010" width="12.6328125" customWidth="1"/>
-    <col min="11011" max="11011" width="19.6328125" customWidth="1"/>
-    <col min="11012" max="11013" width="19.36328125" customWidth="1"/>
-    <col min="11022" max="11022" width="10" bestFit="1" customWidth="1"/>
-    <col min="11023" max="11023" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="11026" max="11026" width="10" bestFit="1" customWidth="1"/>
-    <col min="11030" max="11030" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="11032" max="11032" width="7" customWidth="1"/>
-    <col min="11034" max="11034" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="11265" max="11265" width="43.36328125" customWidth="1"/>
-    <col min="11266" max="11266" width="12.6328125" customWidth="1"/>
-    <col min="11267" max="11267" width="19.6328125" customWidth="1"/>
-    <col min="11268" max="11269" width="19.36328125" customWidth="1"/>
-    <col min="11278" max="11278" width="10" bestFit="1" customWidth="1"/>
-    <col min="11279" max="11279" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="11282" max="11282" width="10" bestFit="1" customWidth="1"/>
-    <col min="11286" max="11286" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="11288" max="11288" width="7" customWidth="1"/>
-    <col min="11290" max="11290" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="11521" max="11521" width="43.36328125" customWidth="1"/>
-    <col min="11522" max="11522" width="12.6328125" customWidth="1"/>
-    <col min="11523" max="11523" width="19.6328125" customWidth="1"/>
-    <col min="11524" max="11525" width="19.36328125" customWidth="1"/>
-    <col min="11534" max="11534" width="10" bestFit="1" customWidth="1"/>
-    <col min="11535" max="11535" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="11538" max="11538" width="10" bestFit="1" customWidth="1"/>
-    <col min="11542" max="11542" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="11544" max="11544" width="7" customWidth="1"/>
-    <col min="11546" max="11546" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="11777" max="11777" width="43.36328125" customWidth="1"/>
-    <col min="11778" max="11778" width="12.6328125" customWidth="1"/>
-    <col min="11779" max="11779" width="19.6328125" customWidth="1"/>
-    <col min="11780" max="11781" width="19.36328125" customWidth="1"/>
-    <col min="11790" max="11790" width="10" bestFit="1" customWidth="1"/>
-    <col min="11791" max="11791" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="11794" max="11794" width="10" bestFit="1" customWidth="1"/>
-    <col min="11798" max="11798" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="11800" max="11800" width="7" customWidth="1"/>
-    <col min="11802" max="11802" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="12033" max="12033" width="43.36328125" customWidth="1"/>
-    <col min="12034" max="12034" width="12.6328125" customWidth="1"/>
-    <col min="12035" max="12035" width="19.6328125" customWidth="1"/>
-    <col min="12036" max="12037" width="19.36328125" customWidth="1"/>
-    <col min="12046" max="12046" width="10" bestFit="1" customWidth="1"/>
-    <col min="12047" max="12047" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="12050" max="12050" width="10" bestFit="1" customWidth="1"/>
-    <col min="12054" max="12054" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="12056" max="12056" width="7" customWidth="1"/>
-    <col min="12058" max="12058" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="12289" max="12289" width="43.36328125" customWidth="1"/>
-    <col min="12290" max="12290" width="12.6328125" customWidth="1"/>
-    <col min="12291" max="12291" width="19.6328125" customWidth="1"/>
-    <col min="12292" max="12293" width="19.36328125" customWidth="1"/>
-    <col min="12302" max="12302" width="10" bestFit="1" customWidth="1"/>
-    <col min="12303" max="12303" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="12306" max="12306" width="10" bestFit="1" customWidth="1"/>
-    <col min="12310" max="12310" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="12312" max="12312" width="7" customWidth="1"/>
-    <col min="12314" max="12314" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="12545" max="12545" width="43.36328125" customWidth="1"/>
-    <col min="12546" max="12546" width="12.6328125" customWidth="1"/>
-    <col min="12547" max="12547" width="19.6328125" customWidth="1"/>
-    <col min="12548" max="12549" width="19.36328125" customWidth="1"/>
-    <col min="12558" max="12558" width="10" bestFit="1" customWidth="1"/>
-    <col min="12559" max="12559" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="12562" max="12562" width="10" bestFit="1" customWidth="1"/>
-    <col min="12566" max="12566" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="12568" max="12568" width="7" customWidth="1"/>
-    <col min="12570" max="12570" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="12801" max="12801" width="43.36328125" customWidth="1"/>
-    <col min="12802" max="12802" width="12.6328125" customWidth="1"/>
-    <col min="12803" max="12803" width="19.6328125" customWidth="1"/>
-    <col min="12804" max="12805" width="19.36328125" customWidth="1"/>
-    <col min="12814" max="12814" width="10" bestFit="1" customWidth="1"/>
-    <col min="12815" max="12815" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="12818" max="12818" width="10" bestFit="1" customWidth="1"/>
-    <col min="12822" max="12822" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="12824" max="12824" width="7" customWidth="1"/>
-    <col min="12826" max="12826" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="13057" max="13057" width="43.36328125" customWidth="1"/>
-    <col min="13058" max="13058" width="12.6328125" customWidth="1"/>
-    <col min="13059" max="13059" width="19.6328125" customWidth="1"/>
-    <col min="13060" max="13061" width="19.36328125" customWidth="1"/>
-    <col min="13070" max="13070" width="10" bestFit="1" customWidth="1"/>
-    <col min="13071" max="13071" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="13074" max="13074" width="10" bestFit="1" customWidth="1"/>
-    <col min="13078" max="13078" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="13080" max="13080" width="7" customWidth="1"/>
-    <col min="13082" max="13082" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="13313" max="13313" width="43.36328125" customWidth="1"/>
-    <col min="13314" max="13314" width="12.6328125" customWidth="1"/>
-    <col min="13315" max="13315" width="19.6328125" customWidth="1"/>
-    <col min="13316" max="13317" width="19.36328125" customWidth="1"/>
-    <col min="13326" max="13326" width="10" bestFit="1" customWidth="1"/>
-    <col min="13327" max="13327" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="13330" max="13330" width="10" bestFit="1" customWidth="1"/>
-    <col min="13334" max="13334" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="13336" max="13336" width="7" customWidth="1"/>
-    <col min="13338" max="13338" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="13569" max="13569" width="43.36328125" customWidth="1"/>
-    <col min="13570" max="13570" width="12.6328125" customWidth="1"/>
-    <col min="13571" max="13571" width="19.6328125" customWidth="1"/>
-    <col min="13572" max="13573" width="19.36328125" customWidth="1"/>
-    <col min="13582" max="13582" width="10" bestFit="1" customWidth="1"/>
-    <col min="13583" max="13583" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="13586" max="13586" width="10" bestFit="1" customWidth="1"/>
-    <col min="13590" max="13590" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="13592" max="13592" width="7" customWidth="1"/>
-    <col min="13594" max="13594" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="13825" max="13825" width="43.36328125" customWidth="1"/>
-    <col min="13826" max="13826" width="12.6328125" customWidth="1"/>
-    <col min="13827" max="13827" width="19.6328125" customWidth="1"/>
-    <col min="13828" max="13829" width="19.36328125" customWidth="1"/>
-    <col min="13838" max="13838" width="10" bestFit="1" customWidth="1"/>
-    <col min="13839" max="13839" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="13842" max="13842" width="10" bestFit="1" customWidth="1"/>
-    <col min="13846" max="13846" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="13848" max="13848" width="7" customWidth="1"/>
-    <col min="13850" max="13850" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="14081" max="14081" width="43.36328125" customWidth="1"/>
-    <col min="14082" max="14082" width="12.6328125" customWidth="1"/>
-    <col min="14083" max="14083" width="19.6328125" customWidth="1"/>
-    <col min="14084" max="14085" width="19.36328125" customWidth="1"/>
-    <col min="14094" max="14094" width="10" bestFit="1" customWidth="1"/>
-    <col min="14095" max="14095" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="14098" max="14098" width="10" bestFit="1" customWidth="1"/>
-    <col min="14102" max="14102" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="14104" max="14104" width="7" customWidth="1"/>
-    <col min="14106" max="14106" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="14337" max="14337" width="43.36328125" customWidth="1"/>
-    <col min="14338" max="14338" width="12.6328125" customWidth="1"/>
-    <col min="14339" max="14339" width="19.6328125" customWidth="1"/>
-    <col min="14340" max="14341" width="19.36328125" customWidth="1"/>
-    <col min="14350" max="14350" width="10" bestFit="1" customWidth="1"/>
-    <col min="14351" max="14351" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="14354" max="14354" width="10" bestFit="1" customWidth="1"/>
-    <col min="14358" max="14358" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="14360" max="14360" width="7" customWidth="1"/>
-    <col min="14362" max="14362" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="14593" max="14593" width="43.36328125" customWidth="1"/>
-    <col min="14594" max="14594" width="12.6328125" customWidth="1"/>
-    <col min="14595" max="14595" width="19.6328125" customWidth="1"/>
-    <col min="14596" max="14597" width="19.36328125" customWidth="1"/>
-    <col min="14606" max="14606" width="10" bestFit="1" customWidth="1"/>
-    <col min="14607" max="14607" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="14610" max="14610" width="10" bestFit="1" customWidth="1"/>
-    <col min="14614" max="14614" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="14616" max="14616" width="7" customWidth="1"/>
-    <col min="14618" max="14618" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="14849" max="14849" width="43.36328125" customWidth="1"/>
-    <col min="14850" max="14850" width="12.6328125" customWidth="1"/>
-    <col min="14851" max="14851" width="19.6328125" customWidth="1"/>
-    <col min="14852" max="14853" width="19.36328125" customWidth="1"/>
-    <col min="14862" max="14862" width="10" bestFit="1" customWidth="1"/>
-    <col min="14863" max="14863" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="14866" max="14866" width="10" bestFit="1" customWidth="1"/>
-    <col min="14870" max="14870" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="14872" max="14872" width="7" customWidth="1"/>
-    <col min="14874" max="14874" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="15105" max="15105" width="43.36328125" customWidth="1"/>
-    <col min="15106" max="15106" width="12.6328125" customWidth="1"/>
-    <col min="15107" max="15107" width="19.6328125" customWidth="1"/>
-    <col min="15108" max="15109" width="19.36328125" customWidth="1"/>
-    <col min="15118" max="15118" width="10" bestFit="1" customWidth="1"/>
-    <col min="15119" max="15119" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="15122" max="15122" width="10" bestFit="1" customWidth="1"/>
-    <col min="15126" max="15126" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="15128" max="15128" width="7" customWidth="1"/>
-    <col min="15130" max="15130" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="15361" max="15361" width="43.36328125" customWidth="1"/>
-    <col min="15362" max="15362" width="12.6328125" customWidth="1"/>
-    <col min="15363" max="15363" width="19.6328125" customWidth="1"/>
-    <col min="15364" max="15365" width="19.36328125" customWidth="1"/>
-    <col min="15374" max="15374" width="10" bestFit="1" customWidth="1"/>
-    <col min="15375" max="15375" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="15378" max="15378" width="10" bestFit="1" customWidth="1"/>
-    <col min="15382" max="15382" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="15384" max="15384" width="7" customWidth="1"/>
-    <col min="15386" max="15386" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="15617" max="15617" width="43.36328125" customWidth="1"/>
-    <col min="15618" max="15618" width="12.6328125" customWidth="1"/>
-    <col min="15619" max="15619" width="19.6328125" customWidth="1"/>
-    <col min="15620" max="15621" width="19.36328125" customWidth="1"/>
-    <col min="15630" max="15630" width="10" bestFit="1" customWidth="1"/>
-    <col min="15631" max="15631" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="15634" max="15634" width="10" bestFit="1" customWidth="1"/>
-    <col min="15638" max="15638" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="15640" max="15640" width="7" customWidth="1"/>
-    <col min="15642" max="15642" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="15873" max="15873" width="43.36328125" customWidth="1"/>
-    <col min="15874" max="15874" width="12.6328125" customWidth="1"/>
-    <col min="15875" max="15875" width="19.6328125" customWidth="1"/>
-    <col min="15876" max="15877" width="19.36328125" customWidth="1"/>
-    <col min="15886" max="15886" width="10" bestFit="1" customWidth="1"/>
-    <col min="15887" max="15887" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="15890" max="15890" width="10" bestFit="1" customWidth="1"/>
-    <col min="15894" max="15894" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="15896" max="15896" width="7" customWidth="1"/>
-    <col min="15898" max="15898" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="16129" max="16129" width="43.36328125" customWidth="1"/>
-    <col min="16130" max="16130" width="12.6328125" customWidth="1"/>
-    <col min="16131" max="16131" width="19.6328125" customWidth="1"/>
-    <col min="16132" max="16133" width="19.36328125" customWidth="1"/>
-    <col min="16142" max="16142" width="10" bestFit="1" customWidth="1"/>
-    <col min="16143" max="16143" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="16146" max="16146" width="10" bestFit="1" customWidth="1"/>
-    <col min="16150" max="16150" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="16152" max="16152" width="7" customWidth="1"/>
-    <col min="16154" max="16154" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="93.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="38" t="s">
+      <c r="B1" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="36" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="36" t="s">
@@ -4316,631 +3212,1003 @@
         <v>4</v>
       </c>
       <c r="F1" s="36" t="s">
-        <v>91</v>
+        <v>5</v>
       </c>
       <c r="G1" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="J1" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="K1" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="L1" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="M1" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="N1" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="O1" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="36" t="s">
+      <c r="P1" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="36" t="s">
+      <c r="Q1" s="36" t="s">
         <v>23</v>
       </c>
+      <c r="R1" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="S1" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="T1" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="U1" s="36" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D2" s="17">
+        <v>0</v>
+      </c>
+      <c r="E2" s="17">
+        <v>19000</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="H2" s="2">
+        <v>230</v>
+      </c>
+      <c r="I2" s="2">
+        <v>27</v>
+      </c>
+      <c r="J2" s="2">
+        <v>35</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="N2" s="2">
+        <v>1</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>25</v>
+      </c>
+      <c r="R2" s="2">
+        <v>5</v>
+      </c>
+      <c r="S2" s="2">
+        <v>5</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D3" s="17">
+        <v>0</v>
+      </c>
+      <c r="E3" s="17">
+        <v>19000</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="H3" s="2">
+        <v>230</v>
+      </c>
+      <c r="I3" s="2">
+        <v>27</v>
+      </c>
+      <c r="J3" s="2">
+        <v>35</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="N3" s="2">
+        <v>1</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>25</v>
+      </c>
+      <c r="R3" s="2">
+        <v>5</v>
+      </c>
+      <c r="S3" s="2">
+        <v>5</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="O9" s="10"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="O11" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <dimension ref="A1:W11"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB25" sqref="AB25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" customWidth="1"/>
+    <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" customWidth="1"/>
+    <col min="16" max="16" width="12.42578125" customWidth="1"/>
+    <col min="17" max="17" width="12" customWidth="1"/>
+    <col min="22" max="22" width="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="32.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="H1" s="40" t="s">
+        <v>131</v>
+      </c>
+      <c r="I1" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="J1" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="K1" s="40" t="s">
+        <v>203</v>
+      </c>
+      <c r="L1" s="40" t="s">
+        <v>204</v>
+      </c>
+      <c r="M1" s="38" t="s">
+        <v>17</v>
+      </c>
       <c r="N1" s="36" t="s">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="O1" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="36" t="s">
+      <c r="U1" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="Q1" s="36" t="s">
-        <v>101</v>
-      </c>
-      <c r="R1" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="S1" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="T1" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="U1" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="V1" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="W1" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="X1" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y1" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z1" s="36" t="s">
+      <c r="V1" s="37" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="W1" s="40" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>110</v>
+        <v>200</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="D2" s="17">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E2" s="17">
-        <v>12000</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G2" s="2" t="s">
+        <v>40000</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="11">
+        <v>3.1</v>
+      </c>
+      <c r="H2" s="11">
+        <v>380</v>
+      </c>
+      <c r="I2" s="11">
+        <v>0</v>
+      </c>
+      <c r="J2" s="11">
+        <v>27</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="M2" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2">
-        <f>2771.2/0.962</f>
-        <v>2880.6652806652805</v>
-      </c>
-      <c r="J2" s="2">
-        <v>1</v>
-      </c>
-      <c r="K2" s="2">
-        <v>0</v>
-      </c>
-      <c r="L2" s="2">
-        <f>-284.2/0.962</f>
-        <v>-295.42619542619542</v>
-      </c>
-      <c r="M2" s="2">
+      <c r="N2" s="2">
+        <v>0</v>
+      </c>
+      <c r="O2" s="2">
+        <f>177.8/0.902</f>
+        <v>197.11751662971176</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.49</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0</v>
+      </c>
+      <c r="R2" s="2">
+        <v>0</v>
+      </c>
+      <c r="S2" s="2">
+        <v>20</v>
+      </c>
+      <c r="T2" s="2">
+        <v>1</v>
+      </c>
+      <c r="U2" s="2">
+        <v>5</v>
+      </c>
+      <c r="V2" s="14"/>
+      <c r="W2" s="27" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D3" s="17">
+        <v>40000</v>
+      </c>
+      <c r="E3" s="17">
+        <v>100000000</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="11">
+        <v>2.8</v>
+      </c>
+      <c r="H3" s="11">
+        <v>380</v>
+      </c>
+      <c r="I3" s="11">
+        <v>0</v>
+      </c>
+      <c r="J3" s="11">
+        <v>27</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="M3" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="2">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2">
+        <f>177.8/0.902</f>
+        <v>197.11751662971176</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.49</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0</v>
+      </c>
+      <c r="R3" s="2">
+        <v>0</v>
+      </c>
+      <c r="S3" s="2">
+        <v>20</v>
+      </c>
+      <c r="T3" s="2">
+        <v>1</v>
+      </c>
+      <c r="U3" s="2">
+        <v>5</v>
+      </c>
+      <c r="V3" s="14"/>
+      <c r="W3" s="27" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D4" s="17">
+        <v>0</v>
+      </c>
+      <c r="E4" s="17">
+        <v>21000</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="11">
+        <v>4.3</v>
+      </c>
+      <c r="H4" s="11">
+        <v>380</v>
+      </c>
+      <c r="I4" s="11">
+        <v>20</v>
+      </c>
+      <c r="J4" s="11">
+        <v>27</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="M4" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2">
+        <f>8893/0.902/1000</f>
+        <v>9.8592017738359186</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0</v>
+      </c>
+      <c r="R4" s="2">
+        <f>-493.53/0.902/1000</f>
+        <v>-0.54715077605321505</v>
+      </c>
+      <c r="S4" s="2">
         <v>25</v>
       </c>
-      <c r="N2" s="11">
+      <c r="T4" s="2">
+        <v>5</v>
+      </c>
+      <c r="U4" s="2">
+        <v>6</v>
+      </c>
+      <c r="V4" s="14"/>
+      <c r="W4" s="27" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D5" s="17">
+        <v>21000</v>
+      </c>
+      <c r="E5" s="17">
+        <v>40000</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="11">
+        <v>4.3</v>
+      </c>
+      <c r="H5" s="11">
+        <v>380</v>
+      </c>
+      <c r="I5" s="11">
+        <v>20</v>
+      </c>
+      <c r="J5" s="11">
+        <v>27</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2">
+        <f>8893/0.902/1000</f>
+        <v>9.8592017738359186</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0</v>
+      </c>
+      <c r="R5" s="2">
+        <f>-493.53/0.902/1000</f>
+        <v>-0.54715077605321505</v>
+      </c>
+      <c r="S5" s="2">
         <v>25</v>
       </c>
-      <c r="O2" s="2">
-        <v>1</v>
-      </c>
-      <c r="P2" s="2">
+      <c r="T5" s="2">
+        <v>5</v>
+      </c>
+      <c r="U5" s="2">
         <v>6</v>
       </c>
-      <c r="Q2" s="11">
-        <v>0</v>
-      </c>
-      <c r="R2" s="11">
-        <v>0</v>
-      </c>
-      <c r="S2" s="11">
-        <v>70</v>
-      </c>
-      <c r="T2" s="11">
+      <c r="V5" s="14"/>
+      <c r="W5" s="27" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="U2" s="11">
-        <v>0</v>
-      </c>
-      <c r="V2" s="11">
-        <v>997</v>
-      </c>
-      <c r="W2" s="11">
-        <v>4.1900000000000004</v>
-      </c>
-      <c r="X2" s="11">
-        <v>0.98</v>
-      </c>
-      <c r="Y2" s="11">
-        <v>0.96</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="D3" s="17">
-        <v>12000</v>
-      </c>
-      <c r="E3" s="17">
-        <v>10000000000</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="C6" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D6" s="17">
+        <v>40000</v>
+      </c>
+      <c r="E6" s="17">
+        <v>75000</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="11">
+        <v>4</v>
+      </c>
+      <c r="H6" s="11">
+        <v>380</v>
+      </c>
+      <c r="I6" s="11">
+        <v>20</v>
+      </c>
+      <c r="J6" s="11">
+        <v>27</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="M6" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2">
-        <f>2771.2/0.962</f>
-        <v>2880.6652806652805</v>
-      </c>
-      <c r="J3" s="2">
-        <v>1</v>
-      </c>
-      <c r="K3" s="2">
-        <v>0</v>
-      </c>
-      <c r="L3" s="2">
-        <f>-284.2/0.962</f>
-        <v>-295.42619542619542</v>
-      </c>
-      <c r="M3" s="2">
+      <c r="N6" s="2">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2">
+        <f>8893/0.902/1000</f>
+        <v>9.8592017738359186</v>
+      </c>
+      <c r="P6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0</v>
+      </c>
+      <c r="R6" s="2">
+        <f>-493.53/0.902/1000</f>
+        <v>-0.54715077605321505</v>
+      </c>
+      <c r="S6" s="2">
         <v>25</v>
       </c>
-      <c r="N3" s="11">
+      <c r="T6" s="2">
+        <v>5</v>
+      </c>
+      <c r="U6" s="2">
+        <v>6</v>
+      </c>
+      <c r="V6" s="14"/>
+      <c r="W6" s="27" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D7" s="17">
+        <v>75000</v>
+      </c>
+      <c r="E7" s="17">
+        <v>20000000</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="11">
+        <v>3.9</v>
+      </c>
+      <c r="H7" s="11">
+        <v>380</v>
+      </c>
+      <c r="I7" s="11">
+        <v>20</v>
+      </c>
+      <c r="J7" s="11">
+        <v>27</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="M7" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2">
+        <f>8893/0.902/1000</f>
+        <v>9.8592017738359186</v>
+      </c>
+      <c r="P7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0</v>
+      </c>
+      <c r="R7" s="2">
+        <f>-493.53/0.902/1000</f>
+        <v>-0.54715077605321505</v>
+      </c>
+      <c r="S7" s="2">
         <v>25</v>
       </c>
-      <c r="O3" s="2">
-        <v>1</v>
-      </c>
-      <c r="P3" s="2">
+      <c r="T7" s="2">
+        <v>5</v>
+      </c>
+      <c r="U7" s="2">
         <v>6</v>
       </c>
-      <c r="Q3" s="11">
-        <v>0</v>
-      </c>
-      <c r="R3" s="11">
-        <v>0</v>
-      </c>
-      <c r="S3" s="11">
-        <v>70</v>
-      </c>
-      <c r="T3" s="11">
-        <v>90</v>
-      </c>
-      <c r="U3" s="11">
-        <v>0</v>
-      </c>
-      <c r="V3" s="11">
-        <v>997</v>
-      </c>
-      <c r="W3" s="11">
-        <v>4.1900000000000004</v>
-      </c>
-      <c r="X3" s="11">
-        <v>0.98</v>
-      </c>
-      <c r="Y3" s="11">
-        <v>0.96</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="D4" s="17">
-        <v>0</v>
-      </c>
-      <c r="E4" s="17">
-        <v>10000000000</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="G4" s="11" t="s">
+      <c r="V7" s="14"/>
+      <c r="W7" s="27" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D8" s="17">
+        <v>0</v>
+      </c>
+      <c r="E8" s="17">
+        <v>21000</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H8" s="11">
+        <v>230</v>
+      </c>
+      <c r="I8" s="11">
+        <v>7</v>
+      </c>
+      <c r="J8" s="11">
+        <v>35</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="M8" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="11">
-        <v>0</v>
-      </c>
-      <c r="I4" s="11">
-        <v>108</v>
-      </c>
-      <c r="J4" s="11">
-        <v>1</v>
-      </c>
-      <c r="K4" s="11">
-        <v>0</v>
-      </c>
-      <c r="L4" s="11">
-        <v>0</v>
-      </c>
-      <c r="M4" s="11">
+      <c r="N8" s="2">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2">
+        <f>7.7</f>
+        <v>7.7</v>
+      </c>
+      <c r="P8" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>0</v>
+      </c>
+      <c r="R8" s="2">
+        <v>0</v>
+      </c>
+      <c r="S8" s="2">
         <v>25</v>
       </c>
-      <c r="N4" s="11">
+      <c r="T8" s="2">
+        <v>5</v>
+      </c>
+      <c r="U8" s="2">
+        <v>6</v>
+      </c>
+      <c r="V8" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="W8" s="27" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D9" s="17">
+        <v>21000</v>
+      </c>
+      <c r="E9" s="17">
+        <v>40000</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="11">
+        <v>3.3</v>
+      </c>
+      <c r="H9" s="11">
+        <v>230</v>
+      </c>
+      <c r="I9" s="11">
+        <v>7</v>
+      </c>
+      <c r="J9" s="11">
+        <v>35</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="M9" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2">
+        <f>7.7</f>
+        <v>7.7</v>
+      </c>
+      <c r="P9" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>0</v>
+      </c>
+      <c r="R9" s="2">
+        <v>0</v>
+      </c>
+      <c r="S9" s="2">
         <v>25</v>
       </c>
-      <c r="O4" s="11">
-        <v>2</v>
-      </c>
-      <c r="P4" s="11">
+      <c r="T9" s="2">
+        <v>5</v>
+      </c>
+      <c r="U9" s="2">
         <v>6</v>
       </c>
-      <c r="Q4" s="11">
-        <v>0</v>
-      </c>
-      <c r="R4" s="11">
-        <v>0</v>
-      </c>
-      <c r="S4" s="11">
-        <v>4</v>
-      </c>
-      <c r="T4" s="11">
-        <v>13</v>
-      </c>
-      <c r="U4" s="11">
-        <v>0</v>
-      </c>
-      <c r="V4" s="11">
-        <v>997</v>
-      </c>
-      <c r="W4" s="11">
-        <v>4.1900000000000004</v>
-      </c>
-      <c r="X4" s="11">
-        <v>0.98</v>
-      </c>
-      <c r="Y4" s="11">
-        <v>0.96</v>
-      </c>
-      <c r="Z4" s="11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="D5" s="17">
-        <v>0</v>
-      </c>
-      <c r="E5" s="17">
-        <v>10000000000</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="G5" s="11" t="s">
+      <c r="V9" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="W9" s="27" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D10" s="17">
+        <v>40000</v>
+      </c>
+      <c r="E10" s="17">
+        <v>75000</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="11">
+        <v>3.3</v>
+      </c>
+      <c r="H10" s="11">
+        <v>230</v>
+      </c>
+      <c r="I10" s="11">
+        <v>7</v>
+      </c>
+      <c r="J10" s="11">
+        <v>35</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="M10" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="11">
-        <v>0</v>
-      </c>
-      <c r="I5" s="11">
-        <v>117.9</v>
-      </c>
-      <c r="J5" s="11">
-        <v>1</v>
-      </c>
-      <c r="K5" s="11">
-        <v>0</v>
-      </c>
-      <c r="L5" s="11">
-        <v>0</v>
-      </c>
-      <c r="M5" s="11">
+      <c r="N10" s="2">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2">
+        <f>7.7</f>
+        <v>7.7</v>
+      </c>
+      <c r="P10" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>0</v>
+      </c>
+      <c r="R10" s="2">
+        <v>0</v>
+      </c>
+      <c r="S10" s="2">
         <v>25</v>
       </c>
-      <c r="N5" s="11">
+      <c r="T10" s="2">
+        <v>5</v>
+      </c>
+      <c r="U10" s="2">
+        <v>6</v>
+      </c>
+      <c r="V10" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="W10" s="27" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D11" s="17">
+        <v>75000</v>
+      </c>
+      <c r="E11" s="17">
+        <v>10000000</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="11">
+        <v>3.2</v>
+      </c>
+      <c r="H11" s="11">
+        <v>230</v>
+      </c>
+      <c r="I11" s="11">
+        <v>7</v>
+      </c>
+      <c r="J11" s="11">
+        <v>35</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="M11" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="N11" s="2">
+        <v>0</v>
+      </c>
+      <c r="O11" s="2">
+        <f>7.7</f>
+        <v>7.7</v>
+      </c>
+      <c r="P11" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>0</v>
+      </c>
+      <c r="R11" s="2">
+        <v>0</v>
+      </c>
+      <c r="S11" s="2">
         <v>25</v>
       </c>
-      <c r="O5" s="11">
-        <v>2</v>
-      </c>
-      <c r="P5" s="11">
+      <c r="T11" s="2">
+        <v>5</v>
+      </c>
+      <c r="U11" s="2">
         <v>6</v>
       </c>
-      <c r="Q5" s="11">
-        <v>4.8</v>
-      </c>
-      <c r="R5" s="11">
-        <v>0</v>
-      </c>
-      <c r="S5" s="11">
-        <v>-0.5</v>
-      </c>
-      <c r="T5" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="U5" s="11">
-        <v>334</v>
-      </c>
-      <c r="V5" s="11">
-        <v>917</v>
-      </c>
-      <c r="W5" s="11">
-        <v>2.11</v>
-      </c>
-      <c r="X5" s="11">
-        <v>0.98</v>
-      </c>
-      <c r="Y5" s="11">
-        <v>0.96</v>
-      </c>
-      <c r="Z5" s="11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="D6" s="17">
-        <v>0</v>
-      </c>
-      <c r="E6" s="17">
-        <v>10000000000</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="11">
-        <v>0</v>
-      </c>
-      <c r="I6" s="11">
-        <v>117.9</v>
-      </c>
-      <c r="J6" s="11">
-        <v>1</v>
-      </c>
-      <c r="K6" s="11">
-        <v>0</v>
-      </c>
-      <c r="L6" s="11">
-        <v>0</v>
-      </c>
-      <c r="M6" s="11">
-        <v>25</v>
-      </c>
-      <c r="N6" s="11">
-        <v>7</v>
-      </c>
-      <c r="O6" s="11">
-        <v>2</v>
-      </c>
-      <c r="P6" s="11">
-        <v>6</v>
-      </c>
-      <c r="Q6" s="11">
-        <v>4.8</v>
-      </c>
-      <c r="R6" s="11">
-        <v>4</v>
-      </c>
-      <c r="S6" s="11">
-        <v>3.5</v>
-      </c>
-      <c r="T6" s="11">
-        <v>4.5</v>
-      </c>
-      <c r="U6" s="11">
-        <v>234</v>
-      </c>
-      <c r="V6" s="11">
-        <v>1600</v>
-      </c>
-      <c r="W6" s="11">
-        <v>2</v>
-      </c>
-      <c r="X6" s="11">
-        <v>0.98</v>
-      </c>
-      <c r="Y6" s="11">
-        <v>0.96</v>
-      </c>
-      <c r="Z6" s="11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="D7" s="17">
-        <v>0</v>
-      </c>
-      <c r="E7" s="17">
-        <v>10000000000</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="11">
-        <v>0</v>
-      </c>
-      <c r="I7" s="11">
-        <v>156.30000000000001</v>
-      </c>
-      <c r="J7" s="11">
-        <v>1</v>
-      </c>
-      <c r="K7" s="11">
-        <v>0</v>
-      </c>
-      <c r="L7" s="11">
-        <v>0</v>
-      </c>
-      <c r="M7" s="11">
-        <v>25</v>
-      </c>
-      <c r="N7" s="11">
-        <v>7</v>
-      </c>
-      <c r="O7" s="11">
-        <v>2</v>
-      </c>
-      <c r="P7" s="11">
-        <v>6</v>
-      </c>
-      <c r="Q7" s="11">
-        <v>27.3</v>
-      </c>
-      <c r="R7" s="11">
-        <v>5.4</v>
-      </c>
-      <c r="S7" s="11">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="T7" s="11">
-        <v>5.9</v>
-      </c>
-      <c r="U7" s="11">
-        <v>105</v>
-      </c>
-      <c r="V7" s="11">
-        <v>1125</v>
-      </c>
-      <c r="W7" s="11">
-        <v>2.09</v>
-      </c>
-      <c r="X7" s="11">
-        <v>0.98</v>
-      </c>
-      <c r="Y7" s="11">
-        <v>0.96</v>
-      </c>
-      <c r="Z7" s="11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="D8" s="17">
-        <v>0</v>
-      </c>
-      <c r="E8" s="17">
-        <v>10000000000</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="11">
-        <v>0</v>
-      </c>
-      <c r="I8" s="11">
-        <v>141.5</v>
-      </c>
-      <c r="J8" s="11">
-        <v>1</v>
-      </c>
-      <c r="K8" s="11">
-        <v>0</v>
-      </c>
-      <c r="L8" s="11">
-        <v>0</v>
-      </c>
-      <c r="M8" s="11">
-        <v>25</v>
-      </c>
-      <c r="N8" s="11">
-        <v>7</v>
-      </c>
-      <c r="O8" s="11">
-        <v>2</v>
-      </c>
-      <c r="P8" s="11">
-        <v>6</v>
-      </c>
-      <c r="Q8" s="11">
-        <v>19.7</v>
-      </c>
-      <c r="R8" s="11">
-        <v>5</v>
-      </c>
-      <c r="S8" s="11">
-        <v>4.5</v>
-      </c>
-      <c r="T8" s="11">
-        <v>5.5</v>
-      </c>
-      <c r="U8" s="11">
-        <v>230</v>
-      </c>
-      <c r="V8" s="11">
-        <v>760</v>
-      </c>
-      <c r="W8" s="11">
-        <v>2.14</v>
-      </c>
-      <c r="X8" s="11">
-        <v>0.98</v>
-      </c>
-      <c r="Y8" s="11">
-        <v>0.96</v>
-      </c>
-      <c r="Z8" s="11" t="s">
-        <v>95</v>
+      <c r="V11" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="W11" s="27" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -4951,38 +4219,666 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E588DD75-4ED6-A447-B30A-4A128452EE65}">
-  <dimension ref="A1:W7"/>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <dimension ref="A1:Z8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U27" sqref="U27"/>
+    <sheetView topLeftCell="L1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="AB23" sqref="AB23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.453125" customWidth="1"/>
-    <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6328125" customWidth="1"/>
-    <col min="5" max="5" width="23" customWidth="1"/>
-    <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="10" width="17" customWidth="1"/>
-    <col min="11" max="11" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
-    <col min="13" max="21" width="8.81640625"/>
-    <col min="22" max="22" width="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.36328125" customWidth="1"/>
+    <col min="1" max="1" width="43.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="4" max="5" width="19.28515625" customWidth="1"/>
+    <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7" customWidth="1"/>
+    <col min="26" max="26" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="257" max="257" width="43.28515625" customWidth="1"/>
+    <col min="258" max="258" width="12.7109375" customWidth="1"/>
+    <col min="259" max="259" width="19.7109375" customWidth="1"/>
+    <col min="260" max="261" width="19.28515625" customWidth="1"/>
+    <col min="270" max="270" width="10" bestFit="1" customWidth="1"/>
+    <col min="271" max="271" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="274" max="274" width="10" bestFit="1" customWidth="1"/>
+    <col min="278" max="278" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="280" max="280" width="7" customWidth="1"/>
+    <col min="282" max="282" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="513" max="513" width="43.28515625" customWidth="1"/>
+    <col min="514" max="514" width="12.7109375" customWidth="1"/>
+    <col min="515" max="515" width="19.7109375" customWidth="1"/>
+    <col min="516" max="517" width="19.28515625" customWidth="1"/>
+    <col min="526" max="526" width="10" bestFit="1" customWidth="1"/>
+    <col min="527" max="527" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="530" max="530" width="10" bestFit="1" customWidth="1"/>
+    <col min="534" max="534" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="536" max="536" width="7" customWidth="1"/>
+    <col min="538" max="538" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="769" max="769" width="43.28515625" customWidth="1"/>
+    <col min="770" max="770" width="12.7109375" customWidth="1"/>
+    <col min="771" max="771" width="19.7109375" customWidth="1"/>
+    <col min="772" max="773" width="19.28515625" customWidth="1"/>
+    <col min="782" max="782" width="10" bestFit="1" customWidth="1"/>
+    <col min="783" max="783" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="786" max="786" width="10" bestFit="1" customWidth="1"/>
+    <col min="790" max="790" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="792" max="792" width="7" customWidth="1"/>
+    <col min="794" max="794" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="1025" max="1025" width="43.28515625" customWidth="1"/>
+    <col min="1026" max="1026" width="12.7109375" customWidth="1"/>
+    <col min="1027" max="1027" width="19.7109375" customWidth="1"/>
+    <col min="1028" max="1029" width="19.28515625" customWidth="1"/>
+    <col min="1038" max="1038" width="10" bestFit="1" customWidth="1"/>
+    <col min="1039" max="1039" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="1042" max="1042" width="10" bestFit="1" customWidth="1"/>
+    <col min="1046" max="1046" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="1048" max="1048" width="7" customWidth="1"/>
+    <col min="1050" max="1050" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="1281" max="1281" width="43.28515625" customWidth="1"/>
+    <col min="1282" max="1282" width="12.7109375" customWidth="1"/>
+    <col min="1283" max="1283" width="19.7109375" customWidth="1"/>
+    <col min="1284" max="1285" width="19.28515625" customWidth="1"/>
+    <col min="1294" max="1294" width="10" bestFit="1" customWidth="1"/>
+    <col min="1295" max="1295" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="1298" max="1298" width="10" bestFit="1" customWidth="1"/>
+    <col min="1302" max="1302" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="1304" max="1304" width="7" customWidth="1"/>
+    <col min="1306" max="1306" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="1537" max="1537" width="43.28515625" customWidth="1"/>
+    <col min="1538" max="1538" width="12.7109375" customWidth="1"/>
+    <col min="1539" max="1539" width="19.7109375" customWidth="1"/>
+    <col min="1540" max="1541" width="19.28515625" customWidth="1"/>
+    <col min="1550" max="1550" width="10" bestFit="1" customWidth="1"/>
+    <col min="1551" max="1551" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="1554" max="1554" width="10" bestFit="1" customWidth="1"/>
+    <col min="1558" max="1558" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="1560" max="1560" width="7" customWidth="1"/>
+    <col min="1562" max="1562" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="1793" max="1793" width="43.28515625" customWidth="1"/>
+    <col min="1794" max="1794" width="12.7109375" customWidth="1"/>
+    <col min="1795" max="1795" width="19.7109375" customWidth="1"/>
+    <col min="1796" max="1797" width="19.28515625" customWidth="1"/>
+    <col min="1806" max="1806" width="10" bestFit="1" customWidth="1"/>
+    <col min="1807" max="1807" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="1810" max="1810" width="10" bestFit="1" customWidth="1"/>
+    <col min="1814" max="1814" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="1816" max="1816" width="7" customWidth="1"/>
+    <col min="1818" max="1818" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2049" max="2049" width="43.28515625" customWidth="1"/>
+    <col min="2050" max="2050" width="12.7109375" customWidth="1"/>
+    <col min="2051" max="2051" width="19.7109375" customWidth="1"/>
+    <col min="2052" max="2053" width="19.28515625" customWidth="1"/>
+    <col min="2062" max="2062" width="10" bestFit="1" customWidth="1"/>
+    <col min="2063" max="2063" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2066" max="2066" width="10" bestFit="1" customWidth="1"/>
+    <col min="2070" max="2070" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2072" max="2072" width="7" customWidth="1"/>
+    <col min="2074" max="2074" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2305" max="2305" width="43.28515625" customWidth="1"/>
+    <col min="2306" max="2306" width="12.7109375" customWidth="1"/>
+    <col min="2307" max="2307" width="19.7109375" customWidth="1"/>
+    <col min="2308" max="2309" width="19.28515625" customWidth="1"/>
+    <col min="2318" max="2318" width="10" bestFit="1" customWidth="1"/>
+    <col min="2319" max="2319" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2322" max="2322" width="10" bestFit="1" customWidth="1"/>
+    <col min="2326" max="2326" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2328" max="2328" width="7" customWidth="1"/>
+    <col min="2330" max="2330" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2561" max="2561" width="43.28515625" customWidth="1"/>
+    <col min="2562" max="2562" width="12.7109375" customWidth="1"/>
+    <col min="2563" max="2563" width="19.7109375" customWidth="1"/>
+    <col min="2564" max="2565" width="19.28515625" customWidth="1"/>
+    <col min="2574" max="2574" width="10" bestFit="1" customWidth="1"/>
+    <col min="2575" max="2575" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2578" max="2578" width="10" bestFit="1" customWidth="1"/>
+    <col min="2582" max="2582" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2584" max="2584" width="7" customWidth="1"/>
+    <col min="2586" max="2586" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2817" max="2817" width="43.28515625" customWidth="1"/>
+    <col min="2818" max="2818" width="12.7109375" customWidth="1"/>
+    <col min="2819" max="2819" width="19.7109375" customWidth="1"/>
+    <col min="2820" max="2821" width="19.28515625" customWidth="1"/>
+    <col min="2830" max="2830" width="10" bestFit="1" customWidth="1"/>
+    <col min="2831" max="2831" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2834" max="2834" width="10" bestFit="1" customWidth="1"/>
+    <col min="2838" max="2838" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2840" max="2840" width="7" customWidth="1"/>
+    <col min="2842" max="2842" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3073" max="3073" width="43.28515625" customWidth="1"/>
+    <col min="3074" max="3074" width="12.7109375" customWidth="1"/>
+    <col min="3075" max="3075" width="19.7109375" customWidth="1"/>
+    <col min="3076" max="3077" width="19.28515625" customWidth="1"/>
+    <col min="3086" max="3086" width="10" bestFit="1" customWidth="1"/>
+    <col min="3087" max="3087" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3090" max="3090" width="10" bestFit="1" customWidth="1"/>
+    <col min="3094" max="3094" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3096" max="3096" width="7" customWidth="1"/>
+    <col min="3098" max="3098" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3329" max="3329" width="43.28515625" customWidth="1"/>
+    <col min="3330" max="3330" width="12.7109375" customWidth="1"/>
+    <col min="3331" max="3331" width="19.7109375" customWidth="1"/>
+    <col min="3332" max="3333" width="19.28515625" customWidth="1"/>
+    <col min="3342" max="3342" width="10" bestFit="1" customWidth="1"/>
+    <col min="3343" max="3343" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3346" max="3346" width="10" bestFit="1" customWidth="1"/>
+    <col min="3350" max="3350" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3352" max="3352" width="7" customWidth="1"/>
+    <col min="3354" max="3354" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3585" max="3585" width="43.28515625" customWidth="1"/>
+    <col min="3586" max="3586" width="12.7109375" customWidth="1"/>
+    <col min="3587" max="3587" width="19.7109375" customWidth="1"/>
+    <col min="3588" max="3589" width="19.28515625" customWidth="1"/>
+    <col min="3598" max="3598" width="10" bestFit="1" customWidth="1"/>
+    <col min="3599" max="3599" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3602" max="3602" width="10" bestFit="1" customWidth="1"/>
+    <col min="3606" max="3606" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3608" max="3608" width="7" customWidth="1"/>
+    <col min="3610" max="3610" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3841" max="3841" width="43.28515625" customWidth="1"/>
+    <col min="3842" max="3842" width="12.7109375" customWidth="1"/>
+    <col min="3843" max="3843" width="19.7109375" customWidth="1"/>
+    <col min="3844" max="3845" width="19.28515625" customWidth="1"/>
+    <col min="3854" max="3854" width="10" bestFit="1" customWidth="1"/>
+    <col min="3855" max="3855" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3858" max="3858" width="10" bestFit="1" customWidth="1"/>
+    <col min="3862" max="3862" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3864" max="3864" width="7" customWidth="1"/>
+    <col min="3866" max="3866" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4097" max="4097" width="43.28515625" customWidth="1"/>
+    <col min="4098" max="4098" width="12.7109375" customWidth="1"/>
+    <col min="4099" max="4099" width="19.7109375" customWidth="1"/>
+    <col min="4100" max="4101" width="19.28515625" customWidth="1"/>
+    <col min="4110" max="4110" width="10" bestFit="1" customWidth="1"/>
+    <col min="4111" max="4111" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4114" max="4114" width="10" bestFit="1" customWidth="1"/>
+    <col min="4118" max="4118" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4120" max="4120" width="7" customWidth="1"/>
+    <col min="4122" max="4122" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4353" max="4353" width="43.28515625" customWidth="1"/>
+    <col min="4354" max="4354" width="12.7109375" customWidth="1"/>
+    <col min="4355" max="4355" width="19.7109375" customWidth="1"/>
+    <col min="4356" max="4357" width="19.28515625" customWidth="1"/>
+    <col min="4366" max="4366" width="10" bestFit="1" customWidth="1"/>
+    <col min="4367" max="4367" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4370" max="4370" width="10" bestFit="1" customWidth="1"/>
+    <col min="4374" max="4374" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4376" max="4376" width="7" customWidth="1"/>
+    <col min="4378" max="4378" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4609" max="4609" width="43.28515625" customWidth="1"/>
+    <col min="4610" max="4610" width="12.7109375" customWidth="1"/>
+    <col min="4611" max="4611" width="19.7109375" customWidth="1"/>
+    <col min="4612" max="4613" width="19.28515625" customWidth="1"/>
+    <col min="4622" max="4622" width="10" bestFit="1" customWidth="1"/>
+    <col min="4623" max="4623" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4626" max="4626" width="10" bestFit="1" customWidth="1"/>
+    <col min="4630" max="4630" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4632" max="4632" width="7" customWidth="1"/>
+    <col min="4634" max="4634" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4865" max="4865" width="43.28515625" customWidth="1"/>
+    <col min="4866" max="4866" width="12.7109375" customWidth="1"/>
+    <col min="4867" max="4867" width="19.7109375" customWidth="1"/>
+    <col min="4868" max="4869" width="19.28515625" customWidth="1"/>
+    <col min="4878" max="4878" width="10" bestFit="1" customWidth="1"/>
+    <col min="4879" max="4879" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4882" max="4882" width="10" bestFit="1" customWidth="1"/>
+    <col min="4886" max="4886" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4888" max="4888" width="7" customWidth="1"/>
+    <col min="4890" max="4890" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5121" max="5121" width="43.28515625" customWidth="1"/>
+    <col min="5122" max="5122" width="12.7109375" customWidth="1"/>
+    <col min="5123" max="5123" width="19.7109375" customWidth="1"/>
+    <col min="5124" max="5125" width="19.28515625" customWidth="1"/>
+    <col min="5134" max="5134" width="10" bestFit="1" customWidth="1"/>
+    <col min="5135" max="5135" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5138" max="5138" width="10" bestFit="1" customWidth="1"/>
+    <col min="5142" max="5142" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="5144" max="5144" width="7" customWidth="1"/>
+    <col min="5146" max="5146" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5377" max="5377" width="43.28515625" customWidth="1"/>
+    <col min="5378" max="5378" width="12.7109375" customWidth="1"/>
+    <col min="5379" max="5379" width="19.7109375" customWidth="1"/>
+    <col min="5380" max="5381" width="19.28515625" customWidth="1"/>
+    <col min="5390" max="5390" width="10" bestFit="1" customWidth="1"/>
+    <col min="5391" max="5391" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5394" max="5394" width="10" bestFit="1" customWidth="1"/>
+    <col min="5398" max="5398" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="5400" max="5400" width="7" customWidth="1"/>
+    <col min="5402" max="5402" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5633" max="5633" width="43.28515625" customWidth="1"/>
+    <col min="5634" max="5634" width="12.7109375" customWidth="1"/>
+    <col min="5635" max="5635" width="19.7109375" customWidth="1"/>
+    <col min="5636" max="5637" width="19.28515625" customWidth="1"/>
+    <col min="5646" max="5646" width="10" bestFit="1" customWidth="1"/>
+    <col min="5647" max="5647" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5650" max="5650" width="10" bestFit="1" customWidth="1"/>
+    <col min="5654" max="5654" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="5656" max="5656" width="7" customWidth="1"/>
+    <col min="5658" max="5658" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5889" max="5889" width="43.28515625" customWidth="1"/>
+    <col min="5890" max="5890" width="12.7109375" customWidth="1"/>
+    <col min="5891" max="5891" width="19.7109375" customWidth="1"/>
+    <col min="5892" max="5893" width="19.28515625" customWidth="1"/>
+    <col min="5902" max="5902" width="10" bestFit="1" customWidth="1"/>
+    <col min="5903" max="5903" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5906" max="5906" width="10" bestFit="1" customWidth="1"/>
+    <col min="5910" max="5910" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="5912" max="5912" width="7" customWidth="1"/>
+    <col min="5914" max="5914" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6145" max="6145" width="43.28515625" customWidth="1"/>
+    <col min="6146" max="6146" width="12.7109375" customWidth="1"/>
+    <col min="6147" max="6147" width="19.7109375" customWidth="1"/>
+    <col min="6148" max="6149" width="19.28515625" customWidth="1"/>
+    <col min="6158" max="6158" width="10" bestFit="1" customWidth="1"/>
+    <col min="6159" max="6159" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6162" max="6162" width="10" bestFit="1" customWidth="1"/>
+    <col min="6166" max="6166" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="6168" max="6168" width="7" customWidth="1"/>
+    <col min="6170" max="6170" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6401" max="6401" width="43.28515625" customWidth="1"/>
+    <col min="6402" max="6402" width="12.7109375" customWidth="1"/>
+    <col min="6403" max="6403" width="19.7109375" customWidth="1"/>
+    <col min="6404" max="6405" width="19.28515625" customWidth="1"/>
+    <col min="6414" max="6414" width="10" bestFit="1" customWidth="1"/>
+    <col min="6415" max="6415" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6418" max="6418" width="10" bestFit="1" customWidth="1"/>
+    <col min="6422" max="6422" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="6424" max="6424" width="7" customWidth="1"/>
+    <col min="6426" max="6426" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6657" max="6657" width="43.28515625" customWidth="1"/>
+    <col min="6658" max="6658" width="12.7109375" customWidth="1"/>
+    <col min="6659" max="6659" width="19.7109375" customWidth="1"/>
+    <col min="6660" max="6661" width="19.28515625" customWidth="1"/>
+    <col min="6670" max="6670" width="10" bestFit="1" customWidth="1"/>
+    <col min="6671" max="6671" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6674" max="6674" width="10" bestFit="1" customWidth="1"/>
+    <col min="6678" max="6678" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="6680" max="6680" width="7" customWidth="1"/>
+    <col min="6682" max="6682" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6913" max="6913" width="43.28515625" customWidth="1"/>
+    <col min="6914" max="6914" width="12.7109375" customWidth="1"/>
+    <col min="6915" max="6915" width="19.7109375" customWidth="1"/>
+    <col min="6916" max="6917" width="19.28515625" customWidth="1"/>
+    <col min="6926" max="6926" width="10" bestFit="1" customWidth="1"/>
+    <col min="6927" max="6927" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6930" max="6930" width="10" bestFit="1" customWidth="1"/>
+    <col min="6934" max="6934" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="6936" max="6936" width="7" customWidth="1"/>
+    <col min="6938" max="6938" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="7169" max="7169" width="43.28515625" customWidth="1"/>
+    <col min="7170" max="7170" width="12.7109375" customWidth="1"/>
+    <col min="7171" max="7171" width="19.7109375" customWidth="1"/>
+    <col min="7172" max="7173" width="19.28515625" customWidth="1"/>
+    <col min="7182" max="7182" width="10" bestFit="1" customWidth="1"/>
+    <col min="7183" max="7183" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="7186" max="7186" width="10" bestFit="1" customWidth="1"/>
+    <col min="7190" max="7190" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="7192" max="7192" width="7" customWidth="1"/>
+    <col min="7194" max="7194" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="7425" max="7425" width="43.28515625" customWidth="1"/>
+    <col min="7426" max="7426" width="12.7109375" customWidth="1"/>
+    <col min="7427" max="7427" width="19.7109375" customWidth="1"/>
+    <col min="7428" max="7429" width="19.28515625" customWidth="1"/>
+    <col min="7438" max="7438" width="10" bestFit="1" customWidth="1"/>
+    <col min="7439" max="7439" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="7442" max="7442" width="10" bestFit="1" customWidth="1"/>
+    <col min="7446" max="7446" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="7448" max="7448" width="7" customWidth="1"/>
+    <col min="7450" max="7450" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="7681" max="7681" width="43.28515625" customWidth="1"/>
+    <col min="7682" max="7682" width="12.7109375" customWidth="1"/>
+    <col min="7683" max="7683" width="19.7109375" customWidth="1"/>
+    <col min="7684" max="7685" width="19.28515625" customWidth="1"/>
+    <col min="7694" max="7694" width="10" bestFit="1" customWidth="1"/>
+    <col min="7695" max="7695" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="7698" max="7698" width="10" bestFit="1" customWidth="1"/>
+    <col min="7702" max="7702" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="7704" max="7704" width="7" customWidth="1"/>
+    <col min="7706" max="7706" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="7937" max="7937" width="43.28515625" customWidth="1"/>
+    <col min="7938" max="7938" width="12.7109375" customWidth="1"/>
+    <col min="7939" max="7939" width="19.7109375" customWidth="1"/>
+    <col min="7940" max="7941" width="19.28515625" customWidth="1"/>
+    <col min="7950" max="7950" width="10" bestFit="1" customWidth="1"/>
+    <col min="7951" max="7951" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="7954" max="7954" width="10" bestFit="1" customWidth="1"/>
+    <col min="7958" max="7958" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="7960" max="7960" width="7" customWidth="1"/>
+    <col min="7962" max="7962" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="8193" max="8193" width="43.28515625" customWidth="1"/>
+    <col min="8194" max="8194" width="12.7109375" customWidth="1"/>
+    <col min="8195" max="8195" width="19.7109375" customWidth="1"/>
+    <col min="8196" max="8197" width="19.28515625" customWidth="1"/>
+    <col min="8206" max="8206" width="10" bestFit="1" customWidth="1"/>
+    <col min="8207" max="8207" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="8210" max="8210" width="10" bestFit="1" customWidth="1"/>
+    <col min="8214" max="8214" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="8216" max="8216" width="7" customWidth="1"/>
+    <col min="8218" max="8218" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="8449" max="8449" width="43.28515625" customWidth="1"/>
+    <col min="8450" max="8450" width="12.7109375" customWidth="1"/>
+    <col min="8451" max="8451" width="19.7109375" customWidth="1"/>
+    <col min="8452" max="8453" width="19.28515625" customWidth="1"/>
+    <col min="8462" max="8462" width="10" bestFit="1" customWidth="1"/>
+    <col min="8463" max="8463" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="8466" max="8466" width="10" bestFit="1" customWidth="1"/>
+    <col min="8470" max="8470" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="8472" max="8472" width="7" customWidth="1"/>
+    <col min="8474" max="8474" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="8705" max="8705" width="43.28515625" customWidth="1"/>
+    <col min="8706" max="8706" width="12.7109375" customWidth="1"/>
+    <col min="8707" max="8707" width="19.7109375" customWidth="1"/>
+    <col min="8708" max="8709" width="19.28515625" customWidth="1"/>
+    <col min="8718" max="8718" width="10" bestFit="1" customWidth="1"/>
+    <col min="8719" max="8719" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="8722" max="8722" width="10" bestFit="1" customWidth="1"/>
+    <col min="8726" max="8726" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="8728" max="8728" width="7" customWidth="1"/>
+    <col min="8730" max="8730" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="8961" max="8961" width="43.28515625" customWidth="1"/>
+    <col min="8962" max="8962" width="12.7109375" customWidth="1"/>
+    <col min="8963" max="8963" width="19.7109375" customWidth="1"/>
+    <col min="8964" max="8965" width="19.28515625" customWidth="1"/>
+    <col min="8974" max="8974" width="10" bestFit="1" customWidth="1"/>
+    <col min="8975" max="8975" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="8978" max="8978" width="10" bestFit="1" customWidth="1"/>
+    <col min="8982" max="8982" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="8984" max="8984" width="7" customWidth="1"/>
+    <col min="8986" max="8986" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="9217" max="9217" width="43.28515625" customWidth="1"/>
+    <col min="9218" max="9218" width="12.7109375" customWidth="1"/>
+    <col min="9219" max="9219" width="19.7109375" customWidth="1"/>
+    <col min="9220" max="9221" width="19.28515625" customWidth="1"/>
+    <col min="9230" max="9230" width="10" bestFit="1" customWidth="1"/>
+    <col min="9231" max="9231" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="9234" max="9234" width="10" bestFit="1" customWidth="1"/>
+    <col min="9238" max="9238" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="9240" max="9240" width="7" customWidth="1"/>
+    <col min="9242" max="9242" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="9473" max="9473" width="43.28515625" customWidth="1"/>
+    <col min="9474" max="9474" width="12.7109375" customWidth="1"/>
+    <col min="9475" max="9475" width="19.7109375" customWidth="1"/>
+    <col min="9476" max="9477" width="19.28515625" customWidth="1"/>
+    <col min="9486" max="9486" width="10" bestFit="1" customWidth="1"/>
+    <col min="9487" max="9487" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="9490" max="9490" width="10" bestFit="1" customWidth="1"/>
+    <col min="9494" max="9494" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="9496" max="9496" width="7" customWidth="1"/>
+    <col min="9498" max="9498" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="9729" max="9729" width="43.28515625" customWidth="1"/>
+    <col min="9730" max="9730" width="12.7109375" customWidth="1"/>
+    <col min="9731" max="9731" width="19.7109375" customWidth="1"/>
+    <col min="9732" max="9733" width="19.28515625" customWidth="1"/>
+    <col min="9742" max="9742" width="10" bestFit="1" customWidth="1"/>
+    <col min="9743" max="9743" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="9746" max="9746" width="10" bestFit="1" customWidth="1"/>
+    <col min="9750" max="9750" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="9752" max="9752" width="7" customWidth="1"/>
+    <col min="9754" max="9754" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="9985" max="9985" width="43.28515625" customWidth="1"/>
+    <col min="9986" max="9986" width="12.7109375" customWidth="1"/>
+    <col min="9987" max="9987" width="19.7109375" customWidth="1"/>
+    <col min="9988" max="9989" width="19.28515625" customWidth="1"/>
+    <col min="9998" max="9998" width="10" bestFit="1" customWidth="1"/>
+    <col min="9999" max="9999" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="10002" max="10002" width="10" bestFit="1" customWidth="1"/>
+    <col min="10006" max="10006" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="10008" max="10008" width="7" customWidth="1"/>
+    <col min="10010" max="10010" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="10241" max="10241" width="43.28515625" customWidth="1"/>
+    <col min="10242" max="10242" width="12.7109375" customWidth="1"/>
+    <col min="10243" max="10243" width="19.7109375" customWidth="1"/>
+    <col min="10244" max="10245" width="19.28515625" customWidth="1"/>
+    <col min="10254" max="10254" width="10" bestFit="1" customWidth="1"/>
+    <col min="10255" max="10255" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="10258" max="10258" width="10" bestFit="1" customWidth="1"/>
+    <col min="10262" max="10262" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="10264" max="10264" width="7" customWidth="1"/>
+    <col min="10266" max="10266" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="10497" max="10497" width="43.28515625" customWidth="1"/>
+    <col min="10498" max="10498" width="12.7109375" customWidth="1"/>
+    <col min="10499" max="10499" width="19.7109375" customWidth="1"/>
+    <col min="10500" max="10501" width="19.28515625" customWidth="1"/>
+    <col min="10510" max="10510" width="10" bestFit="1" customWidth="1"/>
+    <col min="10511" max="10511" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="10514" max="10514" width="10" bestFit="1" customWidth="1"/>
+    <col min="10518" max="10518" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="10520" max="10520" width="7" customWidth="1"/>
+    <col min="10522" max="10522" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="10753" max="10753" width="43.28515625" customWidth="1"/>
+    <col min="10754" max="10754" width="12.7109375" customWidth="1"/>
+    <col min="10755" max="10755" width="19.7109375" customWidth="1"/>
+    <col min="10756" max="10757" width="19.28515625" customWidth="1"/>
+    <col min="10766" max="10766" width="10" bestFit="1" customWidth="1"/>
+    <col min="10767" max="10767" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="10770" max="10770" width="10" bestFit="1" customWidth="1"/>
+    <col min="10774" max="10774" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="10776" max="10776" width="7" customWidth="1"/>
+    <col min="10778" max="10778" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="11009" max="11009" width="43.28515625" customWidth="1"/>
+    <col min="11010" max="11010" width="12.7109375" customWidth="1"/>
+    <col min="11011" max="11011" width="19.7109375" customWidth="1"/>
+    <col min="11012" max="11013" width="19.28515625" customWidth="1"/>
+    <col min="11022" max="11022" width="10" bestFit="1" customWidth="1"/>
+    <col min="11023" max="11023" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="11026" max="11026" width="10" bestFit="1" customWidth="1"/>
+    <col min="11030" max="11030" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="11032" max="11032" width="7" customWidth="1"/>
+    <col min="11034" max="11034" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="11265" max="11265" width="43.28515625" customWidth="1"/>
+    <col min="11266" max="11266" width="12.7109375" customWidth="1"/>
+    <col min="11267" max="11267" width="19.7109375" customWidth="1"/>
+    <col min="11268" max="11269" width="19.28515625" customWidth="1"/>
+    <col min="11278" max="11278" width="10" bestFit="1" customWidth="1"/>
+    <col min="11279" max="11279" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="11282" max="11282" width="10" bestFit="1" customWidth="1"/>
+    <col min="11286" max="11286" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="11288" max="11288" width="7" customWidth="1"/>
+    <col min="11290" max="11290" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="11521" max="11521" width="43.28515625" customWidth="1"/>
+    <col min="11522" max="11522" width="12.7109375" customWidth="1"/>
+    <col min="11523" max="11523" width="19.7109375" customWidth="1"/>
+    <col min="11524" max="11525" width="19.28515625" customWidth="1"/>
+    <col min="11534" max="11534" width="10" bestFit="1" customWidth="1"/>
+    <col min="11535" max="11535" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="11538" max="11538" width="10" bestFit="1" customWidth="1"/>
+    <col min="11542" max="11542" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="11544" max="11544" width="7" customWidth="1"/>
+    <col min="11546" max="11546" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="11777" max="11777" width="43.28515625" customWidth="1"/>
+    <col min="11778" max="11778" width="12.7109375" customWidth="1"/>
+    <col min="11779" max="11779" width="19.7109375" customWidth="1"/>
+    <col min="11780" max="11781" width="19.28515625" customWidth="1"/>
+    <col min="11790" max="11790" width="10" bestFit="1" customWidth="1"/>
+    <col min="11791" max="11791" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="11794" max="11794" width="10" bestFit="1" customWidth="1"/>
+    <col min="11798" max="11798" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="11800" max="11800" width="7" customWidth="1"/>
+    <col min="11802" max="11802" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="12033" max="12033" width="43.28515625" customWidth="1"/>
+    <col min="12034" max="12034" width="12.7109375" customWidth="1"/>
+    <col min="12035" max="12035" width="19.7109375" customWidth="1"/>
+    <col min="12036" max="12037" width="19.28515625" customWidth="1"/>
+    <col min="12046" max="12046" width="10" bestFit="1" customWidth="1"/>
+    <col min="12047" max="12047" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="12050" max="12050" width="10" bestFit="1" customWidth="1"/>
+    <col min="12054" max="12054" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="12056" max="12056" width="7" customWidth="1"/>
+    <col min="12058" max="12058" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="12289" max="12289" width="43.28515625" customWidth="1"/>
+    <col min="12290" max="12290" width="12.7109375" customWidth="1"/>
+    <col min="12291" max="12291" width="19.7109375" customWidth="1"/>
+    <col min="12292" max="12293" width="19.28515625" customWidth="1"/>
+    <col min="12302" max="12302" width="10" bestFit="1" customWidth="1"/>
+    <col min="12303" max="12303" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="12306" max="12306" width="10" bestFit="1" customWidth="1"/>
+    <col min="12310" max="12310" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="12312" max="12312" width="7" customWidth="1"/>
+    <col min="12314" max="12314" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="12545" max="12545" width="43.28515625" customWidth="1"/>
+    <col min="12546" max="12546" width="12.7109375" customWidth="1"/>
+    <col min="12547" max="12547" width="19.7109375" customWidth="1"/>
+    <col min="12548" max="12549" width="19.28515625" customWidth="1"/>
+    <col min="12558" max="12558" width="10" bestFit="1" customWidth="1"/>
+    <col min="12559" max="12559" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="12562" max="12562" width="10" bestFit="1" customWidth="1"/>
+    <col min="12566" max="12566" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="12568" max="12568" width="7" customWidth="1"/>
+    <col min="12570" max="12570" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="12801" max="12801" width="43.28515625" customWidth="1"/>
+    <col min="12802" max="12802" width="12.7109375" customWidth="1"/>
+    <col min="12803" max="12803" width="19.7109375" customWidth="1"/>
+    <col min="12804" max="12805" width="19.28515625" customWidth="1"/>
+    <col min="12814" max="12814" width="10" bestFit="1" customWidth="1"/>
+    <col min="12815" max="12815" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="12818" max="12818" width="10" bestFit="1" customWidth="1"/>
+    <col min="12822" max="12822" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="12824" max="12824" width="7" customWidth="1"/>
+    <col min="12826" max="12826" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="13057" max="13057" width="43.28515625" customWidth="1"/>
+    <col min="13058" max="13058" width="12.7109375" customWidth="1"/>
+    <col min="13059" max="13059" width="19.7109375" customWidth="1"/>
+    <col min="13060" max="13061" width="19.28515625" customWidth="1"/>
+    <col min="13070" max="13070" width="10" bestFit="1" customWidth="1"/>
+    <col min="13071" max="13071" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="13074" max="13074" width="10" bestFit="1" customWidth="1"/>
+    <col min="13078" max="13078" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="13080" max="13080" width="7" customWidth="1"/>
+    <col min="13082" max="13082" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="13313" max="13313" width="43.28515625" customWidth="1"/>
+    <col min="13314" max="13314" width="12.7109375" customWidth="1"/>
+    <col min="13315" max="13315" width="19.7109375" customWidth="1"/>
+    <col min="13316" max="13317" width="19.28515625" customWidth="1"/>
+    <col min="13326" max="13326" width="10" bestFit="1" customWidth="1"/>
+    <col min="13327" max="13327" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="13330" max="13330" width="10" bestFit="1" customWidth="1"/>
+    <col min="13334" max="13334" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="13336" max="13336" width="7" customWidth="1"/>
+    <col min="13338" max="13338" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="13569" max="13569" width="43.28515625" customWidth="1"/>
+    <col min="13570" max="13570" width="12.7109375" customWidth="1"/>
+    <col min="13571" max="13571" width="19.7109375" customWidth="1"/>
+    <col min="13572" max="13573" width="19.28515625" customWidth="1"/>
+    <col min="13582" max="13582" width="10" bestFit="1" customWidth="1"/>
+    <col min="13583" max="13583" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="13586" max="13586" width="10" bestFit="1" customWidth="1"/>
+    <col min="13590" max="13590" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="13592" max="13592" width="7" customWidth="1"/>
+    <col min="13594" max="13594" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="13825" max="13825" width="43.28515625" customWidth="1"/>
+    <col min="13826" max="13826" width="12.7109375" customWidth="1"/>
+    <col min="13827" max="13827" width="19.7109375" customWidth="1"/>
+    <col min="13828" max="13829" width="19.28515625" customWidth="1"/>
+    <col min="13838" max="13838" width="10" bestFit="1" customWidth="1"/>
+    <col min="13839" max="13839" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="13842" max="13842" width="10" bestFit="1" customWidth="1"/>
+    <col min="13846" max="13846" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="13848" max="13848" width="7" customWidth="1"/>
+    <col min="13850" max="13850" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="14081" max="14081" width="43.28515625" customWidth="1"/>
+    <col min="14082" max="14082" width="12.7109375" customWidth="1"/>
+    <col min="14083" max="14083" width="19.7109375" customWidth="1"/>
+    <col min="14084" max="14085" width="19.28515625" customWidth="1"/>
+    <col min="14094" max="14094" width="10" bestFit="1" customWidth="1"/>
+    <col min="14095" max="14095" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="14098" max="14098" width="10" bestFit="1" customWidth="1"/>
+    <col min="14102" max="14102" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="14104" max="14104" width="7" customWidth="1"/>
+    <col min="14106" max="14106" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="14337" max="14337" width="43.28515625" customWidth="1"/>
+    <col min="14338" max="14338" width="12.7109375" customWidth="1"/>
+    <col min="14339" max="14339" width="19.7109375" customWidth="1"/>
+    <col min="14340" max="14341" width="19.28515625" customWidth="1"/>
+    <col min="14350" max="14350" width="10" bestFit="1" customWidth="1"/>
+    <col min="14351" max="14351" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="14354" max="14354" width="10" bestFit="1" customWidth="1"/>
+    <col min="14358" max="14358" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="14360" max="14360" width="7" customWidth="1"/>
+    <col min="14362" max="14362" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="14593" max="14593" width="43.28515625" customWidth="1"/>
+    <col min="14594" max="14594" width="12.7109375" customWidth="1"/>
+    <col min="14595" max="14595" width="19.7109375" customWidth="1"/>
+    <col min="14596" max="14597" width="19.28515625" customWidth="1"/>
+    <col min="14606" max="14606" width="10" bestFit="1" customWidth="1"/>
+    <col min="14607" max="14607" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="14610" max="14610" width="10" bestFit="1" customWidth="1"/>
+    <col min="14614" max="14614" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="14616" max="14616" width="7" customWidth="1"/>
+    <col min="14618" max="14618" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="14849" max="14849" width="43.28515625" customWidth="1"/>
+    <col min="14850" max="14850" width="12.7109375" customWidth="1"/>
+    <col min="14851" max="14851" width="19.7109375" customWidth="1"/>
+    <col min="14852" max="14853" width="19.28515625" customWidth="1"/>
+    <col min="14862" max="14862" width="10" bestFit="1" customWidth="1"/>
+    <col min="14863" max="14863" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="14866" max="14866" width="10" bestFit="1" customWidth="1"/>
+    <col min="14870" max="14870" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="14872" max="14872" width="7" customWidth="1"/>
+    <col min="14874" max="14874" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="15105" max="15105" width="43.28515625" customWidth="1"/>
+    <col min="15106" max="15106" width="12.7109375" customWidth="1"/>
+    <col min="15107" max="15107" width="19.7109375" customWidth="1"/>
+    <col min="15108" max="15109" width="19.28515625" customWidth="1"/>
+    <col min="15118" max="15118" width="10" bestFit="1" customWidth="1"/>
+    <col min="15119" max="15119" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="15122" max="15122" width="10" bestFit="1" customWidth="1"/>
+    <col min="15126" max="15126" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="15128" max="15128" width="7" customWidth="1"/>
+    <col min="15130" max="15130" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="15361" max="15361" width="43.28515625" customWidth="1"/>
+    <col min="15362" max="15362" width="12.7109375" customWidth="1"/>
+    <col min="15363" max="15363" width="19.7109375" customWidth="1"/>
+    <col min="15364" max="15365" width="19.28515625" customWidth="1"/>
+    <col min="15374" max="15374" width="10" bestFit="1" customWidth="1"/>
+    <col min="15375" max="15375" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="15378" max="15378" width="10" bestFit="1" customWidth="1"/>
+    <col min="15382" max="15382" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="15384" max="15384" width="7" customWidth="1"/>
+    <col min="15386" max="15386" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="15617" max="15617" width="43.28515625" customWidth="1"/>
+    <col min="15618" max="15618" width="12.7109375" customWidth="1"/>
+    <col min="15619" max="15619" width="19.7109375" customWidth="1"/>
+    <col min="15620" max="15621" width="19.28515625" customWidth="1"/>
+    <col min="15630" max="15630" width="10" bestFit="1" customWidth="1"/>
+    <col min="15631" max="15631" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="15634" max="15634" width="10" bestFit="1" customWidth="1"/>
+    <col min="15638" max="15638" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="15640" max="15640" width="7" customWidth="1"/>
+    <col min="15642" max="15642" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="15873" max="15873" width="43.28515625" customWidth="1"/>
+    <col min="15874" max="15874" width="12.7109375" customWidth="1"/>
+    <col min="15875" max="15875" width="19.7109375" customWidth="1"/>
+    <col min="15876" max="15877" width="19.28515625" customWidth="1"/>
+    <col min="15886" max="15886" width="10" bestFit="1" customWidth="1"/>
+    <col min="15887" max="15887" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="15890" max="15890" width="10" bestFit="1" customWidth="1"/>
+    <col min="15894" max="15894" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="15896" max="15896" width="7" customWidth="1"/>
+    <col min="15898" max="15898" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="16129" max="16129" width="43.28515625" customWidth="1"/>
+    <col min="16130" max="16130" width="12.7109375" customWidth="1"/>
+    <col min="16131" max="16131" width="19.7109375" customWidth="1"/>
+    <col min="16132" max="16133" width="19.28515625" customWidth="1"/>
+    <col min="16142" max="16142" width="10" bestFit="1" customWidth="1"/>
+    <col min="16143" max="16143" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="16146" max="16146" width="10" bestFit="1" customWidth="1"/>
+    <col min="16150" max="16150" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="16152" max="16152" width="7" customWidth="1"/>
+    <col min="16154" max="16154" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="36" t="s">
+      <c r="B1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="38" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="36" t="s">
@@ -4992,542 +4888,631 @@
         <v>4</v>
       </c>
       <c r="F1" s="36" t="s">
-        <v>5</v>
+        <v>91</v>
       </c>
       <c r="G1" s="36" t="s">
-        <v>224</v>
+        <v>17</v>
       </c>
       <c r="H1" s="36" t="s">
-        <v>221</v>
+        <v>18</v>
       </c>
       <c r="I1" s="36" t="s">
-        <v>223</v>
+        <v>19</v>
       </c>
       <c r="J1" s="36" t="s">
-        <v>222</v>
+        <v>20</v>
       </c>
       <c r="K1" s="36" t="s">
-        <v>225</v>
+        <v>21</v>
       </c>
       <c r="L1" s="36" t="s">
-        <v>226</v>
+        <v>22</v>
       </c>
       <c r="M1" s="36" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="N1" s="36" t="s">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="O1" s="36" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="P1" s="36" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="Q1" s="36" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="R1" s="36" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="S1" s="36" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="T1" s="36" t="s">
-        <v>24</v>
+        <v>104</v>
       </c>
       <c r="U1" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="V1" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="W1" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="X1" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y1" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z1" s="36" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" s="17">
+        <v>100</v>
+      </c>
+      <c r="E2" s="17">
+        <v>12000</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <f>2771.2/0.962</f>
+        <v>2880.6652806652805</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2">
+        <f>-284.2/0.962</f>
+        <v>-295.42619542619542</v>
+      </c>
+      <c r="M2" s="2">
         <v>25</v>
       </c>
-      <c r="V1" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="W1" s="40" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D2" s="17">
-        <v>0</v>
-      </c>
-      <c r="E2" s="17">
-        <v>25000</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="G2" s="2">
-        <v>1</v>
-      </c>
-      <c r="H2" s="17">
-        <v>360</v>
-      </c>
-      <c r="I2" s="17">
-        <v>360</v>
-      </c>
-      <c r="J2" s="17">
-        <v>1100</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="11">
+        <v>25</v>
+      </c>
+      <c r="O2" s="2">
+        <v>1</v>
+      </c>
+      <c r="P2" s="2">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="11">
+        <v>0</v>
+      </c>
+      <c r="R2" s="11">
+        <v>0</v>
+      </c>
+      <c r="S2" s="11">
+        <v>70</v>
+      </c>
+      <c r="T2" s="11">
+        <v>90</v>
+      </c>
+      <c r="U2" s="11">
+        <v>0</v>
+      </c>
+      <c r="V2" s="11">
+        <v>997</v>
+      </c>
+      <c r="W2" s="11">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="X2" s="11">
+        <v>0.98</v>
+      </c>
+      <c r="Y2" s="11">
+        <v>0.96</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3" s="17">
+        <v>12000</v>
+      </c>
+      <c r="E3" s="17">
+        <v>10000000000</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="2">
-        <f>-333/0.962</f>
-        <v>-346.15384615384619</v>
-      </c>
-      <c r="O2" s="2">
-        <f>0.067/0.962</f>
-        <v>6.964656964656965E-2</v>
-      </c>
-      <c r="P2" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>0</v>
-      </c>
-      <c r="R2" s="2">
-        <v>0</v>
-      </c>
-      <c r="S2" s="2">
-        <v>20</v>
-      </c>
-      <c r="T2" s="2">
-        <v>5</v>
-      </c>
-      <c r="U2" s="2">
-        <v>5</v>
-      </c>
-      <c r="V2" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="W2" s="27" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="D3" s="17">
-        <v>5000</v>
-      </c>
-      <c r="E3" s="17">
-        <v>40000000</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="G3" s="2">
-        <v>1</v>
-      </c>
-      <c r="H3" s="17">
-        <v>1100</v>
-      </c>
-      <c r="I3" s="17">
-        <v>1100</v>
-      </c>
-      <c r="J3" s="17">
-        <v>36000</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="M3" s="2" t="s">
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <f>2771.2/0.962</f>
+        <v>2880.6652806652805</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
+        <f>-284.2/0.962</f>
+        <v>-295.42619542619542</v>
+      </c>
+      <c r="M3" s="2">
+        <v>25</v>
+      </c>
+      <c r="N3" s="11">
+        <v>25</v>
+      </c>
+      <c r="O3" s="2">
+        <v>1</v>
+      </c>
+      <c r="P3" s="2">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="11">
+        <v>0</v>
+      </c>
+      <c r="R3" s="11">
+        <v>0</v>
+      </c>
+      <c r="S3" s="11">
+        <v>70</v>
+      </c>
+      <c r="T3" s="11">
+        <v>90</v>
+      </c>
+      <c r="U3" s="11">
+        <v>0</v>
+      </c>
+      <c r="V3" s="11">
+        <v>997</v>
+      </c>
+      <c r="W3" s="11">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="X3" s="11">
+        <v>0.98</v>
+      </c>
+      <c r="Y3" s="11">
+        <v>0.96</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="17">
+        <v>0</v>
+      </c>
+      <c r="E4" s="17">
+        <v>10000000000</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="G4" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="N3" s="2">
-        <f>5000/0.962</f>
-        <v>5197.5051975051974</v>
-      </c>
-      <c r="O3" s="2">
-        <v>0</v>
-      </c>
-      <c r="P3" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>0</v>
-      </c>
-      <c r="R3" s="2">
-        <v>0</v>
-      </c>
-      <c r="S3" s="2">
-        <v>20</v>
-      </c>
-      <c r="T3" s="2">
-        <v>5</v>
-      </c>
-      <c r="U3" s="2">
-        <v>5</v>
-      </c>
-      <c r="V3" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="W3" s="27" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="D4" s="17">
-        <v>5000</v>
-      </c>
-      <c r="E4" s="17">
-        <v>100000000</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="G4" s="2">
-        <v>1</v>
-      </c>
-      <c r="H4" s="17">
-        <v>36000</v>
-      </c>
-      <c r="I4" s="17">
-        <v>36000</v>
-      </c>
-      <c r="J4" s="17">
-        <v>100000</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="M4" s="2" t="s">
+      <c r="H4" s="11">
+        <v>0</v>
+      </c>
+      <c r="I4" s="11">
+        <v>108</v>
+      </c>
+      <c r="J4" s="11">
+        <v>1</v>
+      </c>
+      <c r="K4" s="11">
+        <v>0</v>
+      </c>
+      <c r="L4" s="11">
+        <v>0</v>
+      </c>
+      <c r="M4" s="11">
+        <v>25</v>
+      </c>
+      <c r="N4" s="11">
+        <v>25</v>
+      </c>
+      <c r="O4" s="11">
+        <v>2</v>
+      </c>
+      <c r="P4" s="11">
+        <v>6</v>
+      </c>
+      <c r="Q4" s="11">
+        <v>0</v>
+      </c>
+      <c r="R4" s="11">
+        <v>0</v>
+      </c>
+      <c r="S4" s="11">
+        <v>4</v>
+      </c>
+      <c r="T4" s="11">
+        <v>13</v>
+      </c>
+      <c r="U4" s="11">
+        <v>0</v>
+      </c>
+      <c r="V4" s="11">
+        <v>997</v>
+      </c>
+      <c r="W4" s="11">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="X4" s="11">
+        <v>0.98</v>
+      </c>
+      <c r="Y4" s="11">
+        <v>0.96</v>
+      </c>
+      <c r="Z4" s="11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" s="17">
+        <v>0</v>
+      </c>
+      <c r="E5" s="17">
+        <v>10000000000</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="G5" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="2">
-        <f>-3000/0.962</f>
-        <v>-3118.5031185031185</v>
-      </c>
-      <c r="O4" s="2">
-        <f>0.08/0.962</f>
-        <v>8.3160083160083165E-2</v>
-      </c>
-      <c r="P4" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>0</v>
-      </c>
-      <c r="R4" s="2">
-        <v>0</v>
-      </c>
-      <c r="S4" s="2">
-        <v>20</v>
-      </c>
-      <c r="T4" s="2">
-        <v>5</v>
-      </c>
-      <c r="U4" s="2">
-        <v>5</v>
-      </c>
-      <c r="V4" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="W4" s="27" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A7" s="42"/>
-      <c r="U7" s="42"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:O5"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="17.453125" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="5" width="21.6328125" customWidth="1"/>
-    <col min="8" max="8" width="11.6328125" customWidth="1"/>
-    <col min="10" max="10" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="36" t="s">
+      <c r="H5" s="11">
+        <v>0</v>
+      </c>
+      <c r="I5" s="11">
+        <v>117.9</v>
+      </c>
+      <c r="J5" s="11">
+        <v>1</v>
+      </c>
+      <c r="K5" s="11">
+        <v>0</v>
+      </c>
+      <c r="L5" s="11">
+        <v>0</v>
+      </c>
+      <c r="M5" s="11">
+        <v>25</v>
+      </c>
+      <c r="N5" s="11">
+        <v>25</v>
+      </c>
+      <c r="O5" s="11">
+        <v>2</v>
+      </c>
+      <c r="P5" s="11">
+        <v>6</v>
+      </c>
+      <c r="Q5" s="11">
+        <v>4.8</v>
+      </c>
+      <c r="R5" s="11">
+        <v>0</v>
+      </c>
+      <c r="S5" s="11">
+        <v>-0.5</v>
+      </c>
+      <c r="T5" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="U5" s="11">
+        <v>334</v>
+      </c>
+      <c r="V5" s="11">
+        <v>917</v>
+      </c>
+      <c r="W5" s="11">
+        <v>2.11</v>
+      </c>
+      <c r="X5" s="11">
+        <v>0.98</v>
+      </c>
+      <c r="Y5" s="11">
+        <v>0.96</v>
+      </c>
+      <c r="Z5" s="11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" s="17">
+        <v>0</v>
+      </c>
+      <c r="E6" s="17">
+        <v>10000000000</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="11">
+        <v>0</v>
+      </c>
+      <c r="I6" s="11">
+        <v>117.9</v>
+      </c>
+      <c r="J6" s="11">
+        <v>1</v>
+      </c>
+      <c r="K6" s="11">
+        <v>0</v>
+      </c>
+      <c r="L6" s="11">
+        <v>0</v>
+      </c>
+      <c r="M6" s="11">
+        <v>25</v>
+      </c>
+      <c r="N6" s="11">
+        <v>7</v>
+      </c>
+      <c r="O6" s="11">
+        <v>2</v>
+      </c>
+      <c r="P6" s="11">
+        <v>6</v>
+      </c>
+      <c r="Q6" s="11">
+        <v>4.8</v>
+      </c>
+      <c r="R6" s="11">
         <v>4</v>
       </c>
-      <c r="E1" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="L1" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="M1" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="N1" s="36" t="s">
+      <c r="S6" s="11">
+        <v>3.5</v>
+      </c>
+      <c r="T6" s="11">
+        <v>4.5</v>
+      </c>
+      <c r="U6" s="11">
+        <v>234</v>
+      </c>
+      <c r="V6" s="11">
+        <v>1600</v>
+      </c>
+      <c r="W6" s="11">
+        <v>2</v>
+      </c>
+      <c r="X6" s="11">
+        <v>0.98</v>
+      </c>
+      <c r="Y6" s="11">
+        <v>0.96</v>
+      </c>
+      <c r="Z6" s="11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" s="17">
+        <v>0</v>
+      </c>
+      <c r="E7" s="17">
+        <v>10000000000</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="11">
+        <v>0</v>
+      </c>
+      <c r="I7" s="11">
+        <v>156.30000000000001</v>
+      </c>
+      <c r="J7" s="11">
+        <v>1</v>
+      </c>
+      <c r="K7" s="11">
+        <v>0</v>
+      </c>
+      <c r="L7" s="11">
+        <v>0</v>
+      </c>
+      <c r="M7" s="11">
         <v>25</v>
       </c>
-      <c r="O1" s="36" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A2" s="36" t="s">
-        <v>97</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C2" s="2">
-        <v>500</v>
-      </c>
-      <c r="D2" s="2">
-        <v>4000</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="N7" s="11">
+        <v>7</v>
+      </c>
+      <c r="O7" s="11">
+        <v>2</v>
+      </c>
+      <c r="P7" s="11">
+        <v>6</v>
+      </c>
+      <c r="Q7" s="11">
+        <v>27.3</v>
+      </c>
+      <c r="R7" s="11">
+        <v>5.4</v>
+      </c>
+      <c r="S7" s="11">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="T7" s="11">
+        <v>5.9</v>
+      </c>
+      <c r="U7" s="11">
+        <v>105</v>
+      </c>
+      <c r="V7" s="11">
+        <v>1125</v>
+      </c>
+      <c r="W7" s="11">
+        <v>2.09</v>
+      </c>
+      <c r="X7" s="11">
+        <v>0.98</v>
+      </c>
+      <c r="Y7" s="11">
+        <v>0.96</v>
+      </c>
+      <c r="Z7" s="11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" s="17">
+        <v>0</v>
+      </c>
+      <c r="E8" s="17">
+        <v>10000000000</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="G8" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2">
-        <f>28.2/0.962</f>
-        <v>29.313929313929314</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0.52159999999999995</v>
-      </c>
-      <c r="J2" s="2">
-        <v>0</v>
-      </c>
-      <c r="K2" s="2">
-        <v>0</v>
-      </c>
-      <c r="L2" s="2">
+      <c r="H8" s="11">
+        <v>0</v>
+      </c>
+      <c r="I8" s="11">
+        <v>141.5</v>
+      </c>
+      <c r="J8" s="11">
+        <v>1</v>
+      </c>
+      <c r="K8" s="11">
+        <v>0</v>
+      </c>
+      <c r="L8" s="11">
+        <v>0</v>
+      </c>
+      <c r="M8" s="11">
         <v>25</v>
       </c>
-      <c r="M2" s="2">
-        <v>1</v>
-      </c>
-      <c r="N2" s="2">
+      <c r="N8" s="11">
+        <v>7</v>
+      </c>
+      <c r="O8" s="11">
+        <v>2</v>
+      </c>
+      <c r="P8" s="11">
         <v>6</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C3" s="2">
-        <v>4000</v>
-      </c>
-      <c r="D3" s="2">
-        <v>37000</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2">
-        <f>4.1587/0.962</f>
-        <v>4.3229729729729724</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0.74639999999999995</v>
-      </c>
-      <c r="J3" s="2">
-        <v>0</v>
-      </c>
-      <c r="K3" s="2">
-        <v>0</v>
-      </c>
-      <c r="L3" s="2">
-        <v>25</v>
-      </c>
-      <c r="M3" s="2">
-        <v>1</v>
-      </c>
-      <c r="N3" s="2">
-        <v>6</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C4" s="2">
-        <v>37000</v>
-      </c>
-      <c r="D4" s="2">
-        <v>375000</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2">
-        <f>0.9782/0.962</f>
-        <v>1.0168399168399169</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0.88729999999999998</v>
-      </c>
-      <c r="J4" s="2">
-        <v>0</v>
-      </c>
-      <c r="K4" s="2">
-        <v>0</v>
-      </c>
-      <c r="L4" s="2">
-        <v>25</v>
-      </c>
-      <c r="M4" s="2">
-        <v>1</v>
-      </c>
-      <c r="N4" s="2">
-        <v>6</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C5" s="2">
-        <v>37000</v>
-      </c>
-      <c r="D5" s="5">
-        <v>10000000000</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
-        <f>0.9782/0.962</f>
-        <v>1.0168399168399169</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0.88729999999999998</v>
-      </c>
-      <c r="J5" s="2">
-        <v>0</v>
-      </c>
-      <c r="K5" s="2">
-        <v>0</v>
-      </c>
-      <c r="L5" s="2">
-        <v>25</v>
-      </c>
-      <c r="M5" s="2">
-        <v>1</v>
-      </c>
-      <c r="N5" s="2">
-        <v>6</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>84</v>
+      <c r="Q8" s="11">
+        <v>19.7</v>
+      </c>
+      <c r="R8" s="11">
+        <v>5</v>
+      </c>
+      <c r="S8" s="11">
+        <v>4.5</v>
+      </c>
+      <c r="T8" s="11">
+        <v>5.5</v>
+      </c>
+      <c r="U8" s="11">
+        <v>230</v>
+      </c>
+      <c r="V8" s="11">
+        <v>760</v>
+      </c>
+      <c r="W8" s="11">
+        <v>2.14</v>
+      </c>
+      <c r="X8" s="11">
+        <v>0.98</v>
+      </c>
+      <c r="Y8" s="11">
+        <v>0.96</v>
+      </c>
+      <c r="Z8" s="11" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -5539,23 +5524,610 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E588DD75-4ED6-A447-B30A-4A128452EE65}">
+  <dimension ref="A1:W7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U27" sqref="U27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="7" max="10" width="17" customWidth="1"/>
+    <col min="11" max="11" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
+    <col min="13" max="21" width="8.85546875"/>
+    <col min="22" max="22" width="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>224</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="J1" s="36" t="s">
+        <v>222</v>
+      </c>
+      <c r="K1" s="36" t="s">
+        <v>225</v>
+      </c>
+      <c r="L1" s="36" t="s">
+        <v>226</v>
+      </c>
+      <c r="M1" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="U1" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="V1" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="W1" s="40" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D2" s="17">
+        <v>0</v>
+      </c>
+      <c r="E2" s="17">
+        <v>25000</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="17">
+        <v>360</v>
+      </c>
+      <c r="I2" s="17">
+        <v>360</v>
+      </c>
+      <c r="J2" s="17">
+        <v>1100</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="2">
+        <f>-333/0.962</f>
+        <v>-346.15384615384619</v>
+      </c>
+      <c r="O2" s="2">
+        <f>0.067/0.962</f>
+        <v>6.964656964656965E-2</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0</v>
+      </c>
+      <c r="R2" s="2">
+        <v>0</v>
+      </c>
+      <c r="S2" s="2">
+        <v>20</v>
+      </c>
+      <c r="T2" s="2">
+        <v>5</v>
+      </c>
+      <c r="U2" s="2">
+        <v>5</v>
+      </c>
+      <c r="V2" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="W2" s="27" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D3" s="17">
+        <v>5000</v>
+      </c>
+      <c r="E3" s="17">
+        <v>40000000</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+      <c r="H3" s="17">
+        <v>1100</v>
+      </c>
+      <c r="I3" s="17">
+        <v>1100</v>
+      </c>
+      <c r="J3" s="17">
+        <v>36000</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="2">
+        <f>5000/0.962</f>
+        <v>5197.5051975051974</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0</v>
+      </c>
+      <c r="R3" s="2">
+        <v>0</v>
+      </c>
+      <c r="S3" s="2">
+        <v>20</v>
+      </c>
+      <c r="T3" s="2">
+        <v>5</v>
+      </c>
+      <c r="U3" s="2">
+        <v>5</v>
+      </c>
+      <c r="V3" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="W3" s="27" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D4" s="17">
+        <v>5000</v>
+      </c>
+      <c r="E4" s="17">
+        <v>100000000</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+      <c r="H4" s="17">
+        <v>36000</v>
+      </c>
+      <c r="I4" s="17">
+        <v>36000</v>
+      </c>
+      <c r="J4" s="17">
+        <v>100000</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" s="2">
+        <f>-3000/0.962</f>
+        <v>-3118.5031185031185</v>
+      </c>
+      <c r="O4" s="2">
+        <f>0.08/0.962</f>
+        <v>8.3160083160083165E-2</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0</v>
+      </c>
+      <c r="R4" s="2">
+        <v>0</v>
+      </c>
+      <c r="S4" s="2">
+        <v>20</v>
+      </c>
+      <c r="T4" s="2">
+        <v>5</v>
+      </c>
+      <c r="U4" s="2">
+        <v>5</v>
+      </c>
+      <c r="V4" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="W4" s="27" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" s="42"/>
+      <c r="U7" s="42"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <dimension ref="A1:O5"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="5" width="21.7109375" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="36" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="2">
+        <v>500</v>
+      </c>
+      <c r="D2" s="2">
+        <v>4000</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <f>28.2/0.962</f>
+        <v>29.313929313929314</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0.52159999999999995</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2">
+        <v>25</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1</v>
+      </c>
+      <c r="N2" s="2">
+        <v>6</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="2">
+        <v>4000</v>
+      </c>
+      <c r="D3" s="2">
+        <v>37000</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <f>4.1587/0.962</f>
+        <v>4.3229729729729724</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.74639999999999995</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>25</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1</v>
+      </c>
+      <c r="N3" s="2">
+        <v>6</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="2">
+        <v>37000</v>
+      </c>
+      <c r="D4" s="2">
+        <v>375000</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <f>0.9782/0.962</f>
+        <v>1.0168399168399169</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.88729999999999998</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <v>25</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1</v>
+      </c>
+      <c r="N4" s="2">
+        <v>6</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="2">
+        <v>37000</v>
+      </c>
+      <c r="D5" s="5">
+        <v>10000000000</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <f>0.9782/0.962</f>
+        <v>1.0168399168399169</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.88729999999999998</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>25</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1</v>
+      </c>
+      <c r="N5" s="2">
+        <v>6</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AH22" sqref="AH22"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="15.36328125" customWidth="1"/>
-    <col min="3" max="3" width="16.6328125" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="15" max="15" width="29.6328125" customWidth="1"/>
+    <col min="15" max="15" width="29.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5602,7 +6174,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>87</v>
       </c>
@@ -5658,26 +6230,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AG3"/>
+  <dimension ref="A1:AH3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6328125" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.36328125" customWidth="1"/>
-    <col min="22" max="22" width="12.6328125" customWidth="1"/>
-    <col min="23" max="23" width="10.453125" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" customWidth="1"/>
+    <col min="22" max="22" width="12.7109375" customWidth="1"/>
+    <col min="23" max="23" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -5693,92 +6265,95 @@
       <c r="E1" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="39" t="s">
+        <v>257</v>
+      </c>
+      <c r="G1" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="H1" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="I1" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="J1" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="K1" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="L1" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="L1" s="36" t="s">
+      <c r="M1" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="M1" s="41" t="s">
+      <c r="N1" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="N1" s="39" t="s">
+      <c r="O1" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="O1" s="39" t="s">
+      <c r="P1" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="P1" s="39" t="s">
+      <c r="Q1" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="Q1" s="39" t="s">
+      <c r="R1" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="R1" s="39" t="s">
+      <c r="S1" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="S1" s="39" t="s">
+      <c r="T1" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="T1" s="39" t="s">
+      <c r="U1" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="U1" s="36" t="s">
+      <c r="V1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="V1" s="36" t="s">
+      <c r="W1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="W1" s="36" t="s">
-        <v>5</v>
-      </c>
       <c r="X1" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y1" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="Y1" s="36" t="s">
+      <c r="Z1" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="Z1" s="36" t="s">
+      <c r="AA1" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="AA1" s="36" t="s">
+      <c r="AB1" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="AB1" s="36" t="s">
+      <c r="AC1" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="AC1" s="36" t="s">
+      <c r="AD1" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="AD1" s="36" t="s">
+      <c r="AE1" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="AE1" s="36" t="s">
+      <c r="AF1" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="AF1" s="36" t="s">
+      <c r="AG1" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="AG1" s="36" t="s">
+      <c r="AH1" s="36" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>53</v>
       </c>
@@ -5795,95 +6370,98 @@
         <v>2.0230000000000001</v>
       </c>
       <c r="F2" s="2">
+        <v>60</v>
+      </c>
+      <c r="G2" s="2">
         <v>0.88800000000000001</v>
       </c>
-      <c r="G2" s="2">
+      <c r="H2" s="2">
         <v>0.77500000000000002</v>
       </c>
-      <c r="H2" s="2">
+      <c r="I2" s="2">
         <v>3.91</v>
       </c>
-      <c r="I2" s="2">
+      <c r="J2" s="2">
         <v>8.0999999999999996E-3</v>
       </c>
-      <c r="J2" s="7">
+      <c r="K2" s="7">
         <v>57.98</v>
       </c>
-      <c r="K2" s="7">
+      <c r="L2" s="7">
         <v>86.97</v>
       </c>
-      <c r="L2" s="7">
+      <c r="M2" s="7">
         <v>28.99</v>
       </c>
-      <c r="M2" s="7">
+      <c r="N2" s="7">
         <v>8000</v>
       </c>
-      <c r="N2" s="7">
+      <c r="O2" s="7">
         <v>192</v>
       </c>
-      <c r="O2" s="7">
+      <c r="P2" s="7">
         <v>0.87</v>
       </c>
-      <c r="P2" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="8">
-        <f>170/($E2*$F2)</f>
+      <c r="Q2" s="7">
+        <v>0</v>
+      </c>
+      <c r="R2" s="8">
+        <f>170/($E2*$G2)</f>
         <v>94.632447573624034</v>
       </c>
-      <c r="R2" s="8">
-        <f>270/($E2*$F2)</f>
+      <c r="S2" s="8">
+        <f>270/($E2*$G2)</f>
         <v>150.29859320516758</v>
       </c>
-      <c r="S2" s="8">
-        <f>80/($E2*$F2)</f>
+      <c r="T2" s="8">
+        <f>80/($E2*$G2)</f>
         <v>44.532916505234837</v>
       </c>
-      <c r="T2" s="8">
+      <c r="U2" s="8">
         <v>3680</v>
       </c>
-      <c r="U2" s="2">
-        <v>1</v>
-      </c>
-      <c r="V2" s="5">
+      <c r="V2" s="2">
+        <v>1</v>
+      </c>
+      <c r="W2" s="5">
         <v>10000000000</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Y2" s="2">
-        <v>0</v>
-      </c>
       <c r="Z2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="2">
         <f>2050/0.962</f>
         <v>2130.9771309771309</v>
       </c>
-      <c r="AA2" s="2">
-        <v>1</v>
-      </c>
       <c r="AB2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC2" s="2">
         <v>0</v>
       </c>
       <c r="AD2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="2">
         <v>20</v>
       </c>
-      <c r="AE2" s="2">
-        <v>5</v>
-      </c>
       <c r="AF2" s="2">
         <v>5</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AG2" s="2">
+        <v>5</v>
+      </c>
+      <c r="AH2" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>57</v>
       </c>
@@ -5900,91 +6478,94 @@
         <v>4.3220000000000001</v>
       </c>
       <c r="F3" s="2">
+        <v>100</v>
+      </c>
+      <c r="G3" s="2">
         <v>0.65500000000000003</v>
       </c>
-      <c r="G3" s="2">
+      <c r="H3" s="2">
         <v>0.72099999999999997</v>
       </c>
-      <c r="H3" s="2">
+      <c r="I3" s="2">
         <v>0.89</v>
       </c>
-      <c r="I3" s="2">
+      <c r="J3" s="2">
         <v>1.9900000000000001E-2</v>
       </c>
-      <c r="J3" s="7">
+      <c r="K3" s="7">
         <v>88.2</v>
       </c>
-      <c r="K3" s="7">
+      <c r="L3" s="7">
         <v>147.12</v>
       </c>
-      <c r="L3" s="7">
+      <c r="M3" s="7">
         <v>33.1</v>
       </c>
-      <c r="M3" s="7">
+      <c r="N3" s="7">
         <v>39000</v>
       </c>
-      <c r="N3" s="7">
+      <c r="O3" s="7">
         <v>196</v>
       </c>
-      <c r="O3" s="7">
+      <c r="P3" s="7">
         <v>0.91</v>
       </c>
-      <c r="P3" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="8">
-        <f>8000/($E3*$F3)</f>
+      <c r="Q3" s="7">
+        <v>0</v>
+      </c>
+      <c r="R3" s="8">
+        <f>8000/($E3*$G3)</f>
         <v>2825.9464271206075</v>
       </c>
-      <c r="R3" s="8">
-        <f>22000/($E3*$F3)</f>
+      <c r="S3" s="8">
+        <f>22000/($E3*$G3)</f>
         <v>7771.3526745816707</v>
       </c>
-      <c r="S3" s="8">
-        <f>2000/($E3*$F3)</f>
+      <c r="T3" s="8">
+        <f>2000/($E3*$G3)</f>
         <v>706.48660678015187</v>
       </c>
-      <c r="T3" s="8">
+      <c r="U3" s="8">
         <v>3680</v>
       </c>
-      <c r="U3" s="2">
-        <v>1</v>
-      </c>
-      <c r="V3" s="5">
+      <c r="V3" s="2">
+        <v>1</v>
+      </c>
+      <c r="W3" s="5">
         <v>10000000000</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="X3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="Y3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Y3" s="2">
-        <v>0</v>
-      </c>
       <c r="Z3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="2">
         <f>2050/0.962</f>
         <v>2130.9771309771309</v>
       </c>
-      <c r="AA3" s="2">
-        <v>1</v>
-      </c>
       <c r="AB3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC3" s="2">
         <v>0</v>
       </c>
       <c r="AD3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="2">
         <v>20</v>
       </c>
-      <c r="AE3" s="2">
-        <v>5</v>
-      </c>
       <c r="AF3" s="2">
         <v>5</v>
       </c>
-      <c r="AG3" s="2" t="s">
+      <c r="AG3" s="2">
+        <v>5</v>
+      </c>
+      <c r="AH3" s="2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -6004,15 +6585,15 @@
       <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.453125" customWidth="1"/>
-    <col min="3" max="3" width="9.453125" customWidth="1"/>
-    <col min="4" max="5" width="10.453125" customWidth="1"/>
-    <col min="8" max="8" width="10.453125" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" customWidth="1"/>
+    <col min="4" max="5" width="10.42578125" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -6059,7 +6640,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>60</v>
       </c>
@@ -6123,17 +6704,17 @@
       <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="13.36328125" customWidth="1"/>
-    <col min="5" max="5" width="17.6328125" customWidth="1"/>
-    <col min="6" max="11" width="16.453125" customWidth="1"/>
-    <col min="18" max="18" width="22.6328125" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="11" width="16.42578125" customWidth="1"/>
+    <col min="18" max="18" width="22.7109375" customWidth="1"/>
     <col min="22" max="22" width="75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6201,7 +6782,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>166</v>
       </c>
@@ -6269,7 +6850,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>166</v>
       </c>
@@ -6337,7 +6918,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>166</v>
       </c>
@@ -6405,7 +6986,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>168</v>
       </c>
@@ -6473,7 +7054,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>168</v>
       </c>
@@ -6541,7 +7122,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>168</v>
       </c>
@@ -6609,7 +7190,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>167</v>
       </c>
@@ -6677,7 +7258,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>167</v>
       </c>
@@ -6745,7 +7326,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>167</v>
       </c>
@@ -6829,20 +7410,20 @@
       <selection activeCell="B8" sqref="B8:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="7" width="17.6328125" customWidth="1"/>
-    <col min="8" max="9" width="15.453125" customWidth="1"/>
-    <col min="10" max="10" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="17.6328125" customWidth="1"/>
-    <col min="15" max="15" width="10.453125" customWidth="1"/>
-    <col min="22" max="22" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="72.453125" customWidth="1"/>
+    <col min="6" max="7" width="17.7109375" customWidth="1"/>
+    <col min="8" max="9" width="15.42578125" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="17.7109375" customWidth="1"/>
+    <col min="15" max="15" width="10.42578125" customWidth="1"/>
+    <col min="22" max="22" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="72.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -6913,7 +7494,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>179</v>
       </c>
@@ -6984,7 +7565,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>179</v>
       </c>
@@ -7055,7 +7636,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>179</v>
       </c>
@@ -7126,7 +7707,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>178</v>
       </c>
@@ -7197,7 +7778,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>178</v>
       </c>
@@ -7268,7 +7849,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>178</v>
       </c>
@@ -7339,7 +7920,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>183</v>
       </c>
@@ -7410,7 +7991,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>183</v>
       </c>
@@ -7481,7 +8062,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>184</v>
       </c>
@@ -7552,7 +8133,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>186</v>
       </c>
@@ -7624,7 +8205,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B13" s="9"/>
     </row>
   </sheetData>
@@ -7643,19 +8224,19 @@
       <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.453125" customWidth="1"/>
-    <col min="3" max="3" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6328125" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
     <col min="5" max="6" width="23" customWidth="1"/>
-    <col min="7" max="10" width="15.81640625" customWidth="1"/>
+    <col min="7" max="10" width="15.85546875" customWidth="1"/>
     <col min="20" max="20" width="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="111.6328125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="111.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -7720,7 +8301,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>85</v>
       </c>
@@ -7787,7 +8368,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>85</v>
       </c>
@@ -7853,7 +8434,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>85</v>
       </c>
@@ -7920,7 +8501,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>237</v>
       </c>
@@ -7987,24 +8568,24 @@
   <dimension ref="A1:V15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C7"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.453125" customWidth="1"/>
-    <col min="5" max="6" width="15.6328125" customWidth="1"/>
-    <col min="7" max="7" width="11.1796875" customWidth="1"/>
-    <col min="8" max="8" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="33.36328125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="45.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="5" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="45.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -8072,7 +8653,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>126</v>
       </c>
@@ -8140,7 +8721,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>125</v>
       </c>
@@ -8210,7 +8791,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>125</v>
       </c>
@@ -8280,7 +8861,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>125</v>
       </c>
@@ -8350,7 +8931,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>125</v>
       </c>
@@ -8420,7 +9001,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>125</v>
       </c>
@@ -8488,10 +9069,10 @@
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="P13" s="10"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="P15" s="10"/>
     </row>
   </sheetData>
@@ -8506,24 +9087,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:AG7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AE1" sqref="AE1:AG7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.1796875" customWidth="1"/>
-    <col min="9" max="9" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.6328125" customWidth="1"/>
-    <col min="11" max="12" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="45.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" customWidth="1"/>
+    <col min="11" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="45.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8624,7 +9205,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>133</v>
       </c>
@@ -8725,7 +9306,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>133</v>
       </c>
@@ -8826,7 +9407,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>134</v>
       </c>
@@ -8927,7 +9508,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>135</v>
       </c>
@@ -9028,7 +9609,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>135</v>
       </c>
@@ -9129,7 +9710,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>136</v>
       </c>
@@ -9244,23 +9825,23 @@
       <selection activeCell="V23" sqref="V23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.453125" customWidth="1"/>
-    <col min="3" max="3" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.453125" customWidth="1"/>
-    <col min="5" max="5" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.1796875" customWidth="1"/>
-    <col min="7" max="7" width="12.1796875" customWidth="1"/>
-    <col min="8" max="8" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="29" customWidth="1"/>
     <col min="22" max="22" width="69" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -9328,7 +9909,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>82</v>
       </c>
@@ -9396,7 +9977,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>82</v>
       </c>
@@ -9464,7 +10045,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>82</v>
       </c>
@@ -9532,7 +10113,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>82</v>
       </c>
@@ -9600,7 +10181,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
@@ -9608,7 +10189,7 @@
       <c r="K6" s="9"/>
       <c r="V6" s="9"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>

--- a/cea/databases/SG/components/CONVERSION.xlsx
+++ b/cea/databases/SG/components/CONVERSION.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nimathia\Documents\GitHub\CityEnergyAnalyst\CityEnergyAnalyst\cea\databases\SG\components\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\CityEnergyAnalyst\CityEnergyAnalyst\CityEnergyAnalyst\cea\databases\SG\components\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{571D4598-416B-4A3A-9A34-92B17E6D52F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F588638B-AE05-42C8-B34F-7023C4550399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" tabRatio="993" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2325" yWindow="1275" windowWidth="22125" windowHeight="11220" tabRatio="993" firstSheet="7" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PHOTOVOLTAIC_PANELS" sheetId="1" r:id="rId1"/>
@@ -22,13 +22,15 @@
     <sheet name="VAPOR_COMPRESSION_CHILLERS" sheetId="8" r:id="rId7"/>
     <sheet name="ABSORPTION_CHILLERS" sheetId="9" r:id="rId8"/>
     <sheet name="COOLING_TOWERS" sheetId="10" r:id="rId9"/>
-    <sheet name="FUEL_CELLS" sheetId="20" r:id="rId10"/>
-    <sheet name="UNITARY_AIR_CONDITIONERS" sheetId="16" r:id="rId11"/>
-    <sheet name="HEAT_PUMPS" sheetId="13" r:id="rId12"/>
-    <sheet name="THERMAL_ENERGY_STORAGES" sheetId="14" r:id="rId13"/>
-    <sheet name="POWER_TRANSFORMERS" sheetId="17" r:id="rId14"/>
-    <sheet name="HYDRAULIC_PUMPS" sheetId="15" r:id="rId15"/>
-    <sheet name="BORE_HOLES" sheetId="12" r:id="rId16"/>
+    <sheet name="HEAT_SINK" sheetId="21" r:id="rId10"/>
+    <sheet name="INVERTERS" sheetId="22" r:id="rId11"/>
+    <sheet name="FUEL_CELLS" sheetId="20" r:id="rId12"/>
+    <sheet name="UNITARY_AIR_CONDITIONERS" sheetId="16" r:id="rId13"/>
+    <sheet name="HEAT_PUMPS" sheetId="13" r:id="rId14"/>
+    <sheet name="THERMAL_ENERGY_STORAGES" sheetId="14" r:id="rId15"/>
+    <sheet name="POWER_TRANSFORMERS" sheetId="17" r:id="rId16"/>
+    <sheet name="HYDRAULIC_PUMPS" sheetId="15" r:id="rId17"/>
+    <sheet name="BORE_HOLES" sheetId="12" r:id="rId18"/>
   </sheets>
   <definedNames>
     <definedName name="__xlfn_AGGREGATE">#N/A</definedName>
@@ -51,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="259">
   <si>
     <t>Description</t>
   </si>
@@ -329,15 +331,9 @@
     <t xml:space="preserve">unit </t>
   </si>
   <si>
-    <t>long-term storage tank</t>
-  </si>
-  <si>
     <t>TES1</t>
   </si>
   <si>
-    <t>m3</t>
-  </si>
-  <si>
     <t>cap_min, cap_max</t>
   </si>
   <si>
@@ -392,9 +388,6 @@
     <t>COOLING</t>
   </si>
   <si>
-    <t>kWh</t>
-  </si>
-  <si>
     <t>short-term storage tank- ice</t>
   </si>
   <si>
@@ -780,16 +773,74 @@
   </si>
   <si>
     <t>ASHRAE 90.1/2019 - minimum efficiency rating at full load; https://www.esmagazine.com/articles/82307-basics-for-absorption-chillers - capacity-specific mass flow rates</t>
+  </si>
+  <si>
+    <t>Water_source_code</t>
+  </si>
+  <si>
+    <t>Lake-water HEX</t>
+  </si>
+  <si>
+    <t>HEXLW</t>
+  </si>
+  <si>
+    <t>LW</t>
+  </si>
+  <si>
+    <t>Sewage-water HEX</t>
+  </si>
+  <si>
+    <t>HEXSW</t>
+  </si>
+  <si>
+    <t>SW</t>
+  </si>
+  <si>
+    <t>Groundwater-water HEX</t>
+  </si>
+  <si>
+    <t>HEXGW</t>
+  </si>
+  <si>
+    <t>GW</t>
+  </si>
+  <si>
+    <t>solar inverter</t>
+  </si>
+  <si>
+    <t>IN1</t>
+  </si>
+  <si>
+    <t>grid-tied, sigle phase, transformerless inverter</t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>T_supply_sup</t>
+  </si>
+  <si>
+    <t>water_temperature</t>
+  </si>
+  <si>
+    <t>round-trip efficiency</t>
+  </si>
+  <si>
+    <t>Wh</t>
+  </si>
+  <si>
+    <t>Tank Thermal Energy Storage</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0000000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -856,7 +907,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -992,6 +1043,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="59"/>
+      </left>
+      <right style="thin">
+        <color indexed="59"/>
+      </right>
+      <top style="thin">
+        <color indexed="59"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1000,7 +1079,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1120,6 +1199,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1560,35 +1648,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA10"/>
+  <dimension ref="A1:AB10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.6328125" customWidth="1"/>
-    <col min="4" max="4" width="15.6328125" customWidth="1"/>
+    <col min="1" max="1" width="38.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
     <col min="5" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="14.453125" customWidth="1"/>
-    <col min="8" max="8" width="9.36328125" customWidth="1"/>
-    <col min="9" max="9" width="8.453125" customWidth="1"/>
-    <col min="10" max="10" width="8.6328125" customWidth="1"/>
-    <col min="12" max="12" width="16.453125" customWidth="1"/>
-    <col min="13" max="13" width="18.453125" customWidth="1"/>
-    <col min="14" max="14" width="16.36328125" customWidth="1"/>
-    <col min="15" max="15" width="14.6328125" customWidth="1"/>
-    <col min="16" max="17" width="12.453125" customWidth="1"/>
-    <col min="19" max="19" width="10.453125" customWidth="1"/>
-    <col min="20" max="20" width="13.6328125" customWidth="1"/>
-    <col min="21" max="23" width="10.453125" customWidth="1"/>
-    <col min="24" max="24" width="14.6328125" customWidth="1"/>
-    <col min="25" max="25" width="12.6328125" customWidth="1"/>
-    <col min="27" max="27" width="13.36328125" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" customWidth="1"/>
+    <col min="12" max="12" width="16.42578125" customWidth="1"/>
+    <col min="13" max="13" width="18.42578125" customWidth="1"/>
+    <col min="14" max="14" width="16.28515625" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" customWidth="1"/>
+    <col min="16" max="17" width="12.42578125" customWidth="1"/>
+    <col min="19" max="19" width="10.42578125" customWidth="1"/>
+    <col min="20" max="20" width="13.7109375" customWidth="1"/>
+    <col min="21" max="23" width="10.42578125" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" customWidth="1"/>
+    <col min="25" max="25" width="12.7109375" customWidth="1"/>
+    <col min="27" max="27" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -1620,58 +1708,61 @@
         <v>9</v>
       </c>
       <c r="K1" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="L1" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="36" t="s">
+      <c r="M1" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="36" t="s">
+      <c r="N1" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="36" t="s">
+      <c r="O1" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="36" t="s">
+      <c r="P1" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="36" t="s">
+      <c r="Q1" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="36" t="s">
+      <c r="R1" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="36" t="s">
+      <c r="S1" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="36" t="s">
+      <c r="T1" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="36" t="s">
+      <c r="U1" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="36" t="s">
+      <c r="V1" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="36" t="s">
+      <c r="W1" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="36" t="s">
+      <c r="X1" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="36" t="s">
+      <c r="Y1" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="36" t="s">
+      <c r="Z1" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="36" t="s">
+      <c r="AA1" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="36" t="s">
+      <c r="AB1" s="36" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
@@ -1703,59 +1794,62 @@
         <v>43.5</v>
       </c>
       <c r="K2" s="2">
+        <v>30</v>
+      </c>
+      <c r="L2" s="2">
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="L2" s="3">
+      <c r="M2" s="3">
         <v>0.93582299999999996</v>
       </c>
-      <c r="M2" s="3">
+      <c r="N2" s="3">
         <v>5.4288999999999997E-2</v>
       </c>
-      <c r="N2" s="3">
+      <c r="O2" s="3">
         <v>8.6770000000000007E-3</v>
       </c>
-      <c r="O2" s="3">
+      <c r="P2" s="3">
         <v>5.2700000000000002E-4</v>
       </c>
-      <c r="P2" s="3">
+      <c r="Q2" s="3">
         <v>-1.1E-5</v>
       </c>
-      <c r="Q2" s="4">
+      <c r="R2" s="4">
         <v>0.1</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="S2" s="2">
-        <v>0</v>
-      </c>
-      <c r="T2" s="4">
+      <c r="T2" s="2">
+        <v>0</v>
+      </c>
+      <c r="U2" s="4">
         <f>3.5/0.962</f>
         <v>3.6382536382536386</v>
       </c>
-      <c r="U2" s="2">
-        <v>1</v>
-      </c>
       <c r="V2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W2" s="2">
         <v>0</v>
       </c>
       <c r="X2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="2">
         <v>20</v>
       </c>
-      <c r="Y2" s="2">
-        <v>1</v>
-      </c>
       <c r="Z2" s="2">
-        <v>5</v>
-      </c>
-      <c r="AA2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>5</v>
+      </c>
+      <c r="AB2" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -1787,59 +1881,62 @@
         <v>43.5</v>
       </c>
       <c r="K3" s="2">
+        <v>30</v>
+      </c>
+      <c r="L3" s="2">
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="L3" s="3">
+      <c r="M3" s="3">
         <v>0.93582299999999996</v>
       </c>
-      <c r="M3" s="3">
+      <c r="N3" s="3">
         <v>5.4288999999999997E-2</v>
       </c>
-      <c r="N3" s="3">
+      <c r="O3" s="3">
         <v>8.6770000000000007E-3</v>
       </c>
-      <c r="O3" s="3">
+      <c r="P3" s="3">
         <v>5.2700000000000002E-4</v>
       </c>
-      <c r="P3" s="3">
+      <c r="Q3" s="3">
         <v>-1.1E-5</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="R3" s="4">
         <v>0.1</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="S3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="S3" s="2">
-        <v>0</v>
-      </c>
-      <c r="T3" s="4">
+      <c r="T3" s="2">
+        <v>0</v>
+      </c>
+      <c r="U3" s="4">
         <f>2.5/0.962</f>
         <v>2.5987525987525988</v>
       </c>
-      <c r="U3" s="2">
-        <v>1</v>
-      </c>
       <c r="V3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W3" s="2">
         <v>0</v>
       </c>
       <c r="X3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="2">
         <v>20</v>
       </c>
-      <c r="Y3" s="2">
-        <v>1</v>
-      </c>
       <c r="Z3" s="2">
-        <v>5</v>
-      </c>
-      <c r="AA3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>5</v>
+      </c>
+      <c r="AB3" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -1871,59 +1968,62 @@
         <v>43.5</v>
       </c>
       <c r="K4" s="2">
+        <v>30</v>
+      </c>
+      <c r="L4" s="2">
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="L4" s="3">
+      <c r="M4" s="3">
         <v>0.93582299999999996</v>
       </c>
-      <c r="M4" s="3">
+      <c r="N4" s="3">
         <v>5.4288999999999997E-2</v>
       </c>
-      <c r="N4" s="3">
+      <c r="O4" s="3">
         <v>8.6770000000000007E-3</v>
       </c>
-      <c r="O4" s="3">
+      <c r="P4" s="3">
         <v>5.2700000000000002E-4</v>
       </c>
-      <c r="P4" s="3">
+      <c r="Q4" s="3">
         <v>-1.1E-5</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="R4" s="4">
         <v>0.1</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="S4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="S4" s="2">
-        <v>0</v>
-      </c>
-      <c r="T4" s="4">
+      <c r="T4" s="2">
+        <v>0</v>
+      </c>
+      <c r="U4" s="4">
         <f>2.5/0.962</f>
         <v>2.5987525987525988</v>
       </c>
-      <c r="U4" s="2">
-        <v>1</v>
-      </c>
       <c r="V4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W4" s="2">
         <v>0</v>
       </c>
       <c r="X4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="2">
         <v>20</v>
       </c>
-      <c r="Y4" s="2">
-        <v>1</v>
-      </c>
       <c r="Z4" s="2">
-        <v>5</v>
-      </c>
-      <c r="AA4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>5</v>
+      </c>
+      <c r="AB4" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>33</v>
       </c>
@@ -1955,59 +2055,62 @@
         <v>43.9</v>
       </c>
       <c r="K5" s="2">
+        <v>30</v>
+      </c>
+      <c r="L5" s="2">
         <v>4.4000000000000003E-3</v>
       </c>
-      <c r="L5" s="3">
+      <c r="M5" s="3">
         <v>0.91809300000000005</v>
       </c>
-      <c r="M5" s="3">
+      <c r="N5" s="3">
         <v>8.6257E-2</v>
       </c>
-      <c r="N5" s="3">
+      <c r="O5" s="3">
         <v>-2.4459000000000002E-2</v>
       </c>
-      <c r="O5" s="3">
+      <c r="P5" s="3">
         <v>2.8159999999999999E-3</v>
       </c>
-      <c r="P5" s="3">
+      <c r="Q5" s="3">
         <v>-1.26E-4</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="R5" s="4">
         <v>0.1</v>
       </c>
-      <c r="R5" s="3" t="s">
+      <c r="S5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="S5" s="2">
-        <v>0</v>
-      </c>
-      <c r="T5" s="4">
+      <c r="T5" s="2">
+        <v>0</v>
+      </c>
+      <c r="U5" s="4">
         <f>3.5/0.962</f>
         <v>3.6382536382536386</v>
       </c>
-      <c r="U5" s="2">
-        <v>1</v>
-      </c>
       <c r="V5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W5" s="2">
         <v>0</v>
       </c>
       <c r="X5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="2">
         <v>20</v>
       </c>
-      <c r="Y5" s="2">
-        <v>1</v>
-      </c>
       <c r="Z5" s="2">
-        <v>5</v>
-      </c>
-      <c r="AA5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>5</v>
+      </c>
+      <c r="AB5" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>33</v>
       </c>
@@ -2039,59 +2142,62 @@
         <v>43.9</v>
       </c>
       <c r="K6" s="2">
+        <v>30</v>
+      </c>
+      <c r="L6" s="2">
         <v>4.4000000000000003E-3</v>
       </c>
-      <c r="L6" s="3">
+      <c r="M6" s="3">
         <v>0.91809300000000005</v>
       </c>
-      <c r="M6" s="3">
+      <c r="N6" s="3">
         <v>8.6257E-2</v>
       </c>
-      <c r="N6" s="3">
+      <c r="O6" s="3">
         <v>-2.4459000000000002E-2</v>
       </c>
-      <c r="O6" s="3">
+      <c r="P6" s="3">
         <v>2.8159999999999999E-3</v>
       </c>
-      <c r="P6" s="3">
+      <c r="Q6" s="3">
         <v>-1.26E-4</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="R6" s="4">
         <v>0.1</v>
       </c>
-      <c r="R6" s="3" t="s">
+      <c r="S6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="S6" s="2">
-        <v>0</v>
-      </c>
-      <c r="T6" s="4">
+      <c r="T6" s="2">
+        <v>0</v>
+      </c>
+      <c r="U6" s="4">
         <f>2.5/0.962</f>
         <v>2.5987525987525988</v>
       </c>
-      <c r="U6" s="2">
-        <v>1</v>
-      </c>
       <c r="V6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W6" s="2">
         <v>0</v>
       </c>
       <c r="X6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="2">
         <v>20</v>
       </c>
-      <c r="Y6" s="2">
-        <v>1</v>
-      </c>
       <c r="Z6" s="2">
-        <v>5</v>
-      </c>
-      <c r="AA6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>5</v>
+      </c>
+      <c r="AB6" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>33</v>
       </c>
@@ -2123,59 +2229,62 @@
         <v>43.9</v>
       </c>
       <c r="K7" s="2">
+        <v>30</v>
+      </c>
+      <c r="L7" s="2">
         <v>4.4000000000000003E-3</v>
       </c>
-      <c r="L7" s="3">
+      <c r="M7" s="3">
         <v>0.91809300000000005</v>
       </c>
-      <c r="M7" s="3">
+      <c r="N7" s="3">
         <v>8.6257E-2</v>
       </c>
-      <c r="N7" s="3">
+      <c r="O7" s="3">
         <v>-2.4459000000000002E-2</v>
       </c>
-      <c r="O7" s="3">
+      <c r="P7" s="3">
         <v>2.8159999999999999E-3</v>
       </c>
-      <c r="P7" s="3">
+      <c r="Q7" s="3">
         <v>-1.26E-4</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="R7" s="4">
         <v>0.1</v>
       </c>
-      <c r="R7" s="3" t="s">
+      <c r="S7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="S7" s="2">
-        <v>0</v>
-      </c>
-      <c r="T7" s="4">
+      <c r="T7" s="2">
+        <v>0</v>
+      </c>
+      <c r="U7" s="4">
         <f>2.5/0.962</f>
         <v>2.5987525987525988</v>
       </c>
-      <c r="U7" s="2">
-        <v>1</v>
-      </c>
       <c r="V7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7" s="2">
         <v>0</v>
       </c>
       <c r="X7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="2">
         <v>20</v>
       </c>
-      <c r="Y7" s="2">
-        <v>1</v>
-      </c>
       <c r="Z7" s="2">
-        <v>5</v>
-      </c>
-      <c r="AA7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>5</v>
+      </c>
+      <c r="AB7" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>35</v>
       </c>
@@ -2207,59 +2316,62 @@
         <v>38.1</v>
       </c>
       <c r="K8" s="2">
+        <v>30</v>
+      </c>
+      <c r="L8" s="2">
         <v>2.5999999999999999E-3</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1.10044085</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>-6.1423230000000002E-2</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>-4.4273200000000002E-3</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6.3150399999999996E-4</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>-1.9184000000000001E-5</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="R8" s="4">
         <v>0.1</v>
       </c>
-      <c r="R8" s="3" t="s">
+      <c r="S8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="S8" s="2">
-        <v>0</v>
-      </c>
-      <c r="T8" s="4">
+      <c r="T8" s="2">
+        <v>0</v>
+      </c>
+      <c r="U8" s="4">
         <f>3.5/0.962</f>
         <v>3.6382536382536386</v>
       </c>
-      <c r="U8" s="2">
-        <v>1</v>
-      </c>
       <c r="V8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W8" s="2">
         <v>0</v>
       </c>
       <c r="X8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="2">
         <v>20</v>
       </c>
-      <c r="Y8" s="2">
-        <v>1</v>
-      </c>
       <c r="Z8" s="2">
-        <v>5</v>
-      </c>
-      <c r="AA8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>5</v>
+      </c>
+      <c r="AB8" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>35</v>
       </c>
@@ -2291,59 +2403,62 @@
         <v>38.1</v>
       </c>
       <c r="K9" s="2">
+        <v>30</v>
+      </c>
+      <c r="L9" s="2">
         <v>2.5999999999999999E-3</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1.10044085</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>-6.1423230000000002E-2</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>-4.4273200000000002E-3</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>6.3150399999999996E-4</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>-1.9184000000000001E-5</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="R9" s="4">
         <v>0.1</v>
       </c>
-      <c r="R9" s="3" t="s">
+      <c r="S9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="S9" s="2">
-        <v>0</v>
-      </c>
-      <c r="T9" s="4">
+      <c r="T9" s="2">
+        <v>0</v>
+      </c>
+      <c r="U9" s="4">
         <f>2.5/0.962</f>
         <v>2.5987525987525988</v>
       </c>
-      <c r="U9" s="2">
-        <v>1</v>
-      </c>
       <c r="V9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W9" s="2">
         <v>0</v>
       </c>
       <c r="X9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="2">
         <v>20</v>
       </c>
-      <c r="Y9" s="2">
-        <v>1</v>
-      </c>
       <c r="Z9" s="2">
-        <v>5</v>
-      </c>
-      <c r="AA9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="2">
+        <v>5</v>
+      </c>
+      <c r="AB9" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>35</v>
       </c>
@@ -2375,55 +2490,58 @@
         <v>38.1</v>
       </c>
       <c r="K10" s="2">
+        <v>30</v>
+      </c>
+      <c r="L10" s="2">
         <v>2.5999999999999999E-3</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1.10044085</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-6.1423230000000002E-2</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-4.4273200000000002E-3</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>6.3150399999999996E-4</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>-1.9184000000000001E-5</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="R10" s="4">
         <v>0.1</v>
       </c>
-      <c r="R10" s="3" t="s">
+      <c r="S10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="S10" s="2">
-        <v>0</v>
-      </c>
-      <c r="T10" s="4">
+      <c r="T10" s="2">
+        <v>0</v>
+      </c>
+      <c r="U10" s="4">
         <f>2.5/0.962</f>
         <v>2.5987525987525988</v>
       </c>
-      <c r="U10" s="2">
-        <v>1</v>
-      </c>
       <c r="V10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W10" s="2">
         <v>0</v>
       </c>
       <c r="X10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="2">
         <v>20</v>
       </c>
-      <c r="Y10" s="2">
-        <v>1</v>
-      </c>
       <c r="Z10" s="2">
-        <v>5</v>
-      </c>
-      <c r="AA10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>5</v>
+      </c>
+      <c r="AB10" s="2" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2436,6 +2554,483 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2A51D13-2130-8B4B-94F3-BBFC676E62A8}">
+  <dimension ref="A1:X4"/>
+  <sheetViews>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="J1" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="K1" s="36" t="s">
+        <v>240</v>
+      </c>
+      <c r="L1" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="M1" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="N1" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="S1" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="T1" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="U1" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="V1" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="W1" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="X1" s="40" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D2" s="17">
+        <v>1</v>
+      </c>
+      <c r="E2" s="17">
+        <v>10000000000</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="20">
+        <v>0.03</v>
+      </c>
+      <c r="H2" s="2">
+        <v>460</v>
+      </c>
+      <c r="I2" s="2">
+        <v>35</v>
+      </c>
+      <c r="J2" s="2">
+        <v>27</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="2">
+        <v>2300</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>1</v>
+      </c>
+      <c r="R2" s="2">
+        <v>0</v>
+      </c>
+      <c r="S2" s="2">
+        <v>0</v>
+      </c>
+      <c r="T2" s="2">
+        <v>20</v>
+      </c>
+      <c r="U2" s="2">
+        <v>5</v>
+      </c>
+      <c r="V2" s="2">
+        <v>1</v>
+      </c>
+      <c r="W2" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="X2" s="27" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D3" s="17">
+        <v>1</v>
+      </c>
+      <c r="E3" s="17">
+        <v>10000000000</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="20">
+        <v>0.03</v>
+      </c>
+      <c r="H3" s="12">
+        <v>460</v>
+      </c>
+      <c r="I3" s="12">
+        <v>35</v>
+      </c>
+      <c r="J3" s="12">
+        <v>28</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" s="2">
+        <v>2000</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1.4E-2</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>1</v>
+      </c>
+      <c r="R3" s="2">
+        <v>0</v>
+      </c>
+      <c r="S3" s="2">
+        <v>0</v>
+      </c>
+      <c r="T3" s="2">
+        <v>20</v>
+      </c>
+      <c r="U3" s="2">
+        <v>5</v>
+      </c>
+      <c r="V3" s="2">
+        <v>1</v>
+      </c>
+      <c r="W3" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="X3" s="27" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D4" s="17">
+        <v>1</v>
+      </c>
+      <c r="E4" s="17">
+        <v>10000000000</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="20">
+        <v>0.05</v>
+      </c>
+      <c r="H4" s="43">
+        <v>460</v>
+      </c>
+      <c r="I4" s="43">
+        <v>35</v>
+      </c>
+      <c r="J4" s="43">
+        <v>27</v>
+      </c>
+      <c r="K4" s="43" t="s">
+        <v>249</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" s="2">
+        <v>2000</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1.4E-2</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>1</v>
+      </c>
+      <c r="R4" s="2">
+        <v>0</v>
+      </c>
+      <c r="S4" s="2">
+        <v>0</v>
+      </c>
+      <c r="T4" s="2">
+        <v>20</v>
+      </c>
+      <c r="U4" s="2">
+        <v>5</v>
+      </c>
+      <c r="V4" s="2">
+        <v>1</v>
+      </c>
+      <c r="W4" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="X4" s="27" t="s">
+        <v>225</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE769AEC-4BA2-E142-B9E9-DE79EEBE4ACB}">
+  <dimension ref="A1:W2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="J1" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="K1" s="36" t="s">
+        <v>222</v>
+      </c>
+      <c r="L1" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="M1" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="U1" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="V1" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="W1" s="40" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2" s="17">
+        <v>0</v>
+      </c>
+      <c r="E2" s="17">
+        <v>100000000</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="17">
+        <v>1500</v>
+      </c>
+      <c r="I2" s="17">
+        <v>1</v>
+      </c>
+      <c r="J2" s="17">
+        <v>1500</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0</v>
+      </c>
+      <c r="O2" s="2">
+        <v>2.87E-2</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0</v>
+      </c>
+      <c r="R2" s="2">
+        <v>0</v>
+      </c>
+      <c r="S2" s="2">
+        <v>20</v>
+      </c>
+      <c r="T2" s="2">
+        <v>5</v>
+      </c>
+      <c r="U2" s="2">
+        <v>5</v>
+      </c>
+      <c r="V2" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="W2" s="27" t="s">
+        <v>224</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AFF6F14-A874-CB45-A2C1-8C31AFCB2875}">
   <dimension ref="A1:O3"/>
   <sheetViews>
@@ -2443,16 +3038,16 @@
       <selection activeCell="Y22" sqref="Y22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.453125" customWidth="1"/>
-    <col min="3" max="3" width="16.453125" customWidth="1"/>
-    <col min="4" max="5" width="15.453125" customWidth="1"/>
+    <col min="1" max="1" width="34.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="5" width="15.42578125" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="12" max="12" width="17.6328125" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2496,15 +3091,15 @@
         <v>25</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C2" s="2">
         <v>1000</v>
@@ -2545,12 +3140,12 @@
       </c>
       <c r="O2" s="2"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
@@ -2590,1053 +3185,7 @@
         <v>5</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70485D6F-84D6-CE40-9068-BC69269F5FF1}">
-  <dimension ref="A1:U11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="45.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" customWidth="1"/>
-    <col min="4" max="5" width="15.6328125" customWidth="1"/>
-    <col min="6" max="6" width="11.1796875" customWidth="1"/>
-    <col min="7" max="7" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="33.36328125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="93.81640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="36" t="s">
-        <v>153</v>
-      </c>
-      <c r="H1" s="36" t="s">
-        <v>131</v>
-      </c>
-      <c r="I1" s="36" t="s">
-        <v>144</v>
-      </c>
-      <c r="J1" s="36" t="s">
-        <v>145</v>
-      </c>
-      <c r="K1" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="M1" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="N1" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="O1" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q1" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="R1" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="S1" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="T1" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="U1" s="36" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D2" s="17">
-        <v>0</v>
-      </c>
-      <c r="E2" s="17">
-        <v>19000</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="2">
-        <v>3.7</v>
-      </c>
-      <c r="H2" s="2">
         <v>230</v>
-      </c>
-      <c r="I2" s="2">
-        <v>27</v>
-      </c>
-      <c r="J2" s="2">
-        <v>35</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" s="2">
-        <v>0</v>
-      </c>
-      <c r="M2" s="2">
-        <v>1.6</v>
-      </c>
-      <c r="N2" s="2">
-        <v>1</v>
-      </c>
-      <c r="O2" s="2">
-        <v>0</v>
-      </c>
-      <c r="P2" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>25</v>
-      </c>
-      <c r="R2" s="2">
-        <v>5</v>
-      </c>
-      <c r="S2" s="2">
-        <v>5</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D3" s="17">
-        <v>0</v>
-      </c>
-      <c r="E3" s="17">
-        <v>19000</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="2">
-        <v>3.5</v>
-      </c>
-      <c r="H3" s="2">
-        <v>230</v>
-      </c>
-      <c r="I3" s="2">
-        <v>27</v>
-      </c>
-      <c r="J3" s="2">
-        <v>35</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" s="2">
-        <v>0</v>
-      </c>
-      <c r="M3" s="2">
-        <v>1.6</v>
-      </c>
-      <c r="N3" s="2">
-        <v>1</v>
-      </c>
-      <c r="O3" s="2">
-        <v>0</v>
-      </c>
-      <c r="P3" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>25</v>
-      </c>
-      <c r="R3" s="2">
-        <v>5</v>
-      </c>
-      <c r="S3" s="2">
-        <v>5</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="O9" s="10"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="O11" s="10"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:W11"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB25" sqref="AB25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15.1796875" customWidth="1"/>
-    <col min="6" max="6" width="6.81640625" customWidth="1"/>
-    <col min="7" max="7" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.81640625" customWidth="1"/>
-    <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.36328125" customWidth="1"/>
-    <col min="16" max="16" width="12.453125" customWidth="1"/>
-    <col min="17" max="17" width="12" customWidth="1"/>
-    <col min="22" max="22" width="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="32.453125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="40" t="s">
-        <v>207</v>
-      </c>
-      <c r="H1" s="40" t="s">
-        <v>131</v>
-      </c>
-      <c r="I1" s="40" t="s">
-        <v>129</v>
-      </c>
-      <c r="J1" s="40" t="s">
-        <v>130</v>
-      </c>
-      <c r="K1" s="40" t="s">
-        <v>203</v>
-      </c>
-      <c r="L1" s="40" t="s">
-        <v>204</v>
-      </c>
-      <c r="M1" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="N1" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="O1" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="P1" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q1" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="R1" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="S1" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="T1" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="U1" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="V1" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="W1" s="40" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="D2" s="17">
-        <v>0</v>
-      </c>
-      <c r="E2" s="17">
-        <v>40000</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="11">
-        <v>3.1</v>
-      </c>
-      <c r="H2" s="11">
-        <v>380</v>
-      </c>
-      <c r="I2" s="11">
-        <v>0</v>
-      </c>
-      <c r="J2" s="11">
-        <v>27</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="M2" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="N2" s="2">
-        <v>0</v>
-      </c>
-      <c r="O2" s="2">
-        <f>177.8/0.902</f>
-        <v>197.11751662971176</v>
-      </c>
-      <c r="P2" s="2">
-        <v>0.49</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>0</v>
-      </c>
-      <c r="R2" s="2">
-        <v>0</v>
-      </c>
-      <c r="S2" s="2">
-        <v>20</v>
-      </c>
-      <c r="T2" s="2">
-        <v>1</v>
-      </c>
-      <c r="U2" s="2">
-        <v>5</v>
-      </c>
-      <c r="V2" s="14"/>
-      <c r="W2" s="27" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="D3" s="17">
-        <v>40000</v>
-      </c>
-      <c r="E3" s="17">
-        <v>100000000</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="11">
-        <v>2.8</v>
-      </c>
-      <c r="H3" s="11">
-        <v>380</v>
-      </c>
-      <c r="I3" s="11">
-        <v>0</v>
-      </c>
-      <c r="J3" s="11">
-        <v>27</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="M3" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="N3" s="2">
-        <v>0</v>
-      </c>
-      <c r="O3" s="2">
-        <f>177.8/0.902</f>
-        <v>197.11751662971176</v>
-      </c>
-      <c r="P3" s="2">
-        <v>0.49</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>0</v>
-      </c>
-      <c r="R3" s="2">
-        <v>0</v>
-      </c>
-      <c r="S3" s="2">
-        <v>20</v>
-      </c>
-      <c r="T3" s="2">
-        <v>1</v>
-      </c>
-      <c r="U3" s="2">
-        <v>5</v>
-      </c>
-      <c r="V3" s="14"/>
-      <c r="W3" s="27" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="D4" s="17">
-        <v>0</v>
-      </c>
-      <c r="E4" s="17">
-        <v>21000</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="11">
-        <v>4.3</v>
-      </c>
-      <c r="H4" s="11">
-        <v>380</v>
-      </c>
-      <c r="I4" s="11">
-        <v>20</v>
-      </c>
-      <c r="J4" s="11">
-        <v>27</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="L4" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="M4" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="N4" s="2">
-        <v>0</v>
-      </c>
-      <c r="O4" s="2">
-        <f>8893/0.902/1000</f>
-        <v>9.8592017738359186</v>
-      </c>
-      <c r="P4" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>0</v>
-      </c>
-      <c r="R4" s="2">
-        <f>-493.53/0.902/1000</f>
-        <v>-0.54715077605321505</v>
-      </c>
-      <c r="S4" s="2">
-        <v>25</v>
-      </c>
-      <c r="T4" s="2">
-        <v>5</v>
-      </c>
-      <c r="U4" s="2">
-        <v>6</v>
-      </c>
-      <c r="V4" s="14"/>
-      <c r="W4" s="27" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="D5" s="17">
-        <v>21000</v>
-      </c>
-      <c r="E5" s="17">
-        <v>40000</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="11">
-        <v>4.3</v>
-      </c>
-      <c r="H5" s="11">
-        <v>380</v>
-      </c>
-      <c r="I5" s="11">
-        <v>20</v>
-      </c>
-      <c r="J5" s="11">
-        <v>27</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="L5" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="M5" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="N5" s="2">
-        <v>0</v>
-      </c>
-      <c r="O5" s="2">
-        <f>8893/0.902/1000</f>
-        <v>9.8592017738359186</v>
-      </c>
-      <c r="P5" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>0</v>
-      </c>
-      <c r="R5" s="2">
-        <f>-493.53/0.902/1000</f>
-        <v>-0.54715077605321505</v>
-      </c>
-      <c r="S5" s="2">
-        <v>25</v>
-      </c>
-      <c r="T5" s="2">
-        <v>5</v>
-      </c>
-      <c r="U5" s="2">
-        <v>6</v>
-      </c>
-      <c r="V5" s="14"/>
-      <c r="W5" s="27" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="D6" s="17">
-        <v>40000</v>
-      </c>
-      <c r="E6" s="17">
-        <v>75000</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="11">
-        <v>4</v>
-      </c>
-      <c r="H6" s="11">
-        <v>380</v>
-      </c>
-      <c r="I6" s="11">
-        <v>20</v>
-      </c>
-      <c r="J6" s="11">
-        <v>27</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="L6" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="M6" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="N6" s="2">
-        <v>0</v>
-      </c>
-      <c r="O6" s="2">
-        <f>8893/0.902/1000</f>
-        <v>9.8592017738359186</v>
-      </c>
-      <c r="P6" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>0</v>
-      </c>
-      <c r="R6" s="2">
-        <f>-493.53/0.902/1000</f>
-        <v>-0.54715077605321505</v>
-      </c>
-      <c r="S6" s="2">
-        <v>25</v>
-      </c>
-      <c r="T6" s="2">
-        <v>5</v>
-      </c>
-      <c r="U6" s="2">
-        <v>6</v>
-      </c>
-      <c r="V6" s="14"/>
-      <c r="W6" s="27" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="D7" s="17">
-        <v>75000</v>
-      </c>
-      <c r="E7" s="17">
-        <v>20000000</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="11">
-        <v>3.9</v>
-      </c>
-      <c r="H7" s="11">
-        <v>380</v>
-      </c>
-      <c r="I7" s="11">
-        <v>20</v>
-      </c>
-      <c r="J7" s="11">
-        <v>27</v>
-      </c>
-      <c r="K7" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="L7" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="M7" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="N7" s="2">
-        <v>0</v>
-      </c>
-      <c r="O7" s="2">
-        <f>8893/0.902/1000</f>
-        <v>9.8592017738359186</v>
-      </c>
-      <c r="P7" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>0</v>
-      </c>
-      <c r="R7" s="2">
-        <f>-493.53/0.902/1000</f>
-        <v>-0.54715077605321505</v>
-      </c>
-      <c r="S7" s="2">
-        <v>25</v>
-      </c>
-      <c r="T7" s="2">
-        <v>5</v>
-      </c>
-      <c r="U7" s="2">
-        <v>6</v>
-      </c>
-      <c r="V7" s="14"/>
-      <c r="W7" s="27" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="D8" s="17">
-        <v>0</v>
-      </c>
-      <c r="E8" s="17">
-        <v>21000</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="11">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="H8" s="11">
-        <v>230</v>
-      </c>
-      <c r="I8" s="11">
-        <v>7</v>
-      </c>
-      <c r="J8" s="11">
-        <v>35</v>
-      </c>
-      <c r="K8" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="L8" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="M8" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="N8" s="2">
-        <v>0</v>
-      </c>
-      <c r="O8" s="2">
-        <f>7.7</f>
-        <v>7.7</v>
-      </c>
-      <c r="P8" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>0</v>
-      </c>
-      <c r="R8" s="2">
-        <v>0</v>
-      </c>
-      <c r="S8" s="2">
-        <v>25</v>
-      </c>
-      <c r="T8" s="2">
-        <v>5</v>
-      </c>
-      <c r="U8" s="2">
-        <v>6</v>
-      </c>
-      <c r="V8" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="W8" s="27" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="D9" s="17">
-        <v>21000</v>
-      </c>
-      <c r="E9" s="17">
-        <v>40000</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="11">
-        <v>3.3</v>
-      </c>
-      <c r="H9" s="11">
-        <v>230</v>
-      </c>
-      <c r="I9" s="11">
-        <v>7</v>
-      </c>
-      <c r="J9" s="11">
-        <v>35</v>
-      </c>
-      <c r="K9" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="L9" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="M9" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="N9" s="2">
-        <v>0</v>
-      </c>
-      <c r="O9" s="2">
-        <f>7.7</f>
-        <v>7.7</v>
-      </c>
-      <c r="P9" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="2">
-        <v>0</v>
-      </c>
-      <c r="R9" s="2">
-        <v>0</v>
-      </c>
-      <c r="S9" s="2">
-        <v>25</v>
-      </c>
-      <c r="T9" s="2">
-        <v>5</v>
-      </c>
-      <c r="U9" s="2">
-        <v>6</v>
-      </c>
-      <c r="V9" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="W9" s="27" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="D10" s="17">
-        <v>40000</v>
-      </c>
-      <c r="E10" s="17">
-        <v>75000</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="11">
-        <v>3.3</v>
-      </c>
-      <c r="H10" s="11">
-        <v>230</v>
-      </c>
-      <c r="I10" s="11">
-        <v>7</v>
-      </c>
-      <c r="J10" s="11">
-        <v>35</v>
-      </c>
-      <c r="K10" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="L10" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="M10" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="N10" s="2">
-        <v>0</v>
-      </c>
-      <c r="O10" s="2">
-        <f>7.7</f>
-        <v>7.7</v>
-      </c>
-      <c r="P10" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="2">
-        <v>0</v>
-      </c>
-      <c r="R10" s="2">
-        <v>0</v>
-      </c>
-      <c r="S10" s="2">
-        <v>25</v>
-      </c>
-      <c r="T10" s="2">
-        <v>5</v>
-      </c>
-      <c r="U10" s="2">
-        <v>6</v>
-      </c>
-      <c r="V10" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="W10" s="27" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="D11" s="17">
-        <v>75000</v>
-      </c>
-      <c r="E11" s="17">
-        <v>10000000</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" s="11">
-        <v>3.2</v>
-      </c>
-      <c r="H11" s="11">
-        <v>230</v>
-      </c>
-      <c r="I11" s="11">
-        <v>7</v>
-      </c>
-      <c r="J11" s="11">
-        <v>35</v>
-      </c>
-      <c r="K11" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="L11" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="M11" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="N11" s="2">
-        <v>0</v>
-      </c>
-      <c r="O11" s="2">
-        <f>7.7</f>
-        <v>7.7</v>
-      </c>
-      <c r="P11" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="2">
-        <v>0</v>
-      </c>
-      <c r="R11" s="2">
-        <v>0</v>
-      </c>
-      <c r="S11" s="2">
-        <v>25</v>
-      </c>
-      <c r="T11" s="2">
-        <v>5</v>
-      </c>
-      <c r="U11" s="2">
-        <v>6</v>
-      </c>
-      <c r="V11" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="W11" s="27" t="s">
-        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -3648,665 +3197,35 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:Z8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70485D6F-84D6-CE40-9068-BC69269F5FF1}">
+  <dimension ref="A1:U11"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="AB23" sqref="AB23"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.36328125" customWidth="1"/>
-    <col min="2" max="2" width="12.6328125" customWidth="1"/>
-    <col min="3" max="3" width="19.6328125" customWidth="1"/>
-    <col min="4" max="5" width="19.36328125" customWidth="1"/>
-    <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7" customWidth="1"/>
-    <col min="26" max="26" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="257" max="257" width="43.36328125" customWidth="1"/>
-    <col min="258" max="258" width="12.6328125" customWidth="1"/>
-    <col min="259" max="259" width="19.6328125" customWidth="1"/>
-    <col min="260" max="261" width="19.36328125" customWidth="1"/>
-    <col min="270" max="270" width="10" bestFit="1" customWidth="1"/>
-    <col min="271" max="271" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="274" max="274" width="10" bestFit="1" customWidth="1"/>
-    <col min="278" max="278" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="280" max="280" width="7" customWidth="1"/>
-    <col min="282" max="282" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="513" max="513" width="43.36328125" customWidth="1"/>
-    <col min="514" max="514" width="12.6328125" customWidth="1"/>
-    <col min="515" max="515" width="19.6328125" customWidth="1"/>
-    <col min="516" max="517" width="19.36328125" customWidth="1"/>
-    <col min="526" max="526" width="10" bestFit="1" customWidth="1"/>
-    <col min="527" max="527" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="530" max="530" width="10" bestFit="1" customWidth="1"/>
-    <col min="534" max="534" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="536" max="536" width="7" customWidth="1"/>
-    <col min="538" max="538" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="769" max="769" width="43.36328125" customWidth="1"/>
-    <col min="770" max="770" width="12.6328125" customWidth="1"/>
-    <col min="771" max="771" width="19.6328125" customWidth="1"/>
-    <col min="772" max="773" width="19.36328125" customWidth="1"/>
-    <col min="782" max="782" width="10" bestFit="1" customWidth="1"/>
-    <col min="783" max="783" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="786" max="786" width="10" bestFit="1" customWidth="1"/>
-    <col min="790" max="790" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="792" max="792" width="7" customWidth="1"/>
-    <col min="794" max="794" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="1025" max="1025" width="43.36328125" customWidth="1"/>
-    <col min="1026" max="1026" width="12.6328125" customWidth="1"/>
-    <col min="1027" max="1027" width="19.6328125" customWidth="1"/>
-    <col min="1028" max="1029" width="19.36328125" customWidth="1"/>
-    <col min="1038" max="1038" width="10" bestFit="1" customWidth="1"/>
-    <col min="1039" max="1039" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="1042" max="1042" width="10" bestFit="1" customWidth="1"/>
-    <col min="1046" max="1046" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="1048" max="1048" width="7" customWidth="1"/>
-    <col min="1050" max="1050" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="1281" max="1281" width="43.36328125" customWidth="1"/>
-    <col min="1282" max="1282" width="12.6328125" customWidth="1"/>
-    <col min="1283" max="1283" width="19.6328125" customWidth="1"/>
-    <col min="1284" max="1285" width="19.36328125" customWidth="1"/>
-    <col min="1294" max="1294" width="10" bestFit="1" customWidth="1"/>
-    <col min="1295" max="1295" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="1298" max="1298" width="10" bestFit="1" customWidth="1"/>
-    <col min="1302" max="1302" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="1304" max="1304" width="7" customWidth="1"/>
-    <col min="1306" max="1306" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="1537" max="1537" width="43.36328125" customWidth="1"/>
-    <col min="1538" max="1538" width="12.6328125" customWidth="1"/>
-    <col min="1539" max="1539" width="19.6328125" customWidth="1"/>
-    <col min="1540" max="1541" width="19.36328125" customWidth="1"/>
-    <col min="1550" max="1550" width="10" bestFit="1" customWidth="1"/>
-    <col min="1551" max="1551" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="1554" max="1554" width="10" bestFit="1" customWidth="1"/>
-    <col min="1558" max="1558" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="1560" max="1560" width="7" customWidth="1"/>
-    <col min="1562" max="1562" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="1793" max="1793" width="43.36328125" customWidth="1"/>
-    <col min="1794" max="1794" width="12.6328125" customWidth="1"/>
-    <col min="1795" max="1795" width="19.6328125" customWidth="1"/>
-    <col min="1796" max="1797" width="19.36328125" customWidth="1"/>
-    <col min="1806" max="1806" width="10" bestFit="1" customWidth="1"/>
-    <col min="1807" max="1807" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="1810" max="1810" width="10" bestFit="1" customWidth="1"/>
-    <col min="1814" max="1814" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="1816" max="1816" width="7" customWidth="1"/>
-    <col min="1818" max="1818" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="2049" max="2049" width="43.36328125" customWidth="1"/>
-    <col min="2050" max="2050" width="12.6328125" customWidth="1"/>
-    <col min="2051" max="2051" width="19.6328125" customWidth="1"/>
-    <col min="2052" max="2053" width="19.36328125" customWidth="1"/>
-    <col min="2062" max="2062" width="10" bestFit="1" customWidth="1"/>
-    <col min="2063" max="2063" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="2066" max="2066" width="10" bestFit="1" customWidth="1"/>
-    <col min="2070" max="2070" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="2072" max="2072" width="7" customWidth="1"/>
-    <col min="2074" max="2074" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="2305" max="2305" width="43.36328125" customWidth="1"/>
-    <col min="2306" max="2306" width="12.6328125" customWidth="1"/>
-    <col min="2307" max="2307" width="19.6328125" customWidth="1"/>
-    <col min="2308" max="2309" width="19.36328125" customWidth="1"/>
-    <col min="2318" max="2318" width="10" bestFit="1" customWidth="1"/>
-    <col min="2319" max="2319" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="2322" max="2322" width="10" bestFit="1" customWidth="1"/>
-    <col min="2326" max="2326" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="2328" max="2328" width="7" customWidth="1"/>
-    <col min="2330" max="2330" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="2561" max="2561" width="43.36328125" customWidth="1"/>
-    <col min="2562" max="2562" width="12.6328125" customWidth="1"/>
-    <col min="2563" max="2563" width="19.6328125" customWidth="1"/>
-    <col min="2564" max="2565" width="19.36328125" customWidth="1"/>
-    <col min="2574" max="2574" width="10" bestFit="1" customWidth="1"/>
-    <col min="2575" max="2575" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="2578" max="2578" width="10" bestFit="1" customWidth="1"/>
-    <col min="2582" max="2582" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="2584" max="2584" width="7" customWidth="1"/>
-    <col min="2586" max="2586" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="2817" max="2817" width="43.36328125" customWidth="1"/>
-    <col min="2818" max="2818" width="12.6328125" customWidth="1"/>
-    <col min="2819" max="2819" width="19.6328125" customWidth="1"/>
-    <col min="2820" max="2821" width="19.36328125" customWidth="1"/>
-    <col min="2830" max="2830" width="10" bestFit="1" customWidth="1"/>
-    <col min="2831" max="2831" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="2834" max="2834" width="10" bestFit="1" customWidth="1"/>
-    <col min="2838" max="2838" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="2840" max="2840" width="7" customWidth="1"/>
-    <col min="2842" max="2842" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="3073" max="3073" width="43.36328125" customWidth="1"/>
-    <col min="3074" max="3074" width="12.6328125" customWidth="1"/>
-    <col min="3075" max="3075" width="19.6328125" customWidth="1"/>
-    <col min="3076" max="3077" width="19.36328125" customWidth="1"/>
-    <col min="3086" max="3086" width="10" bestFit="1" customWidth="1"/>
-    <col min="3087" max="3087" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="3090" max="3090" width="10" bestFit="1" customWidth="1"/>
-    <col min="3094" max="3094" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="3096" max="3096" width="7" customWidth="1"/>
-    <col min="3098" max="3098" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="3329" max="3329" width="43.36328125" customWidth="1"/>
-    <col min="3330" max="3330" width="12.6328125" customWidth="1"/>
-    <col min="3331" max="3331" width="19.6328125" customWidth="1"/>
-    <col min="3332" max="3333" width="19.36328125" customWidth="1"/>
-    <col min="3342" max="3342" width="10" bestFit="1" customWidth="1"/>
-    <col min="3343" max="3343" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="3346" max="3346" width="10" bestFit="1" customWidth="1"/>
-    <col min="3350" max="3350" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="3352" max="3352" width="7" customWidth="1"/>
-    <col min="3354" max="3354" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="3585" max="3585" width="43.36328125" customWidth="1"/>
-    <col min="3586" max="3586" width="12.6328125" customWidth="1"/>
-    <col min="3587" max="3587" width="19.6328125" customWidth="1"/>
-    <col min="3588" max="3589" width="19.36328125" customWidth="1"/>
-    <col min="3598" max="3598" width="10" bestFit="1" customWidth="1"/>
-    <col min="3599" max="3599" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="3602" max="3602" width="10" bestFit="1" customWidth="1"/>
-    <col min="3606" max="3606" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="3608" max="3608" width="7" customWidth="1"/>
-    <col min="3610" max="3610" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="3841" max="3841" width="43.36328125" customWidth="1"/>
-    <col min="3842" max="3842" width="12.6328125" customWidth="1"/>
-    <col min="3843" max="3843" width="19.6328125" customWidth="1"/>
-    <col min="3844" max="3845" width="19.36328125" customWidth="1"/>
-    <col min="3854" max="3854" width="10" bestFit="1" customWidth="1"/>
-    <col min="3855" max="3855" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="3858" max="3858" width="10" bestFit="1" customWidth="1"/>
-    <col min="3862" max="3862" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="3864" max="3864" width="7" customWidth="1"/>
-    <col min="3866" max="3866" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="4097" max="4097" width="43.36328125" customWidth="1"/>
-    <col min="4098" max="4098" width="12.6328125" customWidth="1"/>
-    <col min="4099" max="4099" width="19.6328125" customWidth="1"/>
-    <col min="4100" max="4101" width="19.36328125" customWidth="1"/>
-    <col min="4110" max="4110" width="10" bestFit="1" customWidth="1"/>
-    <col min="4111" max="4111" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="4114" max="4114" width="10" bestFit="1" customWidth="1"/>
-    <col min="4118" max="4118" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="4120" max="4120" width="7" customWidth="1"/>
-    <col min="4122" max="4122" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="4353" max="4353" width="43.36328125" customWidth="1"/>
-    <col min="4354" max="4354" width="12.6328125" customWidth="1"/>
-    <col min="4355" max="4355" width="19.6328125" customWidth="1"/>
-    <col min="4356" max="4357" width="19.36328125" customWidth="1"/>
-    <col min="4366" max="4366" width="10" bestFit="1" customWidth="1"/>
-    <col min="4367" max="4367" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="4370" max="4370" width="10" bestFit="1" customWidth="1"/>
-    <col min="4374" max="4374" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="4376" max="4376" width="7" customWidth="1"/>
-    <col min="4378" max="4378" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="4609" max="4609" width="43.36328125" customWidth="1"/>
-    <col min="4610" max="4610" width="12.6328125" customWidth="1"/>
-    <col min="4611" max="4611" width="19.6328125" customWidth="1"/>
-    <col min="4612" max="4613" width="19.36328125" customWidth="1"/>
-    <col min="4622" max="4622" width="10" bestFit="1" customWidth="1"/>
-    <col min="4623" max="4623" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="4626" max="4626" width="10" bestFit="1" customWidth="1"/>
-    <col min="4630" max="4630" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="4632" max="4632" width="7" customWidth="1"/>
-    <col min="4634" max="4634" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="4865" max="4865" width="43.36328125" customWidth="1"/>
-    <col min="4866" max="4866" width="12.6328125" customWidth="1"/>
-    <col min="4867" max="4867" width="19.6328125" customWidth="1"/>
-    <col min="4868" max="4869" width="19.36328125" customWidth="1"/>
-    <col min="4878" max="4878" width="10" bestFit="1" customWidth="1"/>
-    <col min="4879" max="4879" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="4882" max="4882" width="10" bestFit="1" customWidth="1"/>
-    <col min="4886" max="4886" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="4888" max="4888" width="7" customWidth="1"/>
-    <col min="4890" max="4890" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="5121" max="5121" width="43.36328125" customWidth="1"/>
-    <col min="5122" max="5122" width="12.6328125" customWidth="1"/>
-    <col min="5123" max="5123" width="19.6328125" customWidth="1"/>
-    <col min="5124" max="5125" width="19.36328125" customWidth="1"/>
-    <col min="5134" max="5134" width="10" bestFit="1" customWidth="1"/>
-    <col min="5135" max="5135" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="5138" max="5138" width="10" bestFit="1" customWidth="1"/>
-    <col min="5142" max="5142" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="5144" max="5144" width="7" customWidth="1"/>
-    <col min="5146" max="5146" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="5377" max="5377" width="43.36328125" customWidth="1"/>
-    <col min="5378" max="5378" width="12.6328125" customWidth="1"/>
-    <col min="5379" max="5379" width="19.6328125" customWidth="1"/>
-    <col min="5380" max="5381" width="19.36328125" customWidth="1"/>
-    <col min="5390" max="5390" width="10" bestFit="1" customWidth="1"/>
-    <col min="5391" max="5391" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="5394" max="5394" width="10" bestFit="1" customWidth="1"/>
-    <col min="5398" max="5398" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="5400" max="5400" width="7" customWidth="1"/>
-    <col min="5402" max="5402" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="5633" max="5633" width="43.36328125" customWidth="1"/>
-    <col min="5634" max="5634" width="12.6328125" customWidth="1"/>
-    <col min="5635" max="5635" width="19.6328125" customWidth="1"/>
-    <col min="5636" max="5637" width="19.36328125" customWidth="1"/>
-    <col min="5646" max="5646" width="10" bestFit="1" customWidth="1"/>
-    <col min="5647" max="5647" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="5650" max="5650" width="10" bestFit="1" customWidth="1"/>
-    <col min="5654" max="5654" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="5656" max="5656" width="7" customWidth="1"/>
-    <col min="5658" max="5658" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="5889" max="5889" width="43.36328125" customWidth="1"/>
-    <col min="5890" max="5890" width="12.6328125" customWidth="1"/>
-    <col min="5891" max="5891" width="19.6328125" customWidth="1"/>
-    <col min="5892" max="5893" width="19.36328125" customWidth="1"/>
-    <col min="5902" max="5902" width="10" bestFit="1" customWidth="1"/>
-    <col min="5903" max="5903" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="5906" max="5906" width="10" bestFit="1" customWidth="1"/>
-    <col min="5910" max="5910" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="5912" max="5912" width="7" customWidth="1"/>
-    <col min="5914" max="5914" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="6145" max="6145" width="43.36328125" customWidth="1"/>
-    <col min="6146" max="6146" width="12.6328125" customWidth="1"/>
-    <col min="6147" max="6147" width="19.6328125" customWidth="1"/>
-    <col min="6148" max="6149" width="19.36328125" customWidth="1"/>
-    <col min="6158" max="6158" width="10" bestFit="1" customWidth="1"/>
-    <col min="6159" max="6159" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="6162" max="6162" width="10" bestFit="1" customWidth="1"/>
-    <col min="6166" max="6166" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="6168" max="6168" width="7" customWidth="1"/>
-    <col min="6170" max="6170" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="6401" max="6401" width="43.36328125" customWidth="1"/>
-    <col min="6402" max="6402" width="12.6328125" customWidth="1"/>
-    <col min="6403" max="6403" width="19.6328125" customWidth="1"/>
-    <col min="6404" max="6405" width="19.36328125" customWidth="1"/>
-    <col min="6414" max="6414" width="10" bestFit="1" customWidth="1"/>
-    <col min="6415" max="6415" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="6418" max="6418" width="10" bestFit="1" customWidth="1"/>
-    <col min="6422" max="6422" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="6424" max="6424" width="7" customWidth="1"/>
-    <col min="6426" max="6426" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="6657" max="6657" width="43.36328125" customWidth="1"/>
-    <col min="6658" max="6658" width="12.6328125" customWidth="1"/>
-    <col min="6659" max="6659" width="19.6328125" customWidth="1"/>
-    <col min="6660" max="6661" width="19.36328125" customWidth="1"/>
-    <col min="6670" max="6670" width="10" bestFit="1" customWidth="1"/>
-    <col min="6671" max="6671" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="6674" max="6674" width="10" bestFit="1" customWidth="1"/>
-    <col min="6678" max="6678" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="6680" max="6680" width="7" customWidth="1"/>
-    <col min="6682" max="6682" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="6913" max="6913" width="43.36328125" customWidth="1"/>
-    <col min="6914" max="6914" width="12.6328125" customWidth="1"/>
-    <col min="6915" max="6915" width="19.6328125" customWidth="1"/>
-    <col min="6916" max="6917" width="19.36328125" customWidth="1"/>
-    <col min="6926" max="6926" width="10" bestFit="1" customWidth="1"/>
-    <col min="6927" max="6927" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="6930" max="6930" width="10" bestFit="1" customWidth="1"/>
-    <col min="6934" max="6934" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="6936" max="6936" width="7" customWidth="1"/>
-    <col min="6938" max="6938" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="7169" max="7169" width="43.36328125" customWidth="1"/>
-    <col min="7170" max="7170" width="12.6328125" customWidth="1"/>
-    <col min="7171" max="7171" width="19.6328125" customWidth="1"/>
-    <col min="7172" max="7173" width="19.36328125" customWidth="1"/>
-    <col min="7182" max="7182" width="10" bestFit="1" customWidth="1"/>
-    <col min="7183" max="7183" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="7186" max="7186" width="10" bestFit="1" customWidth="1"/>
-    <col min="7190" max="7190" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="7192" max="7192" width="7" customWidth="1"/>
-    <col min="7194" max="7194" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="7425" max="7425" width="43.36328125" customWidth="1"/>
-    <col min="7426" max="7426" width="12.6328125" customWidth="1"/>
-    <col min="7427" max="7427" width="19.6328125" customWidth="1"/>
-    <col min="7428" max="7429" width="19.36328125" customWidth="1"/>
-    <col min="7438" max="7438" width="10" bestFit="1" customWidth="1"/>
-    <col min="7439" max="7439" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="7442" max="7442" width="10" bestFit="1" customWidth="1"/>
-    <col min="7446" max="7446" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="7448" max="7448" width="7" customWidth="1"/>
-    <col min="7450" max="7450" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="7681" max="7681" width="43.36328125" customWidth="1"/>
-    <col min="7682" max="7682" width="12.6328125" customWidth="1"/>
-    <col min="7683" max="7683" width="19.6328125" customWidth="1"/>
-    <col min="7684" max="7685" width="19.36328125" customWidth="1"/>
-    <col min="7694" max="7694" width="10" bestFit="1" customWidth="1"/>
-    <col min="7695" max="7695" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="7698" max="7698" width="10" bestFit="1" customWidth="1"/>
-    <col min="7702" max="7702" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="7704" max="7704" width="7" customWidth="1"/>
-    <col min="7706" max="7706" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="7937" max="7937" width="43.36328125" customWidth="1"/>
-    <col min="7938" max="7938" width="12.6328125" customWidth="1"/>
-    <col min="7939" max="7939" width="19.6328125" customWidth="1"/>
-    <col min="7940" max="7941" width="19.36328125" customWidth="1"/>
-    <col min="7950" max="7950" width="10" bestFit="1" customWidth="1"/>
-    <col min="7951" max="7951" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="7954" max="7954" width="10" bestFit="1" customWidth="1"/>
-    <col min="7958" max="7958" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="7960" max="7960" width="7" customWidth="1"/>
-    <col min="7962" max="7962" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="8193" max="8193" width="43.36328125" customWidth="1"/>
-    <col min="8194" max="8194" width="12.6328125" customWidth="1"/>
-    <col min="8195" max="8195" width="19.6328125" customWidth="1"/>
-    <col min="8196" max="8197" width="19.36328125" customWidth="1"/>
-    <col min="8206" max="8206" width="10" bestFit="1" customWidth="1"/>
-    <col min="8207" max="8207" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="8210" max="8210" width="10" bestFit="1" customWidth="1"/>
-    <col min="8214" max="8214" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="8216" max="8216" width="7" customWidth="1"/>
-    <col min="8218" max="8218" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="8449" max="8449" width="43.36328125" customWidth="1"/>
-    <col min="8450" max="8450" width="12.6328125" customWidth="1"/>
-    <col min="8451" max="8451" width="19.6328125" customWidth="1"/>
-    <col min="8452" max="8453" width="19.36328125" customWidth="1"/>
-    <col min="8462" max="8462" width="10" bestFit="1" customWidth="1"/>
-    <col min="8463" max="8463" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="8466" max="8466" width="10" bestFit="1" customWidth="1"/>
-    <col min="8470" max="8470" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="8472" max="8472" width="7" customWidth="1"/>
-    <col min="8474" max="8474" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="8705" max="8705" width="43.36328125" customWidth="1"/>
-    <col min="8706" max="8706" width="12.6328125" customWidth="1"/>
-    <col min="8707" max="8707" width="19.6328125" customWidth="1"/>
-    <col min="8708" max="8709" width="19.36328125" customWidth="1"/>
-    <col min="8718" max="8718" width="10" bestFit="1" customWidth="1"/>
-    <col min="8719" max="8719" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="8722" max="8722" width="10" bestFit="1" customWidth="1"/>
-    <col min="8726" max="8726" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="8728" max="8728" width="7" customWidth="1"/>
-    <col min="8730" max="8730" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="8961" max="8961" width="43.36328125" customWidth="1"/>
-    <col min="8962" max="8962" width="12.6328125" customWidth="1"/>
-    <col min="8963" max="8963" width="19.6328125" customWidth="1"/>
-    <col min="8964" max="8965" width="19.36328125" customWidth="1"/>
-    <col min="8974" max="8974" width="10" bestFit="1" customWidth="1"/>
-    <col min="8975" max="8975" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="8978" max="8978" width="10" bestFit="1" customWidth="1"/>
-    <col min="8982" max="8982" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="8984" max="8984" width="7" customWidth="1"/>
-    <col min="8986" max="8986" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="9217" max="9217" width="43.36328125" customWidth="1"/>
-    <col min="9218" max="9218" width="12.6328125" customWidth="1"/>
-    <col min="9219" max="9219" width="19.6328125" customWidth="1"/>
-    <col min="9220" max="9221" width="19.36328125" customWidth="1"/>
-    <col min="9230" max="9230" width="10" bestFit="1" customWidth="1"/>
-    <col min="9231" max="9231" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="9234" max="9234" width="10" bestFit="1" customWidth="1"/>
-    <col min="9238" max="9238" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="9240" max="9240" width="7" customWidth="1"/>
-    <col min="9242" max="9242" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="9473" max="9473" width="43.36328125" customWidth="1"/>
-    <col min="9474" max="9474" width="12.6328125" customWidth="1"/>
-    <col min="9475" max="9475" width="19.6328125" customWidth="1"/>
-    <col min="9476" max="9477" width="19.36328125" customWidth="1"/>
-    <col min="9486" max="9486" width="10" bestFit="1" customWidth="1"/>
-    <col min="9487" max="9487" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="9490" max="9490" width="10" bestFit="1" customWidth="1"/>
-    <col min="9494" max="9494" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="9496" max="9496" width="7" customWidth="1"/>
-    <col min="9498" max="9498" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="9729" max="9729" width="43.36328125" customWidth="1"/>
-    <col min="9730" max="9730" width="12.6328125" customWidth="1"/>
-    <col min="9731" max="9731" width="19.6328125" customWidth="1"/>
-    <col min="9732" max="9733" width="19.36328125" customWidth="1"/>
-    <col min="9742" max="9742" width="10" bestFit="1" customWidth="1"/>
-    <col min="9743" max="9743" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="9746" max="9746" width="10" bestFit="1" customWidth="1"/>
-    <col min="9750" max="9750" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="9752" max="9752" width="7" customWidth="1"/>
-    <col min="9754" max="9754" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="9985" max="9985" width="43.36328125" customWidth="1"/>
-    <col min="9986" max="9986" width="12.6328125" customWidth="1"/>
-    <col min="9987" max="9987" width="19.6328125" customWidth="1"/>
-    <col min="9988" max="9989" width="19.36328125" customWidth="1"/>
-    <col min="9998" max="9998" width="10" bestFit="1" customWidth="1"/>
-    <col min="9999" max="9999" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="10002" max="10002" width="10" bestFit="1" customWidth="1"/>
-    <col min="10006" max="10006" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="10008" max="10008" width="7" customWidth="1"/>
-    <col min="10010" max="10010" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="10241" max="10241" width="43.36328125" customWidth="1"/>
-    <col min="10242" max="10242" width="12.6328125" customWidth="1"/>
-    <col min="10243" max="10243" width="19.6328125" customWidth="1"/>
-    <col min="10244" max="10245" width="19.36328125" customWidth="1"/>
-    <col min="10254" max="10254" width="10" bestFit="1" customWidth="1"/>
-    <col min="10255" max="10255" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="10258" max="10258" width="10" bestFit="1" customWidth="1"/>
-    <col min="10262" max="10262" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="10264" max="10264" width="7" customWidth="1"/>
-    <col min="10266" max="10266" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="10497" max="10497" width="43.36328125" customWidth="1"/>
-    <col min="10498" max="10498" width="12.6328125" customWidth="1"/>
-    <col min="10499" max="10499" width="19.6328125" customWidth="1"/>
-    <col min="10500" max="10501" width="19.36328125" customWidth="1"/>
-    <col min="10510" max="10510" width="10" bestFit="1" customWidth="1"/>
-    <col min="10511" max="10511" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="10514" max="10514" width="10" bestFit="1" customWidth="1"/>
-    <col min="10518" max="10518" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="10520" max="10520" width="7" customWidth="1"/>
-    <col min="10522" max="10522" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="10753" max="10753" width="43.36328125" customWidth="1"/>
-    <col min="10754" max="10754" width="12.6328125" customWidth="1"/>
-    <col min="10755" max="10755" width="19.6328125" customWidth="1"/>
-    <col min="10756" max="10757" width="19.36328125" customWidth="1"/>
-    <col min="10766" max="10766" width="10" bestFit="1" customWidth="1"/>
-    <col min="10767" max="10767" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="10770" max="10770" width="10" bestFit="1" customWidth="1"/>
-    <col min="10774" max="10774" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="10776" max="10776" width="7" customWidth="1"/>
-    <col min="10778" max="10778" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="11009" max="11009" width="43.36328125" customWidth="1"/>
-    <col min="11010" max="11010" width="12.6328125" customWidth="1"/>
-    <col min="11011" max="11011" width="19.6328125" customWidth="1"/>
-    <col min="11012" max="11013" width="19.36328125" customWidth="1"/>
-    <col min="11022" max="11022" width="10" bestFit="1" customWidth="1"/>
-    <col min="11023" max="11023" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="11026" max="11026" width="10" bestFit="1" customWidth="1"/>
-    <col min="11030" max="11030" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="11032" max="11032" width="7" customWidth="1"/>
-    <col min="11034" max="11034" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="11265" max="11265" width="43.36328125" customWidth="1"/>
-    <col min="11266" max="11266" width="12.6328125" customWidth="1"/>
-    <col min="11267" max="11267" width="19.6328125" customWidth="1"/>
-    <col min="11268" max="11269" width="19.36328125" customWidth="1"/>
-    <col min="11278" max="11278" width="10" bestFit="1" customWidth="1"/>
-    <col min="11279" max="11279" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="11282" max="11282" width="10" bestFit="1" customWidth="1"/>
-    <col min="11286" max="11286" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="11288" max="11288" width="7" customWidth="1"/>
-    <col min="11290" max="11290" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="11521" max="11521" width="43.36328125" customWidth="1"/>
-    <col min="11522" max="11522" width="12.6328125" customWidth="1"/>
-    <col min="11523" max="11523" width="19.6328125" customWidth="1"/>
-    <col min="11524" max="11525" width="19.36328125" customWidth="1"/>
-    <col min="11534" max="11534" width="10" bestFit="1" customWidth="1"/>
-    <col min="11535" max="11535" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="11538" max="11538" width="10" bestFit="1" customWidth="1"/>
-    <col min="11542" max="11542" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="11544" max="11544" width="7" customWidth="1"/>
-    <col min="11546" max="11546" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="11777" max="11777" width="43.36328125" customWidth="1"/>
-    <col min="11778" max="11778" width="12.6328125" customWidth="1"/>
-    <col min="11779" max="11779" width="19.6328125" customWidth="1"/>
-    <col min="11780" max="11781" width="19.36328125" customWidth="1"/>
-    <col min="11790" max="11790" width="10" bestFit="1" customWidth="1"/>
-    <col min="11791" max="11791" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="11794" max="11794" width="10" bestFit="1" customWidth="1"/>
-    <col min="11798" max="11798" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="11800" max="11800" width="7" customWidth="1"/>
-    <col min="11802" max="11802" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="12033" max="12033" width="43.36328125" customWidth="1"/>
-    <col min="12034" max="12034" width="12.6328125" customWidth="1"/>
-    <col min="12035" max="12035" width="19.6328125" customWidth="1"/>
-    <col min="12036" max="12037" width="19.36328125" customWidth="1"/>
-    <col min="12046" max="12046" width="10" bestFit="1" customWidth="1"/>
-    <col min="12047" max="12047" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="12050" max="12050" width="10" bestFit="1" customWidth="1"/>
-    <col min="12054" max="12054" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="12056" max="12056" width="7" customWidth="1"/>
-    <col min="12058" max="12058" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="12289" max="12289" width="43.36328125" customWidth="1"/>
-    <col min="12290" max="12290" width="12.6328125" customWidth="1"/>
-    <col min="12291" max="12291" width="19.6328125" customWidth="1"/>
-    <col min="12292" max="12293" width="19.36328125" customWidth="1"/>
-    <col min="12302" max="12302" width="10" bestFit="1" customWidth="1"/>
-    <col min="12303" max="12303" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="12306" max="12306" width="10" bestFit="1" customWidth="1"/>
-    <col min="12310" max="12310" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="12312" max="12312" width="7" customWidth="1"/>
-    <col min="12314" max="12314" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="12545" max="12545" width="43.36328125" customWidth="1"/>
-    <col min="12546" max="12546" width="12.6328125" customWidth="1"/>
-    <col min="12547" max="12547" width="19.6328125" customWidth="1"/>
-    <col min="12548" max="12549" width="19.36328125" customWidth="1"/>
-    <col min="12558" max="12558" width="10" bestFit="1" customWidth="1"/>
-    <col min="12559" max="12559" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="12562" max="12562" width="10" bestFit="1" customWidth="1"/>
-    <col min="12566" max="12566" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="12568" max="12568" width="7" customWidth="1"/>
-    <col min="12570" max="12570" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="12801" max="12801" width="43.36328125" customWidth="1"/>
-    <col min="12802" max="12802" width="12.6328125" customWidth="1"/>
-    <col min="12803" max="12803" width="19.6328125" customWidth="1"/>
-    <col min="12804" max="12805" width="19.36328125" customWidth="1"/>
-    <col min="12814" max="12814" width="10" bestFit="1" customWidth="1"/>
-    <col min="12815" max="12815" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="12818" max="12818" width="10" bestFit="1" customWidth="1"/>
-    <col min="12822" max="12822" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="12824" max="12824" width="7" customWidth="1"/>
-    <col min="12826" max="12826" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="13057" max="13057" width="43.36328125" customWidth="1"/>
-    <col min="13058" max="13058" width="12.6328125" customWidth="1"/>
-    <col min="13059" max="13059" width="19.6328125" customWidth="1"/>
-    <col min="13060" max="13061" width="19.36328125" customWidth="1"/>
-    <col min="13070" max="13070" width="10" bestFit="1" customWidth="1"/>
-    <col min="13071" max="13071" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="13074" max="13074" width="10" bestFit="1" customWidth="1"/>
-    <col min="13078" max="13078" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="13080" max="13080" width="7" customWidth="1"/>
-    <col min="13082" max="13082" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="13313" max="13313" width="43.36328125" customWidth="1"/>
-    <col min="13314" max="13314" width="12.6328125" customWidth="1"/>
-    <col min="13315" max="13315" width="19.6328125" customWidth="1"/>
-    <col min="13316" max="13317" width="19.36328125" customWidth="1"/>
-    <col min="13326" max="13326" width="10" bestFit="1" customWidth="1"/>
-    <col min="13327" max="13327" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="13330" max="13330" width="10" bestFit="1" customWidth="1"/>
-    <col min="13334" max="13334" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="13336" max="13336" width="7" customWidth="1"/>
-    <col min="13338" max="13338" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="13569" max="13569" width="43.36328125" customWidth="1"/>
-    <col min="13570" max="13570" width="12.6328125" customWidth="1"/>
-    <col min="13571" max="13571" width="19.6328125" customWidth="1"/>
-    <col min="13572" max="13573" width="19.36328125" customWidth="1"/>
-    <col min="13582" max="13582" width="10" bestFit="1" customWidth="1"/>
-    <col min="13583" max="13583" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="13586" max="13586" width="10" bestFit="1" customWidth="1"/>
-    <col min="13590" max="13590" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="13592" max="13592" width="7" customWidth="1"/>
-    <col min="13594" max="13594" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="13825" max="13825" width="43.36328125" customWidth="1"/>
-    <col min="13826" max="13826" width="12.6328125" customWidth="1"/>
-    <col min="13827" max="13827" width="19.6328125" customWidth="1"/>
-    <col min="13828" max="13829" width="19.36328125" customWidth="1"/>
-    <col min="13838" max="13838" width="10" bestFit="1" customWidth="1"/>
-    <col min="13839" max="13839" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="13842" max="13842" width="10" bestFit="1" customWidth="1"/>
-    <col min="13846" max="13846" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="13848" max="13848" width="7" customWidth="1"/>
-    <col min="13850" max="13850" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="14081" max="14081" width="43.36328125" customWidth="1"/>
-    <col min="14082" max="14082" width="12.6328125" customWidth="1"/>
-    <col min="14083" max="14083" width="19.6328125" customWidth="1"/>
-    <col min="14084" max="14085" width="19.36328125" customWidth="1"/>
-    <col min="14094" max="14094" width="10" bestFit="1" customWidth="1"/>
-    <col min="14095" max="14095" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="14098" max="14098" width="10" bestFit="1" customWidth="1"/>
-    <col min="14102" max="14102" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="14104" max="14104" width="7" customWidth="1"/>
-    <col min="14106" max="14106" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="14337" max="14337" width="43.36328125" customWidth="1"/>
-    <col min="14338" max="14338" width="12.6328125" customWidth="1"/>
-    <col min="14339" max="14339" width="19.6328125" customWidth="1"/>
-    <col min="14340" max="14341" width="19.36328125" customWidth="1"/>
-    <col min="14350" max="14350" width="10" bestFit="1" customWidth="1"/>
-    <col min="14351" max="14351" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="14354" max="14354" width="10" bestFit="1" customWidth="1"/>
-    <col min="14358" max="14358" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="14360" max="14360" width="7" customWidth="1"/>
-    <col min="14362" max="14362" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="14593" max="14593" width="43.36328125" customWidth="1"/>
-    <col min="14594" max="14594" width="12.6328125" customWidth="1"/>
-    <col min="14595" max="14595" width="19.6328125" customWidth="1"/>
-    <col min="14596" max="14597" width="19.36328125" customWidth="1"/>
-    <col min="14606" max="14606" width="10" bestFit="1" customWidth="1"/>
-    <col min="14607" max="14607" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="14610" max="14610" width="10" bestFit="1" customWidth="1"/>
-    <col min="14614" max="14614" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="14616" max="14616" width="7" customWidth="1"/>
-    <col min="14618" max="14618" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="14849" max="14849" width="43.36328125" customWidth="1"/>
-    <col min="14850" max="14850" width="12.6328125" customWidth="1"/>
-    <col min="14851" max="14851" width="19.6328125" customWidth="1"/>
-    <col min="14852" max="14853" width="19.36328125" customWidth="1"/>
-    <col min="14862" max="14862" width="10" bestFit="1" customWidth="1"/>
-    <col min="14863" max="14863" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="14866" max="14866" width="10" bestFit="1" customWidth="1"/>
-    <col min="14870" max="14870" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="14872" max="14872" width="7" customWidth="1"/>
-    <col min="14874" max="14874" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="15105" max="15105" width="43.36328125" customWidth="1"/>
-    <col min="15106" max="15106" width="12.6328125" customWidth="1"/>
-    <col min="15107" max="15107" width="19.6328125" customWidth="1"/>
-    <col min="15108" max="15109" width="19.36328125" customWidth="1"/>
-    <col min="15118" max="15118" width="10" bestFit="1" customWidth="1"/>
-    <col min="15119" max="15119" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="15122" max="15122" width="10" bestFit="1" customWidth="1"/>
-    <col min="15126" max="15126" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="15128" max="15128" width="7" customWidth="1"/>
-    <col min="15130" max="15130" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="15361" max="15361" width="43.36328125" customWidth="1"/>
-    <col min="15362" max="15362" width="12.6328125" customWidth="1"/>
-    <col min="15363" max="15363" width="19.6328125" customWidth="1"/>
-    <col min="15364" max="15365" width="19.36328125" customWidth="1"/>
-    <col min="15374" max="15374" width="10" bestFit="1" customWidth="1"/>
-    <col min="15375" max="15375" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="15378" max="15378" width="10" bestFit="1" customWidth="1"/>
-    <col min="15382" max="15382" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="15384" max="15384" width="7" customWidth="1"/>
-    <col min="15386" max="15386" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="15617" max="15617" width="43.36328125" customWidth="1"/>
-    <col min="15618" max="15618" width="12.6328125" customWidth="1"/>
-    <col min="15619" max="15619" width="19.6328125" customWidth="1"/>
-    <col min="15620" max="15621" width="19.36328125" customWidth="1"/>
-    <col min="15630" max="15630" width="10" bestFit="1" customWidth="1"/>
-    <col min="15631" max="15631" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="15634" max="15634" width="10" bestFit="1" customWidth="1"/>
-    <col min="15638" max="15638" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="15640" max="15640" width="7" customWidth="1"/>
-    <col min="15642" max="15642" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="15873" max="15873" width="43.36328125" customWidth="1"/>
-    <col min="15874" max="15874" width="12.6328125" customWidth="1"/>
-    <col min="15875" max="15875" width="19.6328125" customWidth="1"/>
-    <col min="15876" max="15877" width="19.36328125" customWidth="1"/>
-    <col min="15886" max="15886" width="10" bestFit="1" customWidth="1"/>
-    <col min="15887" max="15887" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="15890" max="15890" width="10" bestFit="1" customWidth="1"/>
-    <col min="15894" max="15894" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="15896" max="15896" width="7" customWidth="1"/>
-    <col min="15898" max="15898" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="16129" max="16129" width="43.36328125" customWidth="1"/>
-    <col min="16130" max="16130" width="12.6328125" customWidth="1"/>
-    <col min="16131" max="16131" width="19.6328125" customWidth="1"/>
-    <col min="16132" max="16133" width="19.36328125" customWidth="1"/>
-    <col min="16142" max="16142" width="10" bestFit="1" customWidth="1"/>
-    <col min="16143" max="16143" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="16146" max="16146" width="10" bestFit="1" customWidth="1"/>
-    <col min="16150" max="16150" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="16152" max="16152" width="7" customWidth="1"/>
-    <col min="16154" max="16154" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="93.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="38" t="s">
+      <c r="B1" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="36" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="36" t="s">
@@ -4316,631 +3235,1003 @@
         <v>4</v>
       </c>
       <c r="F1" s="36" t="s">
-        <v>91</v>
+        <v>5</v>
       </c>
       <c r="G1" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="J1" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="K1" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="L1" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="M1" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="N1" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="O1" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="36" t="s">
+      <c r="P1" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="36" t="s">
+      <c r="Q1" s="36" t="s">
         <v>23</v>
       </c>
+      <c r="R1" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="S1" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="T1" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="U1" s="36" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D2" s="17">
+        <v>0</v>
+      </c>
+      <c r="E2" s="17">
+        <v>19000</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="H2" s="2">
+        <v>230</v>
+      </c>
+      <c r="I2" s="2">
+        <v>27</v>
+      </c>
+      <c r="J2" s="2">
+        <v>35</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="N2" s="2">
+        <v>1</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>25</v>
+      </c>
+      <c r="R2" s="2">
+        <v>5</v>
+      </c>
+      <c r="S2" s="2">
+        <v>5</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D3" s="17">
+        <v>0</v>
+      </c>
+      <c r="E3" s="17">
+        <v>19000</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="H3" s="2">
+        <v>230</v>
+      </c>
+      <c r="I3" s="2">
+        <v>27</v>
+      </c>
+      <c r="J3" s="2">
+        <v>35</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="N3" s="2">
+        <v>1</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>25</v>
+      </c>
+      <c r="R3" s="2">
+        <v>5</v>
+      </c>
+      <c r="S3" s="2">
+        <v>5</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="O9" s="10"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="O11" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <dimension ref="A1:W11"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB25" sqref="AB25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" customWidth="1"/>
+    <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" customWidth="1"/>
+    <col min="16" max="16" width="12.42578125" customWidth="1"/>
+    <col min="17" max="17" width="12" customWidth="1"/>
+    <col min="22" max="22" width="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="32.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="40" t="s">
+        <v>204</v>
+      </c>
+      <c r="H1" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="I1" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="J1" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="K1" s="40" t="s">
+        <v>200</v>
+      </c>
+      <c r="L1" s="40" t="s">
+        <v>201</v>
+      </c>
+      <c r="M1" s="38" t="s">
+        <v>17</v>
+      </c>
       <c r="N1" s="36" t="s">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="O1" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="36" t="s">
+      <c r="U1" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="Q1" s="36" t="s">
-        <v>101</v>
-      </c>
-      <c r="R1" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="S1" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="T1" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="U1" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="V1" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="W1" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="X1" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y1" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z1" s="36" t="s">
+      <c r="V1" s="37" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="W1" s="40" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>110</v>
+        <v>197</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="D2" s="17">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E2" s="17">
-        <v>12000</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G2" s="2" t="s">
+        <v>40000</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="11">
+        <v>3.1</v>
+      </c>
+      <c r="H2" s="11">
+        <v>380</v>
+      </c>
+      <c r="I2" s="11">
+        <v>0</v>
+      </c>
+      <c r="J2" s="11">
+        <v>27</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="M2" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2">
-        <f>2771.2/0.962</f>
-        <v>2880.6652806652805</v>
-      </c>
-      <c r="J2" s="2">
-        <v>1</v>
-      </c>
-      <c r="K2" s="2">
-        <v>0</v>
-      </c>
-      <c r="L2" s="2">
-        <f>-284.2/0.962</f>
-        <v>-295.42619542619542</v>
-      </c>
-      <c r="M2" s="2">
+      <c r="N2" s="2">
+        <v>0</v>
+      </c>
+      <c r="O2" s="2">
+        <f>177.8/0.902</f>
+        <v>197.11751662971176</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.49</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0</v>
+      </c>
+      <c r="R2" s="2">
+        <v>0</v>
+      </c>
+      <c r="S2" s="2">
+        <v>20</v>
+      </c>
+      <c r="T2" s="2">
+        <v>1</v>
+      </c>
+      <c r="U2" s="2">
+        <v>5</v>
+      </c>
+      <c r="V2" s="14"/>
+      <c r="W2" s="27" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D3" s="17">
+        <v>40000</v>
+      </c>
+      <c r="E3" s="17">
+        <v>100000000</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="11">
+        <v>2.8</v>
+      </c>
+      <c r="H3" s="11">
+        <v>380</v>
+      </c>
+      <c r="I3" s="11">
+        <v>0</v>
+      </c>
+      <c r="J3" s="11">
+        <v>27</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="M3" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="2">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2">
+        <f>177.8/0.902</f>
+        <v>197.11751662971176</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.49</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0</v>
+      </c>
+      <c r="R3" s="2">
+        <v>0</v>
+      </c>
+      <c r="S3" s="2">
+        <v>20</v>
+      </c>
+      <c r="T3" s="2">
+        <v>1</v>
+      </c>
+      <c r="U3" s="2">
+        <v>5</v>
+      </c>
+      <c r="V3" s="14"/>
+      <c r="W3" s="27" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D4" s="17">
+        <v>0</v>
+      </c>
+      <c r="E4" s="17">
+        <v>21000</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="11">
+        <v>4.3</v>
+      </c>
+      <c r="H4" s="11">
+        <v>380</v>
+      </c>
+      <c r="I4" s="11">
+        <v>20</v>
+      </c>
+      <c r="J4" s="11">
+        <v>27</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="M4" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2">
+        <f>8893/0.902/1000</f>
+        <v>9.8592017738359186</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0</v>
+      </c>
+      <c r="R4" s="2">
+        <f>-493.53/0.902/1000</f>
+        <v>-0.54715077605321505</v>
+      </c>
+      <c r="S4" s="2">
         <v>25</v>
       </c>
-      <c r="N2" s="11">
+      <c r="T4" s="2">
+        <v>5</v>
+      </c>
+      <c r="U4" s="2">
+        <v>6</v>
+      </c>
+      <c r="V4" s="14"/>
+      <c r="W4" s="27" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D5" s="17">
+        <v>21000</v>
+      </c>
+      <c r="E5" s="17">
+        <v>40000</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="11">
+        <v>4.3</v>
+      </c>
+      <c r="H5" s="11">
+        <v>380</v>
+      </c>
+      <c r="I5" s="11">
+        <v>20</v>
+      </c>
+      <c r="J5" s="11">
+        <v>27</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2">
+        <f>8893/0.902/1000</f>
+        <v>9.8592017738359186</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0</v>
+      </c>
+      <c r="R5" s="2">
+        <f>-493.53/0.902/1000</f>
+        <v>-0.54715077605321505</v>
+      </c>
+      <c r="S5" s="2">
         <v>25</v>
       </c>
-      <c r="O2" s="2">
-        <v>1</v>
-      </c>
-      <c r="P2" s="2">
+      <c r="T5" s="2">
+        <v>5</v>
+      </c>
+      <c r="U5" s="2">
         <v>6</v>
       </c>
-      <c r="Q2" s="11">
-        <v>0</v>
-      </c>
-      <c r="R2" s="11">
-        <v>0</v>
-      </c>
-      <c r="S2" s="11">
-        <v>70</v>
-      </c>
-      <c r="T2" s="11">
+      <c r="V5" s="14"/>
+      <c r="W5" s="27" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="U2" s="11">
-        <v>0</v>
-      </c>
-      <c r="V2" s="11">
-        <v>997</v>
-      </c>
-      <c r="W2" s="11">
-        <v>4.1900000000000004</v>
-      </c>
-      <c r="X2" s="11">
-        <v>0.98</v>
-      </c>
-      <c r="Y2" s="11">
-        <v>0.96</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="D3" s="17">
-        <v>12000</v>
-      </c>
-      <c r="E3" s="17">
-        <v>10000000000</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="C6" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D6" s="17">
+        <v>40000</v>
+      </c>
+      <c r="E6" s="17">
+        <v>75000</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="11">
+        <v>4</v>
+      </c>
+      <c r="H6" s="11">
+        <v>380</v>
+      </c>
+      <c r="I6" s="11">
+        <v>20</v>
+      </c>
+      <c r="J6" s="11">
+        <v>27</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="M6" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2">
-        <f>2771.2/0.962</f>
-        <v>2880.6652806652805</v>
-      </c>
-      <c r="J3" s="2">
-        <v>1</v>
-      </c>
-      <c r="K3" s="2">
-        <v>0</v>
-      </c>
-      <c r="L3" s="2">
-        <f>-284.2/0.962</f>
-        <v>-295.42619542619542</v>
-      </c>
-      <c r="M3" s="2">
+      <c r="N6" s="2">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2">
+        <f>8893/0.902/1000</f>
+        <v>9.8592017738359186</v>
+      </c>
+      <c r="P6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0</v>
+      </c>
+      <c r="R6" s="2">
+        <f>-493.53/0.902/1000</f>
+        <v>-0.54715077605321505</v>
+      </c>
+      <c r="S6" s="2">
         <v>25</v>
       </c>
-      <c r="N3" s="11">
+      <c r="T6" s="2">
+        <v>5</v>
+      </c>
+      <c r="U6" s="2">
+        <v>6</v>
+      </c>
+      <c r="V6" s="14"/>
+      <c r="W6" s="27" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D7" s="17">
+        <v>75000</v>
+      </c>
+      <c r="E7" s="17">
+        <v>20000000</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="11">
+        <v>3.9</v>
+      </c>
+      <c r="H7" s="11">
+        <v>380</v>
+      </c>
+      <c r="I7" s="11">
+        <v>20</v>
+      </c>
+      <c r="J7" s="11">
+        <v>27</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="M7" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2">
+        <f>8893/0.902/1000</f>
+        <v>9.8592017738359186</v>
+      </c>
+      <c r="P7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0</v>
+      </c>
+      <c r="R7" s="2">
+        <f>-493.53/0.902/1000</f>
+        <v>-0.54715077605321505</v>
+      </c>
+      <c r="S7" s="2">
         <v>25</v>
       </c>
-      <c r="O3" s="2">
-        <v>1</v>
-      </c>
-      <c r="P3" s="2">
+      <c r="T7" s="2">
+        <v>5</v>
+      </c>
+      <c r="U7" s="2">
         <v>6</v>
       </c>
-      <c r="Q3" s="11">
-        <v>0</v>
-      </c>
-      <c r="R3" s="11">
-        <v>0</v>
-      </c>
-      <c r="S3" s="11">
-        <v>70</v>
-      </c>
-      <c r="T3" s="11">
-        <v>90</v>
-      </c>
-      <c r="U3" s="11">
-        <v>0</v>
-      </c>
-      <c r="V3" s="11">
-        <v>997</v>
-      </c>
-      <c r="W3" s="11">
-        <v>4.1900000000000004</v>
-      </c>
-      <c r="X3" s="11">
-        <v>0.98</v>
-      </c>
-      <c r="Y3" s="11">
-        <v>0.96</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="D4" s="17">
-        <v>0</v>
-      </c>
-      <c r="E4" s="17">
-        <v>10000000000</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="G4" s="11" t="s">
+      <c r="V7" s="14"/>
+      <c r="W7" s="27" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D8" s="17">
+        <v>0</v>
+      </c>
+      <c r="E8" s="17">
+        <v>21000</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H8" s="11">
+        <v>230</v>
+      </c>
+      <c r="I8" s="11">
+        <v>7</v>
+      </c>
+      <c r="J8" s="11">
+        <v>35</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="M8" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="11">
-        <v>0</v>
-      </c>
-      <c r="I4" s="11">
-        <v>108</v>
-      </c>
-      <c r="J4" s="11">
-        <v>1</v>
-      </c>
-      <c r="K4" s="11">
-        <v>0</v>
-      </c>
-      <c r="L4" s="11">
-        <v>0</v>
-      </c>
-      <c r="M4" s="11">
+      <c r="N8" s="2">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2">
+        <f>7.7</f>
+        <v>7.7</v>
+      </c>
+      <c r="P8" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>0</v>
+      </c>
+      <c r="R8" s="2">
+        <v>0</v>
+      </c>
+      <c r="S8" s="2">
         <v>25</v>
       </c>
-      <c r="N4" s="11">
+      <c r="T8" s="2">
+        <v>5</v>
+      </c>
+      <c r="U8" s="2">
+        <v>6</v>
+      </c>
+      <c r="V8" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="W8" s="27" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D9" s="17">
+        <v>21000</v>
+      </c>
+      <c r="E9" s="17">
+        <v>40000</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="11">
+        <v>3.3</v>
+      </c>
+      <c r="H9" s="11">
+        <v>230</v>
+      </c>
+      <c r="I9" s="11">
+        <v>7</v>
+      </c>
+      <c r="J9" s="11">
+        <v>35</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="M9" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2">
+        <f>7.7</f>
+        <v>7.7</v>
+      </c>
+      <c r="P9" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>0</v>
+      </c>
+      <c r="R9" s="2">
+        <v>0</v>
+      </c>
+      <c r="S9" s="2">
         <v>25</v>
       </c>
-      <c r="O4" s="11">
-        <v>2</v>
-      </c>
-      <c r="P4" s="11">
+      <c r="T9" s="2">
+        <v>5</v>
+      </c>
+      <c r="U9" s="2">
         <v>6</v>
       </c>
-      <c r="Q4" s="11">
-        <v>0</v>
-      </c>
-      <c r="R4" s="11">
-        <v>0</v>
-      </c>
-      <c r="S4" s="11">
-        <v>4</v>
-      </c>
-      <c r="T4" s="11">
-        <v>13</v>
-      </c>
-      <c r="U4" s="11">
-        <v>0</v>
-      </c>
-      <c r="V4" s="11">
-        <v>997</v>
-      </c>
-      <c r="W4" s="11">
-        <v>4.1900000000000004</v>
-      </c>
-      <c r="X4" s="11">
-        <v>0.98</v>
-      </c>
-      <c r="Y4" s="11">
-        <v>0.96</v>
-      </c>
-      <c r="Z4" s="11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="D5" s="17">
-        <v>0</v>
-      </c>
-      <c r="E5" s="17">
-        <v>10000000000</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="G5" s="11" t="s">
+      <c r="V9" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="W9" s="27" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D10" s="17">
+        <v>40000</v>
+      </c>
+      <c r="E10" s="17">
+        <v>75000</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="11">
+        <v>3.3</v>
+      </c>
+      <c r="H10" s="11">
+        <v>230</v>
+      </c>
+      <c r="I10" s="11">
+        <v>7</v>
+      </c>
+      <c r="J10" s="11">
+        <v>35</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="M10" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="11">
-        <v>0</v>
-      </c>
-      <c r="I5" s="11">
-        <v>117.9</v>
-      </c>
-      <c r="J5" s="11">
-        <v>1</v>
-      </c>
-      <c r="K5" s="11">
-        <v>0</v>
-      </c>
-      <c r="L5" s="11">
-        <v>0</v>
-      </c>
-      <c r="M5" s="11">
+      <c r="N10" s="2">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2">
+        <f>7.7</f>
+        <v>7.7</v>
+      </c>
+      <c r="P10" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>0</v>
+      </c>
+      <c r="R10" s="2">
+        <v>0</v>
+      </c>
+      <c r="S10" s="2">
         <v>25</v>
       </c>
-      <c r="N5" s="11">
+      <c r="T10" s="2">
+        <v>5</v>
+      </c>
+      <c r="U10" s="2">
+        <v>6</v>
+      </c>
+      <c r="V10" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="W10" s="27" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D11" s="17">
+        <v>75000</v>
+      </c>
+      <c r="E11" s="17">
+        <v>10000000</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="11">
+        <v>3.2</v>
+      </c>
+      <c r="H11" s="11">
+        <v>230</v>
+      </c>
+      <c r="I11" s="11">
+        <v>7</v>
+      </c>
+      <c r="J11" s="11">
+        <v>35</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="M11" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="N11" s="2">
+        <v>0</v>
+      </c>
+      <c r="O11" s="2">
+        <f>7.7</f>
+        <v>7.7</v>
+      </c>
+      <c r="P11" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>0</v>
+      </c>
+      <c r="R11" s="2">
+        <v>0</v>
+      </c>
+      <c r="S11" s="2">
         <v>25</v>
       </c>
-      <c r="O5" s="11">
-        <v>2</v>
-      </c>
-      <c r="P5" s="11">
+      <c r="T11" s="2">
+        <v>5</v>
+      </c>
+      <c r="U11" s="2">
         <v>6</v>
       </c>
-      <c r="Q5" s="11">
-        <v>4.8</v>
-      </c>
-      <c r="R5" s="11">
-        <v>0</v>
-      </c>
-      <c r="S5" s="11">
-        <v>-0.5</v>
-      </c>
-      <c r="T5" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="U5" s="11">
-        <v>334</v>
-      </c>
-      <c r="V5" s="11">
-        <v>917</v>
-      </c>
-      <c r="W5" s="11">
-        <v>2.11</v>
-      </c>
-      <c r="X5" s="11">
-        <v>0.98</v>
-      </c>
-      <c r="Y5" s="11">
-        <v>0.96</v>
-      </c>
-      <c r="Z5" s="11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="D6" s="17">
-        <v>0</v>
-      </c>
-      <c r="E6" s="17">
-        <v>10000000000</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="11">
-        <v>0</v>
-      </c>
-      <c r="I6" s="11">
-        <v>117.9</v>
-      </c>
-      <c r="J6" s="11">
-        <v>1</v>
-      </c>
-      <c r="K6" s="11">
-        <v>0</v>
-      </c>
-      <c r="L6" s="11">
-        <v>0</v>
-      </c>
-      <c r="M6" s="11">
-        <v>25</v>
-      </c>
-      <c r="N6" s="11">
-        <v>7</v>
-      </c>
-      <c r="O6" s="11">
-        <v>2</v>
-      </c>
-      <c r="P6" s="11">
-        <v>6</v>
-      </c>
-      <c r="Q6" s="11">
-        <v>4.8</v>
-      </c>
-      <c r="R6" s="11">
-        <v>4</v>
-      </c>
-      <c r="S6" s="11">
-        <v>3.5</v>
-      </c>
-      <c r="T6" s="11">
-        <v>4.5</v>
-      </c>
-      <c r="U6" s="11">
-        <v>234</v>
-      </c>
-      <c r="V6" s="11">
-        <v>1600</v>
-      </c>
-      <c r="W6" s="11">
-        <v>2</v>
-      </c>
-      <c r="X6" s="11">
-        <v>0.98</v>
-      </c>
-      <c r="Y6" s="11">
-        <v>0.96</v>
-      </c>
-      <c r="Z6" s="11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="D7" s="17">
-        <v>0</v>
-      </c>
-      <c r="E7" s="17">
-        <v>10000000000</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="11">
-        <v>0</v>
-      </c>
-      <c r="I7" s="11">
-        <v>156.30000000000001</v>
-      </c>
-      <c r="J7" s="11">
-        <v>1</v>
-      </c>
-      <c r="K7" s="11">
-        <v>0</v>
-      </c>
-      <c r="L7" s="11">
-        <v>0</v>
-      </c>
-      <c r="M7" s="11">
-        <v>25</v>
-      </c>
-      <c r="N7" s="11">
-        <v>7</v>
-      </c>
-      <c r="O7" s="11">
-        <v>2</v>
-      </c>
-      <c r="P7" s="11">
-        <v>6</v>
-      </c>
-      <c r="Q7" s="11">
-        <v>27.3</v>
-      </c>
-      <c r="R7" s="11">
-        <v>5.4</v>
-      </c>
-      <c r="S7" s="11">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="T7" s="11">
-        <v>5.9</v>
-      </c>
-      <c r="U7" s="11">
-        <v>105</v>
-      </c>
-      <c r="V7" s="11">
-        <v>1125</v>
-      </c>
-      <c r="W7" s="11">
-        <v>2.09</v>
-      </c>
-      <c r="X7" s="11">
-        <v>0.98</v>
-      </c>
-      <c r="Y7" s="11">
-        <v>0.96</v>
-      </c>
-      <c r="Z7" s="11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="D8" s="17">
-        <v>0</v>
-      </c>
-      <c r="E8" s="17">
-        <v>10000000000</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="11">
-        <v>0</v>
-      </c>
-      <c r="I8" s="11">
-        <v>141.5</v>
-      </c>
-      <c r="J8" s="11">
-        <v>1</v>
-      </c>
-      <c r="K8" s="11">
-        <v>0</v>
-      </c>
-      <c r="L8" s="11">
-        <v>0</v>
-      </c>
-      <c r="M8" s="11">
-        <v>25</v>
-      </c>
-      <c r="N8" s="11">
-        <v>7</v>
-      </c>
-      <c r="O8" s="11">
-        <v>2</v>
-      </c>
-      <c r="P8" s="11">
-        <v>6</v>
-      </c>
-      <c r="Q8" s="11">
-        <v>19.7</v>
-      </c>
-      <c r="R8" s="11">
-        <v>5</v>
-      </c>
-      <c r="S8" s="11">
-        <v>4.5</v>
-      </c>
-      <c r="T8" s="11">
-        <v>5.5</v>
-      </c>
-      <c r="U8" s="11">
-        <v>230</v>
-      </c>
-      <c r="V8" s="11">
-        <v>760</v>
-      </c>
-      <c r="W8" s="11">
-        <v>2.14</v>
-      </c>
-      <c r="X8" s="11">
-        <v>0.98</v>
-      </c>
-      <c r="Y8" s="11">
-        <v>0.96</v>
-      </c>
-      <c r="Z8" s="11" t="s">
-        <v>95</v>
+      <c r="V11" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="W11" s="27" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -4951,38 +4242,666 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E588DD75-4ED6-A447-B30A-4A128452EE65}">
-  <dimension ref="A1:W7"/>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <dimension ref="A1:AB7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U27" sqref="U27"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.453125" customWidth="1"/>
-    <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6328125" customWidth="1"/>
-    <col min="5" max="5" width="23" customWidth="1"/>
-    <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="10" width="17" customWidth="1"/>
-    <col min="11" max="11" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
-    <col min="13" max="21" width="8.81640625"/>
-    <col min="22" max="22" width="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.36328125" customWidth="1"/>
+    <col min="1" max="1" width="43.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="4" max="7" width="19.28515625" customWidth="1"/>
+    <col min="16" max="16" width="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7" customWidth="1"/>
+    <col min="28" max="28" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="259" max="259" width="43.28515625" customWidth="1"/>
+    <col min="260" max="260" width="12.7109375" customWidth="1"/>
+    <col min="261" max="261" width="19.7109375" customWidth="1"/>
+    <col min="262" max="263" width="19.28515625" customWidth="1"/>
+    <col min="272" max="272" width="10" bestFit="1" customWidth="1"/>
+    <col min="273" max="273" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="276" max="276" width="10" bestFit="1" customWidth="1"/>
+    <col min="280" max="280" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="282" max="282" width="7" customWidth="1"/>
+    <col min="284" max="284" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="515" max="515" width="43.28515625" customWidth="1"/>
+    <col min="516" max="516" width="12.7109375" customWidth="1"/>
+    <col min="517" max="517" width="19.7109375" customWidth="1"/>
+    <col min="518" max="519" width="19.28515625" customWidth="1"/>
+    <col min="528" max="528" width="10" bestFit="1" customWidth="1"/>
+    <col min="529" max="529" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="532" max="532" width="10" bestFit="1" customWidth="1"/>
+    <col min="536" max="536" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="538" max="538" width="7" customWidth="1"/>
+    <col min="540" max="540" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="771" max="771" width="43.28515625" customWidth="1"/>
+    <col min="772" max="772" width="12.7109375" customWidth="1"/>
+    <col min="773" max="773" width="19.7109375" customWidth="1"/>
+    <col min="774" max="775" width="19.28515625" customWidth="1"/>
+    <col min="784" max="784" width="10" bestFit="1" customWidth="1"/>
+    <col min="785" max="785" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="788" max="788" width="10" bestFit="1" customWidth="1"/>
+    <col min="792" max="792" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="794" max="794" width="7" customWidth="1"/>
+    <col min="796" max="796" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="1027" max="1027" width="43.28515625" customWidth="1"/>
+    <col min="1028" max="1028" width="12.7109375" customWidth="1"/>
+    <col min="1029" max="1029" width="19.7109375" customWidth="1"/>
+    <col min="1030" max="1031" width="19.28515625" customWidth="1"/>
+    <col min="1040" max="1040" width="10" bestFit="1" customWidth="1"/>
+    <col min="1041" max="1041" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="1044" max="1044" width="10" bestFit="1" customWidth="1"/>
+    <col min="1048" max="1048" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="1050" max="1050" width="7" customWidth="1"/>
+    <col min="1052" max="1052" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="1283" max="1283" width="43.28515625" customWidth="1"/>
+    <col min="1284" max="1284" width="12.7109375" customWidth="1"/>
+    <col min="1285" max="1285" width="19.7109375" customWidth="1"/>
+    <col min="1286" max="1287" width="19.28515625" customWidth="1"/>
+    <col min="1296" max="1296" width="10" bestFit="1" customWidth="1"/>
+    <col min="1297" max="1297" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="1300" max="1300" width="10" bestFit="1" customWidth="1"/>
+    <col min="1304" max="1304" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="1306" max="1306" width="7" customWidth="1"/>
+    <col min="1308" max="1308" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="1539" max="1539" width="43.28515625" customWidth="1"/>
+    <col min="1540" max="1540" width="12.7109375" customWidth="1"/>
+    <col min="1541" max="1541" width="19.7109375" customWidth="1"/>
+    <col min="1542" max="1543" width="19.28515625" customWidth="1"/>
+    <col min="1552" max="1552" width="10" bestFit="1" customWidth="1"/>
+    <col min="1553" max="1553" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="1556" max="1556" width="10" bestFit="1" customWidth="1"/>
+    <col min="1560" max="1560" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="1562" max="1562" width="7" customWidth="1"/>
+    <col min="1564" max="1564" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="1795" max="1795" width="43.28515625" customWidth="1"/>
+    <col min="1796" max="1796" width="12.7109375" customWidth="1"/>
+    <col min="1797" max="1797" width="19.7109375" customWidth="1"/>
+    <col min="1798" max="1799" width="19.28515625" customWidth="1"/>
+    <col min="1808" max="1808" width="10" bestFit="1" customWidth="1"/>
+    <col min="1809" max="1809" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="1812" max="1812" width="10" bestFit="1" customWidth="1"/>
+    <col min="1816" max="1816" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="1818" max="1818" width="7" customWidth="1"/>
+    <col min="1820" max="1820" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2051" max="2051" width="43.28515625" customWidth="1"/>
+    <col min="2052" max="2052" width="12.7109375" customWidth="1"/>
+    <col min="2053" max="2053" width="19.7109375" customWidth="1"/>
+    <col min="2054" max="2055" width="19.28515625" customWidth="1"/>
+    <col min="2064" max="2064" width="10" bestFit="1" customWidth="1"/>
+    <col min="2065" max="2065" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2068" max="2068" width="10" bestFit="1" customWidth="1"/>
+    <col min="2072" max="2072" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2074" max="2074" width="7" customWidth="1"/>
+    <col min="2076" max="2076" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2307" max="2307" width="43.28515625" customWidth="1"/>
+    <col min="2308" max="2308" width="12.7109375" customWidth="1"/>
+    <col min="2309" max="2309" width="19.7109375" customWidth="1"/>
+    <col min="2310" max="2311" width="19.28515625" customWidth="1"/>
+    <col min="2320" max="2320" width="10" bestFit="1" customWidth="1"/>
+    <col min="2321" max="2321" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2324" max="2324" width="10" bestFit="1" customWidth="1"/>
+    <col min="2328" max="2328" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2330" max="2330" width="7" customWidth="1"/>
+    <col min="2332" max="2332" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2563" max="2563" width="43.28515625" customWidth="1"/>
+    <col min="2564" max="2564" width="12.7109375" customWidth="1"/>
+    <col min="2565" max="2565" width="19.7109375" customWidth="1"/>
+    <col min="2566" max="2567" width="19.28515625" customWidth="1"/>
+    <col min="2576" max="2576" width="10" bestFit="1" customWidth="1"/>
+    <col min="2577" max="2577" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2580" max="2580" width="10" bestFit="1" customWidth="1"/>
+    <col min="2584" max="2584" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2586" max="2586" width="7" customWidth="1"/>
+    <col min="2588" max="2588" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2819" max="2819" width="43.28515625" customWidth="1"/>
+    <col min="2820" max="2820" width="12.7109375" customWidth="1"/>
+    <col min="2821" max="2821" width="19.7109375" customWidth="1"/>
+    <col min="2822" max="2823" width="19.28515625" customWidth="1"/>
+    <col min="2832" max="2832" width="10" bestFit="1" customWidth="1"/>
+    <col min="2833" max="2833" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2836" max="2836" width="10" bestFit="1" customWidth="1"/>
+    <col min="2840" max="2840" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2842" max="2842" width="7" customWidth="1"/>
+    <col min="2844" max="2844" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3075" max="3075" width="43.28515625" customWidth="1"/>
+    <col min="3076" max="3076" width="12.7109375" customWidth="1"/>
+    <col min="3077" max="3077" width="19.7109375" customWidth="1"/>
+    <col min="3078" max="3079" width="19.28515625" customWidth="1"/>
+    <col min="3088" max="3088" width="10" bestFit="1" customWidth="1"/>
+    <col min="3089" max="3089" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3092" max="3092" width="10" bestFit="1" customWidth="1"/>
+    <col min="3096" max="3096" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3098" max="3098" width="7" customWidth="1"/>
+    <col min="3100" max="3100" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3331" max="3331" width="43.28515625" customWidth="1"/>
+    <col min="3332" max="3332" width="12.7109375" customWidth="1"/>
+    <col min="3333" max="3333" width="19.7109375" customWidth="1"/>
+    <col min="3334" max="3335" width="19.28515625" customWidth="1"/>
+    <col min="3344" max="3344" width="10" bestFit="1" customWidth="1"/>
+    <col min="3345" max="3345" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3348" max="3348" width="10" bestFit="1" customWidth="1"/>
+    <col min="3352" max="3352" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3354" max="3354" width="7" customWidth="1"/>
+    <col min="3356" max="3356" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3587" max="3587" width="43.28515625" customWidth="1"/>
+    <col min="3588" max="3588" width="12.7109375" customWidth="1"/>
+    <col min="3589" max="3589" width="19.7109375" customWidth="1"/>
+    <col min="3590" max="3591" width="19.28515625" customWidth="1"/>
+    <col min="3600" max="3600" width="10" bestFit="1" customWidth="1"/>
+    <col min="3601" max="3601" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3604" max="3604" width="10" bestFit="1" customWidth="1"/>
+    <col min="3608" max="3608" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3610" max="3610" width="7" customWidth="1"/>
+    <col min="3612" max="3612" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3843" max="3843" width="43.28515625" customWidth="1"/>
+    <col min="3844" max="3844" width="12.7109375" customWidth="1"/>
+    <col min="3845" max="3845" width="19.7109375" customWidth="1"/>
+    <col min="3846" max="3847" width="19.28515625" customWidth="1"/>
+    <col min="3856" max="3856" width="10" bestFit="1" customWidth="1"/>
+    <col min="3857" max="3857" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3860" max="3860" width="10" bestFit="1" customWidth="1"/>
+    <col min="3864" max="3864" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3866" max="3866" width="7" customWidth="1"/>
+    <col min="3868" max="3868" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4099" max="4099" width="43.28515625" customWidth="1"/>
+    <col min="4100" max="4100" width="12.7109375" customWidth="1"/>
+    <col min="4101" max="4101" width="19.7109375" customWidth="1"/>
+    <col min="4102" max="4103" width="19.28515625" customWidth="1"/>
+    <col min="4112" max="4112" width="10" bestFit="1" customWidth="1"/>
+    <col min="4113" max="4113" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4116" max="4116" width="10" bestFit="1" customWidth="1"/>
+    <col min="4120" max="4120" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4122" max="4122" width="7" customWidth="1"/>
+    <col min="4124" max="4124" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4355" max="4355" width="43.28515625" customWidth="1"/>
+    <col min="4356" max="4356" width="12.7109375" customWidth="1"/>
+    <col min="4357" max="4357" width="19.7109375" customWidth="1"/>
+    <col min="4358" max="4359" width="19.28515625" customWidth="1"/>
+    <col min="4368" max="4368" width="10" bestFit="1" customWidth="1"/>
+    <col min="4369" max="4369" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4372" max="4372" width="10" bestFit="1" customWidth="1"/>
+    <col min="4376" max="4376" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4378" max="4378" width="7" customWidth="1"/>
+    <col min="4380" max="4380" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4611" max="4611" width="43.28515625" customWidth="1"/>
+    <col min="4612" max="4612" width="12.7109375" customWidth="1"/>
+    <col min="4613" max="4613" width="19.7109375" customWidth="1"/>
+    <col min="4614" max="4615" width="19.28515625" customWidth="1"/>
+    <col min="4624" max="4624" width="10" bestFit="1" customWidth="1"/>
+    <col min="4625" max="4625" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4628" max="4628" width="10" bestFit="1" customWidth="1"/>
+    <col min="4632" max="4632" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4634" max="4634" width="7" customWidth="1"/>
+    <col min="4636" max="4636" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4867" max="4867" width="43.28515625" customWidth="1"/>
+    <col min="4868" max="4868" width="12.7109375" customWidth="1"/>
+    <col min="4869" max="4869" width="19.7109375" customWidth="1"/>
+    <col min="4870" max="4871" width="19.28515625" customWidth="1"/>
+    <col min="4880" max="4880" width="10" bestFit="1" customWidth="1"/>
+    <col min="4881" max="4881" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4884" max="4884" width="10" bestFit="1" customWidth="1"/>
+    <col min="4888" max="4888" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4890" max="4890" width="7" customWidth="1"/>
+    <col min="4892" max="4892" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5123" max="5123" width="43.28515625" customWidth="1"/>
+    <col min="5124" max="5124" width="12.7109375" customWidth="1"/>
+    <col min="5125" max="5125" width="19.7109375" customWidth="1"/>
+    <col min="5126" max="5127" width="19.28515625" customWidth="1"/>
+    <col min="5136" max="5136" width="10" bestFit="1" customWidth="1"/>
+    <col min="5137" max="5137" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5140" max="5140" width="10" bestFit="1" customWidth="1"/>
+    <col min="5144" max="5144" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="5146" max="5146" width="7" customWidth="1"/>
+    <col min="5148" max="5148" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5379" max="5379" width="43.28515625" customWidth="1"/>
+    <col min="5380" max="5380" width="12.7109375" customWidth="1"/>
+    <col min="5381" max="5381" width="19.7109375" customWidth="1"/>
+    <col min="5382" max="5383" width="19.28515625" customWidth="1"/>
+    <col min="5392" max="5392" width="10" bestFit="1" customWidth="1"/>
+    <col min="5393" max="5393" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5396" max="5396" width="10" bestFit="1" customWidth="1"/>
+    <col min="5400" max="5400" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="5402" max="5402" width="7" customWidth="1"/>
+    <col min="5404" max="5404" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5635" max="5635" width="43.28515625" customWidth="1"/>
+    <col min="5636" max="5636" width="12.7109375" customWidth="1"/>
+    <col min="5637" max="5637" width="19.7109375" customWidth="1"/>
+    <col min="5638" max="5639" width="19.28515625" customWidth="1"/>
+    <col min="5648" max="5648" width="10" bestFit="1" customWidth="1"/>
+    <col min="5649" max="5649" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5652" max="5652" width="10" bestFit="1" customWidth="1"/>
+    <col min="5656" max="5656" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="5658" max="5658" width="7" customWidth="1"/>
+    <col min="5660" max="5660" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5891" max="5891" width="43.28515625" customWidth="1"/>
+    <col min="5892" max="5892" width="12.7109375" customWidth="1"/>
+    <col min="5893" max="5893" width="19.7109375" customWidth="1"/>
+    <col min="5894" max="5895" width="19.28515625" customWidth="1"/>
+    <col min="5904" max="5904" width="10" bestFit="1" customWidth="1"/>
+    <col min="5905" max="5905" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5908" max="5908" width="10" bestFit="1" customWidth="1"/>
+    <col min="5912" max="5912" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="5914" max="5914" width="7" customWidth="1"/>
+    <col min="5916" max="5916" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6147" max="6147" width="43.28515625" customWidth="1"/>
+    <col min="6148" max="6148" width="12.7109375" customWidth="1"/>
+    <col min="6149" max="6149" width="19.7109375" customWidth="1"/>
+    <col min="6150" max="6151" width="19.28515625" customWidth="1"/>
+    <col min="6160" max="6160" width="10" bestFit="1" customWidth="1"/>
+    <col min="6161" max="6161" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6164" max="6164" width="10" bestFit="1" customWidth="1"/>
+    <col min="6168" max="6168" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="6170" max="6170" width="7" customWidth="1"/>
+    <col min="6172" max="6172" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6403" max="6403" width="43.28515625" customWidth="1"/>
+    <col min="6404" max="6404" width="12.7109375" customWidth="1"/>
+    <col min="6405" max="6405" width="19.7109375" customWidth="1"/>
+    <col min="6406" max="6407" width="19.28515625" customWidth="1"/>
+    <col min="6416" max="6416" width="10" bestFit="1" customWidth="1"/>
+    <col min="6417" max="6417" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6420" max="6420" width="10" bestFit="1" customWidth="1"/>
+    <col min="6424" max="6424" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="6426" max="6426" width="7" customWidth="1"/>
+    <col min="6428" max="6428" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6659" max="6659" width="43.28515625" customWidth="1"/>
+    <col min="6660" max="6660" width="12.7109375" customWidth="1"/>
+    <col min="6661" max="6661" width="19.7109375" customWidth="1"/>
+    <col min="6662" max="6663" width="19.28515625" customWidth="1"/>
+    <col min="6672" max="6672" width="10" bestFit="1" customWidth="1"/>
+    <col min="6673" max="6673" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6676" max="6676" width="10" bestFit="1" customWidth="1"/>
+    <col min="6680" max="6680" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="6682" max="6682" width="7" customWidth="1"/>
+    <col min="6684" max="6684" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6915" max="6915" width="43.28515625" customWidth="1"/>
+    <col min="6916" max="6916" width="12.7109375" customWidth="1"/>
+    <col min="6917" max="6917" width="19.7109375" customWidth="1"/>
+    <col min="6918" max="6919" width="19.28515625" customWidth="1"/>
+    <col min="6928" max="6928" width="10" bestFit="1" customWidth="1"/>
+    <col min="6929" max="6929" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6932" max="6932" width="10" bestFit="1" customWidth="1"/>
+    <col min="6936" max="6936" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="6938" max="6938" width="7" customWidth="1"/>
+    <col min="6940" max="6940" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="7171" max="7171" width="43.28515625" customWidth="1"/>
+    <col min="7172" max="7172" width="12.7109375" customWidth="1"/>
+    <col min="7173" max="7173" width="19.7109375" customWidth="1"/>
+    <col min="7174" max="7175" width="19.28515625" customWidth="1"/>
+    <col min="7184" max="7184" width="10" bestFit="1" customWidth="1"/>
+    <col min="7185" max="7185" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="7188" max="7188" width="10" bestFit="1" customWidth="1"/>
+    <col min="7192" max="7192" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="7194" max="7194" width="7" customWidth="1"/>
+    <col min="7196" max="7196" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="7427" max="7427" width="43.28515625" customWidth="1"/>
+    <col min="7428" max="7428" width="12.7109375" customWidth="1"/>
+    <col min="7429" max="7429" width="19.7109375" customWidth="1"/>
+    <col min="7430" max="7431" width="19.28515625" customWidth="1"/>
+    <col min="7440" max="7440" width="10" bestFit="1" customWidth="1"/>
+    <col min="7441" max="7441" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="7444" max="7444" width="10" bestFit="1" customWidth="1"/>
+    <col min="7448" max="7448" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="7450" max="7450" width="7" customWidth="1"/>
+    <col min="7452" max="7452" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="7683" max="7683" width="43.28515625" customWidth="1"/>
+    <col min="7684" max="7684" width="12.7109375" customWidth="1"/>
+    <col min="7685" max="7685" width="19.7109375" customWidth="1"/>
+    <col min="7686" max="7687" width="19.28515625" customWidth="1"/>
+    <col min="7696" max="7696" width="10" bestFit="1" customWidth="1"/>
+    <col min="7697" max="7697" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="7700" max="7700" width="10" bestFit="1" customWidth="1"/>
+    <col min="7704" max="7704" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="7706" max="7706" width="7" customWidth="1"/>
+    <col min="7708" max="7708" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="7939" max="7939" width="43.28515625" customWidth="1"/>
+    <col min="7940" max="7940" width="12.7109375" customWidth="1"/>
+    <col min="7941" max="7941" width="19.7109375" customWidth="1"/>
+    <col min="7942" max="7943" width="19.28515625" customWidth="1"/>
+    <col min="7952" max="7952" width="10" bestFit="1" customWidth="1"/>
+    <col min="7953" max="7953" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="7956" max="7956" width="10" bestFit="1" customWidth="1"/>
+    <col min="7960" max="7960" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="7962" max="7962" width="7" customWidth="1"/>
+    <col min="7964" max="7964" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="8195" max="8195" width="43.28515625" customWidth="1"/>
+    <col min="8196" max="8196" width="12.7109375" customWidth="1"/>
+    <col min="8197" max="8197" width="19.7109375" customWidth="1"/>
+    <col min="8198" max="8199" width="19.28515625" customWidth="1"/>
+    <col min="8208" max="8208" width="10" bestFit="1" customWidth="1"/>
+    <col min="8209" max="8209" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="8212" max="8212" width="10" bestFit="1" customWidth="1"/>
+    <col min="8216" max="8216" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="8218" max="8218" width="7" customWidth="1"/>
+    <col min="8220" max="8220" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="8451" max="8451" width="43.28515625" customWidth="1"/>
+    <col min="8452" max="8452" width="12.7109375" customWidth="1"/>
+    <col min="8453" max="8453" width="19.7109375" customWidth="1"/>
+    <col min="8454" max="8455" width="19.28515625" customWidth="1"/>
+    <col min="8464" max="8464" width="10" bestFit="1" customWidth="1"/>
+    <col min="8465" max="8465" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="8468" max="8468" width="10" bestFit="1" customWidth="1"/>
+    <col min="8472" max="8472" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="8474" max="8474" width="7" customWidth="1"/>
+    <col min="8476" max="8476" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="8707" max="8707" width="43.28515625" customWidth="1"/>
+    <col min="8708" max="8708" width="12.7109375" customWidth="1"/>
+    <col min="8709" max="8709" width="19.7109375" customWidth="1"/>
+    <col min="8710" max="8711" width="19.28515625" customWidth="1"/>
+    <col min="8720" max="8720" width="10" bestFit="1" customWidth="1"/>
+    <col min="8721" max="8721" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="8724" max="8724" width="10" bestFit="1" customWidth="1"/>
+    <col min="8728" max="8728" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="8730" max="8730" width="7" customWidth="1"/>
+    <col min="8732" max="8732" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="8963" max="8963" width="43.28515625" customWidth="1"/>
+    <col min="8964" max="8964" width="12.7109375" customWidth="1"/>
+    <col min="8965" max="8965" width="19.7109375" customWidth="1"/>
+    <col min="8966" max="8967" width="19.28515625" customWidth="1"/>
+    <col min="8976" max="8976" width="10" bestFit="1" customWidth="1"/>
+    <col min="8977" max="8977" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="8980" max="8980" width="10" bestFit="1" customWidth="1"/>
+    <col min="8984" max="8984" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="8986" max="8986" width="7" customWidth="1"/>
+    <col min="8988" max="8988" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="9219" max="9219" width="43.28515625" customWidth="1"/>
+    <col min="9220" max="9220" width="12.7109375" customWidth="1"/>
+    <col min="9221" max="9221" width="19.7109375" customWidth="1"/>
+    <col min="9222" max="9223" width="19.28515625" customWidth="1"/>
+    <col min="9232" max="9232" width="10" bestFit="1" customWidth="1"/>
+    <col min="9233" max="9233" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="9236" max="9236" width="10" bestFit="1" customWidth="1"/>
+    <col min="9240" max="9240" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="9242" max="9242" width="7" customWidth="1"/>
+    <col min="9244" max="9244" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="9475" max="9475" width="43.28515625" customWidth="1"/>
+    <col min="9476" max="9476" width="12.7109375" customWidth="1"/>
+    <col min="9477" max="9477" width="19.7109375" customWidth="1"/>
+    <col min="9478" max="9479" width="19.28515625" customWidth="1"/>
+    <col min="9488" max="9488" width="10" bestFit="1" customWidth="1"/>
+    <col min="9489" max="9489" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="9492" max="9492" width="10" bestFit="1" customWidth="1"/>
+    <col min="9496" max="9496" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="9498" max="9498" width="7" customWidth="1"/>
+    <col min="9500" max="9500" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="9731" max="9731" width="43.28515625" customWidth="1"/>
+    <col min="9732" max="9732" width="12.7109375" customWidth="1"/>
+    <col min="9733" max="9733" width="19.7109375" customWidth="1"/>
+    <col min="9734" max="9735" width="19.28515625" customWidth="1"/>
+    <col min="9744" max="9744" width="10" bestFit="1" customWidth="1"/>
+    <col min="9745" max="9745" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="9748" max="9748" width="10" bestFit="1" customWidth="1"/>
+    <col min="9752" max="9752" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="9754" max="9754" width="7" customWidth="1"/>
+    <col min="9756" max="9756" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="9987" max="9987" width="43.28515625" customWidth="1"/>
+    <col min="9988" max="9988" width="12.7109375" customWidth="1"/>
+    <col min="9989" max="9989" width="19.7109375" customWidth="1"/>
+    <col min="9990" max="9991" width="19.28515625" customWidth="1"/>
+    <col min="10000" max="10000" width="10" bestFit="1" customWidth="1"/>
+    <col min="10001" max="10001" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="10004" max="10004" width="10" bestFit="1" customWidth="1"/>
+    <col min="10008" max="10008" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="10010" max="10010" width="7" customWidth="1"/>
+    <col min="10012" max="10012" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="10243" max="10243" width="43.28515625" customWidth="1"/>
+    <col min="10244" max="10244" width="12.7109375" customWidth="1"/>
+    <col min="10245" max="10245" width="19.7109375" customWidth="1"/>
+    <col min="10246" max="10247" width="19.28515625" customWidth="1"/>
+    <col min="10256" max="10256" width="10" bestFit="1" customWidth="1"/>
+    <col min="10257" max="10257" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="10260" max="10260" width="10" bestFit="1" customWidth="1"/>
+    <col min="10264" max="10264" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="10266" max="10266" width="7" customWidth="1"/>
+    <col min="10268" max="10268" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="10499" max="10499" width="43.28515625" customWidth="1"/>
+    <col min="10500" max="10500" width="12.7109375" customWidth="1"/>
+    <col min="10501" max="10501" width="19.7109375" customWidth="1"/>
+    <col min="10502" max="10503" width="19.28515625" customWidth="1"/>
+    <col min="10512" max="10512" width="10" bestFit="1" customWidth="1"/>
+    <col min="10513" max="10513" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="10516" max="10516" width="10" bestFit="1" customWidth="1"/>
+    <col min="10520" max="10520" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="10522" max="10522" width="7" customWidth="1"/>
+    <col min="10524" max="10524" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="10755" max="10755" width="43.28515625" customWidth="1"/>
+    <col min="10756" max="10756" width="12.7109375" customWidth="1"/>
+    <col min="10757" max="10757" width="19.7109375" customWidth="1"/>
+    <col min="10758" max="10759" width="19.28515625" customWidth="1"/>
+    <col min="10768" max="10768" width="10" bestFit="1" customWidth="1"/>
+    <col min="10769" max="10769" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="10772" max="10772" width="10" bestFit="1" customWidth="1"/>
+    <col min="10776" max="10776" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="10778" max="10778" width="7" customWidth="1"/>
+    <col min="10780" max="10780" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="11011" max="11011" width="43.28515625" customWidth="1"/>
+    <col min="11012" max="11012" width="12.7109375" customWidth="1"/>
+    <col min="11013" max="11013" width="19.7109375" customWidth="1"/>
+    <col min="11014" max="11015" width="19.28515625" customWidth="1"/>
+    <col min="11024" max="11024" width="10" bestFit="1" customWidth="1"/>
+    <col min="11025" max="11025" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="11028" max="11028" width="10" bestFit="1" customWidth="1"/>
+    <col min="11032" max="11032" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="11034" max="11034" width="7" customWidth="1"/>
+    <col min="11036" max="11036" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="11267" max="11267" width="43.28515625" customWidth="1"/>
+    <col min="11268" max="11268" width="12.7109375" customWidth="1"/>
+    <col min="11269" max="11269" width="19.7109375" customWidth="1"/>
+    <col min="11270" max="11271" width="19.28515625" customWidth="1"/>
+    <col min="11280" max="11280" width="10" bestFit="1" customWidth="1"/>
+    <col min="11281" max="11281" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="11284" max="11284" width="10" bestFit="1" customWidth="1"/>
+    <col min="11288" max="11288" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="11290" max="11290" width="7" customWidth="1"/>
+    <col min="11292" max="11292" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="11523" max="11523" width="43.28515625" customWidth="1"/>
+    <col min="11524" max="11524" width="12.7109375" customWidth="1"/>
+    <col min="11525" max="11525" width="19.7109375" customWidth="1"/>
+    <col min="11526" max="11527" width="19.28515625" customWidth="1"/>
+    <col min="11536" max="11536" width="10" bestFit="1" customWidth="1"/>
+    <col min="11537" max="11537" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="11540" max="11540" width="10" bestFit="1" customWidth="1"/>
+    <col min="11544" max="11544" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="11546" max="11546" width="7" customWidth="1"/>
+    <col min="11548" max="11548" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="11779" max="11779" width="43.28515625" customWidth="1"/>
+    <col min="11780" max="11780" width="12.7109375" customWidth="1"/>
+    <col min="11781" max="11781" width="19.7109375" customWidth="1"/>
+    <col min="11782" max="11783" width="19.28515625" customWidth="1"/>
+    <col min="11792" max="11792" width="10" bestFit="1" customWidth="1"/>
+    <col min="11793" max="11793" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="11796" max="11796" width="10" bestFit="1" customWidth="1"/>
+    <col min="11800" max="11800" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="11802" max="11802" width="7" customWidth="1"/>
+    <col min="11804" max="11804" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="12035" max="12035" width="43.28515625" customWidth="1"/>
+    <col min="12036" max="12036" width="12.7109375" customWidth="1"/>
+    <col min="12037" max="12037" width="19.7109375" customWidth="1"/>
+    <col min="12038" max="12039" width="19.28515625" customWidth="1"/>
+    <col min="12048" max="12048" width="10" bestFit="1" customWidth="1"/>
+    <col min="12049" max="12049" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="12052" max="12052" width="10" bestFit="1" customWidth="1"/>
+    <col min="12056" max="12056" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="12058" max="12058" width="7" customWidth="1"/>
+    <col min="12060" max="12060" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="12291" max="12291" width="43.28515625" customWidth="1"/>
+    <col min="12292" max="12292" width="12.7109375" customWidth="1"/>
+    <col min="12293" max="12293" width="19.7109375" customWidth="1"/>
+    <col min="12294" max="12295" width="19.28515625" customWidth="1"/>
+    <col min="12304" max="12304" width="10" bestFit="1" customWidth="1"/>
+    <col min="12305" max="12305" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="12308" max="12308" width="10" bestFit="1" customWidth="1"/>
+    <col min="12312" max="12312" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="12314" max="12314" width="7" customWidth="1"/>
+    <col min="12316" max="12316" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="12547" max="12547" width="43.28515625" customWidth="1"/>
+    <col min="12548" max="12548" width="12.7109375" customWidth="1"/>
+    <col min="12549" max="12549" width="19.7109375" customWidth="1"/>
+    <col min="12550" max="12551" width="19.28515625" customWidth="1"/>
+    <col min="12560" max="12560" width="10" bestFit="1" customWidth="1"/>
+    <col min="12561" max="12561" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="12564" max="12564" width="10" bestFit="1" customWidth="1"/>
+    <col min="12568" max="12568" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="12570" max="12570" width="7" customWidth="1"/>
+    <col min="12572" max="12572" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="12803" max="12803" width="43.28515625" customWidth="1"/>
+    <col min="12804" max="12804" width="12.7109375" customWidth="1"/>
+    <col min="12805" max="12805" width="19.7109375" customWidth="1"/>
+    <col min="12806" max="12807" width="19.28515625" customWidth="1"/>
+    <col min="12816" max="12816" width="10" bestFit="1" customWidth="1"/>
+    <col min="12817" max="12817" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="12820" max="12820" width="10" bestFit="1" customWidth="1"/>
+    <col min="12824" max="12824" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="12826" max="12826" width="7" customWidth="1"/>
+    <col min="12828" max="12828" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="13059" max="13059" width="43.28515625" customWidth="1"/>
+    <col min="13060" max="13060" width="12.7109375" customWidth="1"/>
+    <col min="13061" max="13061" width="19.7109375" customWidth="1"/>
+    <col min="13062" max="13063" width="19.28515625" customWidth="1"/>
+    <col min="13072" max="13072" width="10" bestFit="1" customWidth="1"/>
+    <col min="13073" max="13073" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="13076" max="13076" width="10" bestFit="1" customWidth="1"/>
+    <col min="13080" max="13080" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="13082" max="13082" width="7" customWidth="1"/>
+    <col min="13084" max="13084" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="13315" max="13315" width="43.28515625" customWidth="1"/>
+    <col min="13316" max="13316" width="12.7109375" customWidth="1"/>
+    <col min="13317" max="13317" width="19.7109375" customWidth="1"/>
+    <col min="13318" max="13319" width="19.28515625" customWidth="1"/>
+    <col min="13328" max="13328" width="10" bestFit="1" customWidth="1"/>
+    <col min="13329" max="13329" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="13332" max="13332" width="10" bestFit="1" customWidth="1"/>
+    <col min="13336" max="13336" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="13338" max="13338" width="7" customWidth="1"/>
+    <col min="13340" max="13340" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="13571" max="13571" width="43.28515625" customWidth="1"/>
+    <col min="13572" max="13572" width="12.7109375" customWidth="1"/>
+    <col min="13573" max="13573" width="19.7109375" customWidth="1"/>
+    <col min="13574" max="13575" width="19.28515625" customWidth="1"/>
+    <col min="13584" max="13584" width="10" bestFit="1" customWidth="1"/>
+    <col min="13585" max="13585" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="13588" max="13588" width="10" bestFit="1" customWidth="1"/>
+    <col min="13592" max="13592" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="13594" max="13594" width="7" customWidth="1"/>
+    <col min="13596" max="13596" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="13827" max="13827" width="43.28515625" customWidth="1"/>
+    <col min="13828" max="13828" width="12.7109375" customWidth="1"/>
+    <col min="13829" max="13829" width="19.7109375" customWidth="1"/>
+    <col min="13830" max="13831" width="19.28515625" customWidth="1"/>
+    <col min="13840" max="13840" width="10" bestFit="1" customWidth="1"/>
+    <col min="13841" max="13841" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="13844" max="13844" width="10" bestFit="1" customWidth="1"/>
+    <col min="13848" max="13848" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="13850" max="13850" width="7" customWidth="1"/>
+    <col min="13852" max="13852" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="14083" max="14083" width="43.28515625" customWidth="1"/>
+    <col min="14084" max="14084" width="12.7109375" customWidth="1"/>
+    <col min="14085" max="14085" width="19.7109375" customWidth="1"/>
+    <col min="14086" max="14087" width="19.28515625" customWidth="1"/>
+    <col min="14096" max="14096" width="10" bestFit="1" customWidth="1"/>
+    <col min="14097" max="14097" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="14100" max="14100" width="10" bestFit="1" customWidth="1"/>
+    <col min="14104" max="14104" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="14106" max="14106" width="7" customWidth="1"/>
+    <col min="14108" max="14108" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="14339" max="14339" width="43.28515625" customWidth="1"/>
+    <col min="14340" max="14340" width="12.7109375" customWidth="1"/>
+    <col min="14341" max="14341" width="19.7109375" customWidth="1"/>
+    <col min="14342" max="14343" width="19.28515625" customWidth="1"/>
+    <col min="14352" max="14352" width="10" bestFit="1" customWidth="1"/>
+    <col min="14353" max="14353" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="14356" max="14356" width="10" bestFit="1" customWidth="1"/>
+    <col min="14360" max="14360" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="14362" max="14362" width="7" customWidth="1"/>
+    <col min="14364" max="14364" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="14595" max="14595" width="43.28515625" customWidth="1"/>
+    <col min="14596" max="14596" width="12.7109375" customWidth="1"/>
+    <col min="14597" max="14597" width="19.7109375" customWidth="1"/>
+    <col min="14598" max="14599" width="19.28515625" customWidth="1"/>
+    <col min="14608" max="14608" width="10" bestFit="1" customWidth="1"/>
+    <col min="14609" max="14609" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="14612" max="14612" width="10" bestFit="1" customWidth="1"/>
+    <col min="14616" max="14616" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="14618" max="14618" width="7" customWidth="1"/>
+    <col min="14620" max="14620" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="14851" max="14851" width="43.28515625" customWidth="1"/>
+    <col min="14852" max="14852" width="12.7109375" customWidth="1"/>
+    <col min="14853" max="14853" width="19.7109375" customWidth="1"/>
+    <col min="14854" max="14855" width="19.28515625" customWidth="1"/>
+    <col min="14864" max="14864" width="10" bestFit="1" customWidth="1"/>
+    <col min="14865" max="14865" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="14868" max="14868" width="10" bestFit="1" customWidth="1"/>
+    <col min="14872" max="14872" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="14874" max="14874" width="7" customWidth="1"/>
+    <col min="14876" max="14876" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="15107" max="15107" width="43.28515625" customWidth="1"/>
+    <col min="15108" max="15108" width="12.7109375" customWidth="1"/>
+    <col min="15109" max="15109" width="19.7109375" customWidth="1"/>
+    <col min="15110" max="15111" width="19.28515625" customWidth="1"/>
+    <col min="15120" max="15120" width="10" bestFit="1" customWidth="1"/>
+    <col min="15121" max="15121" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="15124" max="15124" width="10" bestFit="1" customWidth="1"/>
+    <col min="15128" max="15128" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="15130" max="15130" width="7" customWidth="1"/>
+    <col min="15132" max="15132" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="15363" max="15363" width="43.28515625" customWidth="1"/>
+    <col min="15364" max="15364" width="12.7109375" customWidth="1"/>
+    <col min="15365" max="15365" width="19.7109375" customWidth="1"/>
+    <col min="15366" max="15367" width="19.28515625" customWidth="1"/>
+    <col min="15376" max="15376" width="10" bestFit="1" customWidth="1"/>
+    <col min="15377" max="15377" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="15380" max="15380" width="10" bestFit="1" customWidth="1"/>
+    <col min="15384" max="15384" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="15386" max="15386" width="7" customWidth="1"/>
+    <col min="15388" max="15388" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="15619" max="15619" width="43.28515625" customWidth="1"/>
+    <col min="15620" max="15620" width="12.7109375" customWidth="1"/>
+    <col min="15621" max="15621" width="19.7109375" customWidth="1"/>
+    <col min="15622" max="15623" width="19.28515625" customWidth="1"/>
+    <col min="15632" max="15632" width="10" bestFit="1" customWidth="1"/>
+    <col min="15633" max="15633" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="15636" max="15636" width="10" bestFit="1" customWidth="1"/>
+    <col min="15640" max="15640" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="15642" max="15642" width="7" customWidth="1"/>
+    <col min="15644" max="15644" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="15875" max="15875" width="43.28515625" customWidth="1"/>
+    <col min="15876" max="15876" width="12.7109375" customWidth="1"/>
+    <col min="15877" max="15877" width="19.7109375" customWidth="1"/>
+    <col min="15878" max="15879" width="19.28515625" customWidth="1"/>
+    <col min="15888" max="15888" width="10" bestFit="1" customWidth="1"/>
+    <col min="15889" max="15889" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="15892" max="15892" width="10" bestFit="1" customWidth="1"/>
+    <col min="15896" max="15896" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="15898" max="15898" width="7" customWidth="1"/>
+    <col min="15900" max="15900" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="16131" max="16131" width="43.28515625" customWidth="1"/>
+    <col min="16132" max="16132" width="12.7109375" customWidth="1"/>
+    <col min="16133" max="16133" width="19.7109375" customWidth="1"/>
+    <col min="16134" max="16135" width="19.28515625" customWidth="1"/>
+    <col min="16144" max="16144" width="10" bestFit="1" customWidth="1"/>
+    <col min="16145" max="16145" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="16148" max="16148" width="10" bestFit="1" customWidth="1"/>
+    <col min="16152" max="16152" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="16154" max="16154" width="7" customWidth="1"/>
+    <col min="16156" max="16156" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="36" t="s">
+      <c r="B1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="38" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="36" t="s">
@@ -4992,542 +4911,589 @@
         <v>4</v>
       </c>
       <c r="F1" s="36" t="s">
-        <v>5</v>
+        <v>255</v>
       </c>
       <c r="G1" s="36" t="s">
-        <v>224</v>
+        <v>256</v>
       </c>
       <c r="H1" s="36" t="s">
-        <v>221</v>
+        <v>91</v>
       </c>
       <c r="I1" s="36" t="s">
-        <v>223</v>
+        <v>17</v>
       </c>
       <c r="J1" s="36" t="s">
-        <v>222</v>
-      </c>
-      <c r="K1" s="36" t="s">
-        <v>225</v>
+        <v>18</v>
+      </c>
+      <c r="K1" s="41" t="s">
+        <v>19</v>
       </c>
       <c r="L1" s="36" t="s">
-        <v>226</v>
+        <v>20</v>
       </c>
       <c r="M1" s="36" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="N1" s="36" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="O1" s="36" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P1" s="36" t="s">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="Q1" s="36" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="R1" s="36" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="S1" s="36" t="s">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="T1" s="36" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="U1" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="V1" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="W1" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="X1" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y1" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z1" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA1" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB1" s="36" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="17">
+        <v>0</v>
+      </c>
+      <c r="E2" s="17">
+        <v>10000000000</v>
+      </c>
+      <c r="F2" s="17">
+        <v>100</v>
+      </c>
+      <c r="G2" s="44">
+        <v>0.9</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="14">
+        <v>0</v>
+      </c>
+      <c r="K2" s="27">
+        <v>20.637386599999999</v>
+      </c>
+      <c r="L2" s="11">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="M2" s="11">
+        <v>0</v>
+      </c>
+      <c r="N2" s="11">
+        <v>0</v>
+      </c>
+      <c r="O2" s="2">
         <v>25</v>
       </c>
-      <c r="V1" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="W1" s="40" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D2" s="17">
-        <v>0</v>
-      </c>
-      <c r="E2" s="17">
-        <v>25000</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="G2" s="2">
-        <v>1</v>
-      </c>
-      <c r="H2" s="17">
-        <v>360</v>
-      </c>
-      <c r="I2" s="17">
-        <v>360</v>
-      </c>
-      <c r="J2" s="17">
-        <v>1100</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="M2" s="2" t="s">
+      <c r="P2" s="11">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>1</v>
+      </c>
+      <c r="R2" s="2">
+        <v>6</v>
+      </c>
+      <c r="S2" s="11">
+        <v>0</v>
+      </c>
+      <c r="T2" s="11">
+        <v>0</v>
+      </c>
+      <c r="U2" s="11">
+        <v>70</v>
+      </c>
+      <c r="V2" s="11">
+        <v>100</v>
+      </c>
+      <c r="W2" s="11">
+        <v>0</v>
+      </c>
+      <c r="X2" s="11">
+        <v>997</v>
+      </c>
+      <c r="Y2" s="11">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="Z2" s="11">
+        <v>0.98</v>
+      </c>
+      <c r="AA2" s="11">
+        <v>0.96</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3" s="17">
+        <v>0</v>
+      </c>
+      <c r="E3" s="17">
+        <v>10000000000</v>
+      </c>
+      <c r="F3" s="25">
+        <v>10</v>
+      </c>
+      <c r="G3" s="44">
+        <v>0.9</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="I3" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="2">
-        <f>-333/0.962</f>
-        <v>-346.15384615384619</v>
-      </c>
-      <c r="O2" s="2">
-        <f>0.067/0.962</f>
-        <v>6.964656964656965E-2</v>
-      </c>
-      <c r="P2" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>0</v>
-      </c>
-      <c r="R2" s="2">
-        <v>0</v>
-      </c>
-      <c r="S2" s="2">
-        <v>20</v>
-      </c>
-      <c r="T2" s="2">
-        <v>5</v>
-      </c>
-      <c r="U2" s="2">
-        <v>5</v>
-      </c>
-      <c r="V2" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="W2" s="27" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="D3" s="17">
-        <v>5000</v>
-      </c>
-      <c r="E3" s="17">
-        <v>40000000</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="G3" s="2">
-        <v>1</v>
-      </c>
-      <c r="H3" s="17">
-        <v>1100</v>
-      </c>
-      <c r="I3" s="17">
-        <v>1100</v>
-      </c>
-      <c r="J3" s="17">
-        <v>36000</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="M3" s="2" t="s">
+      <c r="J3" s="45">
+        <v>0</v>
+      </c>
+      <c r="K3" s="27">
+        <v>0.108</v>
+      </c>
+      <c r="L3" s="11">
+        <v>1</v>
+      </c>
+      <c r="M3" s="11">
+        <v>0</v>
+      </c>
+      <c r="N3" s="11">
+        <v>0</v>
+      </c>
+      <c r="O3" s="11">
+        <v>25</v>
+      </c>
+      <c r="P3" s="11">
+        <v>25</v>
+      </c>
+      <c r="Q3" s="11">
+        <v>2</v>
+      </c>
+      <c r="R3" s="11">
+        <v>6</v>
+      </c>
+      <c r="S3" s="11">
+        <v>0</v>
+      </c>
+      <c r="T3" s="11">
+        <v>0</v>
+      </c>
+      <c r="U3" s="11">
+        <v>4</v>
+      </c>
+      <c r="V3" s="11">
+        <v>13</v>
+      </c>
+      <c r="W3" s="11">
+        <v>0</v>
+      </c>
+      <c r="X3" s="11">
+        <v>997</v>
+      </c>
+      <c r="Y3" s="11">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="Z3" s="11">
+        <v>0.98</v>
+      </c>
+      <c r="AA3" s="11">
+        <v>0.96</v>
+      </c>
+      <c r="AB3" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" s="17">
+        <v>0</v>
+      </c>
+      <c r="E4" s="17">
+        <v>10000000000</v>
+      </c>
+      <c r="F4" s="25">
+        <v>0</v>
+      </c>
+      <c r="G4" s="44">
+        <v>0.9</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="I4" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="N3" s="2">
-        <f>5000/0.962</f>
-        <v>5197.5051975051974</v>
-      </c>
-      <c r="O3" s="2">
-        <v>0</v>
-      </c>
-      <c r="P3" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>0</v>
-      </c>
-      <c r="R3" s="2">
-        <v>0</v>
-      </c>
-      <c r="S3" s="2">
-        <v>20</v>
-      </c>
-      <c r="T3" s="2">
-        <v>5</v>
-      </c>
-      <c r="U3" s="2">
-        <v>5</v>
-      </c>
-      <c r="V3" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="W3" s="27" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="D4" s="17">
-        <v>5000</v>
-      </c>
-      <c r="E4" s="17">
-        <v>100000000</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="G4" s="2">
-        <v>1</v>
-      </c>
-      <c r="H4" s="17">
-        <v>36000</v>
-      </c>
-      <c r="I4" s="17">
-        <v>36000</v>
-      </c>
-      <c r="J4" s="17">
-        <v>100000</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="M4" s="2" t="s">
+      <c r="J4" s="45">
+        <v>0</v>
+      </c>
+      <c r="K4" s="27">
+        <v>0.1179</v>
+      </c>
+      <c r="L4" s="11">
+        <v>1</v>
+      </c>
+      <c r="M4" s="11">
+        <v>0</v>
+      </c>
+      <c r="N4" s="11">
+        <v>0</v>
+      </c>
+      <c r="O4" s="11">
+        <v>25</v>
+      </c>
+      <c r="P4" s="11">
+        <v>25</v>
+      </c>
+      <c r="Q4" s="11">
+        <v>2</v>
+      </c>
+      <c r="R4" s="11">
+        <v>6</v>
+      </c>
+      <c r="S4" s="11">
+        <v>4.8</v>
+      </c>
+      <c r="T4" s="11">
+        <v>0</v>
+      </c>
+      <c r="U4" s="11">
+        <v>-0.5</v>
+      </c>
+      <c r="V4" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="W4" s="11">
+        <v>334</v>
+      </c>
+      <c r="X4" s="11">
+        <v>917</v>
+      </c>
+      <c r="Y4" s="11">
+        <v>2.11</v>
+      </c>
+      <c r="Z4" s="11">
+        <v>0.98</v>
+      </c>
+      <c r="AA4" s="11">
+        <v>0.96</v>
+      </c>
+      <c r="AB4" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" s="17">
+        <v>0</v>
+      </c>
+      <c r="E5" s="17">
+        <v>10000000000</v>
+      </c>
+      <c r="F5" s="25">
+        <v>10</v>
+      </c>
+      <c r="G5" s="44">
+        <v>0.9</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="I5" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="2">
-        <f>-3000/0.962</f>
-        <v>-3118.5031185031185</v>
-      </c>
-      <c r="O4" s="2">
-        <f>0.08/0.962</f>
-        <v>8.3160083160083165E-2</v>
-      </c>
-      <c r="P4" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>0</v>
-      </c>
-      <c r="R4" s="2">
-        <v>0</v>
-      </c>
-      <c r="S4" s="2">
-        <v>20</v>
-      </c>
-      <c r="T4" s="2">
-        <v>5</v>
-      </c>
-      <c r="U4" s="2">
-        <v>5</v>
-      </c>
-      <c r="V4" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="W4" s="27" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A7" s="42"/>
-      <c r="U7" s="42"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:O5"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="17.453125" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="5" width="21.6328125" customWidth="1"/>
-    <col min="8" max="8" width="11.6328125" customWidth="1"/>
-    <col min="10" max="10" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="36" t="s">
+      <c r="J5" s="45">
+        <v>0</v>
+      </c>
+      <c r="K5" s="27">
+        <v>0.1179</v>
+      </c>
+      <c r="L5" s="11">
+        <v>1</v>
+      </c>
+      <c r="M5" s="11">
+        <v>0</v>
+      </c>
+      <c r="N5" s="11">
+        <v>0</v>
+      </c>
+      <c r="O5" s="11">
+        <v>25</v>
+      </c>
+      <c r="P5" s="11">
+        <v>7</v>
+      </c>
+      <c r="Q5" s="11">
+        <v>2</v>
+      </c>
+      <c r="R5" s="11">
+        <v>6</v>
+      </c>
+      <c r="S5" s="11">
+        <v>4.8</v>
+      </c>
+      <c r="T5" s="11">
         <v>4</v>
       </c>
-      <c r="E1" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="L1" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="M1" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="N1" s="36" t="s">
+      <c r="U5" s="11">
+        <v>3.5</v>
+      </c>
+      <c r="V5" s="11">
+        <v>4.5</v>
+      </c>
+      <c r="W5" s="11">
+        <v>234</v>
+      </c>
+      <c r="X5" s="11">
+        <v>1600</v>
+      </c>
+      <c r="Y5" s="11">
+        <v>2</v>
+      </c>
+      <c r="Z5" s="11">
+        <v>0.98</v>
+      </c>
+      <c r="AA5" s="11">
+        <v>0.96</v>
+      </c>
+      <c r="AB5" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="17">
+        <v>0</v>
+      </c>
+      <c r="E6" s="17">
+        <v>10000000000</v>
+      </c>
+      <c r="F6" s="25">
+        <v>10</v>
+      </c>
+      <c r="G6" s="44">
+        <v>0.9</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="45">
+        <v>0</v>
+      </c>
+      <c r="K6" s="27">
+        <v>0.15630000000000002</v>
+      </c>
+      <c r="L6" s="11">
+        <v>1</v>
+      </c>
+      <c r="M6" s="11">
+        <v>0</v>
+      </c>
+      <c r="N6" s="11">
+        <v>0</v>
+      </c>
+      <c r="O6" s="11">
         <v>25</v>
       </c>
-      <c r="O1" s="36" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A2" s="36" t="s">
-        <v>97</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C2" s="2">
-        <v>500</v>
-      </c>
-      <c r="D2" s="2">
-        <v>4000</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="P6" s="11">
+        <v>7</v>
+      </c>
+      <c r="Q6" s="11">
+        <v>2</v>
+      </c>
+      <c r="R6" s="11">
+        <v>6</v>
+      </c>
+      <c r="S6" s="11">
+        <v>27.3</v>
+      </c>
+      <c r="T6" s="11">
+        <v>5.4</v>
+      </c>
+      <c r="U6" s="11">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="V6" s="11">
+        <v>5.9</v>
+      </c>
+      <c r="W6" s="11">
+        <v>105</v>
+      </c>
+      <c r="X6" s="11">
+        <v>1125</v>
+      </c>
+      <c r="Y6" s="11">
+        <v>2.09</v>
+      </c>
+      <c r="Z6" s="11">
+        <v>0.98</v>
+      </c>
+      <c r="AA6" s="11">
+        <v>0.96</v>
+      </c>
+      <c r="AB6" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" s="17">
+        <v>0</v>
+      </c>
+      <c r="E7" s="17">
+        <v>10000000000</v>
+      </c>
+      <c r="F7" s="25">
+        <v>10</v>
+      </c>
+      <c r="G7" s="44">
+        <v>0.9</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="I7" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2">
-        <f>28.2/0.962</f>
-        <v>29.313929313929314</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0.52159999999999995</v>
-      </c>
-      <c r="J2" s="2">
-        <v>0</v>
-      </c>
-      <c r="K2" s="2">
-        <v>0</v>
-      </c>
-      <c r="L2" s="2">
+      <c r="J7" s="45">
+        <v>0</v>
+      </c>
+      <c r="K7" s="27">
+        <v>0.14149999999999999</v>
+      </c>
+      <c r="L7" s="11">
+        <v>1</v>
+      </c>
+      <c r="M7" s="11">
+        <v>0</v>
+      </c>
+      <c r="N7" s="11">
+        <v>0</v>
+      </c>
+      <c r="O7" s="11">
         <v>25</v>
       </c>
-      <c r="M2" s="2">
-        <v>1</v>
-      </c>
-      <c r="N2" s="2">
+      <c r="P7" s="11">
+        <v>7</v>
+      </c>
+      <c r="Q7" s="11">
+        <v>2</v>
+      </c>
+      <c r="R7" s="11">
         <v>6</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C3" s="2">
-        <v>4000</v>
-      </c>
-      <c r="D3" s="2">
-        <v>37000</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2">
-        <f>4.1587/0.962</f>
-        <v>4.3229729729729724</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0.74639999999999995</v>
-      </c>
-      <c r="J3" s="2">
-        <v>0</v>
-      </c>
-      <c r="K3" s="2">
-        <v>0</v>
-      </c>
-      <c r="L3" s="2">
-        <v>25</v>
-      </c>
-      <c r="M3" s="2">
-        <v>1</v>
-      </c>
-      <c r="N3" s="2">
-        <v>6</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C4" s="2">
-        <v>37000</v>
-      </c>
-      <c r="D4" s="2">
-        <v>375000</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2">
-        <f>0.9782/0.962</f>
-        <v>1.0168399168399169</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0.88729999999999998</v>
-      </c>
-      <c r="J4" s="2">
-        <v>0</v>
-      </c>
-      <c r="K4" s="2">
-        <v>0</v>
-      </c>
-      <c r="L4" s="2">
-        <v>25</v>
-      </c>
-      <c r="M4" s="2">
-        <v>1</v>
-      </c>
-      <c r="N4" s="2">
-        <v>6</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C5" s="2">
-        <v>37000</v>
-      </c>
-      <c r="D5" s="5">
-        <v>10000000000</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
-        <f>0.9782/0.962</f>
-        <v>1.0168399168399169</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0.88729999999999998</v>
-      </c>
-      <c r="J5" s="2">
-        <v>0</v>
-      </c>
-      <c r="K5" s="2">
-        <v>0</v>
-      </c>
-      <c r="L5" s="2">
-        <v>25</v>
-      </c>
-      <c r="M5" s="2">
-        <v>1</v>
-      </c>
-      <c r="N5" s="2">
-        <v>6</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>84</v>
+      <c r="S7" s="11">
+        <v>19.7</v>
+      </c>
+      <c r="T7" s="11">
+        <v>5</v>
+      </c>
+      <c r="U7" s="11">
+        <v>4.5</v>
+      </c>
+      <c r="V7" s="11">
+        <v>5.5</v>
+      </c>
+      <c r="W7" s="11">
+        <v>230</v>
+      </c>
+      <c r="X7" s="11">
+        <v>760</v>
+      </c>
+      <c r="Y7" s="11">
+        <v>2.14</v>
+      </c>
+      <c r="Z7" s="11">
+        <v>0.98</v>
+      </c>
+      <c r="AA7" s="11">
+        <v>0.96</v>
+      </c>
+      <c r="AB7" s="11" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -5539,23 +5505,610 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E588DD75-4ED6-A447-B30A-4A128452EE65}">
+  <dimension ref="A1:W7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U27" sqref="U27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="7" max="10" width="17" customWidth="1"/>
+    <col min="11" max="11" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
+    <col min="13" max="21" width="8.85546875"/>
+    <col min="22" max="22" width="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="J1" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="K1" s="36" t="s">
+        <v>222</v>
+      </c>
+      <c r="L1" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="M1" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="U1" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="V1" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="W1" s="40" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D2" s="17">
+        <v>0</v>
+      </c>
+      <c r="E2" s="17">
+        <v>25000</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="17">
+        <v>360</v>
+      </c>
+      <c r="I2" s="17">
+        <v>360</v>
+      </c>
+      <c r="J2" s="17">
+        <v>1100</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="2">
+        <f>-333/0.962</f>
+        <v>-346.15384615384619</v>
+      </c>
+      <c r="O2" s="2">
+        <f>0.067/0.962</f>
+        <v>6.964656964656965E-2</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0</v>
+      </c>
+      <c r="R2" s="2">
+        <v>0</v>
+      </c>
+      <c r="S2" s="2">
+        <v>20</v>
+      </c>
+      <c r="T2" s="2">
+        <v>5</v>
+      </c>
+      <c r="U2" s="2">
+        <v>5</v>
+      </c>
+      <c r="V2" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="W2" s="27" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D3" s="17">
+        <v>5000</v>
+      </c>
+      <c r="E3" s="17">
+        <v>40000000</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+      <c r="H3" s="17">
+        <v>1100</v>
+      </c>
+      <c r="I3" s="17">
+        <v>1100</v>
+      </c>
+      <c r="J3" s="17">
+        <v>36000</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="2">
+        <f>5000/0.962</f>
+        <v>5197.5051975051974</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0</v>
+      </c>
+      <c r="R3" s="2">
+        <v>0</v>
+      </c>
+      <c r="S3" s="2">
+        <v>20</v>
+      </c>
+      <c r="T3" s="2">
+        <v>5</v>
+      </c>
+      <c r="U3" s="2">
+        <v>5</v>
+      </c>
+      <c r="V3" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="W3" s="27" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D4" s="17">
+        <v>5000</v>
+      </c>
+      <c r="E4" s="17">
+        <v>100000000</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+      <c r="H4" s="17">
+        <v>36000</v>
+      </c>
+      <c r="I4" s="17">
+        <v>36000</v>
+      </c>
+      <c r="J4" s="17">
+        <v>100000</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" s="2">
+        <f>-3000/0.962</f>
+        <v>-3118.5031185031185</v>
+      </c>
+      <c r="O4" s="2">
+        <f>0.08/0.962</f>
+        <v>8.3160083160083165E-2</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0</v>
+      </c>
+      <c r="R4" s="2">
+        <v>0</v>
+      </c>
+      <c r="S4" s="2">
+        <v>20</v>
+      </c>
+      <c r="T4" s="2">
+        <v>5</v>
+      </c>
+      <c r="U4" s="2">
+        <v>5</v>
+      </c>
+      <c r="V4" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="W4" s="27" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" s="42"/>
+      <c r="U7" s="42"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <dimension ref="A1:O5"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="5" width="21.7109375" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="36" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="2">
+        <v>500</v>
+      </c>
+      <c r="D2" s="2">
+        <v>4000</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <f>28.2/0.962</f>
+        <v>29.313929313929314</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0.52159999999999995</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2">
+        <v>25</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1</v>
+      </c>
+      <c r="N2" s="2">
+        <v>6</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="2">
+        <v>4000</v>
+      </c>
+      <c r="D3" s="2">
+        <v>37000</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <f>4.1587/0.962</f>
+        <v>4.3229729729729724</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.74639999999999995</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>25</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1</v>
+      </c>
+      <c r="N3" s="2">
+        <v>6</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="2">
+        <v>37000</v>
+      </c>
+      <c r="D4" s="2">
+        <v>375000</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <f>0.9782/0.962</f>
+        <v>1.0168399168399169</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.88729999999999998</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <v>25</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1</v>
+      </c>
+      <c r="N4" s="2">
+        <v>6</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="2">
+        <v>37000</v>
+      </c>
+      <c r="D5" s="5">
+        <v>10000000000</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <f>0.9782/0.962</f>
+        <v>1.0168399168399169</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.88729999999999998</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>25</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1</v>
+      </c>
+      <c r="N5" s="2">
+        <v>6</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AH22" sqref="AH22"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="15.36328125" customWidth="1"/>
-    <col min="3" max="3" width="16.6328125" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="15" max="15" width="29.6328125" customWidth="1"/>
+    <col min="15" max="15" width="29.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5602,7 +6155,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>87</v>
       </c>
@@ -5658,26 +6211,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AG3"/>
+  <dimension ref="A1:AH3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W6" sqref="W6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6328125" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.36328125" customWidth="1"/>
-    <col min="22" max="22" width="12.6328125" customWidth="1"/>
-    <col min="23" max="23" width="10.453125" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" customWidth="1"/>
+    <col min="22" max="22" width="12.7109375" customWidth="1"/>
+    <col min="23" max="23" width="10.42578125" customWidth="1"/>
+    <col min="27" max="27" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -5693,92 +6247,95 @@
       <c r="E1" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="39" t="s">
+        <v>254</v>
+      </c>
+      <c r="G1" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="H1" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="I1" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="J1" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="K1" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="L1" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="L1" s="36" t="s">
+      <c r="M1" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="M1" s="41" t="s">
+      <c r="N1" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="N1" s="39" t="s">
+      <c r="O1" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="O1" s="39" t="s">
+      <c r="P1" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="P1" s="39" t="s">
+      <c r="Q1" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="Q1" s="39" t="s">
+      <c r="R1" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="R1" s="39" t="s">
+      <c r="S1" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="S1" s="39" t="s">
+      <c r="T1" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="T1" s="39" t="s">
+      <c r="U1" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="U1" s="36" t="s">
+      <c r="V1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="V1" s="36" t="s">
+      <c r="W1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="W1" s="36" t="s">
-        <v>5</v>
-      </c>
       <c r="X1" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y1" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="Y1" s="36" t="s">
+      <c r="Z1" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="Z1" s="36" t="s">
+      <c r="AA1" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="AA1" s="36" t="s">
+      <c r="AB1" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="AB1" s="36" t="s">
+      <c r="AC1" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="AC1" s="36" t="s">
+      <c r="AD1" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="AD1" s="36" t="s">
+      <c r="AE1" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="AE1" s="36" t="s">
+      <c r="AF1" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="AF1" s="36" t="s">
+      <c r="AG1" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="AG1" s="36" t="s">
+      <c r="AH1" s="36" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>53</v>
       </c>
@@ -5795,95 +6352,98 @@
         <v>2.0230000000000001</v>
       </c>
       <c r="F2" s="2">
+        <v>60</v>
+      </c>
+      <c r="G2" s="2">
         <v>0.88800000000000001</v>
       </c>
-      <c r="G2" s="2">
+      <c r="H2" s="2">
         <v>0.77500000000000002</v>
       </c>
-      <c r="H2" s="2">
+      <c r="I2" s="2">
         <v>3.91</v>
       </c>
-      <c r="I2" s="2">
+      <c r="J2" s="2">
         <v>8.0999999999999996E-3</v>
       </c>
-      <c r="J2" s="7">
+      <c r="K2" s="7">
         <v>57.98</v>
       </c>
-      <c r="K2" s="7">
+      <c r="L2" s="7">
         <v>86.97</v>
       </c>
-      <c r="L2" s="7">
+      <c r="M2" s="7">
         <v>28.99</v>
       </c>
-      <c r="M2" s="7">
+      <c r="N2" s="7">
         <v>8000</v>
       </c>
-      <c r="N2" s="7">
+      <c r="O2" s="7">
         <v>192</v>
       </c>
-      <c r="O2" s="7">
+      <c r="P2" s="7">
         <v>0.87</v>
       </c>
-      <c r="P2" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="8">
-        <f>170/($E2*$F2)</f>
+      <c r="Q2" s="7">
+        <v>0</v>
+      </c>
+      <c r="R2" s="8">
+        <f>170/($E2*$G2)</f>
         <v>94.632447573624034</v>
       </c>
-      <c r="R2" s="8">
-        <f>270/($E2*$F2)</f>
+      <c r="S2" s="8">
+        <f>270/($E2*$G2)</f>
         <v>150.29859320516758</v>
       </c>
-      <c r="S2" s="8">
-        <f>80/($E2*$F2)</f>
+      <c r="T2" s="8">
+        <f>80/($E2*$G2)</f>
         <v>44.532916505234837</v>
       </c>
-      <c r="T2" s="8">
+      <c r="U2" s="8">
         <v>3680</v>
       </c>
-      <c r="U2" s="2">
-        <v>1</v>
-      </c>
-      <c r="V2" s="5">
+      <c r="V2" s="2">
+        <v>1</v>
+      </c>
+      <c r="W2" s="5">
         <v>10000000000</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Y2" s="2">
-        <v>0</v>
-      </c>
       <c r="Z2" s="2">
-        <f>2050/0.962</f>
-        <v>2130.9771309771309</v>
-      </c>
-      <c r="AA2" s="2">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AA2" s="7">
+        <f>2.05/0.962</f>
+        <v>2.130977130977131</v>
       </c>
       <c r="AB2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC2" s="2">
         <v>0</v>
       </c>
       <c r="AD2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="2">
         <v>20</v>
       </c>
-      <c r="AE2" s="2">
-        <v>5</v>
-      </c>
       <c r="AF2" s="2">
         <v>5</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AG2" s="2">
+        <v>5</v>
+      </c>
+      <c r="AH2" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>57</v>
       </c>
@@ -5900,91 +6460,94 @@
         <v>4.3220000000000001</v>
       </c>
       <c r="F3" s="2">
+        <v>100</v>
+      </c>
+      <c r="G3" s="2">
         <v>0.65500000000000003</v>
       </c>
-      <c r="G3" s="2">
+      <c r="H3" s="2">
         <v>0.72099999999999997</v>
       </c>
-      <c r="H3" s="2">
+      <c r="I3" s="2">
         <v>0.89</v>
       </c>
-      <c r="I3" s="2">
+      <c r="J3" s="2">
         <v>1.9900000000000001E-2</v>
       </c>
-      <c r="J3" s="7">
+      <c r="K3" s="7">
         <v>88.2</v>
       </c>
-      <c r="K3" s="7">
+      <c r="L3" s="7">
         <v>147.12</v>
       </c>
-      <c r="L3" s="7">
+      <c r="M3" s="7">
         <v>33.1</v>
       </c>
-      <c r="M3" s="7">
+      <c r="N3" s="7">
         <v>39000</v>
       </c>
-      <c r="N3" s="7">
+      <c r="O3" s="7">
         <v>196</v>
       </c>
-      <c r="O3" s="7">
+      <c r="P3" s="7">
         <v>0.91</v>
       </c>
-      <c r="P3" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="8">
-        <f>8000/($E3*$F3)</f>
+      <c r="Q3" s="7">
+        <v>0</v>
+      </c>
+      <c r="R3" s="8">
+        <f>8000/($E3*$G3)</f>
         <v>2825.9464271206075</v>
       </c>
-      <c r="R3" s="8">
-        <f>22000/($E3*$F3)</f>
+      <c r="S3" s="8">
+        <f>22000/($E3*$G3)</f>
         <v>7771.3526745816707</v>
       </c>
-      <c r="S3" s="8">
-        <f>2000/($E3*$F3)</f>
+      <c r="T3" s="8">
+        <f>2000/($E3*$G3)</f>
         <v>706.48660678015187</v>
       </c>
-      <c r="T3" s="8">
+      <c r="U3" s="8">
         <v>3680</v>
       </c>
-      <c r="U3" s="2">
-        <v>1</v>
-      </c>
-      <c r="V3" s="5">
+      <c r="V3" s="2">
+        <v>1</v>
+      </c>
+      <c r="W3" s="5">
         <v>10000000000</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="X3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="Y3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Y3" s="2">
-        <v>0</v>
-      </c>
       <c r="Z3" s="2">
-        <f>2050/0.962</f>
-        <v>2130.9771309771309</v>
-      </c>
-      <c r="AA3" s="2">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AA3" s="7">
+        <f>2.05/0.962</f>
+        <v>2.130977130977131</v>
       </c>
       <c r="AB3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC3" s="2">
         <v>0</v>
       </c>
       <c r="AD3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="2">
         <v>20</v>
       </c>
-      <c r="AE3" s="2">
-        <v>5</v>
-      </c>
       <c r="AF3" s="2">
         <v>5</v>
       </c>
-      <c r="AG3" s="2" t="s">
+      <c r="AG3" s="2">
+        <v>5</v>
+      </c>
+      <c r="AH3" s="2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -6004,15 +6567,15 @@
       <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.453125" customWidth="1"/>
-    <col min="3" max="3" width="9.453125" customWidth="1"/>
-    <col min="4" max="5" width="10.453125" customWidth="1"/>
-    <col min="8" max="8" width="10.453125" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" customWidth="1"/>
+    <col min="4" max="5" width="10.42578125" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -6059,7 +6622,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>60</v>
       </c>
@@ -6123,17 +6686,17 @@
       <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="13.36328125" customWidth="1"/>
-    <col min="5" max="5" width="17.6328125" customWidth="1"/>
-    <col min="6" max="11" width="16.453125" customWidth="1"/>
-    <col min="18" max="18" width="22.6328125" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="11" width="16.42578125" customWidth="1"/>
+    <col min="18" max="18" width="22.7109375" customWidth="1"/>
     <col min="22" max="22" width="75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6144,7 +6707,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -6156,16 +6719,16 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>17</v>
@@ -6198,21 +6761,21 @@
         <v>26</v>
       </c>
       <c r="V1" s="16" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E2" s="17">
         <v>1</v>
@@ -6266,21 +6829,21 @@
       </c>
       <c r="U2" s="2"/>
       <c r="V2" s="11" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E3" s="17">
         <v>90000</v>
@@ -6334,21 +6897,21 @@
       </c>
       <c r="U3" s="2"/>
       <c r="V3" s="11" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E4" s="17">
         <v>730000</v>
@@ -6402,21 +6965,21 @@
       </c>
       <c r="U4" s="2"/>
       <c r="V4" s="11" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E5" s="17">
         <v>1</v>
@@ -6470,21 +7033,21 @@
       </c>
       <c r="U5" s="2"/>
       <c r="V5" s="11" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E6" s="17">
         <v>90000</v>
@@ -6538,21 +7101,21 @@
       </c>
       <c r="U6" s="2"/>
       <c r="V6" s="11" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E7" s="17">
         <v>730000</v>
@@ -6606,21 +7169,21 @@
       </c>
       <c r="U7" s="2"/>
       <c r="V7" s="11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="E8" s="17">
         <v>1</v>
@@ -6674,21 +7237,21 @@
       </c>
       <c r="U8" s="2"/>
       <c r="V8" s="11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="E9" s="17">
         <v>90000</v>
@@ -6742,21 +7305,21 @@
       </c>
       <c r="U9" s="2"/>
       <c r="V9" s="11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="E10" s="17">
         <v>730000</v>
@@ -6810,7 +7373,7 @@
       </c>
       <c r="U10" s="2"/>
       <c r="V10" s="11" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -6829,20 +7392,20 @@
       <selection activeCell="B8" sqref="B8:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="7" width="17.6328125" customWidth="1"/>
-    <col min="8" max="9" width="15.453125" customWidth="1"/>
-    <col min="10" max="10" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="17.6328125" customWidth="1"/>
-    <col min="15" max="15" width="10.453125" customWidth="1"/>
-    <col min="22" max="22" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="72.453125" customWidth="1"/>
+    <col min="6" max="7" width="17.7109375" customWidth="1"/>
+    <col min="8" max="9" width="15.42578125" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="17.7109375" customWidth="1"/>
+    <col min="15" max="15" width="10.42578125" customWidth="1"/>
+    <col min="22" max="22" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="72.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -6853,7 +7416,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="36" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E1" s="36" t="s">
         <v>3</v>
@@ -6865,19 +7428,19 @@
         <v>5</v>
       </c>
       <c r="H1" s="39" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I1" s="39" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J1" s="39" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="K1" s="39" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L1" s="36" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="M1" s="36" t="s">
         <v>17</v>
@@ -6910,21 +7473,21 @@
         <v>26</v>
       </c>
       <c r="W1" s="36" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E2" s="17">
         <v>850000</v>
@@ -6978,24 +7541,24 @@
         <v>5</v>
       </c>
       <c r="V2" s="12" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="W2" s="31" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E3" s="17">
         <v>2600000</v>
@@ -7049,24 +7612,24 @@
         <v>5</v>
       </c>
       <c r="V3" s="12" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="W3" s="31" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E4" s="24">
         <v>3500000</v>
@@ -7120,24 +7683,24 @@
         <v>5</v>
       </c>
       <c r="V4" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="W4" s="31" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="W4" s="31" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>176</v>
-      </c>
       <c r="C5" s="11" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E5" s="25">
         <v>180000</v>
@@ -7191,24 +7754,24 @@
         <v>5</v>
       </c>
       <c r="V5" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="W5" s="31" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="W5" s="31" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>176</v>
-      </c>
       <c r="C6" s="11" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E6" s="25">
         <v>280000</v>
@@ -7262,24 +7825,24 @@
         <v>5</v>
       </c>
       <c r="V6" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="W6" s="31" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="W6" s="31" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>176</v>
-      </c>
       <c r="C7" s="11" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E7" s="25">
         <v>900000</v>
@@ -7333,24 +7896,24 @@
         <v>5</v>
       </c>
       <c r="V7" s="11" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="W7" s="31" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A8" s="16" t="s">
-        <v>183</v>
-      </c>
       <c r="B8" s="11" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E8" s="25">
         <v>1000000</v>
@@ -7407,21 +7970,21 @@
         <v>84</v>
       </c>
       <c r="W8" s="27" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E9" s="25">
         <v>5000000</v>
@@ -7478,21 +8041,21 @@
         <v>84</v>
       </c>
       <c r="W9" s="27" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A10" s="16" t="s">
-        <v>184</v>
-      </c>
       <c r="B10" s="11" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E10" s="25">
         <v>1000000</v>
@@ -7549,21 +8112,21 @@
         <v>84</v>
       </c>
       <c r="W10" s="27" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>63</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E11" s="25">
         <v>30000000</v>
@@ -7621,10 +8184,10 @@
         <v>84</v>
       </c>
       <c r="W11" s="27" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B13" s="9"/>
     </row>
   </sheetData>
@@ -7643,19 +8206,19 @@
       <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.453125" customWidth="1"/>
-    <col min="3" max="3" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6328125" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
     <col min="5" max="6" width="23" customWidth="1"/>
-    <col min="7" max="10" width="15.81640625" customWidth="1"/>
+    <col min="7" max="10" width="15.85546875" customWidth="1"/>
     <col min="20" max="20" width="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="111.6328125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="111.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -7675,16 +8238,16 @@
         <v>5</v>
       </c>
       <c r="G1" s="36" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H1" s="36" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="I1" s="36" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="J1" s="36" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="K1" s="36" t="s">
         <v>17</v>
@@ -7717,10 +8280,10 @@
         <v>26</v>
       </c>
       <c r="U1" s="40" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>85</v>
       </c>
@@ -7728,7 +8291,7 @@
         <v>86</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D2" s="17">
         <v>1</v>
@@ -7746,10 +8309,10 @@
         <v>160</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>31</v>
@@ -7784,10 +8347,10 @@
         <v>84</v>
       </c>
       <c r="U2" s="27" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>85</v>
       </c>
@@ -7795,7 +8358,7 @@
         <v>86</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D3" s="17">
         <v>80000</v>
@@ -7813,10 +8376,10 @@
         <v>160</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>31</v>
@@ -7850,10 +8413,10 @@
         <v>84</v>
       </c>
       <c r="U3" s="27" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>85</v>
       </c>
@@ -7861,7 +8424,7 @@
         <v>86</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D4" s="24">
         <v>100000</v>
@@ -7879,10 +8442,10 @@
         <v>160</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>31</v>
@@ -7917,18 +8480,18 @@
         <v>84</v>
       </c>
       <c r="U4" s="27" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
@@ -7937,7 +8500,7 @@
         <v>500</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -7971,7 +8534,7 @@
         <v>5</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -7986,25 +8549,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:V15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C7"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.453125" customWidth="1"/>
-    <col min="5" max="6" width="15.6328125" customWidth="1"/>
-    <col min="7" max="7" width="11.1796875" customWidth="1"/>
-    <col min="8" max="8" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="33.36328125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="45.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="5" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="45.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -8012,7 +8575,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D1" s="36" t="s">
         <v>2</v>
@@ -8027,16 +8590,16 @@
         <v>5</v>
       </c>
       <c r="H1" s="36" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I1" s="36" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="J1" s="36" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K1" s="36" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="L1" s="36" t="s">
         <v>17</v>
@@ -8069,12 +8632,12 @@
         <v>26</v>
       </c>
       <c r="V1" s="36" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>64</v>
@@ -8083,7 +8646,7 @@
         <v>0.47</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E2" s="17">
         <v>1050000</v>
@@ -8134,15 +8697,15 @@
         <v>5</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>65</v>
@@ -8151,7 +8714,7 @@
         <v>0.4</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E3" s="17">
         <v>1</v>
@@ -8207,12 +8770,12 @@
         <v>25</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.35">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>65</v>
@@ -8221,7 +8784,7 @@
         <v>0.4</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E4" s="17">
         <v>260000</v>
@@ -8277,12 +8840,12 @@
         <v>25</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.35">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>65</v>
@@ -8291,7 +8854,7 @@
         <v>0.4</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E5" s="17">
         <v>530000</v>
@@ -8347,12 +8910,12 @@
         <v>25</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.35">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>65</v>
@@ -8361,7 +8924,7 @@
         <v>0.4</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E6" s="17">
         <v>1050000</v>
@@ -8417,12 +8980,12 @@
         <v>25</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.35">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>65</v>
@@ -8431,7 +8994,7 @@
         <v>0.4</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E7" s="17">
         <v>2110000</v>
@@ -8458,7 +9021,8 @@
         <v>31</v>
       </c>
       <c r="M7" s="2">
-        <v>0</v>
+        <f>11357/0.902</f>
+        <v>12590.90909090909</v>
       </c>
       <c r="N7" s="2">
         <v>0.36063110399999998</v>
@@ -8485,13 +9049,13 @@
         <v>25</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="P13" s="10"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="P15" s="10"/>
     </row>
   </sheetData>
@@ -8506,24 +9070,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:AG7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AE1" sqref="AE1:AG7"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.1796875" customWidth="1"/>
-    <col min="9" max="9" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.6328125" customWidth="1"/>
-    <col min="11" max="12" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="45.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" customWidth="1"/>
+    <col min="11" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="45.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8543,22 +9107,22 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>17</v>
@@ -8621,12 +9185,12 @@
         <v>75</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>76</v>
@@ -8722,12 +9286,12 @@
         <v>2.14</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>76</v>
@@ -8823,12 +9387,12 @@
         <v>33</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>78</v>
@@ -8924,12 +9488,12 @@
         <v>2.5</v>
       </c>
       <c r="AG4" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>78</v>
@@ -9025,12 +9589,12 @@
         <v>14</v>
       </c>
       <c r="AG5" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>78</v>
@@ -9126,12 +9690,12 @@
         <v>431</v>
       </c>
       <c r="AG6" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>79</v>
@@ -9244,23 +9808,23 @@
       <selection activeCell="V23" sqref="V23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.453125" customWidth="1"/>
-    <col min="3" max="3" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.453125" customWidth="1"/>
-    <col min="5" max="5" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.1796875" customWidth="1"/>
-    <col min="7" max="7" width="12.1796875" customWidth="1"/>
-    <col min="8" max="8" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="29" customWidth="1"/>
     <col min="22" max="22" width="69" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -9280,19 +9844,19 @@
         <v>5</v>
       </c>
       <c r="G1" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="J1" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="H1" s="36" t="s">
-        <v>131</v>
-      </c>
-      <c r="I1" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="J1" s="36" t="s">
-        <v>140</v>
-      </c>
       <c r="K1" s="36" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="L1" s="36" t="s">
         <v>17</v>
@@ -9325,10 +9889,10 @@
         <v>26</v>
       </c>
       <c r="V1" s="40" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>82</v>
       </c>
@@ -9336,7 +9900,7 @@
         <v>83</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D2" s="17">
         <v>1</v>
@@ -9393,10 +9957,10 @@
         <v>84</v>
       </c>
       <c r="V2" s="11" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>82</v>
       </c>
@@ -9404,7 +9968,7 @@
         <v>83</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D3" s="17">
         <v>10000000</v>
@@ -9461,18 +10025,18 @@
         <v>84</v>
       </c>
       <c r="V3" s="11" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D4" s="17">
         <v>1</v>
@@ -9529,18 +10093,18 @@
         <v>24</v>
       </c>
       <c r="V4" s="11" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D5" s="17">
         <v>10000000</v>
@@ -9597,10 +10161,10 @@
         <v>84</v>
       </c>
       <c r="V5" s="11" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
@@ -9608,7 +10172,7 @@
       <c r="K6" s="9"/>
       <c r="V6" s="9"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>

--- a/cea/databases/SG/components/CONVERSION.xlsx
+++ b/cea/databases/SG/components/CONVERSION.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\CityEnergyAnalyst\CityEnergyAnalyst\CityEnergyAnalyst\cea\databases\SG\components\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gnappi\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F588638B-AE05-42C8-B34F-7023C4550399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4607AAD1-083A-46EC-A7FB-AC106CC2D7D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2325" yWindow="1275" windowWidth="22125" windowHeight="11220" tabRatio="993" firstSheet="7" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5565" yWindow="0" windowWidth="22125" windowHeight="11220" tabRatio="993" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PHOTOVOLTAIC_PANELS" sheetId="1" r:id="rId1"/>
@@ -1650,8 +1650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB10"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U5" sqref="U5"/>
+    <sheetView topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1823,9 +1823,8 @@
       <c r="T2" s="2">
         <v>0</v>
       </c>
-      <c r="U2" s="4">
-        <f>3.5/0.962</f>
-        <v>3.6382536382536386</v>
+      <c r="U2" s="7">
+        <v>1.54</v>
       </c>
       <c r="V2" s="2">
         <v>1</v>
@@ -1910,9 +1909,9 @@
       <c r="T3" s="2">
         <v>0</v>
       </c>
-      <c r="U3" s="4">
-        <f>2.5/0.962</f>
-        <v>2.5987525987525988</v>
+      <c r="U3" s="7">
+        <f>0.94</f>
+        <v>0.94</v>
       </c>
       <c r="V3" s="2">
         <v>1</v>
@@ -1997,9 +1996,9 @@
       <c r="T4" s="2">
         <v>0</v>
       </c>
-      <c r="U4" s="4">
-        <f>2.5/0.962</f>
-        <v>2.5987525987525988</v>
+      <c r="U4" s="7">
+        <f>0.94</f>
+        <v>0.94</v>
       </c>
       <c r="V4" s="2">
         <v>1</v>
@@ -2084,9 +2083,8 @@
       <c r="T5" s="2">
         <v>0</v>
       </c>
-      <c r="U5" s="4">
-        <f>3.5/0.962</f>
-        <v>3.6382536382536386</v>
+      <c r="U5" s="7">
+        <v>1.54</v>
       </c>
       <c r="V5" s="2">
         <v>1</v>
@@ -2171,9 +2169,9 @@
       <c r="T6" s="2">
         <v>0</v>
       </c>
-      <c r="U6" s="4">
-        <f>2.5/0.962</f>
-        <v>2.5987525987525988</v>
+      <c r="U6" s="7">
+        <f>0.94</f>
+        <v>0.94</v>
       </c>
       <c r="V6" s="2">
         <v>1</v>
@@ -2258,9 +2256,9 @@
       <c r="T7" s="2">
         <v>0</v>
       </c>
-      <c r="U7" s="4">
-        <f>2.5/0.962</f>
-        <v>2.5987525987525988</v>
+      <c r="U7" s="7">
+        <f>0.94</f>
+        <v>0.94</v>
       </c>
       <c r="V7" s="2">
         <v>1</v>
@@ -2345,9 +2343,8 @@
       <c r="T8" s="2">
         <v>0</v>
       </c>
-      <c r="U8" s="4">
-        <f>3.5/0.962</f>
-        <v>3.6382536382536386</v>
+      <c r="U8" s="7">
+        <v>1.54</v>
       </c>
       <c r="V8" s="2">
         <v>1</v>
@@ -2432,9 +2429,9 @@
       <c r="T9" s="2">
         <v>0</v>
       </c>
-      <c r="U9" s="4">
-        <f>2.5/0.962</f>
-        <v>2.5987525987525988</v>
+      <c r="U9" s="7">
+        <f>0.94</f>
+        <v>0.94</v>
       </c>
       <c r="V9" s="2">
         <v>1</v>
@@ -2519,9 +2516,9 @@
       <c r="T10" s="2">
         <v>0</v>
       </c>
-      <c r="U10" s="4">
-        <f>2.5/0.962</f>
-        <v>2.5987525987525988</v>
+      <c r="U10" s="7">
+        <f>0.94</f>
+        <v>0.94</v>
       </c>
       <c r="V10" s="2">
         <v>1</v>
@@ -4246,7 +4243,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:AB7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -6213,8 +6210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AH3"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W6" sqref="W6"/>
+    <sheetView topLeftCell="U1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AH6" sqref="AH6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6434,7 +6431,7 @@
         <v>20</v>
       </c>
       <c r="AF2" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AG2" s="2">
         <v>5</v>
@@ -6526,8 +6523,7 @@
         <v>0</v>
       </c>
       <c r="AA3" s="7">
-        <f>2.05/0.962</f>
-        <v>2.130977130977131</v>
+        <v>1.33</v>
       </c>
       <c r="AB3" s="2">
         <v>1</v>
@@ -6542,7 +6538,7 @@
         <v>20</v>
       </c>
       <c r="AF3" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AG3" s="2">
         <v>5</v>
@@ -6563,7 +6559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
@@ -7388,8 +7384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:W13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:B10"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="V3" sqref="V3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8549,7 +8545,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:V15"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
@@ -9070,7 +9066,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:AG7"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
@@ -9804,7 +9800,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:V7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="V23" sqref="V23"/>
     </sheetView>
   </sheetViews>

--- a/cea/databases/SG/components/CONVERSION.xlsx
+++ b/cea/databases/SG/components/CONVERSION.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gnappi\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4607AAD1-083A-46EC-A7FB-AC106CC2D7D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9CFF043-CDE7-4A40-B056-D1B371E28868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5565" yWindow="0" windowWidth="22125" windowHeight="11220" tabRatio="993" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1590" yWindow="2895" windowWidth="25830" windowHeight="12315" tabRatio="1000" firstSheet="6" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PHOTOVOLTAIC_PANELS" sheetId="1" r:id="rId1"/>
@@ -28,9 +28,10 @@
     <sheet name="UNITARY_AIR_CONDITIONERS" sheetId="16" r:id="rId13"/>
     <sheet name="HEAT_PUMPS" sheetId="13" r:id="rId14"/>
     <sheet name="THERMAL_ENERGY_STORAGES" sheetId="14" r:id="rId15"/>
-    <sheet name="POWER_TRANSFORMERS" sheetId="17" r:id="rId16"/>
-    <sheet name="HYDRAULIC_PUMPS" sheetId="15" r:id="rId17"/>
-    <sheet name="BORE_HOLES" sheetId="12" r:id="rId18"/>
+    <sheet name="BATTERIES" sheetId="23" r:id="rId16"/>
+    <sheet name="POWER_TRANSFORMERS" sheetId="17" r:id="rId17"/>
+    <sheet name="HYDRAULIC_PUMPS" sheetId="15" r:id="rId18"/>
+    <sheet name="BORE_HOLES" sheetId="12" r:id="rId19"/>
   </sheets>
   <definedNames>
     <definedName name="__xlfn_AGGREGATE">#N/A</definedName>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="269">
   <si>
     <t>Description</t>
   </si>
@@ -223,613 +224,643 @@
     <t>FP</t>
   </si>
   <si>
+    <t>evacuated tube</t>
+  </si>
+  <si>
+    <t>SC2</t>
+  </si>
+  <si>
+    <t>ET</t>
+  </si>
+  <si>
+    <t>generic PVT</t>
+  </si>
+  <si>
+    <t>PVT1</t>
+  </si>
+  <si>
+    <t>BO1</t>
+  </si>
+  <si>
+    <t>CCGT1</t>
+  </si>
+  <si>
+    <t>CH1</t>
+  </si>
+  <si>
+    <t>CH2</t>
+  </si>
+  <si>
+    <t>s_e</t>
+  </si>
+  <si>
+    <t>r_e</t>
+  </si>
+  <si>
+    <t>s_g</t>
+  </si>
+  <si>
+    <t>r_g</t>
+  </si>
+  <si>
+    <t>a_e</t>
+  </si>
+  <si>
+    <t>e_e</t>
+  </si>
+  <si>
+    <t>a_g</t>
+  </si>
+  <si>
+    <t>e_g</t>
+  </si>
+  <si>
+    <t>m_cw</t>
+  </si>
+  <si>
+    <t>m_hw</t>
+  </si>
+  <si>
+    <t>ACH1</t>
+  </si>
+  <si>
+    <t>single</t>
+  </si>
+  <si>
+    <t>ACH2</t>
+  </si>
+  <si>
+    <t>ACH3</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>triple</t>
+  </si>
+  <si>
+    <t>centralized cooling tower</t>
+  </si>
+  <si>
+    <t>CT1</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>substation heat exchanger</t>
+  </si>
+  <si>
+    <t>HEX1</t>
+  </si>
+  <si>
+    <t>borehole</t>
+  </si>
+  <si>
+    <t>BH1</t>
+  </si>
+  <si>
+    <t>HP1</t>
+  </si>
+  <si>
+    <t>HP2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit </t>
+  </si>
+  <si>
+    <t>TES1</t>
+  </si>
+  <si>
+    <t>cap_min, cap_max</t>
+  </si>
+  <si>
+    <t>TES2</t>
+  </si>
+  <si>
+    <t>generic pump</t>
+  </si>
+  <si>
+    <t>PU1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fit based on RESCUE WP 2.4. Figure 18 </t>
+  </si>
+  <si>
+    <t>LT_mat_yr</t>
+  </si>
+  <si>
+    <t>C_mat_%</t>
+  </si>
+  <si>
+    <t>T_PHCH_C</t>
+  </si>
+  <si>
+    <t>T_min_C</t>
+  </si>
+  <si>
+    <t>T_max_C</t>
+  </si>
+  <si>
+    <t>HL_kJkg</t>
+  </si>
+  <si>
+    <t>Rho_T_PHCH_kgm3</t>
+  </si>
+  <si>
+    <t>Cp_kJkgK</t>
+  </si>
+  <si>
+    <t>n_ch</t>
+  </si>
+  <si>
+    <t>n_disch</t>
+  </si>
+  <si>
+    <t>HEATING</t>
+  </si>
+  <si>
+    <t>short-term storage tank - water</t>
+  </si>
+  <si>
+    <t>COOLING</t>
+  </si>
+  <si>
+    <t>short-term storage tank- ice</t>
+  </si>
+  <si>
+    <t>TES3</t>
+  </si>
+  <si>
+    <t>short-term storage tank - eutectic salt</t>
+  </si>
+  <si>
+    <t>TES4</t>
+  </si>
+  <si>
+    <t>short-term storage tank - PEG400</t>
+  </si>
+  <si>
+    <t>TES5</t>
+  </si>
+  <si>
+    <t>short-term storage tank - Paraffin C14</t>
+  </si>
+  <si>
+    <t>TES6</t>
+  </si>
+  <si>
+    <t>min_eff_rating</t>
+  </si>
+  <si>
+    <t>water-centrifugal</t>
+  </si>
+  <si>
+    <t>water-reciprocating</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> electrically operated positive displacement, water cooled</t>
+  </si>
+  <si>
+    <t>electrically operated centrifugal, water cooled</t>
+  </si>
+  <si>
+    <t>reference</t>
+  </si>
+  <si>
+    <t>ASHRAE 90.1/2019 - minimum efficiency rating at full load</t>
+  </si>
+  <si>
+    <t>T_evap_design</t>
+  </si>
+  <si>
+    <t>T_cond_design</t>
+  </si>
+  <si>
+    <t>V_power_supply</t>
+  </si>
+  <si>
+    <t>T_gen_design</t>
+  </si>
+  <si>
+    <t>LiBr single effect - indirect</t>
+  </si>
+  <si>
+    <t>LiBr double effect (dummy)  - indirect</t>
+  </si>
+  <si>
+    <t>LiBr double effect - indirect</t>
+  </si>
+  <si>
+    <t>LiBr triple effect - indirect</t>
+  </si>
+  <si>
+    <t>aux_power</t>
+  </si>
+  <si>
+    <t>T_water_in_design</t>
+  </si>
+  <si>
+    <t>T_air_in_design</t>
+  </si>
+  <si>
+    <t>T_water_out_design</t>
+  </si>
+  <si>
+    <t>open-circuit</t>
+  </si>
+  <si>
+    <t>closed-circuit</t>
+  </si>
+  <si>
+    <t>ASHRAE 90.1/2019 - auxilary power demand (i.e. performance requirement, converted)</t>
+  </si>
+  <si>
+    <t>T_air_indoor_rating</t>
+  </si>
+  <si>
+    <t>T_air_outdoor_rating</t>
+  </si>
+  <si>
+    <t>ASHRAE 90.1/2019 - minimum efficiency rating, AHRI 210/240 (2023) temperature rating - application rating conditions</t>
+  </si>
+  <si>
+    <t>air conditioner, split-system, air cooled</t>
+  </si>
+  <si>
+    <t>AC1</t>
+  </si>
+  <si>
+    <t>AC2</t>
+  </si>
+  <si>
+    <t>air conditioner, split-system, air cooled, ducted</t>
+  </si>
+  <si>
+    <t>mini-split</t>
+  </si>
+  <si>
+    <t>mini-split, ducted</t>
+  </si>
+  <si>
+    <t>rated_COP_seasonal</t>
+  </si>
+  <si>
+    <t>T_water_in_rating</t>
+  </si>
+  <si>
+    <t>T_water_out_rating</t>
+  </si>
+  <si>
+    <t>CT2</t>
+  </si>
+  <si>
+    <t>BO2</t>
+  </si>
+  <si>
+    <t>ASHRAE 90.1/2019 - minimum efficiency rating, 10 CFR Appendix A - boiler testing temperatures</t>
+  </si>
+  <si>
+    <t>oil</t>
+  </si>
+  <si>
+    <t>gas</t>
+  </si>
+  <si>
+    <t>gas-cond</t>
+  </si>
+  <si>
+    <t>T_flue_gas_design</t>
+  </si>
+  <si>
+    <t>fuel_code</t>
+  </si>
+  <si>
+    <t>Cgas</t>
+  </si>
+  <si>
+    <t>Coil</t>
+  </si>
+  <si>
+    <t>conventional natural gas boiler</t>
+  </si>
+  <si>
+    <t>condensing natural gas boiler</t>
+  </si>
+  <si>
+    <t>conventional oil boiler</t>
+  </si>
+  <si>
+    <t>OEHR1</t>
+  </si>
+  <si>
+    <t>engine</t>
+  </si>
+  <si>
+    <t>turbine</t>
+  </si>
+  <si>
+    <t>furnace</t>
+  </si>
+  <si>
+    <t>temperatures and cost</t>
+  </si>
+  <si>
+    <t>elec_eff_design</t>
+  </si>
+  <si>
+    <t>therm_eff_design</t>
+  </si>
+  <si>
+    <t>OEHR2</t>
+  </si>
+  <si>
+    <t>Cbig</t>
+  </si>
+  <si>
+    <t>biogas powered otto engine with heat recovery</t>
+  </si>
+  <si>
+    <t>natural powered otto engine with heat recovery</t>
+  </si>
+  <si>
+    <t>grouppo AB Ecomax catalogue 2022, US EIA Capital Cost for Capital Cost and Performance Characteristic Estimates for Utility Scale Electric Power Generating Technologies 2020</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/B978-0-08-100510-1.00015-6</t>
+  </si>
+  <si>
+    <t>Cwbm</t>
+  </si>
+  <si>
+    <t>biomass furnace combined with ORC</t>
+  </si>
+  <si>
+    <t>oil furnace combined with ORC</t>
+  </si>
+  <si>
+    <t>Mitsubishi Gas Trubine  Combined Cycle Catalogue 2022</t>
+  </si>
+  <si>
+    <t>combined cycle gas turbine with heat recovery</t>
+  </si>
+  <si>
+    <t>V_power_out_design</t>
+  </si>
+  <si>
+    <t>bio-engine</t>
+  </si>
+  <si>
+    <t>counter-flow, plate</t>
+  </si>
+  <si>
+    <t>T_max_operating</t>
+  </si>
+  <si>
+    <t>medium_in</t>
+  </si>
+  <si>
+    <t>medium_out</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>T_min_operating</t>
+  </si>
+  <si>
+    <t>geothermal</t>
+  </si>
+  <si>
+    <t>HP3</t>
+  </si>
+  <si>
+    <t>air-water heat pump</t>
+  </si>
+  <si>
+    <t>ASHRAE 90.1/2019 - AHRI 1230/2021</t>
+  </si>
+  <si>
+    <t>water-source heat pump</t>
+  </si>
+  <si>
+    <t>geothermal heat pump - closed loop</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>ASHRAE 90.1/2019 - AHRI 210.240/2023</t>
+  </si>
+  <si>
+    <t>medium_evap_side</t>
+  </si>
+  <si>
+    <t>medium_cond_side</t>
+  </si>
+  <si>
+    <t>brine</t>
+  </si>
+  <si>
+    <t>air</t>
+  </si>
+  <si>
+    <t>min_eff_rating_seasonal</t>
+  </si>
+  <si>
+    <t>water-source</t>
+  </si>
+  <si>
+    <t>air-source</t>
+  </si>
+  <si>
+    <t>TR1</t>
+  </si>
+  <si>
+    <t>VA</t>
+  </si>
+  <si>
+    <t>TR2</t>
+  </si>
+  <si>
+    <t>TR3</t>
+  </si>
+  <si>
+    <t>large interconnection transformer</t>
+  </si>
+  <si>
+    <t>small interconnection transformer</t>
+  </si>
+  <si>
+    <t>medium interconnection transformer</t>
+  </si>
+  <si>
+    <t>small power  transformer</t>
+  </si>
+  <si>
+    <t>medium power  transformer</t>
+  </si>
+  <si>
+    <t>large power transformer</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>V_max_lowV_side</t>
+  </si>
+  <si>
+    <t>V_max_highV_side</t>
+  </si>
+  <si>
+    <t>V_min_highV_side</t>
+  </si>
+  <si>
+    <t>V_min_lowV_side</t>
+  </si>
+  <si>
+    <t>current_form_lowV</t>
+  </si>
+  <si>
+    <t>current_form_highV</t>
+  </si>
+  <si>
+    <t>EN 50588-1, 2017</t>
+  </si>
+  <si>
+    <t>https://www.linquip.com/blog/efficiency-of-heat-exchanger/; Danfoss - Ultra efficient braze heat exhangers for your district energy applications</t>
+  </si>
+  <si>
+    <t>BO3</t>
+  </si>
+  <si>
+    <t>FU2</t>
+  </si>
+  <si>
+    <t>FU1</t>
+  </si>
+  <si>
+    <t>G_VALUE</t>
+  </si>
+  <si>
+    <t>everything</t>
+  </si>
+  <si>
+    <t>FC1</t>
+  </si>
+  <si>
+    <t>solid oxide fuel cell</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Assumptions</t>
+  </si>
+  <si>
+    <t>District substation heat exchanger</t>
+  </si>
+  <si>
+    <t>HEX2</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>m^2</t>
+  </si>
+  <si>
+    <t>Values under 1 and above 50 are assumptions, as no datasheet values are available in this area. a_p to e_p denote the pressure drop in Pa</t>
+  </si>
+  <si>
+    <t>ASHRAE 90.1/2019 - minimum efficiency rating at full load; https://www.esmagazine.com/articles/82307-basics-for-absorption-chillers - capacity-specific mass flow rates</t>
+  </si>
+  <si>
+    <t>Water_source_code</t>
+  </si>
+  <si>
+    <t>Lake-water HEX</t>
+  </si>
+  <si>
+    <t>HEXLW</t>
+  </si>
+  <si>
+    <t>LW</t>
+  </si>
+  <si>
+    <t>Sewage-water HEX</t>
+  </si>
+  <si>
+    <t>HEXSW</t>
+  </si>
+  <si>
+    <t>SW</t>
+  </si>
+  <si>
+    <t>Groundwater-water HEX</t>
+  </si>
+  <si>
+    <t>HEXGW</t>
+  </si>
+  <si>
+    <t>GW</t>
+  </si>
+  <si>
+    <t>solar inverter</t>
+  </si>
+  <si>
+    <t>IN1</t>
+  </si>
+  <si>
+    <t>grid-tied, sigle phase, transformerless inverter</t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>T_supply_sup</t>
+  </si>
+  <si>
+    <t>water_temperature</t>
+  </si>
+  <si>
+    <t>round-trip efficiency</t>
+  </si>
+  <si>
+    <t>Wh</t>
+  </si>
+  <si>
+    <t>Tank Thermal Energy Storage</t>
+  </si>
+  <si>
+    <t>BT1</t>
+  </si>
+  <si>
+    <t>Battery</t>
+  </si>
+  <si>
+    <t>input_voltage</t>
+  </si>
+  <si>
+    <t>output_voltage</t>
+  </si>
+  <si>
+    <t>Electric Energy Storage</t>
+  </si>
+  <si>
+    <t>specific_energy_Wh_kg</t>
+  </si>
+  <si>
+    <t>specific_power_W_kg</t>
+  </si>
+  <si>
+    <t>energy_density_Wh_m3</t>
+  </si>
+  <si>
+    <t>power_density_W_m3</t>
+  </si>
+  <si>
+    <t>self_discharge</t>
+  </si>
+  <si>
     <t>m2</t>
-  </si>
-  <si>
-    <t>evacuated tube</t>
-  </si>
-  <si>
-    <t>SC2</t>
-  </si>
-  <si>
-    <t>ET</t>
-  </si>
-  <si>
-    <t>generic PVT</t>
-  </si>
-  <si>
-    <t>PVT1</t>
-  </si>
-  <si>
-    <t>BO1</t>
-  </si>
-  <si>
-    <t>CCGT1</t>
-  </si>
-  <si>
-    <t>CH1</t>
-  </si>
-  <si>
-    <t>CH2</t>
-  </si>
-  <si>
-    <t>s_e</t>
-  </si>
-  <si>
-    <t>r_e</t>
-  </si>
-  <si>
-    <t>s_g</t>
-  </si>
-  <si>
-    <t>r_g</t>
-  </si>
-  <si>
-    <t>a_e</t>
-  </si>
-  <si>
-    <t>e_e</t>
-  </si>
-  <si>
-    <t>a_g</t>
-  </si>
-  <si>
-    <t>e_g</t>
-  </si>
-  <si>
-    <t>m_cw</t>
-  </si>
-  <si>
-    <t>m_hw</t>
-  </si>
-  <si>
-    <t>ACH1</t>
-  </si>
-  <si>
-    <t>single</t>
-  </si>
-  <si>
-    <t>ACH2</t>
-  </si>
-  <si>
-    <t>ACH3</t>
-  </si>
-  <si>
-    <t>double</t>
-  </si>
-  <si>
-    <t>triple</t>
-  </si>
-  <si>
-    <t>centralized cooling tower</t>
-  </si>
-  <si>
-    <t>CT1</t>
-  </si>
-  <si>
-    <t>all</t>
-  </si>
-  <si>
-    <t>substation heat exchanger</t>
-  </si>
-  <si>
-    <t>HEX1</t>
-  </si>
-  <si>
-    <t>borehole</t>
-  </si>
-  <si>
-    <t>BH1</t>
-  </si>
-  <si>
-    <t>HP1</t>
-  </si>
-  <si>
-    <t>HP2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unit </t>
-  </si>
-  <si>
-    <t>TES1</t>
-  </si>
-  <si>
-    <t>cap_min, cap_max</t>
-  </si>
-  <si>
-    <t>TES2</t>
-  </si>
-  <si>
-    <t>generic pump</t>
-  </si>
-  <si>
-    <t>PU1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fit based on RESCUE WP 2.4. Figure 18 </t>
-  </si>
-  <si>
-    <t>LT_mat_yr</t>
-  </si>
-  <si>
-    <t>C_mat_%</t>
-  </si>
-  <si>
-    <t>T_PHCH_C</t>
-  </si>
-  <si>
-    <t>T_min_C</t>
-  </si>
-  <si>
-    <t>T_max_C</t>
-  </si>
-  <si>
-    <t>HL_kJkg</t>
-  </si>
-  <si>
-    <t>Rho_T_PHCH_kgm3</t>
-  </si>
-  <si>
-    <t>Cp_kJkgK</t>
-  </si>
-  <si>
-    <t>n_ch</t>
-  </si>
-  <si>
-    <t>n_disch</t>
-  </si>
-  <si>
-    <t>HEATING</t>
-  </si>
-  <si>
-    <t>short-term storage tank - water</t>
-  </si>
-  <si>
-    <t>COOLING</t>
-  </si>
-  <si>
-    <t>short-term storage tank- ice</t>
-  </si>
-  <si>
-    <t>TES3</t>
-  </si>
-  <si>
-    <t>short-term storage tank - eutectic salt</t>
-  </si>
-  <si>
-    <t>TES4</t>
-  </si>
-  <si>
-    <t>short-term storage tank - PEG400</t>
-  </si>
-  <si>
-    <t>TES5</t>
-  </si>
-  <si>
-    <t>short-term storage tank - Paraffin C14</t>
-  </si>
-  <si>
-    <t>TES6</t>
-  </si>
-  <si>
-    <t>min_eff_rating</t>
-  </si>
-  <si>
-    <t>water-centrifugal</t>
-  </si>
-  <si>
-    <t>water-reciprocating</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> electrically operated positive displacement, water cooled</t>
-  </si>
-  <si>
-    <t>electrically operated centrifugal, water cooled</t>
-  </si>
-  <si>
-    <t>reference</t>
-  </si>
-  <si>
-    <t>ASHRAE 90.1/2019 - minimum efficiency rating at full load</t>
-  </si>
-  <si>
-    <t>T_evap_design</t>
-  </si>
-  <si>
-    <t>T_cond_design</t>
-  </si>
-  <si>
-    <t>V_power_supply</t>
-  </si>
-  <si>
-    <t>T_gen_design</t>
-  </si>
-  <si>
-    <t>LiBr single effect - indirect</t>
-  </si>
-  <si>
-    <t>LiBr double effect (dummy)  - indirect</t>
-  </si>
-  <si>
-    <t>LiBr double effect - indirect</t>
-  </si>
-  <si>
-    <t>LiBr triple effect - indirect</t>
-  </si>
-  <si>
-    <t>aux_power</t>
-  </si>
-  <si>
-    <t>T_water_in_design</t>
-  </si>
-  <si>
-    <t>T_air_in_design</t>
-  </si>
-  <si>
-    <t>T_water_out_design</t>
-  </si>
-  <si>
-    <t>open-circuit</t>
-  </si>
-  <si>
-    <t>closed-circuit</t>
-  </si>
-  <si>
-    <t>ASHRAE 90.1/2019 - auxilary power demand (i.e. performance requirement, converted)</t>
-  </si>
-  <si>
-    <t>T_air_indoor_rating</t>
-  </si>
-  <si>
-    <t>T_air_outdoor_rating</t>
-  </si>
-  <si>
-    <t>ASHRAE 90.1/2019 - minimum efficiency rating, AHRI 210/240 (2023) temperature rating - application rating conditions</t>
-  </si>
-  <si>
-    <t>air conditioner, split-system, air cooled</t>
-  </si>
-  <si>
-    <t>AC1</t>
-  </si>
-  <si>
-    <t>AC2</t>
-  </si>
-  <si>
-    <t>air conditioner, split-system, air cooled, ducted</t>
-  </si>
-  <si>
-    <t>mini-split</t>
-  </si>
-  <si>
-    <t>mini-split, ducted</t>
-  </si>
-  <si>
-    <t>rated_COP_seasonal</t>
-  </si>
-  <si>
-    <t>T_water_in_rating</t>
-  </si>
-  <si>
-    <t>T_water_out_rating</t>
-  </si>
-  <si>
-    <t>CT2</t>
-  </si>
-  <si>
-    <t>BO2</t>
-  </si>
-  <si>
-    <t>ASHRAE 90.1/2019 - minimum efficiency rating, 10 CFR Appendix A - boiler testing temperatures</t>
-  </si>
-  <si>
-    <t>oil</t>
-  </si>
-  <si>
-    <t>gas</t>
-  </si>
-  <si>
-    <t>gas-cond</t>
-  </si>
-  <si>
-    <t>T_flue_gas_design</t>
-  </si>
-  <si>
-    <t>fuel_code</t>
-  </si>
-  <si>
-    <t>Cgas</t>
-  </si>
-  <si>
-    <t>Coil</t>
-  </si>
-  <si>
-    <t>conventional natural gas boiler</t>
-  </si>
-  <si>
-    <t>condensing natural gas boiler</t>
-  </si>
-  <si>
-    <t>conventional oil boiler</t>
-  </si>
-  <si>
-    <t>OEHR1</t>
-  </si>
-  <si>
-    <t>engine</t>
-  </si>
-  <si>
-    <t>turbine</t>
-  </si>
-  <si>
-    <t>furnace</t>
-  </si>
-  <si>
-    <t>temperatures and cost</t>
-  </si>
-  <si>
-    <t>elec_eff_design</t>
-  </si>
-  <si>
-    <t>therm_eff_design</t>
-  </si>
-  <si>
-    <t>OEHR2</t>
-  </si>
-  <si>
-    <t>Cbig</t>
-  </si>
-  <si>
-    <t>biogas powered otto engine with heat recovery</t>
-  </si>
-  <si>
-    <t>natural powered otto engine with heat recovery</t>
-  </si>
-  <si>
-    <t>grouppo AB Ecomax catalogue 2022, US EIA Capital Cost for Capital Cost and Performance Characteristic Estimates for Utility Scale Electric Power Generating Technologies 2020</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1016/B978-0-08-100510-1.00015-6</t>
-  </si>
-  <si>
-    <t>Cwbm</t>
-  </si>
-  <si>
-    <t>biomass furnace combined with ORC</t>
-  </si>
-  <si>
-    <t>oil furnace combined with ORC</t>
-  </si>
-  <si>
-    <t>Mitsubishi Gas Trubine  Combined Cycle Catalogue 2022</t>
-  </si>
-  <si>
-    <t>combined cycle gas turbine with heat recovery</t>
-  </si>
-  <si>
-    <t>V_power_out_design</t>
-  </si>
-  <si>
-    <t>bio-engine</t>
-  </si>
-  <si>
-    <t>counter-flow, plate</t>
-  </si>
-  <si>
-    <t>T_max_operating</t>
-  </si>
-  <si>
-    <t>medium_in</t>
-  </si>
-  <si>
-    <t>medium_out</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>T_min_operating</t>
-  </si>
-  <si>
-    <t>geothermal</t>
-  </si>
-  <si>
-    <t>HP3</t>
-  </si>
-  <si>
-    <t>air-water heat pump</t>
-  </si>
-  <si>
-    <t>ASHRAE 90.1/2019 - AHRI 1230/2021</t>
-  </si>
-  <si>
-    <t>water-source heat pump</t>
-  </si>
-  <si>
-    <t>geothermal heat pump - closed loop</t>
-  </si>
-  <si>
-    <t>cost</t>
-  </si>
-  <si>
-    <t>ASHRAE 90.1/2019 - AHRI 210.240/2023</t>
-  </si>
-  <si>
-    <t>medium_evap_side</t>
-  </si>
-  <si>
-    <t>medium_cond_side</t>
-  </si>
-  <si>
-    <t>brine</t>
-  </si>
-  <si>
-    <t>air</t>
-  </si>
-  <si>
-    <t>min_eff_rating_seasonal</t>
-  </si>
-  <si>
-    <t>water-source</t>
-  </si>
-  <si>
-    <t>air-source</t>
-  </si>
-  <si>
-    <t>TR1</t>
-  </si>
-  <si>
-    <t>VA</t>
-  </si>
-  <si>
-    <t>TR2</t>
-  </si>
-  <si>
-    <t>TR3</t>
-  </si>
-  <si>
-    <t>large interconnection transformer</t>
-  </si>
-  <si>
-    <t>small interconnection transformer</t>
-  </si>
-  <si>
-    <t>medium interconnection transformer</t>
-  </si>
-  <si>
-    <t>small power  transformer</t>
-  </si>
-  <si>
-    <t>medium power  transformer</t>
-  </si>
-  <si>
-    <t>large power transformer</t>
-  </si>
-  <si>
-    <t>AC</t>
-  </si>
-  <si>
-    <t>V_max_lowV_side</t>
-  </si>
-  <si>
-    <t>V_max_highV_side</t>
-  </si>
-  <si>
-    <t>V_min_highV_side</t>
-  </si>
-  <si>
-    <t>V_min_lowV_side</t>
-  </si>
-  <si>
-    <t>current_form_lowV</t>
-  </si>
-  <si>
-    <t>current_form_highV</t>
-  </si>
-  <si>
-    <t>EN 50588-1, 2017</t>
-  </si>
-  <si>
-    <t>https://www.linquip.com/blog/efficiency-of-heat-exchanger/; Danfoss - Ultra efficient braze heat exhangers for your district energy applications</t>
-  </si>
-  <si>
-    <t>BO3</t>
-  </si>
-  <si>
-    <t>FU2</t>
-  </si>
-  <si>
-    <t>FU1</t>
-  </si>
-  <si>
-    <t>G_VALUE</t>
-  </si>
-  <si>
-    <t>everything</t>
-  </si>
-  <si>
-    <t>FC1</t>
-  </si>
-  <si>
-    <t>solid oxide fuel cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Assumptions</t>
-  </si>
-  <si>
-    <t>District substation heat exchanger</t>
-  </si>
-  <si>
-    <t>HEX2</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>m^2</t>
-  </si>
-  <si>
-    <t>Values under 1 and above 50 are assumptions, as no datasheet values are available in this area. a_p to e_p denote the pressure drop in Pa</t>
-  </si>
-  <si>
-    <t>ASHRAE 90.1/2019 - minimum efficiency rating at full load; https://www.esmagazine.com/articles/82307-basics-for-absorption-chillers - capacity-specific mass flow rates</t>
-  </si>
-  <si>
-    <t>Water_source_code</t>
-  </si>
-  <si>
-    <t>Lake-water HEX</t>
-  </si>
-  <si>
-    <t>HEXLW</t>
-  </si>
-  <si>
-    <t>LW</t>
-  </si>
-  <si>
-    <t>Sewage-water HEX</t>
-  </si>
-  <si>
-    <t>HEXSW</t>
-  </si>
-  <si>
-    <t>SW</t>
-  </si>
-  <si>
-    <t>Groundwater-water HEX</t>
-  </si>
-  <si>
-    <t>HEXGW</t>
-  </si>
-  <si>
-    <t>GW</t>
-  </si>
-  <si>
-    <t>solar inverter</t>
-  </si>
-  <si>
-    <t>IN1</t>
-  </si>
-  <si>
-    <t>grid-tied, sigle phase, transformerless inverter</t>
-  </si>
-  <si>
-    <t>DC</t>
-  </si>
-  <si>
-    <t>T_supply_sup</t>
-  </si>
-  <si>
-    <t>water_temperature</t>
-  </si>
-  <si>
-    <t>round-trip efficiency</t>
-  </si>
-  <si>
-    <t>Wh</t>
-  </si>
-  <si>
-    <t>Tank Thermal Energy Storage</t>
   </si>
 </sst>
 </file>
@@ -842,7 +873,7 @@
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -883,6 +914,11 @@
     <font>
       <sz val="11"/>
       <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1079,7 +1115,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1206,6 +1242,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1650,8 +1689,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB10"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U8" sqref="U8"/>
+    <sheetView topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1708,7 +1751,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="36" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L1" s="36" t="s">
         <v>10</v>
@@ -1824,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="U2" s="7">
-        <v>1.54</v>
+        <v>0.89</v>
       </c>
       <c r="V2" s="2">
         <v>1</v>
@@ -1910,8 +1953,7 @@
         <v>0</v>
       </c>
       <c r="U3" s="7">
-        <f>0.94</f>
-        <v>0.94</v>
+        <v>0.54400000000000004</v>
       </c>
       <c r="V3" s="2">
         <v>1</v>
@@ -1997,8 +2039,7 @@
         <v>0</v>
       </c>
       <c r="U4" s="7">
-        <f>0.94</f>
-        <v>0.94</v>
+        <v>0.54400000000000004</v>
       </c>
       <c r="V4" s="2">
         <v>1</v>
@@ -2084,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="U5" s="7">
-        <v>1.54</v>
+        <v>0.89</v>
       </c>
       <c r="V5" s="2">
         <v>1</v>
@@ -2170,8 +2211,7 @@
         <v>0</v>
       </c>
       <c r="U6" s="7">
-        <f>0.94</f>
-        <v>0.94</v>
+        <v>0.54400000000000004</v>
       </c>
       <c r="V6" s="2">
         <v>1</v>
@@ -2257,8 +2297,7 @@
         <v>0</v>
       </c>
       <c r="U7" s="7">
-        <f>0.94</f>
-        <v>0.94</v>
+        <v>0.54400000000000004</v>
       </c>
       <c r="V7" s="2">
         <v>1</v>
@@ -2344,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="U8" s="7">
-        <v>1.54</v>
+        <v>0.89</v>
       </c>
       <c r="V8" s="2">
         <v>1</v>
@@ -2430,8 +2469,7 @@
         <v>0</v>
       </c>
       <c r="U9" s="7">
-        <f>0.94</f>
-        <v>0.94</v>
+        <v>0.54400000000000004</v>
       </c>
       <c r="V9" s="2">
         <v>1</v>
@@ -2517,8 +2555,7 @@
         <v>0</v>
       </c>
       <c r="U10" s="7">
-        <f>0.94</f>
-        <v>0.94</v>
+        <v>0.54400000000000004</v>
       </c>
       <c r="V10" s="2">
         <v>1</v>
@@ -2554,8 +2591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2A51D13-2130-8B4B-94F3-BBFC676E62A8}">
   <dimension ref="A1:X4"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2585,25 +2622,25 @@
         <v>5</v>
       </c>
       <c r="G1" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="I1" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="H1" s="36" t="s">
-        <v>128</v>
-      </c>
-      <c r="I1" s="36" t="s">
-        <v>135</v>
-      </c>
       <c r="J1" s="36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K1" s="36" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L1" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="M1" s="36" t="s">
         <v>188</v>
-      </c>
-      <c r="M1" s="36" t="s">
-        <v>189</v>
       </c>
       <c r="N1" s="36" t="s">
         <v>17</v>
@@ -2636,18 +2673,18 @@
         <v>26</v>
       </c>
       <c r="X1" s="40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>242</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D2" s="17">
         <v>1</v>
@@ -2671,13 +2708,13 @@
         <v>27</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>31</v>
@@ -2686,7 +2723,7 @@
         <v>2300</v>
       </c>
       <c r="P2" s="2">
-        <v>0.02</v>
+        <v>1.5800000000000002E-2</v>
       </c>
       <c r="Q2" s="2">
         <v>1</v>
@@ -2707,21 +2744,21 @@
         <v>1</v>
       </c>
       <c r="W2" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="X2" s="27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>245</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D3" s="17">
         <v>1</v>
@@ -2745,13 +2782,13 @@
         <v>28</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>31</v>
@@ -2760,7 +2797,7 @@
         <v>2000</v>
       </c>
       <c r="P3" s="2">
-        <v>1.4E-2</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="Q3" s="2">
         <v>1</v>
@@ -2781,21 +2818,21 @@
         <v>1</v>
       </c>
       <c r="W3" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="X3" s="27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>248</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D4" s="17">
         <v>1</v>
@@ -2819,13 +2856,13 @@
         <v>27</v>
       </c>
       <c r="K4" s="43" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>31</v>
@@ -2834,7 +2871,7 @@
         <v>2000</v>
       </c>
       <c r="P4" s="2">
-        <v>1.4E-2</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="Q4" s="2">
         <v>1</v>
@@ -2855,10 +2892,10 @@
         <v>1</v>
       </c>
       <c r="W4" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="X4" s="27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -2900,22 +2937,22 @@
         <v>5</v>
       </c>
       <c r="G1" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="J1" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="K1" s="36" t="s">
         <v>221</v>
       </c>
-      <c r="H1" s="36" t="s">
-        <v>218</v>
-      </c>
-      <c r="I1" s="36" t="s">
-        <v>220</v>
-      </c>
-      <c r="J1" s="36" t="s">
-        <v>219</v>
-      </c>
-      <c r="K1" s="36" t="s">
+      <c r="L1" s="36" t="s">
         <v>222</v>
-      </c>
-      <c r="L1" s="36" t="s">
-        <v>223</v>
       </c>
       <c r="M1" s="36" t="s">
         <v>17</v>
@@ -2948,18 +2985,18 @@
         <v>26</v>
       </c>
       <c r="W1" s="40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>251</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>252</v>
       </c>
       <c r="D2" s="17">
         <v>0</v>
@@ -2968,7 +3005,7 @@
         <v>100000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G2" s="2">
         <v>1</v>
@@ -2983,10 +3020,10 @@
         <v>1500</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>31</v>
@@ -3016,10 +3053,10 @@
         <v>5</v>
       </c>
       <c r="V2" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W2" s="27" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -3088,15 +3125,15 @@
         <v>25</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C2" s="2">
         <v>1000</v>
@@ -3139,10 +3176,10 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
@@ -3182,7 +3219,7 @@
         <v>5</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -3235,16 +3272,16 @@
         <v>5</v>
       </c>
       <c r="G1" s="36" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H1" s="36" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I1" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="J1" s="36" t="s">
         <v>141</v>
-      </c>
-      <c r="J1" s="36" t="s">
-        <v>142</v>
       </c>
       <c r="K1" s="36" t="s">
         <v>17</v>
@@ -3277,18 +3314,18 @@
         <v>26</v>
       </c>
       <c r="U1" s="36" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D2" s="17">
         <v>0</v>
@@ -3339,21 +3376,21 @@
         <v>5</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D3" s="17">
         <v>0</v>
@@ -3404,10 +3441,10 @@
         <v>5</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
@@ -3468,22 +3505,22 @@
         <v>5</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H1" s="40" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I1" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="J1" s="40" t="s">
         <v>126</v>
       </c>
-      <c r="J1" s="40" t="s">
-        <v>127</v>
-      </c>
       <c r="K1" s="40" t="s">
+        <v>199</v>
+      </c>
+      <c r="L1" s="40" t="s">
         <v>200</v>
-      </c>
-      <c r="L1" s="40" t="s">
-        <v>201</v>
       </c>
       <c r="M1" s="38" t="s">
         <v>17</v>
@@ -3516,18 +3553,18 @@
         <v>26</v>
       </c>
       <c r="W1" s="40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D2" s="17">
         <v>0</v>
@@ -3551,10 +3588,10 @@
         <v>27</v>
       </c>
       <c r="K2" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="L2" s="11" t="s">
         <v>202</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>203</v>
       </c>
       <c r="M2" s="19" t="s">
         <v>31</v>
@@ -3586,18 +3623,18 @@
       </c>
       <c r="V2" s="14"/>
       <c r="W2" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D3" s="17">
         <v>40000</v>
@@ -3621,10 +3658,10 @@
         <v>27</v>
       </c>
       <c r="K3" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="L3" s="11" t="s">
         <v>202</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>203</v>
       </c>
       <c r="M3" s="19" t="s">
         <v>31</v>
@@ -3656,18 +3693,18 @@
       </c>
       <c r="V3" s="14"/>
       <c r="W3" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D4" s="17">
         <v>0</v>
@@ -3691,10 +3728,10 @@
         <v>27</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="M4" s="19" t="s">
         <v>31</v>
@@ -3727,18 +3764,18 @@
       </c>
       <c r="V4" s="14"/>
       <c r="W4" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D5" s="17">
         <v>21000</v>
@@ -3762,10 +3799,10 @@
         <v>27</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="M5" s="19" t="s">
         <v>31</v>
@@ -3798,18 +3835,18 @@
       </c>
       <c r="V5" s="14"/>
       <c r="W5" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D6" s="17">
         <v>40000</v>
@@ -3833,10 +3870,10 @@
         <v>27</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="M6" s="19" t="s">
         <v>31</v>
@@ -3869,18 +3906,18 @@
       </c>
       <c r="V6" s="14"/>
       <c r="W6" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D7" s="17">
         <v>75000</v>
@@ -3904,10 +3941,10 @@
         <v>27</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="M7" s="19" t="s">
         <v>31</v>
@@ -3940,18 +3977,18 @@
       </c>
       <c r="V7" s="14"/>
       <c r="W7" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D8" s="17">
         <v>0</v>
@@ -3975,10 +4012,10 @@
         <v>35</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M8" s="19" t="s">
         <v>31</v>
@@ -4009,21 +4046,21 @@
         <v>6</v>
       </c>
       <c r="V8" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="W8" s="27" t="s">
         <v>198</v>
-      </c>
-      <c r="W8" s="27" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D9" s="17">
         <v>21000</v>
@@ -4047,10 +4084,10 @@
         <v>35</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M9" s="19" t="s">
         <v>31</v>
@@ -4081,21 +4118,21 @@
         <v>6</v>
       </c>
       <c r="V9" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="W9" s="27" t="s">
         <v>198</v>
-      </c>
-      <c r="W9" s="27" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D10" s="17">
         <v>40000</v>
@@ -4119,10 +4156,10 @@
         <v>35</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M10" s="19" t="s">
         <v>31</v>
@@ -4153,21 +4190,21 @@
         <v>6</v>
       </c>
       <c r="V10" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="W10" s="27" t="s">
         <v>198</v>
-      </c>
-      <c r="W10" s="27" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D11" s="17">
         <v>75000</v>
@@ -4191,10 +4228,10 @@
         <v>35</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M11" s="19" t="s">
         <v>31</v>
@@ -4225,10 +4262,10 @@
         <v>6</v>
       </c>
       <c r="V11" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="W11" s="27" t="s">
         <v>198</v>
-      </c>
-      <c r="W11" s="27" t="s">
-        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -4243,8 +4280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:AB7"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4908,13 +4945,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="36" t="s">
+        <v>254</v>
+      </c>
+      <c r="G1" s="36" t="s">
         <v>255</v>
       </c>
-      <c r="G1" s="36" t="s">
-        <v>256</v>
-      </c>
       <c r="H1" s="36" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I1" s="36" t="s">
         <v>17</v>
@@ -4938,7 +4975,7 @@
         <v>23</v>
       </c>
       <c r="P1" s="36" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q1" s="36" t="s">
         <v>24</v>
@@ -4947,31 +4984,31 @@
         <v>25</v>
       </c>
       <c r="S1" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="T1" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="T1" s="36" t="s">
+      <c r="U1" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="U1" s="36" t="s">
+      <c r="V1" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="V1" s="36" t="s">
+      <c r="W1" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="W1" s="36" t="s">
+      <c r="X1" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="X1" s="36" t="s">
+      <c r="Y1" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="Y1" s="36" t="s">
+      <c r="Z1" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="Z1" s="36" t="s">
+      <c r="AA1" s="36" t="s">
         <v>106</v>
-      </c>
-      <c r="AA1" s="36" t="s">
-        <v>107</v>
       </c>
       <c r="AB1" s="36" t="s">
         <v>26</v>
@@ -4979,13 +5016,13 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D2" s="17">
         <v>0</v>
@@ -5000,16 +5037,16 @@
         <v>0.9</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="I2" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="I2" s="11" t="s">
         <v>31</v>
       </c>
       <c r="J2" s="14">
         <v>0</v>
       </c>
       <c r="K2" s="27">
-        <v>20.637386599999999</v>
+        <v>16.122958300000001</v>
       </c>
       <c r="L2" s="11">
         <v>0.56499999999999995</v>
@@ -5045,7 +5082,7 @@
         <v>100</v>
       </c>
       <c r="W2" s="11">
-        <v>0</v>
+        <v>2260</v>
       </c>
       <c r="X2" s="11">
         <v>997</v>
@@ -5060,18 +5097,18 @@
         <v>0.96</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>109</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>110</v>
       </c>
       <c r="D3" s="17">
         <v>0</v>
@@ -5086,7 +5123,7 @@
         <v>0.9</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>31</v>
@@ -5146,18 +5183,18 @@
         <v>0.96</v>
       </c>
       <c r="AB3" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>112</v>
-      </c>
       <c r="C4" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D4" s="17">
         <v>0</v>
@@ -5172,7 +5209,7 @@
         <v>0.9</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I4" s="11" t="s">
         <v>31</v>
@@ -5232,18 +5269,18 @@
         <v>0.96</v>
       </c>
       <c r="AB4" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>114</v>
-      </c>
       <c r="C5" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D5" s="17">
         <v>0</v>
@@ -5258,7 +5295,7 @@
         <v>0.9</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I5" s="11" t="s">
         <v>31</v>
@@ -5318,18 +5355,18 @@
         <v>0.96</v>
       </c>
       <c r="AB5" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>116</v>
-      </c>
       <c r="C6" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D6" s="17">
         <v>0</v>
@@ -5344,7 +5381,7 @@
         <v>0.9</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I6" s="11" t="s">
         <v>31</v>
@@ -5404,18 +5441,18 @@
         <v>0.96</v>
       </c>
       <c r="AB6" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>118</v>
-      </c>
       <c r="C7" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D7" s="17">
         <v>0</v>
@@ -5430,7 +5467,7 @@
         <v>0.9</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I7" s="11" t="s">
         <v>31</v>
@@ -5490,11 +5527,12 @@
         <v>0.96</v>
       </c>
       <c r="AB7" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
@@ -5502,6 +5540,204 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB404CD3-4C37-40E4-92E9-4B040C3532C7}">
+  <dimension ref="A1:AB2"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" customWidth="1"/>
+    <col min="24" max="24" width="15" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>255</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="P1" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="S1" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="T1" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="U1" s="36" t="s">
+        <v>260</v>
+      </c>
+      <c r="V1" s="36" t="s">
+        <v>261</v>
+      </c>
+      <c r="W1" s="36" t="s">
+        <v>267</v>
+      </c>
+      <c r="X1" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y1" s="36" t="s">
+        <v>264</v>
+      </c>
+      <c r="Z1" s="41" t="s">
+        <v>265</v>
+      </c>
+      <c r="AA1" s="41" t="s">
+        <v>266</v>
+      </c>
+      <c r="AB1" s="36" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="D2" s="17">
+        <v>0</v>
+      </c>
+      <c r="E2" s="17">
+        <v>10000000000</v>
+      </c>
+      <c r="F2" s="46">
+        <v>0.87</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="14">
+        <v>0</v>
+      </c>
+      <c r="J2" s="27">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="K2" s="11">
+        <v>1</v>
+      </c>
+      <c r="L2" s="11">
+        <v>0</v>
+      </c>
+      <c r="M2" s="11">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2">
+        <v>15</v>
+      </c>
+      <c r="O2" s="11">
+        <v>15</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>5</v>
+      </c>
+      <c r="R2" s="11">
+        <v>0</v>
+      </c>
+      <c r="S2" s="11">
+        <v>0.95</v>
+      </c>
+      <c r="T2" s="11">
+        <v>0.92</v>
+      </c>
+      <c r="U2" s="11">
+        <v>30</v>
+      </c>
+      <c r="V2" s="11">
+        <v>230</v>
+      </c>
+      <c r="W2" s="11">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="X2" s="11">
+        <v>151</v>
+      </c>
+      <c r="Y2" s="11">
+        <v>229</v>
+      </c>
+      <c r="Z2" s="11">
+        <v>311670</v>
+      </c>
+      <c r="AA2" s="11">
+        <v>1250000</v>
+      </c>
+      <c r="AB2" s="19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E588DD75-4ED6-A447-B30A-4A128452EE65}">
   <dimension ref="A1:W7"/>
   <sheetViews>
@@ -5545,22 +5781,22 @@
         <v>5</v>
       </c>
       <c r="G1" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="J1" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="K1" s="36" t="s">
         <v>221</v>
       </c>
-      <c r="H1" s="36" t="s">
-        <v>218</v>
-      </c>
-      <c r="I1" s="36" t="s">
-        <v>220</v>
-      </c>
-      <c r="J1" s="36" t="s">
-        <v>219</v>
-      </c>
-      <c r="K1" s="36" t="s">
+      <c r="L1" s="36" t="s">
         <v>222</v>
-      </c>
-      <c r="L1" s="36" t="s">
-        <v>223</v>
       </c>
       <c r="M1" s="36" t="s">
         <v>17</v>
@@ -5593,18 +5829,18 @@
         <v>26</v>
       </c>
       <c r="W1" s="40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D2" s="17">
         <v>0</v>
@@ -5613,7 +5849,7 @@
         <v>25000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G2" s="2">
         <v>1</v>
@@ -5628,10 +5864,10 @@
         <v>1100</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>31</v>
@@ -5663,21 +5899,21 @@
         <v>5</v>
       </c>
       <c r="V2" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W2" s="27" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D3" s="17">
         <v>5000</v>
@@ -5686,7 +5922,7 @@
         <v>40000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G3" s="2">
         <v>1</v>
@@ -5701,10 +5937,10 @@
         <v>36000</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>31</v>
@@ -5735,21 +5971,21 @@
         <v>5</v>
       </c>
       <c r="V3" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W3" s="27" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>211</v>
       </c>
       <c r="D4" s="17">
         <v>5000</v>
@@ -5758,7 +5994,7 @@
         <v>100000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G4" s="2">
         <v>1</v>
@@ -5773,10 +6009,10 @@
         <v>100000</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>31</v>
@@ -5808,10 +6044,10 @@
         <v>5</v>
       </c>
       <c r="V4" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W4" s="27" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
@@ -5824,12 +6060,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5890,10 +6126,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="C2" s="2">
         <v>500</v>
@@ -5938,10 +6174,10 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="C3" s="2">
         <v>4000</v>
@@ -5986,10 +6222,10 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="C4" s="2">
         <v>37000</v>
@@ -6034,10 +6270,10 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="C5" s="2">
         <v>37000</v>
@@ -6077,7 +6313,7 @@
         <v>6</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -6088,7 +6324,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:O2"/>
   <sheetViews>
@@ -6154,10 +6390,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -6210,8 +6446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AH3"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AH6" sqref="AH6"/>
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA3" sqref="AA3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6245,7 +6481,7 @@
         <v>37</v>
       </c>
       <c r="F1" s="39" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G1" s="36" t="s">
         <v>38</v>
@@ -6406,7 +6642,7 @@
         <v>10000000000</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>56</v>
+        <v>268</v>
       </c>
       <c r="Y2" s="2" t="s">
         <v>31</v>
@@ -6442,13 +6678,13 @@
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="D3" s="2">
         <v>2</v>
@@ -6514,7 +6750,7 @@
         <v>10000000000</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>56</v>
+        <v>268</v>
       </c>
       <c r="Y3" s="2" t="s">
         <v>31</v>
@@ -6523,7 +6759,7 @@
         <v>0</v>
       </c>
       <c r="AA3" s="7">
-        <v>1.33</v>
+        <v>76.75</v>
       </c>
       <c r="AB3" s="2">
         <v>1</v>
@@ -6559,7 +6795,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
@@ -6620,10 +6856,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -6678,8 +6914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:V10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6703,7 +6939,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -6715,16 +6951,16 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>152</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>17</v>
@@ -6757,21 +6993,21 @@
         <v>26</v>
       </c>
       <c r="V1" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E2" s="17">
         <v>1</v>
@@ -6825,21 +7061,21 @@
       </c>
       <c r="U2" s="2"/>
       <c r="V2" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E3" s="17">
         <v>90000</v>
@@ -6893,21 +7129,21 @@
       </c>
       <c r="U3" s="2"/>
       <c r="V3" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E4" s="17">
         <v>730000</v>
@@ -6961,21 +7197,21 @@
       </c>
       <c r="U4" s="2"/>
       <c r="V4" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E5" s="17">
         <v>1</v>
@@ -7029,21 +7265,21 @@
       </c>
       <c r="U5" s="2"/>
       <c r="V5" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E6" s="17">
         <v>90000</v>
@@ -7097,21 +7333,21 @@
       </c>
       <c r="U6" s="2"/>
       <c r="V6" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E7" s="17">
         <v>730000</v>
@@ -7165,21 +7401,21 @@
       </c>
       <c r="U7" s="2"/>
       <c r="V7" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E8" s="17">
         <v>1</v>
@@ -7233,21 +7469,21 @@
       </c>
       <c r="U8" s="2"/>
       <c r="V8" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E9" s="17">
         <v>90000</v>
@@ -7301,21 +7537,21 @@
       </c>
       <c r="U9" s="2"/>
       <c r="V9" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E10" s="17">
         <v>730000</v>
@@ -7369,7 +7605,7 @@
       </c>
       <c r="U10" s="2"/>
       <c r="V10" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -7384,8 +7620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:W13"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="V3" sqref="V3"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="W21" sqref="N18:W21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7412,7 +7648,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="36" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E1" s="36" t="s">
         <v>3</v>
@@ -7424,19 +7660,19 @@
         <v>5</v>
       </c>
       <c r="H1" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="I1" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="I1" s="39" t="s">
-        <v>172</v>
-      </c>
       <c r="J1" s="39" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K1" s="39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L1" s="36" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M1" s="36" t="s">
         <v>17</v>
@@ -7469,21 +7705,21 @@
         <v>26</v>
       </c>
       <c r="W1" s="36" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B2" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>167</v>
-      </c>
       <c r="D2" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E2" s="17">
         <v>850000</v>
@@ -7537,24 +7773,24 @@
         <v>5</v>
       </c>
       <c r="V2" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="W2" s="31" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B3" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="C3" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="C3" s="23" t="s">
-        <v>167</v>
-      </c>
       <c r="D3" s="23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E3" s="17">
         <v>2600000</v>
@@ -7608,24 +7844,24 @@
         <v>5</v>
       </c>
       <c r="V3" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="W3" s="31" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B4" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>167</v>
-      </c>
       <c r="D4" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E4" s="24">
         <v>3500000</v>
@@ -7679,24 +7915,24 @@
         <v>5</v>
       </c>
       <c r="V4" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="W4" s="31" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B5" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>173</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>174</v>
       </c>
       <c r="E5" s="25">
         <v>180000</v>
@@ -7750,24 +7986,24 @@
         <v>5</v>
       </c>
       <c r="V5" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="W5" s="31" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B6" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>173</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>174</v>
       </c>
       <c r="E6" s="25">
         <v>280000</v>
@@ -7821,24 +8057,24 @@
         <v>5</v>
       </c>
       <c r="V6" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="W6" s="31" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B7" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>173</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>174</v>
       </c>
       <c r="E7" s="25">
         <v>900000</v>
@@ -7892,24 +8128,24 @@
         <v>5</v>
       </c>
       <c r="V7" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="W7" s="31" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E8" s="25">
         <v>1000000</v>
@@ -7963,24 +8199,24 @@
         <v>5</v>
       </c>
       <c r="V8" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="W8" s="27" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E9" s="25">
         <v>5000000</v>
@@ -8034,24 +8270,24 @@
         <v>5</v>
       </c>
       <c r="V9" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="W9" s="27" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E10" s="25">
         <v>1000000</v>
@@ -8105,24 +8341,24 @@
         <v>5</v>
       </c>
       <c r="V10" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="W10" s="27" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E11" s="25">
         <v>30000000</v>
@@ -8177,10 +8413,10 @@
         <v>6</v>
       </c>
       <c r="V11" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="W11" s="27" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
@@ -8234,16 +8470,16 @@
         <v>5</v>
       </c>
       <c r="G1" s="36" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H1" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="I1" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="J1" s="36" t="s">
         <v>188</v>
-      </c>
-      <c r="J1" s="36" t="s">
-        <v>189</v>
       </c>
       <c r="K1" s="36" t="s">
         <v>17</v>
@@ -8276,18 +8512,18 @@
         <v>26</v>
       </c>
       <c r="U1" s="40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D2" s="17">
         <v>1</v>
@@ -8305,10 +8541,10 @@
         <v>160</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>31</v>
@@ -8340,21 +8576,21 @@
         <v>5</v>
       </c>
       <c r="T2" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U2" s="27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D3" s="17">
         <v>80000</v>
@@ -8372,10 +8608,10 @@
         <v>160</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>31</v>
@@ -8406,21 +8642,21 @@
         <v>5</v>
       </c>
       <c r="T3" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U3" s="27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="C4" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D4" s="24">
         <v>100000</v>
@@ -8438,10 +8674,10 @@
         <v>160</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>31</v>
@@ -8473,21 +8709,21 @@
         <v>5</v>
       </c>
       <c r="T4" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U4" s="27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>235</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>236</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
@@ -8496,7 +8732,7 @@
         <v>500</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -8530,7 +8766,7 @@
         <v>5</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -8571,7 +8807,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D1" s="36" t="s">
         <v>2</v>
@@ -8586,16 +8822,16 @@
         <v>5</v>
       </c>
       <c r="H1" s="36" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I1" s="36" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J1" s="36" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K1" s="36" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L1" s="36" t="s">
         <v>17</v>
@@ -8628,21 +8864,21 @@
         <v>26</v>
       </c>
       <c r="V1" s="36" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C2" s="12">
         <v>0.47</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E2" s="17">
         <v>1050000</v>
@@ -8693,24 +8929,24 @@
         <v>5</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C3" s="11">
         <v>0.4</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E3" s="17">
         <v>1</v>
@@ -8766,21 +9002,21 @@
         <v>25</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C4" s="11">
         <v>0.4</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E4" s="17">
         <v>260000</v>
@@ -8836,21 +9072,21 @@
         <v>25</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C5" s="11">
         <v>0.4</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E5" s="17">
         <v>530000</v>
@@ -8906,21 +9142,21 @@
         <v>25</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C6" s="11">
         <v>0.4</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E6" s="17">
         <v>1050000</v>
@@ -8976,21 +9212,21 @@
         <v>25</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C7" s="11">
         <v>0.4</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E7" s="17">
         <v>2110000</v>
@@ -9045,7 +9281,7 @@
         <v>25</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
@@ -9067,7 +9303,7 @@
   <dimension ref="A1:AG7"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9103,22 +9339,22 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>129</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>17</v>
@@ -9151,48 +9387,48 @@
         <v>26</v>
       </c>
       <c r="W1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="AF1" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="AG1" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="D2" s="17">
         <v>0</v>
@@ -9282,18 +9518,18 @@
         <v>2.14</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="D3" s="17">
         <v>51150</v>
@@ -9383,18 +9619,18 @@
         <v>33</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D4" s="17">
         <v>0</v>
@@ -9484,18 +9720,18 @@
         <v>2.5</v>
       </c>
       <c r="AG4" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D5" s="17">
         <v>58150</v>
@@ -9585,18 +9821,18 @@
         <v>14</v>
       </c>
       <c r="AG5" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D6" s="17">
         <v>1337450</v>
@@ -9686,18 +9922,18 @@
         <v>431</v>
       </c>
       <c r="AG6" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D7" s="17">
         <v>116300</v>
@@ -9840,19 +10076,19 @@
         <v>5</v>
       </c>
       <c r="G1" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="I1" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="H1" s="36" t="s">
-        <v>128</v>
-      </c>
-      <c r="I1" s="36" t="s">
+      <c r="J1" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="K1" s="36" t="s">
         <v>135</v>
-      </c>
-      <c r="J1" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="K1" s="36" t="s">
-        <v>136</v>
       </c>
       <c r="L1" s="36" t="s">
         <v>17</v>
@@ -9885,18 +10121,18 @@
         <v>26</v>
       </c>
       <c r="V1" s="40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D2" s="17">
         <v>1</v>
@@ -9950,21 +10186,21 @@
         <v>15</v>
       </c>
       <c r="U2" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V2" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D3" s="17">
         <v>10000000</v>
@@ -10018,21 +10254,21 @@
         <v>15</v>
       </c>
       <c r="U3" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V3" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D4" s="17">
         <v>1</v>
@@ -10089,18 +10325,18 @@
         <v>24</v>
       </c>
       <c r="V4" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D5" s="17">
         <v>10000000</v>
@@ -10154,10 +10390,10 @@
         <v>15</v>
       </c>
       <c r="U5" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V5" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">

--- a/cea/databases/SG/components/CONVERSION.xlsx
+++ b/cea/databases/SG/components/CONVERSION.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gnappi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CEATesting\THESIS_TEST_CASES_RENEWABLES\Open_High_Rise\inputs\technology\components\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9CFF043-CDE7-4A40-B056-D1B371E28868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E23BA9A1-271E-42A7-96C8-7A0FCCFD836F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1590" yWindow="2895" windowWidth="25830" windowHeight="12315" tabRatio="1000" firstSheet="6" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PHOTOVOLTAIC_PANELS" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="265">
   <si>
     <t>Description</t>
   </si>
@@ -153,18 +153,6 @@
   </si>
   <si>
     <t>IR_%, capacity</t>
-  </si>
-  <si>
-    <t>generic polycrystalline panel</t>
-  </si>
-  <si>
-    <t>PV2</t>
-  </si>
-  <si>
-    <t>generic amorphous silicon panel</t>
-  </si>
-  <si>
-    <t>PV3</t>
   </si>
   <si>
     <t>module_area_m2</t>
@@ -1687,14 +1675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB10"/>
+  <dimension ref="A1:AB4"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B1" sqref="B1"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="Q11" sqref="Q11"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1751,7 +1735,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="36" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="L1" s="36" t="s">
         <v>10</v>
@@ -2060,522 +2044,6 @@
         <v>5</v>
       </c>
       <c r="AB4" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2">
-        <v>10000</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="2">
-        <v>1</v>
-      </c>
-      <c r="H5" s="2">
-        <v>2E-3</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="J5" s="2">
-        <v>43.9</v>
-      </c>
-      <c r="K5" s="2">
-        <v>30</v>
-      </c>
-      <c r="L5" s="2">
-        <v>4.4000000000000003E-3</v>
-      </c>
-      <c r="M5" s="3">
-        <v>0.91809300000000005</v>
-      </c>
-      <c r="N5" s="3">
-        <v>8.6257E-2</v>
-      </c>
-      <c r="O5" s="3">
-        <v>-2.4459000000000002E-2</v>
-      </c>
-      <c r="P5" s="3">
-        <v>2.8159999999999999E-3</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>-1.26E-4</v>
-      </c>
-      <c r="R5" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="T5" s="2">
-        <v>0</v>
-      </c>
-      <c r="U5" s="7">
-        <v>0.89</v>
-      </c>
-      <c r="V5" s="2">
-        <v>1</v>
-      </c>
-      <c r="W5" s="2">
-        <v>0</v>
-      </c>
-      <c r="X5" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z5" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA5" s="2">
-        <v>5</v>
-      </c>
-      <c r="AB5" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="2">
-        <v>10000</v>
-      </c>
-      <c r="E6" s="2">
-        <v>200000</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="2">
-        <v>1</v>
-      </c>
-      <c r="H6" s="2">
-        <v>2E-3</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="J6" s="2">
-        <v>43.9</v>
-      </c>
-      <c r="K6" s="2">
-        <v>30</v>
-      </c>
-      <c r="L6" s="2">
-        <v>4.4000000000000003E-3</v>
-      </c>
-      <c r="M6" s="3">
-        <v>0.91809300000000005</v>
-      </c>
-      <c r="N6" s="3">
-        <v>8.6257E-2</v>
-      </c>
-      <c r="O6" s="3">
-        <v>-2.4459000000000002E-2</v>
-      </c>
-      <c r="P6" s="3">
-        <v>2.8159999999999999E-3</v>
-      </c>
-      <c r="Q6" s="3">
-        <v>-1.26E-4</v>
-      </c>
-      <c r="R6" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="S6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="T6" s="2">
-        <v>0</v>
-      </c>
-      <c r="U6" s="7">
-        <v>0.54400000000000004</v>
-      </c>
-      <c r="V6" s="2">
-        <v>1</v>
-      </c>
-      <c r="W6" s="2">
-        <v>0</v>
-      </c>
-      <c r="X6" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z6" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="2">
-        <v>5</v>
-      </c>
-      <c r="AB6" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="2">
-        <v>200000</v>
-      </c>
-      <c r="E7" s="5">
-        <v>10000000000</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="2">
-        <v>1</v>
-      </c>
-      <c r="H7" s="2">
-        <v>2E-3</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="J7" s="2">
-        <v>43.9</v>
-      </c>
-      <c r="K7" s="2">
-        <v>30</v>
-      </c>
-      <c r="L7" s="2">
-        <v>4.4000000000000003E-3</v>
-      </c>
-      <c r="M7" s="3">
-        <v>0.91809300000000005</v>
-      </c>
-      <c r="N7" s="3">
-        <v>8.6257E-2</v>
-      </c>
-      <c r="O7" s="3">
-        <v>-2.4459000000000002E-2</v>
-      </c>
-      <c r="P7" s="3">
-        <v>2.8159999999999999E-3</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>-1.26E-4</v>
-      </c>
-      <c r="R7" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="S7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="T7" s="2">
-        <v>0</v>
-      </c>
-      <c r="U7" s="7">
-        <v>0.54400000000000004</v>
-      </c>
-      <c r="V7" s="2">
-        <v>1</v>
-      </c>
-      <c r="W7" s="2">
-        <v>0</v>
-      </c>
-      <c r="X7" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z7" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA7" s="2">
-        <v>5</v>
-      </c>
-      <c r="AB7" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2">
-        <v>10000</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="2">
-        <v>1</v>
-      </c>
-      <c r="H8" s="2">
-        <v>2E-3</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0.08</v>
-      </c>
-      <c r="J8" s="2">
-        <v>38.1</v>
-      </c>
-      <c r="K8" s="2">
-        <v>30</v>
-      </c>
-      <c r="L8" s="2">
-        <v>2.5999999999999999E-3</v>
-      </c>
-      <c r="M8" s="3">
-        <v>1.10044085</v>
-      </c>
-      <c r="N8" s="3">
-        <v>-6.1423230000000002E-2</v>
-      </c>
-      <c r="O8" s="3">
-        <v>-4.4273200000000002E-3</v>
-      </c>
-      <c r="P8" s="3">
-        <v>6.3150399999999996E-4</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>-1.9184000000000001E-5</v>
-      </c>
-      <c r="R8" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="T8" s="2">
-        <v>0</v>
-      </c>
-      <c r="U8" s="7">
-        <v>0.89</v>
-      </c>
-      <c r="V8" s="2">
-        <v>1</v>
-      </c>
-      <c r="W8" s="2">
-        <v>0</v>
-      </c>
-      <c r="X8" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z8" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA8" s="2">
-        <v>5</v>
-      </c>
-      <c r="AB8" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="2">
-        <v>10000</v>
-      </c>
-      <c r="E9" s="2">
-        <v>200000</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="2">
-        <v>1</v>
-      </c>
-      <c r="H9" s="2">
-        <v>2E-3</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0.08</v>
-      </c>
-      <c r="J9" s="2">
-        <v>38.1</v>
-      </c>
-      <c r="K9" s="2">
-        <v>30</v>
-      </c>
-      <c r="L9" s="2">
-        <v>2.5999999999999999E-3</v>
-      </c>
-      <c r="M9" s="3">
-        <v>1.10044085</v>
-      </c>
-      <c r="N9" s="3">
-        <v>-6.1423230000000002E-2</v>
-      </c>
-      <c r="O9" s="3">
-        <v>-4.4273200000000002E-3</v>
-      </c>
-      <c r="P9" s="3">
-        <v>6.3150399999999996E-4</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>-1.9184000000000001E-5</v>
-      </c>
-      <c r="R9" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="T9" s="2">
-        <v>0</v>
-      </c>
-      <c r="U9" s="7">
-        <v>0.54400000000000004</v>
-      </c>
-      <c r="V9" s="2">
-        <v>1</v>
-      </c>
-      <c r="W9" s="2">
-        <v>0</v>
-      </c>
-      <c r="X9" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z9" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA9" s="2">
-        <v>5</v>
-      </c>
-      <c r="AB9" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="2">
-        <v>200000</v>
-      </c>
-      <c r="E10" s="5">
-        <v>10000000000</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="2">
-        <v>1</v>
-      </c>
-      <c r="H10" s="2">
-        <v>2E-3</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0.08</v>
-      </c>
-      <c r="J10" s="2">
-        <v>38.1</v>
-      </c>
-      <c r="K10" s="2">
-        <v>30</v>
-      </c>
-      <c r="L10" s="2">
-        <v>2.5999999999999999E-3</v>
-      </c>
-      <c r="M10" s="3">
-        <v>1.10044085</v>
-      </c>
-      <c r="N10" s="3">
-        <v>-6.1423230000000002E-2</v>
-      </c>
-      <c r="O10" s="3">
-        <v>-4.4273200000000002E-3</v>
-      </c>
-      <c r="P10" s="3">
-        <v>6.3150399999999996E-4</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>-1.9184000000000001E-5</v>
-      </c>
-      <c r="R10" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="S10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="T10" s="2">
-        <v>0</v>
-      </c>
-      <c r="U10" s="7">
-        <v>0.54400000000000004</v>
-      </c>
-      <c r="V10" s="2">
-        <v>1</v>
-      </c>
-      <c r="W10" s="2">
-        <v>0</v>
-      </c>
-      <c r="X10" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z10" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA10" s="2">
-        <v>5</v>
-      </c>
-      <c r="AB10" s="2" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2622,25 +2090,25 @@
         <v>5</v>
       </c>
       <c r="G1" s="36" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H1" s="36" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="I1" s="36" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="J1" s="36" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="K1" s="36" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="L1" s="36" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="M1" s="36" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="N1" s="36" t="s">
         <v>17</v>
@@ -2673,18 +2141,18 @@
         <v>26</v>
       </c>
       <c r="X1" s="40" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D2" s="17">
         <v>1</v>
@@ -2708,13 +2176,13 @@
         <v>27</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>31</v>
@@ -2744,21 +2212,21 @@
         <v>1</v>
       </c>
       <c r="W2" s="11" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="X2" s="27" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D3" s="17">
         <v>1</v>
@@ -2782,13 +2250,13 @@
         <v>28</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>31</v>
@@ -2818,21 +2286,21 @@
         <v>1</v>
       </c>
       <c r="W3" s="11" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="X3" s="27" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D4" s="17">
         <v>1</v>
@@ -2856,13 +2324,13 @@
         <v>27</v>
       </c>
       <c r="K4" s="43" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>31</v>
@@ -2892,10 +2360,10 @@
         <v>1</v>
       </c>
       <c r="W4" s="11" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="X4" s="27" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -2937,22 +2405,22 @@
         <v>5</v>
       </c>
       <c r="G1" s="36" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="H1" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>215</v>
+      </c>
+      <c r="J1" s="36" t="s">
+        <v>214</v>
+      </c>
+      <c r="K1" s="36" t="s">
         <v>217</v>
       </c>
-      <c r="I1" s="36" t="s">
-        <v>219</v>
-      </c>
-      <c r="J1" s="36" t="s">
+      <c r="L1" s="36" t="s">
         <v>218</v>
-      </c>
-      <c r="K1" s="36" t="s">
-        <v>221</v>
-      </c>
-      <c r="L1" s="36" t="s">
-        <v>222</v>
       </c>
       <c r="M1" s="36" t="s">
         <v>17</v>
@@ -2985,18 +2453,18 @@
         <v>26</v>
       </c>
       <c r="W1" s="40" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D2" s="17">
         <v>0</v>
@@ -3005,7 +2473,7 @@
         <v>100000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G2" s="2">
         <v>1</v>
@@ -3020,10 +2488,10 @@
         <v>1500</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>31</v>
@@ -3053,10 +2521,10 @@
         <v>5</v>
       </c>
       <c r="V2" s="14" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="W2" s="27" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -3125,15 +2593,15 @@
         <v>25</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C2" s="2">
         <v>1000</v>
@@ -3176,10 +2644,10 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
@@ -3219,7 +2687,7 @@
         <v>5</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -3272,16 +2740,16 @@
         <v>5</v>
       </c>
       <c r="G1" s="36" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H1" s="36" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="I1" s="36" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="J1" s="36" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="K1" s="36" t="s">
         <v>17</v>
@@ -3314,18 +2782,18 @@
         <v>26</v>
       </c>
       <c r="U1" s="36" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="D2" s="17">
         <v>0</v>
@@ -3376,21 +2844,21 @@
         <v>5</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D3" s="17">
         <v>0</v>
@@ -3441,10 +2909,10 @@
         <v>5</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
@@ -3505,22 +2973,22 @@
         <v>5</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="H1" s="40" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="I1" s="40" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="J1" s="40" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="K1" s="40" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="L1" s="40" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="M1" s="38" t="s">
         <v>17</v>
@@ -3553,18 +3021,18 @@
         <v>26</v>
       </c>
       <c r="W1" s="40" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D2" s="17">
         <v>0</v>
@@ -3588,10 +3056,10 @@
         <v>27</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="M2" s="19" t="s">
         <v>31</v>
@@ -3623,18 +3091,18 @@
       </c>
       <c r="V2" s="14"/>
       <c r="W2" s="27" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D3" s="17">
         <v>40000</v>
@@ -3658,10 +3126,10 @@
         <v>27</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="M3" s="19" t="s">
         <v>31</v>
@@ -3693,18 +3161,18 @@
       </c>
       <c r="V3" s="14"/>
       <c r="W3" s="27" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D4" s="17">
         <v>0</v>
@@ -3728,10 +3196,10 @@
         <v>27</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="M4" s="19" t="s">
         <v>31</v>
@@ -3764,18 +3232,18 @@
       </c>
       <c r="V4" s="14"/>
       <c r="W4" s="27" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D5" s="17">
         <v>21000</v>
@@ -3799,10 +3267,10 @@
         <v>27</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="M5" s="19" t="s">
         <v>31</v>
@@ -3835,18 +3303,18 @@
       </c>
       <c r="V5" s="14"/>
       <c r="W5" s="27" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D6" s="17">
         <v>40000</v>
@@ -3870,10 +3338,10 @@
         <v>27</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="M6" s="19" t="s">
         <v>31</v>
@@ -3906,18 +3374,18 @@
       </c>
       <c r="V6" s="14"/>
       <c r="W6" s="27" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D7" s="17">
         <v>75000</v>
@@ -3941,10 +3409,10 @@
         <v>27</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="M7" s="19" t="s">
         <v>31</v>
@@ -3977,18 +3445,18 @@
       </c>
       <c r="V7" s="14"/>
       <c r="W7" s="27" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D8" s="17">
         <v>0</v>
@@ -4012,10 +3480,10 @@
         <v>35</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="M8" s="19" t="s">
         <v>31</v>
@@ -4046,21 +3514,21 @@
         <v>6</v>
       </c>
       <c r="V8" s="14" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="W8" s="27" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D9" s="17">
         <v>21000</v>
@@ -4084,10 +3552,10 @@
         <v>35</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="M9" s="19" t="s">
         <v>31</v>
@@ -4118,21 +3586,21 @@
         <v>6</v>
       </c>
       <c r="V9" s="14" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="W9" s="27" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D10" s="17">
         <v>40000</v>
@@ -4156,10 +3624,10 @@
         <v>35</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="M10" s="19" t="s">
         <v>31</v>
@@ -4190,21 +3658,21 @@
         <v>6</v>
       </c>
       <c r="V10" s="14" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="W10" s="27" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D11" s="17">
         <v>75000</v>
@@ -4228,10 +3696,10 @@
         <v>35</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="M11" s="19" t="s">
         <v>31</v>
@@ -4262,10 +3730,10 @@
         <v>6</v>
       </c>
       <c r="V11" s="14" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="W11" s="27" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -4280,7 +3748,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:AB7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -4945,13 +4413,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="36" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G1" s="36" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="H1" s="36" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I1" s="36" t="s">
         <v>17</v>
@@ -4975,7 +4443,7 @@
         <v>23</v>
       </c>
       <c r="P1" s="36" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="Q1" s="36" t="s">
         <v>24</v>
@@ -4984,31 +4452,31 @@
         <v>25</v>
       </c>
       <c r="S1" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="T1" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="U1" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="V1" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="W1" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="T1" s="36" t="s">
+      <c r="X1" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="U1" s="36" t="s">
+      <c r="Y1" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="V1" s="36" t="s">
+      <c r="Z1" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="W1" s="36" t="s">
+      <c r="AA1" s="36" t="s">
         <v>102</v>
-      </c>
-      <c r="X1" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="Y1" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="Z1" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="AA1" s="36" t="s">
-        <v>106</v>
       </c>
       <c r="AB1" s="36" t="s">
         <v>26</v>
@@ -5016,13 +4484,13 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D2" s="17">
         <v>0</v>
@@ -5037,7 +4505,7 @@
         <v>0.9</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="I2" s="11" t="s">
         <v>31</v>
@@ -5097,18 +4565,18 @@
         <v>0.96</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D3" s="17">
         <v>0</v>
@@ -5123,7 +4591,7 @@
         <v>0.9</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>31</v>
@@ -5183,18 +4651,18 @@
         <v>0.96</v>
       </c>
       <c r="AB3" s="11" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D4" s="17">
         <v>0</v>
@@ -5209,7 +4677,7 @@
         <v>0.9</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="I4" s="11" t="s">
         <v>31</v>
@@ -5269,18 +4737,18 @@
         <v>0.96</v>
       </c>
       <c r="AB4" s="11" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D5" s="17">
         <v>0</v>
@@ -5295,7 +4763,7 @@
         <v>0.9</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="I5" s="11" t="s">
         <v>31</v>
@@ -5355,18 +4823,18 @@
         <v>0.96</v>
       </c>
       <c r="AB5" s="11" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D6" s="17">
         <v>0</v>
@@ -5381,7 +4849,7 @@
         <v>0.9</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="I6" s="11" t="s">
         <v>31</v>
@@ -5441,18 +4909,18 @@
         <v>0.96</v>
       </c>
       <c r="AB6" s="11" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D7" s="17">
         <v>0</v>
@@ -5467,7 +4935,7 @@
         <v>0.9</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="I7" s="11" t="s">
         <v>31</v>
@@ -5527,7 +4995,7 @@
         <v>0.96</v>
       </c>
       <c r="AB7" s="11" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -5577,10 +5045,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="36" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G1" s="36" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H1" s="36" t="s">
         <v>17</v>
@@ -5604,7 +5072,7 @@
         <v>23</v>
       </c>
       <c r="O1" s="36" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="P1" s="36" t="s">
         <v>24</v>
@@ -5613,34 +5081,34 @@
         <v>25</v>
       </c>
       <c r="R1" s="36" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="S1" s="36" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="T1" s="36" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="U1" s="36" t="s">
+        <v>256</v>
+      </c>
+      <c r="V1" s="36" t="s">
+        <v>257</v>
+      </c>
+      <c r="W1" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="X1" s="36" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y1" s="36" t="s">
         <v>260</v>
       </c>
-      <c r="V1" s="36" t="s">
+      <c r="Z1" s="41" t="s">
         <v>261</v>
       </c>
-      <c r="W1" s="36" t="s">
-        <v>267</v>
-      </c>
-      <c r="X1" s="36" t="s">
-        <v>263</v>
-      </c>
-      <c r="Y1" s="36" t="s">
-        <v>264</v>
-      </c>
-      <c r="Z1" s="41" t="s">
-        <v>265</v>
-      </c>
       <c r="AA1" s="41" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="AB1" s="36" t="s">
         <v>26</v>
@@ -5648,13 +5116,13 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D2" s="17">
         <v>0</v>
@@ -5666,7 +5134,7 @@
         <v>0.87</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="H2" s="11" t="s">
         <v>31</v>
@@ -5729,7 +5197,7 @@
         <v>1250000</v>
       </c>
       <c r="AB2" s="19" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -5781,22 +5249,22 @@
         <v>5</v>
       </c>
       <c r="G1" s="36" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="H1" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>215</v>
+      </c>
+      <c r="J1" s="36" t="s">
+        <v>214</v>
+      </c>
+      <c r="K1" s="36" t="s">
         <v>217</v>
       </c>
-      <c r="I1" s="36" t="s">
-        <v>219</v>
-      </c>
-      <c r="J1" s="36" t="s">
+      <c r="L1" s="36" t="s">
         <v>218</v>
-      </c>
-      <c r="K1" s="36" t="s">
-        <v>221</v>
-      </c>
-      <c r="L1" s="36" t="s">
-        <v>222</v>
       </c>
       <c r="M1" s="36" t="s">
         <v>17</v>
@@ -5829,18 +5297,18 @@
         <v>26</v>
       </c>
       <c r="W1" s="40" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D2" s="17">
         <v>0</v>
@@ -5849,7 +5317,7 @@
         <v>25000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G2" s="2">
         <v>1</v>
@@ -5864,10 +5332,10 @@
         <v>1100</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>31</v>
@@ -5899,21 +5367,21 @@
         <v>5</v>
       </c>
       <c r="V2" s="14" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="W2" s="27" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>212</v>
       </c>
       <c r="D3" s="17">
         <v>5000</v>
@@ -5922,7 +5390,7 @@
         <v>40000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G3" s="2">
         <v>1</v>
@@ -5937,10 +5405,10 @@
         <v>36000</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>31</v>
@@ -5971,21 +5439,21 @@
         <v>5</v>
       </c>
       <c r="V3" s="14" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="W3" s="27" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D4" s="17">
         <v>5000</v>
@@ -5994,7 +5462,7 @@
         <v>100000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G4" s="2">
         <v>1</v>
@@ -6009,10 +5477,10 @@
         <v>100000</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>31</v>
@@ -6044,10 +5512,10 @@
         <v>5</v>
       </c>
       <c r="V4" s="14" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="W4" s="27" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
@@ -6126,10 +5594,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C2" s="2">
         <v>500</v>
@@ -6174,10 +5642,10 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C3" s="2">
         <v>4000</v>
@@ -6222,10 +5690,10 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C4" s="2">
         <v>37000</v>
@@ -6270,10 +5738,10 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C5" s="2">
         <v>37000</v>
@@ -6313,7 +5781,7 @@
         <v>6</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -6390,10 +5858,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -6478,55 +5946,55 @@
         <v>6</v>
       </c>
       <c r="E1" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="39" t="s">
+        <v>249</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="39" t="s">
-        <v>253</v>
-      </c>
-      <c r="G1" s="36" t="s">
+      <c r="K1" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="L1" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="M1" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="N1" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="O1" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="36" t="s">
+      <c r="P1" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="M1" s="36" t="s">
+      <c r="Q1" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="N1" s="41" t="s">
+      <c r="R1" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="O1" s="39" t="s">
+      <c r="S1" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="P1" s="39" t="s">
+      <c r="T1" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="Q1" s="39" t="s">
+      <c r="U1" s="39" t="s">
         <v>48</v>
-      </c>
-      <c r="R1" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="S1" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="T1" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="U1" s="39" t="s">
-        <v>52</v>
       </c>
       <c r="V1" s="36" t="s">
         <v>3</v>
@@ -6570,13 +6038,13 @@
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D2" s="2">
         <v>2</v>
@@ -6642,7 +6110,7 @@
         <v>10000000000</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="Y2" s="2" t="s">
         <v>31</v>
@@ -6678,13 +6146,13 @@
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D3" s="2">
         <v>2</v>
@@ -6750,7 +6218,7 @@
         <v>10000000000</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="Y3" s="2" t="s">
         <v>31</v>
@@ -6856,10 +6324,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -6939,7 +6407,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -6951,16 +6419,16 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>17</v>
@@ -6993,21 +6461,21 @@
         <v>26</v>
       </c>
       <c r="V1" s="16" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>160</v>
       </c>
       <c r="E2" s="17">
         <v>1</v>
@@ -7061,21 +6529,21 @@
       </c>
       <c r="U2" s="2"/>
       <c r="V2" s="11" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>160</v>
       </c>
       <c r="E3" s="17">
         <v>90000</v>
@@ -7129,21 +6597,21 @@
       </c>
       <c r="U3" s="2"/>
       <c r="V3" s="11" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>160</v>
       </c>
       <c r="E4" s="17">
         <v>730000</v>
@@ -7197,21 +6665,21 @@
       </c>
       <c r="U4" s="2"/>
       <c r="V4" s="11" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E5" s="17">
         <v>1</v>
@@ -7265,21 +6733,21 @@
       </c>
       <c r="U5" s="2"/>
       <c r="V5" s="11" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E6" s="17">
         <v>90000</v>
@@ -7333,21 +6801,21 @@
       </c>
       <c r="U6" s="2"/>
       <c r="V6" s="11" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E7" s="17">
         <v>730000</v>
@@ -7401,21 +6869,21 @@
       </c>
       <c r="U7" s="2"/>
       <c r="V7" s="11" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E8" s="17">
         <v>1</v>
@@ -7469,21 +6937,21 @@
       </c>
       <c r="U8" s="2"/>
       <c r="V8" s="11" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E9" s="17">
         <v>90000</v>
@@ -7537,21 +7005,21 @@
       </c>
       <c r="U9" s="2"/>
       <c r="V9" s="11" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E10" s="17">
         <v>730000</v>
@@ -7605,7 +7073,7 @@
       </c>
       <c r="U10" s="2"/>
       <c r="V10" s="11" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -7648,7 +7116,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="36" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E1" s="36" t="s">
         <v>3</v>
@@ -7660,19 +7128,19 @@
         <v>5</v>
       </c>
       <c r="H1" s="39" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="I1" s="39" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="J1" s="39" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K1" s="39" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="L1" s="36" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="M1" s="36" t="s">
         <v>17</v>
@@ -7705,21 +7173,21 @@
         <v>26</v>
       </c>
       <c r="W1" s="36" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E2" s="17">
         <v>850000</v>
@@ -7773,24 +7241,24 @@
         <v>5</v>
       </c>
       <c r="V2" s="12" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="W2" s="31" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E3" s="17">
         <v>2600000</v>
@@ -7844,24 +7312,24 @@
         <v>5</v>
       </c>
       <c r="V3" s="12" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="W3" s="31" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E4" s="24">
         <v>3500000</v>
@@ -7915,24 +7383,24 @@
         <v>5</v>
       </c>
       <c r="V4" s="11" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="W4" s="31" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E5" s="25">
         <v>180000</v>
@@ -7986,24 +7454,24 @@
         <v>5</v>
       </c>
       <c r="V5" s="11" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="W5" s="31" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E6" s="25">
         <v>280000</v>
@@ -8057,24 +7525,24 @@
         <v>5</v>
       </c>
       <c r="V6" s="11" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="W6" s="31" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E7" s="25">
         <v>900000</v>
@@ -8128,24 +7596,24 @@
         <v>5</v>
       </c>
       <c r="V7" s="11" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="W7" s="31" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E8" s="25">
         <v>1000000</v>
@@ -8199,24 +7667,24 @@
         <v>5</v>
       </c>
       <c r="V8" s="11" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="W8" s="27" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E9" s="25">
         <v>5000000</v>
@@ -8270,24 +7738,24 @@
         <v>5</v>
       </c>
       <c r="V9" s="11" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="W9" s="27" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E10" s="25">
         <v>1000000</v>
@@ -8341,24 +7809,24 @@
         <v>5</v>
       </c>
       <c r="V10" s="11" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="W10" s="27" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E11" s="25">
         <v>30000000</v>
@@ -8413,10 +7881,10 @@
         <v>6</v>
       </c>
       <c r="V11" s="11" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="W11" s="27" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
@@ -8470,16 +7938,16 @@
         <v>5</v>
       </c>
       <c r="G1" s="36" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="H1" s="36" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="I1" s="36" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="J1" s="36" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="K1" s="36" t="s">
         <v>17</v>
@@ -8512,18 +7980,18 @@
         <v>26</v>
       </c>
       <c r="U1" s="40" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D2" s="17">
         <v>1</v>
@@ -8541,10 +8009,10 @@
         <v>160</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>31</v>
@@ -8576,21 +8044,21 @@
         <v>5</v>
       </c>
       <c r="T2" s="11" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="U2" s="27" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D3" s="17">
         <v>80000</v>
@@ -8608,10 +8076,10 @@
         <v>160</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>31</v>
@@ -8642,21 +8110,21 @@
         <v>5</v>
       </c>
       <c r="T3" s="11" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="U3" s="27" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D4" s="24">
         <v>100000</v>
@@ -8674,10 +8142,10 @@
         <v>160</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>31</v>
@@ -8709,21 +8177,21 @@
         <v>5</v>
       </c>
       <c r="T4" s="11" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="U4" s="27" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
@@ -8732,7 +8200,7 @@
         <v>500</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -8766,7 +8234,7 @@
         <v>5</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -8807,7 +8275,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D1" s="36" t="s">
         <v>2</v>
@@ -8822,16 +8290,16 @@
         <v>5</v>
       </c>
       <c r="H1" s="36" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="I1" s="36" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="J1" s="36" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="K1" s="36" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="L1" s="36" t="s">
         <v>17</v>
@@ -8864,21 +8332,21 @@
         <v>26</v>
       </c>
       <c r="V1" s="36" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C2" s="12">
         <v>0.47</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E2" s="17">
         <v>1050000</v>
@@ -8929,24 +8397,24 @@
         <v>5</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C3" s="11">
         <v>0.4</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E3" s="17">
         <v>1</v>
@@ -9002,21 +8470,21 @@
         <v>25</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C4" s="11">
         <v>0.4</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E4" s="17">
         <v>260000</v>
@@ -9072,21 +8540,21 @@
         <v>25</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C5" s="11">
         <v>0.4</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E5" s="17">
         <v>530000</v>
@@ -9142,21 +8610,21 @@
         <v>25</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C6" s="11">
         <v>0.4</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E6" s="17">
         <v>1050000</v>
@@ -9212,21 +8680,21 @@
         <v>25</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C7" s="11">
         <v>0.4</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E7" s="17">
         <v>2110000</v>
@@ -9281,7 +8749,7 @@
         <v>25</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
@@ -9339,22 +8807,22 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>17</v>
@@ -9387,48 +8855,48 @@
         <v>26</v>
       </c>
       <c r="W1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AC1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="AG1" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D2" s="17">
         <v>0</v>
@@ -9518,18 +8986,18 @@
         <v>2.14</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D3" s="17">
         <v>51150</v>
@@ -9619,18 +9087,18 @@
         <v>33</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D4" s="17">
         <v>0</v>
@@ -9720,18 +9188,18 @@
         <v>2.5</v>
       </c>
       <c r="AG4" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D5" s="17">
         <v>58150</v>
@@ -9821,18 +9289,18 @@
         <v>14</v>
       </c>
       <c r="AG5" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D6" s="17">
         <v>1337450</v>
@@ -9922,18 +9390,18 @@
         <v>431</v>
       </c>
       <c r="AG6" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D7" s="17">
         <v>116300</v>
@@ -10076,19 +9544,19 @@
         <v>5</v>
       </c>
       <c r="G1" s="36" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H1" s="36" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="I1" s="36" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="J1" s="36" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="K1" s="36" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="L1" s="36" t="s">
         <v>17</v>
@@ -10121,18 +9589,18 @@
         <v>26</v>
       </c>
       <c r="V1" s="40" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D2" s="17">
         <v>1</v>
@@ -10186,21 +9654,21 @@
         <v>15</v>
       </c>
       <c r="U2" s="14" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="V2" s="11" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D3" s="17">
         <v>10000000</v>
@@ -10254,21 +9722,21 @@
         <v>15</v>
       </c>
       <c r="U3" s="14" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="V3" s="11" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D4" s="17">
         <v>1</v>
@@ -10325,18 +9793,18 @@
         <v>24</v>
       </c>
       <c r="V4" s="11" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D5" s="17">
         <v>10000000</v>
@@ -10390,10 +9858,10 @@
         <v>15</v>
       </c>
       <c r="U5" s="14" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="V5" s="11" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">

--- a/cea/databases/SG/components/CONVERSION.xlsx
+++ b/cea/databases/SG/components/CONVERSION.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jimeno/Documents/GitHub/CityEnergyAnalyst/cea/databases/SG/components/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D772EF-BFF8-0349-AAD7-E3C33F441214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F7F7C11-3402-F841-AA7E-AB3A50247CB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16680" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16680" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PV" sheetId="3" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="151">
   <si>
     <t>Description</t>
   </si>
@@ -501,6 +501,9 @@
   </si>
   <si>
     <t>0</t>
+  </si>
+  <si>
+    <t>HP3</t>
   </si>
 </sst>
 </file>
@@ -2499,10 +2502,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2703,6 +2706,52 @@
       <c r="O4" s="2" t="s">
         <v>107</v>
       </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4">
+        <v>10000000000</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <f>70.8/0.902</f>
+        <v>78.492239467849217</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.49</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>20</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1</v>
+      </c>
+      <c r="N5" s="2">
+        <v>5</v>
+      </c>
+      <c r="O5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5418,7 +5467,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/cea/databases/SG/components/CONVERSION.xlsx
+++ b/cea/databases/SG/components/CONVERSION.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nimathia\Documents\GitHub\CityEnergyAnalyst\CityEnergyAnalyst\cea\databases\SG\components\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmccarty/GitHub/CityEnergyAnalyst/cea/databases/SG/components/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{571D4598-416B-4A3A-9A34-92B17E6D52F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6024249-AA01-9F43-902B-E176A80A5473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" tabRatio="993" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="22620" windowHeight="13500" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PHOTOVOLTAIC_PANELS" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="251">
   <si>
     <t>Description</t>
   </si>
@@ -134,9 +134,6 @@
     <t>assumption</t>
   </si>
   <si>
-    <t>generic monocrystalline panel</t>
-  </si>
-  <si>
     <t>PV1</t>
   </si>
   <si>
@@ -149,18 +146,9 @@
     <t>USD-2015</t>
   </si>
   <si>
-    <t>IR_%, capacity</t>
-  </si>
-  <si>
-    <t>generic polycrystalline panel</t>
-  </si>
-  <si>
     <t>PV2</t>
   </si>
   <si>
-    <t>generic amorphous silicon panel</t>
-  </si>
-  <si>
     <t>PV3</t>
   </si>
   <si>
@@ -780,6 +768,42 @@
   </si>
   <si>
     <t>ASHRAE 90.1/2019 - minimum efficiency rating at full load; https://www.esmagazine.com/articles/82307-basics-for-absorption-chillers - capacity-specific mass flow rates</t>
+  </si>
+  <si>
+    <t>capacity_Wp</t>
+  </si>
+  <si>
+    <t>primar_energy_kWh_m2</t>
+  </si>
+  <si>
+    <t>cost_facade_euro_m2</t>
+  </si>
+  <si>
+    <t>cost_roof_euro_m2</t>
+  </si>
+  <si>
+    <t>module_embodied_kgco2m2</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>typical csi 2024 (BIPV)</t>
+  </si>
+  <si>
+    <t>jmccarty CACTUS</t>
+  </si>
+  <si>
+    <t>typical mcsi 2024 (BIPV)</t>
+  </si>
+  <si>
+    <t>typical cdte 2024 (BIPV)</t>
+  </si>
+  <si>
+    <t>typical cigs 2024 (BIPV)</t>
+  </si>
+  <si>
+    <t>PV4</t>
   </si>
 </sst>
 </file>
@@ -1126,7 +1150,7 @@
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Percent" xfId="4" builtinId="5"/>
+    <cellStyle name="Per cent" xfId="4" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1560,35 +1584,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA10"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:AH5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.6328125" customWidth="1"/>
-    <col min="4" max="4" width="15.6328125" customWidth="1"/>
+    <col min="1" max="1" width="38.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
     <col min="5" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="14.453125" customWidth="1"/>
-    <col min="8" max="8" width="9.36328125" customWidth="1"/>
-    <col min="9" max="9" width="8.453125" customWidth="1"/>
-    <col min="10" max="10" width="8.6328125" customWidth="1"/>
-    <col min="12" max="12" width="16.453125" customWidth="1"/>
-    <col min="13" max="13" width="18.453125" customWidth="1"/>
-    <col min="14" max="14" width="16.36328125" customWidth="1"/>
-    <col min="15" max="15" width="14.6328125" customWidth="1"/>
-    <col min="16" max="17" width="12.453125" customWidth="1"/>
-    <col min="19" max="19" width="10.453125" customWidth="1"/>
-    <col min="20" max="20" width="13.6328125" customWidth="1"/>
-    <col min="21" max="23" width="10.453125" customWidth="1"/>
-    <col min="24" max="24" width="14.6328125" customWidth="1"/>
-    <col min="25" max="25" width="12.6328125" customWidth="1"/>
-    <col min="27" max="27" width="13.36328125" customWidth="1"/>
+    <col min="7" max="7" width="14.5" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" customWidth="1"/>
+    <col min="9" max="9" width="8.5" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" customWidth="1"/>
+    <col min="12" max="12" width="16.5" customWidth="1"/>
+    <col min="13" max="13" width="18.5" customWidth="1"/>
+    <col min="14" max="14" width="16.33203125" customWidth="1"/>
+    <col min="15" max="15" width="14.6640625" customWidth="1"/>
+    <col min="16" max="17" width="12.5" customWidth="1"/>
+    <col min="19" max="19" width="10.5" customWidth="1"/>
+    <col min="20" max="20" width="13.6640625" customWidth="1"/>
+    <col min="21" max="23" width="10.5" customWidth="1"/>
+    <col min="24" max="24" width="14.6640625" customWidth="1"/>
+    <col min="25" max="25" width="12.6640625" customWidth="1"/>
+    <col min="27" max="27" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -1670,25 +1694,46 @@
       <c r="AA1" s="36" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB1" s="36" t="s">
+        <v>239</v>
+      </c>
+      <c r="AC1" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD1" s="36" t="s">
+        <v>240</v>
+      </c>
+      <c r="AE1" s="36" t="s">
+        <v>241</v>
+      </c>
+      <c r="AF1" s="36" t="s">
+        <v>242</v>
+      </c>
+      <c r="AG1" s="36" t="s">
+        <v>243</v>
+      </c>
+      <c r="AH1" s="36" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5">
+        <v>10000000000</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2">
-        <v>10000</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="G2" s="2">
         <v>1</v>
@@ -1696,251 +1741,312 @@
       <c r="H2" s="2">
         <v>2E-3</v>
       </c>
-      <c r="I2" s="2">
-        <v>0.16</v>
-      </c>
-      <c r="J2" s="2">
-        <v>43.5</v>
-      </c>
-      <c r="K2" s="2">
-        <v>3.5000000000000001E-3</v>
-      </c>
-      <c r="L2" s="3">
-        <v>0.93582299999999996</v>
-      </c>
-      <c r="M2" s="3">
-        <v>5.4288999999999997E-2</v>
-      </c>
-      <c r="N2" s="3">
-        <v>8.6770000000000007E-3</v>
-      </c>
-      <c r="O2" s="3">
-        <v>5.2700000000000002E-4</v>
-      </c>
-      <c r="P2" s="3">
-        <v>-1.1E-5</v>
+      <c r="I2" s="27">
+        <v>0.184638894</v>
+      </c>
+      <c r="J2" s="27">
+        <v>45.1</v>
+      </c>
+      <c r="K2" s="27">
+        <v>3.81E-3</v>
+      </c>
+      <c r="L2" s="27">
+        <v>0.91910000000000003</v>
+      </c>
+      <c r="M2" s="27">
+        <v>9.9879999999999997E-2</v>
+      </c>
+      <c r="N2" s="27">
+        <v>-4.2729999999999997E-2</v>
+      </c>
+      <c r="O2" s="27">
+        <v>9.3699999999999999E-3</v>
+      </c>
+      <c r="P2" s="27">
+        <v>-7.6400000000000003E-4</v>
       </c>
       <c r="Q2" s="4">
         <v>0.1</v>
       </c>
       <c r="R2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2" s="2">
+        <v>0</v>
+      </c>
+      <c r="T2" s="4">
+        <v>2.6</v>
+      </c>
+      <c r="U2" s="2">
+        <v>1</v>
+      </c>
+      <c r="V2" s="2">
+        <v>0</v>
+      </c>
+      <c r="W2" s="2">
+        <v>0</v>
+      </c>
+      <c r="X2" s="2">
+        <v>25</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>5</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB2" s="27">
+        <v>325.70374800000002</v>
+      </c>
+      <c r="AC2" s="27">
+        <v>1.76</v>
+      </c>
+      <c r="AD2" s="27">
+        <v>831.8</v>
+      </c>
+      <c r="AE2" s="27">
+        <v>345.72</v>
+      </c>
+      <c r="AF2" s="27">
+        <v>254.72</v>
+      </c>
+      <c r="AG2" s="27">
+        <v>255.76616110000001</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="S2" s="2">
-        <v>0</v>
-      </c>
-      <c r="T2" s="4">
+      <c r="C3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5">
+        <v>10000000000</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="I3" s="27">
+        <v>0.17502508999999999</v>
+      </c>
+      <c r="J3" s="27">
+        <v>45.2</v>
+      </c>
+      <c r="K3" s="27">
+        <v>4.0899999999999999E-3</v>
+      </c>
+      <c r="L3" s="27">
+        <v>0.92194100000000001</v>
+      </c>
+      <c r="M3" s="27">
+        <v>7.0891999999999997E-2</v>
+      </c>
+      <c r="N3" s="27">
+        <v>-1.4272E-2</v>
+      </c>
+      <c r="O3" s="27">
+        <v>1.1709999999999999E-3</v>
+      </c>
+      <c r="P3" s="27">
+        <v>-3.4E-5</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S3" s="2">
+        <v>0</v>
+      </c>
+      <c r="T3" s="4">
+        <v>2.6</v>
+      </c>
+      <c r="U3" s="2">
+        <v>1</v>
+      </c>
+      <c r="V3" s="2">
+        <v>0</v>
+      </c>
+      <c r="W3" s="2">
+        <v>0</v>
+      </c>
+      <c r="X3" s="2">
+        <v>25</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>5</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB3" s="27">
+        <v>335.15983340000002</v>
+      </c>
+      <c r="AC3" s="27">
+        <v>1.91</v>
+      </c>
+      <c r="AD3" s="27">
+        <v>631.70000000000005</v>
+      </c>
+      <c r="AE3" s="27">
+        <v>329.58</v>
+      </c>
+      <c r="AF3" s="27">
+        <v>238.58</v>
+      </c>
+      <c r="AG3" s="27">
+        <v>191.18310840000001</v>
+      </c>
+      <c r="AH3" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5">
+        <v>10000000000</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="I4" s="27">
+        <v>0.176001714</v>
+      </c>
+      <c r="J4" s="27">
+        <v>50.7</v>
+      </c>
+      <c r="K4" s="27">
+        <v>3.0699999999999998E-3</v>
+      </c>
+      <c r="L4" s="27">
+        <v>0.91959999999999997</v>
+      </c>
+      <c r="M4" s="27">
+        <v>7.1639999999999995E-2</v>
+      </c>
+      <c r="N4" s="27">
+        <v>-1.338E-2</v>
+      </c>
+      <c r="O4" s="27">
+        <v>9.6100000000000005E-4</v>
+      </c>
+      <c r="P4" s="27">
+        <v>-2.5000000000000001E-5</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S4" s="2">
+        <v>0</v>
+      </c>
+      <c r="T4" s="4">
         <f>3.5/0.962</f>
         <v>3.6382536382536386</v>
       </c>
-      <c r="U2" s="2">
-        <v>1</v>
-      </c>
-      <c r="V2" s="2">
-        <v>0</v>
-      </c>
-      <c r="W2" s="2">
-        <v>0</v>
-      </c>
-      <c r="X2" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y2" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z2" s="2">
-        <v>5</v>
-      </c>
-      <c r="AA2" s="2" t="s">
+      <c r="U4" s="2">
+        <v>1</v>
+      </c>
+      <c r="V4" s="2">
+        <v>0</v>
+      </c>
+      <c r="W4" s="2">
+        <v>0</v>
+      </c>
+      <c r="X4" s="2">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="Y4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>5</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB4" s="27">
+        <v>430.93599019999999</v>
+      </c>
+      <c r="AC4" s="27">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="AD4" s="27">
+        <v>153.1</v>
+      </c>
+      <c r="AE4" s="27">
+        <v>330.54</v>
+      </c>
+      <c r="AF4" s="27">
+        <v>239.54</v>
+      </c>
+      <c r="AG4" s="27">
+        <v>47.550374410000003</v>
+      </c>
+      <c r="AH4" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5">
+        <v>10000000000</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="D3" s="2">
-        <v>10000</v>
-      </c>
-      <c r="E3" s="2">
-        <v>200000</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="2">
-        <v>1</v>
-      </c>
-      <c r="H3" s="2">
-        <v>2E-3</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0.16</v>
-      </c>
-      <c r="J3" s="2">
-        <v>43.5</v>
-      </c>
-      <c r="K3" s="2">
-        <v>3.5000000000000001E-3</v>
-      </c>
-      <c r="L3" s="3">
-        <v>0.93582299999999996</v>
-      </c>
-      <c r="M3" s="3">
-        <v>5.4288999999999997E-2</v>
-      </c>
-      <c r="N3" s="3">
-        <v>8.6770000000000007E-3</v>
-      </c>
-      <c r="O3" s="3">
-        <v>5.2700000000000002E-4</v>
-      </c>
-      <c r="P3" s="3">
-        <v>-1.1E-5</v>
-      </c>
-      <c r="Q3" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="S3" s="2">
-        <v>0</v>
-      </c>
-      <c r="T3" s="4">
-        <f>2.5/0.962</f>
-        <v>2.5987525987525988</v>
-      </c>
-      <c r="U3" s="2">
-        <v>1</v>
-      </c>
-      <c r="V3" s="2">
-        <v>0</v>
-      </c>
-      <c r="W3" s="2">
-        <v>0</v>
-      </c>
-      <c r="X3" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y3" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z3" s="2">
-        <v>5</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="2">
-        <v>200000</v>
-      </c>
-      <c r="E4" s="5">
-        <v>10000000000</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="2">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2">
-        <v>2E-3</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0.16</v>
-      </c>
-      <c r="J4" s="2">
-        <v>43.5</v>
-      </c>
-      <c r="K4" s="2">
-        <v>3.5000000000000001E-3</v>
-      </c>
-      <c r="L4" s="3">
-        <v>0.93582299999999996</v>
-      </c>
-      <c r="M4" s="3">
-        <v>5.4288999999999997E-2</v>
-      </c>
-      <c r="N4" s="3">
-        <v>8.6770000000000007E-3</v>
-      </c>
-      <c r="O4" s="3">
-        <v>5.2700000000000002E-4</v>
-      </c>
-      <c r="P4" s="3">
-        <v>-1.1E-5</v>
-      </c>
-      <c r="Q4" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="S4" s="2">
-        <v>0</v>
-      </c>
-      <c r="T4" s="4">
-        <f>2.5/0.962</f>
-        <v>2.5987525987525988</v>
-      </c>
-      <c r="U4" s="2">
-        <v>1</v>
-      </c>
-      <c r="V4" s="2">
-        <v>0</v>
-      </c>
-      <c r="W4" s="2">
-        <v>0</v>
-      </c>
-      <c r="X4" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y4" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="2">
-        <v>5</v>
-      </c>
-      <c r="AA4" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2">
-        <v>10000</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="G5" s="2">
         <v>1</v>
@@ -1948,35 +2054,35 @@
       <c r="H5" s="2">
         <v>2E-3</v>
       </c>
-      <c r="I5" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="J5" s="2">
-        <v>43.9</v>
-      </c>
-      <c r="K5" s="2">
-        <v>4.4000000000000003E-3</v>
-      </c>
-      <c r="L5" s="3">
-        <v>0.91809300000000005</v>
-      </c>
-      <c r="M5" s="3">
-        <v>8.6257E-2</v>
-      </c>
-      <c r="N5" s="3">
-        <v>-2.4459000000000002E-2</v>
-      </c>
-      <c r="O5" s="3">
-        <v>2.8159999999999999E-3</v>
-      </c>
-      <c r="P5" s="3">
-        <v>-1.26E-4</v>
+      <c r="I5" s="27">
+        <v>9.9396463000000004E-2</v>
+      </c>
+      <c r="J5" s="27">
+        <v>55.7</v>
+      </c>
+      <c r="K5" s="27">
+        <v>3.8500000000000001E-3</v>
+      </c>
+      <c r="L5" s="27">
+        <v>0.93540000000000001</v>
+      </c>
+      <c r="M5" s="27">
+        <v>6.8089999999999998E-2</v>
+      </c>
+      <c r="N5" s="27">
+        <v>-2.094E-2</v>
+      </c>
+      <c r="O5" s="27">
+        <v>2.9299999999999999E-3</v>
+      </c>
+      <c r="P5" s="27">
+        <v>-1.56E-4</v>
       </c>
       <c r="Q5" s="4">
         <v>0.1</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S5" s="2">
         <v>0</v>
@@ -1995,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="X5" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="Y5" s="2">
         <v>1</v>
@@ -2006,425 +2112,26 @@
       <c r="AA5" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="2">
-        <v>10000</v>
-      </c>
-      <c r="E6" s="2">
-        <v>200000</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="2">
-        <v>1</v>
-      </c>
-      <c r="H6" s="2">
-        <v>2E-3</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="J6" s="2">
-        <v>43.9</v>
-      </c>
-      <c r="K6" s="2">
-        <v>4.4000000000000003E-3</v>
-      </c>
-      <c r="L6" s="3">
-        <v>0.91809300000000005</v>
-      </c>
-      <c r="M6" s="3">
-        <v>8.6257E-2</v>
-      </c>
-      <c r="N6" s="3">
-        <v>-2.4459000000000002E-2</v>
-      </c>
-      <c r="O6" s="3">
-        <v>2.8159999999999999E-3</v>
-      </c>
-      <c r="P6" s="3">
-        <v>-1.26E-4</v>
-      </c>
-      <c r="Q6" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="S6" s="2">
-        <v>0</v>
-      </c>
-      <c r="T6" s="4">
-        <f>2.5/0.962</f>
-        <v>2.5987525987525988</v>
-      </c>
-      <c r="U6" s="2">
-        <v>1</v>
-      </c>
-      <c r="V6" s="2">
-        <v>0</v>
-      </c>
-      <c r="W6" s="2">
-        <v>0</v>
-      </c>
-      <c r="X6" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y6" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="2">
-        <v>5</v>
-      </c>
-      <c r="AA6" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="2">
-        <v>200000</v>
-      </c>
-      <c r="E7" s="5">
-        <v>10000000000</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="2">
-        <v>1</v>
-      </c>
-      <c r="H7" s="2">
-        <v>2E-3</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="J7" s="2">
-        <v>43.9</v>
-      </c>
-      <c r="K7" s="2">
-        <v>4.4000000000000003E-3</v>
-      </c>
-      <c r="L7" s="3">
-        <v>0.91809300000000005</v>
-      </c>
-      <c r="M7" s="3">
-        <v>8.6257E-2</v>
-      </c>
-      <c r="N7" s="3">
-        <v>-2.4459000000000002E-2</v>
-      </c>
-      <c r="O7" s="3">
-        <v>2.8159999999999999E-3</v>
-      </c>
-      <c r="P7" s="3">
-        <v>-1.26E-4</v>
-      </c>
-      <c r="Q7" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="R7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="S7" s="2">
-        <v>0</v>
-      </c>
-      <c r="T7" s="4">
-        <f>2.5/0.962</f>
-        <v>2.5987525987525988</v>
-      </c>
-      <c r="U7" s="2">
-        <v>1</v>
-      </c>
-      <c r="V7" s="2">
-        <v>0</v>
-      </c>
-      <c r="W7" s="2">
-        <v>0</v>
-      </c>
-      <c r="X7" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y7" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="2">
-        <v>5</v>
-      </c>
-      <c r="AA7" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2">
-        <v>10000</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="2">
-        <v>1</v>
-      </c>
-      <c r="H8" s="2">
-        <v>2E-3</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0.08</v>
-      </c>
-      <c r="J8" s="2">
-        <v>38.1</v>
-      </c>
-      <c r="K8" s="2">
-        <v>2.5999999999999999E-3</v>
-      </c>
-      <c r="L8" s="3">
-        <v>1.10044085</v>
-      </c>
-      <c r="M8" s="3">
-        <v>-6.1423230000000002E-2</v>
-      </c>
-      <c r="N8" s="3">
-        <v>-4.4273200000000002E-3</v>
-      </c>
-      <c r="O8" s="3">
-        <v>6.3150399999999996E-4</v>
-      </c>
-      <c r="P8" s="3">
-        <v>-1.9184000000000001E-5</v>
-      </c>
-      <c r="Q8" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="S8" s="2">
-        <v>0</v>
-      </c>
-      <c r="T8" s="4">
-        <f>3.5/0.962</f>
-        <v>3.6382536382536386</v>
-      </c>
-      <c r="U8" s="2">
-        <v>1</v>
-      </c>
-      <c r="V8" s="2">
-        <v>0</v>
-      </c>
-      <c r="W8" s="2">
-        <v>0</v>
-      </c>
-      <c r="X8" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y8" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z8" s="2">
-        <v>5</v>
-      </c>
-      <c r="AA8" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="2">
-        <v>10000</v>
-      </c>
-      <c r="E9" s="2">
-        <v>200000</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="2">
-        <v>1</v>
-      </c>
-      <c r="H9" s="2">
-        <v>2E-3</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0.08</v>
-      </c>
-      <c r="J9" s="2">
-        <v>38.1</v>
-      </c>
-      <c r="K9" s="2">
-        <v>2.5999999999999999E-3</v>
-      </c>
-      <c r="L9" s="3">
-        <v>1.10044085</v>
-      </c>
-      <c r="M9" s="3">
-        <v>-6.1423230000000002E-2</v>
-      </c>
-      <c r="N9" s="3">
-        <v>-4.4273200000000002E-3</v>
-      </c>
-      <c r="O9" s="3">
-        <v>6.3150399999999996E-4</v>
-      </c>
-      <c r="P9" s="3">
-        <v>-1.9184000000000001E-5</v>
-      </c>
-      <c r="Q9" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="S9" s="2">
-        <v>0</v>
-      </c>
-      <c r="T9" s="4">
-        <f>2.5/0.962</f>
-        <v>2.5987525987525988</v>
-      </c>
-      <c r="U9" s="2">
-        <v>1</v>
-      </c>
-      <c r="V9" s="2">
-        <v>0</v>
-      </c>
-      <c r="W9" s="2">
-        <v>0</v>
-      </c>
-      <c r="X9" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y9" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z9" s="2">
-        <v>5</v>
-      </c>
-      <c r="AA9" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="2">
-        <v>200000</v>
-      </c>
-      <c r="E10" s="5">
-        <v>10000000000</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="2">
-        <v>1</v>
-      </c>
-      <c r="H10" s="2">
-        <v>2E-3</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0.08</v>
-      </c>
-      <c r="J10" s="2">
-        <v>38.1</v>
-      </c>
-      <c r="K10" s="2">
-        <v>2.5999999999999999E-3</v>
-      </c>
-      <c r="L10" s="3">
-        <v>1.10044085</v>
-      </c>
-      <c r="M10" s="3">
-        <v>-6.1423230000000002E-2</v>
-      </c>
-      <c r="N10" s="3">
-        <v>-4.4273200000000002E-3</v>
-      </c>
-      <c r="O10" s="3">
-        <v>6.3150399999999996E-4</v>
-      </c>
-      <c r="P10" s="3">
-        <v>-1.9184000000000001E-5</v>
-      </c>
-      <c r="Q10" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="S10" s="2">
-        <v>0</v>
-      </c>
-      <c r="T10" s="4">
-        <f>2.5/0.962</f>
-        <v>2.5987525987525988</v>
-      </c>
-      <c r="U10" s="2">
-        <v>1</v>
-      </c>
-      <c r="V10" s="2">
-        <v>0</v>
-      </c>
-      <c r="W10" s="2">
-        <v>0</v>
-      </c>
-      <c r="X10" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y10" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z10" s="2">
-        <v>5</v>
-      </c>
-      <c r="AA10" s="2" t="s">
-        <v>32</v>
+      <c r="AB5" s="27">
+        <v>164.99812879999999</v>
+      </c>
+      <c r="AC5" s="27">
+        <v>1.66</v>
+      </c>
+      <c r="AD5" s="27">
+        <v>246</v>
+      </c>
+      <c r="AE5" s="27">
+        <v>356.06</v>
+      </c>
+      <c r="AF5" s="27">
+        <v>265.06</v>
+      </c>
+      <c r="AG5" s="27">
+        <v>75.914425350000002</v>
+      </c>
+      <c r="AH5" s="2" t="s">
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -2443,16 +2150,16 @@
       <selection activeCell="Y22" sqref="Y22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.453125" customWidth="1"/>
-    <col min="3" max="3" width="16.453125" customWidth="1"/>
-    <col min="4" max="5" width="15.453125" customWidth="1"/>
+    <col min="1" max="1" width="34.5" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="4" max="5" width="15.5" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="12" max="12" width="17.6328125" customWidth="1"/>
+    <col min="12" max="12" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2496,15 +2203,15 @@
         <v>25</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C2" s="2">
         <v>1000</v>
@@ -2513,10 +2220,10 @@
         <v>10000</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="G2" s="2">
         <v>0</v>
@@ -2545,12 +2252,12 @@
       </c>
       <c r="O2" s="2"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
@@ -2559,10 +2266,10 @@
         <v>10000000000</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="G3" s="2">
         <v>0</v>
@@ -2590,7 +2297,7 @@
         <v>5</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -2609,21 +2316,21 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="45.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" customWidth="1"/>
-    <col min="4" max="5" width="15.6328125" customWidth="1"/>
-    <col min="6" max="6" width="11.1796875" customWidth="1"/>
-    <col min="7" max="7" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="33.36328125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="93.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="4" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" customWidth="1"/>
+    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="93.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -2643,16 +2350,16 @@
         <v>5</v>
       </c>
       <c r="G1" s="36" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H1" s="36" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="I1" s="36" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="J1" s="36" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="K1" s="36" t="s">
         <v>17</v>
@@ -2685,18 +2392,18 @@
         <v>26</v>
       </c>
       <c r="U1" s="36" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>151</v>
       </c>
       <c r="D2" s="17">
         <v>0</v>
@@ -2705,7 +2412,7 @@
         <v>19000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" s="2">
         <v>3.7</v>
@@ -2720,7 +2427,7 @@
         <v>35</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L2" s="2">
         <v>0</v>
@@ -2747,21 +2454,21 @@
         <v>5</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="U2" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>150</v>
-      </c>
       <c r="B3" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D3" s="17">
         <v>0</v>
@@ -2770,7 +2477,7 @@
         <v>19000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G3" s="2">
         <v>3.5</v>
@@ -2785,7 +2492,7 @@
         <v>35</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L3" s="2">
         <v>0</v>
@@ -2812,16 +2519,16 @@
         <v>5</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="O9" s="10"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="O11" s="10"/>
     </row>
   </sheetData>
@@ -2837,26 +2544,26 @@
       <selection activeCell="AB25" sqref="AB25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15.1796875" customWidth="1"/>
-    <col min="6" max="6" width="6.81640625" customWidth="1"/>
-    <col min="7" max="7" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.81640625" customWidth="1"/>
+    <col min="4" max="5" width="15.1640625" customWidth="1"/>
+    <col min="6" max="6" width="6.83203125" customWidth="1"/>
+    <col min="7" max="7" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.83203125" customWidth="1"/>
     <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.36328125" customWidth="1"/>
-    <col min="16" max="16" width="12.453125" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" customWidth="1"/>
+    <col min="16" max="16" width="12.5" customWidth="1"/>
     <col min="17" max="17" width="12" customWidth="1"/>
     <col min="22" max="22" width="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="32.453125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="32.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -2876,22 +2583,22 @@
         <v>5</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="H1" s="40" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="I1" s="40" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="J1" s="40" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="K1" s="40" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="L1" s="40" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="M1" s="38" t="s">
         <v>17</v>
@@ -2924,18 +2631,18 @@
         <v>26</v>
       </c>
       <c r="W1" s="40" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D2" s="17">
         <v>0</v>
@@ -2944,7 +2651,7 @@
         <v>40000</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" s="11">
         <v>3.1</v>
@@ -2959,13 +2666,13 @@
         <v>27</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="M2" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N2" s="2">
         <v>0</v>
@@ -2994,18 +2701,18 @@
       </c>
       <c r="V2" s="14"/>
       <c r="W2" s="27" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D3" s="17">
         <v>40000</v>
@@ -3014,7 +2721,7 @@
         <v>100000000</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G3" s="11">
         <v>2.8</v>
@@ -3029,13 +2736,13 @@
         <v>27</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="M3" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N3" s="2">
         <v>0</v>
@@ -3064,18 +2771,18 @@
       </c>
       <c r="V3" s="14"/>
       <c r="W3" s="27" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D4" s="17">
         <v>0</v>
@@ -3084,7 +2791,7 @@
         <v>21000</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G4" s="11">
         <v>4.3</v>
@@ -3099,13 +2806,13 @@
         <v>27</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="M4" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N4" s="2">
         <v>0</v>
@@ -3135,18 +2842,18 @@
       </c>
       <c r="V4" s="14"/>
       <c r="W4" s="27" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D5" s="17">
         <v>21000</v>
@@ -3155,7 +2862,7 @@
         <v>40000</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G5" s="11">
         <v>4.3</v>
@@ -3170,13 +2877,13 @@
         <v>27</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="M5" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N5" s="2">
         <v>0</v>
@@ -3206,18 +2913,18 @@
       </c>
       <c r="V5" s="14"/>
       <c r="W5" s="27" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D6" s="17">
         <v>40000</v>
@@ -3226,7 +2933,7 @@
         <v>75000</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G6" s="11">
         <v>4</v>
@@ -3241,13 +2948,13 @@
         <v>27</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="M6" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N6" s="2">
         <v>0</v>
@@ -3277,18 +2984,18 @@
       </c>
       <c r="V6" s="14"/>
       <c r="W6" s="27" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D7" s="17">
         <v>75000</v>
@@ -3297,7 +3004,7 @@
         <v>20000000</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G7" s="11">
         <v>3.9</v>
@@ -3312,13 +3019,13 @@
         <v>27</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="M7" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N7" s="2">
         <v>0</v>
@@ -3348,18 +3055,18 @@
       </c>
       <c r="V7" s="14"/>
       <c r="W7" s="27" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D8" s="17">
         <v>0</v>
@@ -3368,7 +3075,7 @@
         <v>21000</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G8" s="11">
         <v>2.2000000000000002</v>
@@ -3383,13 +3090,13 @@
         <v>35</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="M8" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N8" s="2">
         <v>0</v>
@@ -3417,21 +3124,21 @@
         <v>6</v>
       </c>
       <c r="V8" s="14" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="W8" s="27" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D9" s="17">
         <v>21000</v>
@@ -3440,7 +3147,7 @@
         <v>40000</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G9" s="11">
         <v>3.3</v>
@@ -3455,13 +3162,13 @@
         <v>35</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="M9" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N9" s="2">
         <v>0</v>
@@ -3489,21 +3196,21 @@
         <v>6</v>
       </c>
       <c r="V9" s="14" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="W9" s="27" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D10" s="17">
         <v>40000</v>
@@ -3512,7 +3219,7 @@
         <v>75000</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G10" s="11">
         <v>3.3</v>
@@ -3527,13 +3234,13 @@
         <v>35</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="M10" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N10" s="2">
         <v>0</v>
@@ -3561,21 +3268,21 @@
         <v>6</v>
       </c>
       <c r="V10" s="14" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="W10" s="27" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D11" s="17">
         <v>75000</v>
@@ -3584,7 +3291,7 @@
         <v>10000000</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G11" s="11">
         <v>3.2</v>
@@ -3599,13 +3306,13 @@
         <v>35</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="M11" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N11" s="2">
         <v>0</v>
@@ -3633,10 +3340,10 @@
         <v>6</v>
       </c>
       <c r="V11" s="14" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="W11" s="27" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -3655,651 +3362,651 @@
       <selection activeCell="AB23" sqref="AB23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43.36328125" customWidth="1"/>
-    <col min="2" max="2" width="12.6328125" customWidth="1"/>
-    <col min="3" max="3" width="19.6328125" customWidth="1"/>
-    <col min="4" max="5" width="19.36328125" customWidth="1"/>
+    <col min="1" max="1" width="43.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" customWidth="1"/>
+    <col min="4" max="5" width="19.33203125" customWidth="1"/>
     <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="7" customWidth="1"/>
-    <col min="26" max="26" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="257" max="257" width="43.36328125" customWidth="1"/>
-    <col min="258" max="258" width="12.6328125" customWidth="1"/>
-    <col min="259" max="259" width="19.6328125" customWidth="1"/>
-    <col min="260" max="261" width="19.36328125" customWidth="1"/>
+    <col min="26" max="26" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="257" max="257" width="43.33203125" customWidth="1"/>
+    <col min="258" max="258" width="12.6640625" customWidth="1"/>
+    <col min="259" max="259" width="19.6640625" customWidth="1"/>
+    <col min="260" max="261" width="19.33203125" customWidth="1"/>
     <col min="270" max="270" width="10" bestFit="1" customWidth="1"/>
-    <col min="271" max="271" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="271" max="271" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="274" max="274" width="10" bestFit="1" customWidth="1"/>
-    <col min="278" max="278" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="278" max="278" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="280" max="280" width="7" customWidth="1"/>
-    <col min="282" max="282" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="513" max="513" width="43.36328125" customWidth="1"/>
-    <col min="514" max="514" width="12.6328125" customWidth="1"/>
-    <col min="515" max="515" width="19.6328125" customWidth="1"/>
-    <col min="516" max="517" width="19.36328125" customWidth="1"/>
+    <col min="282" max="282" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="513" max="513" width="43.33203125" customWidth="1"/>
+    <col min="514" max="514" width="12.6640625" customWidth="1"/>
+    <col min="515" max="515" width="19.6640625" customWidth="1"/>
+    <col min="516" max="517" width="19.33203125" customWidth="1"/>
     <col min="526" max="526" width="10" bestFit="1" customWidth="1"/>
-    <col min="527" max="527" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="527" max="527" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="530" max="530" width="10" bestFit="1" customWidth="1"/>
-    <col min="534" max="534" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="534" max="534" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="536" max="536" width="7" customWidth="1"/>
-    <col min="538" max="538" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="769" max="769" width="43.36328125" customWidth="1"/>
-    <col min="770" max="770" width="12.6328125" customWidth="1"/>
-    <col min="771" max="771" width="19.6328125" customWidth="1"/>
-    <col min="772" max="773" width="19.36328125" customWidth="1"/>
+    <col min="538" max="538" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="769" max="769" width="43.33203125" customWidth="1"/>
+    <col min="770" max="770" width="12.6640625" customWidth="1"/>
+    <col min="771" max="771" width="19.6640625" customWidth="1"/>
+    <col min="772" max="773" width="19.33203125" customWidth="1"/>
     <col min="782" max="782" width="10" bestFit="1" customWidth="1"/>
-    <col min="783" max="783" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="783" max="783" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="786" max="786" width="10" bestFit="1" customWidth="1"/>
-    <col min="790" max="790" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="790" max="790" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="792" max="792" width="7" customWidth="1"/>
-    <col min="794" max="794" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="1025" max="1025" width="43.36328125" customWidth="1"/>
-    <col min="1026" max="1026" width="12.6328125" customWidth="1"/>
-    <col min="1027" max="1027" width="19.6328125" customWidth="1"/>
-    <col min="1028" max="1029" width="19.36328125" customWidth="1"/>
+    <col min="794" max="794" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="1025" max="1025" width="43.33203125" customWidth="1"/>
+    <col min="1026" max="1026" width="12.6640625" customWidth="1"/>
+    <col min="1027" max="1027" width="19.6640625" customWidth="1"/>
+    <col min="1028" max="1029" width="19.33203125" customWidth="1"/>
     <col min="1038" max="1038" width="10" bestFit="1" customWidth="1"/>
-    <col min="1039" max="1039" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="1039" max="1039" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="1042" max="1042" width="10" bestFit="1" customWidth="1"/>
-    <col min="1046" max="1046" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="1046" max="1046" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="1048" max="1048" width="7" customWidth="1"/>
-    <col min="1050" max="1050" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="1281" max="1281" width="43.36328125" customWidth="1"/>
-    <col min="1282" max="1282" width="12.6328125" customWidth="1"/>
-    <col min="1283" max="1283" width="19.6328125" customWidth="1"/>
-    <col min="1284" max="1285" width="19.36328125" customWidth="1"/>
+    <col min="1050" max="1050" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="1281" max="1281" width="43.33203125" customWidth="1"/>
+    <col min="1282" max="1282" width="12.6640625" customWidth="1"/>
+    <col min="1283" max="1283" width="19.6640625" customWidth="1"/>
+    <col min="1284" max="1285" width="19.33203125" customWidth="1"/>
     <col min="1294" max="1294" width="10" bestFit="1" customWidth="1"/>
-    <col min="1295" max="1295" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="1295" max="1295" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="1298" max="1298" width="10" bestFit="1" customWidth="1"/>
-    <col min="1302" max="1302" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="1302" max="1302" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="1304" max="1304" width="7" customWidth="1"/>
-    <col min="1306" max="1306" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="1537" max="1537" width="43.36328125" customWidth="1"/>
-    <col min="1538" max="1538" width="12.6328125" customWidth="1"/>
-    <col min="1539" max="1539" width="19.6328125" customWidth="1"/>
-    <col min="1540" max="1541" width="19.36328125" customWidth="1"/>
+    <col min="1306" max="1306" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="1537" max="1537" width="43.33203125" customWidth="1"/>
+    <col min="1538" max="1538" width="12.6640625" customWidth="1"/>
+    <col min="1539" max="1539" width="19.6640625" customWidth="1"/>
+    <col min="1540" max="1541" width="19.33203125" customWidth="1"/>
     <col min="1550" max="1550" width="10" bestFit="1" customWidth="1"/>
-    <col min="1551" max="1551" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="1551" max="1551" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="1554" max="1554" width="10" bestFit="1" customWidth="1"/>
-    <col min="1558" max="1558" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="1558" max="1558" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="1560" max="1560" width="7" customWidth="1"/>
-    <col min="1562" max="1562" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="1793" max="1793" width="43.36328125" customWidth="1"/>
-    <col min="1794" max="1794" width="12.6328125" customWidth="1"/>
-    <col min="1795" max="1795" width="19.6328125" customWidth="1"/>
-    <col min="1796" max="1797" width="19.36328125" customWidth="1"/>
+    <col min="1562" max="1562" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="1793" max="1793" width="43.33203125" customWidth="1"/>
+    <col min="1794" max="1794" width="12.6640625" customWidth="1"/>
+    <col min="1795" max="1795" width="19.6640625" customWidth="1"/>
+    <col min="1796" max="1797" width="19.33203125" customWidth="1"/>
     <col min="1806" max="1806" width="10" bestFit="1" customWidth="1"/>
-    <col min="1807" max="1807" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="1807" max="1807" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="1810" max="1810" width="10" bestFit="1" customWidth="1"/>
-    <col min="1814" max="1814" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="1814" max="1814" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="1816" max="1816" width="7" customWidth="1"/>
-    <col min="1818" max="1818" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="2049" max="2049" width="43.36328125" customWidth="1"/>
-    <col min="2050" max="2050" width="12.6328125" customWidth="1"/>
-    <col min="2051" max="2051" width="19.6328125" customWidth="1"/>
-    <col min="2052" max="2053" width="19.36328125" customWidth="1"/>
+    <col min="1818" max="1818" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2049" max="2049" width="43.33203125" customWidth="1"/>
+    <col min="2050" max="2050" width="12.6640625" customWidth="1"/>
+    <col min="2051" max="2051" width="19.6640625" customWidth="1"/>
+    <col min="2052" max="2053" width="19.33203125" customWidth="1"/>
     <col min="2062" max="2062" width="10" bestFit="1" customWidth="1"/>
-    <col min="2063" max="2063" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="2063" max="2063" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="2066" max="2066" width="10" bestFit="1" customWidth="1"/>
-    <col min="2070" max="2070" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="2070" max="2070" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="2072" max="2072" width="7" customWidth="1"/>
-    <col min="2074" max="2074" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="2305" max="2305" width="43.36328125" customWidth="1"/>
-    <col min="2306" max="2306" width="12.6328125" customWidth="1"/>
-    <col min="2307" max="2307" width="19.6328125" customWidth="1"/>
-    <col min="2308" max="2309" width="19.36328125" customWidth="1"/>
+    <col min="2074" max="2074" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2305" max="2305" width="43.33203125" customWidth="1"/>
+    <col min="2306" max="2306" width="12.6640625" customWidth="1"/>
+    <col min="2307" max="2307" width="19.6640625" customWidth="1"/>
+    <col min="2308" max="2309" width="19.33203125" customWidth="1"/>
     <col min="2318" max="2318" width="10" bestFit="1" customWidth="1"/>
-    <col min="2319" max="2319" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="2319" max="2319" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="2322" max="2322" width="10" bestFit="1" customWidth="1"/>
-    <col min="2326" max="2326" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="2326" max="2326" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="2328" max="2328" width="7" customWidth="1"/>
-    <col min="2330" max="2330" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="2561" max="2561" width="43.36328125" customWidth="1"/>
-    <col min="2562" max="2562" width="12.6328125" customWidth="1"/>
-    <col min="2563" max="2563" width="19.6328125" customWidth="1"/>
-    <col min="2564" max="2565" width="19.36328125" customWidth="1"/>
+    <col min="2330" max="2330" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2561" max="2561" width="43.33203125" customWidth="1"/>
+    <col min="2562" max="2562" width="12.6640625" customWidth="1"/>
+    <col min="2563" max="2563" width="19.6640625" customWidth="1"/>
+    <col min="2564" max="2565" width="19.33203125" customWidth="1"/>
     <col min="2574" max="2574" width="10" bestFit="1" customWidth="1"/>
-    <col min="2575" max="2575" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="2575" max="2575" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="2578" max="2578" width="10" bestFit="1" customWidth="1"/>
-    <col min="2582" max="2582" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="2582" max="2582" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="2584" max="2584" width="7" customWidth="1"/>
-    <col min="2586" max="2586" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="2817" max="2817" width="43.36328125" customWidth="1"/>
-    <col min="2818" max="2818" width="12.6328125" customWidth="1"/>
-    <col min="2819" max="2819" width="19.6328125" customWidth="1"/>
-    <col min="2820" max="2821" width="19.36328125" customWidth="1"/>
+    <col min="2586" max="2586" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2817" max="2817" width="43.33203125" customWidth="1"/>
+    <col min="2818" max="2818" width="12.6640625" customWidth="1"/>
+    <col min="2819" max="2819" width="19.6640625" customWidth="1"/>
+    <col min="2820" max="2821" width="19.33203125" customWidth="1"/>
     <col min="2830" max="2830" width="10" bestFit="1" customWidth="1"/>
-    <col min="2831" max="2831" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="2831" max="2831" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="2834" max="2834" width="10" bestFit="1" customWidth="1"/>
-    <col min="2838" max="2838" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="2838" max="2838" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="2840" max="2840" width="7" customWidth="1"/>
-    <col min="2842" max="2842" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="3073" max="3073" width="43.36328125" customWidth="1"/>
-    <col min="3074" max="3074" width="12.6328125" customWidth="1"/>
-    <col min="3075" max="3075" width="19.6328125" customWidth="1"/>
-    <col min="3076" max="3077" width="19.36328125" customWidth="1"/>
+    <col min="2842" max="2842" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3073" max="3073" width="43.33203125" customWidth="1"/>
+    <col min="3074" max="3074" width="12.6640625" customWidth="1"/>
+    <col min="3075" max="3075" width="19.6640625" customWidth="1"/>
+    <col min="3076" max="3077" width="19.33203125" customWidth="1"/>
     <col min="3086" max="3086" width="10" bestFit="1" customWidth="1"/>
-    <col min="3087" max="3087" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="3087" max="3087" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="3090" max="3090" width="10" bestFit="1" customWidth="1"/>
-    <col min="3094" max="3094" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="3094" max="3094" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="3096" max="3096" width="7" customWidth="1"/>
-    <col min="3098" max="3098" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="3329" max="3329" width="43.36328125" customWidth="1"/>
-    <col min="3330" max="3330" width="12.6328125" customWidth="1"/>
-    <col min="3331" max="3331" width="19.6328125" customWidth="1"/>
-    <col min="3332" max="3333" width="19.36328125" customWidth="1"/>
+    <col min="3098" max="3098" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3329" max="3329" width="43.33203125" customWidth="1"/>
+    <col min="3330" max="3330" width="12.6640625" customWidth="1"/>
+    <col min="3331" max="3331" width="19.6640625" customWidth="1"/>
+    <col min="3332" max="3333" width="19.33203125" customWidth="1"/>
     <col min="3342" max="3342" width="10" bestFit="1" customWidth="1"/>
-    <col min="3343" max="3343" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="3343" max="3343" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="3346" max="3346" width="10" bestFit="1" customWidth="1"/>
-    <col min="3350" max="3350" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="3350" max="3350" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="3352" max="3352" width="7" customWidth="1"/>
-    <col min="3354" max="3354" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="3585" max="3585" width="43.36328125" customWidth="1"/>
-    <col min="3586" max="3586" width="12.6328125" customWidth="1"/>
-    <col min="3587" max="3587" width="19.6328125" customWidth="1"/>
-    <col min="3588" max="3589" width="19.36328125" customWidth="1"/>
+    <col min="3354" max="3354" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3585" max="3585" width="43.33203125" customWidth="1"/>
+    <col min="3586" max="3586" width="12.6640625" customWidth="1"/>
+    <col min="3587" max="3587" width="19.6640625" customWidth="1"/>
+    <col min="3588" max="3589" width="19.33203125" customWidth="1"/>
     <col min="3598" max="3598" width="10" bestFit="1" customWidth="1"/>
-    <col min="3599" max="3599" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="3599" max="3599" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="3602" max="3602" width="10" bestFit="1" customWidth="1"/>
-    <col min="3606" max="3606" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="3606" max="3606" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="3608" max="3608" width="7" customWidth="1"/>
-    <col min="3610" max="3610" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="3841" max="3841" width="43.36328125" customWidth="1"/>
-    <col min="3842" max="3842" width="12.6328125" customWidth="1"/>
-    <col min="3843" max="3843" width="19.6328125" customWidth="1"/>
-    <col min="3844" max="3845" width="19.36328125" customWidth="1"/>
+    <col min="3610" max="3610" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3841" max="3841" width="43.33203125" customWidth="1"/>
+    <col min="3842" max="3842" width="12.6640625" customWidth="1"/>
+    <col min="3843" max="3843" width="19.6640625" customWidth="1"/>
+    <col min="3844" max="3845" width="19.33203125" customWidth="1"/>
     <col min="3854" max="3854" width="10" bestFit="1" customWidth="1"/>
-    <col min="3855" max="3855" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="3855" max="3855" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="3858" max="3858" width="10" bestFit="1" customWidth="1"/>
-    <col min="3862" max="3862" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="3862" max="3862" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="3864" max="3864" width="7" customWidth="1"/>
-    <col min="3866" max="3866" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="4097" max="4097" width="43.36328125" customWidth="1"/>
-    <col min="4098" max="4098" width="12.6328125" customWidth="1"/>
-    <col min="4099" max="4099" width="19.6328125" customWidth="1"/>
-    <col min="4100" max="4101" width="19.36328125" customWidth="1"/>
+    <col min="3866" max="3866" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="4097" max="4097" width="43.33203125" customWidth="1"/>
+    <col min="4098" max="4098" width="12.6640625" customWidth="1"/>
+    <col min="4099" max="4099" width="19.6640625" customWidth="1"/>
+    <col min="4100" max="4101" width="19.33203125" customWidth="1"/>
     <col min="4110" max="4110" width="10" bestFit="1" customWidth="1"/>
-    <col min="4111" max="4111" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="4111" max="4111" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="4114" max="4114" width="10" bestFit="1" customWidth="1"/>
-    <col min="4118" max="4118" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="4118" max="4118" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="4120" max="4120" width="7" customWidth="1"/>
-    <col min="4122" max="4122" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="4353" max="4353" width="43.36328125" customWidth="1"/>
-    <col min="4354" max="4354" width="12.6328125" customWidth="1"/>
-    <col min="4355" max="4355" width="19.6328125" customWidth="1"/>
-    <col min="4356" max="4357" width="19.36328125" customWidth="1"/>
+    <col min="4122" max="4122" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="4353" max="4353" width="43.33203125" customWidth="1"/>
+    <col min="4354" max="4354" width="12.6640625" customWidth="1"/>
+    <col min="4355" max="4355" width="19.6640625" customWidth="1"/>
+    <col min="4356" max="4357" width="19.33203125" customWidth="1"/>
     <col min="4366" max="4366" width="10" bestFit="1" customWidth="1"/>
-    <col min="4367" max="4367" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="4367" max="4367" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="4370" max="4370" width="10" bestFit="1" customWidth="1"/>
-    <col min="4374" max="4374" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="4374" max="4374" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="4376" max="4376" width="7" customWidth="1"/>
-    <col min="4378" max="4378" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="4609" max="4609" width="43.36328125" customWidth="1"/>
-    <col min="4610" max="4610" width="12.6328125" customWidth="1"/>
-    <col min="4611" max="4611" width="19.6328125" customWidth="1"/>
-    <col min="4612" max="4613" width="19.36328125" customWidth="1"/>
+    <col min="4378" max="4378" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="4609" max="4609" width="43.33203125" customWidth="1"/>
+    <col min="4610" max="4610" width="12.6640625" customWidth="1"/>
+    <col min="4611" max="4611" width="19.6640625" customWidth="1"/>
+    <col min="4612" max="4613" width="19.33203125" customWidth="1"/>
     <col min="4622" max="4622" width="10" bestFit="1" customWidth="1"/>
-    <col min="4623" max="4623" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="4623" max="4623" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="4626" max="4626" width="10" bestFit="1" customWidth="1"/>
-    <col min="4630" max="4630" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="4630" max="4630" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="4632" max="4632" width="7" customWidth="1"/>
-    <col min="4634" max="4634" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="4865" max="4865" width="43.36328125" customWidth="1"/>
-    <col min="4866" max="4866" width="12.6328125" customWidth="1"/>
-    <col min="4867" max="4867" width="19.6328125" customWidth="1"/>
-    <col min="4868" max="4869" width="19.36328125" customWidth="1"/>
+    <col min="4634" max="4634" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="4865" max="4865" width="43.33203125" customWidth="1"/>
+    <col min="4866" max="4866" width="12.6640625" customWidth="1"/>
+    <col min="4867" max="4867" width="19.6640625" customWidth="1"/>
+    <col min="4868" max="4869" width="19.33203125" customWidth="1"/>
     <col min="4878" max="4878" width="10" bestFit="1" customWidth="1"/>
-    <col min="4879" max="4879" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="4879" max="4879" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="4882" max="4882" width="10" bestFit="1" customWidth="1"/>
-    <col min="4886" max="4886" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="4886" max="4886" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="4888" max="4888" width="7" customWidth="1"/>
-    <col min="4890" max="4890" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="5121" max="5121" width="43.36328125" customWidth="1"/>
-    <col min="5122" max="5122" width="12.6328125" customWidth="1"/>
-    <col min="5123" max="5123" width="19.6328125" customWidth="1"/>
-    <col min="5124" max="5125" width="19.36328125" customWidth="1"/>
+    <col min="4890" max="4890" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="5121" max="5121" width="43.33203125" customWidth="1"/>
+    <col min="5122" max="5122" width="12.6640625" customWidth="1"/>
+    <col min="5123" max="5123" width="19.6640625" customWidth="1"/>
+    <col min="5124" max="5125" width="19.33203125" customWidth="1"/>
     <col min="5134" max="5134" width="10" bestFit="1" customWidth="1"/>
-    <col min="5135" max="5135" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="5135" max="5135" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="5138" max="5138" width="10" bestFit="1" customWidth="1"/>
-    <col min="5142" max="5142" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="5142" max="5142" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="5144" max="5144" width="7" customWidth="1"/>
-    <col min="5146" max="5146" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="5377" max="5377" width="43.36328125" customWidth="1"/>
-    <col min="5378" max="5378" width="12.6328125" customWidth="1"/>
-    <col min="5379" max="5379" width="19.6328125" customWidth="1"/>
-    <col min="5380" max="5381" width="19.36328125" customWidth="1"/>
+    <col min="5146" max="5146" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="5377" max="5377" width="43.33203125" customWidth="1"/>
+    <col min="5378" max="5378" width="12.6640625" customWidth="1"/>
+    <col min="5379" max="5379" width="19.6640625" customWidth="1"/>
+    <col min="5380" max="5381" width="19.33203125" customWidth="1"/>
     <col min="5390" max="5390" width="10" bestFit="1" customWidth="1"/>
-    <col min="5391" max="5391" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="5391" max="5391" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="5394" max="5394" width="10" bestFit="1" customWidth="1"/>
-    <col min="5398" max="5398" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="5398" max="5398" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="5400" max="5400" width="7" customWidth="1"/>
-    <col min="5402" max="5402" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="5633" max="5633" width="43.36328125" customWidth="1"/>
-    <col min="5634" max="5634" width="12.6328125" customWidth="1"/>
-    <col min="5635" max="5635" width="19.6328125" customWidth="1"/>
-    <col min="5636" max="5637" width="19.36328125" customWidth="1"/>
+    <col min="5402" max="5402" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="5633" max="5633" width="43.33203125" customWidth="1"/>
+    <col min="5634" max="5634" width="12.6640625" customWidth="1"/>
+    <col min="5635" max="5635" width="19.6640625" customWidth="1"/>
+    <col min="5636" max="5637" width="19.33203125" customWidth="1"/>
     <col min="5646" max="5646" width="10" bestFit="1" customWidth="1"/>
-    <col min="5647" max="5647" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="5647" max="5647" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="5650" max="5650" width="10" bestFit="1" customWidth="1"/>
-    <col min="5654" max="5654" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="5654" max="5654" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="5656" max="5656" width="7" customWidth="1"/>
-    <col min="5658" max="5658" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="5889" max="5889" width="43.36328125" customWidth="1"/>
-    <col min="5890" max="5890" width="12.6328125" customWidth="1"/>
-    <col min="5891" max="5891" width="19.6328125" customWidth="1"/>
-    <col min="5892" max="5893" width="19.36328125" customWidth="1"/>
+    <col min="5658" max="5658" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="5889" max="5889" width="43.33203125" customWidth="1"/>
+    <col min="5890" max="5890" width="12.6640625" customWidth="1"/>
+    <col min="5891" max="5891" width="19.6640625" customWidth="1"/>
+    <col min="5892" max="5893" width="19.33203125" customWidth="1"/>
     <col min="5902" max="5902" width="10" bestFit="1" customWidth="1"/>
-    <col min="5903" max="5903" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="5903" max="5903" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="5906" max="5906" width="10" bestFit="1" customWidth="1"/>
-    <col min="5910" max="5910" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="5910" max="5910" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="5912" max="5912" width="7" customWidth="1"/>
-    <col min="5914" max="5914" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="6145" max="6145" width="43.36328125" customWidth="1"/>
-    <col min="6146" max="6146" width="12.6328125" customWidth="1"/>
-    <col min="6147" max="6147" width="19.6328125" customWidth="1"/>
-    <col min="6148" max="6149" width="19.36328125" customWidth="1"/>
+    <col min="5914" max="5914" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="6145" max="6145" width="43.33203125" customWidth="1"/>
+    <col min="6146" max="6146" width="12.6640625" customWidth="1"/>
+    <col min="6147" max="6147" width="19.6640625" customWidth="1"/>
+    <col min="6148" max="6149" width="19.33203125" customWidth="1"/>
     <col min="6158" max="6158" width="10" bestFit="1" customWidth="1"/>
-    <col min="6159" max="6159" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="6159" max="6159" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="6162" max="6162" width="10" bestFit="1" customWidth="1"/>
-    <col min="6166" max="6166" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="6166" max="6166" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="6168" max="6168" width="7" customWidth="1"/>
-    <col min="6170" max="6170" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="6401" max="6401" width="43.36328125" customWidth="1"/>
-    <col min="6402" max="6402" width="12.6328125" customWidth="1"/>
-    <col min="6403" max="6403" width="19.6328125" customWidth="1"/>
-    <col min="6404" max="6405" width="19.36328125" customWidth="1"/>
+    <col min="6170" max="6170" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="6401" max="6401" width="43.33203125" customWidth="1"/>
+    <col min="6402" max="6402" width="12.6640625" customWidth="1"/>
+    <col min="6403" max="6403" width="19.6640625" customWidth="1"/>
+    <col min="6404" max="6405" width="19.33203125" customWidth="1"/>
     <col min="6414" max="6414" width="10" bestFit="1" customWidth="1"/>
-    <col min="6415" max="6415" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="6415" max="6415" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="6418" max="6418" width="10" bestFit="1" customWidth="1"/>
-    <col min="6422" max="6422" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="6422" max="6422" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="6424" max="6424" width="7" customWidth="1"/>
-    <col min="6426" max="6426" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="6657" max="6657" width="43.36328125" customWidth="1"/>
-    <col min="6658" max="6658" width="12.6328125" customWidth="1"/>
-    <col min="6659" max="6659" width="19.6328125" customWidth="1"/>
-    <col min="6660" max="6661" width="19.36328125" customWidth="1"/>
+    <col min="6426" max="6426" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="6657" max="6657" width="43.33203125" customWidth="1"/>
+    <col min="6658" max="6658" width="12.6640625" customWidth="1"/>
+    <col min="6659" max="6659" width="19.6640625" customWidth="1"/>
+    <col min="6660" max="6661" width="19.33203125" customWidth="1"/>
     <col min="6670" max="6670" width="10" bestFit="1" customWidth="1"/>
-    <col min="6671" max="6671" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="6671" max="6671" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="6674" max="6674" width="10" bestFit="1" customWidth="1"/>
-    <col min="6678" max="6678" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="6678" max="6678" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="6680" max="6680" width="7" customWidth="1"/>
-    <col min="6682" max="6682" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="6913" max="6913" width="43.36328125" customWidth="1"/>
-    <col min="6914" max="6914" width="12.6328125" customWidth="1"/>
-    <col min="6915" max="6915" width="19.6328125" customWidth="1"/>
-    <col min="6916" max="6917" width="19.36328125" customWidth="1"/>
+    <col min="6682" max="6682" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="6913" max="6913" width="43.33203125" customWidth="1"/>
+    <col min="6914" max="6914" width="12.6640625" customWidth="1"/>
+    <col min="6915" max="6915" width="19.6640625" customWidth="1"/>
+    <col min="6916" max="6917" width="19.33203125" customWidth="1"/>
     <col min="6926" max="6926" width="10" bestFit="1" customWidth="1"/>
-    <col min="6927" max="6927" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="6927" max="6927" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="6930" max="6930" width="10" bestFit="1" customWidth="1"/>
-    <col min="6934" max="6934" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="6934" max="6934" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="6936" max="6936" width="7" customWidth="1"/>
-    <col min="6938" max="6938" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="7169" max="7169" width="43.36328125" customWidth="1"/>
-    <col min="7170" max="7170" width="12.6328125" customWidth="1"/>
-    <col min="7171" max="7171" width="19.6328125" customWidth="1"/>
-    <col min="7172" max="7173" width="19.36328125" customWidth="1"/>
+    <col min="6938" max="6938" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="7169" max="7169" width="43.33203125" customWidth="1"/>
+    <col min="7170" max="7170" width="12.6640625" customWidth="1"/>
+    <col min="7171" max="7171" width="19.6640625" customWidth="1"/>
+    <col min="7172" max="7173" width="19.33203125" customWidth="1"/>
     <col min="7182" max="7182" width="10" bestFit="1" customWidth="1"/>
-    <col min="7183" max="7183" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="7183" max="7183" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="7186" max="7186" width="10" bestFit="1" customWidth="1"/>
-    <col min="7190" max="7190" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="7190" max="7190" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="7192" max="7192" width="7" customWidth="1"/>
-    <col min="7194" max="7194" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="7425" max="7425" width="43.36328125" customWidth="1"/>
-    <col min="7426" max="7426" width="12.6328125" customWidth="1"/>
-    <col min="7427" max="7427" width="19.6328125" customWidth="1"/>
-    <col min="7428" max="7429" width="19.36328125" customWidth="1"/>
+    <col min="7194" max="7194" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="7425" max="7425" width="43.33203125" customWidth="1"/>
+    <col min="7426" max="7426" width="12.6640625" customWidth="1"/>
+    <col min="7427" max="7427" width="19.6640625" customWidth="1"/>
+    <col min="7428" max="7429" width="19.33203125" customWidth="1"/>
     <col min="7438" max="7438" width="10" bestFit="1" customWidth="1"/>
-    <col min="7439" max="7439" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="7439" max="7439" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="7442" max="7442" width="10" bestFit="1" customWidth="1"/>
-    <col min="7446" max="7446" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="7446" max="7446" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="7448" max="7448" width="7" customWidth="1"/>
-    <col min="7450" max="7450" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="7681" max="7681" width="43.36328125" customWidth="1"/>
-    <col min="7682" max="7682" width="12.6328125" customWidth="1"/>
-    <col min="7683" max="7683" width="19.6328125" customWidth="1"/>
-    <col min="7684" max="7685" width="19.36328125" customWidth="1"/>
+    <col min="7450" max="7450" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="7681" max="7681" width="43.33203125" customWidth="1"/>
+    <col min="7682" max="7682" width="12.6640625" customWidth="1"/>
+    <col min="7683" max="7683" width="19.6640625" customWidth="1"/>
+    <col min="7684" max="7685" width="19.33203125" customWidth="1"/>
     <col min="7694" max="7694" width="10" bestFit="1" customWidth="1"/>
-    <col min="7695" max="7695" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="7695" max="7695" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="7698" max="7698" width="10" bestFit="1" customWidth="1"/>
-    <col min="7702" max="7702" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="7702" max="7702" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="7704" max="7704" width="7" customWidth="1"/>
-    <col min="7706" max="7706" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="7937" max="7937" width="43.36328125" customWidth="1"/>
-    <col min="7938" max="7938" width="12.6328125" customWidth="1"/>
-    <col min="7939" max="7939" width="19.6328125" customWidth="1"/>
-    <col min="7940" max="7941" width="19.36328125" customWidth="1"/>
+    <col min="7706" max="7706" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="7937" max="7937" width="43.33203125" customWidth="1"/>
+    <col min="7938" max="7938" width="12.6640625" customWidth="1"/>
+    <col min="7939" max="7939" width="19.6640625" customWidth="1"/>
+    <col min="7940" max="7941" width="19.33203125" customWidth="1"/>
     <col min="7950" max="7950" width="10" bestFit="1" customWidth="1"/>
-    <col min="7951" max="7951" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="7951" max="7951" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="7954" max="7954" width="10" bestFit="1" customWidth="1"/>
-    <col min="7958" max="7958" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="7958" max="7958" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="7960" max="7960" width="7" customWidth="1"/>
-    <col min="7962" max="7962" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="8193" max="8193" width="43.36328125" customWidth="1"/>
-    <col min="8194" max="8194" width="12.6328125" customWidth="1"/>
-    <col min="8195" max="8195" width="19.6328125" customWidth="1"/>
-    <col min="8196" max="8197" width="19.36328125" customWidth="1"/>
+    <col min="7962" max="7962" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="8193" max="8193" width="43.33203125" customWidth="1"/>
+    <col min="8194" max="8194" width="12.6640625" customWidth="1"/>
+    <col min="8195" max="8195" width="19.6640625" customWidth="1"/>
+    <col min="8196" max="8197" width="19.33203125" customWidth="1"/>
     <col min="8206" max="8206" width="10" bestFit="1" customWidth="1"/>
-    <col min="8207" max="8207" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="8207" max="8207" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="8210" max="8210" width="10" bestFit="1" customWidth="1"/>
-    <col min="8214" max="8214" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="8214" max="8214" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="8216" max="8216" width="7" customWidth="1"/>
-    <col min="8218" max="8218" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="8449" max="8449" width="43.36328125" customWidth="1"/>
-    <col min="8450" max="8450" width="12.6328125" customWidth="1"/>
-    <col min="8451" max="8451" width="19.6328125" customWidth="1"/>
-    <col min="8452" max="8453" width="19.36328125" customWidth="1"/>
+    <col min="8218" max="8218" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="8449" max="8449" width="43.33203125" customWidth="1"/>
+    <col min="8450" max="8450" width="12.6640625" customWidth="1"/>
+    <col min="8451" max="8451" width="19.6640625" customWidth="1"/>
+    <col min="8452" max="8453" width="19.33203125" customWidth="1"/>
     <col min="8462" max="8462" width="10" bestFit="1" customWidth="1"/>
-    <col min="8463" max="8463" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="8463" max="8463" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="8466" max="8466" width="10" bestFit="1" customWidth="1"/>
-    <col min="8470" max="8470" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="8470" max="8470" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="8472" max="8472" width="7" customWidth="1"/>
-    <col min="8474" max="8474" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="8705" max="8705" width="43.36328125" customWidth="1"/>
-    <col min="8706" max="8706" width="12.6328125" customWidth="1"/>
-    <col min="8707" max="8707" width="19.6328125" customWidth="1"/>
-    <col min="8708" max="8709" width="19.36328125" customWidth="1"/>
+    <col min="8474" max="8474" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="8705" max="8705" width="43.33203125" customWidth="1"/>
+    <col min="8706" max="8706" width="12.6640625" customWidth="1"/>
+    <col min="8707" max="8707" width="19.6640625" customWidth="1"/>
+    <col min="8708" max="8709" width="19.33203125" customWidth="1"/>
     <col min="8718" max="8718" width="10" bestFit="1" customWidth="1"/>
-    <col min="8719" max="8719" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="8719" max="8719" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="8722" max="8722" width="10" bestFit="1" customWidth="1"/>
-    <col min="8726" max="8726" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="8726" max="8726" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="8728" max="8728" width="7" customWidth="1"/>
-    <col min="8730" max="8730" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="8961" max="8961" width="43.36328125" customWidth="1"/>
-    <col min="8962" max="8962" width="12.6328125" customWidth="1"/>
-    <col min="8963" max="8963" width="19.6328125" customWidth="1"/>
-    <col min="8964" max="8965" width="19.36328125" customWidth="1"/>
+    <col min="8730" max="8730" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="8961" max="8961" width="43.33203125" customWidth="1"/>
+    <col min="8962" max="8962" width="12.6640625" customWidth="1"/>
+    <col min="8963" max="8963" width="19.6640625" customWidth="1"/>
+    <col min="8964" max="8965" width="19.33203125" customWidth="1"/>
     <col min="8974" max="8974" width="10" bestFit="1" customWidth="1"/>
-    <col min="8975" max="8975" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="8975" max="8975" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="8978" max="8978" width="10" bestFit="1" customWidth="1"/>
-    <col min="8982" max="8982" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="8982" max="8982" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="8984" max="8984" width="7" customWidth="1"/>
-    <col min="8986" max="8986" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="9217" max="9217" width="43.36328125" customWidth="1"/>
-    <col min="9218" max="9218" width="12.6328125" customWidth="1"/>
-    <col min="9219" max="9219" width="19.6328125" customWidth="1"/>
-    <col min="9220" max="9221" width="19.36328125" customWidth="1"/>
+    <col min="8986" max="8986" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="9217" max="9217" width="43.33203125" customWidth="1"/>
+    <col min="9218" max="9218" width="12.6640625" customWidth="1"/>
+    <col min="9219" max="9219" width="19.6640625" customWidth="1"/>
+    <col min="9220" max="9221" width="19.33203125" customWidth="1"/>
     <col min="9230" max="9230" width="10" bestFit="1" customWidth="1"/>
-    <col min="9231" max="9231" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="9231" max="9231" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="9234" max="9234" width="10" bestFit="1" customWidth="1"/>
-    <col min="9238" max="9238" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="9238" max="9238" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="9240" max="9240" width="7" customWidth="1"/>
-    <col min="9242" max="9242" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="9473" max="9473" width="43.36328125" customWidth="1"/>
-    <col min="9474" max="9474" width="12.6328125" customWidth="1"/>
-    <col min="9475" max="9475" width="19.6328125" customWidth="1"/>
-    <col min="9476" max="9477" width="19.36328125" customWidth="1"/>
+    <col min="9242" max="9242" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="9473" max="9473" width="43.33203125" customWidth="1"/>
+    <col min="9474" max="9474" width="12.6640625" customWidth="1"/>
+    <col min="9475" max="9475" width="19.6640625" customWidth="1"/>
+    <col min="9476" max="9477" width="19.33203125" customWidth="1"/>
     <col min="9486" max="9486" width="10" bestFit="1" customWidth="1"/>
-    <col min="9487" max="9487" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="9487" max="9487" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="9490" max="9490" width="10" bestFit="1" customWidth="1"/>
-    <col min="9494" max="9494" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="9494" max="9494" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="9496" max="9496" width="7" customWidth="1"/>
-    <col min="9498" max="9498" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="9729" max="9729" width="43.36328125" customWidth="1"/>
-    <col min="9730" max="9730" width="12.6328125" customWidth="1"/>
-    <col min="9731" max="9731" width="19.6328125" customWidth="1"/>
-    <col min="9732" max="9733" width="19.36328125" customWidth="1"/>
+    <col min="9498" max="9498" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="9729" max="9729" width="43.33203125" customWidth="1"/>
+    <col min="9730" max="9730" width="12.6640625" customWidth="1"/>
+    <col min="9731" max="9731" width="19.6640625" customWidth="1"/>
+    <col min="9732" max="9733" width="19.33203125" customWidth="1"/>
     <col min="9742" max="9742" width="10" bestFit="1" customWidth="1"/>
-    <col min="9743" max="9743" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="9743" max="9743" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="9746" max="9746" width="10" bestFit="1" customWidth="1"/>
-    <col min="9750" max="9750" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="9750" max="9750" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="9752" max="9752" width="7" customWidth="1"/>
-    <col min="9754" max="9754" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="9985" max="9985" width="43.36328125" customWidth="1"/>
-    <col min="9986" max="9986" width="12.6328125" customWidth="1"/>
-    <col min="9987" max="9987" width="19.6328125" customWidth="1"/>
-    <col min="9988" max="9989" width="19.36328125" customWidth="1"/>
+    <col min="9754" max="9754" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="9985" max="9985" width="43.33203125" customWidth="1"/>
+    <col min="9986" max="9986" width="12.6640625" customWidth="1"/>
+    <col min="9987" max="9987" width="19.6640625" customWidth="1"/>
+    <col min="9988" max="9989" width="19.33203125" customWidth="1"/>
     <col min="9998" max="9998" width="10" bestFit="1" customWidth="1"/>
-    <col min="9999" max="9999" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="9999" max="9999" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="10002" max="10002" width="10" bestFit="1" customWidth="1"/>
-    <col min="10006" max="10006" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="10006" max="10006" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="10008" max="10008" width="7" customWidth="1"/>
-    <col min="10010" max="10010" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="10241" max="10241" width="43.36328125" customWidth="1"/>
-    <col min="10242" max="10242" width="12.6328125" customWidth="1"/>
-    <col min="10243" max="10243" width="19.6328125" customWidth="1"/>
-    <col min="10244" max="10245" width="19.36328125" customWidth="1"/>
+    <col min="10010" max="10010" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="10241" max="10241" width="43.33203125" customWidth="1"/>
+    <col min="10242" max="10242" width="12.6640625" customWidth="1"/>
+    <col min="10243" max="10243" width="19.6640625" customWidth="1"/>
+    <col min="10244" max="10245" width="19.33203125" customWidth="1"/>
     <col min="10254" max="10254" width="10" bestFit="1" customWidth="1"/>
-    <col min="10255" max="10255" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="10255" max="10255" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="10258" max="10258" width="10" bestFit="1" customWidth="1"/>
-    <col min="10262" max="10262" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="10262" max="10262" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="10264" max="10264" width="7" customWidth="1"/>
-    <col min="10266" max="10266" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="10497" max="10497" width="43.36328125" customWidth="1"/>
-    <col min="10498" max="10498" width="12.6328125" customWidth="1"/>
-    <col min="10499" max="10499" width="19.6328125" customWidth="1"/>
-    <col min="10500" max="10501" width="19.36328125" customWidth="1"/>
+    <col min="10266" max="10266" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="10497" max="10497" width="43.33203125" customWidth="1"/>
+    <col min="10498" max="10498" width="12.6640625" customWidth="1"/>
+    <col min="10499" max="10499" width="19.6640625" customWidth="1"/>
+    <col min="10500" max="10501" width="19.33203125" customWidth="1"/>
     <col min="10510" max="10510" width="10" bestFit="1" customWidth="1"/>
-    <col min="10511" max="10511" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="10511" max="10511" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="10514" max="10514" width="10" bestFit="1" customWidth="1"/>
-    <col min="10518" max="10518" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="10518" max="10518" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="10520" max="10520" width="7" customWidth="1"/>
-    <col min="10522" max="10522" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="10753" max="10753" width="43.36328125" customWidth="1"/>
-    <col min="10754" max="10754" width="12.6328125" customWidth="1"/>
-    <col min="10755" max="10755" width="19.6328125" customWidth="1"/>
-    <col min="10756" max="10757" width="19.36328125" customWidth="1"/>
+    <col min="10522" max="10522" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="10753" max="10753" width="43.33203125" customWidth="1"/>
+    <col min="10754" max="10754" width="12.6640625" customWidth="1"/>
+    <col min="10755" max="10755" width="19.6640625" customWidth="1"/>
+    <col min="10756" max="10757" width="19.33203125" customWidth="1"/>
     <col min="10766" max="10766" width="10" bestFit="1" customWidth="1"/>
-    <col min="10767" max="10767" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="10767" max="10767" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="10770" max="10770" width="10" bestFit="1" customWidth="1"/>
-    <col min="10774" max="10774" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="10774" max="10774" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="10776" max="10776" width="7" customWidth="1"/>
-    <col min="10778" max="10778" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="11009" max="11009" width="43.36328125" customWidth="1"/>
-    <col min="11010" max="11010" width="12.6328125" customWidth="1"/>
-    <col min="11011" max="11011" width="19.6328125" customWidth="1"/>
-    <col min="11012" max="11013" width="19.36328125" customWidth="1"/>
+    <col min="10778" max="10778" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="11009" max="11009" width="43.33203125" customWidth="1"/>
+    <col min="11010" max="11010" width="12.6640625" customWidth="1"/>
+    <col min="11011" max="11011" width="19.6640625" customWidth="1"/>
+    <col min="11012" max="11013" width="19.33203125" customWidth="1"/>
     <col min="11022" max="11022" width="10" bestFit="1" customWidth="1"/>
-    <col min="11023" max="11023" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="11023" max="11023" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="11026" max="11026" width="10" bestFit="1" customWidth="1"/>
-    <col min="11030" max="11030" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="11030" max="11030" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="11032" max="11032" width="7" customWidth="1"/>
-    <col min="11034" max="11034" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="11265" max="11265" width="43.36328125" customWidth="1"/>
-    <col min="11266" max="11266" width="12.6328125" customWidth="1"/>
-    <col min="11267" max="11267" width="19.6328125" customWidth="1"/>
-    <col min="11268" max="11269" width="19.36328125" customWidth="1"/>
+    <col min="11034" max="11034" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="11265" max="11265" width="43.33203125" customWidth="1"/>
+    <col min="11266" max="11266" width="12.6640625" customWidth="1"/>
+    <col min="11267" max="11267" width="19.6640625" customWidth="1"/>
+    <col min="11268" max="11269" width="19.33203125" customWidth="1"/>
     <col min="11278" max="11278" width="10" bestFit="1" customWidth="1"/>
-    <col min="11279" max="11279" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="11279" max="11279" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="11282" max="11282" width="10" bestFit="1" customWidth="1"/>
-    <col min="11286" max="11286" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="11286" max="11286" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="11288" max="11288" width="7" customWidth="1"/>
-    <col min="11290" max="11290" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="11521" max="11521" width="43.36328125" customWidth="1"/>
-    <col min="11522" max="11522" width="12.6328125" customWidth="1"/>
-    <col min="11523" max="11523" width="19.6328125" customWidth="1"/>
-    <col min="11524" max="11525" width="19.36328125" customWidth="1"/>
+    <col min="11290" max="11290" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="11521" max="11521" width="43.33203125" customWidth="1"/>
+    <col min="11522" max="11522" width="12.6640625" customWidth="1"/>
+    <col min="11523" max="11523" width="19.6640625" customWidth="1"/>
+    <col min="11524" max="11525" width="19.33203125" customWidth="1"/>
     <col min="11534" max="11534" width="10" bestFit="1" customWidth="1"/>
-    <col min="11535" max="11535" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="11535" max="11535" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="11538" max="11538" width="10" bestFit="1" customWidth="1"/>
-    <col min="11542" max="11542" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="11542" max="11542" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="11544" max="11544" width="7" customWidth="1"/>
-    <col min="11546" max="11546" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="11777" max="11777" width="43.36328125" customWidth="1"/>
-    <col min="11778" max="11778" width="12.6328125" customWidth="1"/>
-    <col min="11779" max="11779" width="19.6328125" customWidth="1"/>
-    <col min="11780" max="11781" width="19.36328125" customWidth="1"/>
+    <col min="11546" max="11546" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="11777" max="11777" width="43.33203125" customWidth="1"/>
+    <col min="11778" max="11778" width="12.6640625" customWidth="1"/>
+    <col min="11779" max="11779" width="19.6640625" customWidth="1"/>
+    <col min="11780" max="11781" width="19.33203125" customWidth="1"/>
     <col min="11790" max="11790" width="10" bestFit="1" customWidth="1"/>
-    <col min="11791" max="11791" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="11791" max="11791" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="11794" max="11794" width="10" bestFit="1" customWidth="1"/>
-    <col min="11798" max="11798" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="11798" max="11798" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="11800" max="11800" width="7" customWidth="1"/>
-    <col min="11802" max="11802" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="12033" max="12033" width="43.36328125" customWidth="1"/>
-    <col min="12034" max="12034" width="12.6328125" customWidth="1"/>
-    <col min="12035" max="12035" width="19.6328125" customWidth="1"/>
-    <col min="12036" max="12037" width="19.36328125" customWidth="1"/>
+    <col min="11802" max="11802" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="12033" max="12033" width="43.33203125" customWidth="1"/>
+    <col min="12034" max="12034" width="12.6640625" customWidth="1"/>
+    <col min="12035" max="12035" width="19.6640625" customWidth="1"/>
+    <col min="12036" max="12037" width="19.33203125" customWidth="1"/>
     <col min="12046" max="12046" width="10" bestFit="1" customWidth="1"/>
-    <col min="12047" max="12047" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="12047" max="12047" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="12050" max="12050" width="10" bestFit="1" customWidth="1"/>
-    <col min="12054" max="12054" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="12054" max="12054" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="12056" max="12056" width="7" customWidth="1"/>
-    <col min="12058" max="12058" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="12289" max="12289" width="43.36328125" customWidth="1"/>
-    <col min="12290" max="12290" width="12.6328125" customWidth="1"/>
-    <col min="12291" max="12291" width="19.6328125" customWidth="1"/>
-    <col min="12292" max="12293" width="19.36328125" customWidth="1"/>
+    <col min="12058" max="12058" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="12289" max="12289" width="43.33203125" customWidth="1"/>
+    <col min="12290" max="12290" width="12.6640625" customWidth="1"/>
+    <col min="12291" max="12291" width="19.6640625" customWidth="1"/>
+    <col min="12292" max="12293" width="19.33203125" customWidth="1"/>
     <col min="12302" max="12302" width="10" bestFit="1" customWidth="1"/>
-    <col min="12303" max="12303" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="12303" max="12303" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="12306" max="12306" width="10" bestFit="1" customWidth="1"/>
-    <col min="12310" max="12310" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="12310" max="12310" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="12312" max="12312" width="7" customWidth="1"/>
-    <col min="12314" max="12314" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="12545" max="12545" width="43.36328125" customWidth="1"/>
-    <col min="12546" max="12546" width="12.6328125" customWidth="1"/>
-    <col min="12547" max="12547" width="19.6328125" customWidth="1"/>
-    <col min="12548" max="12549" width="19.36328125" customWidth="1"/>
+    <col min="12314" max="12314" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="12545" max="12545" width="43.33203125" customWidth="1"/>
+    <col min="12546" max="12546" width="12.6640625" customWidth="1"/>
+    <col min="12547" max="12547" width="19.6640625" customWidth="1"/>
+    <col min="12548" max="12549" width="19.33203125" customWidth="1"/>
     <col min="12558" max="12558" width="10" bestFit="1" customWidth="1"/>
-    <col min="12559" max="12559" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="12559" max="12559" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="12562" max="12562" width="10" bestFit="1" customWidth="1"/>
-    <col min="12566" max="12566" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="12566" max="12566" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="12568" max="12568" width="7" customWidth="1"/>
-    <col min="12570" max="12570" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="12801" max="12801" width="43.36328125" customWidth="1"/>
-    <col min="12802" max="12802" width="12.6328125" customWidth="1"/>
-    <col min="12803" max="12803" width="19.6328125" customWidth="1"/>
-    <col min="12804" max="12805" width="19.36328125" customWidth="1"/>
+    <col min="12570" max="12570" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="12801" max="12801" width="43.33203125" customWidth="1"/>
+    <col min="12802" max="12802" width="12.6640625" customWidth="1"/>
+    <col min="12803" max="12803" width="19.6640625" customWidth="1"/>
+    <col min="12804" max="12805" width="19.33203125" customWidth="1"/>
     <col min="12814" max="12814" width="10" bestFit="1" customWidth="1"/>
-    <col min="12815" max="12815" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="12815" max="12815" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="12818" max="12818" width="10" bestFit="1" customWidth="1"/>
-    <col min="12822" max="12822" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="12822" max="12822" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="12824" max="12824" width="7" customWidth="1"/>
-    <col min="12826" max="12826" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="13057" max="13057" width="43.36328125" customWidth="1"/>
-    <col min="13058" max="13058" width="12.6328125" customWidth="1"/>
-    <col min="13059" max="13059" width="19.6328125" customWidth="1"/>
-    <col min="13060" max="13061" width="19.36328125" customWidth="1"/>
+    <col min="12826" max="12826" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="13057" max="13057" width="43.33203125" customWidth="1"/>
+    <col min="13058" max="13058" width="12.6640625" customWidth="1"/>
+    <col min="13059" max="13059" width="19.6640625" customWidth="1"/>
+    <col min="13060" max="13061" width="19.33203125" customWidth="1"/>
     <col min="13070" max="13070" width="10" bestFit="1" customWidth="1"/>
-    <col min="13071" max="13071" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="13071" max="13071" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="13074" max="13074" width="10" bestFit="1" customWidth="1"/>
-    <col min="13078" max="13078" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="13078" max="13078" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="13080" max="13080" width="7" customWidth="1"/>
-    <col min="13082" max="13082" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="13313" max="13313" width="43.36328125" customWidth="1"/>
-    <col min="13314" max="13314" width="12.6328125" customWidth="1"/>
-    <col min="13315" max="13315" width="19.6328125" customWidth="1"/>
-    <col min="13316" max="13317" width="19.36328125" customWidth="1"/>
+    <col min="13082" max="13082" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="13313" max="13313" width="43.33203125" customWidth="1"/>
+    <col min="13314" max="13314" width="12.6640625" customWidth="1"/>
+    <col min="13315" max="13315" width="19.6640625" customWidth="1"/>
+    <col min="13316" max="13317" width="19.33203125" customWidth="1"/>
     <col min="13326" max="13326" width="10" bestFit="1" customWidth="1"/>
-    <col min="13327" max="13327" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="13327" max="13327" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="13330" max="13330" width="10" bestFit="1" customWidth="1"/>
-    <col min="13334" max="13334" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="13334" max="13334" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="13336" max="13336" width="7" customWidth="1"/>
-    <col min="13338" max="13338" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="13569" max="13569" width="43.36328125" customWidth="1"/>
-    <col min="13570" max="13570" width="12.6328125" customWidth="1"/>
-    <col min="13571" max="13571" width="19.6328125" customWidth="1"/>
-    <col min="13572" max="13573" width="19.36328125" customWidth="1"/>
+    <col min="13338" max="13338" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="13569" max="13569" width="43.33203125" customWidth="1"/>
+    <col min="13570" max="13570" width="12.6640625" customWidth="1"/>
+    <col min="13571" max="13571" width="19.6640625" customWidth="1"/>
+    <col min="13572" max="13573" width="19.33203125" customWidth="1"/>
     <col min="13582" max="13582" width="10" bestFit="1" customWidth="1"/>
-    <col min="13583" max="13583" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="13583" max="13583" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="13586" max="13586" width="10" bestFit="1" customWidth="1"/>
-    <col min="13590" max="13590" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="13590" max="13590" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="13592" max="13592" width="7" customWidth="1"/>
-    <col min="13594" max="13594" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="13825" max="13825" width="43.36328125" customWidth="1"/>
-    <col min="13826" max="13826" width="12.6328125" customWidth="1"/>
-    <col min="13827" max="13827" width="19.6328125" customWidth="1"/>
-    <col min="13828" max="13829" width="19.36328125" customWidth="1"/>
+    <col min="13594" max="13594" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="13825" max="13825" width="43.33203125" customWidth="1"/>
+    <col min="13826" max="13826" width="12.6640625" customWidth="1"/>
+    <col min="13827" max="13827" width="19.6640625" customWidth="1"/>
+    <col min="13828" max="13829" width="19.33203125" customWidth="1"/>
     <col min="13838" max="13838" width="10" bestFit="1" customWidth="1"/>
-    <col min="13839" max="13839" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="13839" max="13839" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="13842" max="13842" width="10" bestFit="1" customWidth="1"/>
-    <col min="13846" max="13846" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="13846" max="13846" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="13848" max="13848" width="7" customWidth="1"/>
-    <col min="13850" max="13850" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="14081" max="14081" width="43.36328125" customWidth="1"/>
-    <col min="14082" max="14082" width="12.6328125" customWidth="1"/>
-    <col min="14083" max="14083" width="19.6328125" customWidth="1"/>
-    <col min="14084" max="14085" width="19.36328125" customWidth="1"/>
+    <col min="13850" max="13850" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="14081" max="14081" width="43.33203125" customWidth="1"/>
+    <col min="14082" max="14082" width="12.6640625" customWidth="1"/>
+    <col min="14083" max="14083" width="19.6640625" customWidth="1"/>
+    <col min="14084" max="14085" width="19.33203125" customWidth="1"/>
     <col min="14094" max="14094" width="10" bestFit="1" customWidth="1"/>
-    <col min="14095" max="14095" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="14095" max="14095" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="14098" max="14098" width="10" bestFit="1" customWidth="1"/>
-    <col min="14102" max="14102" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="14102" max="14102" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="14104" max="14104" width="7" customWidth="1"/>
-    <col min="14106" max="14106" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="14337" max="14337" width="43.36328125" customWidth="1"/>
-    <col min="14338" max="14338" width="12.6328125" customWidth="1"/>
-    <col min="14339" max="14339" width="19.6328125" customWidth="1"/>
-    <col min="14340" max="14341" width="19.36328125" customWidth="1"/>
+    <col min="14106" max="14106" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="14337" max="14337" width="43.33203125" customWidth="1"/>
+    <col min="14338" max="14338" width="12.6640625" customWidth="1"/>
+    <col min="14339" max="14339" width="19.6640625" customWidth="1"/>
+    <col min="14340" max="14341" width="19.33203125" customWidth="1"/>
     <col min="14350" max="14350" width="10" bestFit="1" customWidth="1"/>
-    <col min="14351" max="14351" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="14351" max="14351" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="14354" max="14354" width="10" bestFit="1" customWidth="1"/>
-    <col min="14358" max="14358" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="14358" max="14358" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="14360" max="14360" width="7" customWidth="1"/>
-    <col min="14362" max="14362" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="14593" max="14593" width="43.36328125" customWidth="1"/>
-    <col min="14594" max="14594" width="12.6328125" customWidth="1"/>
-    <col min="14595" max="14595" width="19.6328125" customWidth="1"/>
-    <col min="14596" max="14597" width="19.36328125" customWidth="1"/>
+    <col min="14362" max="14362" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="14593" max="14593" width="43.33203125" customWidth="1"/>
+    <col min="14594" max="14594" width="12.6640625" customWidth="1"/>
+    <col min="14595" max="14595" width="19.6640625" customWidth="1"/>
+    <col min="14596" max="14597" width="19.33203125" customWidth="1"/>
     <col min="14606" max="14606" width="10" bestFit="1" customWidth="1"/>
-    <col min="14607" max="14607" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="14607" max="14607" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="14610" max="14610" width="10" bestFit="1" customWidth="1"/>
-    <col min="14614" max="14614" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="14614" max="14614" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="14616" max="14616" width="7" customWidth="1"/>
-    <col min="14618" max="14618" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="14849" max="14849" width="43.36328125" customWidth="1"/>
-    <col min="14850" max="14850" width="12.6328125" customWidth="1"/>
-    <col min="14851" max="14851" width="19.6328125" customWidth="1"/>
-    <col min="14852" max="14853" width="19.36328125" customWidth="1"/>
+    <col min="14618" max="14618" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="14849" max="14849" width="43.33203125" customWidth="1"/>
+    <col min="14850" max="14850" width="12.6640625" customWidth="1"/>
+    <col min="14851" max="14851" width="19.6640625" customWidth="1"/>
+    <col min="14852" max="14853" width="19.33203125" customWidth="1"/>
     <col min="14862" max="14862" width="10" bestFit="1" customWidth="1"/>
-    <col min="14863" max="14863" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="14863" max="14863" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="14866" max="14866" width="10" bestFit="1" customWidth="1"/>
-    <col min="14870" max="14870" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="14870" max="14870" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="14872" max="14872" width="7" customWidth="1"/>
-    <col min="14874" max="14874" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="15105" max="15105" width="43.36328125" customWidth="1"/>
-    <col min="15106" max="15106" width="12.6328125" customWidth="1"/>
-    <col min="15107" max="15107" width="19.6328125" customWidth="1"/>
-    <col min="15108" max="15109" width="19.36328125" customWidth="1"/>
+    <col min="14874" max="14874" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="15105" max="15105" width="43.33203125" customWidth="1"/>
+    <col min="15106" max="15106" width="12.6640625" customWidth="1"/>
+    <col min="15107" max="15107" width="19.6640625" customWidth="1"/>
+    <col min="15108" max="15109" width="19.33203125" customWidth="1"/>
     <col min="15118" max="15118" width="10" bestFit="1" customWidth="1"/>
-    <col min="15119" max="15119" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="15119" max="15119" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="15122" max="15122" width="10" bestFit="1" customWidth="1"/>
-    <col min="15126" max="15126" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="15126" max="15126" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="15128" max="15128" width="7" customWidth="1"/>
-    <col min="15130" max="15130" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="15361" max="15361" width="43.36328125" customWidth="1"/>
-    <col min="15362" max="15362" width="12.6328125" customWidth="1"/>
-    <col min="15363" max="15363" width="19.6328125" customWidth="1"/>
-    <col min="15364" max="15365" width="19.36328125" customWidth="1"/>
+    <col min="15130" max="15130" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="15361" max="15361" width="43.33203125" customWidth="1"/>
+    <col min="15362" max="15362" width="12.6640625" customWidth="1"/>
+    <col min="15363" max="15363" width="19.6640625" customWidth="1"/>
+    <col min="15364" max="15365" width="19.33203125" customWidth="1"/>
     <col min="15374" max="15374" width="10" bestFit="1" customWidth="1"/>
-    <col min="15375" max="15375" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="15375" max="15375" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="15378" max="15378" width="10" bestFit="1" customWidth="1"/>
-    <col min="15382" max="15382" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="15382" max="15382" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="15384" max="15384" width="7" customWidth="1"/>
-    <col min="15386" max="15386" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="15617" max="15617" width="43.36328125" customWidth="1"/>
-    <col min="15618" max="15618" width="12.6328125" customWidth="1"/>
-    <col min="15619" max="15619" width="19.6328125" customWidth="1"/>
-    <col min="15620" max="15621" width="19.36328125" customWidth="1"/>
+    <col min="15386" max="15386" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="15617" max="15617" width="43.33203125" customWidth="1"/>
+    <col min="15618" max="15618" width="12.6640625" customWidth="1"/>
+    <col min="15619" max="15619" width="19.6640625" customWidth="1"/>
+    <col min="15620" max="15621" width="19.33203125" customWidth="1"/>
     <col min="15630" max="15630" width="10" bestFit="1" customWidth="1"/>
-    <col min="15631" max="15631" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="15631" max="15631" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="15634" max="15634" width="10" bestFit="1" customWidth="1"/>
-    <col min="15638" max="15638" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="15638" max="15638" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="15640" max="15640" width="7" customWidth="1"/>
-    <col min="15642" max="15642" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="15873" max="15873" width="43.36328125" customWidth="1"/>
-    <col min="15874" max="15874" width="12.6328125" customWidth="1"/>
-    <col min="15875" max="15875" width="19.6328125" customWidth="1"/>
-    <col min="15876" max="15877" width="19.36328125" customWidth="1"/>
+    <col min="15642" max="15642" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="15873" max="15873" width="43.33203125" customWidth="1"/>
+    <col min="15874" max="15874" width="12.6640625" customWidth="1"/>
+    <col min="15875" max="15875" width="19.6640625" customWidth="1"/>
+    <col min="15876" max="15877" width="19.33203125" customWidth="1"/>
     <col min="15886" max="15886" width="10" bestFit="1" customWidth="1"/>
-    <col min="15887" max="15887" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="15887" max="15887" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="15890" max="15890" width="10" bestFit="1" customWidth="1"/>
-    <col min="15894" max="15894" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="15894" max="15894" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="15896" max="15896" width="7" customWidth="1"/>
-    <col min="15898" max="15898" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="16129" max="16129" width="43.36328125" customWidth="1"/>
-    <col min="16130" max="16130" width="12.6328125" customWidth="1"/>
-    <col min="16131" max="16131" width="19.6328125" customWidth="1"/>
-    <col min="16132" max="16133" width="19.36328125" customWidth="1"/>
+    <col min="15898" max="15898" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="16129" max="16129" width="43.33203125" customWidth="1"/>
+    <col min="16130" max="16130" width="12.6640625" customWidth="1"/>
+    <col min="16131" max="16131" width="19.6640625" customWidth="1"/>
+    <col min="16132" max="16133" width="19.33203125" customWidth="1"/>
     <col min="16142" max="16142" width="10" bestFit="1" customWidth="1"/>
-    <col min="16143" max="16143" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="16143" max="16143" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="16146" max="16146" width="10" bestFit="1" customWidth="1"/>
-    <col min="16150" max="16150" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="16150" max="16150" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="16152" max="16152" width="7" customWidth="1"/>
-    <col min="16154" max="16154" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="16154" max="16154" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -4316,7 +4023,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="36" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G1" s="36" t="s">
         <v>17</v>
@@ -4340,7 +4047,7 @@
         <v>23</v>
       </c>
       <c r="N1" s="36" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="O1" s="36" t="s">
         <v>24</v>
@@ -4349,45 +4056,45 @@
         <v>25</v>
       </c>
       <c r="Q1" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="R1" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="S1" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="T1" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="U1" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="R1" s="36" t="s">
+      <c r="V1" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="S1" s="36" t="s">
+      <c r="W1" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="T1" s="36" t="s">
+      <c r="X1" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="U1" s="36" t="s">
+      <c r="Y1" s="36" t="s">
         <v>105</v>
-      </c>
-      <c r="V1" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="W1" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="X1" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y1" s="36" t="s">
-        <v>109</v>
       </c>
       <c r="Z1" s="36" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D2" s="17">
         <v>100</v>
@@ -4396,10 +4103,10 @@
         <v>12000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H2" s="2">
         <v>0</v>
@@ -4458,18 +4165,18 @@
         <v>0.96</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D3" s="17">
         <v>12000</v>
@@ -4478,10 +4185,10 @@
         <v>10000000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H3" s="2">
         <v>0</v>
@@ -4543,15 +4250,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D4" s="17">
         <v>0</v>
@@ -4560,10 +4267,10 @@
         <v>10000000000</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H4" s="11">
         <v>0</v>
@@ -4620,18 +4327,18 @@
         <v>0.96</v>
       </c>
       <c r="Z4" s="11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D5" s="17">
         <v>0</v>
@@ -4640,10 +4347,10 @@
         <v>10000000000</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H5" s="11">
         <v>0</v>
@@ -4700,18 +4407,18 @@
         <v>0.96</v>
       </c>
       <c r="Z5" s="11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D6" s="17">
         <v>0</v>
@@ -4720,10 +4427,10 @@
         <v>10000000000</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H6" s="11">
         <v>0</v>
@@ -4780,18 +4487,18 @@
         <v>0.96</v>
       </c>
       <c r="Z6" s="11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D7" s="17">
         <v>0</v>
@@ -4800,10 +4507,10 @@
         <v>10000000000</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H7" s="11">
         <v>0</v>
@@ -4860,18 +4567,18 @@
         <v>0.96</v>
       </c>
       <c r="Z7" s="11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D8" s="17">
         <v>0</v>
@@ -4880,10 +4587,10 @@
         <v>10000000000</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H8" s="11">
         <v>0</v>
@@ -4940,7 +4647,7 @@
         <v>0.96</v>
       </c>
       <c r="Z8" s="11" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -4959,23 +4666,23 @@
       <selection activeCell="U27" sqref="U27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.453125" customWidth="1"/>
+    <col min="1" max="1" width="28.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6328125" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
     <col min="7" max="10" width="17" customWidth="1"/>
-    <col min="11" max="11" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
-    <col min="13" max="21" width="8.81640625"/>
+    <col min="13" max="21" width="8.83203125"/>
     <col min="22" max="22" width="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.36328125" customWidth="1"/>
+    <col min="23" max="23" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -4995,22 +4702,22 @@
         <v>5</v>
       </c>
       <c r="G1" s="36" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="H1" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="J1" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="K1" s="36" t="s">
         <v>221</v>
       </c>
-      <c r="I1" s="36" t="s">
-        <v>223</v>
-      </c>
-      <c r="J1" s="36" t="s">
+      <c r="L1" s="36" t="s">
         <v>222</v>
-      </c>
-      <c r="K1" s="36" t="s">
-        <v>225</v>
-      </c>
-      <c r="L1" s="36" t="s">
-        <v>226</v>
       </c>
       <c r="M1" s="36" t="s">
         <v>17</v>
@@ -5043,18 +4750,18 @@
         <v>26</v>
       </c>
       <c r="W1" s="40" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D2" s="17">
         <v>0</v>
@@ -5063,7 +4770,7 @@
         <v>25000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G2" s="2">
         <v>1</v>
@@ -5078,13 +4785,13 @@
         <v>1100</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N2" s="2">
         <f>-333/0.962</f>
@@ -5113,21 +4820,21 @@
         <v>5</v>
       </c>
       <c r="V2" s="14" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="W2" s="27" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>212</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>216</v>
       </c>
       <c r="D3" s="17">
         <v>5000</v>
@@ -5136,7 +4843,7 @@
         <v>40000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G3" s="2">
         <v>1</v>
@@ -5151,13 +4858,13 @@
         <v>36000</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N3" s="2">
         <f>5000/0.962</f>
@@ -5185,21 +4892,21 @@
         <v>5</v>
       </c>
       <c r="V3" s="14" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="W3" s="27" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D4" s="17">
         <v>5000</v>
@@ -5208,7 +4915,7 @@
         <v>100000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G4" s="2">
         <v>1</v>
@@ -5223,13 +4930,13 @@
         <v>100000</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N4" s="2">
         <f>-3000/0.962</f>
@@ -5258,13 +4965,13 @@
         <v>5</v>
       </c>
       <c r="V4" s="14" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="W4" s="27" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="42"/>
       <c r="U7" s="42"/>
     </row>
@@ -5282,16 +4989,16 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.453125" customWidth="1"/>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="5" width="21.6328125" customWidth="1"/>
-    <col min="8" max="8" width="11.6328125" customWidth="1"/>
+    <col min="4" max="5" width="21.6640625" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -5338,12 +5045,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="36" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C2" s="2">
         <v>500</v>
@@ -5352,10 +5059,10 @@
         <v>4000</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="G2" s="2">
         <v>0</v>
@@ -5386,12 +5093,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C3" s="2">
         <v>4000</v>
@@ -5400,10 +5107,10 @@
         <v>37000</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="G3" s="2">
         <v>0</v>
@@ -5434,12 +5141,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C4" s="2">
         <v>37000</v>
@@ -5448,10 +5155,10 @@
         <v>375000</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="G4" s="2">
         <v>0</v>
@@ -5482,12 +5189,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C5" s="2">
         <v>37000</v>
@@ -5496,10 +5203,10 @@
         <v>10000000000</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="G5" s="2">
         <v>0</v>
@@ -5527,7 +5234,7 @@
         <v>6</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -5546,16 +5253,16 @@
       <selection activeCell="AH22" sqref="AH22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="15.36328125" customWidth="1"/>
-    <col min="3" max="3" width="16.6328125" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="15" max="15" width="29.6328125" customWidth="1"/>
+    <col min="15" max="15" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5602,12 +5309,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -5616,10 +5323,10 @@
         <v>10000000000</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="G2" s="2">
         <v>0</v>
@@ -5664,20 +5371,20 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.6328125" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.36328125" customWidth="1"/>
-    <col min="22" max="22" width="12.6328125" customWidth="1"/>
-    <col min="23" max="23" width="10.453125" customWidth="1"/>
+    <col min="21" max="21" width="14.33203125" customWidth="1"/>
+    <col min="22" max="22" width="12.6640625" customWidth="1"/>
+    <col min="23" max="23" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -5691,52 +5398,52 @@
         <v>6</v>
       </c>
       <c r="E1" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="J1" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="K1" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="L1" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="M1" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="N1" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="O1" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="L1" s="36" t="s">
+      <c r="P1" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="M1" s="41" t="s">
+      <c r="Q1" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="N1" s="39" t="s">
+      <c r="R1" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="O1" s="39" t="s">
+      <c r="S1" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="P1" s="39" t="s">
+      <c r="T1" s="39" t="s">
         <v>48</v>
-      </c>
-      <c r="Q1" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="R1" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="S1" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="T1" s="39" t="s">
-        <v>52</v>
       </c>
       <c r="U1" s="36" t="s">
         <v>3</v>
@@ -5778,15 +5485,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D2" s="2">
         <v>2</v>
@@ -5849,10 +5556,10 @@
         <v>10000000000</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y2" s="2">
         <v>0</v>
@@ -5883,15 +5590,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D3" s="2">
         <v>2</v>
@@ -5954,10 +5661,10 @@
         <v>10000000000</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y3" s="2">
         <v>0</v>
@@ -6004,15 +5711,15 @@
       <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.453125" customWidth="1"/>
-    <col min="3" max="3" width="9.453125" customWidth="1"/>
-    <col min="4" max="5" width="10.453125" customWidth="1"/>
-    <col min="8" max="8" width="10.453125" customWidth="1"/>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="9.5" customWidth="1"/>
+    <col min="4" max="5" width="10.5" customWidth="1"/>
+    <col min="8" max="8" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -6059,12 +5766,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -6073,10 +5780,10 @@
         <v>10000000000</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="G2" s="2">
         <v>0</v>
@@ -6123,17 +5830,17 @@
       <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="13.36328125" customWidth="1"/>
-    <col min="5" max="5" width="17.6328125" customWidth="1"/>
-    <col min="6" max="11" width="16.453125" customWidth="1"/>
-    <col min="18" max="18" width="22.6328125" customWidth="1"/>
+    <col min="1" max="1" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="13.33203125" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="11" width="16.5" customWidth="1"/>
+    <col min="18" max="18" width="22.6640625" customWidth="1"/>
     <col min="22" max="22" width="75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6144,7 +5851,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -6156,16 +5863,16 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>17</v>
@@ -6198,21 +5905,21 @@
         <v>26</v>
       </c>
       <c r="V1" s="16" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="E2" s="17">
         <v>1</v>
@@ -6221,7 +5928,7 @@
         <v>90000</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H2" s="22">
         <v>0.82</v>
@@ -6236,7 +5943,7 @@
         <v>126</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M2" s="2">
         <f>20300/0.902</f>
@@ -6266,21 +5973,21 @@
       </c>
       <c r="U2" s="2"/>
       <c r="V2" s="11" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="E3" s="17">
         <v>90000</v>
@@ -6289,7 +5996,7 @@
         <v>730000</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H3" s="22">
         <v>0.8</v>
@@ -6304,7 +6011,7 @@
         <v>126</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M3" s="2">
         <f>35100/0.902</f>
@@ -6334,21 +6041,21 @@
       </c>
       <c r="U3" s="2"/>
       <c r="V3" s="11" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="E4" s="17">
         <v>730000</v>
@@ -6357,7 +6064,7 @@
         <v>10000000000</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H4" s="22">
         <v>0.82</v>
@@ -6372,7 +6079,7 @@
         <v>126</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M4" s="2">
         <f>84000/0.902</f>
@@ -6402,21 +6109,21 @@
       </c>
       <c r="U4" s="2"/>
       <c r="V4" s="11" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E5" s="17">
         <v>1</v>
@@ -6425,7 +6132,7 @@
         <v>90000</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H5" s="22">
         <v>0.84</v>
@@ -6440,7 +6147,7 @@
         <v>126</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M5" s="2">
         <f>20300/0.902</f>
@@ -6470,21 +6177,21 @@
       </c>
       <c r="U5" s="2"/>
       <c r="V5" s="11" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E6" s="17">
         <v>90000</v>
@@ -6493,7 +6200,7 @@
         <v>730000</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H6" s="22">
         <v>0.82</v>
@@ -6508,7 +6215,7 @@
         <v>126</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M6" s="2">
         <f>35100/0.902</f>
@@ -6538,21 +6245,21 @@
       </c>
       <c r="U6" s="2"/>
       <c r="V6" s="11" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E7" s="17">
         <v>730000</v>
@@ -6561,7 +6268,7 @@
         <v>10000000000</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H7" s="22">
         <v>0.84</v>
@@ -6576,7 +6283,7 @@
         <v>126</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M7" s="2">
         <f>84000/0.902</f>
@@ -6606,21 +6313,21 @@
       </c>
       <c r="U7" s="2"/>
       <c r="V7" s="11" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E8" s="17">
         <v>1</v>
@@ -6629,7 +6336,7 @@
         <v>90000</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H8" s="22">
         <v>0.92</v>
@@ -6644,7 +6351,7 @@
         <v>88</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M8" s="2">
         <f>20300/0.902</f>
@@ -6674,21 +6381,21 @@
       </c>
       <c r="U8" s="2"/>
       <c r="V8" s="11" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E9" s="17">
         <v>90000</v>
@@ -6697,7 +6404,7 @@
         <v>730000</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H9" s="22">
         <v>0.9</v>
@@ -6712,7 +6419,7 @@
         <v>88</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M9" s="2">
         <f>35100/0.902</f>
@@ -6742,21 +6449,21 @@
       </c>
       <c r="U9" s="2"/>
       <c r="V9" s="11" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E10" s="17">
         <v>730000</v>
@@ -6765,7 +6472,7 @@
         <v>10000000000</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H10" s="22">
         <v>0.92</v>
@@ -6780,7 +6487,7 @@
         <v>88</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M10" s="2">
         <f>84000/0.902</f>
@@ -6810,7 +6517,7 @@
       </c>
       <c r="U10" s="2"/>
       <c r="V10" s="11" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -6829,20 +6536,20 @@
       <selection activeCell="B8" sqref="B8:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="7" width="17.6328125" customWidth="1"/>
-    <col min="8" max="9" width="15.453125" customWidth="1"/>
-    <col min="10" max="10" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="17.6328125" customWidth="1"/>
-    <col min="15" max="15" width="10.453125" customWidth="1"/>
-    <col min="22" max="22" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="72.453125" customWidth="1"/>
+    <col min="6" max="7" width="17.6640625" customWidth="1"/>
+    <col min="8" max="9" width="15.5" customWidth="1"/>
+    <col min="10" max="10" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="17.6640625" customWidth="1"/>
+    <col min="15" max="15" width="10.5" customWidth="1"/>
+    <col min="22" max="22" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="72.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -6853,7 +6560,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="36" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E1" s="36" t="s">
         <v>3</v>
@@ -6865,19 +6572,19 @@
         <v>5</v>
       </c>
       <c r="H1" s="39" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="I1" s="39" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="J1" s="39" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="K1" s="39" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="L1" s="36" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="M1" s="36" t="s">
         <v>17</v>
@@ -6910,21 +6617,21 @@
         <v>26</v>
       </c>
       <c r="W1" s="36" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E2" s="17">
         <v>850000</v>
@@ -6933,7 +6640,7 @@
         <v>2600000</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H2" s="28">
         <v>0.4</v>
@@ -6951,7 +6658,7 @@
         <v>140</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N2" s="12">
         <v>0</v>
@@ -6978,24 +6685,24 @@
         <v>5</v>
       </c>
       <c r="V2" s="12" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="W2" s="31" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E3" s="17">
         <v>2600000</v>
@@ -7004,7 +6711,7 @@
         <v>3500000</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H3" s="29">
         <v>0.43</v>
@@ -7022,7 +6729,7 @@
         <v>140</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N3" s="12">
         <v>0</v>
@@ -7049,24 +6756,24 @@
         <v>5</v>
       </c>
       <c r="V3" s="12" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="W3" s="31" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E4" s="24">
         <v>3500000</v>
@@ -7075,7 +6782,7 @@
         <v>10000000</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H4" s="30">
         <v>0.45500000000000002</v>
@@ -7093,7 +6800,7 @@
         <v>140</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N4" s="12">
         <v>0</v>
@@ -7120,24 +6827,24 @@
         <v>5</v>
       </c>
       <c r="V4" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="W4" s="31" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="32" x14ac:dyDescent="0.2">
+      <c r="A5" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>173</v>
-      </c>
-      <c r="W4" s="31" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>177</v>
       </c>
       <c r="E5" s="25">
         <v>180000</v>
@@ -7146,7 +6853,7 @@
         <v>280000</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H5" s="30">
         <v>0.35</v>
@@ -7164,7 +6871,7 @@
         <v>140</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N5" s="12">
         <v>0</v>
@@ -7191,24 +6898,24 @@
         <v>5</v>
       </c>
       <c r="V5" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="W5" s="31" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="32" x14ac:dyDescent="0.2">
+      <c r="A6" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>173</v>
-      </c>
-      <c r="W5" s="31" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>177</v>
       </c>
       <c r="E6" s="25">
         <v>280000</v>
@@ -7217,7 +6924,7 @@
         <v>900000</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H6" s="30">
         <v>0.39</v>
@@ -7235,7 +6942,7 @@
         <v>140</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N6" s="12">
         <v>0</v>
@@ -7262,24 +6969,24 @@
         <v>5</v>
       </c>
       <c r="V6" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="W6" s="31" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="32" x14ac:dyDescent="0.2">
+      <c r="A7" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>173</v>
-      </c>
-      <c r="W6" s="31" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>177</v>
       </c>
       <c r="E7" s="25">
         <v>900000</v>
@@ -7288,7 +6995,7 @@
         <v>2600000</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H7" s="30">
         <v>0.42</v>
@@ -7306,7 +7013,7 @@
         <v>140</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N7" s="12">
         <v>0</v>
@@ -7333,24 +7040,24 @@
         <v>5</v>
       </c>
       <c r="V7" s="11" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="W7" s="31" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E8" s="25">
         <v>1000000</v>
@@ -7359,7 +7066,7 @@
         <v>5000000</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H8" s="30">
         <v>0.15</v>
@@ -7377,7 +7084,7 @@
         <v>250</v>
       </c>
       <c r="M8" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N8" s="11">
         <v>0</v>
@@ -7404,24 +7111,24 @@
         <v>5</v>
       </c>
       <c r="V8" s="11" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="W8" s="27" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E9" s="25">
         <v>5000000</v>
@@ -7430,7 +7137,7 @@
         <v>50000000</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H9" s="30">
         <v>0.17</v>
@@ -7448,7 +7155,7 @@
         <v>250</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N9" s="11">
         <v>0</v>
@@ -7475,24 +7182,24 @@
         <v>5</v>
       </c>
       <c r="V9" s="11" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="W9" s="27" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E10" s="25">
         <v>1000000</v>
@@ -7501,7 +7208,7 @@
         <v>50000000</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H10" s="30">
         <v>0.18</v>
@@ -7519,7 +7226,7 @@
         <v>350</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N10" s="11">
         <v>0</v>
@@ -7546,24 +7253,24 @@
         <v>5</v>
       </c>
       <c r="V10" s="11" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="W10" s="27" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E11" s="25">
         <v>30000000</v>
@@ -7572,7 +7279,7 @@
         <v>150000000</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H11" s="30">
         <v>0.62</v>
@@ -7590,7 +7297,7 @@
         <v>150</v>
       </c>
       <c r="M11" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N11" s="11">
         <v>0</v>
@@ -7618,13 +7325,13 @@
         <v>6</v>
       </c>
       <c r="V11" s="11" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="W11" s="27" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B13" s="9"/>
     </row>
   </sheetData>
@@ -7643,19 +7350,19 @@
       <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.453125" customWidth="1"/>
-    <col min="3" max="3" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6328125" customWidth="1"/>
+    <col min="1" max="1" width="28.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
     <col min="5" max="6" width="23" customWidth="1"/>
-    <col min="7" max="10" width="15.81640625" customWidth="1"/>
+    <col min="7" max="10" width="15.83203125" customWidth="1"/>
     <col min="20" max="20" width="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="111.6328125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="111.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -7675,16 +7382,16 @@
         <v>5</v>
       </c>
       <c r="G1" s="36" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="H1" s="36" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="I1" s="36" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="J1" s="36" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="K1" s="36" t="s">
         <v>17</v>
@@ -7717,18 +7424,18 @@
         <v>26</v>
       </c>
       <c r="U1" s="40" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D2" s="17">
         <v>1</v>
@@ -7737,7 +7444,7 @@
         <v>80000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" s="2">
         <v>-20</v>
@@ -7746,13 +7453,13 @@
         <v>160</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L2" s="2">
         <f>-333/0.962</f>
@@ -7781,21 +7488,21 @@
         <v>5</v>
       </c>
       <c r="T2" s="11" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="U2" s="27" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D3" s="17">
         <v>80000</v>
@@ -7804,7 +7511,7 @@
         <v>100000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G3" s="2">
         <v>-20</v>
@@ -7813,13 +7520,13 @@
         <v>160</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L3" s="2">
         <f>5000/0.962</f>
@@ -7847,21 +7554,21 @@
         <v>5</v>
       </c>
       <c r="T3" s="11" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="U3" s="27" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D4" s="24">
         <v>100000</v>
@@ -7870,7 +7577,7 @@
         <v>10000000000</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G4" s="12">
         <v>-20</v>
@@ -7879,13 +7586,13 @@
         <v>160</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L4" s="2">
         <f>-3000/0.962</f>
@@ -7914,21 +7621,21 @@
         <v>5</v>
       </c>
       <c r="T4" s="11" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="U4" s="27" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
@@ -7937,14 +7644,14 @@
         <v>500</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L5" s="2">
         <v>3381</v>
@@ -7971,7 +7678,7 @@
         <v>5</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -7990,21 +7697,21 @@
       <selection activeCell="B2" sqref="B2:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="45.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.453125" customWidth="1"/>
-    <col min="5" max="6" width="15.6328125" customWidth="1"/>
-    <col min="7" max="7" width="11.1796875" customWidth="1"/>
-    <col min="8" max="8" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="33.36328125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="45.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.1640625" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="45.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -8012,7 +7719,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D1" s="36" t="s">
         <v>2</v>
@@ -8027,16 +7734,16 @@
         <v>5</v>
       </c>
       <c r="H1" s="36" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I1" s="36" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="J1" s="36" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="K1" s="36" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="L1" s="36" t="s">
         <v>17</v>
@@ -8069,21 +7776,21 @@
         <v>26</v>
       </c>
       <c r="V1" s="36" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C2" s="12">
         <v>0.47</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E2" s="17">
         <v>1050000</v>
@@ -8092,7 +7799,7 @@
         <v>70000000</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H2" s="2">
         <v>6.3</v>
@@ -8107,7 +7814,7 @@
         <v>6.67</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M2" s="2">
         <v>1568000</v>
@@ -8134,24 +7841,24 @@
         <v>5</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C3" s="11">
         <v>0.4</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E3" s="17">
         <v>1</v>
@@ -8160,7 +7867,7 @@
         <v>260000</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H3" s="2">
         <v>4.7</v>
@@ -8175,7 +7882,7 @@
         <v>6.67</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M3" s="2">
         <f>11357/0.902</f>
@@ -8207,21 +7914,21 @@
         <v>25</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C4" s="11">
         <v>0.4</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E4" s="17">
         <v>260000</v>
@@ -8230,7 +7937,7 @@
         <v>530000</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H4" s="2">
         <v>4.9000000000000004</v>
@@ -8245,7 +7952,7 @@
         <v>6.67</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M4" s="2">
         <f>11357/0.902</f>
@@ -8277,21 +7984,21 @@
         <v>25</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C5" s="11">
         <v>0.4</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E5" s="17">
         <v>530000</v>
@@ -8300,7 +8007,7 @@
         <v>1050000</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H5" s="2">
         <v>5.3</v>
@@ -8315,7 +8022,7 @@
         <v>6.67</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M5" s="2">
         <f>11357/0.902</f>
@@ -8347,21 +8054,21 @@
         <v>25</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C6" s="11">
         <v>0.4</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E6" s="17">
         <v>1050000</v>
@@ -8370,7 +8077,7 @@
         <v>2110000</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H6" s="2">
         <v>5.8</v>
@@ -8385,7 +8092,7 @@
         <v>6.67</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M6" s="2">
         <f>11357/0.902</f>
@@ -8417,21 +8124,21 @@
         <v>25</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C7" s="11">
         <v>0.4</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E7" s="17">
         <v>2110000</v>
@@ -8440,7 +8147,7 @@
         <v>70000000</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H7" s="2">
         <v>6.3</v>
@@ -8455,7 +8162,7 @@
         <v>6.67</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M7" s="2">
         <v>0</v>
@@ -8485,13 +8192,13 @@
         <v>25</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="P13" s="10"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="P15" s="10"/>
     </row>
   </sheetData>
@@ -8506,24 +8213,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:AG7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+    <sheetView topLeftCell="Q1" workbookViewId="0">
       <selection activeCell="AE1" sqref="AE1:AG7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.1796875" customWidth="1"/>
-    <col min="9" max="9" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.6328125" customWidth="1"/>
-    <col min="11" max="12" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="45.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" customWidth="1"/>
+    <col min="11" max="12" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="45.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8543,22 +8250,22 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>17</v>
@@ -8591,48 +8298,48 @@
         <v>26</v>
       </c>
       <c r="W1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="D2" s="17">
         <v>0</v>
@@ -8641,7 +8348,7 @@
         <v>51150</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" s="2">
         <v>0.7</v>
@@ -8662,7 +8369,7 @@
         <v>7</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N2" s="2">
         <v>0</v>
@@ -8722,18 +8429,18 @@
         <v>2.14</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D3" s="17">
         <v>51150</v>
@@ -8742,7 +8449,7 @@
         <v>1176000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G3" s="2">
         <v>0.7</v>
@@ -8763,7 +8470,7 @@
         <v>7</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N3" s="2">
         <v>0</v>
@@ -8823,18 +8530,18 @@
         <v>33</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D4" s="17">
         <v>0</v>
@@ -8843,7 +8550,7 @@
         <v>58150</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G4" s="2">
         <v>1</v>
@@ -8864,7 +8571,7 @@
         <v>7</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N4" s="2">
         <v>0</v>
@@ -8924,18 +8631,18 @@
         <v>2.5</v>
       </c>
       <c r="AG4" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D5" s="17">
         <v>58150</v>
@@ -8944,7 +8651,7 @@
         <v>1337450</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G5" s="2">
         <v>1</v>
@@ -8965,7 +8672,7 @@
         <v>7</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N5" s="2">
         <v>0</v>
@@ -9025,18 +8732,18 @@
         <v>14</v>
       </c>
       <c r="AG5" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D6" s="17">
         <v>1337450</v>
@@ -9045,7 +8752,7 @@
         <v>10000000000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
@@ -9066,7 +8773,7 @@
         <v>7</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N6" s="2">
         <v>0</v>
@@ -9126,18 +8833,18 @@
         <v>431</v>
       </c>
       <c r="AG6" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D7" s="17">
         <v>116300</v>
@@ -9146,7 +8853,7 @@
         <v>1628200</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G7" s="2">
         <v>1.2</v>
@@ -9167,7 +8874,7 @@
         <v>7</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N7" s="2">
         <v>0</v>
@@ -9244,23 +8951,23 @@
       <selection activeCell="V23" sqref="V23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.453125" customWidth="1"/>
-    <col min="3" max="3" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.453125" customWidth="1"/>
-    <col min="5" max="5" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.1796875" customWidth="1"/>
-    <col min="7" max="7" width="12.1796875" customWidth="1"/>
-    <col min="8" max="8" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.5" customWidth="1"/>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5" customWidth="1"/>
+    <col min="5" max="5" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.1640625" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="29" customWidth="1"/>
     <col min="22" max="22" width="69" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -9280,19 +8987,19 @@
         <v>5</v>
       </c>
       <c r="G1" s="36" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H1" s="36" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="I1" s="36" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="J1" s="36" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="K1" s="36" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="L1" s="36" t="s">
         <v>17</v>
@@ -9325,18 +9032,18 @@
         <v>26</v>
       </c>
       <c r="V1" s="40" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D2" s="17">
         <v>1</v>
@@ -9345,7 +9052,7 @@
         <v>10000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" s="20">
         <v>1.26E-2</v>
@@ -9363,7 +9070,7 @@
         <v>24</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M2" s="2">
         <v>1457.3</v>
@@ -9390,21 +9097,21 @@
         <v>15</v>
       </c>
       <c r="U2" s="14" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="V2" s="11" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D3" s="17">
         <v>10000000</v>
@@ -9413,7 +9120,7 @@
         <v>1E+16</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G3" s="20">
         <v>1.26E-2</v>
@@ -9431,7 +9138,7 @@
         <v>24</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M3" s="2">
         <v>1457.3</v>
@@ -9458,21 +9165,21 @@
         <v>15</v>
       </c>
       <c r="U3" s="14" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="V3" s="11" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D4" s="17">
         <v>1</v>
@@ -9481,7 +9188,7 @@
         <v>10000000</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G4" s="20">
         <v>3.15E-2</v>
@@ -9499,7 +9206,7 @@
         <v>24</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M4" s="2">
         <v>1457.3</v>
@@ -9529,18 +9236,18 @@
         <v>24</v>
       </c>
       <c r="V4" s="11" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D5" s="17">
         <v>10000000</v>
@@ -9549,7 +9256,7 @@
         <v>1E+16</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G5" s="20">
         <v>3.15E-2</v>
@@ -9567,7 +9274,7 @@
         <v>24</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M5" s="19">
         <v>1457.3</v>
@@ -9594,13 +9301,13 @@
         <v>15</v>
       </c>
       <c r="U5" s="14" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="V5" s="11" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
@@ -9608,7 +9315,7 @@
       <c r="K6" s="9"/>
       <c r="V6" s="9"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>

--- a/cea/databases/SG/components/CONVERSION.xlsx
+++ b/cea/databases/SG/components/CONVERSION.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmccarty/GitHub/CityEnergyAnalyst/cea/databases/SG/components/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6024249-AA01-9F43-902B-E176A80A5473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8164DEA4-6878-754B-992B-2317487E1856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="22620" windowHeight="13500" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -773,9 +773,6 @@
     <t>capacity_Wp</t>
   </si>
   <si>
-    <t>primar_energy_kWh_m2</t>
-  </si>
-  <si>
     <t>cost_facade_euro_m2</t>
   </si>
   <si>
@@ -804,6 +801,9 @@
   </si>
   <si>
     <t>PV4</t>
+  </si>
+  <si>
+    <t>primary_energy_kWh_m2</t>
   </si>
 </sst>
 </file>
@@ -1586,8 +1586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:AH5"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD2" sqref="AD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1701,24 +1701,24 @@
         <v>33</v>
       </c>
       <c r="AD1" s="36" t="s">
+        <v>250</v>
+      </c>
+      <c r="AE1" s="36" t="s">
         <v>240</v>
       </c>
-      <c r="AE1" s="36" t="s">
+      <c r="AF1" s="36" t="s">
         <v>241</v>
       </c>
-      <c r="AF1" s="36" t="s">
+      <c r="AG1" s="36" t="s">
         <v>242</v>
       </c>
-      <c r="AG1" s="36" t="s">
+      <c r="AH1" s="36" t="s">
         <v>243</v>
-      </c>
-      <c r="AH1" s="36" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>27</v>
@@ -1817,12 +1817,12 @@
         <v>255.76616110000001</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>31</v>
@@ -1921,12 +1921,12 @@
         <v>191.18310840000001</v>
       </c>
       <c r="AH3" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>32</v>
@@ -2026,15 +2026,15 @@
         <v>47.550374410000003</v>
       </c>
       <c r="AH4" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>249</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>250</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>28</v>
@@ -2131,7 +2131,7 @@
         <v>75.914425350000002</v>
       </c>
       <c r="AH5" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
